--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9A687-953F-4A15-8DED-29C6B7AA97BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5632432-257B-492B-88DC-3E50D626508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1539">
   <si>
     <t>人物属性</t>
   </si>
@@ -2120,9 +2120,6 @@
     <t>绑定</t>
   </si>
   <si>
-    <t>初级炼金石</t>
-  </si>
-  <si>
     <t>智力+20点  法术强度+30</t>
   </si>
   <si>
@@ -2144,9 +2141,6 @@
     <t>给项链随机附加10-50点攻击强度</t>
   </si>
   <si>
-    <t>初级魔金石</t>
-  </si>
-  <si>
     <t>力量+20点  攻击强度+30</t>
   </si>
   <si>
@@ -2168,9 +2162,6 @@
     <t>给戒指随机附加10-50点法术强度</t>
   </si>
   <si>
-    <t>格挡值提升50-100%</t>
-  </si>
-  <si>
     <t>韧性等级随机提升50-200点</t>
   </si>
   <si>
@@ -2186,16 +2177,10 @@
     <t>生命提升150-500点</t>
   </si>
   <si>
-    <t>生命提升250-750点</t>
-  </si>
-  <si>
     <t>闪避等级提升10-50点</t>
   </si>
   <si>
     <t>闪避等级提升30-75点</t>
-  </si>
-  <si>
-    <t>闪避等级提升30-100点</t>
   </si>
   <si>
     <t>暴击等级随机提升100-250点</t>
@@ -4794,7 +4779,99 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>技能伤害加成提升1%-3%</t>
+    <t>闪避等级提升30-100点</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命提升250-750点</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士石魔法书</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>15个</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡值提升50-100</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+1-3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成提升1-3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率提升1-3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间缩减1-3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性提升1-3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害提升10-60点</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢磨刀石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利磨刀石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>光灵之石</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害加成提升1%-3%</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -4805,7 +4882,7 @@
   <numFmts count="1">
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5000,6 +5077,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5138,7 +5223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5346,6 +5431,12 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6883,160 +6974,160 @@
     <row r="1" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Z7" s="7" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="8" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Z8" s="13" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="10" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Z10" s="5" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Z11" s="5" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="T12" s="7" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="14" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7044,30 +7135,30 @@
         <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="15" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="AB15" s="26" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="2:30" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7075,10 +7166,10 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="S16"/>
       <c r="T16"/>
@@ -7092,26 +7183,26 @@
     </row>
     <row r="17" spans="3:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="S17" s="1"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -7119,36 +7210,36 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="R18" s="3" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="3" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>282</v>
       </c>
       <c r="W18" s="18"/>
       <c r="X18" s="3" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="16" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -7156,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
@@ -7170,23 +7261,23 @@
       </c>
       <c r="W19" s="20"/>
       <c r="X19" s="21" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="Z19" s="16" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="7" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -7197,7 +7288,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="T20" s="3">
         <v>2</v>
@@ -7211,23 +7302,23 @@
       </c>
       <c r="W20" s="22"/>
       <c r="X20" s="21" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="7" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -7241,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="T21" s="3">
         <v>2</v>
@@ -7255,23 +7346,23 @@
       </c>
       <c r="W21" s="20"/>
       <c r="X21" s="23" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="Z21" s="17" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="7" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="AC21" s="14"/>
     </row>
     <row r="22" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -7285,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="T22" s="3">
         <v>2</v>
@@ -7299,29 +7390,29 @@
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="21" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="23" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="17" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -7333,7 +7424,7 @@
         <v>5</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="T23" s="3">
         <v>2</v>
@@ -7347,26 +7438,26 @@
       </c>
       <c r="W23" s="20"/>
       <c r="X23" s="7" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="Z23" s="17" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="7" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J24" s="1"/>
       <c r="K24" s="17" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -7378,7 +7469,7 @@
         <v>6</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="T24" s="3">
         <v>2</v>
@@ -7392,20 +7483,20 @@
       </c>
       <c r="W24" s="22"/>
       <c r="X24" s="23" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J25" s="1"/>
       <c r="K25" s="17" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -7417,7 +7508,7 @@
         <v>7</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="T25" s="3">
         <v>2</v>
@@ -7431,20 +7522,20 @@
       </c>
       <c r="W25" s="20"/>
       <c r="X25" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Z25" s="16" t="s">
         <v>1198</v>
-      </c>
-      <c r="Y25" s="7" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>1203</v>
       </c>
       <c r="AA25" s="13"/>
     </row>
     <row r="26" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J26" s="1"/>
       <c r="K26" s="17" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -7456,7 +7547,7 @@
         <v>8</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="T26" s="3">
         <v>2</v>
@@ -7475,7 +7566,7 @@
     <row r="27" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J27" s="1"/>
       <c r="K27" s="17" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
@@ -7487,7 +7578,7 @@
         <v>9</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="T27" s="3">
         <v>2</v>
@@ -7501,7 +7592,7 @@
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="20" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="AA27" s="3"/>
     </row>
@@ -7518,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="T28" s="3">
         <v>2</v>
@@ -7532,19 +7623,19 @@
       </c>
       <c r="W28" s="22"/>
       <c r="X28" s="24" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J29" s="3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>222</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="S29" s="3"/>
       <c r="X29" s="13"/>
@@ -7553,7 +7644,7 @@
     <row r="30" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="L30" s="3"/>
       <c r="S30" s="3"/>
@@ -7563,18 +7654,18 @@
     <row r="31" spans="3:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="32" spans="3:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="T32" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="33" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K33" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -7583,48 +7674,48 @@
         <v>1000101</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="34" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="L34" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="P34" s="3">
         <v>1000201</v>
       </c>
       <c r="R34" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>1219</v>
-      </c>
       <c r="T34" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="35" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7635,22 +7726,22 @@
         <v>1000301</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="36" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7667,22 +7758,22 @@
         <v>1000401</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="37" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7699,22 +7790,22 @@
         <v>1000501</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7728,22 +7819,22 @@
         <v>1000601</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7757,22 +7848,22 @@
         <v>1000701</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="40" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7786,22 +7877,22 @@
         <v>1000801</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="41" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7812,16 +7903,16 @@
         <v>40</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="AE41" s="3">
         <v>80001001</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="42" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7835,19 +7926,19 @@
         <v>80001001</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>354</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="AE42" s="3">
         <v>80001002</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="43" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7861,19 +7952,19 @@
         <v>80001002</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="AE43" s="3">
         <v>80001003</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="44" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7881,19 +7972,19 @@
         <v>80001003</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="AE44" s="3">
         <v>80001004</v>
       </c>
       <c r="AF44" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="45" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7901,19 +7992,19 @@
         <v>80001004</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AE45" s="3">
         <v>80001005</v>
       </c>
       <c r="AF45" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="46" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7924,19 +8015,19 @@
         <v>80001005</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="AE46" s="3">
         <v>80001006</v>
       </c>
       <c r="AF46" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="47" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7944,19 +8035,19 @@
         <v>80001006</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="AE47" s="3">
         <v>80001007</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="48" spans="2:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7964,19 +8055,19 @@
         <v>80001007</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="AE48" s="3">
         <v>80001008</v>
       </c>
       <c r="AF48" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7984,19 +8075,19 @@
         <v>80001008</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="AE49" s="3">
         <v>80001009</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="50" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8004,13 +8095,13 @@
         <v>80001009</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="AE50" s="3">
         <v>80001010</v>
@@ -8027,16 +8118,16 @@
         <v>354</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="AE51" s="3">
         <v>80001011</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="52" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8044,19 +8135,19 @@
         <v>80001011</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="AE52" s="3">
         <v>80001012</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="53" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8064,13 +8155,13 @@
         <v>80001012</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="AE53" s="3">
         <v>80001013</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="54" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8078,13 +8169,13 @@
         <v>80001013</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AE54" s="3">
         <v>80001014</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="55" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8092,13 +8183,13 @@
         <v>80001014</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="AE55" s="3">
         <v>80001015</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="56" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8106,10 +8197,10 @@
         <v>80001015</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="AE56" s="3">
         <v>80001016</v>
@@ -8126,39 +8217,39 @@
         <v>12</v>
       </c>
       <c r="Y57" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="AE57" s="3">
         <v>80001017</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="58" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I58" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="V58" s="3">
         <v>80001017</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="Y58" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="AE58" s="3">
         <v>80001018</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="59" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8166,19 +8257,19 @@
         <v>80001018</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="Y59" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="AE59" s="3">
         <v>80001019</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="60" spans="9:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8186,19 +8277,19 @@
         <v>80001019</v>
       </c>
       <c r="W60" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Z60" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="Y60" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="Z60" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="AE60" s="3">
         <v>80001020</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="61" spans="9:32" ht="20.100000000000001" customHeight="1">
@@ -8206,13 +8297,13 @@
         <v>80001020</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="Y61" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="62" spans="9:32" ht="20.100000000000001" customHeight="1"/>
@@ -8220,15 +8311,15 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="Y63" s="7" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="64" spans="9:32" ht="20.100000000000001" customHeight="1">
       <c r="Y64" s="7" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
@@ -8255,10 +8346,10 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
@@ -8267,7 +8358,7 @@
         <v>1000101</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -8276,7 +8367,7 @@
         <v>80001001</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8292,13 +8383,13 @@
         <v>80001014</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="O66" s="3">
         <v>80001015</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" t="str">
@@ -8311,10 +8402,10 @@
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
@@ -8323,7 +8414,7 @@
         <v>1000201</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -8332,13 +8423,13 @@
         <v>80001002</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="G67" s="7">
         <v>80001013</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -8346,13 +8437,13 @@
         <v>80001009</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="M67" s="3">
         <v>80001018</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
@@ -8366,10 +8457,10 @@
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
@@ -8378,7 +8469,7 @@
         <v>1000301</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -8387,7 +8478,7 @@
         <v>80001018</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -8397,19 +8488,19 @@
         <v>80001012</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="M68" s="3">
         <v>80001004</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="O68" s="3">
         <v>80001007</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" t="str">
@@ -8422,10 +8513,10 @@
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="7" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
@@ -8434,7 +8525,7 @@
         <v>1000401</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
@@ -8443,13 +8534,13 @@
         <v>80001004</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="G69" s="3">
         <v>80001018</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -8457,13 +8548,13 @@
         <v>80001004</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="M69" s="3">
         <v>80002007</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
@@ -8483,7 +8574,7 @@
         <v>1000501</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
@@ -8492,13 +8583,13 @@
         <v>80001005</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="G70" s="3">
         <v>80001019</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -8506,13 +8597,13 @@
         <v>80001017</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="M70" s="3">
         <v>80001008</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
@@ -8532,7 +8623,7 @@
         <v>1000601</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -8541,7 +8632,7 @@
         <v>80001006</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -8549,7 +8640,7 @@
         <v>80001015</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="M71" s="3">
         <v>80001010</v>
@@ -8561,7 +8652,7 @@
         <v>80002006</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" t="str">
@@ -8580,7 +8671,7 @@
         <v>1000701</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
@@ -8589,26 +8680,26 @@
         <v>80001007</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="G72" s="3">
         <v>80001005</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" s="3">
         <v>80001006</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="M72" s="3">
         <v>80002018</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
@@ -8628,7 +8719,7 @@
         <v>1000801</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
@@ -8637,13 +8728,13 @@
         <v>80001008</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G73" s="3">
         <v>80001020</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -8651,13 +8742,13 @@
         <v>80001011</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="M73" s="3">
         <v>80002015</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="R73" t="str">
         <f t="shared" si="1"/>
@@ -8675,7 +8766,7 @@
         <v>1000901</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
@@ -8684,13 +8775,13 @@
         <v>80001009</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="G74" s="3">
         <v>80001002</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -8698,13 +8789,13 @@
         <v>80002001</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="M74" s="3">
         <v>80001014</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -8724,7 +8815,7 @@
         <v>1001001</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D75" s="3">
         <v>3</v>
@@ -8739,7 +8830,7 @@
         <v>80001001</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -8747,13 +8838,13 @@
         <v>80001002</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="M75" s="3">
         <v>80002001</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
@@ -8773,7 +8864,7 @@
         <v>1001101</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
@@ -8782,13 +8873,13 @@
         <v>80001011</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G76" s="7">
         <v>80001003</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -8796,13 +8887,13 @@
         <v>80001015</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="M76" s="3">
         <v>80002002</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
@@ -8822,7 +8913,7 @@
         <v>1001201</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D77" s="3">
         <v>3</v>
@@ -8831,13 +8922,13 @@
         <v>80001012</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="G77" s="3">
         <v>80001017</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -8845,13 +8936,13 @@
         <v>80002010</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="M77" s="3">
         <v>80002003</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
@@ -8871,7 +8962,7 @@
         <v>1001301</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
@@ -8880,13 +8971,13 @@
         <v>80001006</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="G78" s="3">
         <v>80001018</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -8894,13 +8985,13 @@
         <v>80002004</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="M78" s="3">
         <v>80002016</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -8920,7 +9011,7 @@
         <v>1001401</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
@@ -8929,13 +9020,13 @@
         <v>80001014</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="G79" s="3">
         <v>80002008</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -8943,13 +9034,13 @@
         <v>80002009</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="M79" s="3">
         <v>80002013</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="R79" t="str">
         <f t="shared" si="1"/>
@@ -9046,55 +9137,55 @@
         <v>2000001</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="D87" s="3">
         <v>80002019</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F87" s="3">
         <v>80002017</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="H87" s="3">
         <v>80002016</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="J87" s="3">
         <v>80002014</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="L87" s="3">
         <v>80002010</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="N87" s="3">
         <v>80002012</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="P87" s="3">
         <v>80002009</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="R87" s="3">
         <v>80002008</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="5" t="str">
@@ -9110,55 +9201,55 @@
         <v>2000002</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="D88" s="3">
         <v>80002003</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F88" s="3">
         <v>80002002</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="H88" s="3">
         <v>80002001</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="J88" s="3">
         <v>80002015</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="L88" s="3">
         <v>80002014</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="N88" s="3">
         <v>80002010</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="P88" s="3">
         <v>80002006</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="R88" s="3">
         <v>80002004</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="U88" s="5" t="str">
         <f>D88&amp;";"&amp;F88&amp;";"&amp;H88&amp;";"&amp;J88&amp;";"&amp;L88&amp;";"&amp;N88&amp;";"&amp;P88&amp;";"&amp;R88</f>
@@ -9173,49 +9264,49 @@
         <v>80002002</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F89" s="3">
         <v>80002001</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="H89" s="3">
         <v>80002006</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="J89" s="3">
         <v>80002011</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="L89" s="3">
         <v>80002012</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="N89" s="3">
         <v>80002018</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="P89" s="3">
         <v>80002019</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="R89" s="3">
         <v>80002005</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="U89" s="5" t="str">
         <f>D89&amp;";"&amp;F89&amp;";"&amp;H89&amp;";"&amp;J89&amp;";"&amp;L89&amp;";"&amp;N89&amp;";"&amp;P89&amp;";"&amp;R89</f>
@@ -9229,19 +9320,19 @@
         <v>80001001</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D92" s="3">
         <v>80002001</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F92" s="3">
         <v>80003001</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20.100000000000001" customHeight="1">
@@ -9249,19 +9340,19 @@
         <v>80001002</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="D93" s="3">
         <v>80002002</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F93" s="3">
         <v>80003002</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20.100000000000001" customHeight="1">
@@ -9269,19 +9360,19 @@
         <v>80001003</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="D94" s="3">
         <v>80002003</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F94" s="3">
         <v>80003003</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20.100000000000001" customHeight="1">
@@ -9289,19 +9380,19 @@
         <v>80001004</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D95" s="3">
         <v>80002004</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F95" s="3">
         <v>80003004</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20.100000000000001" customHeight="1">
@@ -9309,19 +9400,19 @@
         <v>80001005</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="D96" s="3">
         <v>80002005</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="F96" s="3">
         <v>80003005</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -9329,19 +9420,19 @@
         <v>80001006</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D97" s="3">
         <v>80002006</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F97" s="3">
         <v>80003006</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -9349,19 +9440,19 @@
         <v>80001007</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D98" s="3">
         <v>80002007</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F98" s="3">
         <v>80003007</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -9369,19 +9460,19 @@
         <v>80001008</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D99" s="3">
         <v>80002008</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="F99" s="3">
         <v>80003008</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -9389,19 +9480,19 @@
         <v>80001009</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="D100" s="3">
         <v>80002009</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F100" s="3">
         <v>80003009</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="20.100000000000001" customHeight="1">
@@ -9415,13 +9506,13 @@
         <v>80002010</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F101" s="3">
         <v>80003010</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -9429,13 +9520,13 @@
         <v>80001011</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="D102" s="3">
         <v>80002011</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -9445,13 +9536,13 @@
         <v>80001012</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D103" s="3">
         <v>80002012</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -9461,13 +9552,13 @@
         <v>80001013</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="D104" s="3">
         <v>80002013</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -9477,13 +9568,13 @@
         <v>80001014</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D105" s="3">
         <v>80002014</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -9493,13 +9584,13 @@
         <v>80001015</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D106" s="3">
         <v>80002015</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -9515,7 +9606,7 @@
         <v>80002016</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -9525,13 +9616,13 @@
         <v>80001017</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D108" s="3">
         <v>80002017</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -9541,13 +9632,13 @@
         <v>80001018</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="D109" s="3">
         <v>80002018</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -9557,13 +9648,13 @@
         <v>80001019</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="D110" s="3">
         <v>80002019</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -9573,13 +9664,13 @@
         <v>80001020</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="D111" s="3">
         <v>80002020</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -9664,7 +9755,7 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -9718,15 +9809,15 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="15" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -9764,15 +9855,15 @@
       <c r="L4" s="3"/>
       <c r="N4" s="7"/>
       <c r="O4" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="15" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -9818,15 +9909,15 @@
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="15" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -9876,15 +9967,15 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -9922,7 +10013,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="15" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="T7" s="1"/>
     </row>
@@ -9956,7 +10047,7 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="3" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="P8" s="3">
         <f>4*5+1*5</f>
@@ -11911,7 +12002,7 @@
         <v>29</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>490</v>
@@ -11929,7 +12020,7 @@
         <v>29</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>25</v>
@@ -11938,7 +12029,7 @@
         <v>26</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18379,11 +18470,11 @@
       <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="O3" s="3"/>
       <c r="R3" s="1" t="s">
@@ -18425,19 +18516,19 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="S4" s="3">
         <v>1580</v>
@@ -18476,16 +18567,16 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="3" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="K5" s="3">
         <v>2</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="S5" s="3">
         <v>2360</v>
@@ -18524,16 +18615,16 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="3" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="K6" s="3">
         <v>3</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="S6" s="3">
         <v>3150</v>
@@ -18572,10 +18663,10 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="L7" s="3" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="S7" s="3">
         <v>3940</v>
@@ -18614,10 +18705,10 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="L8" s="3" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="S8" s="3">
         <v>4730</v>
@@ -18656,10 +18747,10 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="L9" s="3" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="S9" s="3">
         <v>5510</v>
@@ -18698,10 +18789,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="L10" s="3" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="S10" s="3">
         <v>6300</v>
@@ -19166,29 +19257,29 @@
     <row r="1" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="E2" s="3" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="3" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="3" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="4" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D4" s="3" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="E4" s="3">
         <v>130</v>
@@ -19196,7 +19287,7 @@
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="E5" s="3">
         <v>150</v>
@@ -19206,13 +19297,13 @@
     <row r="7" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="8" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I8" s="3" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19220,13 +19311,13 @@
         <v>467</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="10" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19234,7 +19325,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -19245,7 +19336,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>28</v>
@@ -19276,7 +19367,7 @@
     <row r="16" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="17" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H17" s="3" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>436</v>
@@ -19295,10 +19386,10 @@
     <row r="24" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="25" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H25" s="3" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="26" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -19341,13 +19432,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>26</v>
@@ -19369,13 +19460,13 @@
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="7" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>25</v>
@@ -19393,16 +19484,16 @@
         <v>29</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>2</v>
@@ -19457,7 +19548,7 @@
         <v>101</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
@@ -19555,7 +19646,7 @@
         <v>102</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="S3" s="7">
         <v>1</v>
@@ -19653,7 +19744,7 @@
         <v>103</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="S4" s="7">
         <v>1</v>
@@ -19751,7 +19842,7 @@
         <v>303</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="S5" s="7">
         <v>3</v>
@@ -19849,7 +19940,7 @@
         <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="S6" s="7">
         <v>1</v>
@@ -19947,7 +20038,7 @@
         <v>104</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="S7" s="7">
         <v>1</v>
@@ -20045,7 +20136,7 @@
         <v>104</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="S8" s="7">
         <v>1</v>
@@ -20143,7 +20234,7 @@
         <v>104</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="S9" s="7">
         <v>1</v>
@@ -20241,7 +20332,7 @@
         <v>305</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="S10" s="7">
         <v>3</v>
@@ -20339,7 +20430,7 @@
         <v>107</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="S11" s="7">
         <v>1</v>
@@ -20437,7 +20528,7 @@
         <v>107</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="S12" s="7">
         <v>1</v>
@@ -20535,7 +20626,7 @@
         <v>108</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="S13" s="7">
         <v>1</v>
@@ -20633,7 +20724,7 @@
         <v>310</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="S14" s="7">
         <v>3</v>
@@ -20731,7 +20822,7 @@
         <v>110</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="S15" s="7">
         <v>1</v>
@@ -20829,7 +20920,7 @@
         <v>110</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="S16" s="7">
         <v>1</v>
@@ -20927,7 +21018,7 @@
         <v>110</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="S17" s="7">
         <v>1</v>
@@ -21025,7 +21116,7 @@
         <v>110</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="S18" s="7">
         <v>1</v>
@@ -21123,7 +21214,7 @@
         <v>110</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="S19" s="7">
         <v>1</v>
@@ -21221,7 +21312,7 @@
         <v>312</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="S20" s="7">
         <v>3</v>
@@ -21319,7 +21410,7 @@
         <v>113</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="S21" s="7">
         <v>1</v>
@@ -21417,7 +21508,7 @@
         <v>113</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="S22" s="7">
         <v>1</v>
@@ -21515,7 +21606,7 @@
         <v>315</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="S23" s="7">
         <v>3</v>
@@ -21613,7 +21704,7 @@
         <v>119</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="S24" s="7">
         <v>1</v>
@@ -21711,7 +21802,7 @@
         <v>119</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="S25" s="7">
         <v>1</v>
@@ -21809,7 +21900,7 @@
         <v>322</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="S26" s="7">
         <v>3</v>
@@ -21907,7 +21998,7 @@
         <v>123</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="S27" s="7">
         <v>1</v>
@@ -22005,7 +22096,7 @@
         <v>123</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="S28" s="7">
         <v>1</v>
@@ -22103,7 +22194,7 @@
         <v>325</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="S29" s="7">
         <v>3</v>
@@ -22201,7 +22292,7 @@
         <v>325</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="S30" s="7">
         <v>3</v>
@@ -22299,7 +22390,7 @@
         <v>126</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="S31" s="7">
         <v>1</v>
@@ -22397,7 +22488,7 @@
         <v>126</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="S32" s="7">
         <v>1</v>
@@ -22466,7 +22557,7 @@
         <v>127</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="S33" s="7">
         <v>1</v>
@@ -22535,7 +22626,7 @@
         <v>128</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="S34" s="7">
         <v>1</v>
@@ -22604,7 +22695,7 @@
         <v>329</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="S35" s="7">
         <v>3</v>
@@ -22673,7 +22764,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="S36" s="7">
         <v>1</v>
@@ -22742,7 +22833,7 @@
         <v>130</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="S37" s="7">
         <v>1</v>
@@ -22811,7 +22902,7 @@
         <v>332</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="S38" s="7">
         <v>3</v>
@@ -22880,7 +22971,7 @@
         <v>132</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="S39" s="7">
         <v>1</v>
@@ -22949,7 +23040,7 @@
         <v>132</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="S40" s="7">
         <v>1</v>
@@ -23018,7 +23109,7 @@
         <v>334</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="S41" s="7">
         <v>3</v>
@@ -23087,7 +23178,7 @@
         <v>134</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="S42" s="7">
         <v>1</v>
@@ -23156,7 +23247,7 @@
         <v>134</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="S43" s="7">
         <v>1</v>
@@ -23225,7 +23316,7 @@
         <v>135</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="S44" s="7">
         <v>1</v>
@@ -23250,10 +23341,10 @@
         <v>870</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF44" s="7"/>
     </row>
@@ -23298,7 +23389,7 @@
         <v>135</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="S45" s="7">
         <v>1</v>
@@ -23323,10 +23414,10 @@
         <v>870</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF45" s="7"/>
     </row>
@@ -23371,7 +23462,7 @@
         <v>136</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="S46" s="7">
         <v>1</v>
@@ -23396,10 +23487,10 @@
         <v>900</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="AE46" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF46" s="7"/>
     </row>
@@ -23444,7 +23535,7 @@
         <v>336</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="S47" s="7">
         <v>3</v>
@@ -23469,10 +23560,10 @@
         <v>1125</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="AF47" s="7"/>
     </row>
@@ -23517,7 +23608,7 @@
         <v>138</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="S48" s="7">
         <v>1</v>
@@ -23542,10 +23633,10 @@
         <v>960</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF48" s="7"/>
     </row>
@@ -23590,7 +23681,7 @@
         <v>137</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="S49" s="7">
         <v>1</v>
@@ -23615,10 +23706,10 @@
         <v>930</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF49" s="7"/>
     </row>
@@ -23663,7 +23754,7 @@
         <v>137</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="S50" s="7">
         <v>1</v>
@@ -23688,10 +23779,10 @@
         <v>930</v>
       </c>
       <c r="AD50" s="9" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="AE50" s="10" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="AF50" s="7"/>
     </row>
@@ -23736,7 +23827,7 @@
         <v>339</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="S51" s="7">
         <v>3</v>
@@ -23761,10 +23852,10 @@
         <v>1238</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF51" s="7"/>
       <c r="AI51" s="3"/>
@@ -23813,7 +23904,7 @@
         <v>140</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="S52" s="7">
         <v>1</v>
@@ -23838,10 +23929,10 @@
         <v>1020</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="AE52" s="8" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="AF52" s="7"/>
       <c r="AI52" s="3"/>
@@ -23890,7 +23981,7 @@
         <v>140</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="S53" s="7">
         <v>1</v>
@@ -23915,10 +24006,10 @@
         <v>1020</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="AE53" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF53" s="7"/>
       <c r="AI53" s="3"/>
@@ -23967,7 +24058,7 @@
         <v>342</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="S54" s="7">
         <v>3</v>
@@ -23992,10 +24083,10 @@
         <v>1500</v>
       </c>
       <c r="AD54" s="9" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="AE54" s="10" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF54" s="7"/>
       <c r="AI54" s="3"/>
@@ -24044,7 +24135,7 @@
         <v>142</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="S55" s="7">
         <v>1</v>
@@ -24069,10 +24160,10 @@
         <v>1200</v>
       </c>
       <c r="AD55" s="9" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="AE55" s="10" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF55" s="7"/>
       <c r="AI55" s="3"/>
@@ -24121,7 +24212,7 @@
         <v>142</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="S56" s="7">
         <v>1</v>
@@ -24146,10 +24237,10 @@
         <v>1200</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="AE56" s="8" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="AF56" s="7"/>
       <c r="AI56" s="3"/>
@@ -24198,7 +24289,7 @@
         <v>344</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="S57" s="7">
         <v>3</v>
@@ -24223,10 +24314,10 @@
         <v>1575</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="AE57" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF57" s="7"/>
       <c r="AI57" s="3"/>
@@ -24275,7 +24366,7 @@
         <v>145</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="S58" s="7">
         <v>1</v>
@@ -24300,10 +24391,10 @@
         <v>1290</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="AE58" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF58" s="7"/>
       <c r="AI58" s="3"/>
@@ -24352,7 +24443,7 @@
         <v>144</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="S59" s="7">
         <v>1</v>
@@ -24377,10 +24468,10 @@
         <v>1260</v>
       </c>
       <c r="AD59" s="9" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="AE59" s="10" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF59" s="7"/>
       <c r="AI59" s="3"/>
@@ -24429,7 +24520,7 @@
         <v>144</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="S60" s="7">
         <v>1</v>
@@ -24454,10 +24545,10 @@
         <v>1260</v>
       </c>
       <c r="AD60" s="9" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="AE60" s="10" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF60" s="7"/>
       <c r="AI60" s="3"/>
@@ -24506,7 +24597,7 @@
         <v>346</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="S61" s="7">
         <v>3</v>
@@ -24531,10 +24622,10 @@
         <v>1650</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="AE61" s="8" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="AF61" s="7"/>
       <c r="AI61" s="3"/>
@@ -24583,7 +24674,7 @@
         <v>146</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="S62" s="7">
         <v>1</v>
@@ -24608,10 +24699,10 @@
         <v>1320</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="AE62" s="8" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="AF62" s="7"/>
       <c r="AI62" s="3"/>
@@ -24660,7 +24751,7 @@
         <v>147</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="S63" s="7">
         <v>1</v>
@@ -24685,10 +24776,10 @@
         <v>1350</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="AE63" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF63" s="7"/>
       <c r="AI63" s="3"/>
@@ -24737,7 +24828,7 @@
         <v>349</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="S64" s="7">
         <v>3</v>
@@ -24762,10 +24853,10 @@
         <v>1763</v>
       </c>
       <c r="AD64" s="9" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="AE64" s="10" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF64" s="7"/>
       <c r="AI64" s="3"/>
@@ -24814,7 +24905,7 @@
         <v>150</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="S65" s="7">
         <v>1</v>
@@ -24839,10 +24930,10 @@
         <v>1440</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="AE65" s="8" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="AF65" s="7"/>
       <c r="AI65" s="3"/>
@@ -24891,7 +24982,7 @@
         <v>151</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="S66" s="7">
         <v>1</v>
@@ -24916,10 +25007,10 @@
         <v>1590</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="AE66" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF66" s="7"/>
       <c r="AI66" s="3"/>
@@ -24968,7 +25059,7 @@
         <v>352</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="S67" s="7">
         <v>3</v>
@@ -24993,10 +25084,10 @@
         <v>2025</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="AE67" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF67" s="7"/>
       <c r="AI67" s="3"/>
@@ -25045,7 +25136,7 @@
         <v>354</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="S68" s="7">
         <v>3</v>
@@ -25070,10 +25161,10 @@
         <v>2100</v>
       </c>
       <c r="AD68" s="2" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="AE68" s="8" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="AF68" s="7"/>
       <c r="AI68" s="3"/>
@@ -25122,7 +25213,7 @@
         <v>152</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="S69" s="7">
         <v>1</v>
@@ -25147,10 +25238,10 @@
         <v>1620</v>
       </c>
       <c r="AD69" s="2" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="AE69" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF69" s="7"/>
       <c r="AI69" s="3"/>
@@ -25199,7 +25290,7 @@
         <v>150</v>
       </c>
       <c r="R70" s="7" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="S70" s="7">
         <v>1</v>
@@ -25224,10 +25315,10 @@
         <v>1440</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="AE70" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF70" s="7"/>
       <c r="AI70" s="3"/>
@@ -25276,7 +25367,7 @@
         <v>150</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="S71" s="7">
         <v>1</v>
@@ -25301,10 +25392,10 @@
         <v>1440</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="AE71" s="8" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="AF71" s="7"/>
       <c r="AI71" s="3"/>
@@ -25318,7 +25409,7 @@
         <v>150</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="S72" s="7">
         <v>1</v>
@@ -25343,10 +25434,10 @@
         <v>1440</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="AE72" s="8" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="AF72" s="7"/>
       <c r="AI72" s="3"/>
@@ -25360,7 +25451,7 @@
         <v>155</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="S73" s="7">
         <v>1</v>
@@ -25385,10 +25476,10 @@
         <v>1710</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="AE73" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF73" s="7"/>
       <c r="AI73" s="3"/>
@@ -25398,13 +25489,13 @@
     </row>
     <row r="74" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="6" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>2</v>
@@ -25423,7 +25514,7 @@
         <v>356</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="S74" s="7">
         <v>3</v>
@@ -25448,10 +25539,10 @@
         <v>2175</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="AE74" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF74" s="7"/>
       <c r="AI74" s="3"/>
@@ -25494,7 +25585,7 @@
         <v>358</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="S75" s="7">
         <v>3</v>
@@ -25519,10 +25610,10 @@
         <v>2250</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="AE75" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF75" s="7"/>
       <c r="AI75" s="3"/>
@@ -25565,7 +25656,7 @@
         <v>360</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="S76" s="7">
         <v>3</v>
@@ -25590,10 +25681,10 @@
         <v>2325</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="AE76" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="AF76" s="7"/>
       <c r="AI76" s="3"/>
@@ -25636,10 +25727,10 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="AD77" s="2" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="AE77" s="8" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -25677,10 +25768,10 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="AD78" s="2" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="AE78" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -25718,10 +25809,10 @@
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="AD79" s="2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="AE79" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -25759,10 +25850,10 @@
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="AD80" s="2" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="AE80" s="8" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25800,10 +25891,10 @@
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="AD81" s="2" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="AE81" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25837,10 +25928,10 @@
         <v>169</v>
       </c>
       <c r="AD82" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AE82" s="8" t="s">
         <v>1392</v>
-      </c>
-      <c r="AE82" s="8" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25874,10 +25965,10 @@
         <v>188</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="AE83" s="8" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25911,10 +26002,10 @@
         <v>206</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="AE84" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25948,10 +26039,10 @@
         <v>225</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="AE85" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -25985,10 +26076,10 @@
         <v>244</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="AE86" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26022,10 +26113,10 @@
         <v>263</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="AE87" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26059,10 +26150,10 @@
         <v>281</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="AE88" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26096,10 +26187,10 @@
         <v>300</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="AE89" s="8" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26133,10 +26224,10 @@
         <v>319</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="AE90" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26170,10 +26261,10 @@
         <v>338</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="AE91" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26207,10 +26298,10 @@
         <v>356</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="AE92" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26244,10 +26335,10 @@
         <v>375</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="AE93" s="8" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26281,10 +26372,10 @@
         <v>394</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="AE94" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26318,10 +26409,10 @@
         <v>413</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="AE95" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26355,10 +26446,10 @@
         <v>450</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="AE96" s="8" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26392,10 +26483,10 @@
         <v>488</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="AE97" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26429,10 +26520,10 @@
         <v>525</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="AE98" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26466,10 +26557,10 @@
         <v>563</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="AE99" s="8" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26503,10 +26594,10 @@
         <v>600</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="AE100" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -26540,10 +26631,10 @@
         <v>638</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="AE101" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -26577,10 +26668,10 @@
         <v>675</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="AE102" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -26614,10 +26705,10 @@
         <v>713</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="AE103" s="8" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -26651,10 +26742,10 @@
         <v>750</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="AE104" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -26688,10 +26779,10 @@
         <v>938</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="AE105" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -26725,10 +26816,10 @@
         <v>975</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="AE106" s="8" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -26762,10 +26853,10 @@
         <v>1013</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="AE107" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -26799,10 +26890,10 @@
         <v>1050</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="AE108" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -26836,10 +26927,10 @@
         <v>1088</v>
       </c>
       <c r="AD109" s="2" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="AE109" s="8" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -26873,10 +26964,10 @@
         <v>1125</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="AE110" s="8" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -26910,10 +27001,10 @@
         <v>1163</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="AE111" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -26947,10 +27038,10 @@
         <v>1200</v>
       </c>
       <c r="AD112" s="11" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="AE112" s="12" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -26984,10 +27075,10 @@
         <v>1238</v>
       </c>
       <c r="AD113" s="11" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="AE113" s="12" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -27021,10 +27112,10 @@
         <v>1275</v>
       </c>
       <c r="AD114" s="11" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="AE114" s="12" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -27058,10 +27149,10 @@
         <v>1463</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="AE115" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -27095,10 +27186,10 @@
         <v>1500</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="AE116" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -27132,10 +27223,10 @@
         <v>1538</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="AE117" s="8" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -27169,10 +27260,10 @@
         <v>1575</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="119" spans="1:31">
@@ -28009,50 +28100,50 @@
         <v>72001011</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="H2" s="2">
         <v>72002011</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="N2" s="2">
         <v>72003011</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="S2" s="2">
         <v>72004011</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I3" s="3" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -28060,10 +28151,10 @@
         <v>94</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>81</v>
@@ -28071,16 +28162,16 @@
     </row>
     <row r="6" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="3" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>159</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -28092,51 +28183,51 @@
         <v>72001012</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="H11" s="2">
         <v>72002012</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="N11" s="2">
         <v>72003012</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="S11" s="2">
         <v>72004012</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="12" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="1" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="5" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="13" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="3" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>159</v>
@@ -28144,30 +28235,30 @@
     </row>
     <row r="14" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="3" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="4" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="3" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="3" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="P16" s="4"/>
     </row>
@@ -28184,126 +28275,126 @@
         <v>72001013</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="H21" s="2">
         <v>72002013</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="N21" s="2">
         <v>72003013</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="S21" s="2">
         <v>72004013</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="3" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="24" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="3" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="3" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="26" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>1510</v>
-      </c>
       <c r="U26" s="4" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="27" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="3" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="3" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="29" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -37678,10 +37769,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AE60"/>
+  <dimension ref="B1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37989,12 +38080,12 @@
       </c>
     </row>
     <row r="16" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J17" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Q18" s="3" t="s">
         <v>600</v>
       </c>
@@ -38002,7 +38093,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I19" s="3" t="s">
         <v>613</v>
       </c>
@@ -38018,377 +38109,577 @@
       <c r="P19" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="75" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="V19" s="75" t="s">
+        <v>1534</v>
+      </c>
       <c r="W19" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
+      </c>
+      <c r="X19" s="3">
+        <v>100403</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>392</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>100403</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>392</v>
       </c>
       <c r="AE19" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>100403</v>
+      </c>
+    </row>
+    <row r="20" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I20" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="20" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="Q20" s="75" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="V20" s="75" t="s">
+        <v>1536</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="X20" s="3">
+        <v>119103</v>
+      </c>
+      <c r="AA20" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="AB20" s="3">
+        <v>119103</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AF20" s="3">
+        <v>119103</v>
+      </c>
+    </row>
+    <row r="21" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I21" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="21" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J21" s="3" t="s">
+      <c r="M21" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="W21" s="33" t="s">
-        <v>647</v>
+      <c r="V21" s="75" t="s">
+        <v>1537</v>
+      </c>
+      <c r="W21" s="73" t="s">
+        <v>1519</v>
+      </c>
+      <c r="X21" s="3">
+        <v>110103</v>
       </c>
       <c r="AA21" s="73" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AB21" s="34"/>
+        <v>1512</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>110103</v>
+      </c>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
       <c r="AE21" s="73" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="22" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>1513</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="22" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I22" s="3" t="s">
+        <v>613</v>
+      </c>
       <c r="J22" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="23" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="23" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="U23" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="V23" s="75" t="s">
+        <v>1535</v>
+      </c>
       <c r="W23" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
+      </c>
+      <c r="X23" s="3">
+        <v>100203</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>358</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>100203</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AE23" s="74" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>100203</v>
+      </c>
+    </row>
+    <row r="24" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I24" s="75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="24" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J24" s="3" t="s">
+      <c r="M24" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q24" s="75" t="s">
+        <v>1531</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="X24" s="3">
+        <v>119403</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>119403</v>
+      </c>
+      <c r="AE24" s="74" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>119403</v>
+      </c>
+    </row>
+    <row r="25" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I25" s="75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M25" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="Q25" s="75" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="25" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J25" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="W25" s="73" t="s">
+        <v>1524</v>
+      </c>
+      <c r="X25" s="3">
+        <v>200403</v>
+      </c>
+      <c r="AA25" s="73" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>204603</v>
+      </c>
+      <c r="AE25" s="73" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>200503</v>
+      </c>
+    </row>
+    <row r="26" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I26" s="75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="R25" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="W25" s="5"/>
-      <c r="AA25" s="73" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AE25" s="5"/>
-    </row>
-    <row r="26" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J26" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I27" s="75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="27" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J27" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="M27" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>403</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
+      </c>
+      <c r="X27" s="3">
+        <v>118103</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>403</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>118103</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>403</v>
       </c>
       <c r="AE27" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>118103</v>
+      </c>
+    </row>
+    <row r="28" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="W28" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="X28" s="3">
+        <v>118203</v>
+      </c>
+      <c r="AA28" s="5" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="28" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="W28" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA28" s="5" t="s">
-        <v>672</v>
+      <c r="AB28" s="3">
+        <v>118203</v>
       </c>
       <c r="AE28" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>118203</v>
+      </c>
+    </row>
+    <row r="29" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I29" s="75" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="29" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J29" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>631</v>
+        <v>675</v>
+      </c>
+      <c r="Q29" s="75" t="s">
+        <v>1533</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="W29" s="5"/>
+        <v>676</v>
+      </c>
+      <c r="W29" s="73" t="s">
+        <v>1523</v>
+      </c>
+      <c r="X29" s="3">
+        <v>203603</v>
+      </c>
       <c r="AA29" s="73" t="s">
-        <v>1515</v>
-      </c>
-      <c r="AB29" s="34"/>
+        <v>1510</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>205003</v>
+      </c>
       <c r="AC29" s="34"/>
       <c r="AD29" s="34"/>
       <c r="AE29" s="33" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="30" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>672</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>110303</v>
+      </c>
+    </row>
+    <row r="30" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I30" s="75" t="s">
+        <v>1527</v>
+      </c>
       <c r="J30" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="M30" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q30" s="75" t="s">
+        <v>1532</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G31" s="75" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="R30" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="31" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J31" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="M31" s="5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>385</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
+      </c>
+      <c r="X31" s="3">
+        <v>105403</v>
       </c>
       <c r="Y31" s="3" t="s">
         <v>385</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>105403</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>385</v>
       </c>
       <c r="AE31" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>105403</v>
+      </c>
+    </row>
+    <row r="32" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I32" s="75" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="W32" s="5" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="32" spans="9:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J32" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>689</v>
+      <c r="X32" s="3">
+        <v>105203</v>
       </c>
       <c r="AA32" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>105203</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>105203</v>
+      </c>
+    </row>
+    <row r="33" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="W33" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="X33" s="3">
+        <v>105503</v>
+      </c>
+      <c r="AA33" s="5" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="33" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="W33" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>696</v>
+      <c r="AB33" s="3">
+        <v>105503</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="W34" s="5"/>
+        <v>692</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>105503</v>
+      </c>
+    </row>
+    <row r="34" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="W34" s="73" t="s">
+        <v>1508</v>
+      </c>
+      <c r="X34" s="3">
+        <v>200203</v>
+      </c>
       <c r="AA34" s="73" t="s">
-        <v>1513</v>
-      </c>
-      <c r="AB34" s="34"/>
+        <v>1523</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>203603</v>
+      </c>
       <c r="AC34" s="34"/>
       <c r="AD34" s="34"/>
       <c r="AE34" s="73" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="35" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>1514</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>100202</v>
+      </c>
+    </row>
+    <row r="35" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G36" s="75" t="s">
+        <v>1518</v>
+      </c>
       <c r="U36" s="3" t="s">
         <v>407</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>701</v>
+        <v>696</v>
+      </c>
+      <c r="X36" s="3">
+        <v>105103</v>
       </c>
       <c r="Y36" s="3" t="s">
         <v>407</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>105103</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>407</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="37" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>698</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>105103</v>
+      </c>
+    </row>
+    <row r="37" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="5" t="s">
-        <v>704</v>
+        <v>699</v>
+      </c>
+      <c r="X37" s="3">
+        <v>105303</v>
       </c>
       <c r="AA37" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>105303</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>105303</v>
+      </c>
+    </row>
+    <row r="38" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K38" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="AE37" s="5" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="38" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="K38" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="O38" s="3">
         <f>100/(5000+250*20)</f>
         <v>0.01</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>695</v>
+        <v>690</v>
+      </c>
+      <c r="X38" s="3">
+        <v>105503</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>696</v>
+        <v>691</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>105503</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="39" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>692</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>105503</v>
+      </c>
+    </row>
+    <row r="39" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J39" s="3">
         <v>10</v>
       </c>
@@ -38398,23 +38689,33 @@
       <c r="L39" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="W39" s="5"/>
+      <c r="W39" s="73" t="s">
+        <v>1525</v>
+      </c>
+      <c r="X39" s="3">
+        <v>110303</v>
+      </c>
       <c r="AA39" s="73" t="s">
-        <v>1514</v>
-      </c>
-      <c r="AB39" s="34"/>
+        <v>1509</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>200503</v>
+      </c>
       <c r="AC39" s="34"/>
       <c r="AD39" s="34"/>
       <c r="AE39" s="73" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="40" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>1538</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>200603</v>
+      </c>
+    </row>
+    <row r="40" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K41" s="3">
         <v>3</v>
       </c>
@@ -38422,22 +38723,31 @@
         <v>479</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>707</v>
+        <v>702</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100503</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>479</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100503</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>479</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="42" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>704</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>100503</v>
+      </c>
+    </row>
+    <row r="42" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J42" s="3">
         <v>20</v>
       </c>
@@ -38445,34 +38755,56 @@
         <v>1</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
+      </c>
+      <c r="X42" s="3">
+        <v>100603</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>100603</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="43" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>708</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>100603</v>
+      </c>
+    </row>
+    <row r="43" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K43" s="3">
         <v>2</v>
       </c>
       <c r="V43" s="34" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="W43" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="AA43" s="5"/>
-      <c r="AE43" s="5"/>
-    </row>
-    <row r="44" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>710</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100903</v>
+      </c>
+      <c r="AA43" s="73" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>200103</v>
+      </c>
+      <c r="AE43" s="73" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>200303</v>
+      </c>
+    </row>
+    <row r="44" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J45" s="3">
         <v>30</v>
       </c>
@@ -38480,17 +38812,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K46" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K47" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="10:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J48" s="3">
         <v>40</v>
       </c>
@@ -38605,7 +38937,7 @@
     <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="29"/>
@@ -38618,20 +38950,20 @@
         <v>100</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G10" s="30"/>
       <c r="I10" s="15" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="15" t="s">
@@ -38643,19 +38975,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="15" t="s">
@@ -38664,20 +38996,20 @@
     </row>
     <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>430</v>
       </c>
       <c r="G12" s="30"/>
       <c r="I12" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>430</v>
@@ -38689,20 +39021,20 @@
     </row>
     <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G13" s="30"/>
       <c r="N13" s="15" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="15" t="s">
@@ -38711,13 +39043,13 @@
     </row>
     <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>433</v>
@@ -38725,7 +39057,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="15" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J14" s="30"/>
     </row>
@@ -38757,16 +39089,16 @@
     </row>
     <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="K23" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>600</v>
@@ -38788,7 +39120,7 @@
     </row>
     <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="D25" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -38807,7 +39139,7 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="L26" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="O26" s="30"/>
     </row>
@@ -38835,7 +39167,7 @@
     </row>
     <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="D29" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -38851,7 +39183,7 @@
     </row>
     <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="D31" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -38859,7 +39191,7 @@
     </row>
     <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="D32" s="3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -38973,19 +39305,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="20.100000000000001" customHeight="1">
@@ -39029,17 +39361,17 @@
         <v>6</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="Q2" s="7">
         <v>13</v>
       </c>
       <c r="R2" s="7"/>
       <c r="T2" s="6" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
@@ -39089,7 +39421,7 @@
         <v>7</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="Q3" s="7">
         <v>3</v>
@@ -39099,40 +39431,40 @@
         <v>101</v>
       </c>
       <c r="T3" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>759</v>
       </c>
       <c r="AG3" s="14"/>
       <c r="AH3" s="7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="AJ3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AN3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AT3" s="15"/>
       <c r="AU3" s="29"/>
@@ -39181,7 +39513,7 @@
         <v>8</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="Q4" s="7">
         <f>Q3*总表!K7</f>
@@ -39192,51 +39524,51 @@
         <v>102</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="X4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AD4" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="AG4" s="14"/>
       <c r="AH4" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AJ4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AK4" s="14"/>
       <c r="AN4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="AR4" s="15" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AS4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AT4" s="15" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AU4" s="30"/>
       <c r="AV4" s="15" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AW4" s="29"/>
       <c r="AX4" s="15" t="s">
@@ -39287,51 +39619,51 @@
         <v>103</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="X5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AD5" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="AG5" s="14"/>
       <c r="AH5" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AJ5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AK5" s="14"/>
       <c r="AN5" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AS5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AU5" s="30"/>
       <c r="AV5" s="15" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="AW5" s="29"/>
       <c r="AX5" s="15" t="s">
@@ -39379,7 +39711,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>2</v>
@@ -39395,45 +39727,45 @@
         <v>104</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="X6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AD6" s="3" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
       <c r="AH6" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AJ6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="AK6" s="14"/>
       <c r="AN6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="AR6" s="15" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AT6" s="15" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AU6" s="30"/>
       <c r="AV6" s="15" t="s">
@@ -39503,31 +39835,31 @@
       <c r="X7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AD7" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="AJ7" s="7" t="s">
         <v>394</v>
       </c>
       <c r="AK7" s="14"/>
       <c r="AR7" s="15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="AS7" s="31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="AT7" s="15"/>
       <c r="AU7" s="30"/>
       <c r="AV7" s="15" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="AW7" s="29"/>
       <c r="AX7" s="15" t="s">
@@ -39592,44 +39924,44 @@
       <c r="R8" s="7"/>
       <c r="S8" s="14"/>
       <c r="T8" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="28"/>
       <c r="X8" s="7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="Z8" s="14"/>
       <c r="AD8" s="3" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="AJ8" s="7" t="s">
         <v>397</v>
       </c>
       <c r="AK8" s="14"/>
       <c r="AR8" s="15" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AS8" s="15" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="AU8" s="29"/>
       <c r="AV8" s="29"/>
@@ -39695,34 +40027,34 @@
         <v>102</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Y9" s="3">
         <v>1</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
       <c r="AI9" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="AJ9" s="7" t="s">
         <v>401</v>
@@ -39789,31 +40121,31 @@
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="Y10" s="3">
         <v>2</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
       <c r="AI10" s="7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="AJ10" s="7" t="s">
         <v>405</v>
@@ -39864,26 +40196,26 @@
         <v>104</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="Y11" s="3">
         <f>Y10*2</f>
         <v>4</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
@@ -39936,26 +40268,26 @@
         <v>103</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ref="Y12:Y18" si="5">Y11*2</f>
         <v>8</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="5"/>
@@ -40001,32 +40333,32 @@
         <v>13</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="R13" s="7">
         <v>102</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
@@ -40076,7 +40408,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>2</v>
@@ -40091,39 +40423,39 @@
         <v>104</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AG14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="AK14" s="14"/>
       <c r="AN14" s="3" t="s">
@@ -40190,26 +40522,26 @@
         <v>101</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="AF15" s="14"/>
       <c r="AG15" s="6">
@@ -40291,26 +40623,26 @@
         <v>103</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="AF16" s="14"/>
       <c r="AG16" s="6">
@@ -40392,27 +40724,27 @@
         <v>102</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="W17" s="28"/>
       <c r="X17" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AF17" s="14"/>
       <c r="AG17" s="6">
@@ -40495,26 +40827,26 @@
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="AF18" s="14"/>
       <c r="AG18" s="6">
@@ -40582,13 +40914,13 @@
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AF19" s="14"/>
       <c r="AG19" s="6">
@@ -40652,7 +40984,7 @@
         <v>17</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -40661,20 +40993,20 @@
         <v>103</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="W20" s="3" t="str">
         <f>"100403;"&amp;AB20</f>
         <v>100403;15</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f>"攻击+"&amp;AB20</f>
@@ -40692,10 +41024,10 @@
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="AF20" s="14"/>
       <c r="AG20" s="17"/>
@@ -40766,7 +41098,7 @@
         <v>100403;24</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f t="shared" ref="Y21:Y29" si="9">"攻击+"&amp;AB21</f>
@@ -40784,10 +41116,10 @@
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="AF21" s="14"/>
       <c r="AG21" s="17"/>
@@ -40864,7 +41196,7 @@
         <v>100403;30</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f t="shared" si="9"/>
@@ -40882,10 +41214,10 @@
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -40947,10 +41279,10 @@
       <c r="R23" s="7"/>
       <c r="S23" s="14"/>
       <c r="T23" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="3" t="str">
@@ -40958,7 +41290,7 @@
         <v>100403;48</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f t="shared" si="9"/>
@@ -40976,10 +41308,10 @@
       </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41037,23 +41369,23 @@
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="W24" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;45</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="Y24" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41071,10 +41403,10 @@
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41123,20 +41455,20 @@
       <c r="R25" s="7"/>
       <c r="S25" s="14"/>
       <c r="T25" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="W25" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;60</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41154,10 +41486,10 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41205,20 +41537,20 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="T26" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="W26" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;75</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="Y26" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41236,10 +41568,10 @@
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41283,7 +41615,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>2</v>
@@ -41296,20 +41628,20 @@
       </c>
       <c r="R27" s="6"/>
       <c r="T27" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="W27" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;90</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="Y27" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41327,10 +41659,10 @@
       </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41374,7 +41706,7 @@
         <v>11</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O28" s="7">
         <v>0</v>
@@ -41387,20 +41719,20 @@
       </c>
       <c r="R28" s="7"/>
       <c r="T28" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="W28" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;105</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="Y28" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41418,10 +41750,10 @@
       </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41465,7 +41797,7 @@
         <v>11</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O29" s="7">
         <v>0.25</v>
@@ -41478,20 +41810,20 @@
       </c>
       <c r="R29" s="7"/>
       <c r="T29" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="W29" s="3" t="str">
         <f t="shared" si="8"/>
         <v>100403;120</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="Y29" s="3" t="str">
         <f t="shared" si="9"/>
@@ -41509,10 +41841,10 @@
       </c>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41556,7 +41888,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O30" s="7">
         <v>0.75</v>
@@ -41569,19 +41901,19 @@
       </c>
       <c r="R30" s="7"/>
       <c r="T30" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41626,19 +41958,19 @@
       </c>
       <c r="N31" s="13"/>
       <c r="T31" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="20.100000000000001" customHeight="1">
@@ -41682,10 +42014,10 @@
         <v>12</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O32" s="7">
         <f>ROUND(O28*O$21,-1)</f>
@@ -41701,20 +42033,20 @@
       </c>
       <c r="R32" s="7"/>
       <c r="T32" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="W32" s="3" t="str">
         <f>"100203;"&amp;AB32</f>
         <v>100203;150</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="Y32" s="3" t="str">
         <f>"生命+"&amp;AB32</f>
@@ -41732,10 +42064,10 @@
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -41780,7 +42112,7 @@
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" ref="O33:O34" si="13">ROUND(O29*O$21,-1)</f>
@@ -41797,20 +42129,20 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="W33" s="3" t="str">
         <f t="shared" ref="W33:W41" si="15">"100203;"&amp;AB33</f>
         <v>100203;225</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="Y33" s="3" t="str">
         <f t="shared" ref="Y33:Y41" si="16">"生命+"&amp;AB33</f>
@@ -41828,10 +42160,10 @@
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -41876,7 +42208,7 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="13"/>
@@ -41893,20 +42225,20 @@
       <c r="R34" s="7"/>
       <c r="S34" s="14"/>
       <c r="T34" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="W34" s="3" t="str">
         <f t="shared" si="15"/>
         <v>100203;300</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="Y34" s="3" t="str">
         <f t="shared" si="16"/>
@@ -41924,10 +42256,10 @@
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -41977,20 +42309,20 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="T35" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="W35" s="3" t="str">
         <f t="shared" si="15"/>
         <v>100203;375</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="Y35" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42008,10 +42340,10 @@
       </c>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42055,10 +42387,10 @@
         <v>13</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" ref="O36:Q36" si="19">O28*O$22</f>
@@ -42078,7 +42410,7 @@
         <v>100203;450</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Y36" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42138,7 +42470,7 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" ref="O37:Q37" si="20">O29*O$22</f>
@@ -42158,7 +42490,7 @@
         <v>100203;600</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="Y37" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42176,10 +42508,10 @@
       </c>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42224,7 +42556,7 @@
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" ref="O38:Q38" si="21">O30*O$22</f>
@@ -42241,10 +42573,10 @@
       <c r="R38" s="7"/>
       <c r="S38" s="14"/>
       <c r="T38" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="V38" s="14"/>
       <c r="W38" s="3" t="str">
@@ -42252,7 +42584,7 @@
         <v>100203;750</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="Y38" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42270,10 +42602,10 @@
       </c>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42323,23 +42655,23 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="W39" s="3" t="str">
         <f t="shared" si="15"/>
         <v>100203;900</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="Y39" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42357,10 +42689,10 @@
       </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42404,10 +42736,10 @@
         <v>14</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O40" s="7">
         <f t="shared" ref="O40:Q40" si="22">O28*O$23</f>
@@ -42424,20 +42756,20 @@
       <c r="R40" s="7"/>
       <c r="S40" s="14"/>
       <c r="T40" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="W40" s="3" t="str">
         <f t="shared" si="15"/>
         <v>100203;1050</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Y40" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42455,10 +42787,10 @@
       </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42503,7 +42835,7 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O41" s="7">
         <f t="shared" ref="O41:Q41" si="23">O29*O$23</f>
@@ -42519,20 +42851,20 @@
       </c>
       <c r="R41" s="7"/>
       <c r="T41" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="W41" s="3" t="str">
         <f t="shared" si="15"/>
         <v>100203;1200</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="Y41" s="3" t="str">
         <f t="shared" si="16"/>
@@ -42550,10 +42882,10 @@
       </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42598,7 +42930,7 @@
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O42" s="7">
         <f t="shared" ref="O42:Q42" si="24">O30*O$23</f>
@@ -42614,19 +42946,19 @@
       </c>
       <c r="R42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42676,20 +43008,20 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="W43" s="3" t="str">
         <f>"100203;"&amp;AA43&amp;"@100603:"&amp;AC43</f>
         <v>100203;75@100603:15</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="Y43" s="4" t="str">
         <f>"生命+"&amp;AA43&amp;"  物理防御+"&amp;AC43</f>
@@ -42709,10 +43041,10 @@
         <v>15</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="AE43" s="5" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42756,10 +43088,10 @@
         <v>15</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O44" s="7">
         <f t="shared" ref="O44:Q44" si="25">O28*O$24</f>
@@ -42775,20 +43107,20 @@
       </c>
       <c r="R44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="W44" s="3" t="str">
         <f t="shared" ref="W44:W52" si="26">"100203;"&amp;AA44&amp;"@100603:"&amp;AC44</f>
         <v>100203;113@100603:24</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="Y44" s="4" t="str">
         <f t="shared" ref="Y44:Y52" si="27">"生命+"&amp;AA44&amp;"  物理防御+"&amp;AC44</f>
@@ -42808,10 +43140,10 @@
         <v>24</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42856,7 +43188,7 @@
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" ref="O45:Q45" si="29">O29*O$24</f>
@@ -42872,20 +43204,20 @@
       </c>
       <c r="R45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="W45" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;150@100603:30</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="Y45" s="4" t="str">
         <f t="shared" si="27"/>
@@ -42905,10 +43237,10 @@
         <v>30</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -42953,7 +43285,7 @@
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O46" s="7">
         <f t="shared" ref="O46:Q46" si="30">O30*O$24</f>
@@ -42969,20 +43301,20 @@
       </c>
       <c r="R46" s="7"/>
       <c r="T46" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="W46" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;188@100603:48</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="Y46" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43002,10 +43334,10 @@
         <v>48</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43055,20 +43387,20 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="T47" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="W47" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;225@100603:45</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="Y47" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43088,10 +43420,10 @@
         <v>45</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AE47" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43136,20 +43468,20 @@
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="W48" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;300@100603:60</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="Y48" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43169,10 +43501,10 @@
         <v>60</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43216,10 +43548,10 @@
         <v>17</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="O49" s="7">
         <f t="shared" ref="O49:Q49" si="31">O28*O$23</f>
@@ -43236,20 +43568,20 @@
       <c r="R49" s="7"/>
       <c r="S49" s="14"/>
       <c r="T49" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="W49" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;375@100603:75</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="Y49" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43310,10 +43642,10 @@
         <v>17</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="O50" s="7">
         <v>120</v>
@@ -43328,20 +43660,20 @@
       </c>
       <c r="R50" s="7"/>
       <c r="T50" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="W50" s="3" t="str">
         <f t="shared" si="26"/>
         <v>100203;450@100603:90</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="Y50" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43361,10 +43693,10 @@
         <v>90</v>
       </c>
       <c r="AD50" s="3" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="AE50" s="5" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43408,7 +43740,7 @@
         <v>17</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O51" s="7">
         <v>320</v>
@@ -43427,7 +43759,7 @@
         <v>100203;525@100603:105</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="Y51" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43447,10 +43779,10 @@
         <v>105</v>
       </c>
       <c r="AD51" s="3" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43498,7 +43830,7 @@
         <v>100203;600@100603:120</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="Y52" s="4" t="str">
         <f t="shared" si="27"/>
@@ -43518,10 +43850,10 @@
         <v>120</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="AE52" s="5" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43566,17 +43898,17 @@
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="V53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AE53" s="5" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43620,23 +43952,23 @@
         <v>17</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="V54" s="16" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="W54" s="3" t="str">
         <f>"100203;"&amp;AA54&amp;"@100803:"&amp;AC54</f>
         <v>100203;75@100803:15</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="Y54" s="4" t="str">
         <f>"生命+"&amp;AA54&amp;"  魔法防御+"&amp;AC54</f>
@@ -43656,10 +43988,10 @@
         <v>15</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AE54" s="5" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43704,20 +44036,20 @@
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="W55" s="3" t="str">
         <f t="shared" ref="W55:W63" si="35">"100203;"&amp;AA55&amp;"@100803:"&amp;AC55</f>
         <v>100203;113@100803:24</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="Y55" s="4" t="str">
         <f t="shared" ref="Y55:Y63" si="36">"生命+"&amp;AA55&amp;"  魔法防御+"&amp;AC55</f>
@@ -43737,10 +44069,10 @@
         <v>24</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="AE55" s="5" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43784,20 +44116,20 @@
         <v>17</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="W56" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;150@100803:30</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="Y56" s="4" t="str">
         <f t="shared" si="36"/>
@@ -43817,10 +44149,10 @@
         <v>30</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43864,20 +44196,20 @@
         <v>17</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="W57" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;188@100803:48</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="Y57" s="4" t="str">
         <f t="shared" si="36"/>
@@ -43897,10 +44229,10 @@
         <v>48</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="AE57" s="5" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -43944,20 +44276,20 @@
         <v>17</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U58" s="7" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="V58" s="17" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="W58" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;225@100803:45</v>
       </c>
       <c r="X58" s="6" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="Y58" s="4" t="str">
         <f t="shared" si="36"/>
@@ -43977,10 +44309,10 @@
         <v>45</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -44024,20 +44356,20 @@
         <v>17</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="V59" s="17" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="W59" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;300@100803:60</v>
       </c>
       <c r="X59" s="6" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="Y59" s="4" t="str">
         <f t="shared" si="36"/>
@@ -44057,10 +44389,10 @@
         <v>60</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -44104,20 +44436,20 @@
         <v>17</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="V60" s="17" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="W60" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;375@100803:75</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="Y60" s="4" t="str">
         <f t="shared" si="36"/>
@@ -44137,10 +44469,10 @@
         <v>75</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AE60" s="5" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -44184,20 +44516,20 @@
         <v>17</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="W61" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;450@100803:90</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="Y61" s="4" t="str">
         <f t="shared" si="36"/>
@@ -44217,28 +44549,28 @@
         <v>90</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="T62" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="W62" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;525@100803:105</v>
       </c>
       <c r="X62" s="6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="Y62" s="4" t="str">
         <f t="shared" si="36"/>
@@ -44258,29 +44590,29 @@
         <v>105</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="S63" s="7"/>
       <c r="T63" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="V63" s="16" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="W63" s="3" t="str">
         <f t="shared" si="35"/>
         <v>100203;600@100803:120</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Y63" s="4" t="str">
         <f t="shared" si="36"/>
@@ -44300,294 +44632,294 @@
         <v>120</v>
       </c>
       <c r="AD63" s="3" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AE63" s="5" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="S64" s="14"/>
       <c r="T64" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="U64" s="7" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="V64" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="AD64" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="AE64" s="5" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="65" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="T65" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="V65" s="16" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="AD65" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="66" spans="20:31" ht="20.100000000000001" customHeight="1"/>
     <row r="67" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD67" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="68" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD68" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="69" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD69" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="70" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD70" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="AE70" s="5" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="71" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD71" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AE71" s="5" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="72" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD72" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="AE72" s="5" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="73" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD73" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="AE73" s="5" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="74" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD74" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="AE74" s="5" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="75" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD75" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="AE75" s="5" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="76" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD76" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AE76" s="5" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="77" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD77" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AE77" s="5" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="78" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD78" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="AE78" s="5" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="79" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD79" s="3" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AE79" s="5" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="80" spans="20:31" ht="20.100000000000001" customHeight="1">
       <c r="AD80" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AE80" s="5" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="81" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD81" s="3" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AE81" s="5" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="82" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD82" s="3" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AE82" s="5" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="83" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD83" s="3" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="AE83" s="5" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="84" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD84" s="3" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="AE84" s="5" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="85" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD85" s="3" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AE85" s="5" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="86" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD86" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AE86" s="5" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="87" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD87" s="3" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AE87" s="5" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="88" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD88" s="3" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="AE88" s="5" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="89" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD89" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="AE89" s="5" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="90" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD90" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="AE90" s="5" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="91" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD91" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="AE91" s="5" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="92" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD92" s="3" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="AE92" s="5" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD93" s="3" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="AE93" s="5" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="94" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD94" s="3" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="AE94" s="5" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD95" s="3" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="96" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD96" s="3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="AE96" s="5" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="97" spans="30:31" ht="20.100000000000001" customHeight="1">
       <c r="AD97" s="3" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="AE97" s="5" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="98" spans="30:31" ht="20.100000000000001" customHeight="1"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5632432-257B-492B-88DC-3E50D626508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FEEF9-AF3C-4FE6-8D8E-D63CEE6CDD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1550">
   <si>
     <t>人物属性</t>
   </si>
@@ -4873,6 +4873,39 @@
   <si>
     <t>魔法伤害加成提升1%-3%</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 武器</t>
+  </si>
+  <si>
+    <t>2 衣服</t>
+  </si>
+  <si>
+    <t>3 护符</t>
+  </si>
+  <si>
+    <t>4 戒指</t>
+  </si>
+  <si>
+    <t>5 饰品</t>
+  </si>
+  <si>
+    <t>6 鞋子</t>
+  </si>
+  <si>
+    <t>7 裤子</t>
+  </si>
+  <si>
+    <t>8 腰带</t>
+  </si>
+  <si>
+    <t>9 手镯</t>
+  </si>
+  <si>
+    <t>10 头盔</t>
+  </si>
+  <si>
+    <t>11 项链</t>
   </si>
 </sst>
 </file>
@@ -5223,7 +5256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5436,6 +5469,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -37769,10 +37805,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AF60"/>
+  <dimension ref="B1:AR81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37785,14 +37821,21 @@
     <col min="18" max="18" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
     <col min="23" max="23" width="22.625" customWidth="1"/>
-    <col min="27" max="27" width="28.375" customWidth="1"/>
-    <col min="31" max="31" width="22.75" customWidth="1"/>
+    <col min="24" max="24" width="7.375" customWidth="1"/>
+    <col min="28" max="28" width="30.625" customWidth="1"/>
+    <col min="31" max="31" width="28.375" customWidth="1"/>
+    <col min="32" max="32" width="12.375" customWidth="1"/>
+    <col min="36" max="36" width="26.375" customWidth="1"/>
+    <col min="39" max="39" width="22.75" customWidth="1"/>
+    <col min="40" max="40" width="12.125" customWidth="1"/>
+    <col min="42" max="43" width="12.625" customWidth="1"/>
+    <col min="44" max="44" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J4" s="3" t="s">
         <v>580</v>
       </c>
@@ -37820,8 +37863,11 @@
       <c r="Z4" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="5" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC4" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="3" t="s">
         <v>587</v>
       </c>
@@ -37862,8 +37908,11 @@
       <c r="Z5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC5" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="3" t="s">
         <v>594</v>
       </c>
@@ -37895,14 +37944,17 @@
         <v>4</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" ref="Y6:Y9" si="0">(W6+X6)/2</f>
+        <f>(W6+X6)/2</f>
         <v>2.5</v>
       </c>
       <c r="Z6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC6" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="3" t="s">
         <v>598</v>
       </c>
@@ -37937,14 +37989,17 @@
         <v>4</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="0"/>
+        <f>(W7+X7)/2</f>
         <v>3</v>
       </c>
       <c r="Z7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC7" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D8" s="5" t="s">
         <v>604</v>
       </c>
@@ -37976,14 +38031,17 @@
         <v>5</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="0"/>
+        <f>(W8+X8)/2</f>
         <v>3.5</v>
       </c>
       <c r="Z8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC8" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
@@ -38000,14 +38058,17 @@
         <v>5</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="0"/>
+        <f>(W9+X9)/2</f>
         <v>4</v>
       </c>
       <c r="Z9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC9" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="3" t="s">
         <v>611</v>
       </c>
@@ -38023,8 +38084,11 @@
       <c r="K10" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC10" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D11" s="5" t="s">
         <v>615</v>
       </c>
@@ -38037,8 +38101,11 @@
       <c r="K11" s="5" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="12" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC11" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D12" s="5" t="s">
         <v>618</v>
       </c>
@@ -38054,8 +38121,11 @@
       <c r="Q12" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="13" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC12" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D13" s="5" t="s">
         <v>622</v>
       </c>
@@ -38065,13 +38135,19 @@
       <c r="K13" s="3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="14" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC13" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K14" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AC14" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K15" s="5" t="s">
         <v>625</v>
       </c>
@@ -38079,13 +38155,13 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="2:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J17" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Q18" s="3" t="s">
         <v>600</v>
       </c>
@@ -38093,7 +38169,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I19" s="3" t="s">
         <v>613</v>
       </c>
@@ -38125,28 +38201,67 @@
         <v>632</v>
       </c>
       <c r="X19" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="3">
         <v>100403</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>100403</v>
+      <c r="Z19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="3" t="str">
+        <f>X19&amp;"@"&amp;Y19&amp;";"&amp;Z19&amp;";"&amp;AA19</f>
+        <v>10@100403;10;60</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>392</v>
       </c>
       <c r="AE19" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>100403</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ19" s="3" t="str">
+        <f>AF19&amp;"@"&amp;AG19&amp;";"&amp;AH19&amp;";"&amp;AI19</f>
+        <v>10@100403;30;100</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM19" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AN19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="3">
         <v>100403</v>
       </c>
-    </row>
-    <row r="20" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP19" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR19" s="3" t="str">
+        <f>AN19&amp;"@"&amp;AO19&amp;";"&amp;AP19&amp;";"&amp;AQ19</f>
+        <v>10@100403;50;150</v>
+      </c>
+    </row>
+    <row r="20" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I20" s="3" t="s">
         <v>613</v>
       </c>
@@ -38172,22 +38287,61 @@
         <v>639</v>
       </c>
       <c r="X20" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="3">
         <v>119103</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="Z20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AB20" s="3" t="str">
+        <f t="shared" ref="AB20:AB21" si="0">X20&amp;"@"&amp;Y20&amp;";"&amp;Z20&amp;";"&amp;AA20</f>
+        <v>10@119103;10;50</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AF20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG20" s="3">
         <v>119103</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AH20" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="3" t="str">
+        <f t="shared" ref="AJ20:AJ21" si="1">AF20&amp;"@"&amp;AG20&amp;";"&amp;AH20&amp;";"&amp;AI20</f>
+        <v>10@119103;30;75</v>
+      </c>
+      <c r="AM20" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AN20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="3">
         <v>119103</v>
       </c>
-    </row>
-    <row r="21" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP20" s="3">
+        <v>30</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AR20" s="3" t="str">
+        <f t="shared" ref="AR20:AR21" si="2">AN20&amp;"@"&amp;AO20&amp;";"&amp;AP20&amp;";"&amp;AQ20</f>
+        <v>10@119103;30;100</v>
+      </c>
+    </row>
+    <row r="21" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I21" s="3" t="s">
         <v>613</v>
       </c>
@@ -38206,25 +38360,64 @@
       <c r="W21" s="73" t="s">
         <v>1519</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="76">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="3">
         <v>110103</v>
       </c>
-      <c r="AA21" s="73" t="s">
+      <c r="Z21" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10@110103;50;100</v>
+      </c>
+      <c r="AE21" s="73" t="s">
         <v>1512</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AF21" s="76">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="3">
         <v>110103</v>
       </c>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="73" t="s">
+      <c r="AH21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10@110103;0.01;0.03</v>
+      </c>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="73" t="s">
         <v>1513</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AN21" s="76">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="3">
         <v>110103</v>
       </c>
-    </row>
-    <row r="22" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AR21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>10@110103;0.01;0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="3" t="s">
         <v>613</v>
       </c>
@@ -38238,7 +38431,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="23" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="U23" s="3" t="s">
         <v>358</v>
       </c>
@@ -38249,28 +38442,67 @@
         <v>648</v>
       </c>
       <c r="X23" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100203</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>100203</v>
+      <c r="Z23" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB23" s="3" t="str">
+        <f>X23&amp;"@"&amp;Y23&amp;";"&amp;Z23&amp;";"&amp;AA23</f>
+        <v>2@100203;50;300</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AE23" s="74" t="s">
+      <c r="AE23" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>100203</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>150</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>500</v>
+      </c>
+      <c r="AJ23" s="3" t="str">
+        <f>AF23&amp;"@"&amp;AG23&amp;";"&amp;AH23&amp;";"&amp;AI23</f>
+        <v>2@100203;150;500</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM23" s="74" t="s">
         <v>1516</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AN23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="3">
         <v>100203</v>
       </c>
-    </row>
-    <row r="24" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP23" s="3">
+        <v>250</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>750</v>
+      </c>
+      <c r="AR23" s="3" t="str">
+        <f>AN23&amp;"@"&amp;AO23&amp;";"&amp;AP23&amp;";"&amp;AQ23</f>
+        <v>2@100203;250;750</v>
+      </c>
+    </row>
+    <row r="24" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I24" s="75" t="s">
         <v>1526</v>
       </c>
@@ -38293,22 +38525,61 @@
         <v>650</v>
       </c>
       <c r="X24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="3">
         <v>119403</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="Z24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="3" t="str">
+        <f t="shared" ref="AB24:AB25" si="3">X24&amp;"@"&amp;Y24&amp;";"&amp;Z24&amp;";"&amp;AA24</f>
+        <v>2@119403;10;50</v>
+      </c>
+      <c r="AE24" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="3">
         <v>119403</v>
       </c>
-      <c r="AE24" s="74" t="s">
+      <c r="AH24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>75</v>
+      </c>
+      <c r="AJ24" s="3" t="str">
+        <f t="shared" ref="AJ24:AJ25" si="4">AF24&amp;"@"&amp;AG24&amp;";"&amp;AH24&amp;";"&amp;AI24</f>
+        <v>2@119403;30;75</v>
+      </c>
+      <c r="AM24" s="74" t="s">
         <v>1515</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="3">
         <v>119403</v>
       </c>
-    </row>
-    <row r="25" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AR24" s="3" t="str">
+        <f t="shared" ref="AR24:AR25" si="5">AN24&amp;"@"&amp;AO24&amp;";"&amp;AP24&amp;";"&amp;AQ24</f>
+        <v>2@119403;30;100</v>
+      </c>
+    </row>
+    <row r="25" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I25" s="75" t="s">
         <v>1526</v>
       </c>
@@ -38330,23 +38601,62 @@
       <c r="W25" s="73" t="s">
         <v>1524</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="76">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="3">
         <v>200403</v>
       </c>
-      <c r="AA25" s="73" t="s">
+      <c r="Z25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AB25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2@200403;0.01;0.03</v>
+      </c>
+      <c r="AE25" s="73" t="s">
         <v>1511</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AF25" s="76">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="3">
         <v>204603</v>
       </c>
-      <c r="AE25" s="73" t="s">
+      <c r="AH25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>2@204603;0.01;0.03</v>
+      </c>
+      <c r="AM25" s="73" t="s">
         <v>1521</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AN25" s="76">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="3">
         <v>200503</v>
       </c>
-    </row>
-    <row r="26" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AR25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>2@200503;0.01;0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I26" s="75" t="s">
         <v>1526</v>
       </c>
@@ -38360,7 +38670,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="27" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I27" s="75" t="s">
         <v>1526</v>
       </c>
@@ -38380,48 +38690,126 @@
         <v>660</v>
       </c>
       <c r="X27" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="3">
         <v>118103</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>118103</v>
+      <c r="Z27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB27" s="3" t="str">
+        <f>X27&amp;"@"&amp;Y27&amp;";"&amp;Z27&amp;";"&amp;AA27</f>
+        <v>9@118103;10;60</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>403</v>
       </c>
       <c r="AE27" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>118103</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ27" s="3" t="str">
+        <f>AF27&amp;"@"&amp;AG27&amp;";"&amp;AH27&amp;";"&amp;AI27</f>
+        <v>9@118103;30;100</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM27" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AN27" s="3">
+        <v>9</v>
+      </c>
+      <c r="AO27" s="3">
         <v>118103</v>
       </c>
-    </row>
-    <row r="28" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR27" s="3" t="str">
+        <f>AN27&amp;"@"&amp;AO27&amp;";"&amp;AP27&amp;";"&amp;AQ27</f>
+        <v>9@118103;50;150</v>
+      </c>
+    </row>
+    <row r="28" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W28" s="5" t="s">
         <v>666</v>
       </c>
       <c r="X28" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="3">
         <v>118203</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="Z28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="3" t="str">
+        <f t="shared" ref="AB28:AB29" si="6">X28&amp;"@"&amp;Y28&amp;";"&amp;Z28&amp;";"&amp;AA28</f>
+        <v>9@118203;10;60</v>
+      </c>
+      <c r="AE28" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AF28" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="3">
         <v>118203</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AH28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>75</v>
+      </c>
+      <c r="AJ28" s="3" t="str">
+        <f t="shared" ref="AJ28:AJ29" si="7">AF28&amp;"@"&amp;AG28&amp;";"&amp;AH28&amp;";"&amp;AI28</f>
+        <v>9@118203;30;75</v>
+      </c>
+      <c r="AM28" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AN28" s="3">
+        <v>9</v>
+      </c>
+      <c r="AO28" s="3">
         <v>118203</v>
       </c>
-    </row>
-    <row r="29" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP28" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR28" s="3" t="str">
+        <f t="shared" ref="AR28:AR29" si="8">AN28&amp;"@"&amp;AO28&amp;";"&amp;AP28&amp;";"&amp;AQ28</f>
+        <v>9@118203;50;150</v>
+      </c>
+    </row>
+    <row r="29" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I29" s="75" t="s">
         <v>1527</v>
       </c>
@@ -38443,25 +38831,64 @@
       <c r="W29" s="73" t="s">
         <v>1523</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="76">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="3">
         <v>203603</v>
       </c>
-      <c r="AA29" s="73" t="s">
+      <c r="Z29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AB29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>9@203603;0.01;0.03</v>
+      </c>
+      <c r="AE29" s="73" t="s">
         <v>1510</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AF29" s="76">
+        <v>9</v>
+      </c>
+      <c r="AG29" s="3">
         <v>205003</v>
       </c>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="33" t="s">
+      <c r="AH29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ29" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>9@205003;0.01;0.03</v>
+      </c>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AN29" s="76">
+        <v>9</v>
+      </c>
+      <c r="AO29" s="3">
         <v>110303</v>
       </c>
-    </row>
-    <row r="30" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP29" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR29" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>9@110303;50;150</v>
+      </c>
+    </row>
+    <row r="30" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I30" s="75" t="s">
         <v>1527</v>
       </c>
@@ -38481,7 +38908,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="G31" s="75" t="s">
         <v>1517</v>
       </c>
@@ -38504,28 +38931,67 @@
         <v>677</v>
       </c>
       <c r="X31" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="3">
         <v>105403</v>
       </c>
-      <c r="Y31" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>105403</v>
+      <c r="Z31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="3" t="str">
+        <f>X31&amp;"@"&amp;Y31&amp;";"&amp;Z31&amp;";"&amp;AA31</f>
+        <v>8@105403;3;12</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>385</v>
       </c>
       <c r="AE31" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>105403</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ31" s="3" t="str">
+        <f>AF31&amp;"@"&amp;AG31&amp;";"&amp;AH31&amp;";"&amp;AI31</f>
+        <v>8@105403;5;20</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM31" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AN31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO31" s="3">
         <v>105403</v>
       </c>
-    </row>
-    <row r="32" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR31" s="3" t="str">
+        <f>AN31&amp;"@"&amp;AO31&amp;";"&amp;AP31&amp;";"&amp;AQ31</f>
+        <v>8@105403;8;30</v>
+      </c>
+    </row>
+    <row r="32" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I32" s="75" t="s">
         <v>1527</v>
       </c>
@@ -38542,65 +39008,182 @@
         <v>684</v>
       </c>
       <c r="X32" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>105203</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="Z32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="3" t="str">
+        <f t="shared" ref="AB32:AB34" si="9">X32&amp;"@"&amp;Y32&amp;";"&amp;Z32&amp;";"&amp;AA32</f>
+        <v>8@105203;3;12</v>
+      </c>
+      <c r="AE32" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AF32" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="3">
         <v>105203</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AH32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ32" s="3" t="str">
+        <f t="shared" ref="AJ32:AJ34" si="10">AF32&amp;"@"&amp;AG32&amp;";"&amp;AH32&amp;";"&amp;AI32</f>
+        <v>8@105203;5;20</v>
+      </c>
+      <c r="AM32" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AN32" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO32" s="3">
         <v>105203</v>
       </c>
-    </row>
-    <row r="33" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP32" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR32" s="3" t="str">
+        <f t="shared" ref="AR32:AR34" si="11">AN32&amp;"@"&amp;AO32&amp;";"&amp;AP32&amp;";"&amp;AQ32</f>
+        <v>8@105203;8;30</v>
+      </c>
+    </row>
+    <row r="33" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W33" s="5" t="s">
         <v>690</v>
       </c>
       <c r="X33" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>105503</v>
       </c>
-      <c r="AA33" s="5" t="s">
+      <c r="Z33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>8@105503;3;12</v>
+      </c>
+      <c r="AE33" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AF33" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG33" s="3">
         <v>105503</v>
       </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AH33" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ33" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>8@105503;5;20</v>
+      </c>
+      <c r="AM33" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AN33" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO33" s="3">
         <v>105503</v>
       </c>
-    </row>
-    <row r="34" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP33" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR33" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>8@105503;8;30</v>
+      </c>
+    </row>
+    <row r="34" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W34" s="73" t="s">
         <v>1508</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="76">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="3">
         <v>200203</v>
       </c>
-      <c r="AA34" s="73" t="s">
+      <c r="Z34" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AB34" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>8@200203;0.01;0.03</v>
+      </c>
+      <c r="AE34" s="73" t="s">
         <v>1523</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AF34" s="76">
+        <v>8</v>
+      </c>
+      <c r="AG34" s="3">
         <v>203603</v>
       </c>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="73" t="s">
+      <c r="AH34" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ34" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>8@203603;0.01;0.03</v>
+      </c>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="73" t="s">
         <v>1514</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AN34" s="76">
+        <v>8</v>
+      </c>
+      <c r="AO34" s="3">
         <v>100202</v>
       </c>
-    </row>
-    <row r="35" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP34" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AR34" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>8@100202;0.01;0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="G36" s="75" t="s">
         <v>1518</v>
       </c>
@@ -38611,113 +39194,311 @@
         <v>696</v>
       </c>
       <c r="X36" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="3">
         <v>105103</v>
       </c>
-      <c r="Y36" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>105103</v>
+      <c r="Z36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="3" t="str">
+        <f>X36&amp;"@"&amp;Y36&amp;";"&amp;Z36&amp;";"&amp;AA36</f>
+        <v>7@105103;3;12</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>407</v>
       </c>
       <c r="AE36" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>105103</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ36" s="3" t="str">
+        <f>AF36&amp;"@"&amp;AG36&amp;";"&amp;AH36&amp;";"&amp;AI36</f>
+        <v>7@105103;5;20</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM36" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AN36" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO36" s="3">
         <v>105103</v>
       </c>
-    </row>
-    <row r="37" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP36" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR36" s="3" t="str">
+        <f>AN36&amp;"@"&amp;AO36&amp;";"&amp;AP36&amp;";"&amp;AQ36</f>
+        <v>7@105103;8;30</v>
+      </c>
+    </row>
+    <row r="37" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="5" t="s">
         <v>699</v>
       </c>
       <c r="X37" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="3">
         <v>105303</v>
       </c>
-      <c r="AA37" s="5" t="s">
+      <c r="Z37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB37" s="3" t="str">
+        <f t="shared" ref="AB37:AB39" si="12">X37&amp;"@"&amp;Y37&amp;";"&amp;Z37&amp;";"&amp;AA37</f>
+        <v>7@105303;3;12</v>
+      </c>
+      <c r="AE37" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AF37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="3">
         <v>105303</v>
       </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AH37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ37" s="3" t="str">
+        <f t="shared" ref="AJ37:AJ39" si="13">AF37&amp;"@"&amp;AG37&amp;";"&amp;AH37&amp;";"&amp;AI37</f>
+        <v>7@105303;5;20</v>
+      </c>
+      <c r="AM37" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AN37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO37" s="3">
         <v>105303</v>
       </c>
-    </row>
-    <row r="38" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="K38" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="O38" s="3">
-        <f>100/(5000+250*20)</f>
-        <v>0.01</v>
-      </c>
+      <c r="AP37" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR37" s="3" t="str">
+        <f t="shared" ref="AR37:AR39" si="14">AN37&amp;"@"&amp;AO37&amp;";"&amp;AP37&amp;";"&amp;AQ37</f>
+        <v>7@105303;8;30</v>
+      </c>
+    </row>
+    <row r="38" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W38" s="5" t="s">
         <v>690</v>
       </c>
       <c r="X38" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="3">
         <v>105503</v>
       </c>
-      <c r="AA38" s="5" t="s">
+      <c r="Z38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB38" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>7@105503;3;12</v>
+      </c>
+      <c r="AE38" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AF38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="3">
         <v>105503</v>
       </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AH38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>7@105503;5;20</v>
+      </c>
+      <c r="AM38" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AN38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO38" s="3">
         <v>105503</v>
       </c>
-    </row>
-    <row r="39" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J39" s="3">
-        <v>10</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="AP38" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR38" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>7@105503;8;30</v>
+      </c>
+    </row>
+    <row r="39" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W39" s="73" t="s">
         <v>1525</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="76">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="3">
         <v>110303</v>
       </c>
-      <c r="AA39" s="73" t="s">
+      <c r="Z39" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB39" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>7@110303;10;60</v>
+      </c>
+      <c r="AE39" s="73" t="s">
         <v>1509</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AF39" s="76">
+        <v>7</v>
+      </c>
+      <c r="AG39" s="3">
         <v>200503</v>
       </c>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="73" t="s">
+      <c r="AH39" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>7@200503;0.01;0.03</v>
+      </c>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="73" t="s">
         <v>1538</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AN39" s="76">
+        <v>7</v>
+      </c>
+      <c r="AO39" s="3">
         <v>200603</v>
       </c>
-    </row>
-    <row r="40" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP39" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AR39" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>7@200603;0.01;0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>119103</v>
+      </c>
+      <c r="H40" s="3">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3">
+        <v>200</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" ref="J40:J51" si="15">F40&amp;"@"&amp;G40&amp;";"&amp;H40&amp;";"&amp;I40</f>
+        <v>1@119103;50;200</v>
+      </c>
       <c r="K40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="L40" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M40" s="3">
+        <v>10</v>
+      </c>
+      <c r="N40" s="3">
+        <v>50</v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f t="shared" ref="O40:O51" si="16">K40&amp;"@"&amp;L40&amp;";"&amp;M40&amp;";"&amp;N40</f>
+        <v>11@120703;10;50</v>
+      </c>
+    </row>
+    <row r="41" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>119303</v>
+      </c>
+      <c r="H41" s="3">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119303;50;200</v>
+      </c>
       <c r="K41" s="3">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="L41" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M41" s="3">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3">
+        <v>50</v>
+      </c>
+      <c r="O41" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>11@120703;10;50</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>479</v>
@@ -38726,56 +39507,189 @@
         <v>702</v>
       </c>
       <c r="X41" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100503</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>100503</v>
+      <c r="Z41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="3" t="str">
+        <f>X41&amp;"@"&amp;Y41&amp;";"&amp;Z41&amp;";"&amp;AA41</f>
+        <v>6@100503;10;60</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>479</v>
       </c>
       <c r="AE41" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>100503</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ41" s="3" t="str">
+        <f>AF41&amp;"@"&amp;AG41&amp;";"&amp;AH41&amp;";"&amp;AI41</f>
+        <v>6@100503;30;100</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM41" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AN41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO41" s="3">
         <v>100503</v>
       </c>
-    </row>
-    <row r="42" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J42" s="3">
-        <v>20</v>
+      <c r="AP41" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR41" s="3" t="str">
+        <f>AN41&amp;"@"&amp;AO41&amp;";"&amp;AP41&amp;";"&amp;AQ41</f>
+        <v>6@100503;50;150</v>
+      </c>
+    </row>
+    <row r="42" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F42" s="76">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>119403</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3">
+        <v>200</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119403;50;200</v>
       </c>
       <c r="K42" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M42" s="3">
+        <v>10</v>
+      </c>
+      <c r="N42" s="3">
+        <v>50</v>
+      </c>
+      <c r="O42" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;10;50</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>706</v>
       </c>
       <c r="X42" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="3">
         <v>100603</v>
       </c>
-      <c r="AA42" s="5" t="s">
+      <c r="Z42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB42" s="3" t="str">
+        <f t="shared" ref="AB42:AB43" si="17">X42&amp;"@"&amp;Y42&amp;";"&amp;Z42&amp;";"&amp;AA42</f>
+        <v>6@100603;10;60</v>
+      </c>
+      <c r="AE42" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AF42" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG42" s="3">
         <v>100603</v>
       </c>
-      <c r="AE42" s="5" t="s">
+      <c r="AH42" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ42" s="3" t="str">
+        <f t="shared" ref="AJ42:AJ43" si="18">AF42&amp;"@"&amp;AG42&amp;";"&amp;AH42&amp;";"&amp;AI42</f>
+        <v>6@100603;30;100</v>
+      </c>
+      <c r="AM42" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AN42" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO42" s="3">
         <v>100603</v>
       </c>
-    </row>
-    <row r="43" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP42" s="3">
+        <v>50</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>150</v>
+      </c>
+      <c r="AR42" s="3" t="str">
+        <f t="shared" ref="AR42:AR43" si="19">AN42&amp;"@"&amp;AO42&amp;";"&amp;AP42&amp;";"&amp;AQ42</f>
+        <v>6@100603;50;150</v>
+      </c>
+    </row>
+    <row r="43" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F43" s="76">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>119203</v>
+      </c>
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119203;50;200</v>
+      </c>
       <c r="K43" s="3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M43" s="3">
+        <v>10</v>
+      </c>
+      <c r="N43" s="3">
+        <v>50</v>
+      </c>
+      <c r="O43" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;10;50</v>
       </c>
       <c r="V43" s="34" t="s">
         <v>709</v>
@@ -38783,101 +39697,516 @@
       <c r="W43" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="34">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100903</v>
       </c>
-      <c r="AA43" s="73" t="s">
+      <c r="Z43" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AB43" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>6@100903;0.01;0.03</v>
+      </c>
+      <c r="AE43" s="73" t="s">
         <v>1522</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AF43" s="34">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="3">
         <v>200103</v>
       </c>
-      <c r="AE43" s="73" t="s">
+      <c r="AH43" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AJ43" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>6@200103;0.01;0.03</v>
+      </c>
+      <c r="AM43" s="73" t="s">
         <v>1520</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AN43" s="34">
+        <v>6</v>
+      </c>
+      <c r="AO43" s="3">
         <v>200303</v>
       </c>
-    </row>
-    <row r="44" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="AP43" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AR43" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>6@200303;0.01;0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>119103</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>250</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119103;100;250</v>
+      </c>
       <c r="K44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J45" s="3">
+        <v>11</v>
+      </c>
+      <c r="L44" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M44" s="3">
         <v>30</v>
       </c>
+      <c r="N44" s="3">
+        <v>80</v>
+      </c>
+      <c r="O44" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>11@120703;30;80</v>
+      </c>
+    </row>
+    <row r="45" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>119303</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>250</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119303;100;250</v>
+      </c>
       <c r="K45" s="3">
+        <v>11</v>
+      </c>
+      <c r="L45" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M45" s="3">
+        <v>30</v>
+      </c>
+      <c r="N45" s="3">
+        <v>80</v>
+      </c>
+      <c r="O45" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>11@120703;30;80</v>
+      </c>
+    </row>
+    <row r="46" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F46" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G46" s="3">
+        <v>119403</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>250</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119403;100;250</v>
+      </c>
       <c r="K46" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M46" s="3">
+        <v>30</v>
+      </c>
+      <c r="N46" s="3">
+        <v>80</v>
+      </c>
+      <c r="O46" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;30;80</v>
+      </c>
+    </row>
+    <row r="47" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F47" s="76">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>119203</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>250</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119203;100;250</v>
+      </c>
       <c r="K47" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="7:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J48" s="3">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M47" s="3">
+        <v>30</v>
+      </c>
+      <c r="N47" s="3">
+        <v>80</v>
+      </c>
+      <c r="O47" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;30;80</v>
+      </c>
+    </row>
+    <row r="48" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>119103</v>
+      </c>
+      <c r="H48" s="3">
+        <v>150</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119103;150;300</v>
       </c>
       <c r="K48" s="3">
+        <v>11</v>
+      </c>
+      <c r="L48" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M48" s="3">
+        <v>50</v>
+      </c>
+      <c r="N48" s="3">
+        <v>120</v>
+      </c>
+      <c r="O48" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>11@120703;50;120</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G49" s="3">
+        <v>119303</v>
+      </c>
+      <c r="H49" s="3">
+        <v>150</v>
+      </c>
+      <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119303;150;300</v>
+      </c>
       <c r="K49" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="L49" s="3">
+        <v>120703</v>
+      </c>
+      <c r="M49" s="3">
+        <v>50</v>
+      </c>
+      <c r="N49" s="3">
+        <v>120</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>11@120703;50;120</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F50" s="76">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>119403</v>
+      </c>
+      <c r="H50" s="3">
+        <v>150</v>
+      </c>
+      <c r="I50" s="3">
+        <v>300</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119403;150;300</v>
+      </c>
       <c r="K50" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" ht="20.100000000000001" customHeight="1">
-      <c r="J51" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M50" s="3">
         <v>50</v>
       </c>
+      <c r="N50" s="3">
+        <v>120</v>
+      </c>
+      <c r="O50" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;50;120</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" ht="20.100000000000001" customHeight="1">
+      <c r="F51" s="76">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>119203</v>
+      </c>
+      <c r="H51" s="3">
+        <v>150</v>
+      </c>
+      <c r="I51" s="3">
+        <v>300</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>1@119203;150;300</v>
+      </c>
       <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="10:13" ht="20.100000000000001" customHeight="1">
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
-        <v>2</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="10:13" ht="20.100000000000001" customHeight="1">
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <v>3</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="10:13" ht="20.100000000000001" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="L51" s="3">
+        <v>120603</v>
+      </c>
+      <c r="M51" s="3">
+        <v>50</v>
+      </c>
+      <c r="N51" s="3">
+        <v>120</v>
+      </c>
+      <c r="O51" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>4@120603;50;120</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="53" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="54" spans="6:15" ht="20.100000000000001" customHeight="1">
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="10:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" spans="10:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" spans="10:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" spans="10:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" spans="10:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" spans="10:13" ht="20.100000000000001" customHeight="1"/>
+    <row r="55" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="56" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="57" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="58" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="59" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="60" spans="6:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="66" spans="8:13">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3">
+        <f>100/(5000+250*20)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67" spans="8:13">
+      <c r="H67" s="3">
+        <v>10</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="8:13">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="8:13">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
+        <v>3</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="8:13">
+      <c r="H70" s="3">
+        <v>20</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="8:13">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="8:13">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="8:13">
+      <c r="H73" s="3">
+        <v>30</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="8:13">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="8:13">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3">
+        <v>3</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="8:13">
+      <c r="H76" s="3">
+        <v>40</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="8:13">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="8:13">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3">
+        <v>3</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="8:13">
+      <c r="H79" s="3">
+        <v>50</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="8:13">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="8:11">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FEEF9-AF3C-4FE6-8D8E-D63CEE6CDD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29575809-1F48-4B2C-8F05-F72A2DBF62C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4913,7 +4913,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -5308,7 +5308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5459,9 +5459,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5472,6 +5469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30744,7 +30744,7 @@
       <c r="J3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="76" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="51" t="s">
@@ -30808,7 +30808,7 @@
       <c r="I4" s="61">
         <v>10002</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30863,7 +30863,7 @@
       <c r="AW4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="72" t="s">
+      <c r="AX4" s="76" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="51" t="s">
@@ -30892,7 +30892,7 @@
       <c r="I5" s="61">
         <v>10003</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="51" t="s">
         <v>72</v>
       </c>
@@ -30944,7 +30944,7 @@
       <c r="AV5" s="51">
         <v>10002</v>
       </c>
-      <c r="AX5" s="72"/>
+      <c r="AX5" s="76"/>
       <c r="AY5" s="51" t="s">
         <v>57</v>
       </c>
@@ -30960,7 +30960,7 @@
       <c r="I6" s="61">
         <v>10011</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="76" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="51" t="s">
@@ -30990,7 +30990,7 @@
       <c r="AV6" s="51">
         <v>10003</v>
       </c>
-      <c r="AX6" s="72"/>
+      <c r="AX6" s="76"/>
       <c r="AY6" s="51" t="s">
         <v>72</v>
       </c>
@@ -31017,7 +31017,7 @@
       <c r="I7" s="61">
         <v>10012</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="51" t="s">
         <v>57</v>
       </c>
@@ -31063,7 +31063,7 @@
       <c r="AV7" s="51">
         <v>10011</v>
       </c>
-      <c r="AX7" s="72" t="s">
+      <c r="AX7" s="76" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="51" t="s">
@@ -31092,7 +31092,7 @@
       <c r="I8" s="61">
         <v>10013</v>
       </c>
-      <c r="K8" s="72"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="51" t="s">
         <v>72</v>
       </c>
@@ -31132,7 +31132,7 @@
       <c r="AV8" s="51">
         <v>10012</v>
       </c>
-      <c r="AX8" s="72"/>
+      <c r="AX8" s="76"/>
       <c r="AY8" s="51" t="s">
         <v>57</v>
       </c>
@@ -31148,7 +31148,7 @@
       <c r="I9" s="61">
         <v>10021</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="51" t="s">
@@ -31172,7 +31172,7 @@
       <c r="AV9" s="51">
         <v>10013</v>
       </c>
-      <c r="AX9" s="72"/>
+      <c r="AX9" s="76"/>
       <c r="AY9" s="51" t="s">
         <v>72</v>
       </c>
@@ -31199,7 +31199,7 @@
       <c r="I10" s="61">
         <v>10022</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="51" t="s">
         <v>57</v>
       </c>
@@ -31243,7 +31243,7 @@
       <c r="AV10" s="51">
         <v>10021</v>
       </c>
-      <c r="AX10" s="72" t="s">
+      <c r="AX10" s="76" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="51" t="s">
@@ -31272,7 +31272,7 @@
       <c r="I11" s="61">
         <v>10023</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="51" t="s">
         <v>72</v>
       </c>
@@ -31324,7 +31324,7 @@
       <c r="AV11" s="51">
         <v>10022</v>
       </c>
-      <c r="AX11" s="72"/>
+      <c r="AX11" s="76"/>
       <c r="AY11" s="51" t="s">
         <v>57</v>
       </c>
@@ -31341,7 +31341,7 @@
       <c r="I12" s="61">
         <v>10031</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="76" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="51" t="s">
@@ -31374,7 +31374,7 @@
       <c r="AV12" s="51">
         <v>10023</v>
       </c>
-      <c r="AX12" s="72"/>
+      <c r="AX12" s="76"/>
       <c r="AY12" s="51" t="s">
         <v>72</v>
       </c>
@@ -31394,7 +31394,7 @@
       <c r="I13" s="61">
         <v>10032</v>
       </c>
-      <c r="K13" s="72"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="51" t="s">
         <v>57</v>
       </c>
@@ -31422,7 +31422,7 @@
       <c r="AV13" s="51">
         <v>10031</v>
       </c>
-      <c r="AX13" s="72" t="s">
+      <c r="AX13" s="76" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="51" t="s">
@@ -31455,7 +31455,7 @@
       <c r="I14" s="61">
         <v>10033</v>
       </c>
-      <c r="K14" s="72"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="51" t="s">
         <v>72</v>
       </c>
@@ -31486,7 +31486,7 @@
       <c r="AV14" s="51">
         <v>10032</v>
       </c>
-      <c r="AX14" s="72"/>
+      <c r="AX14" s="76"/>
       <c r="AY14" s="51" t="s">
         <v>57</v>
       </c>
@@ -31511,7 +31511,7 @@
       <c r="I15" s="61">
         <v>10041</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="76" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="51" t="s">
@@ -31541,7 +31541,7 @@
       <c r="AV15" s="51">
         <v>10033</v>
       </c>
-      <c r="AX15" s="72"/>
+      <c r="AX15" s="76"/>
       <c r="AY15" s="51" t="s">
         <v>72</v>
       </c>
@@ -31566,7 +31566,7 @@
       <c r="I16" s="61">
         <v>10042</v>
       </c>
-      <c r="K16" s="72"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="51" t="s">
         <v>57</v>
       </c>
@@ -31594,7 +31594,7 @@
       <c r="AV16" s="51">
         <v>10041</v>
       </c>
-      <c r="AX16" s="72" t="s">
+      <c r="AX16" s="76" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="51" t="s">
@@ -31621,7 +31621,7 @@
       <c r="I17" s="61">
         <v>10043</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="51" t="s">
         <v>72</v>
       </c>
@@ -31644,7 +31644,7 @@
       <c r="AV17" s="51">
         <v>10042</v>
       </c>
-      <c r="AX17" s="72"/>
+      <c r="AX17" s="76"/>
       <c r="AY17" s="51" t="s">
         <v>57</v>
       </c>
@@ -31669,7 +31669,7 @@
       <c r="I18" s="51">
         <v>10051</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="76" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="51" t="s">
@@ -31705,7 +31705,7 @@
       <c r="AV18" s="51">
         <v>10043</v>
       </c>
-      <c r="AX18" s="72"/>
+      <c r="AX18" s="76"/>
       <c r="AY18" s="51" t="s">
         <v>72</v>
       </c>
@@ -31727,7 +31727,7 @@
       <c r="I19" s="51">
         <v>10052</v>
       </c>
-      <c r="K19" s="72"/>
+      <c r="K19" s="76"/>
       <c r="L19" s="51" t="s">
         <v>57</v>
       </c>
@@ -31761,7 +31761,7 @@
       <c r="AV19" s="51">
         <v>10051</v>
       </c>
-      <c r="AX19" s="72" t="s">
+      <c r="AX19" s="76" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="51" t="s">
@@ -31778,7 +31778,7 @@
       <c r="I20" s="51">
         <v>10053</v>
       </c>
-      <c r="K20" s="72"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="51" t="s">
         <v>72</v>
       </c>
@@ -31809,7 +31809,7 @@
       <c r="AV20" s="51">
         <v>10052</v>
       </c>
-      <c r="AX20" s="72"/>
+      <c r="AX20" s="76"/>
       <c r="AY20" s="51" t="s">
         <v>57</v>
       </c>
@@ -31850,7 +31850,7 @@
       <c r="AV21" s="51">
         <v>10053</v>
       </c>
-      <c r="AX21" s="72"/>
+      <c r="AX21" s="76"/>
       <c r="AY21" s="51" t="s">
         <v>72</v>
       </c>
@@ -37807,8 +37807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AR81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38185,7 +38185,7 @@
       <c r="P19" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Q19" s="75" t="s">
+      <c r="Q19" s="74" t="s">
         <v>1529</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -38194,7 +38194,7 @@
       <c r="U19" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="V19" s="75" t="s">
+      <c r="V19" s="74" t="s">
         <v>1534</v>
       </c>
       <c r="W19" s="5" t="s">
@@ -38274,13 +38274,13 @@
       <c r="M20" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="Q20" s="75" t="s">
+      <c r="Q20" s="74" t="s">
         <v>1530</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="V20" s="75" t="s">
+      <c r="V20" s="74" t="s">
         <v>1536</v>
       </c>
       <c r="W20" s="5" t="s">
@@ -38354,13 +38354,13 @@
       <c r="M21" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="V21" s="75" t="s">
+      <c r="V21" s="74" t="s">
         <v>1537</v>
       </c>
-      <c r="W21" s="73" t="s">
+      <c r="W21" s="72" t="s">
         <v>1519</v>
       </c>
-      <c r="X21" s="76">
+      <c r="X21" s="75">
         <v>10</v>
       </c>
       <c r="Y21" s="3">
@@ -38376,10 +38376,10 @@
         <f t="shared" si="0"/>
         <v>10@110103;50;100</v>
       </c>
-      <c r="AE21" s="73" t="s">
+      <c r="AE21" s="72" t="s">
         <v>1512</v>
       </c>
-      <c r="AF21" s="76">
+      <c r="AF21" s="75">
         <v>10</v>
       </c>
       <c r="AG21" s="3">
@@ -38397,10 +38397,10 @@
       </c>
       <c r="AK21" s="34"/>
       <c r="AL21" s="34"/>
-      <c r="AM21" s="73" t="s">
+      <c r="AM21" s="72" t="s">
         <v>1513</v>
       </c>
-      <c r="AN21" s="76">
+      <c r="AN21" s="75">
         <v>10</v>
       </c>
       <c r="AO21" s="3">
@@ -38435,7 +38435,7 @@
       <c r="U23" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="V23" s="75" t="s">
+      <c r="V23" s="74" t="s">
         <v>1535</v>
       </c>
       <c r="W23" s="5" t="s">
@@ -38482,7 +38482,7 @@
       <c r="AK23" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AM23" s="74" t="s">
+      <c r="AM23" s="73" t="s">
         <v>1516</v>
       </c>
       <c r="AN23" s="3">
@@ -38503,7 +38503,7 @@
       </c>
     </row>
     <row r="24" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="74" t="s">
         <v>1526</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -38515,7 +38515,7 @@
       <c r="M24" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="Q24" s="75" t="s">
+      <c r="Q24" s="74" t="s">
         <v>1531</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -38559,7 +38559,7 @@
         <f t="shared" ref="AJ24:AJ25" si="4">AF24&amp;"@"&amp;AG24&amp;";"&amp;AH24&amp;";"&amp;AI24</f>
         <v>2@119403;30;75</v>
       </c>
-      <c r="AM24" s="74" t="s">
+      <c r="AM24" s="73" t="s">
         <v>1515</v>
       </c>
       <c r="AN24" s="3">
@@ -38580,7 +38580,7 @@
       </c>
     </row>
     <row r="25" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="74" t="s">
         <v>1526</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -38592,16 +38592,16 @@
       <c r="M25" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="Q25" s="75" t="s">
+      <c r="Q25" s="74" t="s">
         <v>1528</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="W25" s="73" t="s">
+      <c r="W25" s="72" t="s">
         <v>1524</v>
       </c>
-      <c r="X25" s="76">
+      <c r="X25" s="75">
         <v>2</v>
       </c>
       <c r="Y25" s="3">
@@ -38617,10 +38617,10 @@
         <f t="shared" si="3"/>
         <v>2@200403;0.01;0.03</v>
       </c>
-      <c r="AE25" s="73" t="s">
+      <c r="AE25" s="72" t="s">
         <v>1511</v>
       </c>
-      <c r="AF25" s="76">
+      <c r="AF25" s="75">
         <v>2</v>
       </c>
       <c r="AG25" s="3">
@@ -38636,10 +38636,10 @@
         <f t="shared" si="4"/>
         <v>2@204603;0.01;0.03</v>
       </c>
-      <c r="AM25" s="73" t="s">
+      <c r="AM25" s="72" t="s">
         <v>1521</v>
       </c>
-      <c r="AN25" s="76">
+      <c r="AN25" s="75">
         <v>2</v>
       </c>
       <c r="AO25" s="3">
@@ -38657,7 +38657,7 @@
       </c>
     </row>
     <row r="26" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="74" t="s">
         <v>1526</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -38671,7 +38671,7 @@
       </c>
     </row>
     <row r="27" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="74" t="s">
         <v>1526</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -38810,7 +38810,7 @@
       </c>
     </row>
     <row r="29" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="74" t="s">
         <v>1527</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -38822,16 +38822,16 @@
       <c r="M29" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="Q29" s="75" t="s">
+      <c r="Q29" s="74" t="s">
         <v>1533</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="W29" s="73" t="s">
+      <c r="W29" s="72" t="s">
         <v>1523</v>
       </c>
-      <c r="X29" s="76">
+      <c r="X29" s="75">
         <v>9</v>
       </c>
       <c r="Y29" s="3">
@@ -38847,10 +38847,10 @@
         <f t="shared" si="6"/>
         <v>9@203603;0.01;0.03</v>
       </c>
-      <c r="AE29" s="73" t="s">
+      <c r="AE29" s="72" t="s">
         <v>1510</v>
       </c>
-      <c r="AF29" s="76">
+      <c r="AF29" s="75">
         <v>9</v>
       </c>
       <c r="AG29" s="3">
@@ -38871,7 +38871,7 @@
       <c r="AM29" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="AN29" s="76">
+      <c r="AN29" s="75">
         <v>9</v>
       </c>
       <c r="AO29" s="3">
@@ -38889,7 +38889,7 @@
       </c>
     </row>
     <row r="30" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="74" t="s">
         <v>1527</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -38901,7 +38901,7 @@
       <c r="M30" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="Q30" s="75" t="s">
+      <c r="Q30" s="74" t="s">
         <v>1532</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -38909,10 +38909,10 @@
       </c>
     </row>
     <row r="31" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="74" t="s">
         <v>1517</v>
       </c>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="74" t="s">
         <v>1527</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -38992,7 +38992,7 @@
       </c>
     </row>
     <row r="32" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="74" t="s">
         <v>1527</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -39122,10 +39122,10 @@
       </c>
     </row>
     <row r="34" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="W34" s="73" t="s">
+      <c r="W34" s="72" t="s">
         <v>1508</v>
       </c>
-      <c r="X34" s="76">
+      <c r="X34" s="75">
         <v>8</v>
       </c>
       <c r="Y34" s="3">
@@ -39141,10 +39141,10 @@
         <f t="shared" si="9"/>
         <v>8@200203;0.01;0.03</v>
       </c>
-      <c r="AE34" s="73" t="s">
+      <c r="AE34" s="72" t="s">
         <v>1523</v>
       </c>
-      <c r="AF34" s="76">
+      <c r="AF34" s="75">
         <v>8</v>
       </c>
       <c r="AG34" s="3">
@@ -39162,10 +39162,10 @@
       </c>
       <c r="AK34" s="34"/>
       <c r="AL34" s="34"/>
-      <c r="AM34" s="73" t="s">
+      <c r="AM34" s="72" t="s">
         <v>1514</v>
       </c>
-      <c r="AN34" s="76">
+      <c r="AN34" s="75">
         <v>8</v>
       </c>
       <c r="AO34" s="3">
@@ -39184,7 +39184,7 @@
     </row>
     <row r="35" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="36" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="G36" s="75" t="s">
+      <c r="G36" s="74" t="s">
         <v>1518</v>
       </c>
       <c r="U36" s="3" t="s">
@@ -39373,10 +39373,10 @@
       </c>
     </row>
     <row r="39" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="W39" s="73" t="s">
+      <c r="W39" s="72" t="s">
         <v>1525</v>
       </c>
-      <c r="X39" s="76">
+      <c r="X39" s="75">
         <v>7</v>
       </c>
       <c r="Y39" s="3">
@@ -39392,10 +39392,10 @@
         <f t="shared" si="12"/>
         <v>7@110303;10;60</v>
       </c>
-      <c r="AE39" s="73" t="s">
+      <c r="AE39" s="72" t="s">
         <v>1509</v>
       </c>
-      <c r="AF39" s="76">
+      <c r="AF39" s="75">
         <v>7</v>
       </c>
       <c r="AG39" s="3">
@@ -39413,10 +39413,10 @@
       </c>
       <c r="AK39" s="34"/>
       <c r="AL39" s="34"/>
-      <c r="AM39" s="73" t="s">
+      <c r="AM39" s="72" t="s">
         <v>1538</v>
       </c>
-      <c r="AN39" s="76">
+      <c r="AN39" s="75">
         <v>7</v>
       </c>
       <c r="AO39" s="3">
@@ -39568,7 +39568,7 @@
       </c>
     </row>
     <row r="42" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F42" s="76">
+      <c r="F42" s="75">
         <v>1</v>
       </c>
       <c r="G42" s="3">
@@ -39659,7 +39659,7 @@
       </c>
     </row>
     <row r="43" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F43" s="76">
+      <c r="F43" s="75">
         <v>1</v>
       </c>
       <c r="G43" s="3">
@@ -39713,7 +39713,7 @@
         <f t="shared" si="17"/>
         <v>6@100903;0.01;0.03</v>
       </c>
-      <c r="AE43" s="73" t="s">
+      <c r="AE43" s="72" t="s">
         <v>1522</v>
       </c>
       <c r="AF43" s="34">
@@ -39732,7 +39732,7 @@
         <f t="shared" si="18"/>
         <v>6@200103;0.01;0.03</v>
       </c>
-      <c r="AM43" s="73" t="s">
+      <c r="AM43" s="72" t="s">
         <v>1520</v>
       </c>
       <c r="AN43" s="34">
@@ -39821,7 +39821,7 @@
       </c>
     </row>
     <row r="46" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F46" s="76">
+      <c r="F46" s="75">
         <v>1</v>
       </c>
       <c r="G46" s="3">
@@ -39855,7 +39855,7 @@
       </c>
     </row>
     <row r="47" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F47" s="76">
+      <c r="F47" s="75">
         <v>1</v>
       </c>
       <c r="G47" s="3">
@@ -39957,7 +39957,7 @@
       </c>
     </row>
     <row r="50" spans="6:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F50" s="76">
+      <c r="F50" s="75">
         <v>1</v>
       </c>
       <c r="G50" s="3">
@@ -39991,7 +39991,7 @@
       </c>
     </row>
     <row r="51" spans="6:15" ht="20.100000000000001" customHeight="1">
-      <c r="F51" s="76">
+      <c r="F51" s="75">
         <v>1</v>
       </c>
       <c r="G51" s="3">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29575809-1F48-4B2C-8F05-F72A2DBF62C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA2518-E705-45B1-8C1A-597D98C9F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="1602">
   <si>
     <t>人物属性</t>
   </si>
@@ -4906,6 +4906,212 @@
   </si>
   <si>
     <t>11 项链</t>
+  </si>
+  <si>
+    <t>传承:新月神链</t>
+  </si>
+  <si>
+    <t>传承:勇者的无畏</t>
+  </si>
+  <si>
+    <t>传承:勇者的意志</t>
+  </si>
+  <si>
+    <t>传承:守护者的神杖</t>
+  </si>
+  <si>
+    <t>传承:圣灵的魔法书</t>
+  </si>
+  <si>
+    <t>传承:疾风者的疯狂</t>
+  </si>
+  <si>
+    <t>传承:圣域的记忆</t>
+  </si>
+  <si>
+    <t>传承:米希尔之力</t>
+  </si>
+  <si>
+    <t>传承:恒心使徒的魔链</t>
+  </si>
+  <si>
+    <t>传承:碧蓝之歌</t>
+  </si>
+  <si>
+    <t>传承:有坚不摧之力</t>
+  </si>
+  <si>
+    <t>传承:炽热燃烧权杖</t>
+  </si>
+  <si>
+    <t>传承:毁灭之书</t>
+  </si>
+  <si>
+    <t>传承:光之怒</t>
+  </si>
+  <si>
+    <t>传承:神灵启示者</t>
+  </si>
+  <si>
+    <t>传承:降魔护卫者</t>
+  </si>
+  <si>
+    <t>传承:末日的启示者</t>
+  </si>
+  <si>
+    <t>传承:寒冰使者的佩剑</t>
+  </si>
+  <si>
+    <t>传承:黎明的护卫者</t>
+  </si>
+  <si>
+    <t>传承:冰灵惩戒之杖</t>
+  </si>
+  <si>
+    <t>传承:王者的愤怒</t>
+  </si>
+  <si>
+    <t>传承:正义的呼唤</t>
+  </si>
+  <si>
+    <t>传承:暴灵的守护</t>
+  </si>
+  <si>
+    <t>传承:神官的黄昏</t>
+  </si>
+  <si>
+    <t>传承:女王项链</t>
+  </si>
+  <si>
+    <t>传承:黑暗毁灭者</t>
+  </si>
+  <si>
+    <t>传承:末日的决战</t>
+  </si>
+  <si>
+    <t>传承:堕落的使者</t>
+  </si>
+  <si>
+    <t>传承:上层精灵的魔法</t>
+  </si>
+  <si>
+    <t>传承:尽头之声</t>
+  </si>
+  <si>
+    <t>传承:天籁长袍</t>
+  </si>
+  <si>
+    <t>传承:不败的意志</t>
+  </si>
+  <si>
+    <t>传承:力量的召唤</t>
+  </si>
+  <si>
+    <t>传承:圣焰之剑</t>
+  </si>
+  <si>
+    <t>传承:远古王者之刃</t>
+  </si>
+  <si>
+    <t>传承:天堂的权杖</t>
+  </si>
+  <si>
+    <t>传承:时光能量魔法</t>
+  </si>
+  <si>
+    <t>传承:噩梦裁决者</t>
+  </si>
+  <si>
+    <t>传承:祝福者外衣</t>
+  </si>
+  <si>
+    <t>传承:怒之烈焰</t>
+  </si>
+  <si>
+    <r>
+      <t>攻击速度+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击恢复当前造成伤害的5%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击概率提升自身1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0%攻击,持续6秒</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风击</t>
+  </si>
+  <si>
+    <t>龙卷雨击+1   守护之击+1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5%概率躲避敌人的法术攻击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5%概率躲避敌人的物理攻击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身5%的最大生命值</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装备:攻击提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100点</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备:暴击概率提升5%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击忽略目标5%防御</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有一定概率恢复自身的生命值</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5256,7 +5462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5472,6 +5678,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -37805,16 +38020,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AR81"/>
+  <dimension ref="B1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="12" width="11.375" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
@@ -38156,12 +38371,12 @@
       </c>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J17" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="Q18" s="3" t="s">
         <v>600</v>
       </c>
@@ -38169,7 +38384,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I19" s="3" t="s">
         <v>613</v>
       </c>
@@ -38261,7 +38476,7 @@
         <v>10@100403;50;150</v>
       </c>
     </row>
-    <row r="20" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I20" s="3" t="s">
         <v>613</v>
       </c>
@@ -38341,7 +38556,7 @@
         <v>10@119103;30;100</v>
       </c>
     </row>
-    <row r="21" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I21" s="3" t="s">
         <v>613</v>
       </c>
@@ -38417,7 +38632,7 @@
         <v>10@110103;0.01;0.03</v>
       </c>
     </row>
-    <row r="22" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="3" t="s">
         <v>613</v>
       </c>
@@ -38431,7 +38646,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="23" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="U23" s="3" t="s">
         <v>358</v>
       </c>
@@ -38502,7 +38717,7 @@
         <v>2@100203;250;750</v>
       </c>
     </row>
-    <row r="24" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I24" s="74" t="s">
         <v>1526</v>
       </c>
@@ -38579,7 +38794,7 @@
         <v>2@119403;30;100</v>
       </c>
     </row>
-    <row r="25" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I25" s="74" t="s">
         <v>1526</v>
       </c>
@@ -38656,7 +38871,7 @@
         <v>2@200503;0.01;0.03</v>
       </c>
     </row>
-    <row r="26" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I26" s="74" t="s">
         <v>1526</v>
       </c>
@@ -38670,7 +38885,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="27" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I27" s="74" t="s">
         <v>1526</v>
       </c>
@@ -38750,7 +38965,7 @@
         <v>9@118103;50;150</v>
       </c>
     </row>
-    <row r="28" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W28" s="5" t="s">
         <v>666</v>
       </c>
@@ -38809,7 +39024,13 @@
         <v>9@118203;50;150</v>
       </c>
     </row>
-    <row r="29" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D29" s="3">
+        <v>61011204</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I29" s="74" t="s">
         <v>1527</v>
       </c>
@@ -38888,7 +39109,13 @@
         <v>9@110303;50;150</v>
       </c>
     </row>
-    <row r="30" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D30" s="3">
+        <v>61012204</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1593</v>
+      </c>
       <c r="I30" s="74" t="s">
         <v>1527</v>
       </c>
@@ -38908,7 +39135,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="G31" s="74" t="s">
         <v>1517</v>
       </c>
@@ -38991,7 +39218,7 @@
         <v>8@105403;8;30</v>
       </c>
     </row>
-    <row r="32" spans="7:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="4:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I32" s="74" t="s">
         <v>1527</v>
       </c>
@@ -39062,7 +39289,7 @@
         <v>8@105203;8;30</v>
       </c>
     </row>
-    <row r="33" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W33" s="5" t="s">
         <v>690</v>
       </c>
@@ -39121,7 +39348,7 @@
         <v>8@105503;8;30</v>
       </c>
     </row>
-    <row r="34" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W34" s="72" t="s">
         <v>1508</v>
       </c>
@@ -39182,8 +39409,8 @@
         <v>8@100202;0.01;0.03</v>
       </c>
     </row>
-    <row r="35" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="G36" s="74" t="s">
         <v>1518</v>
       </c>
@@ -39254,7 +39481,7 @@
         <v>7@105103;8;30</v>
       </c>
     </row>
-    <row r="37" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="5" t="s">
         <v>699</v>
       </c>
@@ -39313,7 +39540,7 @@
         <v>7@105303;8;30</v>
       </c>
     </row>
-    <row r="38" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W38" s="5" t="s">
         <v>690</v>
       </c>
@@ -39372,7 +39599,7 @@
         <v>7@105503;8;30</v>
       </c>
     </row>
-    <row r="39" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="W39" s="72" t="s">
         <v>1525</v>
       </c>
@@ -39433,7 +39660,16 @@
         <v>7@200603;0.01;0.03</v>
       </c>
     </row>
-    <row r="40" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="77">
+        <v>14060005</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>1590</v>
+      </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
@@ -39467,7 +39703,16 @@
         <v>11@120703;10;50</v>
       </c>
     </row>
-    <row r="41" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="79">
+        <v>14100011</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>1592</v>
+      </c>
       <c r="F41" s="3">
         <v>1</v>
       </c>
@@ -39567,7 +39812,16 @@
         <v>6@100503;50;150</v>
       </c>
     </row>
-    <row r="42" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="79">
+        <v>14100012</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>1591</v>
+      </c>
       <c r="F42" s="75">
         <v>1</v>
       </c>
@@ -39658,7 +39912,16 @@
         <v>6@100603;50;150</v>
       </c>
     </row>
-    <row r="43" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="77">
+        <v>14100111</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>1592</v>
+      </c>
       <c r="F43" s="75">
         <v>1</v>
       </c>
@@ -39752,7 +40015,16 @@
         <v>6@200303;0.01;0.03</v>
       </c>
     </row>
-    <row r="44" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="77">
+        <v>14100112</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>1594</v>
+      </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
@@ -39786,7 +40058,16 @@
         <v>11@120703;30;80</v>
       </c>
     </row>
-    <row r="45" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="77">
+        <v>14110021</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>1595</v>
+      </c>
       <c r="F45" s="3">
         <v>1</v>
       </c>
@@ -39820,7 +40101,16 @@
         <v>11@120703;30;80</v>
       </c>
     </row>
-    <row r="46" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="77">
+        <v>14110022</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>1596</v>
+      </c>
       <c r="F46" s="75">
         <v>1</v>
       </c>
@@ -39854,7 +40144,16 @@
         <v>4@120603;30;80</v>
       </c>
     </row>
-    <row r="47" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="77">
+        <v>14110023</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>1597</v>
+      </c>
       <c r="F47" s="75">
         <v>1</v>
       </c>
@@ -39888,7 +40187,7 @@
         <v>4@120603;30;80</v>
       </c>
     </row>
-    <row r="48" spans="6:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="F48" s="3">
         <v>1</v>
       </c>
@@ -39922,7 +40221,7 @@
         <v>11@120703;50;120</v>
       </c>
     </row>
-    <row r="49" spans="6:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="F49" s="3">
         <v>1</v>
       </c>
@@ -39956,7 +40255,16 @@
         <v>11@120703;50;120</v>
       </c>
     </row>
-    <row r="50" spans="6:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="78">
+        <v>15206003</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>1598</v>
+      </c>
       <c r="F50" s="75">
         <v>1</v>
       </c>
@@ -39990,7 +40298,16 @@
         <v>4@120603;50;120</v>
       </c>
     </row>
-    <row r="51" spans="6:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="78">
+        <v>15210011</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>1599</v>
+      </c>
       <c r="F51" s="75">
         <v>1</v>
       </c>
@@ -40024,21 +40341,128 @@
         <v>4@120603;50;120</v>
       </c>
     </row>
-    <row r="52" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" spans="6:15" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="78">
+        <v>15210012</v>
+      </c>
+      <c r="C52" s="78" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="78">
+        <v>15210111</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="78">
+        <v>15210112</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>1600</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" spans="6:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" spans="8:13">
+    <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="78">
+        <v>15211011</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="78">
+        <v>15211012</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="78">
+        <v>15211013</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="78">
+        <v>15306003</v>
+      </c>
+      <c r="C59" s="78" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B60" s="78">
+        <v>15310011</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B61" s="78">
+        <v>15310012</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="78">
+        <v>15310111</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="78">
+        <v>15310112</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="78">
+        <v>15311011</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B65" s="78">
+        <v>15311012</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="78">
+        <v>15311013</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>1573</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
         <v>705</v>
@@ -40051,7 +40475,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="8:13">
+    <row r="67" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="H67" s="3">
         <v>10</v>
       </c>
@@ -40065,7 +40489,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="8:13">
+    <row r="68" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="H68" s="3"/>
       <c r="I68" s="3">
         <v>2</v>
@@ -40075,7 +40499,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="8:13">
+    <row r="69" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="H69" s="3"/>
       <c r="I69" s="3">
         <v>3</v>
@@ -40085,7 +40509,13 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="8:13">
+    <row r="70" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="78">
+        <v>15406003</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>1574</v>
+      </c>
       <c r="H70" s="3">
         <v>20</v>
       </c>
@@ -40097,7 +40527,13 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="8:13">
+    <row r="71" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="78">
+        <v>15410011</v>
+      </c>
+      <c r="C71" s="78" t="s">
+        <v>1575</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3">
         <v>2</v>
@@ -40107,7 +40543,13 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="8:13">
+    <row r="72" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="78">
+        <v>15410012</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>1576</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3">
         <v>3</v>
@@ -40117,7 +40559,13 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="8:13">
+    <row r="73" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="78">
+        <v>15410111</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>1577</v>
+      </c>
       <c r="H73" s="3">
         <v>30</v>
       </c>
@@ -40129,7 +40577,13 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="8:13">
+    <row r="74" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="78">
+        <v>15410112</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>1578</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3">
         <v>2</v>
@@ -40139,7 +40593,13 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="8:13">
+    <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="78">
+        <v>15411011</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>1579</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3">
         <v>3</v>
@@ -40149,7 +40609,13 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="8:13">
+    <row r="76" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="78">
+        <v>15411012</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>1580</v>
+      </c>
       <c r="H76" s="3">
         <v>40</v>
       </c>
@@ -40161,7 +40627,13 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="8:13">
+    <row r="77" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="78">
+        <v>15411013</v>
+      </c>
+      <c r="C77" s="78" t="s">
+        <v>1581</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3">
         <v>2</v>
@@ -40171,7 +40643,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="8:13">
+    <row r="78" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="H78" s="3"/>
       <c r="I78" s="3">
         <v>3</v>
@@ -40181,7 +40653,13 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="8:13">
+    <row r="79" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="78">
+        <v>15506003</v>
+      </c>
+      <c r="C79" s="78" t="s">
+        <v>1582</v>
+      </c>
       <c r="H79" s="3">
         <v>50</v>
       </c>
@@ -40191,7 +40669,13 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="8:13">
+    <row r="80" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B80" s="78">
+        <v>15510011</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>1583</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3">
         <v>2</v>
@@ -40199,13 +40683,59 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="8:11">
+    <row r="81" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="78">
+        <v>15510012</v>
+      </c>
+      <c r="C81" s="78" t="s">
+        <v>1584</v>
+      </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3">
         <v>3</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="78">
+        <v>15510121</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="78">
+        <v>15510122</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="78">
+        <v>15511011</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B85" s="78">
+        <v>15511012</v>
+      </c>
+      <c r="C85" s="78" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B86" s="78">
+        <v>15511013</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>1589</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -5097,13 +5097,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5137,13 +5137,6 @@
       <color theme="1"/>
       <name val="新宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5261,31 +5254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5306,9 +5292,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5324,9 +5346,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5335,51 +5357,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5392,7 +5369,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5485,7 +5478,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5497,7 +5562,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5509,67 +5634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5582,84 +5653,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5731,20 +5724,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5760,21 +5742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5797,8 +5764,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5817,25 +5819,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5844,138 +5837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6051,32 +6044,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6088,13 +6072,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6106,81 +6093,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7126,505 +7110,505 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="69"/>
-    <col min="3" max="3" width="10.25" style="69" customWidth="1"/>
-    <col min="4" max="15" width="9" style="69"/>
-    <col min="16" max="16" width="11.25" style="69" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="69"/>
+    <col min="1" max="2" width="9" style="66"/>
+    <col min="3" max="3" width="10.25" style="66" customWidth="1"/>
+    <col min="4" max="15" width="9" style="66"/>
+    <col min="16" max="16" width="11.25" style="66" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
     <row r="2" ht="20.1" customHeight="1" spans="10:10">
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="68" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B3" s="70"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="52" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49">
         <f>(E4-F4)*D7</f>
         <v>1050</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <v>100</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="49">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="49">
         <v>30</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="52" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="49">
         <v>5</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="49">
         <v>5</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="49">
         <f>L4*$D$4</f>
         <v>5250</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="49">
         <f>K4*$E$4</f>
         <v>500</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="49">
         <f>G4*K4</f>
         <v>150</v>
       </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="52" t="s">
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="49">
         <v>1</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="49">
         <v>1</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="49">
         <v>500</v>
       </c>
-      <c r="V4" s="52">
+      <c r="V4" s="49">
         <v>5000</v>
       </c>
-      <c r="W4" s="52">
+      <c r="W4" s="49">
         <v>200</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B5" s="70"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="52" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="49">
         <v>10</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="49">
         <v>20</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="49">
         <f>L5*$D$4</f>
         <v>21000</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="49">
         <f t="shared" ref="N5:N6" si="0">K5*$E$4</f>
         <v>1000</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="49">
         <f>G4*K5</f>
         <v>300</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="52" t="s">
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="49">
         <v>2.5</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="49">
         <v>2.5</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U5" s="49">
         <f>U4*S5</f>
         <v>1250</v>
       </c>
-      <c r="V5" s="52">
+      <c r="V5" s="49">
         <f>V4*T5</f>
         <v>12500</v>
       </c>
-      <c r="W5" s="52">
+      <c r="W5" s="49">
         <f>W4*S5</f>
         <v>500</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="52" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="49">
         <v>35</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="49">
         <v>25</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="49">
         <f>L6*$D$4</f>
         <v>26250</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="49">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="49">
         <f>$G$4*K6</f>
         <v>1050</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="52" t="s">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="49">
         <v>7</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="49">
         <v>7</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="49">
         <f>S6*U4</f>
         <v>3500</v>
       </c>
-      <c r="V6" s="52">
+      <c r="V6" s="49">
         <f>T6*V4</f>
         <v>35000</v>
       </c>
-      <c r="W6" s="52">
+      <c r="W6" s="49">
         <f>S6*W4</f>
         <v>1400</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B7" s="70"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>15</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="49">
         <v>7.5</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="49">
         <v>7.5</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="52" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="49">
         <v>10</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="49">
         <v>10</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="49">
         <f>L7*$D$4</f>
         <v>10500</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="49">
         <f t="shared" ref="N7" si="1">K7*$E$4</f>
         <v>1000</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="49">
         <f>$G$4*K7</f>
         <v>300</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="52">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="49">
         <f>U6+U5</f>
         <v>4750</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="49">
         <f t="shared" ref="V8:W8" si="2">V6+V5</f>
         <v>47500</v>
       </c>
-      <c r="W8" s="52">
+      <c r="W8" s="49">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="P9" s="52" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="P9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="52" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="49">
         <f t="shared" ref="K10:M10" si="3">SUM(K$4:K$7)</f>
         <v>60</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="49">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="49">
         <f t="shared" si="3"/>
         <v>63000</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="49">
         <f t="shared" ref="N10:O10" si="4">SUM(N$4:N$7)</f>
         <v>6000</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="49">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="49">
         <f>M10/(N10-O10)</f>
         <v>15</v>
       </c>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:23">
-      <c r="B11" s="61"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" ht="20.1" customHeight="1"/>
     <row r="13" ht="20.1" customHeight="1"/>
     <row r="14" ht="20.1" customHeight="1" spans="10:10">
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="10:15">
-      <c r="J15" s="52"/>
-      <c r="K15" s="52" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="10:15">
-      <c r="J16" s="52" t="s">
+      <c r="J16" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="49">
         <v>20</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="49">
         <v>10</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="49">
         <f>L16*$D$4</f>
         <v>10500</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="49">
         <f>K16*$E$4</f>
         <v>2000</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="49">
         <f>L16*$F$4</f>
         <v>300</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="10:15">
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="69">
         <v>10</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="69">
         <v>10</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="49">
         <f t="shared" ref="M17:M18" si="5">L17*$D$4</f>
         <v>10500</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="49">
         <f t="shared" ref="N17:N18" si="6">K17*$E$4</f>
         <v>1000</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="49">
         <f t="shared" ref="O17:O18" si="7">L17*$F$4</f>
         <v>300</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="10:15">
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="69">
         <v>15</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="69">
         <v>15</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="49">
         <f t="shared" si="5"/>
         <v>15750</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="49">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="49">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
@@ -7632,26 +7616,26 @@
     <row r="19" ht="20.1" customHeight="1"/>
     <row r="20" ht="20.1" customHeight="1"/>
     <row r="21" ht="20.1" customHeight="1" spans="10:15">
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="49">
         <f t="shared" ref="K21:M21" si="8">SUM(K$4:K$7)</f>
         <v>60</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="49">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="49">
         <f t="shared" si="8"/>
         <v>63000</v>
       </c>
-      <c r="N21" s="52">
+      <c r="N21" s="49">
         <f t="shared" ref="N21:O21" si="9">SUM(N$4:N$7)</f>
         <v>6000</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="49">
         <f t="shared" si="9"/>
         <v>1800</v>
       </c>
@@ -7667,44 +7651,44 @@
     <row r="30" ht="20.1" customHeight="1"/>
     <row r="31" ht="20.1" customHeight="1"/>
     <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="34" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="35" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="36" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="37" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="38" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="39" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="40" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="41" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="42" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="43" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="44" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="45" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="46" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="47" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="48" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="49" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="50" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="51" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="52" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="53" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="54" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="55" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="56" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="57" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="58" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="59" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="60" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="61" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="62" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="63" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="64" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="65" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="66" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="67" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="68" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="69" s="69" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="70" s="69" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="33" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="34" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="35" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="36" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="37" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="38" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="39" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="40" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="41" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="42" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="43" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="44" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="45" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="46" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="47" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="48" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="49" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="50" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="51" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="52" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="53" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="54" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="55" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="56" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="57" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="58" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="59" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="60" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="61" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="62" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="63" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="64" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="65" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="66" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="67" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="68" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="69" s="66" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="70" s="66" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -31316,2401 +31300,2401 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="52"/>
-    <col min="2" max="2" width="14.875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9" style="52"/>
-    <col min="4" max="4" width="9.5" style="52" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="86.375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="52" customWidth="1"/>
-    <col min="9" max="13" width="9" style="52"/>
-    <col min="14" max="14" width="81.875" style="52" customWidth="1"/>
-    <col min="15" max="19" width="9" style="52"/>
-    <col min="20" max="20" width="29.125" style="52" customWidth="1"/>
-    <col min="21" max="25" width="9" style="52"/>
-    <col min="26" max="26" width="9.5" style="52" customWidth="1"/>
-    <col min="27" max="27" width="10.625" style="52" customWidth="1"/>
-    <col min="28" max="29" width="9" style="52"/>
-    <col min="30" max="30" width="11.375" style="52" customWidth="1"/>
-    <col min="31" max="38" width="9" style="52"/>
-    <col min="39" max="39" width="11.125" style="52" customWidth="1"/>
-    <col min="40" max="40" width="10.5" style="52" customWidth="1"/>
-    <col min="41" max="41" width="11.125" style="52" customWidth="1"/>
-    <col min="42" max="42" width="10.75" style="52" customWidth="1"/>
-    <col min="43" max="43" width="9" style="52"/>
-    <col min="44" max="44" width="11.375" style="52" customWidth="1"/>
-    <col min="45" max="45" width="82.375" style="52" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="9" style="49"/>
+    <col min="2" max="2" width="14.875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="9" style="49"/>
+    <col min="4" max="4" width="9.5" style="49" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="86.375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="49" customWidth="1"/>
+    <col min="9" max="13" width="9" style="49"/>
+    <col min="14" max="14" width="81.875" style="49" customWidth="1"/>
+    <col min="15" max="19" width="9" style="49"/>
+    <col min="20" max="20" width="29.125" style="49" customWidth="1"/>
+    <col min="21" max="25" width="9" style="49"/>
+    <col min="26" max="26" width="9.5" style="49" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="49" customWidth="1"/>
+    <col min="28" max="29" width="9" style="49"/>
+    <col min="30" max="30" width="11.375" style="49" customWidth="1"/>
+    <col min="31" max="38" width="9" style="49"/>
+    <col min="39" max="39" width="11.125" style="49" customWidth="1"/>
+    <col min="40" max="40" width="10.5" style="49" customWidth="1"/>
+    <col min="41" max="41" width="11.125" style="49" customWidth="1"/>
+    <col min="42" max="42" width="10.75" style="49" customWidth="1"/>
+    <col min="43" max="43" width="9" style="49"/>
+    <col min="44" max="44" width="11.375" style="49" customWidth="1"/>
+    <col min="45" max="45" width="82.375" style="49" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="29:30">
-      <c r="AC1" s="52" t="s">
+      <c r="AC1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="52" t="s">
+      <c r="AD1" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="19:44">
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="52" t="s">
+      <c r="AC2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="52" t="s">
+      <c r="AD2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AR2" s="52" t="s">
+      <c r="AR2" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:45">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="59">
         <v>10001</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="49">
         <v>1</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="52" t="str">
+      <c r="V3" s="49" t="str">
         <f>T3&amp;","&amp;T4&amp;","&amp;T5</f>
         <v>速度专精：移动速度提升10%,装备精通：布甲,移动光环：小队内移动速度提升10%</v>
       </c>
-      <c r="AB3" s="53" t="s">
+      <c r="AB3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="53" t="s">
+      <c r="AC3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AD3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="52" t="s">
+      <c r="AN3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AS3" s="56"/>
+      <c r="AS3" s="53"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="49">
         <v>1</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="59">
         <v>10002</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="49">
         <v>2</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="52">
+      <c r="Z4" s="49">
         <v>22000010</v>
       </c>
-      <c r="AA4" s="52">
+      <c r="AA4" s="49">
         <v>22000010</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="52">
+      <c r="AD4" s="49">
         <v>1</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="56" t="s">
+      <c r="AG4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="57" t="s">
+      <c r="AN4" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="AP4" s="52">
+      <c r="AP4" s="49">
         <v>20</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AR4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AS4" s="56" t="s">
+      <c r="AS4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AV4" s="52">
+      <c r="AV4" s="49">
         <v>10001</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="52" t="s">
+      <c r="AX4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="52" t="s">
+      <c r="AY4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="56" t="s">
+      <c r="BA4" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="49">
         <v>1</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="59">
         <v>10003</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="49">
         <v>3</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="52">
+      <c r="Z5" s="49">
         <v>22000020</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AA5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AC5" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="52">
+      <c r="AD5" s="49">
         <v>1</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AF5" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="AG5" s="56" t="s">
+      <c r="AG5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AM5" s="52" t="s">
+      <c r="AM5" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AN5" s="52" t="s">
+      <c r="AN5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AP5" s="52">
+      <c r="AP5" s="49">
         <v>25</v>
       </c>
-      <c r="AR5" s="52" t="s">
+      <c r="AR5" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AS5" s="56" t="s">
+      <c r="AS5" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AV5" s="52">
+      <c r="AV5" s="49">
         <v>10002</v>
       </c>
-      <c r="AY5" s="52" t="s">
+      <c r="AY5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ5" s="52" t="s">
+      <c r="AZ5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="BA5" s="56" t="s">
+      <c r="BA5" s="53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="7:53">
-      <c r="G6" s="56"/>
-      <c r="I6" s="62">
+      <c r="G6" s="53"/>
+      <c r="I6" s="59">
         <v>10011</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AL6" s="52" t="s">
+      <c r="AL6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AN6" s="52" t="s">
+      <c r="AN6" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="AP6" s="52">
+      <c r="AP6" s="49">
         <v>30</v>
       </c>
-      <c r="AR6" s="52" t="s">
+      <c r="AR6" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AS6" s="56" t="s">
+      <c r="AS6" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="AV6" s="52">
+      <c r="AV6" s="49">
         <v>10003</v>
       </c>
-      <c r="AY6" s="52" t="s">
+      <c r="AY6" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ6" s="52" t="s">
+      <c r="AZ6" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="BA6" s="56" t="s">
+      <c r="BA6" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>7</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="59">
         <v>10012</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" s="52">
+      <c r="Z7" s="49">
         <v>22000030</v>
       </c>
-      <c r="AA7" s="52" t="s">
+      <c r="AA7" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="AC7" s="52" t="s">
+      <c r="AC7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="49">
         <v>7</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="56" t="s">
+      <c r="AG7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="AM7" s="52" t="s">
+      <c r="AM7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="AN7" s="52" t="s">
+      <c r="AN7" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AP7" s="49">
         <v>35</v>
       </c>
-      <c r="AR7" s="62" t="s">
+      <c r="AR7" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="AS7" s="60" t="s">
+      <c r="AS7" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="AV7" s="52">
+      <c r="AV7" s="49">
         <v>10011</v>
       </c>
-      <c r="AX7" s="52" t="s">
+      <c r="AX7" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AY7" s="52" t="s">
+      <c r="AY7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ7" s="52" t="s">
+      <c r="AZ7" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="BA7" s="56" t="s">
+      <c r="BA7" s="53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="49">
         <v>7</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="59">
         <v>10013</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="Z8" s="52">
+      <c r="Z8" s="49">
         <v>22000040</v>
       </c>
-      <c r="AA8" s="52" t="s">
+      <c r="AA8" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AC8" s="52" t="s">
+      <c r="AC8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="49">
         <v>7</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="56" t="s">
+      <c r="AG8" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AP8" s="52" t="s">
+      <c r="AP8" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AR8" s="52" t="s">
+      <c r="AR8" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AS8" s="56" t="s">
+      <c r="AS8" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AV8" s="52">
+      <c r="AV8" s="49">
         <v>10012</v>
       </c>
-      <c r="AY8" s="52" t="s">
+      <c r="AY8" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ8" s="52" t="s">
+      <c r="AZ8" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="BA8" s="56" t="s">
+      <c r="BA8" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="7:53">
-      <c r="G9" s="56"/>
-      <c r="I9" s="62">
+      <c r="G9" s="53"/>
+      <c r="I9" s="59">
         <v>10021</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="AR9" s="52" t="s">
+      <c r="AR9" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="AS9" s="56" t="s">
+      <c r="AS9" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AV9" s="52">
+      <c r="AV9" s="49">
         <v>10013</v>
       </c>
-      <c r="AY9" s="52" t="s">
+      <c r="AY9" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ9" s="52" t="s">
+      <c r="AZ9" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="BA9" s="56" t="s">
+      <c r="BA9" s="53" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="49">
         <v>12</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="59">
         <v>10022</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="49">
         <v>1</v>
       </c>
-      <c r="T10" s="56" t="s">
+      <c r="T10" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="V10" s="52" t="str">
+      <c r="V10" s="49" t="str">
         <f>T10&amp;","&amp;T11&amp;","&amp;T12</f>
         <v>刀类专精：使用剑类武器伤害提升5%,装备精通：轻甲,暴击光环：小队内暴击概率提升5%</v>
       </c>
-      <c r="Z10" s="52">
+      <c r="Z10" s="49">
         <v>22000050</v>
       </c>
-      <c r="AA10" s="52" t="s">
+      <c r="AA10" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="AC10" s="52" t="s">
+      <c r="AC10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="49">
         <v>12</v>
       </c>
-      <c r="AF10" s="52" t="s">
+      <c r="AF10" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AG10" s="56" t="s">
+      <c r="AG10" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="AM10" s="52" t="s">
+      <c r="AM10" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="AV10" s="52">
+      <c r="AV10" s="49">
         <v>10021</v>
       </c>
-      <c r="AX10" s="52" t="s">
+      <c r="AX10" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="AY10" s="52" t="s">
+      <c r="AY10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ10" s="52" t="s">
+      <c r="AZ10" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="BA10" s="56" t="s">
+      <c r="BA10" s="53" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="3:53">
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="49">
         <v>12</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="59">
         <v>10023</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="49">
         <v>2</v>
       </c>
-      <c r="T11" s="56" t="s">
+      <c r="T11" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="Z11" s="52">
+      <c r="Z11" s="49">
         <v>22000060</v>
       </c>
-      <c r="AA11" s="52" t="s">
+      <c r="AA11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="AC11" s="52" t="s">
+      <c r="AC11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="49">
         <v>12</v>
       </c>
-      <c r="AF11" s="52" t="s">
+      <c r="AF11" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="AG11" s="56" t="s">
+      <c r="AG11" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AM11" s="52" t="s">
+      <c r="AM11" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AN11" s="57" t="s">
+      <c r="AN11" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AP11" s="52">
+      <c r="AP11" s="49">
         <v>20</v>
       </c>
-      <c r="AR11" s="52" t="s">
+      <c r="AR11" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="AS11" s="56" t="s">
+      <c r="AS11" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="AV11" s="52">
+      <c r="AV11" s="49">
         <v>10022</v>
       </c>
-      <c r="AY11" s="52" t="s">
+      <c r="AY11" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ11" s="52" t="s">
+      <c r="AZ11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="BA11" s="56" t="s">
+      <c r="BA11" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="7:53">
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="62">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="59">
         <v>10031</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="N12" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="49">
         <v>3</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AN12" s="52" t="s">
+      <c r="AN12" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AP12" s="52">
+      <c r="AP12" s="49">
         <v>25</v>
       </c>
-      <c r="AR12" s="52" t="s">
+      <c r="AR12" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AS12" s="56" t="s">
+      <c r="AS12" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AV12" s="52">
+      <c r="AV12" s="49">
         <v>10023</v>
       </c>
-      <c r="AY12" s="52" t="s">
+      <c r="AY12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ12" s="52" t="s">
+      <c r="AZ12" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="BA12" s="56" t="s">
+      <c r="BA12" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:53">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="62">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59">
         <v>10032</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="AM13" s="52" t="s">
+      <c r="AM13" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="AN13" s="52" t="s">
+      <c r="AN13" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AP13" s="52">
+      <c r="AP13" s="49">
         <v>30</v>
       </c>
-      <c r="AR13" s="52" t="s">
+      <c r="AR13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="AS13" s="56" t="s">
+      <c r="AS13" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="AV13" s="52">
+      <c r="AV13" s="49">
         <v>10031</v>
       </c>
-      <c r="AX13" s="52" t="s">
+      <c r="AX13" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AY13" s="52" t="s">
+      <c r="AY13" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ13" s="52" t="s">
+      <c r="AZ13" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="BA13" s="56" t="s">
+      <c r="BA13" s="53" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:53">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="49">
         <v>20</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="62">
+      <c r="H14" s="53"/>
+      <c r="I14" s="59">
         <v>10033</v>
       </c>
-      <c r="L14" s="52" t="s">
+      <c r="L14" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="M14" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="AB14" s="52" t="s">
+      <c r="AB14" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="AC14" s="52" t="s">
+      <c r="AC14" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AN14" s="52" t="s">
+      <c r="AN14" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="AP14" s="52">
+      <c r="AP14" s="49">
         <v>35</v>
       </c>
-      <c r="AR14" s="52" t="s">
+      <c r="AR14" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="AS14" s="56" t="s">
+      <c r="AS14" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="AV14" s="52">
+      <c r="AV14" s="49">
         <v>10032</v>
       </c>
-      <c r="AY14" s="52" t="s">
+      <c r="AY14" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ14" s="52" t="s">
+      <c r="AZ14" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="BA14" s="56" t="s">
+      <c r="BA14" s="53" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D15" s="52">
+      <c r="D15" s="49">
         <v>25</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="62">
+      <c r="H15" s="53"/>
+      <c r="I15" s="59">
         <v>10041</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="AB15" s="52" t="s">
+      <c r="AB15" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="AC15" s="52" t="s">
+      <c r="AC15" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="AP15" s="52" t="s">
+      <c r="AP15" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AR15" s="52" t="s">
+      <c r="AR15" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AS15" s="56" t="s">
+      <c r="AS15" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="AV15" s="52">
+      <c r="AV15" s="49">
         <v>10033</v>
       </c>
-      <c r="AY15" s="52" t="s">
+      <c r="AY15" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ15" s="52" t="s">
+      <c r="AZ15" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BA15" s="56" t="s">
+      <c r="BA15" s="53" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D16" s="52">
+      <c r="D16" s="49">
         <v>30</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="62">
+      <c r="H16" s="57"/>
+      <c r="I16" s="59">
         <v>10042</v>
       </c>
-      <c r="L16" s="52" t="s">
+      <c r="L16" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="S16" s="52" t="s">
+      <c r="S16" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="AB16" s="52" t="s">
+      <c r="AB16" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="AC16" s="52" t="s">
+      <c r="AC16" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="AR16" s="52" t="s">
+      <c r="AR16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="AS16" s="56" t="s">
+      <c r="AS16" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="AV16" s="52">
+      <c r="AV16" s="49">
         <v>10041</v>
       </c>
-      <c r="AX16" s="52" t="s">
+      <c r="AX16" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="AY16" s="52" t="s">
+      <c r="AY16" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ16" s="52" t="s">
+      <c r="AZ16" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="BA16" s="56" t="s">
+      <c r="BA16" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D17" s="52">
+      <c r="D17" s="49">
         <v>35</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="62">
+      <c r="H17" s="53"/>
+      <c r="I17" s="59">
         <v>10043</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="49">
         <v>1</v>
       </c>
-      <c r="T17" s="56" t="s">
+      <c r="T17" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="V17" s="52" t="str">
+      <c r="V17" s="49" t="str">
         <f>T17&amp;","&amp;T18&amp;","&amp;T19</f>
         <v>刀类专精：使用刀类武器伤害提升5%,装备精通：重甲,伤害光环：小队内造成伤害提升5%</v>
       </c>
-      <c r="AV17" s="52">
+      <c r="AV17" s="49">
         <v>10042</v>
       </c>
-      <c r="AY17" s="52" t="s">
+      <c r="AY17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ17" s="52" t="s">
+      <c r="AZ17" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="BA17" s="56" t="s">
+      <c r="BA17" s="53" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="52">
+      <c r="H18" s="53"/>
+      <c r="I18" s="49">
         <v>10051</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="52" t="s">
+      <c r="L18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="S18" s="52">
+      <c r="S18" s="49">
         <v>2</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="AM18" s="52" t="s">
+      <c r="AM18" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AN18" s="57" t="s">
+      <c r="AN18" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AP18" s="52">
+      <c r="AP18" s="49">
         <v>20</v>
       </c>
-      <c r="AR18" s="52" t="s">
+      <c r="AR18" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="AS18" s="56" t="s">
+      <c r="AS18" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AV18" s="52">
+      <c r="AV18" s="49">
         <v>10043</v>
       </c>
-      <c r="AY18" s="52" t="s">
+      <c r="AY18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ18" s="52" t="s">
+      <c r="AZ18" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="BA18" s="56" t="s">
+      <c r="BA18" s="53" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="6:53">
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="52">
+      <c r="H19" s="53"/>
+      <c r="I19" s="49">
         <v>10052</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="S19" s="52">
+      <c r="S19" s="49">
         <v>3</v>
       </c>
-      <c r="T19" s="56" t="s">
+      <c r="T19" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AM19" s="52" t="s">
+      <c r="AM19" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AO19" s="52" t="s">
+      <c r="AO19" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="AP19" s="52">
+      <c r="AP19" s="49">
         <v>25</v>
       </c>
-      <c r="AR19" s="52" t="s">
+      <c r="AR19" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="AS19" s="56" t="s">
+      <c r="AS19" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="AV19" s="52">
+      <c r="AV19" s="49">
         <v>10051</v>
       </c>
-      <c r="AX19" s="52" t="s">
+      <c r="AX19" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="AY19" s="52" t="s">
+      <c r="AY19" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AZ19" s="52" t="s">
+      <c r="AZ19" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="BA19" s="56" t="s">
+      <c r="BA19" s="53" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="9:53">
-      <c r="I20" s="52">
+      <c r="I20" s="49">
         <v>10053</v>
       </c>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="M20" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="AB20" s="52" t="s">
+      <c r="AB20" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="AC20" s="52" t="s">
+      <c r="AC20" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="AN20" s="52" t="s">
+      <c r="AN20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AP20" s="52">
+      <c r="AP20" s="49">
         <v>30</v>
       </c>
-      <c r="AR20" s="52" t="s">
+      <c r="AR20" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="AS20" s="56" t="s">
+      <c r="AS20" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="AV20" s="52">
+      <c r="AV20" s="49">
         <v>10052</v>
       </c>
-      <c r="AY20" s="52" t="s">
+      <c r="AY20" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AZ20" s="52" t="s">
+      <c r="AZ20" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="BA20" s="56" t="s">
+      <c r="BA20" s="53" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="2:53">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="49">
         <v>20</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="AN21" s="52" t="s">
+      <c r="H21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="AN21" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="AP21" s="52">
+      <c r="AP21" s="49">
         <v>35</v>
       </c>
-      <c r="AR21" s="52" t="s">
+      <c r="AR21" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="AS21" s="56" t="s">
+      <c r="AS21" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="AV21" s="52">
+      <c r="AV21" s="49">
         <v>10053</v>
       </c>
-      <c r="AY21" s="52" t="s">
+      <c r="AY21" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AZ21" s="52" t="s">
+      <c r="AZ21" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="BA21" s="56" t="s">
+      <c r="BA21" s="53" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="4:45">
-      <c r="D22" s="52">
+      <c r="D22" s="49">
         <v>25</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="N22" s="52" t="s">
+      <c r="H22" s="53"/>
+      <c r="N22" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="AG22" s="56"/>
-      <c r="AP22" s="52" t="s">
+      <c r="AG22" s="53"/>
+      <c r="AP22" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AR22" s="52" t="s">
+      <c r="AR22" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AS22" s="56" t="s">
+      <c r="AS22" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="4:45">
-      <c r="D23" s="52">
+      <c r="D23" s="49">
         <v>30</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="N23" s="52" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="N23" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="AF23" s="52" t="s">
+      <c r="AF23" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="AG23" s="56"/>
-      <c r="AI23" s="52" t="s">
+      <c r="AG23" s="53"/>
+      <c r="AI23" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="AK23" s="52" t="s">
+      <c r="AK23" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="AL23" s="52" t="s">
+      <c r="AL23" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="AM23" s="56"/>
-      <c r="AR23" s="52" t="s">
+      <c r="AM23" s="53"/>
+      <c r="AR23" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="AS23" s="56" t="s">
+      <c r="AS23" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="4:42">
-      <c r="D24" s="52">
+      <c r="D24" s="49">
         <v>35</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="N24" s="52" t="s">
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="N24" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="AD24" s="52" t="s">
+      <c r="AD24" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="AF24" s="52">
+      <c r="AF24" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG24" s="52">
+      <c r="AG24" s="49">
         <v>300</v>
       </c>
-      <c r="AI24" s="52">
+      <c r="AI24" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ24" s="52">
+      <c r="AJ24" s="49">
         <v>1500</v>
       </c>
-      <c r="AK24" s="52">
+      <c r="AK24" s="49">
         <v>3</v>
       </c>
-      <c r="AL24" s="52">
+      <c r="AL24" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM24" s="52">
+      <c r="AM24" s="49">
         <v>300</v>
       </c>
-      <c r="AN24" s="52">
+      <c r="AN24" s="49">
         <f>AL24*1500</f>
         <v>3750</v>
       </c>
-      <c r="AO24" s="52">
+      <c r="AO24" s="49">
         <f>AM24</f>
         <v>300</v>
       </c>
-      <c r="AP24" s="52">
+      <c r="AP24" s="49">
         <f>AO24+AN24</f>
         <v>4050</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="4:42">
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="N25" s="52" t="s">
+      <c r="H25" s="53"/>
+      <c r="N25" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="S25" s="52" t="s">
+      <c r="S25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AE25" s="52">
+      <c r="AE25" s="49">
         <f>AF25-AF24</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="52">
+      <c r="AF25" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG25" s="52">
+      <c r="AG25" s="49">
         <v>300</v>
       </c>
-      <c r="AI25" s="52">
+      <c r="AI25" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ25" s="52">
+      <c r="AJ25" s="49">
         <v>1500</v>
       </c>
-      <c r="AK25" s="52">
+      <c r="AK25" s="49">
         <v>3</v>
       </c>
-      <c r="AL25" s="52">
+      <c r="AL25" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM25" s="52">
+      <c r="AM25" s="49">
         <v>300</v>
       </c>
-      <c r="AN25" s="52">
+      <c r="AN25" s="49">
         <f t="shared" ref="AN25:AN29" si="0">AL25*1500</f>
         <v>3750</v>
       </c>
-      <c r="AO25" s="52">
+      <c r="AO25" s="49">
         <f t="shared" ref="AO25:AO29" si="1">AM25</f>
         <v>300</v>
       </c>
-      <c r="AP25" s="52">
+      <c r="AP25" s="49">
         <f t="shared" ref="AP25:AP29" si="2">AO25+AN25</f>
         <v>4050</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="6:53">
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="N26" s="52" t="s">
+      <c r="H26" s="53"/>
+      <c r="N26" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="R26" s="52" t="s">
+      <c r="R26" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="S26" s="52">
+      <c r="S26" s="49">
         <v>1</v>
       </c>
-      <c r="T26" s="52" t="s">
+      <c r="T26" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="U26" s="56" t="s">
+      <c r="U26" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="AD26" s="52">
+      <c r="AD26" s="49">
         <f>1000*AE26</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="52">
+      <c r="AE26" s="49">
         <f t="shared" ref="AE26:AE29" si="3">AF26-AF25</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="52">
+      <c r="AF26" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG26" s="52">
+      <c r="AG26" s="49">
         <v>600</v>
       </c>
-      <c r="AI26" s="52">
+      <c r="AI26" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ26" s="52">
+      <c r="AJ26" s="49">
         <v>2000</v>
       </c>
-      <c r="AK26" s="52">
+      <c r="AK26" s="49">
         <v>3</v>
       </c>
-      <c r="AL26" s="52">
+      <c r="AL26" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM26" s="52">
+      <c r="AM26" s="49">
         <v>600</v>
       </c>
-      <c r="AN26" s="52">
+      <c r="AN26" s="49">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="AO26" s="52">
+      <c r="AO26" s="49">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="AP26" s="52">
+      <c r="AP26" s="49">
         <f t="shared" si="2"/>
         <v>4350</v>
       </c>
-      <c r="AZ26" s="52" t="s">
+      <c r="AZ26" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="BA26" s="56" t="s">
+      <c r="BA26" s="53" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="11:53">
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="S27" s="52">
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="S27" s="49">
         <v>2</v>
       </c>
-      <c r="T27" s="52" t="s">
+      <c r="T27" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="U27" s="56" t="s">
+      <c r="U27" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="AE27" s="52">
+      <c r="AE27" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="52">
+      <c r="AF27" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG27" s="52">
+      <c r="AG27" s="49">
         <v>1000</v>
       </c>
-      <c r="AI27" s="52">
+      <c r="AI27" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ27" s="52">
+      <c r="AJ27" s="49">
         <v>2500</v>
       </c>
-      <c r="AK27" s="52">
+      <c r="AK27" s="49">
         <v>3</v>
       </c>
-      <c r="AL27" s="52">
+      <c r="AL27" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM27" s="52">
+      <c r="AM27" s="49">
         <v>1000</v>
       </c>
-      <c r="AN27" s="52">
+      <c r="AN27" s="49">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="AO27" s="52">
+      <c r="AO27" s="49">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AP27" s="52">
+      <c r="AP27" s="49">
         <f t="shared" si="2"/>
         <v>4750</v>
       </c>
-      <c r="AR27" s="52" t="s">
+      <c r="AR27" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="AS27" s="56" t="s">
+      <c r="AS27" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="AZ27" s="52" t="s">
+      <c r="AZ27" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="BA27" s="56" t="s">
+      <c r="BA27" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="2:53">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="49">
         <v>20</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="K28" s="60" t="s">
+      <c r="H28" s="53"/>
+      <c r="K28" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="52" t="s">
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="S28" s="52">
+      <c r="S28" s="49">
         <v>3</v>
       </c>
-      <c r="AE28" s="52">
+      <c r="AE28" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="52">
+      <c r="AF28" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG28" s="52">
+      <c r="AG28" s="49">
         <v>1500</v>
       </c>
-      <c r="AI28" s="52">
+      <c r="AI28" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ28" s="52">
+      <c r="AJ28" s="49">
         <v>3000</v>
       </c>
-      <c r="AK28" s="52">
+      <c r="AK28" s="49">
         <v>3</v>
       </c>
-      <c r="AL28" s="52">
+      <c r="AL28" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM28" s="52">
+      <c r="AM28" s="49">
         <v>1500</v>
       </c>
-      <c r="AN28" s="52">
+      <c r="AN28" s="49">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="AO28" s="52">
+      <c r="AO28" s="49">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="AP28" s="52">
+      <c r="AP28" s="49">
         <f t="shared" si="2"/>
         <v>5250</v>
       </c>
-      <c r="AS28" s="56"/>
-      <c r="AZ28" s="52" t="s">
+      <c r="AS28" s="53"/>
+      <c r="AZ28" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="BA28" s="56" t="s">
+      <c r="BA28" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D29" s="52">
+      <c r="D29" s="49">
         <v>25</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="S29" s="52">
+      <c r="H29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="S29" s="49">
         <v>4</v>
       </c>
-      <c r="AE29" s="52">
+      <c r="AE29" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="52">
+      <c r="AF29" s="49">
         <v>2.5</v>
       </c>
-      <c r="AG29" s="52">
+      <c r="AG29" s="49">
         <v>2000</v>
       </c>
-      <c r="AI29" s="52">
+      <c r="AI29" s="49">
         <v>2.5</v>
       </c>
-      <c r="AJ29" s="52">
+      <c r="AJ29" s="49">
         <v>3500</v>
       </c>
-      <c r="AK29" s="52">
+      <c r="AK29" s="49">
         <v>3</v>
       </c>
-      <c r="AL29" s="52">
+      <c r="AL29" s="49">
         <v>2.5</v>
       </c>
-      <c r="AM29" s="52">
+      <c r="AM29" s="49">
         <v>2000</v>
       </c>
-      <c r="AN29" s="52">
+      <c r="AN29" s="49">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="AO29" s="52">
+      <c r="AO29" s="49">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="AP29" s="52">
+      <c r="AP29" s="49">
         <f t="shared" si="2"/>
         <v>5750</v>
       </c>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="60"/>
-      <c r="AZ29" s="52" t="s">
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="57"/>
+      <c r="AZ29" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="BA29" s="56" t="s">
+      <c r="BA29" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D30" s="52">
+      <c r="D30" s="49">
         <v>30</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="S30" s="52">
+      <c r="H30" s="53"/>
+      <c r="S30" s="49">
         <v>5</v>
       </c>
-      <c r="AS30" s="56"/>
-      <c r="AZ30" s="52" t="s">
+      <c r="AS30" s="53"/>
+      <c r="AZ30" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="BA30" s="56" t="s">
+      <c r="BA30" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D31" s="52">
+      <c r="D31" s="49">
         <v>35</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="J31" s="52" t="s">
+      <c r="H31" s="53"/>
+      <c r="J31" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="K31" s="52" t="s">
+      <c r="K31" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="S31" s="52">
+      <c r="S31" s="49">
         <v>6</v>
       </c>
-      <c r="AF31" s="52" t="s">
+      <c r="AF31" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AI31" s="52" t="s">
+      <c r="AI31" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AS31" s="56"/>
-      <c r="AZ31" s="52" t="s">
+      <c r="AS31" s="53"/>
+      <c r="AZ31" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="BA31" s="56" t="s">
+      <c r="BA31" s="53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="52">
+      <c r="H32" s="53"/>
+      <c r="I32" s="49">
         <f>K32/5*2</f>
         <v>60</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="49">
         <v>1</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="49">
         <v>150</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="49">
         <v>200</v>
       </c>
-      <c r="S32" s="52">
+      <c r="S32" s="49">
         <v>7</v>
       </c>
-      <c r="AF32" s="52">
+      <c r="AF32" s="49">
         <v>2</v>
       </c>
-      <c r="AG32" s="52">
+      <c r="AG32" s="49">
         <v>210</v>
       </c>
-      <c r="AI32" s="52">
+      <c r="AI32" s="49">
         <v>2</v>
       </c>
-      <c r="AJ32" s="52">
+      <c r="AJ32" s="49">
         <v>1050</v>
       </c>
-      <c r="AL32" s="52">
+      <c r="AL32" s="49">
         <v>2</v>
       </c>
-      <c r="AM32" s="52">
+      <c r="AM32" s="49">
         <f>AM24*0.7</f>
         <v>210</v>
       </c>
-      <c r="AO32" s="52">
+      <c r="AO32" s="49">
         <v>2136</v>
       </c>
-      <c r="AP32" s="52">
+      <c r="AP32" s="49">
         <v>836</v>
       </c>
-      <c r="AQ32" s="52">
+      <c r="AQ32" s="49">
         <f>AO32-AP32</f>
         <v>1300</v>
       </c>
-      <c r="AS32" s="56"/>
-      <c r="AZ32" s="52" t="s">
+      <c r="AS32" s="53"/>
+      <c r="AZ32" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="BA32" s="56" t="s">
+      <c r="BA32" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="6:53">
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="52">
+      <c r="H33" s="53"/>
+      <c r="I33" s="49">
         <f t="shared" ref="I33:I36" si="4">K33/5*2</f>
         <v>70</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="49">
         <v>2</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="49">
         <v>175</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="49">
         <v>280</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="S33" s="52">
+      <c r="S33" s="49">
         <v>8</v>
       </c>
-      <c r="AE33" s="52">
+      <c r="AE33" s="49">
         <f t="shared" ref="AE33:AE37" si="5">AF33-AF32</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="52">
+      <c r="AF33" s="49">
         <v>2</v>
       </c>
-      <c r="AG33" s="52">
+      <c r="AG33" s="49">
         <v>210</v>
       </c>
-      <c r="AI33" s="52">
+      <c r="AI33" s="49">
         <v>2</v>
       </c>
-      <c r="AJ33" s="52">
+      <c r="AJ33" s="49">
         <v>1050</v>
       </c>
-      <c r="AL33" s="52">
+      <c r="AL33" s="49">
         <v>2</v>
       </c>
-      <c r="AM33" s="52">
+      <c r="AM33" s="49">
         <f t="shared" ref="AM33:AM37" si="6">AM25*0.7</f>
         <v>210</v>
       </c>
-      <c r="AQ33" s="52">
+      <c r="AQ33" s="49">
         <f>AQ32*2.25</f>
         <v>2925</v>
       </c>
-      <c r="AR33" s="52">
+      <c r="AR33" s="49">
         <f>AQ33*0.3</f>
         <v>877.5</v>
       </c>
-      <c r="AZ33" s="52" t="s">
+      <c r="AZ33" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="BA33" s="56" t="s">
+      <c r="BA33" s="53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="9:53">
-      <c r="I34" s="52">
+      <c r="I34" s="49">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="49">
         <v>3</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="49">
         <v>200</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="49">
         <v>360</v>
       </c>
-      <c r="S34" s="52">
+      <c r="S34" s="49">
         <v>9</v>
       </c>
-      <c r="AE34" s="52">
+      <c r="AE34" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="52">
+      <c r="AF34" s="49">
         <v>2</v>
       </c>
-      <c r="AG34" s="52">
+      <c r="AG34" s="49">
         <v>420</v>
       </c>
-      <c r="AI34" s="52">
+      <c r="AI34" s="49">
         <v>2</v>
       </c>
-      <c r="AJ34" s="52">
+      <c r="AJ34" s="49">
         <v>1400</v>
       </c>
-      <c r="AK34" s="52">
+      <c r="AK34" s="49">
         <f t="shared" ref="AK34:AK37" si="7">AJ34-AJ33</f>
         <v>350</v>
       </c>
-      <c r="AL34" s="52">
+      <c r="AL34" s="49">
         <v>2</v>
       </c>
-      <c r="AM34" s="52">
+      <c r="AM34" s="49">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="AS34" s="56"/>
-      <c r="AZ34" s="52" t="s">
+      <c r="AS34" s="53"/>
+      <c r="AZ34" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="BA34" s="56" t="s">
+      <c r="BA34" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="9:53">
-      <c r="I35" s="52">
+      <c r="I35" s="49">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="49">
         <v>4</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="49">
         <v>225</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="49">
         <v>420</v>
       </c>
-      <c r="S35" s="52">
+      <c r="S35" s="49">
         <v>10</v>
       </c>
-      <c r="AE35" s="52">
+      <c r="AE35" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="52">
+      <c r="AF35" s="49">
         <v>2</v>
       </c>
-      <c r="AG35" s="52">
+      <c r="AG35" s="49">
         <v>700</v>
       </c>
-      <c r="AI35" s="52">
+      <c r="AI35" s="49">
         <v>2</v>
       </c>
-      <c r="AJ35" s="52">
+      <c r="AJ35" s="49">
         <v>1750</v>
       </c>
-      <c r="AK35" s="52">
+      <c r="AK35" s="49">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="AL35" s="52">
+      <c r="AL35" s="49">
         <v>2</v>
       </c>
-      <c r="AM35" s="52">
+      <c r="AM35" s="49">
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
-      <c r="AS35" s="56"/>
-      <c r="AZ35" s="52" t="s">
+      <c r="AS35" s="53"/>
+      <c r="AZ35" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="BA35" s="56" t="s">
+      <c r="BA35" s="53" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="9:53">
-      <c r="I36" s="52">
+      <c r="I36" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="49">
         <v>5</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="49">
         <v>250</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="49">
         <v>500</v>
       </c>
-      <c r="AE36" s="52">
+      <c r="AE36" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="52">
+      <c r="AF36" s="49">
         <v>2</v>
       </c>
-      <c r="AG36" s="52">
+      <c r="AG36" s="49">
         <v>1050</v>
       </c>
-      <c r="AI36" s="52">
+      <c r="AI36" s="49">
         <v>2</v>
       </c>
-      <c r="AJ36" s="52">
+      <c r="AJ36" s="49">
         <v>2100</v>
       </c>
-      <c r="AK36" s="52">
+      <c r="AK36" s="49">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="AL36" s="52">
+      <c r="AL36" s="49">
         <v>2</v>
       </c>
-      <c r="AM36" s="52">
+      <c r="AM36" s="49">
         <f t="shared" si="6"/>
         <v>1050</v>
       </c>
-      <c r="AS36" s="56"/>
-      <c r="AZ36" s="52" t="s">
+      <c r="AS36" s="53"/>
+      <c r="AZ36" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="BA36" s="56" t="s">
+      <c r="BA36" s="53" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="6:53">
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AE37" s="52">
+      <c r="AE37" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF37" s="52">
+      <c r="AF37" s="49">
         <v>2</v>
       </c>
-      <c r="AG37" s="52">
+      <c r="AG37" s="49">
         <v>1400</v>
       </c>
-      <c r="AI37" s="52">
+      <c r="AI37" s="49">
         <v>2</v>
       </c>
-      <c r="AJ37" s="52">
+      <c r="AJ37" s="49">
         <v>2450</v>
       </c>
-      <c r="AK37" s="52">
+      <c r="AK37" s="49">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="AL37" s="52">
+      <c r="AL37" s="49">
         <v>2</v>
       </c>
-      <c r="AM37" s="52">
+      <c r="AM37" s="49">
         <f t="shared" si="6"/>
         <v>1400</v>
       </c>
-      <c r="AS37" s="56"/>
-      <c r="AZ37" s="52" t="s">
+      <c r="AS37" s="53"/>
+      <c r="AZ37" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="BA37" s="56" t="s">
+      <c r="BA37" s="53" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D38" s="52">
+      <c r="D38" s="49">
         <v>14080001</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="J38" s="52" t="s">
+      <c r="J38" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="AS38" s="56"/>
-      <c r="AZ38" s="52" t="s">
+      <c r="AS38" s="53"/>
+      <c r="AZ38" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="BA38" s="56" t="s">
+      <c r="BA38" s="53" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D39" s="52">
+      <c r="D39" s="49">
         <v>14080002</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="49">
         <v>1</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="49">
         <v>120</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="49">
         <v>100</v>
       </c>
-      <c r="AS39" s="56"/>
-      <c r="AZ39" s="52" t="s">
+      <c r="AS39" s="53"/>
+      <c r="AZ39" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="BA39" s="56" t="s">
+      <c r="BA39" s="53" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D40" s="52">
+      <c r="D40" s="49">
         <v>14080003</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="49">
         <v>2</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="49">
         <v>140</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="49">
         <v>150</v>
       </c>
       <c r="T40"/>
-      <c r="AZ40" s="52" t="s">
+      <c r="AZ40" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="BA40" s="56" t="s">
+      <c r="BA40" s="53" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D41" s="52">
+      <c r="D41" s="49">
         <v>15208001</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="49">
         <v>3</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="49">
         <v>160</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="49">
         <v>200</v>
       </c>
-      <c r="T41" s="64"/>
-      <c r="AS41" s="56"/>
-      <c r="AZ41" s="52" t="s">
+      <c r="T41" s="61"/>
+      <c r="AS41" s="53"/>
+      <c r="AZ41" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="BA41" s="56" t="s">
+      <c r="BA41" s="53" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D42" s="52">
+      <c r="D42" s="49">
         <v>15208002</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="49">
         <v>4</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="49">
         <v>180</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="49">
         <v>250</v>
       </c>
-      <c r="T42" s="65"/>
-      <c r="AS42" s="56"/>
-      <c r="AZ42" s="52" t="s">
+      <c r="T42" s="62"/>
+      <c r="AS42" s="53"/>
+      <c r="AZ42" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="BA42" s="56" t="s">
+      <c r="BA42" s="53" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="4:53">
-      <c r="D43" s="52">
+      <c r="D43" s="49">
         <v>15308001</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="49">
         <v>5</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="49">
         <v>200</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="49">
         <v>300</v>
       </c>
-      <c r="T43" s="66"/>
-      <c r="AS43" s="56"/>
-      <c r="AZ43" s="52" t="s">
+      <c r="T43" s="63"/>
+      <c r="AS43" s="53"/>
+      <c r="AZ43" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="BA43" s="56" t="s">
+      <c r="BA43" s="53" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="4:45">
-      <c r="D44" s="52">
+      <c r="D44" s="49">
         <v>15308002</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="T44" s="67"/>
-      <c r="AS44" s="56"/>
+      <c r="T44" s="64"/>
+      <c r="AS44" s="53"/>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="4:45">
-      <c r="D45" s="52">
+      <c r="D45" s="49">
         <v>15408001</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="T45" s="68"/>
-      <c r="AS45" s="56"/>
+      <c r="T45" s="65"/>
+      <c r="AS45" s="53"/>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="4:45">
-      <c r="D46" s="52">
+      <c r="D46" s="49">
         <v>15408002</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="T46" s="64"/>
-      <c r="AS46" s="56"/>
+      <c r="T46" s="61"/>
+      <c r="AS46" s="53"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="4:20">
-      <c r="D47" s="52">
+      <c r="D47" s="49">
         <v>15508001</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="T47" s="65"/>
+      <c r="T47" s="62"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="4:7">
-      <c r="D48" s="52">
+      <c r="D48" s="49">
         <v>15508002</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="53" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="49" ht="20.1" customHeight="1"/>
     <row r="50" ht="20.1" customHeight="1"/>
     <row r="51" ht="20.1" customHeight="1" spans="2:7">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="2:4">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="53" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:4">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="53" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D54" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="49" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="2:4">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="53" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="4:4">
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="53" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="49" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="4:4">
-      <c r="D58" s="56"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="2:4">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="53" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="60" ht="20.1" customHeight="1"/>
     <row r="61" ht="20.1" customHeight="1" spans="4:4">
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="53" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="E62" s="61" t="s">
+      <c r="E62" s="58" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="63" ht="20.1" customHeight="1" spans="4:5">
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="E63" s="61" t="s">
+      <c r="E63" s="58" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="64" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="G64" s="52" t="s">
+      <c r="G64" s="49" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="65" ht="20.1" customHeight="1" spans="4:5">
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="4:7">
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G66" s="52" t="s">
+      <c r="G66" s="49" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="67" ht="20.1" customHeight="1" spans="4:7">
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F67" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="49" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="68" ht="20.1" customHeight="1"/>
     <row r="69" ht="20.1" customHeight="1"/>
     <row r="70" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="49" t="s">
         <v>350</v>
       </c>
     </row>
@@ -33776,10 +33760,10 @@
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <v>1001</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="45" t="s">
         <v>354</v>
       </c>
       <c r="K3" s="3">
@@ -33788,10 +33772,10 @@
       <c r="L3" s="3">
         <v>0.01</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="46">
         <v>2001</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="46" t="s">
         <v>355</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -33802,10 +33786,10 @@
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <v>1002</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
@@ -33814,10 +33798,10 @@
       <c r="L4" s="3">
         <v>0.03</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="46">
         <v>2003</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="46" t="s">
         <v>357</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -33828,10 +33812,10 @@
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <v>1003</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="45" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
@@ -33840,10 +33824,10 @@
       <c r="L5" s="3">
         <v>0.01</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="46">
         <v>2004</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="46" t="s">
         <v>360</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -33854,10 +33838,10 @@
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <v>1004</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="45" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="3">
@@ -33866,10 +33850,10 @@
       <c r="L6" s="3">
         <v>0.03</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <v>2005</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="46" t="s">
         <v>362</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -33880,10 +33864,10 @@
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E7" s="48">
+      <c r="E7" s="45">
         <v>1005</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="45" t="s">
         <v>365</v>
       </c>
       <c r="K7" s="3">
@@ -33892,10 +33876,10 @@
       <c r="L7" s="3">
         <v>0.03</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="46">
         <v>2006</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="46" t="s">
         <v>366</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -33906,10 +33890,10 @@
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <v>1006</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="45" t="s">
         <v>369</v>
       </c>
       <c r="K8" s="3">
@@ -33918,10 +33902,10 @@
       <c r="L8" s="3">
         <v>0.01</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="46">
         <v>2007</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="46" t="s">
         <v>370</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -33932,10 +33916,10 @@
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E9" s="48">
+      <c r="E9" s="45">
         <v>1007</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="45" t="s">
         <v>373</v>
       </c>
       <c r="K9" s="3">
@@ -33944,10 +33928,10 @@
       <c r="L9" s="3">
         <v>0.01</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="46">
         <v>2008</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="46" t="s">
         <v>374</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -33958,10 +33942,10 @@
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <v>1008</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="45" t="s">
         <v>376</v>
       </c>
       <c r="K10" s="3">
@@ -33970,10 +33954,10 @@
       <c r="L10" s="3">
         <v>0.03</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="46">
         <v>2009</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="46" t="s">
         <v>377</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -33984,10 +33968,10 @@
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E11" s="48">
+      <c r="E11" s="45">
         <v>1009</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="45" t="s">
         <v>380</v>
       </c>
       <c r="K11" s="3">
@@ -33996,10 +33980,10 @@
       <c r="L11" s="3">
         <v>0.01</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="46">
         <v>2016</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="46" t="s">
         <v>381</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -34010,10 +33994,10 @@
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E12" s="48">
+      <c r="E12" s="45">
         <v>1010</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="45" t="s">
         <v>383</v>
       </c>
       <c r="K12" s="3">
@@ -34022,24 +34006,24 @@
       <c r="L12" s="3">
         <v>0.03</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="47">
         <v>2018</v>
       </c>
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="P12" s="51" t="s">
+      <c r="P12" s="48" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E13" s="48">
+      <c r="E13" s="45">
         <v>1011</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="45" t="s">
         <v>387</v>
       </c>
       <c r="K13" s="3">
@@ -34048,10 +34032,10 @@
       <c r="L13" s="3">
         <v>0.01</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="46">
         <v>2022</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="46" t="s">
         <v>388</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -34062,10 +34046,10 @@
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E14" s="48">
+      <c r="E14" s="45">
         <v>1012</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="45" t="s">
         <v>390</v>
       </c>
       <c r="K14" s="3">
@@ -34074,10 +34058,10 @@
       <c r="L14" s="3">
         <v>0.03</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="46">
         <v>2019</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="46" t="s">
         <v>391</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -34088,10 +34072,10 @@
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <v>1013</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="45" t="s">
         <v>394</v>
       </c>
       <c r="K15" s="3">
@@ -34100,10 +34084,10 @@
       <c r="L15" s="3">
         <v>0.03</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="46">
         <v>2020</v>
       </c>
-      <c r="N15" s="49" t="s">
+      <c r="N15" s="46" t="s">
         <v>395</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -34114,10 +34098,10 @@
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E16" s="48">
+      <c r="E16" s="45">
         <v>1014</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="45" t="s">
         <v>397</v>
       </c>
       <c r="K16" s="3">
@@ -34137,10 +34121,10 @@
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E17" s="48">
+      <c r="E17" s="45">
         <v>1015</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="45" t="s">
         <v>401</v>
       </c>
       <c r="K17" s="3">
@@ -34160,10 +34144,10 @@
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E18" s="48">
+      <c r="E18" s="45">
         <v>1016</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="45" t="s">
         <v>405</v>
       </c>
       <c r="K18" s="3">
@@ -34172,7 +34156,7 @@
       <c r="L18" s="3">
         <v>0.03</v>
       </c>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="46" t="s">
         <v>406</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -34183,10 +34167,10 @@
       </c>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E19" s="48">
+      <c r="E19" s="45">
         <v>1017</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="45" t="s">
         <v>409</v>
       </c>
       <c r="K19" s="3">
@@ -34195,7 +34179,7 @@
       <c r="L19" s="3">
         <v>0.01</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="N19" s="46" t="s">
         <v>410</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -34206,28 +34190,28 @@
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E20" s="48">
+      <c r="E20" s="45">
         <v>1018</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="45" t="s">
         <v>412</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E21" s="48">
+      <c r="E21" s="45">
         <v>1019</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="45" t="s">
         <v>413</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E22" s="48">
+      <c r="E22" s="45">
         <v>1020</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="45" t="s">
         <v>414</v>
       </c>
       <c r="K22" s="3">
@@ -34236,10 +34220,10 @@
       <c r="L22" s="3">
         <v>0.02</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="46">
         <v>2024</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="46" t="s">
         <v>415</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -34250,10 +34234,10 @@
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E23" s="48">
+      <c r="E23" s="45">
         <v>1021</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="45" t="s">
         <v>418</v>
       </c>
       <c r="K23" s="3">
@@ -34273,10 +34257,10 @@
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E24" s="48">
+      <c r="E24" s="45">
         <v>1022</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="45" t="s">
         <v>421</v>
       </c>
       <c r="K24" s="3">
@@ -34296,10 +34280,10 @@
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E25" s="48">
+      <c r="E25" s="45">
         <v>1023</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="45" t="s">
         <v>424</v>
       </c>
       <c r="K25" s="3">
@@ -34319,10 +34303,10 @@
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E26" s="48">
+      <c r="E26" s="45">
         <v>1024</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="45" t="s">
         <v>427</v>
       </c>
       <c r="K26" s="3">
@@ -34342,10 +34326,10 @@
       </c>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E27" s="48">
+      <c r="E27" s="45">
         <v>1025</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="45" t="s">
         <v>430</v>
       </c>
       <c r="K27" s="3">
@@ -34365,10 +34349,10 @@
       </c>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E28" s="48">
+      <c r="E28" s="45">
         <v>1026</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="45" t="s">
         <v>433</v>
       </c>
       <c r="K28" s="3">
@@ -34388,10 +34372,10 @@
       </c>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E29" s="48">
+      <c r="E29" s="45">
         <v>1027</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="45" t="s">
         <v>436</v>
       </c>
       <c r="K29" s="3">
@@ -34411,10 +34395,10 @@
       </c>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E30" s="48">
+      <c r="E30" s="45">
         <v>1028</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="45" t="s">
         <v>439</v>
       </c>
       <c r="K30" s="3">
@@ -34423,10 +34407,10 @@
       <c r="L30" s="3">
         <v>0.04</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="46">
         <v>2002</v>
       </c>
-      <c r="N30" s="49" t="s">
+      <c r="N30" s="46" t="s">
         <v>440</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -34437,10 +34421,10 @@
       </c>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E31" s="48">
+      <c r="E31" s="45">
         <v>1030</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="45" t="s">
         <v>442</v>
       </c>
       <c r="K31" s="3">
@@ -34458,10 +34442,10 @@
       </c>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E32" s="48">
+      <c r="E32" s="45">
         <v>1031</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="45" t="s">
         <v>445</v>
       </c>
       <c r="K32" s="3">
@@ -34479,10 +34463,10 @@
       </c>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E33" s="48">
+      <c r="E33" s="45">
         <v>1032</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="45" t="s">
         <v>448</v>
       </c>
       <c r="K33" s="3">
@@ -34500,10 +34484,10 @@
       </c>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E34" s="48">
+      <c r="E34" s="45">
         <v>1033</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="45" t="s">
         <v>451</v>
       </c>
       <c r="K34" s="3">
@@ -34520,18 +34504,18 @@
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="5:6">
-      <c r="E35" s="48">
+      <c r="E35" s="45">
         <v>1034</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="45" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="5:6">
-      <c r="E36" s="48">
+      <c r="E36" s="45">
         <v>1035</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="45" t="s">
         <v>455</v>
       </c>
     </row>
@@ -34655,10 +34639,10 @@
       <c r="L55" s="3">
         <v>0.0001</v>
       </c>
-      <c r="M55" s="49">
+      <c r="M55" s="46">
         <v>2025</v>
       </c>
-      <c r="N55" s="49" t="s">
+      <c r="N55" s="46" t="s">
         <v>462</v>
       </c>
       <c r="O55" s="3" t="s">
@@ -34672,10 +34656,10 @@
       <c r="L56" s="3">
         <v>0.1</v>
       </c>
-      <c r="M56" s="49">
+      <c r="M56" s="46">
         <v>2026</v>
       </c>
-      <c r="N56" s="49" t="s">
+      <c r="N56" s="46" t="s">
         <v>458</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -34689,10 +34673,10 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="49">
+      <c r="M57" s="46">
         <v>2027</v>
       </c>
-      <c r="N57" s="49" t="s">
+      <c r="N57" s="46" t="s">
         <v>464</v>
       </c>
       <c r="O57" s="3" t="s">
@@ -34706,10 +34690,10 @@
       <c r="L58" s="3">
         <v>0.1</v>
       </c>
-      <c r="M58" s="49">
+      <c r="M58" s="46">
         <v>2028</v>
       </c>
-      <c r="N58" s="49" t="s">
+      <c r="N58" s="46" t="s">
         <v>460</v>
       </c>
       <c r="O58" s="3" t="s">
@@ -34780,7 +34764,7 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
@@ -34918,7 +34902,7 @@
         <v>2.01666666666667</v>
       </c>
       <c r="AB3" s="1"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AE3" s="33" t="s">
         <v>392</v>
       </c>
       <c r="AF3" s="3">
@@ -35008,7 +34992,7 @@
         <v>2</v>
       </c>
       <c r="AB4" s="1"/>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="33" t="s">
         <v>477</v>
       </c>
       <c r="AF4" s="3">
@@ -35098,7 +35082,7 @@
         <v>2.08333333333333</v>
       </c>
       <c r="AB5" s="1"/>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="33" t="s">
         <v>385</v>
       </c>
       <c r="AF5" s="3">
@@ -35175,7 +35159,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AE6" s="36" t="s">
+      <c r="AE6" s="33" t="s">
         <v>480</v>
       </c>
       <c r="AF6" s="3">
@@ -35252,7 +35236,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AE7" s="36" t="s">
+      <c r="AE7" s="33" t="s">
         <v>481</v>
       </c>
       <c r="AF7" s="3">
@@ -35550,7 +35534,7 @@
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="AE12" s="36" t="s">
+      <c r="AE12" s="33" t="s">
         <v>41</v>
       </c>
       <c r="AF12" s="3">
@@ -35606,7 +35590,7 @@
       <c r="U13" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AE13" s="36" t="s">
+      <c r="AE13" s="33" t="s">
         <v>358</v>
       </c>
       <c r="AF13" s="3">
@@ -35675,7 +35659,7 @@
     <row r="16" ht="20.1" customHeight="1" spans="29:51">
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="38" t="s">
+      <c r="AE16" s="35" t="s">
         <v>392</v>
       </c>
       <c r="AF16" s="3"/>
@@ -35892,35 +35876,35 @@
         <v>25</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="AC19" s="39" t="s">
+      <c r="AC19" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD19" s="39" t="s">
+      <c r="AD19" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AE19" s="39" t="s">
+      <c r="AE19" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="AF19" s="39">
+      <c r="AF19" s="36">
         <v>0</v>
       </c>
-      <c r="AG19" s="39">
+      <c r="AG19" s="36">
         <v>20</v>
       </c>
-      <c r="AH19" s="39">
+      <c r="AH19" s="36">
         <v>12</v>
       </c>
-      <c r="AI19" s="39">
+      <c r="AI19" s="36">
         <v>12</v>
       </c>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="39" t="s">
+      <c r="AK19" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL19" s="39" t="s">
+      <c r="AL19" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="36" t="s">
         <v>501</v>
       </c>
       <c r="AN19" s="3">
@@ -35939,13 +35923,13 @@
         <f ca="1" t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="AS19" s="39" t="s">
+      <c r="AS19" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT19" s="39" t="s">
+      <c r="AT19" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AU19" s="39" t="s">
+      <c r="AU19" s="36" t="s">
         <v>500</v>
       </c>
       <c r="AV19" s="3">
@@ -35974,35 +35958,35 @@
         <v>32</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="AC20" s="40" t="s">
+      <c r="AC20" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD20" s="40" t="s">
+      <c r="AD20" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE20" s="40" t="s">
+      <c r="AE20" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="AF20" s="40">
+      <c r="AF20" s="37">
         <v>0</v>
       </c>
-      <c r="AG20" s="40">
+      <c r="AG20" s="37">
         <v>25</v>
       </c>
-      <c r="AH20" s="40">
+      <c r="AH20" s="37">
         <v>15</v>
       </c>
-      <c r="AI20" s="40">
+      <c r="AI20" s="37">
         <v>15</v>
       </c>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="40" t="s">
+      <c r="AK20" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AL20" s="40" t="s">
+      <c r="AL20" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM20" s="40" t="s">
+      <c r="AM20" s="37" t="s">
         <v>503</v>
       </c>
       <c r="AN20" s="3">
@@ -36021,13 +36005,13 @@
         <f ca="1" t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="AS20" s="40" t="s">
+      <c r="AS20" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AT20" s="40" t="s">
+      <c r="AT20" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU20" s="40" t="s">
+      <c r="AU20" s="37" t="s">
         <v>504</v>
       </c>
       <c r="AV20" s="3">
@@ -36058,11 +36042,11 @@
       <c r="E21" s="1"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AN21" s="4"/>
@@ -36077,7 +36061,7 @@
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="38" t="s">
+      <c r="AE22" s="35" t="s">
         <v>403</v>
       </c>
       <c r="AF22" s="3" t="s">
@@ -36177,7 +36161,7 @@
       <c r="AD24" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE24" s="41" t="s">
+      <c r="AE24" s="38" t="s">
         <v>509</v>
       </c>
       <c r="AF24" s="3">
@@ -36199,7 +36183,7 @@
       <c r="AL24" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AM24" s="41" t="s">
+      <c r="AM24" s="38" t="s">
         <v>510</v>
       </c>
       <c r="AN24" s="3">
@@ -36224,7 +36208,7 @@
       <c r="AT24" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AU24" s="41" t="s">
+      <c r="AU24" s="38" t="s">
         <v>511</v>
       </c>
       <c r="AV24" s="3">
@@ -36245,35 +36229,35 @@
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC25" s="39" t="s">
+      <c r="AC25" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD25" s="39" t="s">
+      <c r="AD25" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AE25" s="42" t="s">
+      <c r="AE25" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="AF25" s="39">
+      <c r="AF25" s="36">
         <v>0</v>
       </c>
-      <c r="AG25" s="39">
+      <c r="AG25" s="36">
         <v>27</v>
       </c>
-      <c r="AH25" s="39">
+      <c r="AH25" s="36">
         <v>0</v>
       </c>
-      <c r="AI25" s="39">
+      <c r="AI25" s="36">
         <v>35</v>
       </c>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AK25" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL25" s="39" t="s">
+      <c r="AL25" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AM25" s="42" t="s">
+      <c r="AM25" s="39" t="s">
         <v>513</v>
       </c>
       <c r="AN25" s="3">
@@ -36292,13 +36276,13 @@
         <f ca="1" t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="AS25" s="39" t="s">
+      <c r="AS25" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT25" s="39" t="s">
+      <c r="AT25" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AU25" s="42" t="s">
+      <c r="AU25" s="39" t="s">
         <v>512</v>
       </c>
       <c r="AV25" s="3">
@@ -36319,35 +36303,35 @@
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC26" s="40" t="s">
+      <c r="AC26" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD26" s="40" t="s">
+      <c r="AD26" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE26" s="40" t="s">
+      <c r="AE26" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="AF26" s="40">
+      <c r="AF26" s="37">
         <v>0</v>
       </c>
-      <c r="AG26" s="40">
+      <c r="AG26" s="37">
         <v>33</v>
       </c>
-      <c r="AH26" s="40">
+      <c r="AH26" s="37">
         <v>0</v>
       </c>
-      <c r="AI26" s="40">
+      <c r="AI26" s="37">
         <v>45</v>
       </c>
       <c r="AJ26" s="14"/>
-      <c r="AK26" s="40" t="s">
+      <c r="AK26" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AL26" s="40" t="s">
+      <c r="AL26" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM26" s="40" t="s">
+      <c r="AM26" s="37" t="s">
         <v>515</v>
       </c>
       <c r="AN26" s="3">
@@ -36366,13 +36350,13 @@
         <f ca="1" t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="AS26" s="40" t="s">
+      <c r="AS26" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AT26" s="40" t="s">
+      <c r="AT26" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU26" s="40" t="s">
+      <c r="AU26" s="37" t="s">
         <v>516</v>
       </c>
       <c r="AV26" s="3">
@@ -36395,11 +36379,11 @@
     <row r="27" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
       <c r="AN27" s="4"/>
@@ -36408,7 +36392,7 @@
     <row r="28" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC28" s="12"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="38" t="s">
+      <c r="AE28" s="35" t="s">
         <v>385</v>
       </c>
       <c r="AF28" s="3"/>
@@ -36501,7 +36485,7 @@
       <c r="AD30" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE30" s="43" t="s">
+      <c r="AE30" s="40" t="s">
         <v>520</v>
       </c>
       <c r="AF30" s="3">
@@ -36523,7 +36507,7 @@
       <c r="AL30" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AM30" s="43" t="s">
+      <c r="AM30" s="40" t="s">
         <v>521</v>
       </c>
       <c r="AN30" s="3">
@@ -36548,7 +36532,7 @@
       <c r="AT30" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AU30" s="43" t="s">
+      <c r="AU30" s="40" t="s">
         <v>522</v>
       </c>
       <c r="AV30" s="3">
@@ -36569,35 +36553,35 @@
       </c>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC31" s="39" t="s">
+      <c r="AC31" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD31" s="39" t="s">
+      <c r="AD31" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AE31" s="42" t="s">
+      <c r="AE31" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="AF31" s="39">
+      <c r="AF31" s="36">
         <v>425</v>
       </c>
-      <c r="AG31" s="39">
+      <c r="AG31" s="36">
         <v>12</v>
       </c>
-      <c r="AH31" s="39">
+      <c r="AH31" s="36">
         <v>15</v>
       </c>
-      <c r="AI31" s="39">
+      <c r="AI31" s="36">
         <v>0</v>
       </c>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="39" t="s">
+      <c r="AK31" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL31" s="39" t="s">
+      <c r="AL31" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AM31" s="42" t="s">
+      <c r="AM31" s="39" t="s">
         <v>524</v>
       </c>
       <c r="AN31" s="3">
@@ -36616,13 +36600,13 @@
         <f ca="1" t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AS31" s="39" t="s">
+      <c r="AS31" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT31" s="39" t="s">
+      <c r="AT31" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AU31" s="42" t="s">
+      <c r="AU31" s="39" t="s">
         <v>523</v>
       </c>
       <c r="AV31" s="3">
@@ -36643,35 +36627,35 @@
       </c>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC32" s="40" t="s">
+      <c r="AC32" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD32" s="40" t="s">
+      <c r="AD32" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE32" s="40" t="s">
+      <c r="AE32" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="AF32" s="40">
+      <c r="AF32" s="37">
         <v>525</v>
       </c>
-      <c r="AG32" s="40">
+      <c r="AG32" s="37">
         <v>18</v>
       </c>
-      <c r="AH32" s="40">
+      <c r="AH32" s="37">
         <v>30</v>
       </c>
-      <c r="AI32" s="40">
+      <c r="AI32" s="37">
         <v>0</v>
       </c>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="40" t="s">
+      <c r="AK32" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AL32" s="40" t="s">
+      <c r="AL32" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM32" s="40" t="s">
+      <c r="AM32" s="37" t="s">
         <v>526</v>
       </c>
       <c r="AN32" s="3">
@@ -36690,13 +36674,13 @@
         <f ca="1" t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AS32" s="40" t="s">
+      <c r="AS32" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AT32" s="40" t="s">
+      <c r="AT32" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU32" s="40" t="s">
+      <c r="AU32" s="37" t="s">
         <v>527</v>
       </c>
       <c r="AV32" s="3">
@@ -36719,11 +36703,11 @@
     <row r="33" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AN33" s="4"/>
@@ -36732,7 +36716,7 @@
     <row r="34" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC34" s="14"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="38" t="s">
+      <c r="AE34" s="35" t="s">
         <v>480</v>
       </c>
       <c r="AF34" s="3"/>
@@ -36825,19 +36809,19 @@
       <c r="AD36" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE36" s="44" t="s">
+      <c r="AE36" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="AF36" s="41">
+      <c r="AF36" s="38">
         <v>0</v>
       </c>
-      <c r="AG36" s="41">
+      <c r="AG36" s="38">
         <v>20</v>
       </c>
-      <c r="AH36" s="41">
+      <c r="AH36" s="38">
         <v>0</v>
       </c>
-      <c r="AI36" s="41">
+      <c r="AI36" s="38">
         <v>20</v>
       </c>
       <c r="AJ36" s="3"/>
@@ -36847,7 +36831,7 @@
       <c r="AL36" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AM36" s="44" t="s">
+      <c r="AM36" s="41" t="s">
         <v>531</v>
       </c>
       <c r="AN36" s="3">
@@ -36872,7 +36856,7 @@
       <c r="AT36" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="41" t="s">
         <v>532</v>
       </c>
       <c r="AV36" s="3">
@@ -36893,35 +36877,35 @@
       </c>
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC37" s="39" t="s">
+      <c r="AC37" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD37" s="39" t="s">
+      <c r="AD37" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AE37" s="39" t="s">
+      <c r="AE37" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="AF37" s="39">
+      <c r="AF37" s="36">
         <v>0</v>
       </c>
-      <c r="AG37" s="39">
+      <c r="AG37" s="36">
         <v>22</v>
       </c>
-      <c r="AH37" s="39">
+      <c r="AH37" s="36">
         <v>0</v>
       </c>
-      <c r="AI37" s="39">
+      <c r="AI37" s="36">
         <v>23</v>
       </c>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AK37" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL37" s="39" t="s">
+      <c r="AL37" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AM37" s="39" t="s">
+      <c r="AM37" s="36" t="s">
         <v>534</v>
       </c>
       <c r="AN37" s="3">
@@ -36940,13 +36924,13 @@
         <f ca="1" t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="AS37" s="39" t="s">
+      <c r="AS37" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT37" s="39" t="s">
+      <c r="AT37" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AU37" s="39" t="s">
+      <c r="AU37" s="36" t="s">
         <v>533</v>
       </c>
       <c r="AV37" s="3">
@@ -36967,35 +36951,35 @@
       </c>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC38" s="40" t="s">
+      <c r="AC38" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD38" s="40" t="s">
+      <c r="AD38" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE38" s="40" t="s">
+      <c r="AE38" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="AF38" s="40">
+      <c r="AF38" s="37">
         <v>0</v>
       </c>
-      <c r="AG38" s="40">
+      <c r="AG38" s="37">
         <v>28</v>
       </c>
-      <c r="AH38" s="40">
+      <c r="AH38" s="37">
         <v>0</v>
       </c>
-      <c r="AI38" s="40">
+      <c r="AI38" s="37">
         <v>30</v>
       </c>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="40" t="s">
+      <c r="AK38" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AL38" s="40" t="s">
+      <c r="AL38" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM38" s="40" t="s">
+      <c r="AM38" s="37" t="s">
         <v>536</v>
       </c>
       <c r="AN38" s="3">
@@ -37014,13 +36998,13 @@
         <f ca="1" t="shared" si="18"/>
         <v>23</v>
       </c>
-      <c r="AS38" s="40" t="s">
+      <c r="AS38" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AT38" s="40" t="s">
+      <c r="AT38" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU38" s="40" t="s">
+      <c r="AU38" s="37" t="s">
         <v>537</v>
       </c>
       <c r="AV38" s="3">
@@ -37043,11 +37027,11 @@
     <row r="39" ht="20.1" customHeight="1" spans="29:51">
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AN39" s="3"/>
@@ -37062,7 +37046,7 @@
     <row r="40" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC40" s="14"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="38" t="s">
+      <c r="AE40" s="35" t="s">
         <v>481</v>
       </c>
       <c r="AF40" s="3" t="s">
@@ -37163,19 +37147,19 @@
       <c r="AD42" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE42" s="41" t="s">
+      <c r="AE42" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="AF42" s="41">
+      <c r="AF42" s="38">
         <v>920</v>
       </c>
-      <c r="AG42" s="41">
+      <c r="AG42" s="38">
         <v>28</v>
       </c>
-      <c r="AH42" s="41">
+      <c r="AH42" s="38">
         <v>8</v>
       </c>
-      <c r="AI42" s="41">
+      <c r="AI42" s="38">
         <v>8</v>
       </c>
       <c r="AJ42" s="12"/>
@@ -37185,7 +37169,7 @@
       <c r="AL42" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AM42" s="41" t="s">
+      <c r="AM42" s="38" t="s">
         <v>542</v>
       </c>
       <c r="AN42" s="3">
@@ -37210,7 +37194,7 @@
       <c r="AT42" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AU42" s="41" t="s">
+      <c r="AU42" s="38" t="s">
         <v>543</v>
       </c>
       <c r="AV42" s="3">
@@ -37231,35 +37215,35 @@
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC43" s="39" t="s">
+      <c r="AC43" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD43" s="39" t="s">
+      <c r="AD43" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AE43" s="39" t="s">
+      <c r="AE43" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AF43" s="39">
+      <c r="AF43" s="36">
         <v>1050</v>
       </c>
-      <c r="AG43" s="39">
+      <c r="AG43" s="36">
         <v>32</v>
       </c>
-      <c r="AH43" s="39">
+      <c r="AH43" s="36">
         <v>10</v>
       </c>
-      <c r="AI43" s="39">
+      <c r="AI43" s="36">
         <v>10</v>
       </c>
       <c r="AJ43" s="3"/>
-      <c r="AK43" s="39" t="s">
+      <c r="AK43" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL43" s="39" t="s">
+      <c r="AL43" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AM43" s="39" t="s">
+      <c r="AM43" s="36" t="s">
         <v>545</v>
       </c>
       <c r="AN43" s="3">
@@ -37278,13 +37262,13 @@
         <f ca="1" t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="AS43" s="39" t="s">
+      <c r="AS43" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT43" s="39" t="s">
+      <c r="AT43" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="AU43" s="39" t="s">
+      <c r="AU43" s="36" t="s">
         <v>544</v>
       </c>
       <c r="AV43" s="3">
@@ -37305,35 +37289,35 @@
       </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC44" s="40" t="s">
+      <c r="AC44" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD44" s="40" t="s">
+      <c r="AD44" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE44" s="40" t="s">
+      <c r="AE44" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="AF44" s="40">
+      <c r="AF44" s="37">
         <v>1315</v>
       </c>
-      <c r="AG44" s="40">
+      <c r="AG44" s="37">
         <v>38</v>
       </c>
-      <c r="AH44" s="40">
+      <c r="AH44" s="37">
         <v>15</v>
       </c>
-      <c r="AI44" s="40">
+      <c r="AI44" s="37">
         <v>15</v>
       </c>
       <c r="AJ44" s="3"/>
-      <c r="AK44" s="40" t="s">
+      <c r="AK44" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AL44" s="40" t="s">
+      <c r="AL44" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM44" s="40" t="s">
+      <c r="AM44" s="37" t="s">
         <v>547</v>
       </c>
       <c r="AN44" s="3">
@@ -37352,13 +37336,13 @@
         <f ca="1" t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="AS44" s="40" t="s">
+      <c r="AS44" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AT44" s="40" t="s">
+      <c r="AT44" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU44" s="40" t="s">
+      <c r="AU44" s="37" t="s">
         <v>548</v>
       </c>
       <c r="AV44" s="3">
@@ -37381,11 +37365,11 @@
     <row r="45" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="41"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AN45" s="4"/>
@@ -37394,7 +37378,7 @@
     <row r="46" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC46" s="14"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="38" t="s">
+      <c r="AE46" s="35" t="s">
         <v>363</v>
       </c>
       <c r="AF46" s="3" t="s">
@@ -37475,7 +37459,7 @@
       <c r="AD49" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE49" s="43" t="s">
+      <c r="AE49" s="40" t="s">
         <v>551</v>
       </c>
       <c r="AF49" s="3">
@@ -37496,25 +37480,25 @@
       <c r="AV49" s="4"/>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC50" s="40" t="s">
+      <c r="AC50" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD50" s="40" t="s">
+      <c r="AD50" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE50" s="40" t="s">
+      <c r="AE50" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="AF50" s="40">
+      <c r="AF50" s="37">
         <v>0</v>
       </c>
-      <c r="AG50" s="40">
+      <c r="AG50" s="37">
         <v>75</v>
       </c>
-      <c r="AH50" s="40">
+      <c r="AH50" s="37">
         <v>23</v>
       </c>
-      <c r="AI50" s="40">
+      <c r="AI50" s="37">
         <v>0</v>
       </c>
       <c r="AJ50" s="3"/>
@@ -37523,13 +37507,13 @@
       <c r="AV50" s="4"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42"/>
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="42"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AN51" s="4"/>
@@ -37538,7 +37522,7 @@
     <row r="52" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC52" s="4"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="38" t="s">
+      <c r="AE52" s="35" t="s">
         <v>399</v>
       </c>
       <c r="AF52" s="3"/>
@@ -37557,7 +37541,7 @@
       <c r="AD53" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE53" s="43" t="s">
+      <c r="AE53" s="40" t="s">
         <v>553</v>
       </c>
       <c r="AF53" s="3">
@@ -37611,7 +37595,7 @@
       <c r="AD55" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE55" s="43" t="s">
+      <c r="AE55" s="40" t="s">
         <v>555</v>
       </c>
       <c r="AF55" s="3">
@@ -37632,25 +37616,25 @@
       <c r="AV55" s="4"/>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC56" s="40" t="s">
+      <c r="AC56" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD56" s="40" t="s">
+      <c r="AD56" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE56" s="40" t="s">
+      <c r="AE56" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="AF56" s="40">
+      <c r="AF56" s="37">
         <v>0</v>
       </c>
-      <c r="AG56" s="40">
+      <c r="AG56" s="37">
         <v>75</v>
       </c>
-      <c r="AH56" s="40">
+      <c r="AH56" s="37">
         <v>0</v>
       </c>
-      <c r="AI56" s="40">
+      <c r="AI56" s="37">
         <v>23</v>
       </c>
       <c r="AJ56" s="14"/>
@@ -37674,7 +37658,7 @@
     <row r="58" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC58" s="14"/>
       <c r="AD58" s="3"/>
-      <c r="AE58" s="38" t="s">
+      <c r="AE58" s="35" t="s">
         <v>371</v>
       </c>
       <c r="AF58" s="3" t="s">
@@ -37701,7 +37685,7 @@
       <c r="AD59" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE59" s="46" t="s">
+      <c r="AE59" s="43" t="s">
         <v>279</v>
       </c>
       <c r="AF59" s="3">
@@ -37728,7 +37712,7 @@
       <c r="AD60" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AE60" s="46" t="s">
+      <c r="AE60" s="43" t="s">
         <v>283</v>
       </c>
       <c r="AF60" s="3">
@@ -37749,25 +37733,25 @@
       <c r="AV60" s="4"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC61" s="40" t="s">
+      <c r="AC61" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD61" s="40" t="s">
+      <c r="AD61" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE61" s="40" t="s">
+      <c r="AE61" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="AF61" s="40">
+      <c r="AF61" s="37">
         <v>0</v>
       </c>
-      <c r="AG61" s="40">
+      <c r="AG61" s="37">
         <v>20</v>
       </c>
-      <c r="AH61" s="40">
+      <c r="AH61" s="37">
         <v>0</v>
       </c>
-      <c r="AI61" s="40">
+      <c r="AI61" s="37">
         <v>0</v>
       </c>
       <c r="AJ61" s="3"/>
@@ -37791,7 +37775,7 @@
     <row r="63" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC63" s="4"/>
       <c r="AD63" s="3"/>
-      <c r="AE63" s="38" t="s">
+      <c r="AE63" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AF63" s="3" t="s">
@@ -37866,25 +37850,25 @@
       <c r="AV65" s="4"/>
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC66" s="40" t="s">
+      <c r="AC66" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="AD66" s="40" t="s">
+      <c r="AD66" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE66" s="40" t="s">
+      <c r="AE66" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="AF66" s="40">
+      <c r="AF66" s="37">
         <v>2100</v>
       </c>
-      <c r="AG66" s="40">
+      <c r="AG66" s="37">
         <v>0</v>
       </c>
-      <c r="AH66" s="40">
+      <c r="AH66" s="37">
         <v>0</v>
       </c>
-      <c r="AI66" s="40">
+      <c r="AI66" s="37">
         <v>0</v>
       </c>
       <c r="AJ66" s="3"/>
@@ -37895,11 +37879,11 @@
     <row r="67" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-      <c r="AE67" s="41"/>
-      <c r="AF67" s="41"/>
-      <c r="AG67" s="41"/>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="41"/>
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="38"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="38"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AN67" s="4"/>
@@ -37908,7 +37892,7 @@
     <row r="68" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC68" s="4"/>
       <c r="AD68" s="3"/>
-      <c r="AE68" s="38" t="s">
+      <c r="AE68" s="35" t="s">
         <v>41</v>
       </c>
       <c r="AF68" s="3" t="s">
@@ -37950,7 +37934,7 @@
       </c>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
-      <c r="AM69" s="47" t="s">
+      <c r="AM69" s="44" t="s">
         <v>561</v>
       </c>
       <c r="AN69" s="3">
@@ -37991,7 +37975,7 @@
       </c>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
-      <c r="AM70" s="47" t="s">
+      <c r="AM70" s="44" t="s">
         <v>563</v>
       </c>
       <c r="AN70" s="3">
@@ -38009,95 +37993,95 @@
       <c r="AV70" s="4"/>
     </row>
     <row r="71" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC71" s="39" t="s">
+      <c r="AC71" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="AD71" s="39" t="s">
+      <c r="AD71" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="AE71" s="39" t="s">
+      <c r="AE71" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="AF71" s="39">
+      <c r="AF71" s="36">
         <v>0</v>
       </c>
-      <c r="AG71" s="39">
+      <c r="AG71" s="36">
         <v>175</v>
       </c>
-      <c r="AH71" s="39">
+      <c r="AH71" s="36">
         <v>0</v>
       </c>
-      <c r="AI71" s="39">
+      <c r="AI71" s="36">
         <v>0</v>
       </c>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
-      <c r="AM71" s="47" t="s">
+      <c r="AM71" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="AN71" s="39">
+      <c r="AN71" s="36">
         <v>0</v>
       </c>
-      <c r="AO71" s="39">
+      <c r="AO71" s="36">
         <v>175</v>
       </c>
-      <c r="AP71" s="39">
+      <c r="AP71" s="36">
         <v>0</v>
       </c>
-      <c r="AQ71" s="39">
+      <c r="AQ71" s="36">
         <v>0</v>
       </c>
       <c r="AV71" s="4"/>
     </row>
     <row r="72" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC72" s="40" t="s">
+      <c r="AC72" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="AD72" s="40" t="s">
+      <c r="AD72" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE72" s="40" t="s">
+      <c r="AE72" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="AF72" s="40">
+      <c r="AF72" s="37">
         <v>0</v>
       </c>
-      <c r="AG72" s="40">
+      <c r="AG72" s="37">
         <v>210</v>
       </c>
-      <c r="AH72" s="40">
+      <c r="AH72" s="37">
         <v>0</v>
       </c>
-      <c r="AI72" s="40">
+      <c r="AI72" s="37">
         <v>0</v>
       </c>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
-      <c r="AM72" s="47" t="s">
+      <c r="AM72" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="AN72" s="40">
+      <c r="AN72" s="37">
         <v>0</v>
       </c>
-      <c r="AO72" s="40">
+      <c r="AO72" s="37">
         <v>210</v>
       </c>
-      <c r="AP72" s="40">
+      <c r="AP72" s="37">
         <v>0</v>
       </c>
-      <c r="AQ72" s="40">
+      <c r="AQ72" s="37">
         <v>0</v>
       </c>
       <c r="AV72" s="4"/>
     </row>
     <row r="73" ht="20.1" customHeight="1" spans="29:48">
-      <c r="AC73" s="45"/>
-      <c r="AD73" s="45"/>
-      <c r="AE73" s="45"/>
-      <c r="AF73" s="45"/>
-      <c r="AG73" s="45"/>
-      <c r="AH73" s="45"/>
-      <c r="AI73" s="45"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
       <c r="AN73" s="4"/>
@@ -38106,7 +38090,7 @@
     <row r="74" ht="20.1" customHeight="1" spans="29:48">
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
-      <c r="AE74" s="38" t="s">
+      <c r="AE74" s="35" t="s">
         <v>358</v>
       </c>
       <c r="AF74" s="3" t="s">
@@ -38273,35 +38257,35 @@
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC77" s="39" t="s">
+      <c r="AC77" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AD77" s="39" t="s">
+      <c r="AD77" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="AE77" s="39" t="s">
+      <c r="AE77" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="AF77" s="39">
+      <c r="AF77" s="36">
         <v>1080</v>
       </c>
-      <c r="AG77" s="39">
+      <c r="AG77" s="36">
         <v>0</v>
       </c>
-      <c r="AH77" s="39">
+      <c r="AH77" s="36">
         <v>28</v>
       </c>
-      <c r="AI77" s="39">
+      <c r="AI77" s="36">
         <v>28</v>
       </c>
       <c r="AJ77" s="3"/>
-      <c r="AK77" s="39" t="s">
+      <c r="AK77" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AL77" s="39" t="s">
+      <c r="AL77" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="AM77" s="39" t="s">
+      <c r="AM77" s="36" t="s">
         <v>576</v>
       </c>
       <c r="AN77" s="3">
@@ -38320,13 +38304,13 @@
         <f ca="1" t="shared" si="26"/>
         <v>21</v>
       </c>
-      <c r="AS77" s="39" t="s">
+      <c r="AS77" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AT77" s="39" t="s">
+      <c r="AT77" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="AU77" s="39" t="s">
+      <c r="AU77" s="36" t="s">
         <v>575</v>
       </c>
       <c r="AV77" s="3">
@@ -38347,35 +38331,35 @@
       </c>
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="29:51">
-      <c r="AC78" s="40" t="s">
+      <c r="AC78" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="AD78" s="40" t="s">
+      <c r="AD78" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AE78" s="40" t="s">
+      <c r="AE78" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="AF78" s="40">
+      <c r="AF78" s="37">
         <v>1315</v>
       </c>
-      <c r="AG78" s="40">
+      <c r="AG78" s="37">
         <v>0</v>
       </c>
-      <c r="AH78" s="40">
+      <c r="AH78" s="37">
         <v>38</v>
       </c>
-      <c r="AI78" s="40">
+      <c r="AI78" s="37">
         <v>38</v>
       </c>
       <c r="AJ78" s="3"/>
-      <c r="AK78" s="40" t="s">
+      <c r="AK78" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="AL78" s="40" t="s">
+      <c r="AL78" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AM78" s="40" t="s">
+      <c r="AM78" s="37" t="s">
         <v>578</v>
       </c>
       <c r="AN78" s="3">
@@ -38394,13 +38378,13 @@
         <f ca="1" t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="AS78" s="40" t="s">
+      <c r="AS78" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="AT78" s="40" t="s">
+      <c r="AT78" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="AU78" s="40" t="s">
+      <c r="AU78" s="37" t="s">
         <v>579</v>
       </c>
       <c r="AV78" s="3">
@@ -38433,8 +38417,8 @@
   <sheetPr/>
   <dimension ref="B1:AR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38519,20 +38503,20 @@
       <c r="S5" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="3">
         <v>1</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="3">
         <v>1</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="3">
         <v>3</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="3">
         <f t="shared" ref="Y5:Y9" si="0">(W5+X5)/2</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="3">
         <v>3</v>
       </c>
       <c r="AC5" s="3" t="s">
@@ -38561,20 +38545,20 @@
       <c r="S6" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="3">
         <v>2</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="3">
         <v>1</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="3">
         <v>4</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="3">
         <v>4</v>
       </c>
       <c r="AC6" s="3" t="s">
@@ -38606,20 +38590,20 @@
       <c r="S7" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="3">
         <v>3</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="3">
         <v>2</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="3">
         <v>4</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="3">
         <v>4</v>
       </c>
       <c r="AC7" s="3" t="s">
@@ -38648,20 +38632,20 @@
       <c r="S8" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="3">
         <v>4</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="3">
         <v>2</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="3">
         <v>5</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="3">
         <v>5</v>
       </c>
       <c r="AC8" s="3" t="s">
@@ -38675,20 +38659,20 @@
       <c r="D9" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="3">
         <v>5</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="3">
         <v>5</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="3">
         <v>5</v>
       </c>
       <c r="AC9" s="3" t="s">
@@ -38984,10 +38968,10 @@
       <c r="V21" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="W21" s="34" t="s">
+      <c r="W21" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="X21" s="31">
+      <c r="X21" s="30">
         <v>10</v>
       </c>
       <c r="Y21" s="3">
@@ -39003,10 +38987,10 @@
         <f t="shared" si="1"/>
         <v>10@110103;50;100</v>
       </c>
-      <c r="AE21" s="34" t="s">
+      <c r="AE21" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="AF21" s="31">
+      <c r="AF21" s="30">
         <v>10</v>
       </c>
       <c r="AG21" s="3">
@@ -39022,12 +39006,12 @@
         <f t="shared" si="2"/>
         <v>10@110103;0.01;0.03</v>
       </c>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="34" t="s">
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="AN21" s="31">
+      <c r="AN21" s="30">
         <v>10</v>
       </c>
       <c r="AO21" s="3">
@@ -39225,10 +39209,10 @@
       <c r="R25" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="32" t="s">
         <v>683</v>
       </c>
-      <c r="X25" s="31">
+      <c r="X25" s="30">
         <v>2</v>
       </c>
       <c r="Y25" s="3">
@@ -39244,10 +39228,10 @@
         <f t="shared" si="4"/>
         <v>2@200403;0.01;0.03</v>
       </c>
-      <c r="AE25" s="34" t="s">
+      <c r="AE25" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="AF25" s="31">
+      <c r="AF25" s="30">
         <v>2</v>
       </c>
       <c r="AG25" s="3">
@@ -39263,10 +39247,10 @@
         <f t="shared" si="5"/>
         <v>2@204603;0.01;0.03</v>
       </c>
-      <c r="AM25" s="34" t="s">
+      <c r="AM25" s="32" t="s">
         <v>685</v>
       </c>
-      <c r="AN25" s="31">
+      <c r="AN25" s="30">
         <v>2</v>
       </c>
       <c r="AO25" s="3">
@@ -39461,10 +39445,10 @@
       <c r="R29" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="X29" s="31">
+      <c r="X29" s="30">
         <v>9</v>
       </c>
       <c r="Y29" s="3">
@@ -39480,10 +39464,10 @@
         <f t="shared" si="7"/>
         <v>9@203603;0.01;0.03</v>
       </c>
-      <c r="AE29" s="34" t="s">
+      <c r="AE29" s="32" t="s">
         <v>705</v>
       </c>
-      <c r="AF29" s="31">
+      <c r="AF29" s="30">
         <v>9</v>
       </c>
       <c r="AG29" s="3">
@@ -39499,12 +39483,12 @@
         <f t="shared" si="8"/>
         <v>9@205003;0.01;0.03</v>
       </c>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="34" t="s">
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="AN29" s="31">
+      <c r="AN29" s="30">
         <v>9</v>
       </c>
       <c r="AO29" s="3">
@@ -39761,10 +39745,10 @@
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="23:44">
-      <c r="W34" s="34" t="s">
+      <c r="W34" s="32" t="s">
         <v>729</v>
       </c>
-      <c r="X34" s="31">
+      <c r="X34" s="30">
         <v>8</v>
       </c>
       <c r="Y34" s="3">
@@ -39780,10 +39764,10 @@
         <f t="shared" si="10"/>
         <v>8@200203;0.01;0.03</v>
       </c>
-      <c r="AE34" s="34" t="s">
+      <c r="AE34" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="AF34" s="31">
+      <c r="AF34" s="30">
         <v>8</v>
       </c>
       <c r="AG34" s="3">
@@ -39799,12 +39783,12 @@
         <f t="shared" si="11"/>
         <v>8@203603;0.01;0.03</v>
       </c>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="34" t="s">
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="32" t="s">
         <v>730</v>
       </c>
-      <c r="AN34" s="31">
+      <c r="AN34" s="30">
         <v>8</v>
       </c>
       <c r="AO34" s="3">
@@ -40012,10 +39996,10 @@
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="20.1" customHeight="1" spans="23:44">
-      <c r="W39" s="34" t="s">
+      <c r="W39" s="32" t="s">
         <v>738</v>
       </c>
-      <c r="X39" s="31">
+      <c r="X39" s="30">
         <v>7</v>
       </c>
       <c r="Y39" s="3">
@@ -40031,10 +40015,10 @@
         <f t="shared" si="13"/>
         <v>7@110303;10;60</v>
       </c>
-      <c r="AE39" s="34" t="s">
+      <c r="AE39" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="AF39" s="31">
+      <c r="AF39" s="30">
         <v>7</v>
       </c>
       <c r="AG39" s="3">
@@ -40050,12 +40034,12 @@
         <f t="shared" si="14"/>
         <v>7@200503;0.01;0.03</v>
       </c>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="34" t="s">
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="AN39" s="31">
+      <c r="AN39" s="30">
         <v>7</v>
       </c>
       <c r="AO39" s="3">
@@ -40079,7 +40063,7 @@
       <c r="C40" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="3" t="s">
         <v>589</v>
       </c>
       <c r="E40" s="3" t="str">
@@ -40120,7 +40104,7 @@
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:44">
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <v>14100011</v>
       </c>
       <c r="C41" s="28" t="s">
@@ -40233,20 +40217,20 @@
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:44">
-      <c r="B42" s="30">
+      <c r="B42" s="29">
         <v>14100012</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="3" t="s">
         <v>748</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" ref="E41:E57" si="18">"效果:"&amp;D42</f>
         <v>效果:攻击恢复当前造成伤害的5%</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>1</v>
       </c>
       <c r="G42" s="3">
@@ -40343,14 +40327,14 @@
       <c r="C43" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="3" t="s">
         <v>753</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:攻击概率提升自身10%攻击,持续6秒</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="30">
         <v>1</v>
       </c>
       <c r="G43" s="3">
@@ -40382,13 +40366,13 @@
         <f t="shared" si="17"/>
         <v>4@120603;10;50</v>
       </c>
-      <c r="V43" s="31" t="s">
+      <c r="V43" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="W43" s="34" t="s">
+      <c r="W43" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="X43" s="31">
+      <c r="X43" s="30">
         <v>6</v>
       </c>
       <c r="Y43" s="3">
@@ -40404,10 +40388,10 @@
         <f t="shared" si="19"/>
         <v>6@100903;0.01;0.03</v>
       </c>
-      <c r="AE43" s="34" t="s">
+      <c r="AE43" s="32" t="s">
         <v>756</v>
       </c>
-      <c r="AF43" s="31">
+      <c r="AF43" s="30">
         <v>6</v>
       </c>
       <c r="AG43" s="3">
@@ -40423,10 +40407,10 @@
         <f t="shared" si="20"/>
         <v>6@200103;0.01;0.03</v>
       </c>
-      <c r="AM43" s="34" t="s">
+      <c r="AM43" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="AN43" s="31">
+      <c r="AN43" s="30">
         <v>6</v>
       </c>
       <c r="AO43" s="3">
@@ -40450,7 +40434,7 @@
       <c r="C44" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="3" t="s">
         <v>759</v>
       </c>
       <c r="E44" s="3" t="str">
@@ -40497,7 +40481,7 @@
       <c r="C45" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="3" t="s">
         <v>761</v>
       </c>
       <c r="E45" s="3" t="str">
@@ -40544,14 +40528,14 @@
       <c r="C46" s="28" t="s">
         <v>762</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="3" t="s">
         <v>763</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:有5%概率躲避敌人的物理攻击</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="30">
         <v>1</v>
       </c>
       <c r="G46" s="3">
@@ -40591,14 +40575,14 @@
       <c r="C47" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="3" t="s">
         <v>765</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:提升自身5%的最大生命值</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="30">
         <v>1</v>
       </c>
       <c r="G47" s="3">
@@ -40631,10 +40615,7 @@
         <v>4@120603;30;80</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+    <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1" spans="5:15">
       <c r="E48" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:</v>
@@ -40672,10 +40653,7 @@
         <v>11@120703;50;120</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+    <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1" spans="5:15">
       <c r="E49" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:</v>
@@ -40720,14 +40698,14 @@
       <c r="C50" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="3" t="s">
         <v>767</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:装备:攻击提升100点</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="30">
         <v>1</v>
       </c>
       <c r="G50" s="3">
@@ -40767,14 +40745,14 @@
       <c r="C51" s="28" t="s">
         <v>768</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="3" t="s">
         <v>769</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="18"/>
         <v>效果:装备:暴击概率提升5%</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="30">
         <v>1</v>
       </c>
       <c r="G51" s="3">
@@ -40814,7 +40792,7 @@
       <c r="C52" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="3" t="s">
         <v>771</v>
       </c>
       <c r="E52" s="3" t="str">
@@ -40829,7 +40807,7 @@
       <c r="C53" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="3" t="s">
         <v>773</v>
       </c>
       <c r="E53" s="3" t="str">
@@ -40844,7 +40822,7 @@
       <c r="C54" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="3" t="s">
         <v>775</v>
       </c>
       <c r="E54" s="3" t="str">
@@ -40863,7 +40841,7 @@
       <c r="C55" s="28" t="s">
         <v>776</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="3" t="s">
         <v>777</v>
       </c>
       <c r="E55" s="3" t="str">
@@ -40878,7 +40856,7 @@
       <c r="C56" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="3" t="s">
         <v>779</v>
       </c>
       <c r="E56" s="3" t="str">
@@ -40893,7 +40871,7 @@
       <c r="C57" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="3" t="s">
         <v>781</v>
       </c>
       <c r="E57" s="3" t="str">
@@ -40902,9 +40880,9 @@
       </c>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="str">
         <f t="shared" ref="E58:E86" si="22">"效果:"&amp;D58</f>
         <v>效果:</v>
@@ -40917,7 +40895,7 @@
       <c r="C59" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="3" t="s">
         <v>379</v>
       </c>
       <c r="E59" s="3" t="str">
@@ -40932,7 +40910,7 @@
       <c r="C60" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="31" t="s">
         <v>784</v>
       </c>
       <c r="E60" s="3" t="str">
@@ -40950,7 +40928,7 @@
       <c r="C61" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="3" t="s">
         <v>786</v>
       </c>
       <c r="E61" s="3" t="str">
@@ -40965,7 +40943,7 @@
       <c r="C62" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="12" t="s">
         <v>788</v>
       </c>
       <c r="E62" s="3" t="str">
@@ -40980,7 +40958,7 @@
       <c r="C63" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="3" t="s">
         <v>790</v>
       </c>
       <c r="E63" s="3" t="str">
@@ -40995,7 +40973,7 @@
       <c r="C64" s="28" t="s">
         <v>791</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="3" t="s">
         <v>792</v>
       </c>
       <c r="E64" s="3" t="str">
@@ -41010,7 +40988,7 @@
       <c r="C65" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="3" t="s">
         <v>794</v>
       </c>
       <c r="E65" s="3" t="str">
@@ -41025,7 +41003,7 @@
       <c r="C66" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="3" t="s">
         <v>796</v>
       </c>
       <c r="E66" s="3" t="str">
@@ -41045,9 +41023,9 @@
       </c>
     </row>
     <row r="67" ht="20.1" customHeight="1" spans="2:13">
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3" t="str">
         <f t="shared" si="22"/>
         <v>效果:</v>
@@ -41066,9 +41044,9 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="2:13">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3" t="str">
         <f t="shared" si="22"/>
         <v>效果:</v>
@@ -41083,9 +41061,9 @@
       <c r="M68" s="3"/>
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="2:13">
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="3" t="str">
         <f t="shared" si="22"/>
         <v>效果:</v>
@@ -41106,7 +41084,7 @@
       <c r="C70" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="3" t="s">
         <v>799</v>
       </c>
       <c r="E70" s="3" t="str">
@@ -41131,7 +41109,7 @@
       <c r="C71" s="28" t="s">
         <v>800</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>784</v>
       </c>
       <c r="E71" s="3" t="str">
@@ -41154,11 +41132,11 @@
       <c r="C72" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="3" t="s">
         <v>802</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>"效果:"&amp;D72</f>
+        <f t="shared" si="22"/>
         <v>效果:回旋击+1</v>
       </c>
       <c r="F72" t="s">
@@ -41180,7 +41158,7 @@
       <c r="C73" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="3" t="s">
         <v>805</v>
       </c>
       <c r="E73" s="3" t="str">
@@ -41205,10 +41183,10 @@
       <c r="C74" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="33" t="s">
         <v>807</v>
       </c>
-      <c r="E74" s="36" t="str">
+      <c r="E74" s="33" t="str">
         <f t="shared" si="22"/>
         <v>效果:光能灼烧+1</v>
       </c>
@@ -41231,10 +41209,10 @@
       <c r="C75" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="33" t="s">
         <v>809</v>
       </c>
-      <c r="E75" s="36" t="str">
+      <c r="E75" s="33" t="str">
         <f t="shared" si="22"/>
         <v>效果:受到伤害有概率出发抵抗状态,抵抗造成的异常状态,持续5秒</v>
       </c>
@@ -41257,7 +41235,7 @@
       <c r="C76" s="28" t="s">
         <v>811</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="3" t="s">
         <v>812</v>
       </c>
       <c r="E76" s="3" t="str">
@@ -41282,7 +41260,7 @@
       <c r="C77" s="28" t="s">
         <v>813</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="3" t="s">
         <v>814</v>
       </c>
       <c r="E77" s="3" t="str">
@@ -41295,15 +41273,15 @@
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="29" t="s">
+      <c r="L77" s="3" t="s">
         <v>794</v>
       </c>
       <c r="M77" s="3"/>
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="2:13">
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="3" t="str">
         <f t="shared" si="22"/>
         <v>效果:</v>
@@ -41324,7 +41302,7 @@
       <c r="C79" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="3" t="s">
         <v>816</v>
       </c>
       <c r="E79" s="3" t="str">
@@ -41347,7 +41325,7 @@
       <c r="C80" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="3" t="s">
         <v>818</v>
       </c>
       <c r="E80" s="3" t="str">
@@ -41368,7 +41346,7 @@
       <c r="C81" s="28" t="s">
         <v>819</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="3" t="s">
         <v>820</v>
       </c>
       <c r="E81" s="3" t="str">
@@ -41389,7 +41367,7 @@
       <c r="C82" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="3" t="s">
         <v>822</v>
       </c>
       <c r="E82" s="3" t="str">
@@ -41404,7 +41382,7 @@
       <c r="C83" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="3" t="s">
         <v>824</v>
       </c>
       <c r="E83" s="3" t="str">
@@ -41419,7 +41397,7 @@
       <c r="C84" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="3" t="s">
         <v>826</v>
       </c>
       <c r="E84" s="3" t="str">
@@ -41434,7 +41412,7 @@
       <c r="C85" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="3" t="s">
         <v>828</v>
       </c>
       <c r="E85" s="3" t="str">
@@ -41449,7 +41427,7 @@
       <c r="C86" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="3" t="s">
         <v>830</v>
       </c>
       <c r="E86" s="3" t="str">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E870AAC-0916-43BA-B5DF-118760A247B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2448F5B0-7C6F-487F-88EC-2D52B4F60575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -5148,7 +5148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -5540,7 +5540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5694,10 +5694,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19678,14 +19678,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AL144"/>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView topLeftCell="X10" workbookViewId="0">
-      <selection activeCell="AC117" sqref="AC117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="10" max="16" width="12.25" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
     <col min="31" max="32" width="11.375" customWidth="1"/>
@@ -25720,7 +25721,7 @@
       <c r="AL74" s="3"/>
     </row>
     <row r="75" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A75">
+      <c r="A75" s="3">
         <f>B75+300</f>
         <v>301</v>
       </c>
@@ -25791,7 +25792,7 @@
       <c r="AL75" s="3"/>
     </row>
     <row r="76" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A76">
+      <c r="A76" s="3">
         <f t="shared" ref="A76:A139" si="23">B76+300</f>
         <v>302</v>
       </c>
@@ -25862,7 +25863,7 @@
       <c r="AL76" s="3"/>
     </row>
     <row r="77" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A77">
+      <c r="A77" s="3">
         <f t="shared" si="23"/>
         <v>303</v>
       </c>
@@ -25903,7 +25904,7 @@
       </c>
     </row>
     <row r="78" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A78">
+      <c r="A78" s="3">
         <f t="shared" si="23"/>
         <v>304</v>
       </c>
@@ -25944,7 +25945,7 @@
       </c>
     </row>
     <row r="79" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A79">
+      <c r="A79" s="3">
         <f t="shared" si="23"/>
         <v>305</v>
       </c>
@@ -25985,7 +25986,7 @@
       </c>
     </row>
     <row r="80" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A80">
+      <c r="A80" s="3">
         <f t="shared" si="23"/>
         <v>306</v>
       </c>
@@ -26026,7 +26027,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A81">
+      <c r="A81" s="3">
         <f t="shared" si="23"/>
         <v>307</v>
       </c>
@@ -26067,7 +26068,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A82">
+      <c r="A82" s="3">
         <f t="shared" si="23"/>
         <v>308</v>
       </c>
@@ -26104,7 +26105,7 @@
       </c>
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A83">
+      <c r="A83" s="3">
         <f t="shared" si="23"/>
         <v>309</v>
       </c>
@@ -26141,7 +26142,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A84">
+      <c r="A84" s="3">
         <f t="shared" si="23"/>
         <v>310</v>
       </c>
@@ -26178,7 +26179,7 @@
       </c>
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A85">
+      <c r="A85" s="3">
         <f t="shared" si="23"/>
         <v>311</v>
       </c>
@@ -26215,7 +26216,7 @@
       </c>
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A86">
+      <c r="A86" s="3">
         <f t="shared" si="23"/>
         <v>312</v>
       </c>
@@ -26252,7 +26253,7 @@
       </c>
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A87">
+      <c r="A87" s="3">
         <f t="shared" si="23"/>
         <v>313</v>
       </c>
@@ -26289,7 +26290,7 @@
       </c>
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A88">
+      <c r="A88" s="3">
         <f t="shared" si="23"/>
         <v>314</v>
       </c>
@@ -26326,7 +26327,7 @@
       </c>
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A89">
+      <c r="A89" s="3">
         <f t="shared" si="23"/>
         <v>315</v>
       </c>
@@ -26363,7 +26364,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A90">
+      <c r="A90" s="3">
         <f t="shared" si="23"/>
         <v>316</v>
       </c>
@@ -26400,7 +26401,7 @@
       </c>
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A91">
+      <c r="A91" s="3">
         <f t="shared" si="23"/>
         <v>317</v>
       </c>
@@ -26437,7 +26438,7 @@
       </c>
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A92">
+      <c r="A92" s="3">
         <f t="shared" si="23"/>
         <v>318</v>
       </c>
@@ -26474,7 +26475,7 @@
       </c>
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A93">
+      <c r="A93" s="3">
         <f t="shared" si="23"/>
         <v>319</v>
       </c>
@@ -26511,7 +26512,7 @@
       </c>
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A94">
+      <c r="A94" s="3">
         <f t="shared" si="23"/>
         <v>320</v>
       </c>
@@ -26548,7 +26549,7 @@
       </c>
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A95">
+      <c r="A95" s="3">
         <f t="shared" si="23"/>
         <v>321</v>
       </c>
@@ -26585,7 +26586,7 @@
       </c>
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A96">
+      <c r="A96" s="3">
         <f t="shared" si="23"/>
         <v>322</v>
       </c>
@@ -26622,7 +26623,7 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A97">
+      <c r="A97" s="3">
         <f t="shared" si="23"/>
         <v>323</v>
       </c>
@@ -26659,7 +26660,7 @@
       </c>
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A98">
+      <c r="A98" s="3">
         <f t="shared" si="23"/>
         <v>324</v>
       </c>
@@ -26696,7 +26697,7 @@
       </c>
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A99">
+      <c r="A99" s="3">
         <f t="shared" si="23"/>
         <v>325</v>
       </c>
@@ -26733,7 +26734,7 @@
       </c>
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A100">
+      <c r="A100" s="3">
         <f t="shared" si="23"/>
         <v>326</v>
       </c>
@@ -26769,8 +26770,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
-      <c r="A101">
+    <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="3">
         <f t="shared" si="23"/>
         <v>327</v>
       </c>
@@ -26806,8 +26807,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
-      <c r="A102">
+    <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="3">
         <f t="shared" si="23"/>
         <v>328</v>
       </c>
@@ -26843,8 +26844,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
-      <c r="A103">
+    <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="3">
         <f t="shared" si="23"/>
         <v>329</v>
       </c>
@@ -26880,8 +26881,8 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
-      <c r="A104">
+    <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="3">
         <f t="shared" si="23"/>
         <v>330</v>
       </c>
@@ -26917,8 +26918,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
-      <c r="A105">
+    <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="3">
         <f t="shared" si="23"/>
         <v>331</v>
       </c>
@@ -26954,8 +26955,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
-      <c r="A106">
+    <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="3">
         <f t="shared" si="23"/>
         <v>332</v>
       </c>
@@ -26991,8 +26992,8 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
-      <c r="A107">
+    <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="3">
         <f t="shared" si="23"/>
         <v>333</v>
       </c>
@@ -27028,8 +27029,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
-      <c r="A108">
+    <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="3">
         <f t="shared" si="23"/>
         <v>334</v>
       </c>
@@ -27065,8 +27066,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
-      <c r="A109">
+    <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="3">
         <f t="shared" si="23"/>
         <v>335</v>
       </c>
@@ -27102,8 +27103,8 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
-      <c r="A110">
+    <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="3">
         <f t="shared" si="23"/>
         <v>336</v>
       </c>
@@ -27139,8 +27140,8 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
-      <c r="A111">
+    <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="3">
         <f t="shared" si="23"/>
         <v>337</v>
       </c>
@@ -27176,8 +27177,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
-      <c r="A112">
+    <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="3">
         <f t="shared" si="23"/>
         <v>338</v>
       </c>
@@ -27213,8 +27214,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
-      <c r="A113">
+    <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="3">
         <f t="shared" si="23"/>
         <v>339</v>
       </c>
@@ -27250,8 +27251,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
-      <c r="A114">
+    <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="3">
         <f t="shared" si="23"/>
         <v>340</v>
       </c>
@@ -27287,8 +27288,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
-      <c r="A115">
+    <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="3">
         <f t="shared" si="23"/>
         <v>341</v>
       </c>
@@ -27324,8 +27325,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
-      <c r="A116">
+    <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="3">
         <f t="shared" si="23"/>
         <v>342</v>
       </c>
@@ -27361,8 +27362,8 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
-      <c r="A117">
+    <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="3">
         <f t="shared" si="23"/>
         <v>343</v>
       </c>
@@ -27398,8 +27399,8 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
-      <c r="A118">
+    <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="3">
         <f t="shared" si="23"/>
         <v>344</v>
       </c>
@@ -27435,8 +27436,8 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
-      <c r="A119">
+    <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="3">
         <f t="shared" si="23"/>
         <v>345</v>
       </c>
@@ -27466,8 +27467,8 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
-      <c r="A120">
+    <row r="120" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="3">
         <f t="shared" si="23"/>
         <v>346</v>
       </c>
@@ -27497,8 +27498,8 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
-      <c r="A121">
+    <row r="121" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="3">
         <f t="shared" si="23"/>
         <v>347</v>
       </c>
@@ -27528,8 +27529,8 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
-      <c r="A122">
+    <row r="122" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="3">
         <f t="shared" si="23"/>
         <v>348</v>
       </c>
@@ -27559,8 +27560,8 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
-      <c r="A123">
+    <row r="123" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="3">
         <f t="shared" si="23"/>
         <v>349</v>
       </c>
@@ -27590,8 +27591,8 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
-      <c r="A124">
+    <row r="124" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="3">
         <f t="shared" si="23"/>
         <v>350</v>
       </c>
@@ -27621,8 +27622,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
-      <c r="A125">
+    <row r="125" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="3">
         <f t="shared" si="23"/>
         <v>351</v>
       </c>
@@ -27652,8 +27653,8 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
-      <c r="A126">
+    <row r="126" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="3">
         <f t="shared" si="23"/>
         <v>352</v>
       </c>
@@ -27683,8 +27684,8 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
-      <c r="A127">
+    <row r="127" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="3">
         <f t="shared" si="23"/>
         <v>353</v>
       </c>
@@ -27714,8 +27715,8 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
-      <c r="A128">
+    <row r="128" spans="1:31" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="3">
         <f t="shared" si="23"/>
         <v>354</v>
       </c>
@@ -27745,8 +27746,8 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="3">
         <f t="shared" si="23"/>
         <v>355</v>
       </c>
@@ -27776,8 +27777,8 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="3">
         <f t="shared" si="23"/>
         <v>356</v>
       </c>
@@ -27807,8 +27808,8 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131">
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="3">
         <f t="shared" si="23"/>
         <v>357</v>
       </c>
@@ -27838,8 +27839,8 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132">
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="3">
         <f t="shared" si="23"/>
         <v>358</v>
       </c>
@@ -27869,8 +27870,8 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133">
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="3">
         <f t="shared" si="23"/>
         <v>359</v>
       </c>
@@ -27900,8 +27901,8 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134">
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="3">
         <f t="shared" si="23"/>
         <v>360</v>
       </c>
@@ -27931,8 +27932,8 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
-      <c r="A135">
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="3">
         <f t="shared" si="23"/>
         <v>361</v>
       </c>
@@ -27962,8 +27963,8 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
-      <c r="A136">
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="3">
         <f t="shared" si="23"/>
         <v>362</v>
       </c>
@@ -27993,8 +27994,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
-      <c r="A137">
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="3">
         <f t="shared" si="23"/>
         <v>363</v>
       </c>
@@ -28024,8 +28025,8 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138">
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="3">
         <f t="shared" si="23"/>
         <v>364</v>
       </c>
@@ -28055,8 +28056,8 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
-      <c r="A139">
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="3">
         <f t="shared" si="23"/>
         <v>365</v>
       </c>
@@ -28086,8 +28087,8 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140">
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="3">
         <f t="shared" ref="A140:A144" si="29">B140+300</f>
         <v>366</v>
       </c>
@@ -28117,8 +28118,8 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
-      <c r="A141">
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="3">
         <f t="shared" si="29"/>
         <v>367</v>
       </c>
@@ -28148,8 +28149,8 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="A142">
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="3">
         <f t="shared" si="29"/>
         <v>368</v>
       </c>
@@ -28179,8 +28180,8 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
-      <c r="A143">
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="3">
         <f t="shared" si="29"/>
         <v>369</v>
       </c>
@@ -28210,8 +28211,8 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
-      <c r="A144">
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="3">
         <f t="shared" si="29"/>
         <v>370</v>
       </c>
@@ -28241,6 +28242,12 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="145" ht="20.100000000000001" customHeight="1"/>
+    <row r="146" ht="20.100000000000001" customHeight="1"/>
+    <row r="147" ht="20.100000000000001" customHeight="1"/>
+    <row r="148" ht="20.100000000000001" customHeight="1"/>
+    <row r="149" ht="20.100000000000001" customHeight="1"/>
+    <row r="150" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30877,7 +30884,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="70" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -30941,7 +30948,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -30996,7 +31003,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="69" t="s">
+      <c r="AX4" s="70" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -31025,7 +31032,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -31077,7 +31084,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="69"/>
+      <c r="AX5" s="70"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -31093,7 +31100,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="70" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -31123,7 +31130,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="69"/>
+      <c r="AX6" s="70"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -31150,7 +31157,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -31196,7 +31203,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="69" t="s">
+      <c r="AX7" s="70" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -31225,7 +31232,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -31265,7 +31272,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="69"/>
+      <c r="AX8" s="70"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -31281,7 +31288,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="70" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -31305,7 +31312,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="69"/>
+      <c r="AX9" s="70"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -31332,7 +31339,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -31376,7 +31383,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="69" t="s">
+      <c r="AX10" s="70" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -31405,7 +31412,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -31457,7 +31464,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="69"/>
+      <c r="AX11" s="70"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -31474,7 +31481,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="70" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -31507,7 +31514,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="69"/>
+      <c r="AX12" s="70"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -31527,7 +31534,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -31555,7 +31562,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="70" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -31588,7 +31595,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -31619,7 +31626,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="69"/>
+      <c r="AX14" s="70"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -31644,7 +31651,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="70" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -31674,7 +31681,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="69"/>
+      <c r="AX15" s="70"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -31699,7 +31706,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -31727,7 +31734,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="69" t="s">
+      <c r="AX16" s="70" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -31754,7 +31761,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -31777,7 +31784,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="69"/>
+      <c r="AX17" s="70"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -31802,7 +31809,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="70" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -31838,7 +31845,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="69"/>
+      <c r="AX18" s="70"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -31860,7 +31867,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -31894,7 +31901,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="69" t="s">
+      <c r="AX19" s="70" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -31911,7 +31918,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -31942,7 +31949,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="69"/>
+      <c r="AX20" s="70"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -31983,7 +31990,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="69"/>
+      <c r="AX21" s="70"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -37940,8 +37947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -40419,7 +40426,7 @@
         <v>379</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" ref="E58:E86" si="22">"效果:"&amp;D59</f>
+        <f t="shared" ref="E59:E86" si="22">"效果:"&amp;D59</f>
         <v>效果:移动速度提升5%</v>
       </c>
     </row>
@@ -40463,7 +40470,7 @@
       <c r="C62" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="69" t="s">
         <v>1621</v>
       </c>
       <c r="E62" s="3" t="str">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2448F5B0-7C6F-487F-88EC-2D52B4F60575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08352C72-BD4D-4A24-8914-AAA072C0077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="495" windowWidth="27045" windowHeight="14625" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -19680,7 +19680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -41349,8 +41349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView topLeftCell="R28" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="R49" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54:AC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -43185,14 +43185,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="3" t="str">
         <f t="shared" ref="W21:W29" si="8">"100403;"&amp;AB21</f>
-        <v>100403;24</v>
+        <v>100403;21</v>
       </c>
       <c r="X21" s="6" t="s">
         <v>964</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f t="shared" ref="Y21:Y29" si="9">"攻击+"&amp;AB21</f>
-        <v>攻击+24</v>
+        <v>攻击+21</v>
       </c>
       <c r="Z21" s="3">
         <v>15</v>
@@ -43202,9 +43202,12 @@
         <v>23</v>
       </c>
       <c r="AB21" s="3">
-        <v>24</v>
-      </c>
-      <c r="AC21" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>AB21-AB20</f>
+        <v>6</v>
+      </c>
       <c r="AD21" s="3" t="s">
         <v>965</v>
       </c>
@@ -43283,14 +43286,14 @@
       <c r="V22" s="4"/>
       <c r="W22" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>100403;30</v>
+        <v>100403;28</v>
       </c>
       <c r="X22" s="6" t="s">
         <v>967</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>攻击+30</v>
+        <v>攻击+28</v>
       </c>
       <c r="Z22" s="3">
         <v>20</v>
@@ -43300,9 +43303,12 @@
         <v>30</v>
       </c>
       <c r="AB22" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>AB22-AB21</f>
+        <v>7</v>
+      </c>
       <c r="AD22" s="3" t="s">
         <v>968</v>
       </c>
@@ -43377,14 +43383,14 @@
       <c r="V23" s="1"/>
       <c r="W23" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>100403;48</v>
+        <v>100403;36</v>
       </c>
       <c r="X23" s="6" t="s">
         <v>970</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>攻击+48</v>
+        <v>攻击+36</v>
       </c>
       <c r="Z23" s="3">
         <v>25</v>
@@ -43394,9 +43400,12 @@
         <v>38</v>
       </c>
       <c r="AB23" s="3">
-        <v>48</v>
-      </c>
-      <c r="AC23" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" ref="AC23:AC28" si="12">AB23-AB22</f>
+        <v>8</v>
+      </c>
       <c r="AD23" s="3" t="s">
         <v>971</v>
       </c>
@@ -43491,7 +43500,10 @@
       <c r="AB24" s="3">
         <v>45</v>
       </c>
-      <c r="AC24" s="3"/>
+      <c r="AC24" s="3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="AD24" s="3" t="s">
         <v>976</v>
       </c>
@@ -43574,7 +43586,10 @@
       <c r="AB25" s="3">
         <v>60</v>
       </c>
-      <c r="AC25" s="3"/>
+      <c r="AC25" s="3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="AD25" s="3" t="s">
         <v>980</v>
       </c>
@@ -43656,7 +43671,10 @@
       <c r="AB26" s="3">
         <v>75</v>
       </c>
-      <c r="AC26" s="3"/>
+      <c r="AC26" s="3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="AD26" s="3" t="s">
         <v>985</v>
       </c>
@@ -43747,7 +43765,10 @@
       <c r="AB27" s="3">
         <v>90</v>
       </c>
-      <c r="AC27" s="3"/>
+      <c r="AC27" s="3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="AD27" s="3" t="s">
         <v>991</v>
       </c>
@@ -43838,7 +43859,10 @@
       <c r="AB28" s="3">
         <v>105</v>
       </c>
-      <c r="AC28" s="3"/>
+      <c r="AC28" s="3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="AD28" s="3" t="s">
         <v>997</v>
       </c>
@@ -44114,11 +44138,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" ref="P32:Q32" si="12">P28*P$21</f>
+        <f t="shared" ref="P32:Q32" si="13">P28*P$21</f>
         <v>20</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R32" s="3"/>
@@ -44205,15 +44229,15 @@
         <v>999</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" ref="O33:O34" si="13">ROUND(O29*O$21,-1)</f>
+        <f t="shared" ref="O33:O34" si="14">ROUND(O29*O$21,-1)</f>
         <v>40</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" ref="P33:Q33" si="14">P29*P$21</f>
+        <f t="shared" ref="P33:Q33" si="15">P29*P$21</f>
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="R33" s="3"/>
@@ -44228,21 +44252,21 @@
         <v>1021</v>
       </c>
       <c r="W33" s="3" t="str">
-        <f t="shared" ref="W33:W41" si="15">"100203;"&amp;AB33</f>
+        <f t="shared" ref="W33:W41" si="16">"100203;"&amp;AB33</f>
         <v>100203;225</v>
       </c>
       <c r="X33" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="Y33" s="3" t="str">
-        <f t="shared" ref="Y33:Y41" si="16">"生命+"&amp;AB33</f>
+        <f t="shared" ref="Y33:Y41" si="17">"生命+"&amp;AB33</f>
         <v>生命+225</v>
       </c>
       <c r="Z33" s="3">
         <v>150</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" ref="AA33:AA41" si="17">Z33*1.5</f>
+        <f t="shared" ref="AA33:AA41" si="18">Z33*1.5</f>
         <v>225</v>
       </c>
       <c r="AB33" s="3">
@@ -44301,15 +44325,15 @@
         <v>1005</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:Q34" si="18">P30*P$21</f>
+        <f t="shared" ref="P34:Q34" si="19">P30*P$21</f>
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R34" s="3"/>
@@ -44324,21 +44348,21 @@
         <v>1026</v>
       </c>
       <c r="W34" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;300</v>
       </c>
       <c r="X34" s="6" t="s">
         <v>1027</v>
       </c>
       <c r="Y34" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+300</v>
       </c>
       <c r="Z34" s="3">
         <v>200</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>300</v>
       </c>
       <c r="AB34" s="3">
@@ -44408,21 +44432,21 @@
         <v>1031</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;375</v>
       </c>
       <c r="X35" s="6" t="s">
         <v>1032</v>
       </c>
       <c r="Y35" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+375</v>
       </c>
       <c r="Z35" s="3">
         <v>250</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>375</v>
       </c>
       <c r="AB35" s="3">
@@ -44483,34 +44507,34 @@
         <v>993</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" ref="O36:Q36" si="19">O28*O$22</f>
+        <f t="shared" ref="O36:Q36" si="20">O28*O$22</f>
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R36" s="3"/>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;450</v>
       </c>
       <c r="X36" s="6" t="s">
         <v>1036</v>
       </c>
       <c r="Y36" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+450</v>
       </c>
       <c r="Z36" s="3">
         <v>300</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="AB36" s="3">
@@ -44563,34 +44587,34 @@
         <v>999</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" ref="O37:Q37" si="20">O29*O$22</f>
+        <f t="shared" ref="O37:Q37" si="21">O29*O$22</f>
         <v>75</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="R37" s="3"/>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;600</v>
       </c>
       <c r="X37" s="6" t="s">
         <v>1037</v>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+600</v>
       </c>
       <c r="Z37" s="3">
         <v>400</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="AB37" s="3">
@@ -44649,15 +44673,15 @@
         <v>1005</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" ref="O38:Q38" si="21">O30*O$22</f>
+        <f t="shared" ref="O38:Q38" si="22">O30*O$22</f>
         <v>225</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R38" s="3"/>
@@ -44670,21 +44694,21 @@
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;750</v>
       </c>
       <c r="X38" s="6" t="s">
         <v>1040</v>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+750</v>
       </c>
       <c r="Z38" s="3">
         <v>500</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>750</v>
       </c>
       <c r="AB38" s="3">
@@ -44757,21 +44781,21 @@
         <v>1044</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;900</v>
       </c>
       <c r="X39" s="6" t="s">
         <v>1045</v>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+900</v>
       </c>
       <c r="Z39" s="3">
         <v>600</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>900</v>
       </c>
       <c r="AB39" s="3">
@@ -44832,15 +44856,15 @@
         <v>993</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40:Q40" si="22">O28*O$23</f>
+        <f t="shared" ref="O40:Q40" si="23">O28*O$23</f>
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R40" s="3"/>
@@ -44855,21 +44879,21 @@
         <v>1050</v>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;1050</v>
       </c>
       <c r="X40" s="6" t="s">
         <v>1051</v>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+1050</v>
       </c>
       <c r="Z40" s="3">
         <v>700</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1050</v>
       </c>
       <c r="AB40" s="3">
@@ -44928,15 +44952,15 @@
         <v>999</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" ref="O41:Q41" si="23">O29*O$23</f>
+        <f t="shared" ref="O41:Q41" si="24">O29*O$23</f>
         <v>112.5</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="R41" s="3"/>
@@ -44950,21 +44974,21 @@
         <v>1055</v>
       </c>
       <c r="W41" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100203;1200</v>
       </c>
       <c r="X41" s="6" t="s">
         <v>1056</v>
       </c>
       <c r="Y41" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>生命+1200</v>
       </c>
       <c r="Z41" s="3">
         <v>800</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1200</v>
       </c>
       <c r="AB41" s="3">
@@ -45023,15 +45047,15 @@
         <v>1005</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" ref="O42:Q42" si="24">O30*O$23</f>
+        <f t="shared" ref="O42:Q42" si="25">O30*O$23</f>
         <v>337.5</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R42" s="3"/>
@@ -45184,15 +45208,15 @@
         <v>993</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" ref="O44:Q44" si="25">O28*O$24</f>
+        <f t="shared" ref="O44:Q44" si="26">O28*O$24</f>
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R44" s="3"/>
@@ -45206,28 +45230,28 @@
         <v>1068</v>
       </c>
       <c r="W44" s="3" t="str">
-        <f t="shared" ref="W44:W52" si="26">"100203;"&amp;AA44&amp;"@100603:"&amp;AC44</f>
-        <v>100203;113@100603:24</v>
+        <f t="shared" ref="W44:W52" si="27">"100203;"&amp;AA44&amp;"@100603:"&amp;AC44</f>
+        <v>100203;113@100603:21</v>
       </c>
       <c r="X44" s="6" t="s">
         <v>1069</v>
       </c>
       <c r="Y44" s="4" t="str">
-        <f t="shared" ref="Y44:Y52" si="27">"生命+"&amp;AA44&amp;"  物理防御+"&amp;AC44</f>
-        <v>生命+113  物理防御+24</v>
+        <f t="shared" ref="Y44:Y52" si="28">"生命+"&amp;AA44&amp;"  物理防御+"&amp;AC44</f>
+        <v>生命+113  物理防御+21</v>
       </c>
       <c r="Z44" s="3">
         <v>75</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" ref="AA44:AA52" si="28">ROUND(Z44*1.5,0)</f>
+        <f t="shared" ref="AA44:AA52" si="29">ROUND(Z44*1.5,0)</f>
         <v>113</v>
       </c>
       <c r="AB44" s="3">
         <v>15</v>
       </c>
       <c r="AC44" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>1070</v>
@@ -45281,15 +45305,15 @@
         <v>999</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" ref="O45:Q45" si="29">O29*O$24</f>
+        <f t="shared" ref="O45:Q45" si="30">O29*O$24</f>
         <v>150</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="R45" s="3"/>
@@ -45303,28 +45327,28 @@
         <v>1072</v>
       </c>
       <c r="W45" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>100203;150@100603:30</v>
+        <f t="shared" si="27"/>
+        <v>100203;150@100603:28</v>
       </c>
       <c r="X45" s="6" t="s">
         <v>1073</v>
       </c>
       <c r="Y45" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>生命+150  物理防御+30</v>
+        <f t="shared" si="28"/>
+        <v>生命+150  物理防御+28</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="AB45" s="3">
         <v>20</v>
       </c>
       <c r="AC45" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>1049</v>
@@ -45378,15 +45402,15 @@
         <v>1005</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" ref="O46:Q46" si="30">O30*O$24</f>
+        <f t="shared" ref="O46:Q46" si="31">O30*O$24</f>
         <v>450</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R46" s="3"/>
@@ -45400,28 +45424,28 @@
         <v>1075</v>
       </c>
       <c r="W46" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>100203;188@100603:48</v>
+        <f t="shared" si="27"/>
+        <v>100203;188@100603:36</v>
       </c>
       <c r="X46" s="6" t="s">
         <v>1076</v>
       </c>
       <c r="Y46" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>生命+188  物理防御+48</v>
+        <f t="shared" si="28"/>
+        <v>生命+188  物理防御+36</v>
       </c>
       <c r="Z46" s="3">
         <v>125</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>188</v>
       </c>
       <c r="AB46" s="3">
         <v>25</v>
       </c>
       <c r="AC46" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>1077</v>
@@ -45486,21 +45510,21 @@
         <v>1079</v>
       </c>
       <c r="W47" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;225@100603:45</v>
       </c>
       <c r="X47" s="6" t="s">
         <v>1080</v>
       </c>
       <c r="Y47" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+225  物理防御+45</v>
       </c>
       <c r="Z47" s="3">
         <v>150</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>225</v>
       </c>
       <c r="AB47" s="3">
@@ -45567,21 +45591,21 @@
         <v>1084</v>
       </c>
       <c r="W48" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;300@100603:60</v>
       </c>
       <c r="X48" s="6" t="s">
         <v>1085</v>
       </c>
       <c r="Y48" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+300  物理防御+60</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="AB48" s="3">
@@ -45644,15 +45668,15 @@
         <v>993</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" ref="O49:Q49" si="31">O28*O$23</f>
+        <f t="shared" ref="O49:Q49" si="32">O28*O$23</f>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R49" s="3"/>
@@ -45667,21 +45691,21 @@
         <v>1089</v>
       </c>
       <c r="W49" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;375@100603:75</v>
       </c>
       <c r="X49" s="6" t="s">
         <v>1090</v>
       </c>
       <c r="Y49" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+375  物理防御+75</v>
       </c>
       <c r="Z49" s="3">
         <v>250</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>375</v>
       </c>
       <c r="AB49" s="3">
@@ -45741,11 +45765,11 @@
         <v>120</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" ref="P50:P51" si="32">P29*P$23</f>
+        <f t="shared" ref="P50:P51" si="33">P29*P$23</f>
         <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" ref="Q50" si="33">Q29*Q$23</f>
+        <f t="shared" ref="Q50" si="34">Q29*Q$23</f>
         <v>20</v>
       </c>
       <c r="R50" s="3"/>
@@ -45759,21 +45783,21 @@
         <v>1093</v>
       </c>
       <c r="W50" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;450@100603:90</v>
       </c>
       <c r="X50" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="Y50" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+450  物理防御+90</v>
       </c>
       <c r="Z50" s="3">
         <v>300</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>450</v>
       </c>
       <c r="AB50" s="3">
@@ -45836,30 +45860,30 @@
         <v>320</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" ref="Q51" si="34">Q30*Q$23</f>
+        <f t="shared" ref="Q51" si="35">Q30*Q$23</f>
         <v>0</v>
       </c>
       <c r="R51" s="3"/>
       <c r="W51" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;525@100603:105</v>
       </c>
       <c r="X51" s="6" t="s">
         <v>1097</v>
       </c>
       <c r="Y51" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+525  物理防御+105</v>
       </c>
       <c r="Z51" s="3">
         <v>350</v>
       </c>
       <c r="AA51" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>525</v>
       </c>
       <c r="AB51" s="3">
@@ -45916,21 +45940,21 @@
         <v>17</v>
       </c>
       <c r="W52" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100203;600@100603:120</v>
       </c>
       <c r="X52" s="6" t="s">
         <v>1100</v>
       </c>
       <c r="Y52" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>生命+600  物理防御+120</v>
       </c>
       <c r="Z52" s="3">
         <v>400</v>
       </c>
       <c r="AA52" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>600</v>
       </c>
       <c r="AB52" s="3">
@@ -46135,28 +46159,28 @@
         <v>1110</v>
       </c>
       <c r="W55" s="3" t="str">
-        <f t="shared" ref="W55:W63" si="35">"100203;"&amp;AA55&amp;"@100803:"&amp;AC55</f>
-        <v>100203;113@100803:24</v>
+        <f t="shared" ref="W55:W63" si="36">"100203;"&amp;AA55&amp;"@100803:"&amp;AC55</f>
+        <v>100203;113@100803:21</v>
       </c>
       <c r="X55" s="6" t="s">
         <v>1111</v>
       </c>
       <c r="Y55" s="4" t="str">
-        <f t="shared" ref="Y55:Y63" si="36">"生命+"&amp;AA55&amp;"  魔法防御+"&amp;AC55</f>
-        <v>生命+113  魔法防御+24</v>
+        <f t="shared" ref="Y55:Y63" si="37">"生命+"&amp;AA55&amp;"  魔法防御+"&amp;AC55</f>
+        <v>生命+113  魔法防御+21</v>
       </c>
       <c r="Z55" s="3">
         <v>75</v>
       </c>
       <c r="AA55" s="3">
-        <f t="shared" ref="AA55:AA63" si="37">ROUND(Z55*1.5,0)</f>
+        <f t="shared" ref="AA55:AA63" si="38">ROUND(Z55*1.5,0)</f>
         <v>113</v>
       </c>
       <c r="AB55" s="3">
         <v>15</v>
       </c>
       <c r="AC55" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD55" s="3" t="s">
         <v>1112</v>
@@ -46215,28 +46239,28 @@
         <v>1115</v>
       </c>
       <c r="W56" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>100203;150@100803:30</v>
+        <f t="shared" si="36"/>
+        <v>100203;150@100803:28</v>
       </c>
       <c r="X56" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="Y56" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>生命+150  魔法防御+30</v>
+        <f t="shared" si="37"/>
+        <v>生命+150  魔法防御+28</v>
       </c>
       <c r="Z56" s="3">
         <v>100</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>150</v>
       </c>
       <c r="AB56" s="3">
         <v>20</v>
       </c>
       <c r="AC56" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD56" s="3" t="s">
         <v>1117</v>
@@ -46295,28 +46319,28 @@
         <v>1119</v>
       </c>
       <c r="W57" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>100203;188@100803:48</v>
+        <f t="shared" si="36"/>
+        <v>100203;188@100803:36</v>
       </c>
       <c r="X57" s="6" t="s">
         <v>1120</v>
       </c>
       <c r="Y57" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>生命+188  魔法防御+48</v>
+        <f t="shared" si="37"/>
+        <v>生命+188  魔法防御+36</v>
       </c>
       <c r="Z57" s="3">
         <v>125</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>188</v>
       </c>
       <c r="AB57" s="3">
         <v>25</v>
       </c>
       <c r="AC57" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>1121</v>
@@ -46375,21 +46399,21 @@
         <v>1124</v>
       </c>
       <c r="W58" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;225@100803:45</v>
       </c>
       <c r="X58" s="6" t="s">
         <v>1125</v>
       </c>
       <c r="Y58" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+225  魔法防御+45</v>
       </c>
       <c r="Z58" s="3">
         <v>150</v>
       </c>
       <c r="AA58" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>225</v>
       </c>
       <c r="AB58" s="3">
@@ -46455,21 +46479,21 @@
         <v>1129</v>
       </c>
       <c r="W59" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;300@100803:60</v>
       </c>
       <c r="X59" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="Y59" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+300  魔法防御+60</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
       <c r="AA59" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>300</v>
       </c>
       <c r="AB59" s="3">
@@ -46535,21 +46559,21 @@
         <v>1133</v>
       </c>
       <c r="W60" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;375@100803:75</v>
       </c>
       <c r="X60" s="6" t="s">
         <v>1134</v>
       </c>
       <c r="Y60" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+375  魔法防御+75</v>
       </c>
       <c r="Z60" s="3">
         <v>250</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>375</v>
       </c>
       <c r="AB60" s="3">
@@ -46615,21 +46639,21 @@
         <v>1137</v>
       </c>
       <c r="W61" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;450@100803:90</v>
       </c>
       <c r="X61" s="6" t="s">
         <v>1138</v>
       </c>
       <c r="Y61" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+450  魔法防御+90</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
       </c>
       <c r="AA61" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>450</v>
       </c>
       <c r="AB61" s="3">
@@ -46656,21 +46680,21 @@
         <v>1141</v>
       </c>
       <c r="W62" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;525@100803:105</v>
       </c>
       <c r="X62" s="6" t="s">
         <v>1142</v>
       </c>
       <c r="Y62" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+525  魔法防御+105</v>
       </c>
       <c r="Z62" s="3">
         <v>350</v>
       </c>
       <c r="AA62" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>525</v>
       </c>
       <c r="AB62" s="3">
@@ -46698,21 +46722,21 @@
         <v>1146</v>
       </c>
       <c r="W63" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>100203;600@100803:120</v>
       </c>
       <c r="X63" s="6" t="s">
         <v>1147</v>
       </c>
       <c r="Y63" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>生命+600  魔法防御+120</v>
       </c>
       <c r="Z63" s="3">
         <v>400</v>
       </c>
       <c r="AA63" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>600</v>
       </c>
       <c r="AB63" s="3">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8D024-9B3E-4817-B42C-3447B3E8161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA47E1-2891-4BAE-A506-CA718632D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -68,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,6 +79,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>因为宝石是玩家DIY所以匹配的10的属性系数3的放大系数,放大系数是指单独堆叠一个属性可以达到的单个属性值系数</t>
@@ -599,6 +602,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>对自身释放一个护盾,护盾可以抵抗自身最大生命100%的伤害,持续</t>
@@ -608,6 +612,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30秒</t>
@@ -646,6 +651,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>向前方发射一颗移动缓慢的球体,球体每秒对附近玩家造成</t>
@@ -655,6 +661,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>120%</t>
@@ -664,6 +671,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害,持续6秒,</t>
@@ -673,6 +681,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>并降低目标移动速度50%</t>
@@ -843,6 +852,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>对目标区域恢复相当于自身攻击100%的生命值</t>
@@ -852,6 +862,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,并对范围内己方玩家攻击提升25%,持续10秒</t>
@@ -1724,6 +1735,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大地</t>
@@ -1733,6 +1745,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1744,6 +1757,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生命</t>
@@ -1753,6 +1767,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1764,6 +1779,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>钢铁</t>
@@ -1773,6 +1789,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1880,6 +1897,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>树王</t>
@@ -1889,6 +1907,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>戒指</t>
@@ -5159,6 +5178,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5166,6 +5186,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5173,6 +5194,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5180,6 +5202,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5187,6 +5210,7 @@
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5194,12 +5218,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5207,6 +5233,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5214,6 +5241,7 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5221,12 +5249,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5234,12 +5264,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5247,17 +5279,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5288,6 +5323,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5295,29 +5331,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5679,13 +5720,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9936,7 +9977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -32592,7 +32633,7 @@
       <c r="J3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="72" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="49" t="s">
@@ -32656,7 +32697,7 @@
       <c r="I4" s="59">
         <v>10002</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="49" t="s">
         <v>57</v>
       </c>
@@ -32711,7 +32752,7 @@
       <c r="AW4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="70" t="s">
+      <c r="AX4" s="72" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="49" t="s">
@@ -32740,7 +32781,7 @@
       <c r="I5" s="59">
         <v>10003</v>
       </c>
-      <c r="K5" s="70"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="49" t="s">
         <v>72</v>
       </c>
@@ -32792,7 +32833,7 @@
       <c r="AV5" s="49">
         <v>10002</v>
       </c>
-      <c r="AX5" s="70"/>
+      <c r="AX5" s="72"/>
       <c r="AY5" s="49" t="s">
         <v>57</v>
       </c>
@@ -32808,7 +32849,7 @@
       <c r="I6" s="59">
         <v>10011</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="49" t="s">
@@ -32838,7 +32879,7 @@
       <c r="AV6" s="49">
         <v>10003</v>
       </c>
-      <c r="AX6" s="70"/>
+      <c r="AX6" s="72"/>
       <c r="AY6" s="49" t="s">
         <v>72</v>
       </c>
@@ -32865,7 +32906,7 @@
       <c r="I7" s="59">
         <v>10012</v>
       </c>
-      <c r="K7" s="70"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="49" t="s">
         <v>57</v>
       </c>
@@ -32911,7 +32952,7 @@
       <c r="AV7" s="49">
         <v>10011</v>
       </c>
-      <c r="AX7" s="70" t="s">
+      <c r="AX7" s="72" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="49" t="s">
@@ -32940,7 +32981,7 @@
       <c r="I8" s="59">
         <v>10013</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="49" t="s">
         <v>72</v>
       </c>
@@ -32980,7 +33021,7 @@
       <c r="AV8" s="49">
         <v>10012</v>
       </c>
-      <c r="AX8" s="70"/>
+      <c r="AX8" s="72"/>
       <c r="AY8" s="49" t="s">
         <v>57</v>
       </c>
@@ -32996,7 +33037,7 @@
       <c r="I9" s="59">
         <v>10021</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="72" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="49" t="s">
@@ -33020,7 +33061,7 @@
       <c r="AV9" s="49">
         <v>10013</v>
       </c>
-      <c r="AX9" s="70"/>
+      <c r="AX9" s="72"/>
       <c r="AY9" s="49" t="s">
         <v>72</v>
       </c>
@@ -33047,7 +33088,7 @@
       <c r="I10" s="59">
         <v>10022</v>
       </c>
-      <c r="K10" s="70"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="49" t="s">
         <v>57</v>
       </c>
@@ -33091,7 +33132,7 @@
       <c r="AV10" s="49">
         <v>10021</v>
       </c>
-      <c r="AX10" s="70" t="s">
+      <c r="AX10" s="72" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="49" t="s">
@@ -33120,7 +33161,7 @@
       <c r="I11" s="59">
         <v>10023</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="49" t="s">
         <v>72</v>
       </c>
@@ -33172,7 +33213,7 @@
       <c r="AV11" s="49">
         <v>10022</v>
       </c>
-      <c r="AX11" s="70"/>
+      <c r="AX11" s="72"/>
       <c r="AY11" s="49" t="s">
         <v>57</v>
       </c>
@@ -33189,7 +33230,7 @@
       <c r="I12" s="59">
         <v>10031</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="72" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="49" t="s">
@@ -33222,7 +33263,7 @@
       <c r="AV12" s="49">
         <v>10023</v>
       </c>
-      <c r="AX12" s="70"/>
+      <c r="AX12" s="72"/>
       <c r="AY12" s="49" t="s">
         <v>72</v>
       </c>
@@ -33242,7 +33283,7 @@
       <c r="I13" s="59">
         <v>10032</v>
       </c>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="49" t="s">
         <v>57</v>
       </c>
@@ -33270,7 +33311,7 @@
       <c r="AV13" s="49">
         <v>10031</v>
       </c>
-      <c r="AX13" s="70" t="s">
+      <c r="AX13" s="72" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="49" t="s">
@@ -33303,7 +33344,7 @@
       <c r="I14" s="59">
         <v>10033</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="49" t="s">
         <v>72</v>
       </c>
@@ -33334,7 +33375,7 @@
       <c r="AV14" s="49">
         <v>10032</v>
       </c>
-      <c r="AX14" s="70"/>
+      <c r="AX14" s="72"/>
       <c r="AY14" s="49" t="s">
         <v>57</v>
       </c>
@@ -33359,7 +33400,7 @@
       <c r="I15" s="59">
         <v>10041</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="72" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="49" t="s">
@@ -33389,7 +33430,7 @@
       <c r="AV15" s="49">
         <v>10033</v>
       </c>
-      <c r="AX15" s="70"/>
+      <c r="AX15" s="72"/>
       <c r="AY15" s="49" t="s">
         <v>72</v>
       </c>
@@ -33414,7 +33455,7 @@
       <c r="I16" s="59">
         <v>10042</v>
       </c>
-      <c r="K16" s="70"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="49" t="s">
         <v>57</v>
       </c>
@@ -33442,7 +33483,7 @@
       <c r="AV16" s="49">
         <v>10041</v>
       </c>
-      <c r="AX16" s="70" t="s">
+      <c r="AX16" s="72" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="49" t="s">
@@ -33469,7 +33510,7 @@
       <c r="I17" s="59">
         <v>10043</v>
       </c>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="49" t="s">
         <v>72</v>
       </c>
@@ -33492,7 +33533,7 @@
       <c r="AV17" s="49">
         <v>10042</v>
       </c>
-      <c r="AX17" s="70"/>
+      <c r="AX17" s="72"/>
       <c r="AY17" s="49" t="s">
         <v>57</v>
       </c>
@@ -33517,7 +33558,7 @@
       <c r="I18" s="49">
         <v>10051</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="72" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="49" t="s">
@@ -33553,7 +33594,7 @@
       <c r="AV18" s="49">
         <v>10043</v>
       </c>
-      <c r="AX18" s="70"/>
+      <c r="AX18" s="72"/>
       <c r="AY18" s="49" t="s">
         <v>72</v>
       </c>
@@ -33575,7 +33616,7 @@
       <c r="I19" s="49">
         <v>10052</v>
       </c>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="49" t="s">
         <v>57</v>
       </c>
@@ -33609,7 +33650,7 @@
       <c r="AV19" s="49">
         <v>10051</v>
       </c>
-      <c r="AX19" s="70" t="s">
+      <c r="AX19" s="72" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="49" t="s">
@@ -33626,7 +33667,7 @@
       <c r="I20" s="49">
         <v>10053</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="49" t="s">
         <v>72</v>
       </c>
@@ -33657,7 +33698,7 @@
       <c r="AV20" s="49">
         <v>10052</v>
       </c>
-      <c r="AX20" s="70"/>
+      <c r="AX20" s="72"/>
       <c r="AY20" s="49" t="s">
         <v>57</v>
       </c>
@@ -33698,7 +33739,7 @@
       <c r="AV21" s="49">
         <v>10053</v>
       </c>
-      <c r="AX21" s="70"/>
+      <c r="AX21" s="72"/>
       <c r="AY21" s="49" t="s">
         <v>72</v>
       </c>
@@ -42687,8 +42728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -42799,7 +42840,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>1629</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -42827,7 +42868,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>1630</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -42852,7 +42893,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>1631</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -42861,7 +42902,7 @@
       <c r="D14" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="71" t="s">
         <v>1628</v>
       </c>
       <c r="F14" s="3" t="s">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA47E1-2891-4BAE-A506-CA718632D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB773E8-A74C-4F82-9BDD-EFA0C4C8A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="240" windowWidth="27045" windowHeight="14625" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -4530,18 +4530,6 @@
     <t>高阶专注</t>
   </si>
   <si>
-    <t>4点攻击+1点物理防御</t>
-  </si>
-  <si>
-    <t>4点魔法+1点魔法防御</t>
-  </si>
-  <si>
-    <t>25点生命</t>
-  </si>
-  <si>
-    <t>5点物理防御+5点魔法防御</t>
-  </si>
-  <si>
     <t>5点属性</t>
   </si>
   <si>
@@ -5156,6 +5144,22 @@
       </rPr>
       <t>,6</t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>40点生命</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>20生命+5点物理防御+5点魔法防御</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>10点攻击</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>10点魔法</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -9975,19 +9979,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="7" width="9" style="12"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="16" max="16" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -10017,7 +10021,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10053,7 +10057,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>842</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>1428</v>
+        <v>1630</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -10111,7 +10115,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10148,7 +10152,7 @@
         <v>846</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>1429</v>
+        <v>1631</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -10157,7 +10161,7 @@
       </c>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>833</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>1430</v>
+        <v>1628</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -10211,7 +10215,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>850</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>1431</v>
+        <v>1629</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -10269,7 +10273,7 @@
       </c>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10307,7 +10311,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10337,7 +10341,7 @@
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="P8" s="3">
         <f>4*5+1*5</f>
@@ -10348,7 +10352,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10378,13 +10382,13 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10414,13 +10418,13 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10449,8 +10453,11 @@
         <v>150</v>
       </c>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="P11" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10479,8 +10486,9 @@
         <v>157.5</v>
       </c>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10509,8 +10517,27 @@
         <v>165</v>
       </c>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="P13" s="12"/>
+      <c r="S13" s="12">
+        <v>1500</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1280</v>
+      </c>
+      <c r="U13" s="12">
+        <f>S13-T13</f>
+        <v>220</v>
+      </c>
+      <c r="V13" s="12">
+        <f>U13/750</f>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="W13" s="12">
+        <f>1-V13</f>
+        <v>0.70666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10539,8 +10566,29 @@
         <v>172.5</v>
       </c>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="P14" s="12">
+        <v>2</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1500</v>
+      </c>
+      <c r="T14" s="12">
+        <v>1380</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" ref="U14:U16" si="14">S14-T14</f>
+        <v>120</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" ref="V14:V16" si="15">U14/750</f>
+        <v>0.16</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" ref="W14:W16" si="16">1-V14</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10549,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15" si="14">C14+0.25</f>
+        <f t="shared" ref="C15" si="17">C14+0.25</f>
         <v>6</v>
       </c>
       <c r="D15" s="3">
@@ -10569,8 +10617,27 @@
         <v>180</v>
       </c>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="P15" s="12"/>
+      <c r="S15" s="12">
+        <v>1500</v>
+      </c>
+      <c r="T15" s="12">
+        <v>1480</v>
+      </c>
+      <c r="U15" s="12">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="15"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="16"/>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10579,7 +10646,7 @@
         <v>3.125</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16" si="15">C15+0.25</f>
+        <f t="shared" ref="C16" si="18">C15+0.25</f>
         <v>6.25</v>
       </c>
       <c r="D16" s="3">
@@ -10599,6 +10666,25 @@
         <v>187.5</v>
       </c>
       <c r="N16" s="3"/>
+      <c r="P16" s="12"/>
+      <c r="S16" s="12">
+        <v>1500</v>
+      </c>
+      <c r="T16" s="12">
+        <v>1280</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="15"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="16"/>
+        <v>0.70666666666666667</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
@@ -10609,7 +10695,7 @@
         <v>3.25</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17" si="16">C16+0.25</f>
+        <f t="shared" ref="C17" si="19">C16+0.25</f>
         <v>6.5</v>
       </c>
       <c r="D17" s="3">
@@ -10639,7 +10725,7 @@
         <v>3.375</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18" si="17">C17+0.25</f>
+        <f t="shared" ref="C18" si="20">C17+0.25</f>
         <v>6.75</v>
       </c>
       <c r="D18" s="3">
@@ -10669,7 +10755,7 @@
         <v>3.5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19" si="18">C18+0.25</f>
+        <f t="shared" ref="C19" si="21">C18+0.25</f>
         <v>7</v>
       </c>
       <c r="D19" s="3">
@@ -10699,7 +10785,7 @@
         <v>3.625</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20" si="19">C19+0.25</f>
+        <f t="shared" ref="C20" si="22">C19+0.25</f>
         <v>7.25</v>
       </c>
       <c r="D20" s="3">
@@ -10729,7 +10815,7 @@
         <v>3.75</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21" si="20">C20+0.25</f>
+        <f t="shared" ref="C21" si="23">C20+0.25</f>
         <v>7.5</v>
       </c>
       <c r="D21" s="3">
@@ -10759,7 +10845,7 @@
         <v>3.875</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22" si="21">C21+0.25</f>
+        <f t="shared" ref="C22" si="24">C21+0.25</f>
         <v>7.75</v>
       </c>
       <c r="D22" s="3">
@@ -10789,7 +10875,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23" si="22">C22+0.25</f>
+        <f t="shared" ref="C23" si="25">C22+0.25</f>
         <v>8</v>
       </c>
       <c r="D23" s="3">
@@ -10819,7 +10905,7 @@
         <v>4.125</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24" si="23">C23+0.25</f>
+        <f t="shared" ref="C24" si="26">C23+0.25</f>
         <v>8.25</v>
       </c>
       <c r="D24" s="3">
@@ -10849,7 +10935,7 @@
         <v>4.25</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25" si="24">C24+0.25</f>
+        <f t="shared" ref="C25" si="27">C24+0.25</f>
         <v>8.5</v>
       </c>
       <c r="D25" s="3">
@@ -10879,7 +10965,7 @@
         <v>4.375</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26" si="25">C25+0.25</f>
+        <f t="shared" ref="C26" si="28">C25+0.25</f>
         <v>8.75</v>
       </c>
       <c r="D26" s="3">
@@ -10909,7 +10995,7 @@
         <v>4.5</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27" si="26">C26+0.25</f>
+        <f t="shared" ref="C27" si="29">C26+0.25</f>
         <v>9</v>
       </c>
       <c r="D27" s="3">
@@ -10939,7 +11025,7 @@
         <v>4.625</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="27">C27+0.25</f>
+        <f t="shared" ref="C28" si="30">C27+0.25</f>
         <v>9.25</v>
       </c>
       <c r="D28" s="3">
@@ -10969,7 +11055,7 @@
         <v>4.75</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29" si="28">C28+0.25</f>
+        <f t="shared" ref="C29" si="31">C28+0.25</f>
         <v>9.5</v>
       </c>
       <c r="D29" s="3">
@@ -10999,7 +11085,7 @@
         <v>4.875</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30" si="29">C29+0.25</f>
+        <f t="shared" ref="C30" si="32">C29+0.25</f>
         <v>9.75</v>
       </c>
       <c r="D30" s="3">
@@ -11029,7 +11115,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ref="C31" si="30">C30+0.25</f>
+        <f t="shared" ref="C31" si="33">C30+0.25</f>
         <v>10</v>
       </c>
       <c r="D31" s="3">
@@ -11059,7 +11145,7 @@
         <v>5.125</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32" si="31">C31+0.25</f>
+        <f t="shared" ref="C32" si="34">C31+0.25</f>
         <v>10.25</v>
       </c>
       <c r="D32" s="3">
@@ -11089,7 +11175,7 @@
         <v>5.25</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33" si="32">C32+0.25</f>
+        <f t="shared" ref="C33" si="35">C32+0.25</f>
         <v>10.5</v>
       </c>
       <c r="D33" s="3">
@@ -11119,7 +11205,7 @@
         <v>5.375</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34" si="33">C33+0.25</f>
+        <f t="shared" ref="C34" si="36">C33+0.25</f>
         <v>10.75</v>
       </c>
       <c r="D34" s="3">
@@ -11149,7 +11235,7 @@
         <v>5.5</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ref="C35" si="34">C34+0.25</f>
+        <f t="shared" ref="C35" si="37">C34+0.25</f>
         <v>11</v>
       </c>
       <c r="D35" s="3">
@@ -11179,7 +11265,7 @@
         <v>5.625</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ref="C36" si="35">C35+0.25</f>
+        <f t="shared" ref="C36" si="38">C35+0.25</f>
         <v>11.25</v>
       </c>
       <c r="D36" s="3">
@@ -11209,7 +11295,7 @@
         <v>5.75</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37" si="36">C36+0.25</f>
+        <f t="shared" ref="C37" si="39">C36+0.25</f>
         <v>11.5</v>
       </c>
       <c r="D37" s="3">
@@ -11239,7 +11325,7 @@
         <v>5.875</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38" si="37">C37+0.25</f>
+        <f t="shared" ref="C38" si="40">C37+0.25</f>
         <v>11.75</v>
       </c>
       <c r="D38" s="3">
@@ -11269,7 +11355,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39" si="38">C38+0.25</f>
+        <f t="shared" ref="C39" si="41">C38+0.25</f>
         <v>12</v>
       </c>
       <c r="D39" s="3">
@@ -11299,7 +11385,7 @@
         <v>6.125</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40" si="39">C39+0.25</f>
+        <f t="shared" ref="C40" si="42">C39+0.25</f>
         <v>12.25</v>
       </c>
       <c r="D40" s="3">
@@ -11329,7 +11415,7 @@
         <v>6.25</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41" si="40">C40+0.25</f>
+        <f t="shared" ref="C41" si="43">C40+0.25</f>
         <v>12.5</v>
       </c>
       <c r="D41" s="3">
@@ -11359,7 +11445,7 @@
         <v>6.375</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42" si="41">C41+0.25</f>
+        <f t="shared" ref="C42" si="44">C41+0.25</f>
         <v>12.75</v>
       </c>
       <c r="D42" s="3">
@@ -11389,7 +11475,7 @@
         <v>6.5</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ref="C43" si="42">C42+0.25</f>
+        <f t="shared" ref="C43" si="45">C42+0.25</f>
         <v>13</v>
       </c>
       <c r="D43" s="3">
@@ -11419,7 +11505,7 @@
         <v>6.625</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ref="C44" si="43">C43+0.25</f>
+        <f t="shared" ref="C44" si="46">C43+0.25</f>
         <v>13.25</v>
       </c>
       <c r="D44" s="3">
@@ -11449,7 +11535,7 @@
         <v>6.75</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" ref="C45" si="44">C44+0.25</f>
+        <f t="shared" ref="C45" si="47">C44+0.25</f>
         <v>13.5</v>
       </c>
       <c r="D45" s="3">
@@ -11479,7 +11565,7 @@
         <v>6.875</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" ref="C46" si="45">C45+0.25</f>
+        <f t="shared" ref="C46" si="48">C45+0.25</f>
         <v>13.75</v>
       </c>
       <c r="D46" s="3">
@@ -11509,7 +11595,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47" si="46">C46+0.25</f>
+        <f t="shared" ref="C47" si="49">C46+0.25</f>
         <v>14</v>
       </c>
       <c r="D47" s="3">
@@ -11539,7 +11625,7 @@
         <v>7.125</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48" si="47">C47+0.25</f>
+        <f t="shared" ref="C48" si="50">C47+0.25</f>
         <v>14.25</v>
       </c>
       <c r="D48" s="3">
@@ -11569,7 +11655,7 @@
         <v>7.25</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" ref="C49" si="48">C48+0.25</f>
+        <f t="shared" ref="C49" si="51">C48+0.25</f>
         <v>14.5</v>
       </c>
       <c r="D49" s="3">
@@ -11599,7 +11685,7 @@
         <v>7.375</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50" si="49">C49+0.25</f>
+        <f t="shared" ref="C50" si="52">C49+0.25</f>
         <v>14.75</v>
       </c>
       <c r="D50" s="3">
@@ -11629,7 +11715,7 @@
         <v>7.5</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51" si="50">C50+0.25</f>
+        <f t="shared" ref="C51" si="53">C50+0.25</f>
         <v>15</v>
       </c>
       <c r="D51" s="3">
@@ -11659,7 +11745,7 @@
         <v>7.625</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52" si="51">C51+0.25</f>
+        <f t="shared" ref="C52" si="54">C51+0.25</f>
         <v>15.25</v>
       </c>
       <c r="D52" s="3">
@@ -11689,7 +11775,7 @@
         <v>7.75</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ref="C53" si="52">C52+0.25</f>
+        <f t="shared" ref="C53" si="55">C52+0.25</f>
         <v>15.5</v>
       </c>
       <c r="D53" s="3">
@@ -11719,7 +11805,7 @@
         <v>7.875</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54" si="53">C53+0.25</f>
+        <f t="shared" ref="C54" si="56">C53+0.25</f>
         <v>15.75</v>
       </c>
       <c r="D54" s="3">
@@ -11749,7 +11835,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55" si="54">C54+0.25</f>
+        <f t="shared" ref="C55" si="57">C54+0.25</f>
         <v>16</v>
       </c>
       <c r="D55" s="3">
@@ -11779,7 +11865,7 @@
         <v>8.125</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56" si="55">C55+0.25</f>
+        <f t="shared" ref="C56" si="58">C55+0.25</f>
         <v>16.25</v>
       </c>
       <c r="D56" s="3">
@@ -11809,7 +11895,7 @@
         <v>8.25</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ref="C57" si="56">C56+0.25</f>
+        <f t="shared" ref="C57" si="59">C56+0.25</f>
         <v>16.5</v>
       </c>
       <c r="D57" s="3">
@@ -11839,7 +11925,7 @@
         <v>8.375</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ref="C58" si="57">C57+0.25</f>
+        <f t="shared" ref="C58" si="60">C57+0.25</f>
         <v>16.75</v>
       </c>
       <c r="D58" s="3">
@@ -11869,7 +11955,7 @@
         <v>8.5</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ref="C59" si="58">C58+0.25</f>
+        <f t="shared" ref="C59" si="61">C58+0.25</f>
         <v>17</v>
       </c>
       <c r="D59" s="3">
@@ -11899,7 +11985,7 @@
         <v>8.625</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60" si="59">C59+0.25</f>
+        <f t="shared" ref="C60" si="62">C59+0.25</f>
         <v>17.25</v>
       </c>
       <c r="D60" s="3">
@@ -11929,7 +12015,7 @@
         <v>8.75</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ref="C61" si="60">C60+0.25</f>
+        <f t="shared" ref="C61" si="63">C60+0.25</f>
         <v>17.5</v>
       </c>
       <c r="D61" s="3">
@@ -11959,7 +12045,7 @@
         <v>8.875</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62" si="61">C61+0.25</f>
+        <f t="shared" ref="C62" si="64">C61+0.25</f>
         <v>17.75</v>
       </c>
       <c r="D62" s="3">
@@ -11989,7 +12075,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63" si="62">C62+0.25</f>
+        <f t="shared" ref="C63" si="65">C62+0.25</f>
         <v>18</v>
       </c>
       <c r="D63" s="3">
@@ -12019,7 +12105,7 @@
         <v>9.125</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ref="C64" si="63">C63+0.25</f>
+        <f t="shared" ref="C64" si="66">C63+0.25</f>
         <v>18.25</v>
       </c>
       <c r="D64" s="3">
@@ -12049,7 +12135,7 @@
         <v>9.25</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65" si="64">C64+0.25</f>
+        <f t="shared" ref="C65" si="67">C64+0.25</f>
         <v>18.5</v>
       </c>
       <c r="D65" s="3">
@@ -12079,7 +12165,7 @@
         <v>9.375</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66" si="65">C65+0.25</f>
+        <f t="shared" ref="C66" si="68">C65+0.25</f>
         <v>18.75</v>
       </c>
       <c r="D66" s="3">
@@ -12109,7 +12195,7 @@
         <v>9.5</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67" si="66">C66+0.25</f>
+        <f t="shared" ref="C67" si="69">C66+0.25</f>
         <v>19</v>
       </c>
       <c r="D67" s="3">
@@ -12135,11 +12221,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B71" si="67">B67+0.125</f>
+        <f t="shared" ref="B68:B71" si="70">B67+0.125</f>
         <v>9.625</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ref="C68" si="68">C67+0.25</f>
+        <f t="shared" ref="C68" si="71">C67+0.25</f>
         <v>19.25</v>
       </c>
       <c r="D68" s="3">
@@ -12165,11 +12251,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>9.75</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ref="C69" si="69">C68+0.25</f>
+        <f t="shared" ref="C69" si="72">C68+0.25</f>
         <v>19.5</v>
       </c>
       <c r="D69" s="3">
@@ -12195,11 +12281,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>9.875</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70" si="70">C69+0.25</f>
+        <f t="shared" ref="C70" si="73">C69+0.25</f>
         <v>19.75</v>
       </c>
       <c r="D70" s="3">
@@ -12225,11 +12311,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>10</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" ref="C71" si="71">C70+0.25</f>
+        <f t="shared" ref="C71" si="74">C70+0.25</f>
         <v>20</v>
       </c>
       <c r="D71" s="3">
@@ -12253,6 +12339,7 @@
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12292,7 +12379,7 @@
         <v>29</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>490</v>
@@ -12310,7 +12397,7 @@
         <v>29</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>25</v>
@@ -12319,7 +12406,7 @@
         <v>26</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18760,11 +18847,11 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="O3" s="3"/>
       <c r="R3" s="1" t="s">
@@ -18806,10 +18893,10 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -18857,7 +18944,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="K5" s="3">
         <v>2</v>
@@ -18866,7 +18953,7 @@
         <v>1298</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="S5" s="3">
         <v>2360</v>
@@ -18905,7 +18992,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="K6" s="3">
         <v>3</v>
@@ -18914,7 +19001,7 @@
         <v>1303</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="S6" s="3">
         <v>3150</v>
@@ -18956,7 +19043,7 @@
         <v>1314</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="S7" s="3">
         <v>3940</v>
@@ -18995,10 +19082,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="S8" s="3">
         <v>4730</v>
@@ -19040,7 +19127,7 @@
         <v>1308</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="S9" s="3">
         <v>5510</v>
@@ -19547,29 +19634,29 @@
     <row r="1" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="E2" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="4" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D4" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E4" s="3">
         <v>130</v>
@@ -19577,7 +19664,7 @@
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E5" s="3">
         <v>150</v>
@@ -19587,13 +19674,13 @@
     <row r="7" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="8" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I8" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19601,13 +19688,13 @@
         <v>467</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>908</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="10" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19615,7 +19702,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -19626,7 +19713,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>28</v>
@@ -19657,7 +19744,7 @@
     <row r="16" spans="3:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="17" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H17" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>436</v>
@@ -19676,10 +19763,10 @@
     <row r="24" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="25" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H25" s="3" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="26" spans="8:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -19723,13 +19810,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>26</v>
@@ -19751,13 +19838,13 @@
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>25</v>
@@ -19775,16 +19862,16 @@
         <v>29</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>2</v>
@@ -19838,7 +19925,7 @@
         <v>101</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="S2" s="3">
         <v>1</v>
@@ -19935,7 +20022,7 @@
         <v>102</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
@@ -20032,7 +20119,7 @@
         <v>103</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -20129,7 +20216,7 @@
         <v>303</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="S5" s="3">
         <v>3</v>
@@ -20226,7 +20313,7 @@
         <v>104</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -20323,7 +20410,7 @@
         <v>104</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="S7" s="3">
         <v>1</v>
@@ -20420,7 +20507,7 @@
         <v>104</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -20517,7 +20604,7 @@
         <v>104</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -20614,7 +20701,7 @@
         <v>305</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="S10" s="3">
         <v>3</v>
@@ -20711,7 +20798,7 @@
         <v>107</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -20808,7 +20895,7 @@
         <v>107</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
@@ -20905,7 +20992,7 @@
         <v>108</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
@@ -21002,7 +21089,7 @@
         <v>310</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="S14" s="3">
         <v>3</v>
@@ -21099,7 +21186,7 @@
         <v>110</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
@@ -21196,7 +21283,7 @@
         <v>110</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="S16" s="3">
         <v>1</v>
@@ -21293,7 +21380,7 @@
         <v>110</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
@@ -21390,7 +21477,7 @@
         <v>110</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="S18" s="3">
         <v>1</v>
@@ -21487,7 +21574,7 @@
         <v>110</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="S19" s="3">
         <v>1</v>
@@ -21584,7 +21671,7 @@
         <v>312</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="S20" s="3">
         <v>3</v>
@@ -21681,7 +21768,7 @@
         <v>113</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="S21" s="3">
         <v>1</v>
@@ -21778,7 +21865,7 @@
         <v>113</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="S22" s="3">
         <v>1</v>
@@ -21875,7 +21962,7 @@
         <v>315</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="S23" s="3">
         <v>3</v>
@@ -21972,7 +22059,7 @@
         <v>119</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="S24" s="3">
         <v>1</v>
@@ -22069,7 +22156,7 @@
         <v>119</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="S25" s="3">
         <v>1</v>
@@ -22166,7 +22253,7 @@
         <v>322</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="S26" s="3">
         <v>3</v>
@@ -22263,7 +22350,7 @@
         <v>123</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="S27" s="3">
         <v>1</v>
@@ -22360,7 +22447,7 @@
         <v>123</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="S28" s="3">
         <v>1</v>
@@ -22457,7 +22544,7 @@
         <v>325</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="S29" s="3">
         <v>3</v>
@@ -22554,7 +22641,7 @@
         <v>325</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S30" s="3">
         <v>3</v>
@@ -22651,7 +22738,7 @@
         <v>126</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="S31" s="3">
         <v>1</v>
@@ -22748,7 +22835,7 @@
         <v>126</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="S32" s="3">
         <v>1</v>
@@ -22813,7 +22900,7 @@
         <v>127</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="S33" s="3">
         <v>1</v>
@@ -22878,7 +22965,7 @@
         <v>128</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="S34" s="3">
         <v>1</v>
@@ -22943,7 +23030,7 @@
         <v>329</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="S35" s="3">
         <v>3</v>
@@ -23008,7 +23095,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="S36" s="3">
         <v>1</v>
@@ -23073,7 +23160,7 @@
         <v>130</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="S37" s="3">
         <v>1</v>
@@ -23138,7 +23225,7 @@
         <v>332</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="S38" s="3">
         <v>3</v>
@@ -23203,7 +23290,7 @@
         <v>132</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="S39" s="3">
         <v>1</v>
@@ -23268,7 +23355,7 @@
         <v>132</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="S40" s="3">
         <v>1</v>
@@ -23333,7 +23420,7 @@
         <v>334</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="S41" s="3">
         <v>3</v>
@@ -23398,7 +23485,7 @@
         <v>134</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="S42" s="3">
         <v>1</v>
@@ -23463,7 +23550,7 @@
         <v>134</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="S43" s="3">
         <v>1</v>
@@ -23528,7 +23615,7 @@
         <v>135</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="S44" s="3">
         <v>1</v>
@@ -23553,10 +23640,10 @@
         <v>870</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="AE44" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="45" spans="1:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23599,7 +23686,7 @@
         <v>135</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="S45" s="3">
         <v>1</v>
@@ -23624,10 +23711,10 @@
         <v>870</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="AE45" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="46" spans="1:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23670,7 +23757,7 @@
         <v>136</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="S46" s="3">
         <v>1</v>
@@ -23695,10 +23782,10 @@
         <v>900</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="AE46" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" spans="1:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23741,7 +23828,7 @@
         <v>336</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="S47" s="3">
         <v>3</v>
@@ -23766,10 +23853,10 @@
         <v>1125</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="AE47" s="7" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="48" spans="1:31" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23812,7 +23899,7 @@
         <v>138</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="S48" s="3">
         <v>1</v>
@@ -23837,10 +23924,10 @@
         <v>960</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="AE48" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23883,7 +23970,7 @@
         <v>137</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="S49" s="3">
         <v>1</v>
@@ -23908,10 +23995,10 @@
         <v>930</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="AE49" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23954,7 +24041,7 @@
         <v>137</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="S50" s="3">
         <v>1</v>
@@ -23979,10 +24066,10 @@
         <v>930</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="AE50" s="9" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -24026,7 +24113,7 @@
         <v>339</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="S51" s="3">
         <v>3</v>
@@ -24051,10 +24138,10 @@
         <v>1238</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="AE51" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF51" s="3"/>
       <c r="AI51" s="3"/>
@@ -24103,7 +24190,7 @@
         <v>140</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="S52" s="3">
         <v>1</v>
@@ -24128,10 +24215,10 @@
         <v>1020</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AE52" s="7" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="AF52" s="3"/>
       <c r="AI52" s="3"/>
@@ -24180,7 +24267,7 @@
         <v>140</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="S53" s="3">
         <v>1</v>
@@ -24205,10 +24292,10 @@
         <v>1020</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="AE53" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF53" s="3"/>
       <c r="AI53" s="3"/>
@@ -24257,7 +24344,7 @@
         <v>342</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="S54" s="3">
         <v>3</v>
@@ -24282,10 +24369,10 @@
         <v>1500</v>
       </c>
       <c r="AD54" s="8" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="AE54" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF54" s="3"/>
       <c r="AI54" s="3"/>
@@ -24334,7 +24421,7 @@
         <v>142</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="S55" s="3">
         <v>1</v>
@@ -24359,10 +24446,10 @@
         <v>1200</v>
       </c>
       <c r="AD55" s="8" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="AE55" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF55" s="3"/>
       <c r="AI55" s="3"/>
@@ -24411,7 +24498,7 @@
         <v>142</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="S56" s="3">
         <v>1</v>
@@ -24436,10 +24523,10 @@
         <v>1200</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="AE56" s="7" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="AF56" s="3"/>
       <c r="AI56" s="3"/>
@@ -24488,7 +24575,7 @@
         <v>344</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="S57" s="3">
         <v>3</v>
@@ -24513,10 +24600,10 @@
         <v>1575</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="AE57" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF57" s="3"/>
       <c r="AI57" s="3"/>
@@ -24565,7 +24652,7 @@
         <v>145</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="S58" s="3">
         <v>1</v>
@@ -24590,10 +24677,10 @@
         <v>1290</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="AE58" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF58" s="3"/>
       <c r="AI58" s="3"/>
@@ -24642,7 +24729,7 @@
         <v>144</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="S59" s="3">
         <v>1</v>
@@ -24667,10 +24754,10 @@
         <v>1260</v>
       </c>
       <c r="AD59" s="8" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="AE59" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF59" s="3"/>
       <c r="AI59" s="3"/>
@@ -24719,7 +24806,7 @@
         <v>144</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="S60" s="3">
         <v>1</v>
@@ -24744,10 +24831,10 @@
         <v>1260</v>
       </c>
       <c r="AD60" s="8" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AE60" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF60" s="3"/>
       <c r="AI60" s="3"/>
@@ -24796,7 +24883,7 @@
         <v>346</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="S61" s="3">
         <v>3</v>
@@ -24821,10 +24908,10 @@
         <v>1650</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="AE61" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="AF61" s="3"/>
       <c r="AI61" s="3"/>
@@ -24873,7 +24960,7 @@
         <v>146</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="S62" s="3">
         <v>1</v>
@@ -24898,10 +24985,10 @@
         <v>1320</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="AE62" s="7" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="AF62" s="3"/>
       <c r="AI62" s="3"/>
@@ -24950,7 +25037,7 @@
         <v>147</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="S63" s="3">
         <v>1</v>
@@ -24975,10 +25062,10 @@
         <v>1350</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="AE63" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF63" s="3"/>
       <c r="AI63" s="3"/>
@@ -25027,7 +25114,7 @@
         <v>349</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="S64" s="3">
         <v>3</v>
@@ -25052,10 +25139,10 @@
         <v>1763</v>
       </c>
       <c r="AD64" s="8" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="AE64" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF64" s="3"/>
       <c r="AI64" s="3"/>
@@ -25104,7 +25191,7 @@
         <v>150</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="S65" s="3">
         <v>1</v>
@@ -25129,10 +25216,10 @@
         <v>1440</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="AE65" s="7" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="AF65" s="3"/>
       <c r="AI65" s="3"/>
@@ -25181,7 +25268,7 @@
         <v>151</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="S66" s="3">
         <v>1</v>
@@ -25206,10 +25293,10 @@
         <v>1590</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="AE66" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF66" s="3"/>
       <c r="AI66" s="3"/>
@@ -25258,7 +25345,7 @@
         <v>352</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="S67" s="3">
         <v>3</v>
@@ -25283,10 +25370,10 @@
         <v>2025</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="AE67" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF67" s="3"/>
       <c r="AI67" s="3"/>
@@ -25335,7 +25422,7 @@
         <v>354</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="S68" s="3">
         <v>3</v>
@@ -25360,10 +25447,10 @@
         <v>2100</v>
       </c>
       <c r="AD68" s="2" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="AE68" s="7" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="AF68" s="3"/>
       <c r="AI68" s="3"/>
@@ -25412,7 +25499,7 @@
         <v>152</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="S69" s="3">
         <v>1</v>
@@ -25437,10 +25524,10 @@
         <v>1620</v>
       </c>
       <c r="AD69" s="2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="AE69" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF69" s="3"/>
       <c r="AI69" s="3"/>
@@ -25489,7 +25576,7 @@
         <v>150</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="S70" s="3">
         <v>1</v>
@@ -25514,10 +25601,10 @@
         <v>1440</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="AE70" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF70" s="3"/>
       <c r="AI70" s="3"/>
@@ -25566,7 +25653,7 @@
         <v>150</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="S71" s="3">
         <v>1</v>
@@ -25591,10 +25678,10 @@
         <v>1440</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="AE71" s="7" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="AF71" s="3"/>
       <c r="AI71" s="3"/>
@@ -25608,7 +25695,7 @@
         <v>150</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="S72" s="3">
         <v>1</v>
@@ -25633,10 +25720,10 @@
         <v>1440</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AE72" s="7" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="AF72" s="3"/>
       <c r="AI72" s="3"/>
@@ -25650,7 +25737,7 @@
         <v>155</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="S73" s="3">
         <v>1</v>
@@ -25675,10 +25762,10 @@
         <v>1710</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="AE73" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF73" s="3"/>
       <c r="AI73" s="3"/>
@@ -25688,13 +25775,13 @@
     </row>
     <row r="74" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="6" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>2</v>
@@ -25713,7 +25800,7 @@
         <v>356</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="S74" s="3">
         <v>3</v>
@@ -25738,10 +25825,10 @@
         <v>2175</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="AE74" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF74" s="3"/>
       <c r="AI74" s="3"/>
@@ -25784,7 +25871,7 @@
         <v>358</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="S75" s="3">
         <v>3</v>
@@ -25809,10 +25896,10 @@
         <v>2250</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="AE75" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF75" s="3"/>
       <c r="AI75" s="3"/>
@@ -25855,7 +25942,7 @@
         <v>360</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="S76" s="3">
         <v>3</v>
@@ -25880,10 +25967,10 @@
         <v>2325</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="AE76" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AF76" s="3"/>
       <c r="AI76" s="3"/>
@@ -25926,10 +26013,10 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="AD77" s="2" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="AE77" s="7" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -25967,10 +26054,10 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="AD78" s="2" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="AE78" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -26004,13 +26091,13 @@
         <v>113</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>25</v>
@@ -26028,10 +26115,10 @@
         <v>29</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="AE79" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -26069,7 +26156,7 @@
         <v>145</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="S80" s="3">
         <v>1</v>
@@ -26094,10 +26181,10 @@
         <v>1290</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="AE80" s="7" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26135,7 +26222,7 @@
         <v>145</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="S81" s="3">
         <v>1</v>
@@ -26160,10 +26247,10 @@
         <v>1290</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="AE81" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26201,7 +26288,7 @@
         <v>145</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="S82" s="3">
         <v>1</v>
@@ -26226,10 +26313,10 @@
         <v>1290</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="AE82" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26267,7 +26354,7 @@
         <v>146</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="S83" s="3">
         <v>1</v>
@@ -26293,10 +26380,10 @@
         <v>1320</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="AE83" s="7" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26334,7 +26421,7 @@
         <v>146</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="S84" s="3">
         <v>1</v>
@@ -26360,10 +26447,10 @@
         <v>1320</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="AE84" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26401,7 +26488,7 @@
         <v>146</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="S85" s="3">
         <v>1</v>
@@ -26427,10 +26514,10 @@
         <v>1320</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="AE85" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26468,7 +26555,7 @@
         <v>147</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="S86" s="3">
         <v>1</v>
@@ -26494,10 +26581,10 @@
         <v>1350</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="AE86" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26535,7 +26622,7 @@
         <v>147</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="S87" s="3">
         <v>1</v>
@@ -26561,10 +26648,10 @@
         <v>1350</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="AE87" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26602,7 +26689,7 @@
         <v>147</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="S88" s="3">
         <v>1</v>
@@ -26628,10 +26715,10 @@
         <v>1350</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="AE88" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26669,7 +26756,7 @@
         <v>348</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="S89" s="3">
         <v>3</v>
@@ -26695,10 +26782,10 @@
         <v>1725</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="AE89" s="7" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26736,7 +26823,7 @@
         <v>148</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="S90" s="3">
         <v>1</v>
@@ -26762,10 +26849,10 @@
         <v>1380</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="AE90" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26803,7 +26890,7 @@
         <v>148</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="S91" s="3">
         <v>1</v>
@@ -26829,10 +26916,10 @@
         <v>1380</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="AE91" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26870,7 +26957,7 @@
         <v>149</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="S92" s="3">
         <v>1</v>
@@ -26896,10 +26983,10 @@
         <v>1410</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="AE92" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -26937,7 +27024,7 @@
         <v>149</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="S93" s="3">
         <v>1</v>
@@ -26963,10 +27050,10 @@
         <v>1410</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="AE93" s="7" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27004,7 +27091,7 @@
         <v>149</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="S94" s="3">
         <v>1</v>
@@ -27030,10 +27117,10 @@
         <v>1410</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="AE94" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27071,7 +27158,7 @@
         <v>150</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="S95" s="3">
         <v>1</v>
@@ -27097,10 +27184,10 @@
         <v>1440</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="AE95" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27138,7 +27225,7 @@
         <v>150</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="S96" s="3">
         <v>1</v>
@@ -27164,10 +27251,10 @@
         <v>1440</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="AE96" s="7" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27205,7 +27292,7 @@
         <v>150</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="S97" s="3">
         <v>1</v>
@@ -27231,10 +27318,10 @@
         <v>1440</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="AE97" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27272,7 +27359,7 @@
         <v>151</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="S98" s="3">
         <v>1</v>
@@ -27298,10 +27385,10 @@
         <v>1590</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="AE98" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27339,7 +27426,7 @@
         <v>351</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="S99" s="3">
         <v>3</v>
@@ -27365,10 +27452,10 @@
         <v>1988</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="AE99" s="7" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27406,7 +27493,7 @@
         <v>151</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="S100" s="3">
         <v>1</v>
@@ -27432,10 +27519,10 @@
         <v>1590</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="AE100" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27473,7 +27560,7 @@
         <v>152</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="S101" s="3">
         <v>1</v>
@@ -27499,10 +27586,10 @@
         <v>1620</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="AE101" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27540,7 +27627,7 @@
         <v>152</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="S102" s="3">
         <v>1</v>
@@ -27566,10 +27653,10 @@
         <v>1620</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="AE102" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27607,7 +27694,7 @@
         <v>152</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="S103" s="3">
         <v>1</v>
@@ -27633,10 +27720,10 @@
         <v>1620</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="AE103" s="7" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27674,7 +27761,7 @@
         <v>153</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="S104" s="3">
         <v>1</v>
@@ -27700,10 +27787,10 @@
         <v>1650</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="AE104" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27741,7 +27828,7 @@
         <v>153</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="S105" s="3">
         <v>1</v>
@@ -27767,10 +27854,10 @@
         <v>1650</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="AE105" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27808,7 +27895,7 @@
         <v>153</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="S106" s="3">
         <v>1</v>
@@ -27834,10 +27921,10 @@
         <v>1650</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="AE106" s="7" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27875,7 +27962,7 @@
         <v>154</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="S107" s="3">
         <v>1</v>
@@ -27901,10 +27988,10 @@
         <v>1680</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="AE107" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -27942,7 +28029,7 @@
         <v>154</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S108" s="3">
         <v>1</v>
@@ -27968,10 +28055,10 @@
         <v>1680</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="AE108" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28009,7 +28096,7 @@
         <v>354</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="S109" s="3">
         <v>3</v>
@@ -28035,10 +28122,10 @@
         <v>2100</v>
       </c>
       <c r="AD109" s="2" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="AE109" s="7" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28076,7 +28163,7 @@
         <v>155</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="S110" s="3">
         <v>1</v>
@@ -28102,10 +28189,10 @@
         <v>1710</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="AE110" s="7" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28143,7 +28230,7 @@
         <v>155</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="S111" s="3">
         <v>1</v>
@@ -28169,10 +28256,10 @@
         <v>1710</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="AE111" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28210,7 +28297,7 @@
         <v>155</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="S112" s="3">
         <v>1</v>
@@ -28236,10 +28323,10 @@
         <v>1710</v>
       </c>
       <c r="AD112" s="10" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="AE112" s="11" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28277,7 +28364,7 @@
         <v>155</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="S113" s="3">
         <v>1</v>
@@ -28302,10 +28389,10 @@
         <v>1710</v>
       </c>
       <c r="AD113" s="10" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="AE113" s="11" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28343,7 +28430,7 @@
         <v>156</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="S114" s="3">
         <v>1</v>
@@ -28369,10 +28456,10 @@
         <v>1740</v>
       </c>
       <c r="AD114" s="10" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="AE114" s="11" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28410,7 +28497,7 @@
         <v>156</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="S115" s="3">
         <v>1</v>
@@ -28436,10 +28523,10 @@
         <v>1740</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="AE115" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28477,7 +28564,7 @@
         <v>156</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="S116" s="3">
         <v>1</v>
@@ -28503,10 +28590,10 @@
         <v>1740</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="AE116" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28544,7 +28631,7 @@
         <v>157</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="S117" s="3">
         <v>1</v>
@@ -28570,10 +28657,10 @@
         <v>1770</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="AE117" s="7" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28611,7 +28698,7 @@
         <v>157</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="S118" s="3">
         <v>1</v>
@@ -28637,10 +28724,10 @@
         <v>1770</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="AE118" s="7" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -28678,7 +28765,7 @@
         <v>357</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="S119" s="3">
         <v>3</v>
@@ -28739,7 +28826,7 @@
         <v>158</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="S120" s="3">
         <v>1</v>
@@ -28800,7 +28887,7 @@
         <v>158</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="S121" s="3">
         <v>1</v>
@@ -28861,7 +28948,7 @@
         <v>158</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="S122" s="3">
         <v>1</v>
@@ -28922,7 +29009,7 @@
         <v>159</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="S123" s="3">
         <v>1</v>
@@ -28983,7 +29070,7 @@
         <v>159</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="S124" s="3">
         <v>1</v>
@@ -29044,7 +29131,7 @@
         <v>159</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="S125" s="3">
         <v>1</v>
@@ -29105,7 +29192,7 @@
         <v>160</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="S126" s="3">
         <v>1</v>
@@ -29166,7 +29253,7 @@
         <v>160</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="S127" s="3">
         <v>1</v>
@@ -29227,7 +29314,7 @@
         <v>160</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="S128" s="3">
         <v>1</v>
@@ -29287,7 +29374,7 @@
         <v>360</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="S129" s="3">
         <v>3</v>
@@ -30025,36 +30112,36 @@
         <v>72001011</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="H2" s="2">
         <v>72002011</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="N2" s="2">
         <v>72003011</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="S2" s="2">
         <v>72004011</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I3" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -30062,13 +30149,13 @@
         <v>1325</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="5" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -30076,10 +30163,10 @@
         <v>94</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>81</v>
@@ -30087,7 +30174,7 @@
     </row>
     <row r="6" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="3" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>1336</v>
@@ -30096,7 +30183,7 @@
         <v>159</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="7" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -30108,51 +30195,51 @@
         <v>72001012</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H11" s="2">
         <v>72002012</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N11" s="2">
         <v>72003012</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="S11" s="2">
         <v>72004012</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="12" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="5" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="13" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>159</v>
@@ -30160,30 +30247,30 @@
     </row>
     <row r="14" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="3" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="15" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="16" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="3" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="P16" s="4"/>
     </row>
@@ -30200,126 +30287,126 @@
         <v>72001013</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H21" s="2">
         <v>72002013</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="N21" s="2">
         <v>72003013</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="S21" s="2">
         <v>72004013</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="3" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="24" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>1614</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>1617</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="25" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>1621</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="26" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>1620</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>1624</v>
-      </c>
       <c r="P26" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="27" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="28" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="3" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="29" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -42841,7 +42928,7 @@
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="70" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>841</v>
@@ -42869,7 +42956,7 @@
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="70" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>845</v>
@@ -42894,7 +42981,7 @@
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="70" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>841</v>
@@ -42903,7 +42990,7 @@
         <v>850</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>433</v>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB773E8-A74C-4F82-9BDD-EFA0C4C8A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDC15B-5202-4B14-A8C0-CF4CD6363AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="240" windowWidth="27045" windowHeight="14625" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="240" windowWidth="27045" windowHeight="14625" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -7244,8 +7244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9981,8 +9981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N9" sqref="N1:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDC15B-5202-4B14-A8C0-CF4CD6363AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98837186-589D-4AEF-B909-23FF214D3DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="240" windowWidth="27045" windowHeight="14625" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -7244,7 +7244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -19621,7 +19621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -19796,8 +19796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView windowWidth="28080" windowHeight="14085" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -5127,10 +5127,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -5171,13 +5171,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5284,35 +5277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5326,18 +5291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5358,6 +5324,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5365,16 +5384,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5388,19 +5406,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5411,20 +5420,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5508,36 +5507,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5550,7 +5519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5562,7 +5537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5580,25 +5567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5616,13 +5615,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5634,13 +5669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5652,43 +5687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5807,6 +5806,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -5831,40 +5854,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5873,134 +5872,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6092,7 +6091,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6108,13 +6107,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6126,81 +6128,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7140,7 +7139,7 @@
   <sheetPr/>
   <dimension ref="B1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -20117,7 +20116,7 @@
   <sheetPr/>
   <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -30941,7 +30940,7 @@
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -43296,8 +43295,8 @@
   <sheetPr/>
   <dimension ref="B1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2522B-9C33-4731-9676-51B370F0674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50876BC8-CEAD-4867-9543-65A6D67E5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,7 @@
   <externalReferences>
     <externalReference r:id="rId17"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -60,6 +50,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -68,6 +59,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>因为宝石是玩家DIY所以匹配的10的属性系数3的放大系数,放大系数是指单独堆叠一个属性可以达到的单个属性值系数</t>
@@ -88,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="1642">
   <si>
     <t>人物属性</t>
   </si>
@@ -599,6 +592,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>对自身释放一个护盾,护盾可以抵抗自身最大生命100%的伤害,持续</t>
@@ -608,6 +602,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30秒</t>
@@ -646,6 +641,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>向前方发射一颗移动缓慢的球体,球体每秒对附近玩家造成</t>
@@ -655,6 +651,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>120%</t>
@@ -664,6 +661,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害,持续6秒,</t>
@@ -673,6 +671,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>并降低目标移动速度50%</t>
@@ -843,6 +842,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>对目标区域恢复相当于自身攻击100%的生命值</t>
@@ -852,6 +852,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,并对范围内己方玩家攻击提升25%,持续10秒</t>
@@ -1724,6 +1725,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大地</t>
@@ -1733,6 +1735,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1744,6 +1747,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生命</t>
@@ -1753,6 +1757,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1764,6 +1769,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>钢铁</t>
@@ -1773,6 +1779,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰带</t>
@@ -1880,6 +1887,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>树王</t>
@@ -1889,6 +1897,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>戒指</t>
@@ -2788,6 +2797,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -2797,6 +2807,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,6</t>
@@ -5174,6 +5185,10 @@
   </si>
   <si>
     <t>提升攻击穿透2%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200 = 0.8</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -5182,7 +5197,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -5196,6 +5211,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5203,6 +5219,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5210,6 +5227,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5217,6 +5235,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5224,12 +5243,14 @@
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5237,6 +5258,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5244,6 +5266,7 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5251,12 +5274,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5264,12 +5289,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5277,17 +5304,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5318,6 +5348,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5325,12 +5356,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5338,29 +5371,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5524,7 +5562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5566,7 +5604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5720,16 +5758,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32719,7 +32758,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="71" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -32783,7 +32822,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -32838,7 +32877,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="69" t="s">
+      <c r="AX4" s="71" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -32867,7 +32906,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -32919,7 +32958,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="69"/>
+      <c r="AX5" s="71"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -32935,7 +32974,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="71" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -32965,7 +33004,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="69"/>
+      <c r="AX6" s="71"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -32992,7 +33031,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -33038,7 +33077,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="69" t="s">
+      <c r="AX7" s="71" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -33067,7 +33106,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -33107,7 +33146,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="69"/>
+      <c r="AX8" s="71"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -33123,7 +33162,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="71" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -33147,7 +33186,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="69"/>
+      <c r="AX9" s="71"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -33174,7 +33213,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -33218,7 +33257,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="69" t="s">
+      <c r="AX10" s="71" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -33247,7 +33286,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -33299,7 +33338,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="69"/>
+      <c r="AX11" s="71"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -33316,7 +33355,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="71" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -33349,7 +33388,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="69"/>
+      <c r="AX12" s="71"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -33369,7 +33408,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -33397,7 +33436,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="71" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -33430,7 +33469,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -33461,7 +33500,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="69"/>
+      <c r="AX14" s="71"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -33486,7 +33525,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="71" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -33516,7 +33555,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="69"/>
+      <c r="AX15" s="71"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -33541,7 +33580,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -33569,7 +33608,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="69" t="s">
+      <c r="AX16" s="71" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -33596,7 +33635,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -33619,7 +33658,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="69"/>
+      <c r="AX17" s="71"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -33644,7 +33683,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="71" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -33680,7 +33719,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="69"/>
+      <c r="AX18" s="71"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -33702,7 +33741,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -33736,7 +33775,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="69" t="s">
+      <c r="AX19" s="71" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -33753,7 +33792,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -33784,7 +33823,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="69"/>
+      <c r="AX20" s="71"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -33825,7 +33864,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="69"/>
+      <c r="AX21" s="71"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -39782,8 +39821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AR110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -42693,7 +42732,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="28">
         <v>15510012</v>
       </c>
@@ -42714,7 +42753,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="28">
         <v>15510121</v>
       </c>
@@ -42729,7 +42768,7 @@
         <v>效果:攻击有一定概率提升自身的20%攻击速度,持续6秒</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="28">
         <v>15510122</v>
       </c>
@@ -42744,7 +42783,7 @@
         <v>效果:使用龙卷雨击技能伤害提升50%</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="28">
         <v>15511011</v>
       </c>
@@ -42759,7 +42798,7 @@
         <v>效果:受到伤害有概率使攻击者移动速度降低30%,持续5秒</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="28">
         <v>15511012</v>
       </c>
@@ -42774,7 +42813,7 @@
         <v>效果:提升自身攻击5%</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="28">
         <v>15511013</v>
       </c>
@@ -42789,14 +42828,14 @@
         <v>效果:提升闪避概率+5%</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="89" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="88" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="89" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C89" s="71"/>
-      <c r="D89" s="70" t="s">
+      <c r="C89" s="70"/>
+      <c r="D89" s="69" t="s">
         <v>1631</v>
       </c>
       <c r="E89" s="3" t="str">
@@ -42806,13 +42845,16 @@
       <c r="F89" s="12">
         <v>200903</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="L89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C90" s="71"/>
-      <c r="D90" s="70" t="s">
+      <c r="C90" s="70"/>
+      <c r="D90" s="69" t="s">
         <v>1632</v>
       </c>
       <c r="E90" s="3" t="str">
@@ -42822,13 +42864,17 @@
       <c r="F90" s="12">
         <v>201003</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="L90">
+        <f>300/L89</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="70" t="s">
+      <c r="C91" s="70"/>
+      <c r="D91" s="69" t="s">
         <v>1637</v>
       </c>
       <c r="E91" s="3" t="str">
@@ -42839,12 +42885,12 @@
         <v>200303</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="70" t="s">
+      <c r="C92" s="70"/>
+      <c r="D92" s="69" t="s">
         <v>1634</v>
       </c>
       <c r="E92" s="3" t="str">
@@ -42855,19 +42901,19 @@
         <v>200203</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="C93" s="71"/>
+      <c r="C93" s="70"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="C94" s="71"/>
-      <c r="D94" s="70" t="s">
+      <c r="C94" s="70"/>
+      <c r="D94" s="69" t="s">
         <v>1640</v>
       </c>
       <c r="E94" s="3" t="str">
@@ -42877,13 +42923,20 @@
       <c r="F94" s="12">
         <v>202203</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+    </row>
+    <row r="95" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="70" t="s">
+      <c r="C95" s="70"/>
+      <c r="D95" s="69" t="s">
         <v>1633</v>
       </c>
       <c r="E95" s="3" t="str">
@@ -42893,13 +42946,28 @@
       <c r="F95" s="12">
         <v>200103</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="H95" s="12"/>
+      <c r="I95" s="73">
+        <f>1-J95</f>
+        <v>-4.9333333333333229E-2</v>
+      </c>
+      <c r="J95" s="73">
+        <f>1574/1500</f>
+        <v>1.0493333333333332</v>
+      </c>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+    </row>
+    <row r="96" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="70" t="s">
+      <c r="C96" s="70"/>
+      <c r="D96" s="69" t="s">
         <v>1635</v>
       </c>
       <c r="E96" s="3" t="str">
@@ -42909,13 +42977,25 @@
       <c r="F96" s="12">
         <v>200403</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="H96" s="12"/>
+      <c r="I96" s="12">
+        <v>1400</v>
+      </c>
+      <c r="J96" s="12">
+        <f>I96-1200</f>
+        <v>200</v>
+      </c>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+    </row>
+    <row r="97" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="70" t="s">
+      <c r="C97" s="70"/>
+      <c r="D97" s="69" t="s">
         <v>1636</v>
       </c>
       <c r="E97" s="3" t="str">
@@ -42925,13 +43005,23 @@
       <c r="F97" s="12">
         <v>202303</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12">
+        <f>J96/600</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+    </row>
+    <row r="98" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="70" t="s">
+      <c r="C98" s="70"/>
+      <c r="D98" s="69" t="s">
         <v>1638</v>
       </c>
       <c r="E98" s="3" t="str">
@@ -42941,13 +43031,23 @@
       <c r="F98" s="12">
         <v>200503</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12">
+        <f>0.8+J97</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+    </row>
+    <row r="99" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72" t="s">
+      <c r="C99" s="70"/>
+      <c r="D99" s="69" t="s">
         <v>1639</v>
       </c>
       <c r="E99" s="3" t="str">
@@ -42957,23 +43057,60 @@
       <c r="F99" s="12">
         <v>100402</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="D102" s="70"/>
-    </row>
-    <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="D104" s="70"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="73" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+    </row>
+    <row r="100" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="J100" s="72">
+        <f>1200/1500</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="102" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="D102" s="69"/>
+      <c r="I102" s="12">
+        <v>1100</v>
+      </c>
+      <c r="J102" s="12">
+        <f>I102/1500</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="I103" s="12"/>
+      <c r="J103" s="12">
+        <f>J102/500</f>
+        <v>1.4666666666666665E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="D104" s="69"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="106" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="107" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="108" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12">
+        <f>0.8+J103</f>
+        <v>0.80146666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="106" spans="2:14" ht="20.100000000000001" customHeight="1">
+      <c r="J106" s="72">
+        <f>1200/1500</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="108" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="109" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="110" spans="2:14" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50876BC8-CEAD-4867-9543-65A6D67E5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5631A83F-596A-4EE9-9459-95F90427C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="1679">
   <si>
     <t>人物属性</t>
   </si>
@@ -5190,6 +5190,147 @@
   <si>
     <t>1200 = 0.8</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体魔法</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋勇之击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体恢复</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体减速</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术控制</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿治愈</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰之击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低目标的防御10%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标生命低于35%伤害提升20%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋勇</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时概率降低目标移动速度10%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓速</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫁祸</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击时5%概率触发,对目标区域造成200%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击时5%概率触发,立即对前方区域造成200%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹦击</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击时有10%概率触发,强迫目标立即攻击自身5秒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低自身攻击造成的15%的仇恨</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击时5%概率触发,立即对当前目标造成250%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击造成120%的范围伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击有概率对前方区域造成300%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复己方范围内所有友方玩家10%的生命值</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶嘲讽</t>
+  </si>
+  <si>
+    <t>幽光之击</t>
+  </si>
+  <si>
+    <t>魔龙之吼</t>
+  </si>
+  <si>
+    <t>高阶奋勇</t>
+  </si>
+  <si>
+    <t>高阶嫁祸</t>
+  </si>
+  <si>
+    <t>高阶破甲</t>
+  </si>
+  <si>
+    <t>高阶崩裂</t>
   </si>
 </sst>
 </file>
@@ -5764,11 +5905,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7282,8 +7423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="I76" workbookViewId="0">
+      <selection activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9502,10 +9643,10 @@
         <v>1403</v>
       </c>
       <c r="N87" s="3">
-        <v>80002012</v>
+        <v>80002023</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>1416</v>
+        <v>1672</v>
       </c>
       <c r="P87" s="3">
         <v>80002009</v>
@@ -9521,8 +9662,8 @@
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="5" t="str">
-        <f>D89&amp;";"&amp;F89&amp;";"&amp;H89&amp;";"&amp;J89&amp;";"&amp;L89&amp;";"&amp;N89&amp;";"&amp;P89&amp;";"&amp;R89</f>
-        <v>80002002;80002001;80002006;80002011;80002012;80002018;80002019;80002005</v>
+        <f>D87&amp;";"&amp;F87&amp;";"&amp;H87&amp;";"&amp;J87&amp;";"&amp;L87&amp;";"&amp;N87&amp;";"&amp;P87&amp;";"&amp;R87</f>
+        <v>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</v>
       </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -9536,10 +9677,10 @@
         <v>1417</v>
       </c>
       <c r="D88" s="3">
-        <v>80002003</v>
+        <v>80004002</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1404</v>
+        <v>1673</v>
       </c>
       <c r="F88" s="3">
         <v>80002002</v>
@@ -9548,79 +9689,79 @@
         <v>1401</v>
       </c>
       <c r="H88" s="3">
+        <v>80002002</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J88" s="3">
         <v>80002001</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="J88" s="3">
+      <c r="L88" s="3">
         <v>80002015</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="L88" s="3">
+      <c r="N88" s="3">
         <v>80002014</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="O88" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="N88" s="3">
-        <v>80002010</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>1403</v>
-      </c>
       <c r="P88" s="3">
-        <v>80002006</v>
+        <v>80002024</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>1394</v>
+        <v>1675</v>
       </c>
       <c r="R88" s="3">
-        <v>80002004</v>
+        <v>80002027</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>1406</v>
+        <v>1676</v>
       </c>
       <c r="U88" s="5" t="str">
         <f>D88&amp;";"&amp;F88&amp;";"&amp;H88&amp;";"&amp;J88&amp;";"&amp;L88&amp;";"&amp;N88&amp;";"&amp;P88&amp;";"&amp;R88</f>
-        <v>80002003;80002002;80002001;80002015;80002014;80002010;80002006;80002004</v>
+        <v>80004002;80002002;80002002;80002001;80002015;80002014;80002024;80002027</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="3">
         <v>2000003</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
+        <v>80004003</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F89" s="3">
         <v>80002002</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>80002001</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>80002006</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>1394</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>80002011</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="L89" s="3">
-        <v>80002012</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>1416</v>
       </c>
       <c r="N89" s="3">
         <v>80002018</v>
@@ -9629,20 +9770,21 @@
         <v>1395</v>
       </c>
       <c r="P89" s="3">
-        <v>80002019</v>
+        <v>80002028</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>1413</v>
+        <v>1678</v>
       </c>
       <c r="R89" s="3">
-        <v>80002005</v>
+        <v>80002022</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>1419</v>
-      </c>
+        <v>1677</v>
+      </c>
+      <c r="T89" s="3"/>
       <c r="U89" s="5" t="str">
         <f>D89&amp;";"&amp;F89&amp;";"&amp;H89&amp;";"&amp;J89&amp;";"&amp;L89&amp;";"&amp;N89&amp;";"&amp;P89&amp;";"&amp;R89</f>
-        <v>80002002;80002001;80002006;80002011;80002012;80002018;80002019;80002005</v>
+        <v>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20.100000000000001" customHeight="1"/>
@@ -10019,14 +10161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N9" sqref="N1:T9"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="7" width="9" style="12"/>
-    <col min="16" max="16" width="28.625" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
@@ -10724,7 +10867,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10754,7 +10897,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10784,7 +10927,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10814,7 +10957,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10843,8 +10986,12 @@
         <v>217.5</v>
       </c>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10873,8 +11020,14 @@
         <v>225</v>
       </c>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O21" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10902,9 +11055,19 @@
         <f>$C22*总表!G$4</f>
         <v>232.5</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N22" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10932,9 +11095,19 @@
         <f>$C23*总表!G$4</f>
         <v>240</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N23" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10962,9 +11135,19 @@
         <f>$C24*总表!G$4</f>
         <v>247.5</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N24" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10992,9 +11175,19 @@
         <f>$C25*总表!G$4</f>
         <v>255</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N25" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -11022,9 +11215,19 @@
         <f>$C26*总表!G$4</f>
         <v>262.5</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N26" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -11052,9 +11255,17 @@
         <f>$C27*总表!G$4</f>
         <v>270</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N27" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -11082,9 +11293,14 @@
         <f>$C28*总表!G$4</f>
         <v>277.5</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N28" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -11112,9 +11328,14 @@
         <f>$C29*总表!G$4</f>
         <v>285</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="N29" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -11144,7 +11365,7 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -11172,9 +11393,13 @@
         <f>$C31*总表!G$4</f>
         <v>300</v>
       </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -11202,9 +11427,15 @@
         <f>$C32*总表!G$4</f>
         <v>307.5</v>
       </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O32" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -11232,9 +11463,17 @@
         <f>$C33*总表!G$4</f>
         <v>315</v>
       </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O33" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -11262,9 +11501,17 @@
         <f>$C34*总表!G$4</f>
         <v>322.5</v>
       </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O34" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -11292,9 +11539,19 @@
         <f>$C35*总表!G$4</f>
         <v>330</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -11322,9 +11579,13 @@
         <f>$C36*总表!G$4</f>
         <v>337.5</v>
       </c>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -11354,7 +11615,7 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -11384,7 +11645,7 @@
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -11414,7 +11675,7 @@
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -11444,7 +11705,7 @@
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -11474,7 +11735,7 @@
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -11504,7 +11765,7 @@
       </c>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -11534,7 +11795,7 @@
       </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -11564,7 +11825,7 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -11594,7 +11855,7 @@
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -11624,7 +11885,7 @@
       </c>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -11654,7 +11915,7 @@
       </c>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -32758,7 +33019,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="73" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -32822,7 +33083,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -32877,7 +33138,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="71" t="s">
+      <c r="AX4" s="73" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -32906,7 +33167,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -32958,7 +33219,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="71"/>
+      <c r="AX5" s="73"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -32974,7 +33235,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="73" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -33004,7 +33265,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="71"/>
+      <c r="AX6" s="73"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -33031,7 +33292,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -33077,7 +33338,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="71" t="s">
+      <c r="AX7" s="73" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -33106,7 +33367,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="71"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -33146,7 +33407,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="71"/>
+      <c r="AX8" s="73"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -33162,7 +33423,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="73" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -33186,7 +33447,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="71"/>
+      <c r="AX9" s="73"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -33213,7 +33474,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="71"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -33257,7 +33518,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="71" t="s">
+      <c r="AX10" s="73" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -33286,7 +33547,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="71"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -33338,7 +33599,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="71"/>
+      <c r="AX11" s="73"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -33355,7 +33616,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="73" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -33388,7 +33649,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="71"/>
+      <c r="AX12" s="73"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -33408,7 +33669,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -33436,7 +33697,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="71" t="s">
+      <c r="AX13" s="73" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -33469,7 +33730,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="71"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -33500,7 +33761,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="71"/>
+      <c r="AX14" s="73"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -33525,7 +33786,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="73" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -33555,7 +33816,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="71"/>
+      <c r="AX15" s="73"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -33580,7 +33841,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="71"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -33608,7 +33869,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="71" t="s">
+      <c r="AX16" s="73" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -33635,7 +33896,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="71"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -33658,7 +33919,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="71"/>
+      <c r="AX17" s="73"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -33683,7 +33944,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="73" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -33719,7 +33980,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="71"/>
+      <c r="AX18" s="73"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -33741,7 +34002,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -33775,7 +34036,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="71" t="s">
+      <c r="AX19" s="73" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -33792,7 +34053,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -33823,7 +34084,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="71"/>
+      <c r="AX20" s="73"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -33864,7 +34125,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="71"/>
+      <c r="AX21" s="73"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -39821,8 +40082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AR110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -42947,11 +43208,11 @@
         <v>200103</v>
       </c>
       <c r="H95" s="12"/>
-      <c r="I95" s="73">
+      <c r="I95" s="72">
         <f>1-J95</f>
         <v>-4.9333333333333229E-2</v>
       </c>
-      <c r="J95" s="73">
+      <c r="J95" s="72">
         <f>1574/1500</f>
         <v>1.0493333333333332</v>
       </c>
@@ -43061,14 +43322,14 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="73" t="s">
+      <c r="L99" s="72" t="s">
         <v>1641</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
     <row r="100" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="J100" s="72">
+      <c r="J100" s="71">
         <f>1200/1500</f>
         <v>0.8</v>
       </c>
@@ -43102,7 +43363,7 @@
     </row>
     <row r="105" spans="2:14" ht="20.100000000000001" customHeight="1"/>
     <row r="106" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="J106" s="72">
+      <c r="J106" s="71">
         <f>1200/1500</f>
         <v>0.8</v>
       </c>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5631A83F-596A-4EE9-9459-95F90427C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2048C6-3815-44C8-8700-F82AD2FC3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7423,8 +7423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I76" workbookViewId="0">
-      <selection activeCell="U89" sqref="U89"/>
+    <sheetView tabSelected="1" topLeftCell="I77" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9808,6 +9808,21 @@
       <c r="G92" s="3" t="s">
         <v>1420</v>
       </c>
+      <c r="R92" s="3">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <f>1-R92</f>
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <f>S92/2</f>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f>S92*2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="3">
@@ -9828,6 +9843,21 @@
       <c r="G93" s="3" t="s">
         <v>1421</v>
       </c>
+      <c r="R93" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S93">
+        <f t="shared" ref="S93:S101" si="3">1-R93</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="T93">
+        <f>S93/4</f>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="U93">
+        <f>S93/2.5</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
     </row>
     <row r="94" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="3">
@@ -9848,6 +9878,21 @@
       <c r="G94" s="3" t="s">
         <v>1422</v>
       </c>
+      <c r="R94" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="T94">
+        <f t="shared" ref="T94:T101" si="4">S94/4</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" ref="U94:U101" si="5">S94/2.5</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
     </row>
     <row r="95" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="3">
@@ -9868,6 +9913,21 @@
       <c r="G95" s="3" t="s">
         <v>1423</v>
       </c>
+      <c r="R95" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="4"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="5"/>
+        <v>0.12000000000000002</v>
+      </c>
     </row>
     <row r="96" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="3">
@@ -9888,8 +9948,23 @@
       <c r="G96" s="3" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="R96" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="3">
         <v>80001006</v>
       </c>
@@ -9908,8 +9983,23 @@
       <c r="G97" s="3" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="R97" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="3">
         <v>80001007</v>
       </c>
@@ -9928,8 +10018,23 @@
       <c r="G98" s="3" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="R98" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="3">
         <v>80001008</v>
       </c>
@@ -9948,8 +10053,23 @@
       <c r="G99" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="R99" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="4"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="5"/>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="3">
         <v>80001009</v>
       </c>
@@ -9968,8 +10088,23 @@
       <c r="G100" s="3" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="R100" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="5"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="3">
         <v>80001010</v>
       </c>
@@ -9988,8 +10123,23 @@
       <c r="G101" s="3" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="102" spans="2:7">
+      <c r="R101" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21">
       <c r="B102" s="3">
         <v>80001011</v>
       </c>
@@ -10005,7 +10155,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:21">
       <c r="B103" s="3">
         <v>80001012</v>
       </c>
@@ -10021,7 +10171,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:21">
       <c r="B104" s="3">
         <v>80001013</v>
       </c>
@@ -10037,7 +10187,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:21">
       <c r="B105" s="3">
         <v>80001014</v>
       </c>
@@ -10053,7 +10203,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:21">
       <c r="B106" s="3">
         <v>80001015</v>
       </c>
@@ -10069,7 +10219,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:21">
       <c r="B107" s="3">
         <v>80001016</v>
       </c>
@@ -10085,7 +10235,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:21">
       <c r="B108" s="3">
         <v>80001017</v>
       </c>
@@ -10101,7 +10251,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:21">
       <c r="B109" s="3">
         <v>80001018</v>
       </c>
@@ -10117,7 +10267,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:21">
       <c r="B110" s="3">
         <v>80001019</v>
       </c>
@@ -10133,7 +10283,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:21">
       <c r="B111" s="3">
         <v>80001020</v>
       </c>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2048C6-3815-44C8-8700-F82AD2FC3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FBEF7-1CBF-4E09-9E5A-E4884749A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="1681">
   <si>
     <t>人物属性</t>
   </si>
@@ -5331,6 +5331,12 @@
   </si>
   <si>
     <t>高阶崩裂</t>
+  </si>
+  <si>
+    <t>高阶闪击</t>
+  </si>
+  <si>
+    <t>高阶魔焰</t>
   </si>
 </sst>
 </file>
@@ -7423,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I77" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView tabSelected="1" topLeftCell="H77" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9683,28 +9689,28 @@
         <v>1673</v>
       </c>
       <c r="F88" s="3">
-        <v>80002002</v>
+        <v>80002021</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>1401</v>
+        <v>1680</v>
       </c>
       <c r="H88" s="3">
         <v>80002002</v>
       </c>
       <c r="I88" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J88" s="3">
+        <v>80002003</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="J88" s="3">
-        <v>80002001</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="L88" s="3">
-        <v>80002015</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>1396</v>
+      <c r="L88" s="12">
+        <v>80002025</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>1679</v>
       </c>
       <c r="N88" s="3">
         <v>80002014</v>
@@ -9726,17 +9732,17 @@
       </c>
       <c r="U88" s="5" t="str">
         <f>D88&amp;";"&amp;F88&amp;";"&amp;H88&amp;";"&amp;J88&amp;";"&amp;L88&amp;";"&amp;N88&amp;";"&amp;P88&amp;";"&amp;R88</f>
-        <v>80004002;80002002;80002002;80002001;80002015;80002014;80002024;80002027</v>
+        <v>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="3">
         <v>2000003</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="12">
         <v>80004003</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="12" t="s">
         <v>1674</v>
       </c>
       <c r="F89" s="3">
@@ -9788,7 +9794,14 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="20.100000000000001" customHeight="1"/>
-    <row r="91" spans="1:24" ht="20.100000000000001" customHeight="1"/>
+    <row r="91" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="I91">
+        <v>80002021</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1680</v>
+      </c>
+    </row>
     <row r="92" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="3">
         <v>80001001</v>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FBEF7-1CBF-4E09-9E5A-E4884749A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF927B-ADAE-4BBE-8162-8CF21C28D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1693">
   <si>
     <t>人物属性</t>
   </si>
@@ -5337,6 +5337,48 @@
   </si>
   <si>
     <t>高阶魔焰</t>
+  </si>
+  <si>
+    <t>低级品质</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的饰品技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个圆形技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己扣血,并持续对周围玩家造成伤害的技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域每秒造成75%伤害,持续9秒</t>
+  </si>
+  <si>
+    <t>提升自身20%伤害,持续12秒</t>
+  </si>
+  <si>
+    <t>立即对当前目标造成275%伤害</t>
+  </si>
+  <si>
+    <t>对目标群体立即造成250%伤害</t>
+  </si>
+  <si>
+    <t>对目标群体立即造成200%伤害,并使其减速20%,持续6秒</t>
+  </si>
+  <si>
+    <t>对前方区域造成300%伤害</t>
+  </si>
+  <si>
+    <t>已有效果</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝石？带技能的,最多只能装备3个？史诗宝石一旦装备无法拆卸</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7427,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H77" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102:O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10311,6 +10353,42 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:21">
+      <c r="J112" s="12"/>
+      <c r="K112" s="72" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12">
+      <c r="J113" s="12">
+        <v>1</v>
+      </c>
+      <c r="K113" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12">
+      <c r="J114" s="12">
+        <v>2</v>
+      </c>
+      <c r="K114" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12">
+      <c r="J115" s="12">
+        <v>3</v>
+      </c>
+      <c r="K115" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="L115">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
@@ -36565,7 +36643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AY80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -40243,14 +40321,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AR110"/>
+  <dimension ref="B1:AR122"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
     <col min="5" max="5" width="44.875" customWidth="1"/>
@@ -43498,43 +43577,140 @@
       </c>
     </row>
     <row r="101" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="102" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="D102" s="69"/>
-      <c r="I102" s="12">
+    <row r="102" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="12">
+      <c r="J102" s="3">
         <f>I102/1500</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="I103" s="12"/>
-      <c r="J103" s="12">
+    <row r="103" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
         <f>J102/500</f>
         <v>1.4666666666666665E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="D104" s="69"/>
+    <row r="104" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B104" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>1683</v>
+      </c>
       <c r="E104" s="3"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
         <f>0.8+J103</f>
         <v>0.80146666666666666</v>
       </c>
     </row>
-    <row r="105" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="106" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="J106" s="71">
+    <row r="105" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C106" s="3"/>
+      <c r="J106" s="4">
         <f>1200/1500</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="108" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="109" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="110" spans="2:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="107" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C107" s="3"/>
+      <c r="G107" s="4" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C109" s="3"/>
+      <c r="G109" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C110" s="3"/>
+      <c r="G110" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C111" s="3"/>
+      <c r="G111" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C112" s="3"/>
+      <c r="G112" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C113" s="3"/>
+      <c r="G113" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C114" s="3"/>
+      <c r="G114" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C115" s="3"/>
+      <c r="G115" s="4" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C116" s="3"/>
+      <c r="G116" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C117" s="3"/>
+      <c r="G117" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C118" s="3"/>
+      <c r="G118" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C119" s="3"/>
+      <c r="G119" s="4" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B121" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C122" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF927B-ADAE-4BBE-8162-8CF21C28D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4829B00-645F-4ED5-9F1E-2570A61A5384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1702">
   <si>
     <t>人物属性</t>
   </si>
@@ -5379,6 +5379,33 @@
   <si>
     <t>史诗宝石？带技能的,最多只能装备3个？史诗宝石一旦装备无法拆卸</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>奋勇</t>
+  </si>
+  <si>
+    <t>闪击</t>
+  </si>
+  <si>
+    <t>缓速</t>
+  </si>
+  <si>
+    <t>嫁祸</t>
+  </si>
+  <si>
+    <t>崩裂</t>
+  </si>
+  <si>
+    <t>高阶缓速</t>
   </si>
 </sst>
 </file>
@@ -5751,7 +5778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5960,6 +5987,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7469,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AF115"/>
+  <dimension ref="A1:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102:O111"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8874,7 +8902,9 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B66" s="3">
         <v>1000101</v>
       </c>
@@ -8913,13 +8943,15 @@
         <v>1373</v>
       </c>
       <c r="Q66" s="3"/>
-      <c r="R66" t="str">
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" t="str">
         <f>E66&amp;";"&amp;G66</f>
         <v>80001001;</v>
       </c>
-      <c r="U66" t="str">
-        <f>K66&amp;";"&amp;M66&amp;";"&amp;O66</f>
-        <v>80001010;80001014;80001015</v>
+      <c r="W66" t="str">
+        <f>K66&amp;";"&amp;M66&amp;";"&amp;O66&amp;";"&amp;Q66</f>
+        <v>80001010;80001014;80001015;</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="3" t="s">
@@ -8930,7 +8962,9 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="1"/>
+      <c r="A67" s="74">
+        <v>70000012</v>
+      </c>
       <c r="B67" s="3">
         <v>1000201</v>
       </c>
@@ -8967,14 +9001,15 @@
         <v>1378</v>
       </c>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" t="str">
-        <f t="shared" ref="R67:R79" si="1">E67&amp;";"&amp;G67</f>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" t="str">
+        <f>E67&amp;";"&amp;G67</f>
         <v>80001002;80001013</v>
       </c>
-      <c r="U67" t="str">
-        <f t="shared" ref="U67:U79" si="2">K67&amp;";"&amp;M67&amp;";"&amp;O67</f>
-        <v>80001009;80001018;</v>
+      <c r="W67" t="str">
+        <f t="shared" ref="W67:W79" si="1">K67&amp;";"&amp;M67&amp;";"&amp;O67&amp;";"&amp;Q67</f>
+        <v>80001009;80001018;;</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3" t="s">
@@ -8985,7 +9020,9 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B68" s="3">
         <v>1000301</v>
       </c>
@@ -9024,13 +9061,15 @@
         <v>1357</v>
       </c>
       <c r="Q68" s="3"/>
-      <c r="R68" t="str">
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" t="str">
+        <f>E68&amp;";"&amp;G68</f>
+        <v>80001018;</v>
+      </c>
+      <c r="W68" t="str">
         <f t="shared" si="1"/>
-        <v>80001018;</v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="2"/>
-        <v>80001012;80001004;80001007</v>
+        <v>80001012;80001004;80001007;</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="3" t="s">
@@ -9041,7 +9080,9 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B69" s="3">
         <v>1000401</v>
       </c>
@@ -9077,20 +9118,28 @@
       <c r="N69" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" t="str">
+      <c r="O69" s="3">
+        <v>80001023</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" t="str">
+        <f>E69&amp;";"&amp;G69</f>
+        <v>80001004;80001018</v>
+      </c>
+      <c r="W69" t="str">
         <f t="shared" si="1"/>
-        <v>80001004;80001018</v>
-      </c>
-      <c r="U69" t="str">
-        <f t="shared" si="2"/>
-        <v>80001004;80002007;</v>
+        <v>80001004;80002007;80001023;</v>
       </c>
       <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="1"/>
+      <c r="A70" s="74">
+        <v>70000012</v>
+      </c>
       <c r="B70" s="3">
         <v>1000501</v>
       </c>
@@ -9126,20 +9175,28 @@
       <c r="N70" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" t="str">
+      <c r="O70" s="3">
+        <v>80001021</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" t="str">
+        <f>E70&amp;";"&amp;G70</f>
+        <v>80001005;80001019</v>
+      </c>
+      <c r="W70" t="str">
         <f t="shared" si="1"/>
-        <v>80001005;80001019</v>
-      </c>
-      <c r="U70" t="str">
-        <f t="shared" si="2"/>
-        <v>80001017;80001008;</v>
+        <v>80001017;80001008;80001021;</v>
       </c>
       <c r="X70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B71" s="3">
         <v>1000601</v>
       </c>
@@ -9176,18 +9233,22 @@
         <v>1394</v>
       </c>
       <c r="Q71" s="3"/>
-      <c r="R71" t="str">
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" t="str">
+        <f>E71&amp;";"&amp;G71</f>
+        <v>80001006;</v>
+      </c>
+      <c r="W71" t="str">
         <f t="shared" si="1"/>
-        <v>80001006;</v>
-      </c>
-      <c r="U71" t="str">
-        <f t="shared" si="2"/>
-        <v>80001015;80001010;80002006</v>
+        <v>80001015;80001010;80002006;</v>
       </c>
       <c r="X71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B72" s="3">
         <v>1000701</v>
       </c>
@@ -9222,20 +9283,28 @@
       <c r="N72" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" t="str">
+      <c r="O72" s="3">
+        <v>80001022</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" t="str">
+        <f>E72&amp;";"&amp;G72</f>
+        <v>80001007;80001005</v>
+      </c>
+      <c r="W72" t="str">
         <f t="shared" si="1"/>
-        <v>80001007;80001005</v>
-      </c>
-      <c r="U72" t="str">
-        <f t="shared" si="2"/>
-        <v>80001006;80002018;</v>
+        <v>80001006;80002018;80001022;</v>
       </c>
       <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B73" s="3">
         <v>1000801</v>
       </c>
@@ -9271,18 +9340,26 @@
       <c r="N73" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="R73" t="str">
+      <c r="O73" s="3">
+        <v>80001024</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="T73" t="str">
+        <f>E73&amp;";"&amp;G73</f>
+        <v>80001008;80001020</v>
+      </c>
+      <c r="W73" t="str">
         <f t="shared" si="1"/>
-        <v>80001008;80001020</v>
-      </c>
-      <c r="U73" t="str">
-        <f t="shared" si="2"/>
-        <v>80001011;80002015;</v>
+        <v>80001011;80002015;80001024;</v>
       </c>
       <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B74" s="3">
         <v>1000901</v>
       </c>
@@ -9318,20 +9395,33 @@
       <c r="N74" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" t="str">
+      <c r="O74" s="3">
+        <v>80001028</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>80002022</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" t="str">
+        <f>E74&amp;";"&amp;G74</f>
+        <v>80001009;80001002</v>
+      </c>
+      <c r="W74" t="str">
         <f t="shared" si="1"/>
-        <v>80001009;80001002</v>
-      </c>
-      <c r="U74" t="str">
-        <f t="shared" si="2"/>
-        <v>80002001;80001014;</v>
+        <v>80002001;80001014;80001028;80002022</v>
       </c>
       <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B75" s="3">
         <v>1001001</v>
       </c>
@@ -9367,20 +9457,33 @@
       <c r="N75" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" t="str">
+      <c r="O75" s="3">
+        <v>80001023</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>80002019</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S75" s="3"/>
+      <c r="T75" t="str">
+        <f>E75&amp;";"&amp;G75</f>
+        <v>80001010;80001001</v>
+      </c>
+      <c r="W75" t="str">
         <f t="shared" si="1"/>
-        <v>80001010;80001001</v>
-      </c>
-      <c r="U75" t="str">
-        <f t="shared" si="2"/>
-        <v>80001002;80002001;</v>
+        <v>80001002;80002001;80001023;80002019</v>
       </c>
       <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="1"/>
+      <c r="A76" s="74">
+        <v>70000012</v>
+      </c>
       <c r="B76" s="3">
         <v>1001101</v>
       </c>
@@ -9416,20 +9519,33 @@
       <c r="N76" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" t="str">
+      <c r="O76" s="3">
+        <v>80001027</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>80002021</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" t="str">
+        <f>E76&amp;";"&amp;G76</f>
+        <v>80001011;80001003</v>
+      </c>
+      <c r="W76" t="str">
         <f t="shared" si="1"/>
-        <v>80001011;80001003</v>
-      </c>
-      <c r="U76" t="str">
-        <f t="shared" si="2"/>
-        <v>80001015;80002002;</v>
+        <v>80001015;80002002;80001027;80002021</v>
       </c>
       <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="1"/>
+      <c r="A77" s="74">
+        <v>70000012</v>
+      </c>
       <c r="B77" s="3">
         <v>1001201</v>
       </c>
@@ -9446,10 +9562,10 @@
         <v>1367</v>
       </c>
       <c r="G77" s="3">
-        <v>80001017</v>
+        <v>80002025</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>1376</v>
+        <v>1679</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -9465,20 +9581,33 @@
       <c r="N77" s="3" t="s">
         <v>1404</v>
       </c>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" t="str">
+      <c r="O77" s="3">
+        <v>80001026</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>80002027</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="S77" s="3"/>
+      <c r="T77" t="str">
+        <f>E77&amp;";"&amp;G77</f>
+        <v>80001012;80002025</v>
+      </c>
+      <c r="W77" t="str">
         <f t="shared" si="1"/>
-        <v>80001012;80001017</v>
-      </c>
-      <c r="U77" t="str">
-        <f t="shared" si="2"/>
-        <v>80002010;80002003;</v>
+        <v>80002010;80002003;80001026;80002027</v>
       </c>
       <c r="X77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>70000011</v>
+      </c>
       <c r="B78" s="3">
         <v>1001301</v>
       </c>
@@ -9495,10 +9624,10 @@
         <v>1353</v>
       </c>
       <c r="G78" s="3">
-        <v>80001018</v>
+        <v>80002018</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>1378</v>
+        <v>1395</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -9514,20 +9643,33 @@
       <c r="N78" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" t="str">
+      <c r="O78" s="3">
+        <v>80001028</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>80002023</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" t="str">
+        <f>E78&amp;";"&amp;G78</f>
+        <v>80001006;80002018</v>
+      </c>
+      <c r="W78" t="str">
         <f t="shared" si="1"/>
-        <v>80001006;80001018</v>
-      </c>
-      <c r="U78" t="str">
-        <f t="shared" si="2"/>
-        <v>80002004;80002016;</v>
+        <v>80002004;80002016;80001028;80002023</v>
       </c>
       <c r="X78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="1"/>
+      <c r="A79" s="74">
+        <v>70000012</v>
+      </c>
       <c r="B79" s="3">
         <v>1001401</v>
       </c>
@@ -9544,10 +9686,10 @@
         <v>1371</v>
       </c>
       <c r="G79" s="3">
-        <v>80002008</v>
+        <v>80002021</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>1409</v>
+        <v>1680</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -9563,13 +9705,25 @@
       <c r="N79" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="R79" t="str">
+      <c r="O79" s="3">
+        <v>80001025</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>80002003</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="T79" t="str">
+        <f>E79&amp;";"&amp;G79</f>
+        <v>80001014;80002021</v>
+      </c>
+      <c r="W79" t="str">
         <f t="shared" si="1"/>
-        <v>80001014;80002008</v>
-      </c>
-      <c r="U79" t="str">
-        <f t="shared" si="2"/>
-        <v>80002009;80002013;</v>
+        <v>80002009;80002013;80001025;80002003</v>
       </c>
       <c r="X79" s="3"/>
     </row>
@@ -9902,7 +10056,7 @@
         <v>0.9</v>
       </c>
       <c r="S93">
-        <f t="shared" ref="S93:S101" si="3">1-R93</f>
+        <f t="shared" ref="S93:S101" si="2">1-R93</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T93">
@@ -9937,15 +10091,15 @@
         <v>0.8</v>
       </c>
       <c r="S94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T94">
-        <f t="shared" ref="T94:T101" si="4">S94/4</f>
+        <f t="shared" ref="T94:T101" si="3">S94/4</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="U94">
-        <f t="shared" ref="U94:U101" si="5">S94/2.5</f>
+        <f t="shared" ref="U94:U101" si="4">S94/2.5</f>
         <v>7.9999999999999988E-2</v>
       </c>
     </row>
@@ -9972,15 +10126,15 @@
         <v>0.7</v>
       </c>
       <c r="S95">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T95">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="T95">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="4"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="5"/>
         <v>0.12000000000000002</v>
       </c>
     </row>
@@ -10007,15 +10161,15 @@
         <v>0.6</v>
       </c>
       <c r="S96">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="T96">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="T96">
+        <v>0.1</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
     </row>
@@ -10042,15 +10196,15 @@
         <v>0.5</v>
       </c>
       <c r="S97">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="T97">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="T97">
+        <v>0.125</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -10077,15 +10231,15 @@
         <v>0.4</v>
       </c>
       <c r="S98">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="T98">
         <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="T98">
+        <v>0.15</v>
+      </c>
+      <c r="U98">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
     </row>
@@ -10112,15 +10266,15 @@
         <v>0.3</v>
       </c>
       <c r="S99">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="T99">
         <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="T99">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="U99">
         <f t="shared" si="4"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="5"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -10147,15 +10301,15 @@
         <v>0.2</v>
       </c>
       <c r="S100">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="T100">
         <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="T100">
+        <v>0.2</v>
+      </c>
+      <c r="U100">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
     </row>
@@ -10182,15 +10336,15 @@
         <v>0.1</v>
       </c>
       <c r="S101">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="T101">
         <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="T101">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U101">
         <f t="shared" si="4"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
@@ -10355,12 +10509,36 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:21">
+      <c r="B112" s="3">
+        <v>80001021</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D112" s="3">
+        <v>80002021</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>1680</v>
+      </c>
       <c r="J112" s="12"/>
       <c r="K112" s="72" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="113" spans="10:12">
+    <row r="113" spans="2:12">
+      <c r="B113" s="3">
+        <v>80001022</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D113" s="3">
+        <v>80002022</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>1677</v>
+      </c>
       <c r="J113" s="12">
         <v>1</v>
       </c>
@@ -10368,7 +10546,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="10:12">
+    <row r="114" spans="2:12">
+      <c r="B114" s="3">
+        <v>80001023</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D114" s="3">
+        <v>80002023</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>1672</v>
+      </c>
       <c r="J114" s="12">
         <v>2</v>
       </c>
@@ -10379,7 +10569,19 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="10:12">
+    <row r="115" spans="2:12">
+      <c r="B115" s="3">
+        <v>80001024</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D115" s="3">
+        <v>80002024</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>1675</v>
+      </c>
       <c r="J115" s="12">
         <v>3</v>
       </c>
@@ -10388,6 +10590,62 @@
       </c>
       <c r="L115">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="3">
+        <v>80001025</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D116" s="3">
+        <v>80002025</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="3">
+        <v>80001026</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D117" s="3">
+        <v>80002026</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="3">
+        <v>80001027</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D118" s="3">
+        <v>80002027</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="3">
+        <v>80001028</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D119" s="3">
+        <v>80002028</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -40323,7 +40581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AR122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4829B00-645F-4ED5-9F1E-2570A61A5384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F543E165-A9CF-430E-83CD-AE7AADAE0F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1734">
   <si>
     <t>人物属性</t>
   </si>
@@ -5347,10 +5347,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>一个圆形技能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>自己扣血,并持续对周围玩家造成伤害的技能</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5406,6 +5402,138 @@
   </si>
   <si>
     <t>高阶缓速</t>
+  </si>
+  <si>
+    <t>攻击时有一定概率立即对目标造成当前血量1%的伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时有一定概率使自身攻击速度提升20%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身范围内的敌方单位造成300%伤害,并产生击退效果</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个圆形技能,延迟2秒造成高额伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程移动光球</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击阵法</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方队伍伤害提升3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒后对目标范围释放法术造成275%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身每秒损失当前生命的1%,持续对周围每秒造成100%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关技能</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身范围内的敌方单位造成200%伤害,并产生击退效果</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域发射一个缓慢移动的飓风，飓风对触碰到的单位造成200%伤害,并眩晕1秒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>在图腾范围内,己方单位的伤害和攻击速度提升10%,目标伤害和移动速度降低10%,每秒造成50%伤害</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个自爆士兵,自爆士兵会自动靠近单位，对目标范围内造成300%伤害并眩晕1秒,士兵继承召唤者10%的血量</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级戒指</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级护符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率+3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度+3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级戒指</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用技能有一定概率不消耗技能冷却时间</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级护符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方附近单位造成伤害提升3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级戒指</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率回复自身5%最大生命值</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级护腿</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>前冲距离+1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级手套</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度+3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级头盔</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级腰带</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5984,10 +6112,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6240,7 +6368,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="基础属性"/>
@@ -6905,7 +7033,7 @@
   <dimension ref="B1:W70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J16" sqref="J16:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7499,8 +7627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8946,7 +9074,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" t="str">
-        <f>E66&amp;";"&amp;G66</f>
+        <f t="shared" ref="T66:T79" si="1">E66&amp;";"&amp;G66</f>
         <v>80001001;</v>
       </c>
       <c r="W66" t="str">
@@ -8962,7 +9090,7 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="74">
+      <c r="A67" s="73">
         <v>70000012</v>
       </c>
       <c r="B67" s="3">
@@ -9004,11 +9132,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" t="str">
-        <f>E67&amp;";"&amp;G67</f>
+        <f t="shared" si="1"/>
         <v>80001002;80001013</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W79" si="1">K67&amp;";"&amp;M67&amp;";"&amp;O67&amp;";"&amp;Q67</f>
+        <f t="shared" ref="W67:W79" si="2">K67&amp;";"&amp;M67&amp;";"&amp;O67&amp;";"&amp;Q67</f>
         <v>80001009;80001018;;</v>
       </c>
       <c r="X67" s="3"/>
@@ -9064,11 +9192,11 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" t="str">
-        <f>E68&amp;";"&amp;G68</f>
+        <f t="shared" si="1"/>
         <v>80001018;</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001012;80001004;80001007;</v>
       </c>
       <c r="X68" s="3"/>
@@ -9122,22 +9250,22 @@
         <v>80001023</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" t="str">
-        <f>E69&amp;";"&amp;G69</f>
+        <f t="shared" si="1"/>
         <v>80001004;80001018</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001004;80002007;80001023;</v>
       </c>
       <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="74">
+      <c r="A70" s="73">
         <v>70000012</v>
       </c>
       <c r="B70" s="3">
@@ -9179,16 +9307,16 @@
         <v>80001021</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" t="str">
-        <f>E70&amp;";"&amp;G70</f>
+        <f t="shared" si="1"/>
         <v>80001005;80001019</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001017;80001008;80001021;</v>
       </c>
       <c r="X70" s="3"/>
@@ -9236,11 +9364,11 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" t="str">
-        <f>E71&amp;";"&amp;G71</f>
+        <f t="shared" si="1"/>
         <v>80001006;</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001015;80001010;80002006;</v>
       </c>
       <c r="X71" s="3"/>
@@ -9287,16 +9415,16 @@
         <v>80001022</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" t="str">
-        <f>E72&amp;";"&amp;G72</f>
+        <f t="shared" si="1"/>
         <v>80001007;80001005</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001006;80002018;80001022;</v>
       </c>
       <c r="X72" s="3"/>
@@ -9344,14 +9472,14 @@
         <v>80001024</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="T73" t="str">
-        <f>E73&amp;";"&amp;G73</f>
+        <f t="shared" si="1"/>
         <v>80001008;80001020</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001011;80002015;80001024;</v>
       </c>
       <c r="X73" s="3"/>
@@ -9399,7 +9527,7 @@
         <v>80001028</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q74" s="3">
         <v>80002022</v>
@@ -9409,11 +9537,11 @@
       </c>
       <c r="S74" s="3"/>
       <c r="T74" t="str">
-        <f>E74&amp;";"&amp;G74</f>
+        <f t="shared" si="1"/>
         <v>80001009;80001002</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80002001;80001014;80001028;80002022</v>
       </c>
       <c r="X74" s="3"/>
@@ -9461,7 +9589,7 @@
         <v>80001023</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q75" s="3">
         <v>80002019</v>
@@ -9471,17 +9599,17 @@
       </c>
       <c r="S75" s="3"/>
       <c r="T75" t="str">
-        <f>E75&amp;";"&amp;G75</f>
+        <f t="shared" si="1"/>
         <v>80001010;80001001</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001002;80002001;80001023;80002019</v>
       </c>
       <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="74">
+      <c r="A76" s="73">
         <v>70000012</v>
       </c>
       <c r="B76" s="3">
@@ -9523,7 +9651,7 @@
         <v>80001027</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Q76" s="3">
         <v>80002021</v>
@@ -9533,17 +9661,17 @@
       </c>
       <c r="S76" s="3"/>
       <c r="T76" t="str">
-        <f>E76&amp;";"&amp;G76</f>
+        <f t="shared" si="1"/>
         <v>80001011;80001003</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80001015;80002002;80001027;80002021</v>
       </c>
       <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="74">
+      <c r="A77" s="73">
         <v>70000012</v>
       </c>
       <c r="B77" s="3">
@@ -9585,7 +9713,7 @@
         <v>80001026</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="Q77" s="3">
         <v>80002027</v>
@@ -9595,11 +9723,11 @@
       </c>
       <c r="S77" s="3"/>
       <c r="T77" t="str">
-        <f>E77&amp;";"&amp;G77</f>
+        <f t="shared" si="1"/>
         <v>80001012;80002025</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80002010;80002003;80001026;80002027</v>
       </c>
       <c r="X77" s="3"/>
@@ -9647,7 +9775,7 @@
         <v>80001028</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q78" s="3">
         <v>80002023</v>
@@ -9657,17 +9785,17 @@
       </c>
       <c r="S78" s="3"/>
       <c r="T78" t="str">
-        <f>E78&amp;";"&amp;G78</f>
+        <f t="shared" si="1"/>
         <v>80001006;80002018</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80002004;80002016;80001028;80002023</v>
       </c>
       <c r="X78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="74">
+      <c r="A79" s="73">
         <v>70000012</v>
       </c>
       <c r="B79" s="3">
@@ -9709,7 +9837,7 @@
         <v>80001025</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="Q79" s="3">
         <v>80002003</v>
@@ -9718,11 +9846,11 @@
         <v>1404</v>
       </c>
       <c r="T79" t="str">
-        <f>E79&amp;";"&amp;G79</f>
+        <f t="shared" si="1"/>
         <v>80001014;80002021</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80002009;80002013;80001025;80002003</v>
       </c>
       <c r="X79" s="3"/>
@@ -10056,7 +10184,7 @@
         <v>0.9</v>
       </c>
       <c r="S93">
-        <f t="shared" ref="S93:S101" si="2">1-R93</f>
+        <f t="shared" ref="S93:S101" si="3">1-R93</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T93">
@@ -10091,15 +10219,15 @@
         <v>0.8</v>
       </c>
       <c r="S94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T94">
-        <f t="shared" ref="T94:T101" si="3">S94/4</f>
+        <f t="shared" ref="T94:T101" si="4">S94/4</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="U94">
-        <f t="shared" ref="U94:U101" si="4">S94/2.5</f>
+        <f t="shared" ref="U94:U101" si="5">S94/2.5</f>
         <v>7.9999999999999988E-2</v>
       </c>
     </row>
@@ -10126,15 +10254,15 @@
         <v>0.7</v>
       </c>
       <c r="S95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="T95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="U95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000002</v>
       </c>
     </row>
@@ -10161,15 +10289,15 @@
         <v>0.6</v>
       </c>
       <c r="S96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="T96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="U96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
     </row>
@@ -10196,15 +10324,15 @@
         <v>0.5</v>
       </c>
       <c r="S97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="U97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -10231,15 +10359,15 @@
         <v>0.4</v>
       </c>
       <c r="S98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="T98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="U98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
     </row>
@@ -10266,15 +10394,15 @@
         <v>0.3</v>
       </c>
       <c r="S99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="T99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="U99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -10301,15 +10429,15 @@
         <v>0.2</v>
       </c>
       <c r="S100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="T100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="U100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
     </row>
@@ -10336,15 +10464,15 @@
         <v>0.1</v>
       </c>
       <c r="S101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="T101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="U101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
@@ -10513,7 +10641,7 @@
         <v>80001021</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D112" s="3">
         <v>80002021</v>
@@ -10531,7 +10659,7 @@
         <v>80001022</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D113" s="3">
         <v>80002022</v>
@@ -10551,7 +10679,7 @@
         <v>80001023</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D114" s="3">
         <v>80002023</v>
@@ -10574,7 +10702,7 @@
         <v>80001024</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D115" s="3">
         <v>80002024</v>
@@ -10597,7 +10725,7 @@
         <v>80001025</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D116" s="3">
         <v>80002025</v>
@@ -10611,13 +10739,13 @@
         <v>80001026</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D117" s="3">
         <v>80002026</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="118" spans="2:12">
@@ -10625,7 +10753,7 @@
         <v>80001027</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D118" s="3">
         <v>80002027</v>
@@ -10639,7 +10767,7 @@
         <v>80001028</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D119" s="3">
         <v>80002028</v>
@@ -20420,7 +20548,7 @@
   <dimension ref="C1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31241,7 +31369,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H4" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31298,6 +31426,7 @@
         <f>ROUND(C2*[1]属性总表!$H$5,0)</f>
         <v>150</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3">
@@ -31327,7 +31456,7 @@
         <f>ROUND(C3*[1]属性总表!$H$5,0)</f>
         <v>154</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>D3-D2</f>
         <v>262.5</v>
       </c>
@@ -31360,6 +31489,7 @@
         <f>ROUND(C4*[1]属性总表!$H$5,0)</f>
         <v>157</v>
       </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
@@ -33437,8 +33567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL22" sqref="A18:AL22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -33518,7 +33648,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="74" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -33582,7 +33712,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -33637,7 +33767,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="73" t="s">
+      <c r="AX4" s="74" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -33666,7 +33796,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -33718,7 +33848,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="73"/>
+      <c r="AX5" s="74"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -33734,7 +33864,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="74" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -33764,7 +33894,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="73"/>
+      <c r="AX6" s="74"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -33791,7 +33921,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -33837,7 +33967,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="73" t="s">
+      <c r="AX7" s="74" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -33866,7 +33996,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="73"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -33906,7 +34036,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="73"/>
+      <c r="AX8" s="74"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -33922,7 +34052,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="74" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -33946,7 +34076,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="73"/>
+      <c r="AX9" s="74"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -33973,7 +34103,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="73"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -34017,7 +34147,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="73" t="s">
+      <c r="AX10" s="74" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -34046,7 +34176,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="73"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -34098,7 +34228,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="73"/>
+      <c r="AX11" s="74"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -34115,7 +34245,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="74" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -34148,7 +34278,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="73"/>
+      <c r="AX12" s="74"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -34168,7 +34298,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="73"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -34196,7 +34326,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="73" t="s">
+      <c r="AX13" s="74" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -34229,7 +34359,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -34260,7 +34390,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="73"/>
+      <c r="AX14" s="74"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -34285,7 +34415,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="74" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -34315,7 +34445,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="73"/>
+      <c r="AX15" s="74"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -34340,7 +34470,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="73"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -34368,7 +34498,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="73" t="s">
+      <c r="AX16" s="74" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -34395,7 +34525,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="73"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -34418,7 +34548,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="73"/>
+      <c r="AX17" s="74"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -34443,7 +34573,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="73" t="s">
+      <c r="K18" s="74" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -34479,7 +34609,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="73"/>
+      <c r="AX18" s="74"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -34501,7 +34631,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="73"/>
+      <c r="K19" s="74"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -34535,7 +34665,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="73" t="s">
+      <c r="AX19" s="74" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -34552,7 +34682,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="73"/>
+      <c r="K20" s="74"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -34583,7 +34713,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="73"/>
+      <c r="AX20" s="74"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -34624,7 +34754,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="73"/>
+      <c r="AX21" s="74"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -35899,8 +36029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -40579,10 +40709,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AR122"/>
+  <dimension ref="B1:AR128"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -40590,7 +40720,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
-    <col min="5" max="5" width="44.875" customWidth="1"/>
+    <col min="5" max="5" width="67.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="12" width="11.375" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
@@ -43860,9 +43990,14 @@
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>1704</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>1710</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
         <f>0.8+J103</f>
@@ -43872,11 +44007,23 @@
     <row r="105" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="106" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>1712</v>
+      </c>
       <c r="J106" s="4">
         <f>1200/1500</f>
         <v>0.8</v>
@@ -43884,23 +44031,44 @@
     </row>
     <row r="107" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>1713</v>
+      </c>
       <c r="G107" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="108" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>1714</v>
+      </c>
     </row>
     <row r="109" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>1715</v>
+      </c>
       <c r="G109" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="110" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>1706</v>
+      </c>
       <c r="G110" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="111" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -43912,62 +44080,112 @@
     <row r="112" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C112" s="3"/>
       <c r="G112" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="113" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C113" s="3"/>
+      <c r="D113" s="4" t="s">
+        <v>1707</v>
+      </c>
       <c r="G113" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="114" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>1719</v>
+      </c>
       <c r="G114" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="115" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>1718</v>
+      </c>
       <c r="G115" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C116" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G116" s="4" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="116" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C116" s="3"/>
-      <c r="G116" s="4" t="s">
+    <row r="117" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C117" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="117" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C117" s="3"/>
-      <c r="G117" s="4" t="s">
-        <v>1689</v>
-      </c>
-    </row>
     <row r="118" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>1723</v>
+      </c>
       <c r="G118" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>1733</v>
+      </c>
       <c r="G119" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="120" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1727</v>
+      </c>
     </row>
     <row r="121" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="4" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>1729</v>
+      </c>
     </row>
     <row r="122" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="4" t="s">
+        <v>1691</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
@@ -44365,8 +44583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView topLeftCell="R41" workbookViewId="0">
-      <selection activeCell="X69" sqref="X69"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F543E165-A9CF-430E-83CD-AE7AADAE0F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E0DB69-6B96-4F5B-AA0D-FCA60B324902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1762">
   <si>
     <t>人物属性</t>
   </si>
@@ -5428,10 +5428,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>己方队伍伤害提升3%</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5秒后对目标范围释放法术造成275%伤害</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5492,10 +5488,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>己方附近单位造成伤害提升3%</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>50级戒指</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5532,7 +5524,127 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>愤怒</t>
+    <t>50级腰带</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击5%腰带</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间缩减5%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级手套</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运值+1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电灵巧护符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽时光戒指</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命永恒之符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸣攻击之戒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>消逝者的腰带</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军冲锋护腿</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运者之手</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>速之灵手套</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗爆裂头盔</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者的准则</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧之火</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣战斗之锚</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁术召唤</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级护符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升3%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏歌者护符</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>追光狩猎之戒</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力灵犀腰带</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>图腾之灵</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方附近单位造成伤害提升2%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -5906,7 +6018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6115,6 +6227,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -40709,14 +40824,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:AR128"/>
+  <dimension ref="A1:AR133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
@@ -43881,7 +43997,7 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="2:14" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="12" t="s">
         <v>630</v>
       </c>
@@ -43907,7 +44023,7 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="2:14" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="12" t="s">
         <v>633</v>
       </c>
@@ -43933,7 +44049,7 @@
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="2:14" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="12" t="s">
         <v>635</v>
       </c>
@@ -43958,14 +44074,14 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="2:14" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="J100" s="71">
         <f>1200/1500</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="101" spans="2:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="102" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="102" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="I102" s="3">
@@ -43976,7 +44092,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
@@ -43984,19 +44100,24 @@
         <v>1.4666666666666665E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B104" s="3" t="s">
+    <row r="104" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="B104" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1749</v>
+      </c>
       <c r="D104" s="3" t="s">
         <v>1704</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
@@ -44004,65 +44125,90 @@
         <v>0.80146666666666666</v>
       </c>
     </row>
-    <row r="105" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C105" s="3"/>
+    <row r="105" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B105" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1750</v>
+      </c>
       <c r="D105" s="3" t="s">
         <v>1683</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C106" s="3"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B106" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1751</v>
+      </c>
       <c r="D106" s="3" t="s">
         <v>1701</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J106" s="4">
         <f>1200/1500</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C107" s="3"/>
+    <row r="107" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B107" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1752</v>
+      </c>
       <c r="D107" s="3" t="s">
         <v>1702</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="108" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C108" s="3"/>
+    <row r="108" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B108" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1753</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>1703</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C109" s="3"/>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B109" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1751</v>
+      </c>
       <c r="D109" s="3" t="s">
         <v>1705</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C110" s="3"/>
       <c r="D110" s="3" t="s">
         <v>1706</v>
@@ -44071,87 +44217,110 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="111" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C111" s="3"/>
       <c r="G111" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="2:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C112" s="3"/>
       <c r="G112" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="113" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C113" s="3"/>
-      <c r="D113" s="4" t="s">
-        <v>1707</v>
+      <c r="B113" s="75" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D113" s="75" t="s">
+        <v>1755</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="114" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C114" s="3" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>1719</v>
+      <c r="B114" s="75" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D114" s="75" t="s">
+        <v>1718</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="115" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="75" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D115" s="75" t="s">
         <v>1717</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>1718</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="116" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="75" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D116" s="75" t="s">
         <v>1720</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>1721</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="117" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C117" s="3" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>1725</v>
+      <c r="B117" s="75" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D117" s="75" t="s">
+        <v>1723</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>1688</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C118" s="3" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>1723</v>
+      <c r="B118" s="75" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D118" s="75" t="s">
+        <v>1760</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C119" s="3" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="B119" s="75" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D119" s="75" t="s">
         <v>1733</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -44159,34 +44328,73 @@
       </c>
     </row>
     <row r="120" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="75" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D120" s="75" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B121" s="75" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D121" s="75" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B122" s="75" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C122" s="32" t="s">
         <v>1726</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D122" s="75" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="121" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C121" s="3" t="s">
+    <row r="123" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B123" s="75" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D123" s="75" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="122" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C122" s="3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D122" s="4" t="s">
+    <row r="124" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B124" s="75" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="4" t="s">
+      <c r="D124" s="75" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="126" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="127" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="128" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="129" spans="2:2" ht="20.100000000000001" customHeight="1">
+      <c r="B129" s="4" t="s">
         <v>1691</v>
       </c>
     </row>
+    <row r="130" spans="2:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="131" spans="2:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="132" spans="2:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="133" spans="2:2" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E0DB69-6B96-4F5B-AA0D-FCA60B324902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693DA20-39A2-40E8-9DCE-5CF28537C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1884">
   <si>
     <t>人物属性</t>
   </si>
@@ -5647,6 +5647,440 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>十二生肖</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>子鼠</t>
+  </si>
+  <si>
+    <t>丑牛</t>
+  </si>
+  <si>
+    <t>寅虎</t>
+  </si>
+  <si>
+    <t>卯兔</t>
+  </si>
+  <si>
+    <t>辰龙</t>
+  </si>
+  <si>
+    <t>巳蛇</t>
+  </si>
+  <si>
+    <t>午马</t>
+  </si>
+  <si>
+    <t>未羊</t>
+  </si>
+  <si>
+    <t>申猴</t>
+  </si>
+  <si>
+    <t>酉鸡</t>
+  </si>
+  <si>
+    <t>戌狗</t>
+  </si>
+  <si>
+    <t>亥猪</t>
+  </si>
+  <si>
+    <t>破晓</t>
+  </si>
+  <si>
+    <t>破风</t>
+  </si>
+  <si>
+    <t>破军</t>
+  </si>
+  <si>
+    <t>逐风</t>
+  </si>
+  <si>
+    <t>利刃</t>
+  </si>
+  <si>
+    <t>战魂</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风</t>
+  </si>
+  <si>
+    <t>天刺</t>
+  </si>
+  <si>
+    <t>惊鸿</t>
+  </si>
+  <si>
+    <t>寒裂</t>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>天正</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍穹</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙牙</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>子·鼠</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑·牛</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>寅·虎</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>卯·兔</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰·龙</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>巳·蛇</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>午·马</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>未·羊</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>申·猴</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>酉·鸡</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>戌·狗</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>亥·猪</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠灵</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚天</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鸿</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪流</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>挽歌</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力+敏捷</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+敏捷</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+智力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+耐力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+智力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+敏捷</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+敏捷</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+耐力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+耐力</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301 子·鼠3级</t>
+  </si>
+  <si>
+    <t>1302 丑·牛3级</t>
+  </si>
+  <si>
+    <t>1303 寅·虎3级</t>
+  </si>
+  <si>
+    <t>1304 卯·兔3级</t>
+  </si>
+  <si>
+    <t>1305 辰·龙3级</t>
+  </si>
+  <si>
+    <t>1306 巳·蛇3级</t>
+  </si>
+  <si>
+    <t>1307 午·马3级</t>
+  </si>
+  <si>
+    <t>1308 未·羊3级</t>
+  </si>
+  <si>
+    <t>1309 申·猴3级</t>
+  </si>
+  <si>
+    <t>1310 酉·鸡3级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311 戌·狗3级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312 亥·猪3级</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肖之灵</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天产出</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss掉率</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天杀</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级后开掉率</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>子·鼠</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑·牛</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>寅·虎</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>卯·兔</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰·龙</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>巳·蛇</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>午·马</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>未·羊</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>申·猴</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>酉·鸡</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>戌·狗</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>亥·猪</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>子鼠·破晓</t>
+  </si>
+  <si>
+    <t>丑牛·破风</t>
+  </si>
+  <si>
+    <t>寅虎·破军</t>
+  </si>
+  <si>
+    <t>卯兔·洪流</t>
+  </si>
+  <si>
+    <t>辰龙·挽歌</t>
+  </si>
+  <si>
+    <t>巳蛇·逐风</t>
+  </si>
+  <si>
+    <t>午马·利刃</t>
+  </si>
+  <si>
+    <t>未羊·战魂</t>
+  </si>
+  <si>
+    <t>申猴·清风</t>
+  </si>
+  <si>
+    <t>酉鸡·天刺</t>
+  </si>
+  <si>
+    <t>戌狗·惊鸿</t>
+  </si>
+  <si>
+    <t>亥猪·寒裂</t>
+  </si>
+  <si>
+    <t>子鼠·天启</t>
+  </si>
+  <si>
+    <t>丑牛·天正</t>
+  </si>
+  <si>
+    <t>寅虎·天罡</t>
+  </si>
+  <si>
+    <t>卯兔·白鸿</t>
+  </si>
+  <si>
+    <t>辰龙·紫金</t>
+  </si>
+  <si>
+    <t>巳蛇·修罗</t>
+  </si>
+  <si>
+    <t>午马·金甲</t>
+  </si>
+  <si>
+    <t>未羊·苍穹</t>
+  </si>
+  <si>
+    <t>申猴·龙牙</t>
+  </si>
+  <si>
+    <t>酉鸡·漠灵</t>
+  </si>
+  <si>
+    <t>戌狗·无尽</t>
+  </si>
+  <si>
+    <t>亥猪·焚天</t>
+  </si>
+  <si>
+    <t>生肖之灵掉落</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5655,7 +6089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5880,8 +6314,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF515151"/>
+      <name val="PingFangSC-Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF515151"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5945,6 +6397,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.1498458815271462"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14957121494186223"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6018,7 +6482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6225,11 +6689,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7148,7 +7636,7 @@
   <dimension ref="B1:W70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:O18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -33682,7 +34170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:H27"/>
     </sheetView>
   </sheetViews>
@@ -33763,7 +34251,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="75" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -33827,7 +34315,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -33882,7 +34370,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="74" t="s">
+      <c r="AX4" s="75" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -33911,7 +34399,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -33963,7 +34451,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="74"/>
+      <c r="AX5" s="75"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -33979,7 +34467,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="75" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -34009,7 +34497,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="74"/>
+      <c r="AX6" s="75"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -34036,7 +34524,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="74"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -34082,7 +34570,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="74" t="s">
+      <c r="AX7" s="75" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -34111,7 +34599,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="74"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -34151,7 +34639,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="74"/>
+      <c r="AX8" s="75"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -34167,7 +34655,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="75" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -34191,7 +34679,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="74"/>
+      <c r="AX9" s="75"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -34218,7 +34706,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="74"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -34262,7 +34750,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="74" t="s">
+      <c r="AX10" s="75" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -34291,7 +34779,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="74"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -34343,7 +34831,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="74"/>
+      <c r="AX11" s="75"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -34360,7 +34848,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="75" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -34393,7 +34881,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="74"/>
+      <c r="AX12" s="75"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -34413,7 +34901,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="74"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -34441,7 +34929,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="74" t="s">
+      <c r="AX13" s="75" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -34474,7 +34962,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="74"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -34505,7 +34993,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="74"/>
+      <c r="AX14" s="75"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -34530,7 +35018,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="75" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -34560,7 +35048,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="74"/>
+      <c r="AX15" s="75"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -34585,7 +35073,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="74"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -34613,7 +35101,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="74" t="s">
+      <c r="AX16" s="75" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -34640,7 +35128,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="74"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -34663,7 +35151,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="74"/>
+      <c r="AX17" s="75"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -34688,7 +35176,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="75" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -34724,7 +35212,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="74"/>
+      <c r="AX18" s="75"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -34746,7 +35234,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -34780,7 +35268,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="74" t="s">
+      <c r="AX19" s="75" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -34797,7 +35285,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -34828,7 +35316,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="74"/>
+      <c r="AX20" s="75"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -34869,7 +35357,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="74"/>
+      <c r="AX21" s="75"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -36144,7 +36632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:Q35"/>
     </sheetView>
   </sheetViews>
@@ -37146,7 +37634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AY80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -40824,10 +41312,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AR133"/>
+  <dimension ref="A1:AR250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -40837,6 +41325,7 @@
     <col min="3" max="3" width="17.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
     <col min="5" max="5" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="12" width="11.375" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
@@ -44230,13 +44719,13 @@
       </c>
     </row>
     <row r="113" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B113" s="75" t="s">
+      <c r="B113" s="74" t="s">
         <v>1756</v>
       </c>
       <c r="C113" s="32" t="s">
         <v>1754</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="74" t="s">
         <v>1755</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -44244,13 +44733,13 @@
       </c>
     </row>
     <row r="114" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B114" s="75" t="s">
+      <c r="B114" s="74" t="s">
         <v>1757</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>1715</v>
       </c>
-      <c r="D114" s="75" t="s">
+      <c r="D114" s="74" t="s">
         <v>1718</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -44258,13 +44747,13 @@
       </c>
     </row>
     <row r="115" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="75" t="s">
+      <c r="B115" s="74" t="s">
         <v>1736</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>1716</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="74" t="s">
         <v>1717</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -44272,13 +44761,13 @@
       </c>
     </row>
     <row r="116" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="75" t="s">
+      <c r="B116" s="74" t="s">
         <v>1737</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>1719</v>
       </c>
-      <c r="D116" s="75" t="s">
+      <c r="D116" s="74" t="s">
         <v>1720</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -44286,13 +44775,13 @@
       </c>
     </row>
     <row r="117" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="75" t="s">
+      <c r="B117" s="74" t="s">
         <v>1738</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>1721</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="74" t="s">
         <v>1723</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -44300,13 +44789,13 @@
       </c>
     </row>
     <row r="118" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="75" t="s">
+      <c r="B118" s="74" t="s">
         <v>1739</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>1722</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="74" t="s">
         <v>1760</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -44314,13 +44803,13 @@
       </c>
     </row>
     <row r="119" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B119" s="75" t="s">
+      <c r="B119" s="74" t="s">
         <v>1740</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>1730</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D119" s="74" t="s">
         <v>1733</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -44328,57 +44817,57 @@
       </c>
     </row>
     <row r="120" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B120" s="75" t="s">
+      <c r="B120" s="74" t="s">
         <v>1742</v>
       </c>
       <c r="C120" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="D120" s="75" t="s">
+      <c r="D120" s="74" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="75" t="s">
+      <c r="B121" s="74" t="s">
         <v>1741</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>1724</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D121" s="74" t="s">
         <v>1725</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="75" t="s">
+      <c r="B122" s="74" t="s">
         <v>1743</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>1726</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D122" s="74" t="s">
         <v>1727</v>
       </c>
     </row>
     <row r="123" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B123" s="75" t="s">
+      <c r="B123" s="74" t="s">
         <v>1744</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D123" s="74" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="75" t="s">
+      <c r="B124" s="74" t="s">
         <v>1758</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="74" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -44386,15 +44875,1323 @@
     <row r="126" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="127" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="128" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="129" spans="2:2" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="4" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="131" spans="2:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="132" spans="2:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="133" spans="2:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="130" spans="2:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="131" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="132" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="133" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B133" s="3" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B134" s="77" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B135" s="77" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B136" s="77" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B137" s="77" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B138" s="77" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B139" s="77" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B140" s="77" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B141" s="77" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I141" s="3">
+        <v>3</v>
+      </c>
+      <c r="J141" s="3">
+        <v>5</v>
+      </c>
+      <c r="K141" s="3">
+        <f>J141*I141</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B142" s="77" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3</v>
+      </c>
+      <c r="J142" s="3">
+        <v>5</v>
+      </c>
+      <c r="K142" s="3">
+        <f t="shared" ref="K142:K145" si="25">J142*I142</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B143" s="77" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I143" s="3">
+        <v>3</v>
+      </c>
+      <c r="J143" s="3">
+        <v>5</v>
+      </c>
+      <c r="K143" s="3">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B144" s="77" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I144" s="3">
+        <v>4</v>
+      </c>
+      <c r="J144" s="3">
+        <v>5</v>
+      </c>
+      <c r="K144" s="3">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B145" s="77" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I145" s="3">
+        <v>4</v>
+      </c>
+      <c r="J145" s="3">
+        <v>5</v>
+      </c>
+      <c r="K145" s="3">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K146" s="3">
+        <f>SUM(K141:K145)</f>
+        <v>85</v>
+      </c>
+      <c r="L146" s="3">
+        <f>K146/10</f>
+        <v>8.5</v>
+      </c>
+      <c r="M146" s="3">
+        <f>K146/5</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="148" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H148" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K148" s="3">
+        <v>10</v>
+      </c>
+      <c r="L148" s="3">
+        <f>K148*17</f>
+        <v>170</v>
+      </c>
+      <c r="M148" s="3">
+        <f>L148/10</f>
+        <v>17</v>
+      </c>
+      <c r="O148" s="78" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="76" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C149" s="76" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D149" s="3" t="str">
+        <f>B149&amp;"·"&amp;C149</f>
+        <v>子鼠·破晓</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F149" s="79">
+        <v>105101</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="K149" s="3">
+        <v>15</v>
+      </c>
+      <c r="L149" s="3">
+        <f t="shared" ref="L149:L150" si="26">K149*17</f>
+        <v>255</v>
+      </c>
+      <c r="M149" s="3">
+        <f t="shared" ref="M149:M150" si="27">L149/10</f>
+        <v>25.5</v>
+      </c>
+      <c r="O149" s="78" t="s">
+        <v>1837</v>
+      </c>
+      <c r="Q149" s="79" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="76" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C150" s="76" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D150" s="3" t="str">
+        <f t="shared" ref="D150:D160" si="28">B150&amp;"·"&amp;C150</f>
+        <v>丑牛·破风</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F150" s="79">
+        <v>105501</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K150" s="3">
+        <v>20</v>
+      </c>
+      <c r="L150" s="3">
+        <f t="shared" si="26"/>
+        <v>340</v>
+      </c>
+      <c r="M150" s="3">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="O150" s="78" t="s">
+        <v>1839</v>
+      </c>
+      <c r="Q150" s="79" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B151" s="76" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C151" s="76" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D151" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>寅虎·破军</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F151" s="79">
+        <v>105301</v>
+      </c>
+      <c r="Q151" s="79" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B152" s="76" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C152" s="77" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D152" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>卯兔·洪流</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F152" s="79">
+        <v>105201</v>
+      </c>
+      <c r="L152" s="3">
+        <f>SUM(L148:L150)</f>
+        <v>765</v>
+      </c>
+      <c r="Q152" s="79" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B153" s="76" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C153" s="77" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D153" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>辰龙·挽歌</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F153" s="79">
+        <v>105501</v>
+      </c>
+      <c r="G153" s="79">
+        <v>105401</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J153" s="3" t="str">
+        <f>F153&amp;","&amp;G153</f>
+        <v>105501,105401</v>
+      </c>
+      <c r="Q153" s="79" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B154" s="76" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C154" s="76" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D154" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>巳蛇·逐风</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F154" s="79">
+        <v>105301</v>
+      </c>
+      <c r="G154" s="79">
+        <v>105201</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J154" s="3" t="str">
+        <f t="shared" ref="J154:J160" si="29">F154&amp;","&amp;G154</f>
+        <v>105301,105201</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B155" s="76" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C155" s="76" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D155" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>午马·利刃</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F155" s="79">
+        <v>105101</v>
+      </c>
+      <c r="G155" s="79">
+        <v>105401</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J155" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>105101,105401</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B156" s="76" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C156" s="76" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D156" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>未羊·战魂</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F156" s="79">
+        <v>105501</v>
+      </c>
+      <c r="G156" s="79">
+        <v>105201</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J156" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>105501,105201</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B157" s="76" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C157" s="76" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D157" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>申猴·清风</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F157" s="79">
+        <v>105401</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="76" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C158" s="76" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D158" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>酉鸡·天刺</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F158" s="79">
+        <v>105101</v>
+      </c>
+      <c r="G158" s="79">
+        <v>105201</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J158" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>105101,105201</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B159" s="76" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C159" s="76" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D159" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>戌狗·惊鸿</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F159" s="79">
+        <v>105501</v>
+      </c>
+      <c r="G159" s="79">
+        <v>105301</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J159" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>105501,105301</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B160" s="76" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C160" s="76" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D160" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>亥猪·寒裂</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F160" s="79">
+        <v>105301</v>
+      </c>
+      <c r="G160" s="79">
+        <v>105401</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J160" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>105301,105401</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B163" s="76" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D163" s="3" t="str">
+        <f>B163&amp;"·"&amp;C163</f>
+        <v>子鼠·天启</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="76" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C164" s="77" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D164" s="3" t="str">
+        <f t="shared" ref="D164:D174" si="30">B164&amp;"·"&amp;C164</f>
+        <v>丑牛·天正</v>
+      </c>
+      <c r="E164" s="71"/>
+      <c r="H164" s="3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B165" s="76" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C165" s="76" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D165" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>寅虎·天罡</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B166" s="76" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C166" s="77" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D166" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>卯兔·白鸿</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B167" s="76" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D167" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>辰龙·紫金</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B168" s="76" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C168" s="76" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D168" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>巳蛇·修罗</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B169" s="76" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C169" s="76" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D169" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>午马·金甲</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B170" s="76" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C170" s="76" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D170" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>未羊·苍穹</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B171" s="76" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D171" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>申猴·龙牙</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B172" s="76" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C172" s="76" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D172" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>酉鸡·漠灵</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B173" s="76" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C173" s="76" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D173" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>戌狗·无尽</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B174" s="76" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C174" s="76" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D174" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>亥猪·焚天</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="176" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="D179" s="3"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B180" s="80">
+        <v>10010037</v>
+      </c>
+      <c r="C180" s="81" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="D181" s="12"/>
+    </row>
+    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B182" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C182" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B185" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B186" s="3">
+        <v>1</v>
+      </c>
+      <c r="C186" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B187" s="3">
+        <v>2</v>
+      </c>
+      <c r="C187" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B188" s="3">
+        <v>3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A190" s="1"/>
+      <c r="B190" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A191" s="1"/>
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3">
+        <v>12</v>
+      </c>
+      <c r="D191" s="3">
+        <f>C191/3</f>
+        <v>4</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A192" s="1"/>
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+      <c r="C192" s="3">
+        <v>36</v>
+      </c>
+      <c r="D192" s="3">
+        <f t="shared" ref="D192:D193" si="31">C192/3</f>
+        <v>12</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A193" s="1"/>
+      <c r="B193" s="3">
+        <v>3</v>
+      </c>
+      <c r="C193" s="3">
+        <f>C192*3</f>
+        <v>108</v>
+      </c>
+      <c r="D193" s="3">
+        <f t="shared" si="31"/>
+        <v>36</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B196" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B197" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B198" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B200" s="71" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C200" s="72" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B201" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C201" s="12">
+        <f>4*3*1.5+3*3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B202" s="12">
+        <v>1</v>
+      </c>
+      <c r="C202" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="D202" s="12">
+        <f>C202*C201</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B203" s="12">
+        <v>2</v>
+      </c>
+      <c r="C203" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D203" s="12">
+        <f>C203*C201</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B204" s="72" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C204" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D204" s="12">
+        <f>C201*C204/10</f>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B206" s="80">
+        <v>10010037</v>
+      </c>
+      <c r="C206" s="81" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B207" s="82">
+        <v>16000101</v>
+      </c>
+      <c r="C207" s="83" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B208" s="82">
+        <v>16000102</v>
+      </c>
+      <c r="C208" s="83" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B209" s="82">
+        <v>16000103</v>
+      </c>
+      <c r="C209" s="83" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B210" s="82">
+        <v>16000104</v>
+      </c>
+      <c r="C210" s="83" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B211" s="82">
+        <v>16000105</v>
+      </c>
+      <c r="C211" s="83" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B212" s="82">
+        <v>16000106</v>
+      </c>
+      <c r="C212" s="83" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B213" s="82">
+        <v>16000107</v>
+      </c>
+      <c r="C213" s="83" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B214" s="82">
+        <v>16000108</v>
+      </c>
+      <c r="C214" s="83" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B215" s="82">
+        <v>16000109</v>
+      </c>
+      <c r="C215" s="83" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B216" s="82">
+        <v>16000110</v>
+      </c>
+      <c r="C216" s="83" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B217" s="82">
+        <v>16000111</v>
+      </c>
+      <c r="C217" s="83" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B218" s="82">
+        <v>16000112</v>
+      </c>
+      <c r="C218" s="83" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B219" s="82">
+        <v>16000201</v>
+      </c>
+      <c r="C219" s="83" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B220" s="82">
+        <v>16000202</v>
+      </c>
+      <c r="C220" s="83" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D220" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B221" s="82">
+        <v>16000203</v>
+      </c>
+      <c r="C221" s="83" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B222" s="82">
+        <v>16000204</v>
+      </c>
+      <c r="C222" s="83" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B223" s="82">
+        <v>16000205</v>
+      </c>
+      <c r="C223" s="83" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B224" s="82">
+        <v>16000206</v>
+      </c>
+      <c r="C224" s="83" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B225" s="82">
+        <v>16000207</v>
+      </c>
+      <c r="C225" s="83" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D225" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B226" s="82">
+        <v>16000208</v>
+      </c>
+      <c r="C226" s="83" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B227" s="82">
+        <v>16000209</v>
+      </c>
+      <c r="C227" s="83" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B228" s="82">
+        <v>16000210</v>
+      </c>
+      <c r="C228" s="83" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B229" s="82">
+        <v>16000211</v>
+      </c>
+      <c r="C229" s="83" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B230" s="82">
+        <v>16000212</v>
+      </c>
+      <c r="C230" s="83" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B231" s="82">
+        <v>16000301</v>
+      </c>
+      <c r="C231" s="83" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B232" s="82">
+        <v>16000302</v>
+      </c>
+      <c r="C232" s="83" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B233" s="82">
+        <v>16000303</v>
+      </c>
+      <c r="C233" s="83" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B234" s="82">
+        <v>16000304</v>
+      </c>
+      <c r="C234" s="83" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B235" s="82">
+        <v>16000305</v>
+      </c>
+      <c r="C235" s="83" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B236" s="82">
+        <v>16000306</v>
+      </c>
+      <c r="C236" s="83" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B237" s="82">
+        <v>16000307</v>
+      </c>
+      <c r="C237" s="83" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B238" s="82">
+        <v>16000308</v>
+      </c>
+      <c r="C238" s="83" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B239" s="82">
+        <v>16000309</v>
+      </c>
+      <c r="C239" s="83" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B240" s="82">
+        <v>16000310</v>
+      </c>
+      <c r="C240" s="83" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B241" s="82">
+        <v>16000311</v>
+      </c>
+      <c r="C241" s="83" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B242" s="82">
+        <v>16000312</v>
+      </c>
+      <c r="C242" s="83" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="244" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="245" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="246" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="247" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="248" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="249" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="250" spans="2:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693DA20-39A2-40E8-9DCE-5CF28537C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9048784-D53F-4E69-959E-7B1A962755EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1885">
   <si>
     <t>人物属性</t>
   </si>
@@ -6079,6 +6079,10 @@
   </si>
   <si>
     <t>生肖之灵掉落</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>多额外0.05(比护腿多一些好看,并且正好整体缺血量)</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -6692,9 +6696,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6717,6 +6718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34251,7 +34255,7 @@
       <c r="J3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="83" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="48" t="s">
@@ -34315,7 +34319,7 @@
       <c r="I4" s="58">
         <v>10002</v>
       </c>
-      <c r="K4" s="75"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="48" t="s">
         <v>57</v>
       </c>
@@ -34370,7 +34374,7 @@
       <c r="AW4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="75" t="s">
+      <c r="AX4" s="83" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="48" t="s">
@@ -34399,7 +34403,7 @@
       <c r="I5" s="58">
         <v>10003</v>
       </c>
-      <c r="K5" s="75"/>
+      <c r="K5" s="83"/>
       <c r="L5" s="48" t="s">
         <v>72</v>
       </c>
@@ -34451,7 +34455,7 @@
       <c r="AV5" s="48">
         <v>10002</v>
       </c>
-      <c r="AX5" s="75"/>
+      <c r="AX5" s="83"/>
       <c r="AY5" s="48" t="s">
         <v>57</v>
       </c>
@@ -34467,7 +34471,7 @@
       <c r="I6" s="58">
         <v>10011</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="83" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -34497,7 +34501,7 @@
       <c r="AV6" s="48">
         <v>10003</v>
       </c>
-      <c r="AX6" s="75"/>
+      <c r="AX6" s="83"/>
       <c r="AY6" s="48" t="s">
         <v>72</v>
       </c>
@@ -34524,7 +34528,7 @@
       <c r="I7" s="58">
         <v>10012</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="48" t="s">
         <v>57</v>
       </c>
@@ -34570,7 +34574,7 @@
       <c r="AV7" s="48">
         <v>10011</v>
       </c>
-      <c r="AX7" s="75" t="s">
+      <c r="AX7" s="83" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="48" t="s">
@@ -34599,7 +34603,7 @@
       <c r="I8" s="58">
         <v>10013</v>
       </c>
-      <c r="K8" s="75"/>
+      <c r="K8" s="83"/>
       <c r="L8" s="48" t="s">
         <v>72</v>
       </c>
@@ -34639,7 +34643,7 @@
       <c r="AV8" s="48">
         <v>10012</v>
       </c>
-      <c r="AX8" s="75"/>
+      <c r="AX8" s="83"/>
       <c r="AY8" s="48" t="s">
         <v>57</v>
       </c>
@@ -34655,7 +34659,7 @@
       <c r="I9" s="58">
         <v>10021</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -34679,7 +34683,7 @@
       <c r="AV9" s="48">
         <v>10013</v>
       </c>
-      <c r="AX9" s="75"/>
+      <c r="AX9" s="83"/>
       <c r="AY9" s="48" t="s">
         <v>72</v>
       </c>
@@ -34706,7 +34710,7 @@
       <c r="I10" s="58">
         <v>10022</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="48" t="s">
         <v>57</v>
       </c>
@@ -34750,7 +34754,7 @@
       <c r="AV10" s="48">
         <v>10021</v>
       </c>
-      <c r="AX10" s="75" t="s">
+      <c r="AX10" s="83" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="48" t="s">
@@ -34779,7 +34783,7 @@
       <c r="I11" s="58">
         <v>10023</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="48" t="s">
         <v>72</v>
       </c>
@@ -34831,7 +34835,7 @@
       <c r="AV11" s="48">
         <v>10022</v>
       </c>
-      <c r="AX11" s="75"/>
+      <c r="AX11" s="83"/>
       <c r="AY11" s="48" t="s">
         <v>57</v>
       </c>
@@ -34848,7 +34852,7 @@
       <c r="I12" s="58">
         <v>10031</v>
       </c>
-      <c r="K12" s="75" t="s">
+      <c r="K12" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="48" t="s">
@@ -34881,7 +34885,7 @@
       <c r="AV12" s="48">
         <v>10023</v>
       </c>
-      <c r="AX12" s="75"/>
+      <c r="AX12" s="83"/>
       <c r="AY12" s="48" t="s">
         <v>72</v>
       </c>
@@ -34901,7 +34905,7 @@
       <c r="I13" s="58">
         <v>10032</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="48" t="s">
         <v>57</v>
       </c>
@@ -34929,7 +34933,7 @@
       <c r="AV13" s="48">
         <v>10031</v>
       </c>
-      <c r="AX13" s="75" t="s">
+      <c r="AX13" s="83" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="48" t="s">
@@ -34962,7 +34966,7 @@
       <c r="I14" s="58">
         <v>10033</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
@@ -34993,7 +34997,7 @@
       <c r="AV14" s="48">
         <v>10032</v>
       </c>
-      <c r="AX14" s="75"/>
+      <c r="AX14" s="83"/>
       <c r="AY14" s="48" t="s">
         <v>57</v>
       </c>
@@ -35018,7 +35022,7 @@
       <c r="I15" s="58">
         <v>10041</v>
       </c>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="83" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="48" t="s">
@@ -35048,7 +35052,7 @@
       <c r="AV15" s="48">
         <v>10033</v>
       </c>
-      <c r="AX15" s="75"/>
+      <c r="AX15" s="83"/>
       <c r="AY15" s="48" t="s">
         <v>72</v>
       </c>
@@ -35073,7 +35077,7 @@
       <c r="I16" s="58">
         <v>10042</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="48" t="s">
         <v>57</v>
       </c>
@@ -35101,7 +35105,7 @@
       <c r="AV16" s="48">
         <v>10041</v>
       </c>
-      <c r="AX16" s="75" t="s">
+      <c r="AX16" s="83" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="48" t="s">
@@ -35128,7 +35132,7 @@
       <c r="I17" s="58">
         <v>10043</v>
       </c>
-      <c r="K17" s="75"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="48" t="s">
         <v>72</v>
       </c>
@@ -35151,7 +35155,7 @@
       <c r="AV17" s="48">
         <v>10042</v>
       </c>
-      <c r="AX17" s="75"/>
+      <c r="AX17" s="83"/>
       <c r="AY17" s="48" t="s">
         <v>57</v>
       </c>
@@ -35176,7 +35180,7 @@
       <c r="I18" s="48">
         <v>10051</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="83" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="48" t="s">
@@ -35212,7 +35216,7 @@
       <c r="AV18" s="48">
         <v>10043</v>
       </c>
-      <c r="AX18" s="75"/>
+      <c r="AX18" s="83"/>
       <c r="AY18" s="48" t="s">
         <v>72</v>
       </c>
@@ -35234,7 +35238,7 @@
       <c r="I19" s="48">
         <v>10052</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
@@ -35268,7 +35272,7 @@
       <c r="AV19" s="48">
         <v>10051</v>
       </c>
-      <c r="AX19" s="75" t="s">
+      <c r="AX19" s="83" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="48" t="s">
@@ -35285,7 +35289,7 @@
       <c r="I20" s="48">
         <v>10053</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="48" t="s">
         <v>72</v>
       </c>
@@ -35316,7 +35320,7 @@
       <c r="AV20" s="48">
         <v>10052</v>
       </c>
-      <c r="AX20" s="75"/>
+      <c r="AX20" s="83"/>
       <c r="AY20" s="48" t="s">
         <v>57</v>
       </c>
@@ -35357,7 +35361,7 @@
       <c r="AV21" s="48">
         <v>10053</v>
       </c>
-      <c r="AX21" s="75"/>
+      <c r="AX21" s="83"/>
       <c r="AY21" s="48" t="s">
         <v>72</v>
       </c>
@@ -37634,8 +37638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AY80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38463,11 +38467,14 @@
         <f t="shared" ref="D13:D14" si="7">C13*$D$11</f>
         <v>2000</v>
       </c>
+      <c r="K13" s="37" t="s">
+        <v>1884</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>358</v>
       </c>
       <c r="M13" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -38480,7 +38487,7 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>52</v>
@@ -38493,7 +38500,7 @@
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="3"/>
-        <v>1313</v>
+        <v>1575</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" si="4"/>
@@ -38531,7 +38538,7 @@
       </c>
       <c r="M15" s="3">
         <f>SUM(M3:M13)</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ref="N15:Q15" si="8">SUM(N3:N13)</f>
@@ -38547,7 +38554,7 @@
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="8"/>
-        <v>3.9999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="T15" s="12"/>
       <c r="U15" s="3" t="s">
@@ -41314,8 +41321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -44889,7 +44896,7 @@
       </c>
     </row>
     <row r="134" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="77" t="s">
+      <c r="B134" s="76" t="s">
         <v>1793</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -44897,7 +44904,7 @@
       </c>
     </row>
     <row r="135" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="76" t="s">
         <v>1794</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -44908,7 +44915,7 @@
       </c>
     </row>
     <row r="136" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="77" t="s">
+      <c r="B136" s="76" t="s">
         <v>1795</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -44919,7 +44926,7 @@
       </c>
     </row>
     <row r="137" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="77" t="s">
+      <c r="B137" s="76" t="s">
         <v>1796</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -44930,7 +44937,7 @@
       </c>
     </row>
     <row r="138" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="76" t="s">
         <v>1797</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -44941,17 +44948,17 @@
       </c>
     </row>
     <row r="139" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="77" t="s">
+      <c r="B139" s="76" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="140" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="77" t="s">
+      <c r="B140" s="76" t="s">
         <v>1799</v>
       </c>
     </row>
     <row r="141" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="77" t="s">
+      <c r="B141" s="76" t="s">
         <v>1800</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -44969,7 +44976,7 @@
       </c>
     </row>
     <row r="142" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="76" t="s">
         <v>1801</v>
       </c>
       <c r="H142" s="3" t="s">
@@ -44987,7 +44994,7 @@
       </c>
     </row>
     <row r="143" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="77" t="s">
+      <c r="B143" s="76" t="s">
         <v>1802</v>
       </c>
       <c r="H143" s="3" t="s">
@@ -45005,7 +45012,7 @@
       </c>
     </row>
     <row r="144" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="77" t="s">
+      <c r="B144" s="76" t="s">
         <v>1803</v>
       </c>
       <c r="H144" s="3" t="s">
@@ -45023,7 +45030,7 @@
       </c>
     </row>
     <row r="145" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="77" t="s">
+      <c r="B145" s="76" t="s">
         <v>1804</v>
       </c>
       <c r="H145" s="3" t="s">
@@ -45070,15 +45077,15 @@
         <f>L148/10</f>
         <v>17</v>
       </c>
-      <c r="O148" s="78" t="s">
+      <c r="O148" s="77" t="s">
         <v>1838</v>
       </c>
     </row>
     <row r="149" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="76" t="s">
+      <c r="B149" s="75" t="s">
         <v>1763</v>
       </c>
-      <c r="C149" s="76" t="s">
+      <c r="C149" s="75" t="s">
         <v>1775</v>
       </c>
       <c r="D149" s="3" t="str">
@@ -45088,7 +45095,7 @@
       <c r="E149" s="3" t="s">
         <v>1809</v>
       </c>
-      <c r="F149" s="79">
+      <c r="F149" s="78">
         <v>105101</v>
       </c>
       <c r="H149" s="3" t="s">
@@ -45105,18 +45112,18 @@
         <f t="shared" ref="M149:M150" si="27">L149/10</f>
         <v>25.5</v>
       </c>
-      <c r="O149" s="78" t="s">
+      <c r="O149" s="77" t="s">
         <v>1837</v>
       </c>
-      <c r="Q149" s="79" t="s">
+      <c r="Q149" s="78" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="150" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="76" t="s">
+      <c r="B150" s="75" t="s">
         <v>1764</v>
       </c>
-      <c r="C150" s="76" t="s">
+      <c r="C150" s="75" t="s">
         <v>1776</v>
       </c>
       <c r="D150" s="3" t="str">
@@ -45126,7 +45133,7 @@
       <c r="E150" s="3" t="s">
         <v>1811</v>
       </c>
-      <c r="F150" s="79">
+      <c r="F150" s="78">
         <v>105501</v>
       </c>
       <c r="H150" s="3" t="s">
@@ -45143,18 +45150,18 @@
         <f t="shared" si="27"/>
         <v>34</v>
       </c>
-      <c r="O150" s="78" t="s">
+      <c r="O150" s="77" t="s">
         <v>1839</v>
       </c>
-      <c r="Q150" s="79" t="s">
+      <c r="Q150" s="78" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="151" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="76" t="s">
+      <c r="B151" s="75" t="s">
         <v>1765</v>
       </c>
-      <c r="C151" s="76" t="s">
+      <c r="C151" s="75" t="s">
         <v>1777</v>
       </c>
       <c r="D151" s="3" t="str">
@@ -45164,18 +45171,18 @@
       <c r="E151" s="3" t="s">
         <v>1810</v>
       </c>
-      <c r="F151" s="79">
+      <c r="F151" s="78">
         <v>105301</v>
       </c>
-      <c r="Q151" s="79" t="s">
+      <c r="Q151" s="78" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="152" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="76" t="s">
+      <c r="B152" s="75" t="s">
         <v>1766</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="76" t="s">
         <v>1814</v>
       </c>
       <c r="D152" s="3" t="str">
@@ -45185,22 +45192,22 @@
       <c r="E152" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="F152" s="79">
+      <c r="F152" s="78">
         <v>105201</v>
       </c>
       <c r="L152" s="3">
         <f>SUM(L148:L150)</f>
         <v>765</v>
       </c>
-      <c r="Q152" s="79" t="s">
+      <c r="Q152" s="78" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="153" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="76" t="s">
+      <c r="B153" s="75" t="s">
         <v>1767</v>
       </c>
-      <c r="C153" s="77" t="s">
+      <c r="C153" s="76" t="s">
         <v>1815</v>
       </c>
       <c r="D153" s="3" t="str">
@@ -45210,10 +45217,10 @@
       <c r="E153" s="3" t="s">
         <v>1819</v>
       </c>
-      <c r="F153" s="79">
+      <c r="F153" s="78">
         <v>105501</v>
       </c>
-      <c r="G153" s="79">
+      <c r="G153" s="78">
         <v>105401</v>
       </c>
       <c r="H153" s="3" t="s">
@@ -45223,15 +45230,15 @@
         <f>F153&amp;","&amp;G153</f>
         <v>105501,105401</v>
       </c>
-      <c r="Q153" s="79" t="s">
+      <c r="Q153" s="78" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="154" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="76" t="s">
+      <c r="B154" s="75" t="s">
         <v>1768</v>
       </c>
-      <c r="C154" s="76" t="s">
+      <c r="C154" s="75" t="s">
         <v>1778</v>
       </c>
       <c r="D154" s="3" t="str">
@@ -45241,10 +45248,10 @@
       <c r="E154" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="F154" s="79">
+      <c r="F154" s="78">
         <v>105301</v>
       </c>
-      <c r="G154" s="79">
+      <c r="G154" s="78">
         <v>105201</v>
       </c>
       <c r="H154" s="3" t="s">
@@ -45256,10 +45263,10 @@
       </c>
     </row>
     <row r="155" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="76" t="s">
+      <c r="B155" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="C155" s="76" t="s">
+      <c r="C155" s="75" t="s">
         <v>1779</v>
       </c>
       <c r="D155" s="3" t="str">
@@ -45269,10 +45276,10 @@
       <c r="E155" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="F155" s="79">
+      <c r="F155" s="78">
         <v>105101</v>
       </c>
-      <c r="G155" s="79">
+      <c r="G155" s="78">
         <v>105401</v>
       </c>
       <c r="H155" s="3" t="s">
@@ -45284,10 +45291,10 @@
       </c>
     </row>
     <row r="156" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="76" t="s">
+      <c r="B156" s="75" t="s">
         <v>1770</v>
       </c>
-      <c r="C156" s="76" t="s">
+      <c r="C156" s="75" t="s">
         <v>1780</v>
       </c>
       <c r="D156" s="3" t="str">
@@ -45297,10 +45304,10 @@
       <c r="E156" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="F156" s="79">
+      <c r="F156" s="78">
         <v>105501</v>
       </c>
-      <c r="G156" s="79">
+      <c r="G156" s="78">
         <v>105201</v>
       </c>
       <c r="H156" s="3" t="s">
@@ -45312,10 +45319,10 @@
       </c>
     </row>
     <row r="157" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="76" t="s">
+      <c r="B157" s="75" t="s">
         <v>1771</v>
       </c>
-      <c r="C157" s="76" t="s">
+      <c r="C157" s="75" t="s">
         <v>1781</v>
       </c>
       <c r="D157" s="3" t="str">
@@ -45325,7 +45332,7 @@
       <c r="E157" s="3" t="s">
         <v>1813</v>
       </c>
-      <c r="F157" s="79">
+      <c r="F157" s="78">
         <v>105401</v>
       </c>
       <c r="H157" s="3" t="s">
@@ -45333,10 +45340,10 @@
       </c>
     </row>
     <row r="158" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="76" t="s">
+      <c r="B158" s="75" t="s">
         <v>1772</v>
       </c>
-      <c r="C158" s="76" t="s">
+      <c r="C158" s="75" t="s">
         <v>1782</v>
       </c>
       <c r="D158" s="3" t="str">
@@ -45346,10 +45353,10 @@
       <c r="E158" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="F158" s="79">
+      <c r="F158" s="78">
         <v>105101</v>
       </c>
-      <c r="G158" s="79">
+      <c r="G158" s="78">
         <v>105201</v>
       </c>
       <c r="H158" s="3" t="s">
@@ -45361,10 +45368,10 @@
       </c>
     </row>
     <row r="159" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="76" t="s">
+      <c r="B159" s="75" t="s">
         <v>1773</v>
       </c>
-      <c r="C159" s="76" t="s">
+      <c r="C159" s="75" t="s">
         <v>1783</v>
       </c>
       <c r="D159" s="3" t="str">
@@ -45374,10 +45381,10 @@
       <c r="E159" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="F159" s="79">
+      <c r="F159" s="78">
         <v>105501</v>
       </c>
-      <c r="G159" s="79">
+      <c r="G159" s="78">
         <v>105301</v>
       </c>
       <c r="H159" s="3" t="s">
@@ -45389,10 +45396,10 @@
       </c>
     </row>
     <row r="160" spans="2:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="76" t="s">
+      <c r="B160" s="75" t="s">
         <v>1774</v>
       </c>
-      <c r="C160" s="76" t="s">
+      <c r="C160" s="75" t="s">
         <v>1784</v>
       </c>
       <c r="D160" s="3" t="str">
@@ -45402,10 +45409,10 @@
       <c r="E160" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="F160" s="79">
+      <c r="F160" s="78">
         <v>105301</v>
       </c>
-      <c r="G160" s="79">
+      <c r="G160" s="78">
         <v>105401</v>
       </c>
       <c r="H160" s="3" t="s">
@@ -45427,10 +45434,10 @@
       <c r="D162" s="3"/>
     </row>
     <row r="163" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="76" t="s">
+      <c r="B163" s="75" t="s">
         <v>1763</v>
       </c>
-      <c r="C163" s="76" t="s">
+      <c r="C163" s="75" t="s">
         <v>1785</v>
       </c>
       <c r="D163" s="3" t="str">
@@ -45442,10 +45449,10 @@
       </c>
     </row>
     <row r="164" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="76" t="s">
+      <c r="B164" s="75" t="s">
         <v>1764</v>
       </c>
-      <c r="C164" s="77" t="s">
+      <c r="C164" s="76" t="s">
         <v>1787</v>
       </c>
       <c r="D164" s="3" t="str">
@@ -45458,10 +45465,10 @@
       </c>
     </row>
     <row r="165" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="76" t="s">
+      <c r="B165" s="75" t="s">
         <v>1765</v>
       </c>
-      <c r="C165" s="76" t="s">
+      <c r="C165" s="75" t="s">
         <v>1786</v>
       </c>
       <c r="D165" s="3" t="str">
@@ -45473,10 +45480,10 @@
       </c>
     </row>
     <row r="166" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="76" t="s">
+      <c r="B166" s="75" t="s">
         <v>1766</v>
       </c>
-      <c r="C166" s="77" t="s">
+      <c r="C166" s="76" t="s">
         <v>1808</v>
       </c>
       <c r="D166" s="3" t="str">
@@ -45488,10 +45495,10 @@
       </c>
     </row>
     <row r="167" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="76" t="s">
+      <c r="B167" s="75" t="s">
         <v>1767</v>
       </c>
-      <c r="C167" s="76" t="s">
+      <c r="C167" s="75" t="s">
         <v>1788</v>
       </c>
       <c r="D167" s="3" t="str">
@@ -45503,10 +45510,10 @@
       </c>
     </row>
     <row r="168" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B168" s="76" t="s">
+      <c r="B168" s="75" t="s">
         <v>1768</v>
       </c>
-      <c r="C168" s="76" t="s">
+      <c r="C168" s="75" t="s">
         <v>1790</v>
       </c>
       <c r="D168" s="3" t="str">
@@ -45518,10 +45525,10 @@
       </c>
     </row>
     <row r="169" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B169" s="76" t="s">
+      <c r="B169" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="C169" s="76" t="s">
+      <c r="C169" s="75" t="s">
         <v>1789</v>
       </c>
       <c r="D169" s="3" t="str">
@@ -45533,10 +45540,10 @@
       </c>
     </row>
     <row r="170" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B170" s="76" t="s">
+      <c r="B170" s="75" t="s">
         <v>1770</v>
       </c>
-      <c r="C170" s="76" t="s">
+      <c r="C170" s="75" t="s">
         <v>1791</v>
       </c>
       <c r="D170" s="3" t="str">
@@ -45548,10 +45555,10 @@
       </c>
     </row>
     <row r="171" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B171" s="76" t="s">
+      <c r="B171" s="75" t="s">
         <v>1771</v>
       </c>
-      <c r="C171" s="76" t="s">
+      <c r="C171" s="75" t="s">
         <v>1792</v>
       </c>
       <c r="D171" s="3" t="str">
@@ -45563,10 +45570,10 @@
       </c>
     </row>
     <row r="172" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B172" s="76" t="s">
+      <c r="B172" s="75" t="s">
         <v>1772</v>
       </c>
-      <c r="C172" s="76" t="s">
+      <c r="C172" s="75" t="s">
         <v>1805</v>
       </c>
       <c r="D172" s="3" t="str">
@@ -45578,10 +45585,10 @@
       </c>
     </row>
     <row r="173" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B173" s="76" t="s">
+      <c r="B173" s="75" t="s">
         <v>1773</v>
       </c>
-      <c r="C173" s="76" t="s">
+      <c r="C173" s="75" t="s">
         <v>1806</v>
       </c>
       <c r="D173" s="3" t="str">
@@ -45593,10 +45600,10 @@
       </c>
     </row>
     <row r="174" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B174" s="76" t="s">
+      <c r="B174" s="75" t="s">
         <v>1774</v>
       </c>
-      <c r="C174" s="76" t="s">
+      <c r="C174" s="75" t="s">
         <v>1807</v>
       </c>
       <c r="D174" s="3" t="str">
@@ -45618,10 +45625,10 @@
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B180" s="80">
+      <c r="B180" s="79">
         <v>10010037</v>
       </c>
-      <c r="C180" s="81" t="s">
+      <c r="C180" s="80" t="s">
         <v>1840</v>
       </c>
       <c r="D180" s="3"/>
@@ -45814,10 +45821,10 @@
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1"/>
     <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B206" s="80">
+      <c r="B206" s="79">
         <v>10010037</v>
       </c>
-      <c r="C206" s="81" t="s">
+      <c r="C206" s="80" t="s">
         <v>1840</v>
       </c>
       <c r="D206" s="12">
@@ -45825,10 +45832,10 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B207" s="82">
+      <c r="B207" s="81">
         <v>16000101</v>
       </c>
-      <c r="C207" s="83" t="s">
+      <c r="C207" s="82" t="s">
         <v>1847</v>
       </c>
       <c r="D207" s="3">
@@ -45836,10 +45843,10 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B208" s="82">
+      <c r="B208" s="81">
         <v>16000102</v>
       </c>
-      <c r="C208" s="83" t="s">
+      <c r="C208" s="82" t="s">
         <v>1848</v>
       </c>
       <c r="D208" s="3">
@@ -45847,10 +45854,10 @@
       </c>
     </row>
     <row r="209" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B209" s="82">
+      <c r="B209" s="81">
         <v>16000103</v>
       </c>
-      <c r="C209" s="83" t="s">
+      <c r="C209" s="82" t="s">
         <v>1849</v>
       </c>
       <c r="D209" s="3">
@@ -45858,10 +45865,10 @@
       </c>
     </row>
     <row r="210" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B210" s="82">
+      <c r="B210" s="81">
         <v>16000104</v>
       </c>
-      <c r="C210" s="83" t="s">
+      <c r="C210" s="82" t="s">
         <v>1850</v>
       </c>
       <c r="D210" s="3">
@@ -45869,10 +45876,10 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B211" s="82">
+      <c r="B211" s="81">
         <v>16000105</v>
       </c>
-      <c r="C211" s="83" t="s">
+      <c r="C211" s="82" t="s">
         <v>1851</v>
       </c>
       <c r="D211" s="3">
@@ -45880,10 +45887,10 @@
       </c>
     </row>
     <row r="212" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B212" s="82">
+      <c r="B212" s="81">
         <v>16000106</v>
       </c>
-      <c r="C212" s="83" t="s">
+      <c r="C212" s="82" t="s">
         <v>1852</v>
       </c>
       <c r="D212" s="3">
@@ -45891,10 +45898,10 @@
       </c>
     </row>
     <row r="213" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B213" s="82">
+      <c r="B213" s="81">
         <v>16000107</v>
       </c>
-      <c r="C213" s="83" t="s">
+      <c r="C213" s="82" t="s">
         <v>1853</v>
       </c>
       <c r="D213" s="3">
@@ -45902,10 +45909,10 @@
       </c>
     </row>
     <row r="214" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B214" s="82">
+      <c r="B214" s="81">
         <v>16000108</v>
       </c>
-      <c r="C214" s="83" t="s">
+      <c r="C214" s="82" t="s">
         <v>1854</v>
       </c>
       <c r="D214" s="3">
@@ -45913,10 +45920,10 @@
       </c>
     </row>
     <row r="215" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B215" s="82">
+      <c r="B215" s="81">
         <v>16000109</v>
       </c>
-      <c r="C215" s="83" t="s">
+      <c r="C215" s="82" t="s">
         <v>1855</v>
       </c>
       <c r="D215" s="3">
@@ -45924,10 +45931,10 @@
       </c>
     </row>
     <row r="216" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B216" s="82">
+      <c r="B216" s="81">
         <v>16000110</v>
       </c>
-      <c r="C216" s="83" t="s">
+      <c r="C216" s="82" t="s">
         <v>1856</v>
       </c>
       <c r="D216" s="3">
@@ -45935,10 +45942,10 @@
       </c>
     </row>
     <row r="217" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B217" s="82">
+      <c r="B217" s="81">
         <v>16000111</v>
       </c>
-      <c r="C217" s="83" t="s">
+      <c r="C217" s="82" t="s">
         <v>1857</v>
       </c>
       <c r="D217" s="3">
@@ -45946,10 +45953,10 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B218" s="82">
+      <c r="B218" s="81">
         <v>16000112</v>
       </c>
-      <c r="C218" s="83" t="s">
+      <c r="C218" s="82" t="s">
         <v>1858</v>
       </c>
       <c r="D218" s="3">
@@ -45957,10 +45964,10 @@
       </c>
     </row>
     <row r="219" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B219" s="82">
+      <c r="B219" s="81">
         <v>16000201</v>
       </c>
-      <c r="C219" s="83" t="s">
+      <c r="C219" s="82" t="s">
         <v>1859</v>
       </c>
       <c r="D219" s="3">
@@ -45968,10 +45975,10 @@
       </c>
     </row>
     <row r="220" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B220" s="82">
+      <c r="B220" s="81">
         <v>16000202</v>
       </c>
-      <c r="C220" s="83" t="s">
+      <c r="C220" s="82" t="s">
         <v>1860</v>
       </c>
       <c r="D220" s="3">
@@ -45979,10 +45986,10 @@
       </c>
     </row>
     <row r="221" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B221" s="82">
+      <c r="B221" s="81">
         <v>16000203</v>
       </c>
-      <c r="C221" s="83" t="s">
+      <c r="C221" s="82" t="s">
         <v>1861</v>
       </c>
       <c r="D221" s="3">
@@ -45990,10 +45997,10 @@
       </c>
     </row>
     <row r="222" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B222" s="82">
+      <c r="B222" s="81">
         <v>16000204</v>
       </c>
-      <c r="C222" s="83" t="s">
+      <c r="C222" s="82" t="s">
         <v>1862</v>
       </c>
       <c r="D222" s="3">
@@ -46001,10 +46008,10 @@
       </c>
     </row>
     <row r="223" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B223" s="82">
+      <c r="B223" s="81">
         <v>16000205</v>
       </c>
-      <c r="C223" s="83" t="s">
+      <c r="C223" s="82" t="s">
         <v>1863</v>
       </c>
       <c r="D223" s="3">
@@ -46012,10 +46019,10 @@
       </c>
     </row>
     <row r="224" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B224" s="82">
+      <c r="B224" s="81">
         <v>16000206</v>
       </c>
-      <c r="C224" s="83" t="s">
+      <c r="C224" s="82" t="s">
         <v>1864</v>
       </c>
       <c r="D224" s="3">
@@ -46023,10 +46030,10 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B225" s="82">
+      <c r="B225" s="81">
         <v>16000207</v>
       </c>
-      <c r="C225" s="83" t="s">
+      <c r="C225" s="82" t="s">
         <v>1865</v>
       </c>
       <c r="D225" s="3">
@@ -46034,10 +46041,10 @@
       </c>
     </row>
     <row r="226" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B226" s="82">
+      <c r="B226" s="81">
         <v>16000208</v>
       </c>
-      <c r="C226" s="83" t="s">
+      <c r="C226" s="82" t="s">
         <v>1866</v>
       </c>
       <c r="D226" s="3">
@@ -46045,10 +46052,10 @@
       </c>
     </row>
     <row r="227" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B227" s="82">
+      <c r="B227" s="81">
         <v>16000209</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="82" t="s">
         <v>1867</v>
       </c>
       <c r="D227" s="3">
@@ -46056,10 +46063,10 @@
       </c>
     </row>
     <row r="228" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B228" s="82">
+      <c r="B228" s="81">
         <v>16000210</v>
       </c>
-      <c r="C228" s="83" t="s">
+      <c r="C228" s="82" t="s">
         <v>1868</v>
       </c>
       <c r="D228" s="3">
@@ -46067,10 +46074,10 @@
       </c>
     </row>
     <row r="229" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B229" s="82">
+      <c r="B229" s="81">
         <v>16000211</v>
       </c>
-      <c r="C229" s="83" t="s">
+      <c r="C229" s="82" t="s">
         <v>1869</v>
       </c>
       <c r="D229" s="3">
@@ -46078,10 +46085,10 @@
       </c>
     </row>
     <row r="230" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B230" s="82">
+      <c r="B230" s="81">
         <v>16000212</v>
       </c>
-      <c r="C230" s="83" t="s">
+      <c r="C230" s="82" t="s">
         <v>1870</v>
       </c>
       <c r="D230" s="3">
@@ -46089,98 +46096,98 @@
       </c>
     </row>
     <row r="231" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B231" s="82">
+      <c r="B231" s="81">
         <v>16000301</v>
       </c>
-      <c r="C231" s="83" t="s">
+      <c r="C231" s="82" t="s">
         <v>1871</v>
       </c>
     </row>
     <row r="232" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B232" s="82">
+      <c r="B232" s="81">
         <v>16000302</v>
       </c>
-      <c r="C232" s="83" t="s">
+      <c r="C232" s="82" t="s">
         <v>1872</v>
       </c>
     </row>
     <row r="233" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B233" s="82">
+      <c r="B233" s="81">
         <v>16000303</v>
       </c>
-      <c r="C233" s="83" t="s">
+      <c r="C233" s="82" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="234" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B234" s="82">
+      <c r="B234" s="81">
         <v>16000304</v>
       </c>
-      <c r="C234" s="83" t="s">
+      <c r="C234" s="82" t="s">
         <v>1874</v>
       </c>
     </row>
     <row r="235" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B235" s="82">
+      <c r="B235" s="81">
         <v>16000305</v>
       </c>
-      <c r="C235" s="83" t="s">
+      <c r="C235" s="82" t="s">
         <v>1875</v>
       </c>
     </row>
     <row r="236" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B236" s="82">
+      <c r="B236" s="81">
         <v>16000306</v>
       </c>
-      <c r="C236" s="83" t="s">
+      <c r="C236" s="82" t="s">
         <v>1876</v>
       </c>
     </row>
     <row r="237" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B237" s="82">
+      <c r="B237" s="81">
         <v>16000307</v>
       </c>
-      <c r="C237" s="83" t="s">
+      <c r="C237" s="82" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="238" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B238" s="82">
+      <c r="B238" s="81">
         <v>16000308</v>
       </c>
-      <c r="C238" s="83" t="s">
+      <c r="C238" s="82" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="239" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B239" s="82">
+      <c r="B239" s="81">
         <v>16000309</v>
       </c>
-      <c r="C239" s="83" t="s">
+      <c r="C239" s="82" t="s">
         <v>1879</v>
       </c>
     </row>
     <row r="240" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B240" s="82">
+      <c r="B240" s="81">
         <v>16000310</v>
       </c>
-      <c r="C240" s="83" t="s">
+      <c r="C240" s="82" t="s">
         <v>1880</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B241" s="82">
+      <c r="B241" s="81">
         <v>16000311</v>
       </c>
-      <c r="C241" s="83" t="s">
+      <c r="C241" s="82" t="s">
         <v>1881</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B242" s="82">
+      <c r="B242" s="81">
         <v>16000312</v>
       </c>
-      <c r="C242" s="83" t="s">
+      <c r="C242" s="82" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -46203,7 +46210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9048784-D53F-4E69-959E-7B1A962755EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B557A04-7320-4884-A1BC-C08DFB7AC8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37639,7 +37639,7 @@
   <dimension ref="B1:AY80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L17" activeCellId="1" sqref="L18:Q22 L17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B557A04-7320-4884-A1BC-C08DFB7AC8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1747F542-0DD7-4899-B6F6-6D4BF9D1B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1890">
   <si>
     <t>人物属性</t>
   </si>
@@ -6083,6 +6083,26 @@
   </si>
   <si>
     <t>多额外0.05(比护腿多一些好看,并且正好整体缺血量)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">伤害+1%  </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+1%   抗暴+1%   血量+1%</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">暴击+1%   魔防+1%   法术+1%  </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">命中+1%   物防+1%   攻击+1%   </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -31967,7 +31987,7 @@
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36636,7 +36656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H13" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:Q35"/>
     </sheetView>
   </sheetViews>
@@ -37638,8 +37658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AY80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" activeCellId="1" sqref="L18:Q22 L17:Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" activeCellId="1" sqref="L17:Q17 L18:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -41321,8 +41341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR250"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="E143" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -45616,15 +45636,17 @@
     </row>
     <row r="175" spans="2:8" ht="20.100000000000001" customHeight="1"/>
     <row r="176" spans="2:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="178" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="D179" s="3"/>
       <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B180" s="79">
         <v>10010037</v>
       </c>
@@ -45632,28 +45654,65 @@
         <v>1840</v>
       </c>
       <c r="D180" s="3"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="E180" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="D181" s="12"/>
-    </row>
-    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="E181" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B182" s="3" t="s">
         <v>1841</v>
       </c>
       <c r="C182" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="E182" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F182" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="E183" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F183" s="3">
+        <v>2</v>
+      </c>
+      <c r="G183" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="E184" s="4"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B185" s="3" t="s">
         <v>1842</v>
       </c>
       <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B186" s="3">
         <v>1</v>
       </c>
@@ -45661,7 +45720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B187" s="3">
         <v>2</v>
       </c>
@@ -45669,7 +45728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="188" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B188" s="3">
         <v>3</v>
       </c>
@@ -45677,15 +45736,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="189" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G189" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="3" t="s">
         <v>1843</v>
@@ -45695,7 +45757,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="191" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="3">
         <v>1</v>
@@ -45710,7 +45772,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="192" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="3">
         <v>2</v>
@@ -45767,54 +45829,56 @@
     </row>
     <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1"/>
     <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B200" s="71" t="s">
+      <c r="B200" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="C200" s="72" t="s">
+      <c r="C200" s="3" t="s">
         <v>1846</v>
       </c>
+      <c r="D200" s="3"/>
     </row>
     <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B201" s="3" t="s">
         <v>1845</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C201" s="3">
         <f>4*3*1.5+3*3</f>
         <v>27</v>
       </c>
+      <c r="D201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B202" s="12">
+      <c r="B202" s="3">
         <v>1</v>
       </c>
-      <c r="C202" s="12">
+      <c r="C202" s="3">
         <v>0.08</v>
       </c>
-      <c r="D202" s="12">
+      <c r="D202" s="3">
         <f>C202*C201</f>
         <v>2.16</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B203" s="12">
+      <c r="B203" s="3">
         <v>2</v>
       </c>
-      <c r="C203" s="12">
+      <c r="C203" s="3">
         <v>0.01</v>
       </c>
-      <c r="D203" s="12">
+      <c r="D203" s="3">
         <f>C203*C201</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B204" s="72" t="s">
+      <c r="B204" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="C204" s="12">
+      <c r="C204" s="3">
         <v>0.3</v>
       </c>
-      <c r="D204" s="12">
+      <c r="D204" s="3">
         <f>C201*C204/10</f>
         <v>0.80999999999999994</v>
       </c>
@@ -45827,7 +45891,7 @@
       <c r="C206" s="80" t="s">
         <v>1840</v>
       </c>
-      <c r="D206" s="12">
+      <c r="D206" s="3">
         <v>0.3</v>
       </c>
     </row>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1747F542-0DD7-4899-B6F6-6D4BF9D1B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4235DB2C-FF22-4C77-ABD3-DE00E6DDB3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41341,8 +41341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E143" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -44919,6 +44919,9 @@
       <c r="B134" s="76" t="s">
         <v>1793</v>
       </c>
+      <c r="C134" s="3">
+        <v>10000</v>
+      </c>
       <c r="E134" s="3" t="s">
         <v>1809</v>
       </c>
@@ -44926,6 +44929,9 @@
     <row r="135" spans="2:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="76" t="s">
         <v>1794</v>
+      </c>
+      <c r="C135" s="3">
+        <v>20000</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>1810</v>
@@ -45846,6 +45852,10 @@
         <v>27</v>
       </c>
       <c r="D201" s="3"/>
+      <c r="E201">
+        <f>3*3*2</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B202" s="3">
@@ -45917,7 +45927,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="209" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B209" s="81">
         <v>16000103</v>
       </c>
@@ -45927,8 +45937,14 @@
       <c r="D209" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="210" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="G209">
+        <v>1380</v>
+      </c>
+      <c r="H209">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B210" s="81">
         <v>16000104</v>
       </c>
@@ -45938,8 +45954,11 @@
       <c r="D210" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="211" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="G210">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B211" s="81">
         <v>16000105</v>
       </c>
@@ -45949,8 +45968,11 @@
       <c r="D211" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="212" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="G211">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B212" s="81">
         <v>16000106</v>
       </c>
@@ -45961,7 +45983,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="213" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B213" s="81">
         <v>16000107</v>
       </c>
@@ -45971,8 +45993,14 @@
       <c r="D213" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="214" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="G213">
+        <v>1400</v>
+      </c>
+      <c r="H213">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B214" s="81">
         <v>16000108</v>
       </c>
@@ -45983,7 +46011,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="215" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B215" s="81">
         <v>16000109</v>
       </c>
@@ -45994,7 +46022,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="216" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B216" s="81">
         <v>16000110</v>
       </c>
@@ -46005,7 +46033,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="217" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B217" s="81">
         <v>16000111</v>
       </c>
@@ -46016,7 +46044,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="218" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B218" s="81">
         <v>16000112</v>
       </c>
@@ -46027,7 +46055,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="219" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B219" s="81">
         <v>16000201</v>
       </c>
@@ -46038,7 +46066,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="220" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B220" s="81">
         <v>16000202</v>
       </c>
@@ -46049,7 +46077,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="221" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B221" s="81">
         <v>16000203</v>
       </c>
@@ -46060,7 +46088,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="222" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B222" s="81">
         <v>16000204</v>
       </c>
@@ -46071,7 +46099,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="81">
         <v>16000205</v>
       </c>
@@ -46082,7 +46110,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="224" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B224" s="81">
         <v>16000206</v>
       </c>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC6F07-618E-4BEE-B0F5-F0A4F3C69FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF8E948-16F8-4C10-AF0C-1ACF0C3778E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="2075">
   <si>
     <t>人物属性</t>
   </si>
@@ -6375,9 +6375,6 @@
     <t>单体伤害5秒眩晕</t>
   </si>
   <si>
-    <t>初入江湖</t>
-  </si>
-  <si>
     <t>文字</t>
   </si>
   <si>
@@ -6405,77 +6402,90 @@
     <t>战场</t>
   </si>
   <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
+  </si>
+  <si>
+    <t>首冲</t>
+  </si>
+  <si>
+    <t>绝世英豪</t>
+  </si>
+  <si>
+    <t>充值奖励</t>
+  </si>
+  <si>
+    <t>八荒雷动</t>
+  </si>
+  <si>
+    <t>九霄风云</t>
+  </si>
+  <si>
+    <t>免费签到30天</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>排行榜第一奖励</t>
+  </si>
+  <si>
+    <t>时效</t>
+  </si>
+  <si>
+    <t>天下无双</t>
+  </si>
+  <si>
+    <t>排行榜前五</t>
+  </si>
+  <si>
+    <t>宠物天梯第一奖励</t>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+  </si>
+  <si>
+    <t>成就特殊奖励</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>抽奖</t>
+  </si>
+  <si>
+    <t>拍卖行交易频繁</t>
+  </si>
+  <si>
+    <t>猎杀怪物数量</t>
+  </si>
+  <si>
+    <t>宠物技能很多的</t>
+  </si>
+  <si>
+    <t>30级</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>武林新丁</t>
+  </si>
+  <si>
     <t>勇者无敌</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>武林至尊</t>
-  </si>
-  <si>
-    <t>首冲</t>
-  </si>
-  <si>
-    <t>绝世英豪</t>
-  </si>
-  <si>
-    <t>充值奖励</t>
-  </si>
-  <si>
-    <t>八荒雷动</t>
-  </si>
-  <si>
-    <t>九霄风云</t>
-  </si>
-  <si>
-    <t>免费签到30天</t>
-  </si>
-  <si>
-    <t>名扬四海</t>
-  </si>
-  <si>
-    <t>排行榜第一奖励</t>
-  </si>
-  <si>
-    <t>时效</t>
-  </si>
-  <si>
-    <t>天下无双</t>
-  </si>
-  <si>
-    <t>排行榜前五</t>
-  </si>
-  <si>
-    <t>宠物天梯第一奖励</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刃横天</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>名震八方</t>
-  </si>
-  <si>
-    <t>世人笑我太疯癫</t>
-  </si>
-  <si>
-    <t>成就特殊奖励</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>抽奖</t>
-  </si>
-  <si>
-    <t>拍卖行交易频繁</t>
-  </si>
-  <si>
-    <t>猎杀怪物数量</t>
-  </si>
-  <si>
-    <t>宠物技能很多的</t>
-  </si>
-  <si>
-    <t>30级</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录第5天</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6485,7 +6495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6673,6 +6683,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6877,9 +6895,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7123,6 +7141,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8625,7 +8644,7 @@
     <row r="69" s="80" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="70" s="80" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9009,7 +9028,7 @@
     <row r="59" ht="20.100000000000001" customHeight="1"/>
     <row r="60" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -14903,7 +14922,7 @@
     <row r="99" spans="30:31" ht="20.100000000000001" customHeight="1"/>
     <row r="100" spans="30:31" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -18063,7 +18082,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -20549,7 +20568,7 @@
       <c r="N71" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -26957,7 +26976,7 @@
     <row r="199" ht="20.100000000000001" customHeight="1"/>
     <row r="200" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27823,7 +27842,7 @@
     <row r="44" spans="4:7" ht="20.100000000000001" customHeight="1"/>
     <row r="45" spans="4:7" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -27998,7 +28017,7 @@
     <row r="40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -38297,7 +38316,7 @@
       <c r="X154" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -38644,7 +38663,7 @@
     <row r="49" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="50" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -38652,10 +38671,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A3:F24"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38667,177 +38686,196 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F3" s="86" t="s">
         <v>2039</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>2052</v>
+        <v>2040</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>2042</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="E8" t="s">
         <v>2047</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>2071</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>2048</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>2049</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
         <v>2062</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="1" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>2065</v>
+      <c r="C19" s="1" t="s">
+        <v>2058</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2067</v>
+      <c r="E20" s="87" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="1" t="s">
-        <v>2068</v>
+      <c r="E21" s="87" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="1" t="s">
-        <v>2069</v>
+      <c r="A22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="1" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="1" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="E30" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>2055</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -40914,7 +40952,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41037,7 +41075,7 @@
     <row r="29" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="30" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43499,7 +43537,7 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K15:K17"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -44500,7 +44538,7 @@
     <row r="78" ht="20.100000000000001" customHeight="1"/>
     <row r="79" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -48184,7 +48222,7 @@
     <row r="79" spans="29:51" ht="20.100000000000001" customHeight="1"/>
     <row r="80" spans="29:51" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -53132,7 +53170,7 @@
     <row r="249" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="250" spans="2:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -57696,7 +57734,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -57742,7 +57780,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B6F94E-C0A9-4A7B-81CF-5862221E93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF9B6C5-B2D1-4E01-B22B-27171220B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6510,7 +6510,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -6524,6 +6524,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6531,6 +6532,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6538,6 +6540,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6546,6 +6549,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6553,24 +6557,28 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6579,6 +6587,7 @@
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6586,6 +6595,7 @@
       <sz val="10"/>
       <color rgb="FF515151"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6940,7 +6950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8648,7 +8658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -40957,7 +40967,7 @@
   <dimension ref="C1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BF6C2-8177-418B-809B-8538F7C58356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E254F-A69C-405E-8C75-BDCD21FB135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -6681,7 +6681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -7106,7 +7106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -41780,7 +41780,7 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58570,8 +58570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F11:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C1DC5-0D1C-414B-981B-5EC92A686A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F721D-D0C6-4034-9AE0-4F08CEC46715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58571,8 +58571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F721D-D0C6-4034-9AE0-4F08CEC46715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A37D3E-9AF6-442A-AD28-1286FFBB8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -9200,8 +9200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView topLeftCell="Z19" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9986,6 +9986,10 @@
       <c r="Y9" s="1">
         <v>1</v>
       </c>
+      <c r="Z9">
+        <f>Y9*50000</f>
+        <v>50000</v>
+      </c>
       <c r="AD9" s="1" t="s">
         <v>1322</v>
       </c>
@@ -10077,6 +10081,10 @@
       <c r="Y10" s="1">
         <v>2</v>
       </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z18" si="5">Y10*50000</f>
+        <v>100000</v>
+      </c>
       <c r="AD10" s="1" t="s">
         <v>1327</v>
       </c>
@@ -10152,6 +10160,10 @@
       <c r="Y11" s="1">
         <f>Y10*2</f>
         <v>4</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>200000</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>1333</v>
@@ -10222,8 +10234,12 @@
         <v>1337</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ref="Y12:Y18" si="5">Y11*2</f>
+        <f t="shared" ref="Y12:Y18" si="6">Y11*2</f>
         <v>8</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>400000</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>1338</v>
@@ -10293,8 +10309,12 @@
         <v>1343</v>
       </c>
       <c r="Y13" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>800000</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>1344</v>
@@ -10377,8 +10397,12 @@
         <v>1348</v>
       </c>
       <c r="Y14" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>1600000</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>1349</v>
@@ -10449,11 +10473,11 @@
         <v>20</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" ref="O15:P18" si="6">ROUND(O7,-1)</f>
+        <f t="shared" ref="O15:P18" si="7">ROUND(O7,-1)</f>
         <v>300</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="Q15" s="1">
@@ -10476,8 +10500,12 @@
         <v>1356</v>
       </c>
       <c r="Y15" s="1">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>3200000</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>1357</v>
@@ -10550,15 +10578,15 @@
         <v>30</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q18" si="7">ROUND(Q8,0)</f>
+        <f t="shared" ref="Q16:Q18" si="8">ROUND(Q8,0)</f>
         <v>12</v>
       </c>
       <c r="R16" s="1">
@@ -10577,8 +10605,12 @@
         <v>1361</v>
       </c>
       <c r="Y16" s="1">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>6400000</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>1362</v>
@@ -10651,15 +10683,15 @@
         <v>40</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="R17" s="1">
@@ -10679,8 +10711,12 @@
         <v>1366</v>
       </c>
       <c r="Y17" s="1">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>12800000</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>1367</v>
@@ -10753,15 +10789,15 @@
         <v>50</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>610</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="R18" s="1">
@@ -10781,8 +10817,12 @@
         <v>1371</v>
       </c>
       <c r="Y18" s="1">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="5"/>
-        <v>512</v>
+        <v>25600000</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>1372</v>
@@ -11036,21 +11076,21 @@
       <c r="U21" s="1"/>
       <c r="V21" s="3"/>
       <c r="W21" s="1" t="str">
-        <f t="shared" ref="W21:W29" si="8">"100403;"&amp;AB21</f>
+        <f t="shared" ref="W21:W29" si="9">"100403;"&amp;AB21</f>
         <v>100403;21</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="Y21" s="1" t="str">
-        <f t="shared" ref="Y21:Y29" si="9">"攻击+"&amp;AB21</f>
+        <f t="shared" ref="Y21:Y29" si="10">"攻击+"&amp;AB21</f>
         <v>攻击+21</v>
       </c>
       <c r="Z21" s="1">
         <v>15</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" ref="AA21:AA29" si="10">ROUND(Z21*1.5,0)</f>
+        <f t="shared" ref="AA21:AA29" si="11">ROUND(Z21*1.5,0)</f>
         <v>23</v>
       </c>
       <c r="AB21" s="1">
@@ -11129,7 +11169,7 @@
         <v>30</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ref="Q22:Q24" si="11">P22/2</f>
+        <f t="shared" ref="Q22:Q24" si="12">P22/2</f>
         <v>15</v>
       </c>
       <c r="R22" s="1"/>
@@ -11137,21 +11177,21 @@
       <c r="U22" s="1"/>
       <c r="V22" s="3"/>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;28</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>1385</v>
       </c>
       <c r="Y22" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+28</v>
       </c>
       <c r="Z22" s="1">
         <v>20</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="AB22" s="1">
@@ -11221,7 +11261,7 @@
         <v>40</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="R23" s="1"/>
@@ -11234,28 +11274,28 @@
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;36</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>1388</v>
       </c>
       <c r="Y23" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+36</v>
       </c>
       <c r="Z23" s="1">
         <v>25</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="AB23" s="1">
         <v>36</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" ref="AC23:AC28" si="12">AB23-AB22</f>
+        <f t="shared" ref="AC23:AC28" si="13">AB23-AB22</f>
         <v>8</v>
       </c>
       <c r="AD23" s="1" t="s">
@@ -11315,7 +11355,7 @@
         <v>50</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="R24" s="1"/>
@@ -11332,28 +11372,28 @@
         <v>1392</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;45</v>
       </c>
       <c r="X24" s="4" t="s">
         <v>1393</v>
       </c>
       <c r="Y24" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+45</v>
       </c>
       <c r="Z24" s="1">
         <v>30</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="AB24" s="1">
         <v>45</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AD24" s="1" t="s">
@@ -11418,28 +11458,28 @@
         <v>1396</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;60</v>
       </c>
       <c r="X25" s="4" t="s">
         <v>1397</v>
       </c>
       <c r="Y25" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+60</v>
       </c>
       <c r="Z25" s="1">
         <v>40</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AB25" s="1">
         <v>60</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AD25" s="1" t="s">
@@ -11508,28 +11548,28 @@
         <v>1401</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;75</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="Y26" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+75</v>
       </c>
       <c r="Z26" s="1">
         <v>50</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="AB26" s="1">
         <v>75</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AD26" s="1" t="s">
@@ -11613,28 +11653,28 @@
         <v>1410</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;90</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="Y27" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+90</v>
       </c>
       <c r="Z27" s="1">
         <v>60</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="AB27" s="1">
         <v>90</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AD27" s="1" t="s">
@@ -11714,28 +11754,28 @@
         <v>1417</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;105</v>
       </c>
       <c r="X28" s="4" t="s">
         <v>1418</v>
       </c>
       <c r="Y28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+105</v>
       </c>
       <c r="Z28" s="1">
         <v>70</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="AB28" s="1">
         <v>105</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AD28" s="1" t="s">
@@ -11815,21 +11855,21 @@
         <v>1424</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100403;120</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>1425</v>
       </c>
       <c r="Y29" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>攻击+120</v>
       </c>
       <c r="Z29" s="1">
         <v>80</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="AB29" s="1">
@@ -12034,11 +12074,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" ref="P32:Q32" si="13">P28*P$21</f>
+        <f t="shared" ref="P32:Q32" si="14">P28*P$21</f>
         <v>20</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R32" s="1"/>
@@ -12129,15 +12169,15 @@
         <v>1422</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" ref="O33:O34" si="14">ROUND(O29*O$21,-1)</f>
+        <f t="shared" ref="O33:O34" si="15">ROUND(O29*O$21,-1)</f>
         <v>40</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33:Q33" si="15">P29*P$21</f>
+        <f t="shared" ref="P33:Q33" si="16">P29*P$21</f>
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -12152,21 +12192,21 @@
         <v>1446</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f t="shared" ref="W33:W41" si="16">"100203;"&amp;AB33</f>
+        <f t="shared" ref="W33:W41" si="17">"100203;"&amp;AB33</f>
         <v>100203;225</v>
       </c>
       <c r="X33" s="4" t="s">
         <v>1447</v>
       </c>
       <c r="Y33" s="1" t="str">
-        <f t="shared" ref="Y33:Y41" si="17">"生命+"&amp;AB33</f>
+        <f t="shared" ref="Y33:Y41" si="18">"生命+"&amp;AB33</f>
         <v>生命+225</v>
       </c>
       <c r="Z33" s="1">
         <v>150</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" ref="AA33:AA41" si="18">Z33*1.5</f>
+        <f t="shared" ref="AA33:AA41" si="19">Z33*1.5</f>
         <v>225</v>
       </c>
       <c r="AB33" s="1">
@@ -12235,15 +12275,15 @@
         <v>1429</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:Q34" si="19">P30*P$21</f>
+        <f t="shared" ref="P34:Q34" si="20">P30*P$21</f>
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R34" s="1"/>
@@ -12258,21 +12298,21 @@
         <v>1452</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;300</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>1453</v>
       </c>
       <c r="Y34" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+300</v>
       </c>
       <c r="Z34" s="1">
         <v>200</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="AB34" s="1">
@@ -12357,21 +12397,21 @@
         <v>1459</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;375</v>
       </c>
       <c r="X35" s="4" t="s">
         <v>1460</v>
       </c>
       <c r="Y35" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+375</v>
       </c>
       <c r="Z35" s="1">
         <v>250</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>375</v>
       </c>
       <c r="AB35" s="1">
@@ -12394,7 +12434,7 @@
       </c>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="3" t="str">
-        <f t="shared" ref="AK35:AK41" si="20">"史诗:"&amp;AI35</f>
+        <f t="shared" ref="AK35:AK41" si="21">"史诗:"&amp;AI35</f>
         <v>史诗:防护之石</v>
       </c>
       <c r="AL35" s="5"/>
@@ -12447,34 +12487,34 @@
         <v>1415</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" ref="O36:Q36" si="21">O28*O$22</f>
+        <f t="shared" ref="O36:Q36" si="22">O28*O$22</f>
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R36" s="1"/>
       <c r="W36" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;450</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>1466</v>
       </c>
       <c r="Y36" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+450</v>
       </c>
       <c r="Z36" s="1">
         <v>300</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>450</v>
       </c>
       <c r="AB36" s="1">
@@ -12491,7 +12531,7 @@
       </c>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:时间之石</v>
       </c>
       <c r="AL36" s="5"/>
@@ -12542,34 +12582,34 @@
         <v>1422</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:Q37" si="22">O29*O$22</f>
+        <f t="shared" ref="O37:Q37" si="23">O29*O$22</f>
         <v>75</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="R37" s="1"/>
       <c r="W37" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;600</v>
       </c>
       <c r="X37" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="Y37" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+600</v>
       </c>
       <c r="Z37" s="1">
         <v>400</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>600</v>
       </c>
       <c r="AB37" s="1">
@@ -12592,7 +12632,7 @@
       </c>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:重生之石</v>
       </c>
       <c r="AL37" s="5"/>
@@ -12643,15 +12683,15 @@
         <v>1429</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" ref="O38:Q38" si="23">O30*O$22</f>
+        <f t="shared" ref="O38:Q38" si="24">O30*O$22</f>
         <v>225</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R38" s="1"/>
@@ -12664,21 +12704,21 @@
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;750</v>
       </c>
       <c r="X38" s="4" t="s">
         <v>1474</v>
       </c>
       <c r="Y38" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+750</v>
       </c>
       <c r="Z38" s="1">
         <v>500</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
       <c r="AB38" s="1">
@@ -12701,7 +12741,7 @@
       </c>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:魔天之石</v>
       </c>
       <c r="AL38" s="5"/>
@@ -12766,21 +12806,21 @@
         <v>1480</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;900</v>
       </c>
       <c r="X39" s="4" t="s">
         <v>1481</v>
       </c>
       <c r="Y39" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+900</v>
       </c>
       <c r="Z39" s="1">
         <v>600</v>
       </c>
       <c r="AA39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>900</v>
       </c>
       <c r="AB39" s="1">
@@ -12803,7 +12843,7 @@
       </c>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:天闪之石</v>
       </c>
       <c r="AL39" s="5"/>
@@ -12856,15 +12896,15 @@
         <v>1415</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40:Q40" si="24">O28*O$23</f>
+        <f t="shared" ref="O40:Q40" si="25">O28*O$23</f>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R40" s="1"/>
@@ -12879,21 +12919,21 @@
         <v>1488</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;1050</v>
       </c>
       <c r="X40" s="4" t="s">
         <v>1489</v>
       </c>
       <c r="Y40" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+1050</v>
       </c>
       <c r="Z40" s="1">
         <v>700</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1050</v>
       </c>
       <c r="AB40" s="1">
@@ -12916,7 +12956,7 @@
       </c>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:残月之石</v>
       </c>
       <c r="AL40" s="5"/>
@@ -12967,15 +13007,15 @@
         <v>1422</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" ref="O41:Q41" si="25">O29*O$23</f>
+        <f t="shared" ref="O41:Q41" si="26">O29*O$23</f>
         <v>112.5</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="R41" s="1"/>
@@ -12989,21 +13029,21 @@
         <v>1495</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100203;1200</v>
       </c>
       <c r="X41" s="4" t="s">
         <v>1496</v>
       </c>
       <c r="Y41" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>生命+1200</v>
       </c>
       <c r="Z41" s="1">
         <v>800</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1200</v>
       </c>
       <c r="AB41" s="1">
@@ -13026,7 +13066,7 @@
       </c>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>史诗:灭裂之石</v>
       </c>
       <c r="AL41" s="5"/>
@@ -13077,15 +13117,15 @@
         <v>1429</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" ref="O42:Q42" si="26">O30*O$23</f>
+        <f t="shared" ref="O42:Q42" si="27">O30*O$23</f>
         <v>337.5</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R42" s="1"/>
@@ -13248,15 +13288,15 @@
         <v>1415</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" ref="O44:Q44" si="27">O28*O$24</f>
+        <f t="shared" ref="O44:Q44" si="28">O28*O$24</f>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R44" s="1"/>
@@ -13270,21 +13310,21 @@
         <v>1511</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" ref="W44:W52" si="28">"100203;"&amp;AA44&amp;"@100603:"&amp;AC44</f>
+        <f t="shared" ref="W44:W52" si="29">"100203;"&amp;AA44&amp;"@100603:"&amp;AC44</f>
         <v>100203;113@100603:21</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="Y44" s="3" t="str">
-        <f t="shared" ref="Y44:Y52" si="29">"生命+"&amp;AA44&amp;"  物理防御+"&amp;AC44</f>
+        <f t="shared" ref="Y44:Y52" si="30">"生命+"&amp;AA44&amp;"  物理防御+"&amp;AC44</f>
         <v>生命+113  物理防御+21</v>
       </c>
       <c r="Z44" s="1">
         <v>75</v>
       </c>
       <c r="AA44" s="1">
-        <f t="shared" ref="AA44:AA52" si="30">ROUND(Z44*1.5,0)</f>
+        <f t="shared" ref="AA44:AA52" si="31">ROUND(Z44*1.5,0)</f>
         <v>113</v>
       </c>
       <c r="AB44" s="1">
@@ -13349,15 +13389,15 @@
         <v>1422</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" ref="O45:Q45" si="31">O29*O$24</f>
+        <f t="shared" ref="O45:Q45" si="32">O29*O$24</f>
         <v>150</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
       <c r="R45" s="1"/>
@@ -13371,21 +13411,21 @@
         <v>1515</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;150@100603:28</v>
       </c>
       <c r="X45" s="4" t="s">
         <v>1516</v>
       </c>
       <c r="Y45" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+150  物理防御+28</v>
       </c>
       <c r="Z45" s="1">
         <v>100</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="AB45" s="1">
@@ -13446,15 +13486,15 @@
         <v>1429</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" ref="O46:Q46" si="32">O30*O$24</f>
+        <f t="shared" ref="O46:Q46" si="33">O30*O$24</f>
         <v>450</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R46" s="1"/>
@@ -13468,21 +13508,21 @@
         <v>1518</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;188@100603:36</v>
       </c>
       <c r="X46" s="4" t="s">
         <v>1519</v>
       </c>
       <c r="Y46" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+188  物理防御+36</v>
       </c>
       <c r="Z46" s="1">
         <v>125</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>188</v>
       </c>
       <c r="AB46" s="1">
@@ -13554,21 +13594,21 @@
         <v>1522</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;225@100603:45</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="Y47" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+225  物理防御+45</v>
       </c>
       <c r="Z47" s="1">
         <v>150</v>
       </c>
       <c r="AA47" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>225</v>
       </c>
       <c r="AB47" s="1">
@@ -13635,21 +13675,21 @@
         <v>1527</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;300@100603:60</v>
       </c>
       <c r="X48" s="4" t="s">
         <v>1528</v>
       </c>
       <c r="Y48" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+300  物理防御+60</v>
       </c>
       <c r="Z48" s="1">
         <v>200</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>300</v>
       </c>
       <c r="AB48" s="1">
@@ -13712,15 +13752,15 @@
         <v>1415</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" ref="O49:Q49" si="33">O28*O$23</f>
+        <f t="shared" ref="O49:Q49" si="34">O28*O$23</f>
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R49" s="1"/>
@@ -13735,21 +13775,21 @@
         <v>1532</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;375@100603:75</v>
       </c>
       <c r="X49" s="4" t="s">
         <v>1533</v>
       </c>
       <c r="Y49" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+375  物理防御+75</v>
       </c>
       <c r="Z49" s="1">
         <v>250</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>375</v>
       </c>
       <c r="AB49" s="1">
@@ -13809,11 +13849,11 @@
         <v>120</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" ref="P50:P51" si="34">P29*P$23</f>
+        <f t="shared" ref="P50:P51" si="35">P29*P$23</f>
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" ref="Q50" si="35">Q29*Q$23</f>
+        <f t="shared" ref="Q50" si="36">Q29*Q$23</f>
         <v>20</v>
       </c>
       <c r="R50" s="1"/>
@@ -13827,21 +13867,21 @@
         <v>1536</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;450@100603:90</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>1537</v>
       </c>
       <c r="Y50" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+450  物理防御+90</v>
       </c>
       <c r="Z50" s="1">
         <v>300</v>
       </c>
       <c r="AA50" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>450</v>
       </c>
       <c r="AB50" s="1">
@@ -13904,30 +13944,30 @@
         <v>320</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" ref="Q51" si="36">Q30*Q$23</f>
+        <f t="shared" ref="Q51" si="37">Q30*Q$23</f>
         <v>0</v>
       </c>
       <c r="R51" s="1"/>
       <c r="W51" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;525@100603:105</v>
       </c>
       <c r="X51" s="4" t="s">
         <v>1540</v>
       </c>
       <c r="Y51" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+525  物理防御+105</v>
       </c>
       <c r="Z51" s="1">
         <v>350</v>
       </c>
       <c r="AA51" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>525</v>
       </c>
       <c r="AB51" s="1">
@@ -13984,21 +14024,21 @@
         <v>17</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100203;600@100603:120</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>1543</v>
       </c>
       <c r="Y52" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>生命+600  物理防御+120</v>
       </c>
       <c r="Z52" s="1">
         <v>400</v>
       </c>
       <c r="AA52" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>600</v>
       </c>
       <c r="AB52" s="1">
@@ -14203,21 +14243,21 @@
         <v>1553</v>
       </c>
       <c r="W55" s="1" t="str">
-        <f t="shared" ref="W55:W63" si="37">"100203;"&amp;AA55&amp;"@100803:"&amp;AC55</f>
+        <f t="shared" ref="W55:W63" si="38">"100203;"&amp;AA55&amp;"@100803:"&amp;AC55</f>
         <v>100203;113@100803:21</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="Y55" s="3" t="str">
-        <f t="shared" ref="Y55:Y63" si="38">"生命+"&amp;AA55&amp;"  魔法防御+"&amp;AC55</f>
+        <f t="shared" ref="Y55:Y63" si="39">"生命+"&amp;AA55&amp;"  魔法防御+"&amp;AC55</f>
         <v>生命+113  魔法防御+21</v>
       </c>
       <c r="Z55" s="1">
         <v>75</v>
       </c>
       <c r="AA55" s="1">
-        <f t="shared" ref="AA55:AA63" si="39">ROUND(Z55*1.5,0)</f>
+        <f t="shared" ref="AA55:AA63" si="40">ROUND(Z55*1.5,0)</f>
         <v>113</v>
       </c>
       <c r="AB55" s="1">
@@ -14283,21 +14323,21 @@
         <v>1558</v>
       </c>
       <c r="W56" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;150@100803:28</v>
       </c>
       <c r="X56" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="Y56" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+150  魔法防御+28</v>
       </c>
       <c r="Z56" s="1">
         <v>100</v>
       </c>
       <c r="AA56" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="AB56" s="1">
@@ -14363,21 +14403,21 @@
         <v>1562</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;188@100803:36</v>
       </c>
       <c r="X57" s="4" t="s">
         <v>1563</v>
       </c>
       <c r="Y57" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+188  魔法防御+36</v>
       </c>
       <c r="Z57" s="1">
         <v>125</v>
       </c>
       <c r="AA57" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>188</v>
       </c>
       <c r="AB57" s="1">
@@ -14443,21 +14483,21 @@
         <v>1567</v>
       </c>
       <c r="W58" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;225@100803:45</v>
       </c>
       <c r="X58" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="Y58" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+225  魔法防御+45</v>
       </c>
       <c r="Z58" s="1">
         <v>150</v>
       </c>
       <c r="AA58" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>225</v>
       </c>
       <c r="AB58" s="1">
@@ -14523,21 +14563,21 @@
         <v>1572</v>
       </c>
       <c r="W59" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;300@100803:60</v>
       </c>
       <c r="X59" s="4" t="s">
         <v>1573</v>
       </c>
       <c r="Y59" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+300  魔法防御+60</v>
       </c>
       <c r="Z59" s="1">
         <v>200</v>
       </c>
       <c r="AA59" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>300</v>
       </c>
       <c r="AB59" s="1">
@@ -14603,21 +14643,21 @@
         <v>1576</v>
       </c>
       <c r="W60" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;375@100803:75</v>
       </c>
       <c r="X60" s="4" t="s">
         <v>1577</v>
       </c>
       <c r="Y60" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+375  魔法防御+75</v>
       </c>
       <c r="Z60" s="1">
         <v>250</v>
       </c>
       <c r="AA60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>375</v>
       </c>
       <c r="AB60" s="1">
@@ -14683,21 +14723,21 @@
         <v>1580</v>
       </c>
       <c r="W61" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;450@100803:90</v>
       </c>
       <c r="X61" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="Y61" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+450  魔法防御+90</v>
       </c>
       <c r="Z61" s="1">
         <v>300</v>
       </c>
       <c r="AA61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>450</v>
       </c>
       <c r="AB61" s="1">
@@ -14724,21 +14764,21 @@
         <v>1584</v>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;525@100803:105</v>
       </c>
       <c r="X62" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="Y62" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+525  魔法防御+105</v>
       </c>
       <c r="Z62" s="1">
         <v>350</v>
       </c>
       <c r="AA62" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>525</v>
       </c>
       <c r="AB62" s="1">
@@ -14766,21 +14806,21 @@
         <v>1589</v>
       </c>
       <c r="W63" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>100203;600@100803:120</v>
       </c>
       <c r="X63" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="Y63" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>生命+600  魔法防御+120</v>
       </c>
       <c r="Z63" s="1">
         <v>400</v>
       </c>
       <c r="AA63" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>600</v>
       </c>
       <c r="AB63" s="1">
@@ -58571,8 +58611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F6DC7-8C31-4367-8DFC-D4D121576FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F783F4-0CBC-4C78-8AAC-1E3C1B7F30D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6085,637 +6085,638 @@
     <t>技能宝石</t>
   </si>
   <si>
+    <t>索引系数</t>
+  </si>
+  <si>
+    <t>怪物等级</t>
+  </si>
+  <si>
+    <t>递增系数</t>
+  </si>
+  <si>
+    <t>怪物名称</t>
+  </si>
+  <si>
+    <t>副本血量系数</t>
+  </si>
+  <si>
+    <t>副本属性系数</t>
+  </si>
+  <si>
+    <t>副本怪物</t>
+  </si>
+  <si>
+    <t>狼人宝宝</t>
+  </si>
+  <si>
+    <t>森林野狼</t>
+  </si>
+  <si>
+    <t>野狼先锋</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>紫蝙蝠</t>
+  </si>
+  <si>
+    <t>黑夜蝙蝠</t>
+  </si>
+  <si>
+    <t>小蝙蝠</t>
+  </si>
+  <si>
+    <t>矿鼠先锋</t>
+  </si>
+  <si>
+    <t>蝙蝠王</t>
+  </si>
+  <si>
+    <t>红玉蜘蛛</t>
+  </si>
+  <si>
+    <t>野狼头领</t>
+  </si>
+  <si>
+    <t>森林护卫</t>
+  </si>
+  <si>
+    <t>森林之王</t>
+  </si>
+  <si>
+    <t>地下护卫</t>
+  </si>
+  <si>
+    <t>地下刺客</t>
+  </si>
+  <si>
+    <t>地下盗贼</t>
+  </si>
+  <si>
+    <t>地下士兵</t>
+  </si>
+  <si>
+    <t>地下弓箭手</t>
+  </si>
+  <si>
+    <t>地下教主</t>
+  </si>
+  <si>
+    <t>洞穴魔怪</t>
+  </si>
+  <si>
+    <t>洞穴护卫</t>
+  </si>
+  <si>
+    <t>石墓领主</t>
+  </si>
+  <si>
+    <t>沙漠蟹将</t>
+  </si>
+  <si>
+    <t>沙漠鳄鱼</t>
+  </si>
+  <si>
+    <t>螃蟹将军</t>
+  </si>
+  <si>
+    <t>绷带士兵</t>
+  </si>
+  <si>
+    <t>蝙蝠守卫</t>
+  </si>
+  <si>
+    <t>沙漠女王—孵化</t>
+  </si>
+  <si>
+    <t>沙漠女王</t>
+  </si>
+  <si>
+    <t>地牢守护者</t>
+  </si>
+  <si>
+    <t>地牢地精</t>
+  </si>
+  <si>
+    <t>地牢地精头领</t>
+  </si>
+  <si>
+    <t>地牢魔怪</t>
+  </si>
+  <si>
+    <t>地牢领主</t>
+  </si>
+  <si>
+    <t>冰雪野狼</t>
+  </si>
+  <si>
+    <t>冰雪蜘蛛</t>
+  </si>
+  <si>
+    <t>冰雪狼王</t>
+  </si>
+  <si>
+    <t>冰精灵</t>
+  </si>
+  <si>
+    <t>水精灵</t>
+  </si>
+  <si>
+    <t>冰封守护者-艾瑞达</t>
+  </si>
+  <si>
+    <t>千针野狼</t>
+  </si>
+  <si>
+    <t>千针蜘蛛</t>
+  </si>
+  <si>
+    <t>冰宫野狼</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>冰宫蜘蛛</t>
+  </si>
+  <si>
+    <t>白熊战士</t>
+  </si>
+  <si>
+    <t>冰封守护者-艾瑞克</t>
+  </si>
+  <si>
+    <t>62000101,62000102,62000103</t>
+  </si>
+  <si>
+    <t>白熊守卫</t>
+  </si>
+  <si>
+    <t>冰精灵守卫</t>
+  </si>
+  <si>
+    <t>水精灵守卫</t>
+  </si>
+  <si>
+    <t>61000005</t>
+  </si>
+  <si>
+    <t>冰封魔王-阿兹里斯</t>
+  </si>
+  <si>
+    <t>树怪</t>
+  </si>
+  <si>
+    <t>62000201,62000202,62000203</t>
+  </si>
+  <si>
+    <t>巨魔首领-卡特</t>
+  </si>
+  <si>
+    <t>精英树怪</t>
+  </si>
+  <si>
+    <t>精英白熊守卫</t>
+  </si>
+  <si>
+    <t>62000301,62000302,62000303,62000304</t>
+  </si>
+  <si>
+    <t>黑暗操纵者-萨洛</t>
+  </si>
+  <si>
+    <t>矿洞卫兵</t>
+  </si>
+  <si>
+    <t>矿洞蝙蝠</t>
+  </si>
+  <si>
+    <t>巨鼠矿工</t>
+  </si>
+  <si>
+    <t>虚幻者-雷洛</t>
+  </si>
+  <si>
+    <t>60020002</t>
+  </si>
+  <si>
+    <t>巨石岩怪</t>
+  </si>
+  <si>
+    <t>62000401,62000402,62000403,62000404</t>
+  </si>
+  <si>
+    <t>峡谷石怪</t>
+  </si>
+  <si>
+    <t>裂石领主-艾力克斯</t>
+  </si>
+  <si>
+    <t>火地龙</t>
+  </si>
+  <si>
+    <t>62000501,62000503,62000504,62000505</t>
+  </si>
+  <si>
+    <t>熔岩法师</t>
+  </si>
+  <si>
+    <t>熔岩操纵者-克斯</t>
+  </si>
+  <si>
+    <t>守护领主</t>
+  </si>
+  <si>
+    <t>62001101,62001102</t>
+  </si>
+  <si>
+    <t>熔岩蝙蝠</t>
+  </si>
+  <si>
+    <t>炙热地龙</t>
+  </si>
+  <si>
+    <t>巡逻卫兵</t>
+  </si>
+  <si>
+    <t>62001201,62001202,62001203</t>
+  </si>
+  <si>
+    <t>上古守护</t>
+  </si>
+  <si>
+    <t>62001204,62001205,62001206,62001207,62001208</t>
+  </si>
+  <si>
+    <t>灼烧法师</t>
+  </si>
+  <si>
+    <t>BOSS血量系数</t>
+  </si>
+  <si>
+    <t>BOSS属性系数</t>
+  </si>
+  <si>
+    <t>黑暗巨锤领主</t>
+  </si>
+  <si>
+    <t>邪恶博士-埃克</t>
+  </si>
+  <si>
+    <t>黑暗魔王-卡利兹</t>
+  </si>
+  <si>
+    <t>62001301,62001302,62001303,62001304,62001305</t>
+  </si>
+  <si>
+    <t>62002001,62002002,62002003</t>
+  </si>
+  <si>
+    <t>62002101,62002102,62002103,62002104</t>
+  </si>
+  <si>
+    <t>62002201,62002202,62002203,62002204,62002205,62002206,62002207,62002208,62002209,62002210,62002211,62002212,62002213</t>
+  </si>
+  <si>
+    <t>62002301,62002302,62002303,62002304</t>
+  </si>
+  <si>
+    <t>62003001,62003002,62003003,62003004</t>
+  </si>
+  <si>
+    <t>62003101,62003102,62003103,62003105</t>
+  </si>
+  <si>
+    <t>62003201,62003202,62003203,62003204</t>
+  </si>
+  <si>
+    <t>62003301,62003302,62003303,62003304,62003305,62003306</t>
+  </si>
+  <si>
+    <t>60020002,62004001,62004002,62004003,62004004,62004005</t>
+  </si>
+  <si>
+    <t>62004101,62004102,62004103,62004104</t>
+  </si>
+  <si>
+    <t>62004302,62004303,62004304,62004305,62004307,62004308,62004309,62004310</t>
+  </si>
+  <si>
+    <t>62004401,62004402,62004403,62004404,62004405,62004406,62004407,62004408,62004409,62004410</t>
+  </si>
+  <si>
+    <t>护卫将军领主</t>
+  </si>
+  <si>
+    <t>巨大史莱姆</t>
+  </si>
+  <si>
+    <t>寒冰魔导师</t>
+  </si>
+  <si>
+    <t>邪恶之树</t>
+  </si>
+  <si>
+    <t>史莱姆分身</t>
+  </si>
+  <si>
+    <t>点名冲锋眩晕</t>
+  </si>
+  <si>
+    <t>每10秒对当前对方单位立即造成一次300%攻击的伤害</t>
+  </si>
+  <si>
+    <t>史莱姆自爆</t>
+  </si>
+  <si>
+    <t>随机几个区域释放雷击</t>
+  </si>
+  <si>
+    <t>召唤邪恶树妖协助自己攻击,树妖拥有高级属性,普通攻击</t>
+  </si>
+  <si>
+    <t>毒水</t>
+  </si>
+  <si>
+    <t>定时旋风斩</t>
+  </si>
+  <si>
+    <t>自身大范围伤害</t>
+  </si>
+  <si>
+    <t>每次攻击5%概率触发,对目标立即造成200%伤害,并眩晕目标3秒</t>
+  </si>
+  <si>
+    <t>大暗魔法师领主</t>
+  </si>
+  <si>
+    <t>石人领主</t>
+  </si>
+  <si>
+    <t>寒冰树王</t>
+  </si>
+  <si>
+    <t>邪恶勇士领主</t>
+  </si>
+  <si>
+    <t>周围4方向攻击技能</t>
+  </si>
+  <si>
+    <t>copy巨石领主的技能</t>
+  </si>
+  <si>
+    <t>所有人持续跑动技能</t>
+  </si>
+  <si>
+    <t>指向性冲锋</t>
+  </si>
+  <si>
+    <t>永久地圈</t>
+  </si>
+  <si>
+    <t>冰裂</t>
+  </si>
+  <si>
+    <t>随机指向一名玩家,不断的损失当前生命的10%,持续10秒</t>
+  </si>
+  <si>
+    <t>随机大范围火</t>
+  </si>
+  <si>
+    <t>自身大范围AOE</t>
+  </si>
+  <si>
+    <t>群体大范围魔法</t>
+  </si>
+  <si>
+    <t>召唤远程怪</t>
+  </si>
+  <si>
+    <t>2秒前方区域释放冰裂斩</t>
+  </si>
+  <si>
+    <t>目标3人释放毒水</t>
+  </si>
+  <si>
+    <t>远程怪放火</t>
+  </si>
+  <si>
+    <t>天怒将军领主</t>
+  </si>
+  <si>
+    <t>黑暗巫师</t>
+  </si>
+  <si>
+    <t>不移动的BOSS</t>
+  </si>
+  <si>
+    <t>寒冰之王领主</t>
+  </si>
+  <si>
+    <t>火焰之王领主</t>
+  </si>
+  <si>
+    <t>火冲</t>
+  </si>
+  <si>
+    <t>自身4方向冲击波</t>
+  </si>
+  <si>
+    <t>旋转喷吐</t>
+  </si>
+  <si>
+    <t>给敌方全部人释放连续跑动</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>召唤冰花</t>
+  </si>
+  <si>
+    <t>冰花具有远程攻击,并且释放冰球移动</t>
+  </si>
+  <si>
+    <t>周围6方向攻击技能</t>
+  </si>
+  <si>
+    <t>召唤大军</t>
+  </si>
+  <si>
+    <t>永久3火圈</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>随机指向一个人,使其不能移动</t>
+  </si>
+  <si>
+    <t>前方区域喷吐火焰</t>
+  </si>
+  <si>
+    <t>顺发裂地</t>
+  </si>
+  <si>
+    <t>恢复生命</t>
+  </si>
+  <si>
+    <t>目标大范围AOE</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>给前方区域人员附加,每秒损失当前生命的10%,持续10秒累加</t>
+  </si>
+  <si>
+    <t>攻击加成</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+  </si>
+  <si>
+    <t>周围移动速度逐渐降低</t>
+  </si>
+  <si>
+    <t>单体伤害5秒眩晕</t>
+  </si>
+  <si>
+    <t>武林新丁</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>60级</t>
+  </si>
+  <si>
+    <t>无名之辈</t>
+  </si>
+  <si>
+    <t>首冲</t>
+  </si>
+  <si>
+    <t>绝世英豪</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>武林俊杰</t>
+  </si>
+  <si>
+    <t>红尘本无道</t>
+  </si>
+  <si>
+    <t>战场</t>
+  </si>
+  <si>
+    <t>时效</t>
+  </si>
+  <si>
+    <t>勇者无敌</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
+  </si>
+  <si>
+    <t>98令牌</t>
+  </si>
+  <si>
+    <t>独孤求败</t>
+  </si>
+  <si>
+    <t>充值奖励</t>
+  </si>
+  <si>
+    <t>九霄风云</t>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+  </si>
+  <si>
+    <t>排行榜第一奖励</t>
+  </si>
+  <si>
+    <t>排行榜前五</t>
+  </si>
+  <si>
+    <t>宠物天梯第一奖励</t>
+  </si>
+  <si>
+    <t>一刃横天</t>
+  </si>
+  <si>
+    <t>名震八方</t>
+  </si>
+  <si>
+    <t>成就特殊奖励</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>抽奖</t>
+  </si>
+  <si>
+    <t>拍卖行交易频繁</t>
+  </si>
+  <si>
+    <t>猎杀怪物数量</t>
+  </si>
+  <si>
+    <t>宠物技能很多的</t>
+  </si>
+  <si>
+    <t>登录第5天</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>天下无双</t>
+  </si>
+  <si>
+    <t>八荒雷动</t>
+  </si>
+  <si>
+    <t>免费签到30天</t>
+  </si>
+  <si>
+    <t>亿</t>
+  </si>
+  <si>
+    <t>递增</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>回收经验</t>
+  </si>
+  <si>
+    <t>普通材料</t>
+  </si>
+  <si>
+    <t>稀有材料1</t>
+  </si>
+  <si>
+    <t>稀有材料2</t>
+  </si>
+  <si>
+    <t>上下浮20%</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击时有概率….</t>
-  </si>
-  <si>
-    <t>索引系数</t>
-  </si>
-  <si>
-    <t>怪物等级</t>
-  </si>
-  <si>
-    <t>递增系数</t>
-  </si>
-  <si>
-    <t>怪物名称</t>
-  </si>
-  <si>
-    <t>副本血量系数</t>
-  </si>
-  <si>
-    <t>副本属性系数</t>
-  </si>
-  <si>
-    <t>副本怪物</t>
-  </si>
-  <si>
-    <t>狼人宝宝</t>
-  </si>
-  <si>
-    <t>森林野狼</t>
-  </si>
-  <si>
-    <t>野狼先锋</t>
-  </si>
-  <si>
-    <t>狼王</t>
-  </si>
-  <si>
-    <t>紫蝙蝠</t>
-  </si>
-  <si>
-    <t>黑夜蝙蝠</t>
-  </si>
-  <si>
-    <t>小蝙蝠</t>
-  </si>
-  <si>
-    <t>矿鼠先锋</t>
-  </si>
-  <si>
-    <t>蝙蝠王</t>
-  </si>
-  <si>
-    <t>红玉蜘蛛</t>
-  </si>
-  <si>
-    <t>野狼头领</t>
-  </si>
-  <si>
-    <t>森林护卫</t>
-  </si>
-  <si>
-    <t>森林之王</t>
-  </si>
-  <si>
-    <t>地下护卫</t>
-  </si>
-  <si>
-    <t>地下刺客</t>
-  </si>
-  <si>
-    <t>地下盗贼</t>
-  </si>
-  <si>
-    <t>地下士兵</t>
-  </si>
-  <si>
-    <t>地下弓箭手</t>
-  </si>
-  <si>
-    <t>地下教主</t>
-  </si>
-  <si>
-    <t>洞穴魔怪</t>
-  </si>
-  <si>
-    <t>洞穴护卫</t>
-  </si>
-  <si>
-    <t>石墓领主</t>
-  </si>
-  <si>
-    <t>沙漠蟹将</t>
-  </si>
-  <si>
-    <t>沙漠鳄鱼</t>
-  </si>
-  <si>
-    <t>螃蟹将军</t>
-  </si>
-  <si>
-    <t>绷带士兵</t>
-  </si>
-  <si>
-    <t>蝙蝠守卫</t>
-  </si>
-  <si>
-    <t>沙漠女王—孵化</t>
-  </si>
-  <si>
-    <t>沙漠女王</t>
-  </si>
-  <si>
-    <t>地牢守护者</t>
-  </si>
-  <si>
-    <t>地牢地精</t>
-  </si>
-  <si>
-    <t>地牢地精头领</t>
-  </si>
-  <si>
-    <t>地牢魔怪</t>
-  </si>
-  <si>
-    <t>地牢领主</t>
-  </si>
-  <si>
-    <t>冰雪野狼</t>
-  </si>
-  <si>
-    <t>冰雪蜘蛛</t>
-  </si>
-  <si>
-    <t>冰雪狼王</t>
-  </si>
-  <si>
-    <t>冰精灵</t>
-  </si>
-  <si>
-    <t>水精灵</t>
-  </si>
-  <si>
-    <t>冰封守护者-艾瑞达</t>
-  </si>
-  <si>
-    <t>千针野狼</t>
-  </si>
-  <si>
-    <t>千针蜘蛛</t>
-  </si>
-  <si>
-    <t>冰宫野狼</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>冰宫蜘蛛</t>
-  </si>
-  <si>
-    <t>白熊战士</t>
-  </si>
-  <si>
-    <t>冰封守护者-艾瑞克</t>
-  </si>
-  <si>
-    <t>62000101,62000102,62000103</t>
-  </si>
-  <si>
-    <t>白熊守卫</t>
-  </si>
-  <si>
-    <t>冰精灵守卫</t>
-  </si>
-  <si>
-    <t>水精灵守卫</t>
-  </si>
-  <si>
-    <t>61000005</t>
-  </si>
-  <si>
-    <t>冰封魔王-阿兹里斯</t>
-  </si>
-  <si>
-    <t>树怪</t>
-  </si>
-  <si>
-    <t>62000201,62000202,62000203</t>
-  </si>
-  <si>
-    <t>巨魔首领-卡特</t>
-  </si>
-  <si>
-    <t>精英树怪</t>
-  </si>
-  <si>
-    <t>精英白熊守卫</t>
-  </si>
-  <si>
-    <t>62000301,62000302,62000303,62000304</t>
-  </si>
-  <si>
-    <t>黑暗操纵者-萨洛</t>
-  </si>
-  <si>
-    <t>矿洞卫兵</t>
-  </si>
-  <si>
-    <t>矿洞蝙蝠</t>
-  </si>
-  <si>
-    <t>巨鼠矿工</t>
-  </si>
-  <si>
-    <t>虚幻者-雷洛</t>
-  </si>
-  <si>
-    <t>60020002</t>
-  </si>
-  <si>
-    <t>巨石岩怪</t>
-  </si>
-  <si>
-    <t>62000401,62000402,62000403,62000404</t>
-  </si>
-  <si>
-    <t>峡谷石怪</t>
-  </si>
-  <si>
-    <t>裂石领主-艾力克斯</t>
-  </si>
-  <si>
-    <t>火地龙</t>
-  </si>
-  <si>
-    <t>62000501,62000503,62000504,62000505</t>
-  </si>
-  <si>
-    <t>熔岩法师</t>
-  </si>
-  <si>
-    <t>熔岩操纵者-克斯</t>
-  </si>
-  <si>
-    <t>守护领主</t>
-  </si>
-  <si>
-    <t>62001101,62001102</t>
-  </si>
-  <si>
-    <t>熔岩蝙蝠</t>
-  </si>
-  <si>
-    <t>炙热地龙</t>
-  </si>
-  <si>
-    <t>巡逻卫兵</t>
-  </si>
-  <si>
-    <t>62001201,62001202,62001203</t>
-  </si>
-  <si>
-    <t>上古守护</t>
-  </si>
-  <si>
-    <t>62001204,62001205,62001206,62001207,62001208</t>
-  </si>
-  <si>
-    <t>灼烧法师</t>
-  </si>
-  <si>
-    <t>BOSS血量系数</t>
-  </si>
-  <si>
-    <t>BOSS属性系数</t>
-  </si>
-  <si>
-    <t>黑暗巨锤领主</t>
-  </si>
-  <si>
-    <t>邪恶博士-埃克</t>
-  </si>
-  <si>
-    <t>黑暗魔王-卡利兹</t>
-  </si>
-  <si>
-    <t>62001301,62001302,62001303,62001304,62001305</t>
-  </si>
-  <si>
-    <t>62002001,62002002,62002003</t>
-  </si>
-  <si>
-    <t>62002101,62002102,62002103,62002104</t>
-  </si>
-  <si>
-    <t>62002201,62002202,62002203,62002204,62002205,62002206,62002207,62002208,62002209,62002210,62002211,62002212,62002213</t>
-  </si>
-  <si>
-    <t>62002301,62002302,62002303,62002304</t>
-  </si>
-  <si>
-    <t>62003001,62003002,62003003,62003004</t>
-  </si>
-  <si>
-    <t>62003101,62003102,62003103,62003105</t>
-  </si>
-  <si>
-    <t>62003201,62003202,62003203,62003204</t>
-  </si>
-  <si>
-    <t>62003301,62003302,62003303,62003304,62003305,62003306</t>
-  </si>
-  <si>
-    <t>60020002,62004001,62004002,62004003,62004004,62004005</t>
-  </si>
-  <si>
-    <t>62004101,62004102,62004103,62004104</t>
-  </si>
-  <si>
-    <t>62004302,62004303,62004304,62004305,62004307,62004308,62004309,62004310</t>
-  </si>
-  <si>
-    <t>62004401,62004402,62004403,62004404,62004405,62004406,62004407,62004408,62004409,62004410</t>
-  </si>
-  <si>
-    <t>护卫将军领主</t>
-  </si>
-  <si>
-    <t>巨大史莱姆</t>
-  </si>
-  <si>
-    <t>寒冰魔导师</t>
-  </si>
-  <si>
-    <t>邪恶之树</t>
-  </si>
-  <si>
-    <t>史莱姆分身</t>
-  </si>
-  <si>
-    <t>点名冲锋眩晕</t>
-  </si>
-  <si>
-    <t>每10秒对当前对方单位立即造成一次300%攻击的伤害</t>
-  </si>
-  <si>
-    <t>史莱姆自爆</t>
-  </si>
-  <si>
-    <t>随机几个区域释放雷击</t>
-  </si>
-  <si>
-    <t>召唤邪恶树妖协助自己攻击,树妖拥有高级属性,普通攻击</t>
-  </si>
-  <si>
-    <t>毒水</t>
-  </si>
-  <si>
-    <t>定时旋风斩</t>
-  </si>
-  <si>
-    <t>自身大范围伤害</t>
-  </si>
-  <si>
-    <t>每次攻击5%概率触发,对目标立即造成200%伤害,并眩晕目标3秒</t>
-  </si>
-  <si>
-    <t>大暗魔法师领主</t>
-  </si>
-  <si>
-    <t>石人领主</t>
-  </si>
-  <si>
-    <t>寒冰树王</t>
-  </si>
-  <si>
-    <t>邪恶勇士领主</t>
-  </si>
-  <si>
-    <t>周围4方向攻击技能</t>
-  </si>
-  <si>
-    <t>copy巨石领主的技能</t>
-  </si>
-  <si>
-    <t>所有人持续跑动技能</t>
-  </si>
-  <si>
-    <t>指向性冲锋</t>
-  </si>
-  <si>
-    <t>永久地圈</t>
-  </si>
-  <si>
-    <t>冰裂</t>
-  </si>
-  <si>
-    <t>随机指向一名玩家,不断的损失当前生命的10%,持续10秒</t>
-  </si>
-  <si>
-    <t>随机大范围火</t>
-  </si>
-  <si>
-    <t>自身大范围AOE</t>
-  </si>
-  <si>
-    <t>群体大范围魔法</t>
-  </si>
-  <si>
-    <t>召唤远程怪</t>
-  </si>
-  <si>
-    <t>2秒前方区域释放冰裂斩</t>
-  </si>
-  <si>
-    <t>目标3人释放毒水</t>
-  </si>
-  <si>
-    <t>远程怪放火</t>
-  </si>
-  <si>
-    <t>天怒将军领主</t>
-  </si>
-  <si>
-    <t>黑暗巫师</t>
-  </si>
-  <si>
-    <t>不移动的BOSS</t>
-  </si>
-  <si>
-    <t>寒冰之王领主</t>
-  </si>
-  <si>
-    <t>火焰之王领主</t>
-  </si>
-  <si>
-    <t>火冲</t>
-  </si>
-  <si>
-    <t>自身4方向冲击波</t>
-  </si>
-  <si>
-    <t>旋转喷吐</t>
-  </si>
-  <si>
-    <t>给敌方全部人释放连续跑动</t>
-  </si>
-  <si>
-    <t>冲锋</t>
-  </si>
-  <si>
-    <t>召唤冰花</t>
-  </si>
-  <si>
-    <t>冰花具有远程攻击,并且释放冰球移动</t>
-  </si>
-  <si>
-    <t>周围6方向攻击技能</t>
-  </si>
-  <si>
-    <t>召唤大军</t>
-  </si>
-  <si>
-    <t>永久3火圈</t>
-  </si>
-  <si>
-    <t>禁锢</t>
-  </si>
-  <si>
-    <t>随机指向一个人,使其不能移动</t>
-  </si>
-  <si>
-    <t>前方区域喷吐火焰</t>
-  </si>
-  <si>
-    <t>顺发裂地</t>
-  </si>
-  <si>
-    <t>恢复生命</t>
-  </si>
-  <si>
-    <t>目标大范围AOE</t>
-  </si>
-  <si>
-    <t>灼烧</t>
-  </si>
-  <si>
-    <t>给前方区域人员附加,每秒损失当前生命的10%,持续10秒累加</t>
-  </si>
-  <si>
-    <t>攻击加成</t>
-  </si>
-  <si>
-    <t>狂暴</t>
-  </si>
-  <si>
-    <t>周围移动速度逐渐降低</t>
-  </si>
-  <si>
-    <t>单体伤害5秒眩晕</t>
-  </si>
-  <si>
-    <t>武林新丁</t>
-  </si>
-  <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>60级</t>
-  </si>
-  <si>
-    <t>无名之辈</t>
-  </si>
-  <si>
-    <t>首冲</t>
-  </si>
-  <si>
-    <t>绝世英豪</t>
-  </si>
-  <si>
-    <t>成就</t>
-  </si>
-  <si>
-    <t>武林俊杰</t>
-  </si>
-  <si>
-    <t>红尘本无道</t>
-  </si>
-  <si>
-    <t>战场</t>
-  </si>
-  <si>
-    <t>时效</t>
-  </si>
-  <si>
-    <t>勇者无敌</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>武林至尊</t>
-  </si>
-  <si>
-    <t>98令牌</t>
-  </si>
-  <si>
-    <t>独孤求败</t>
-  </si>
-  <si>
-    <t>充值奖励</t>
-  </si>
-  <si>
-    <t>九霄风云</t>
-  </si>
-  <si>
-    <t>世人笑我太疯癫</t>
-  </si>
-  <si>
-    <t>排行榜第一奖励</t>
-  </si>
-  <si>
-    <t>排行榜前五</t>
-  </si>
-  <si>
-    <t>宠物天梯第一奖励</t>
-  </si>
-  <si>
-    <t>一刃横天</t>
-  </si>
-  <si>
-    <t>名震八方</t>
-  </si>
-  <si>
-    <t>成就特殊奖励</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>抽奖</t>
-  </si>
-  <si>
-    <t>拍卖行交易频繁</t>
-  </si>
-  <si>
-    <t>猎杀怪物数量</t>
-  </si>
-  <si>
-    <t>宠物技能很多的</t>
-  </si>
-  <si>
-    <t>登录第5天</t>
-  </si>
-  <si>
-    <t>名扬四海</t>
-  </si>
-  <si>
-    <t>天下无双</t>
-  </si>
-  <si>
-    <t>八荒雷动</t>
-  </si>
-  <si>
-    <t>免费签到30天</t>
-  </si>
-  <si>
-    <t>亿</t>
-  </si>
-  <si>
-    <t>递增</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>回收经验</t>
-  </si>
-  <si>
-    <t>普通材料</t>
-  </si>
-  <si>
-    <t>稀有材料1</t>
-  </si>
-  <si>
-    <t>稀有材料2</t>
-  </si>
-  <si>
-    <t>上下浮20%</t>
-  </si>
-  <si>
-    <t>属性</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -7104,7 +7105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7351,6 +7352,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28102,8 +28106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:P16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28221,7 +28225,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="86" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="15" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -28232,8 +28236,8 @@
         <v>10000</v>
       </c>
       <c r="P15" s="1">
-        <f>(O15-2000)*0.3/M15</f>
-        <v>0.10212765957446808</v>
+        <f>(O15-2000)*0.2/M15</f>
+        <v>6.8085106382978725E-2</v>
       </c>
     </row>
     <row r="16" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -28241,8 +28245,8 @@
         <v>4000</v>
       </c>
       <c r="P16" s="1">
-        <f>O16*0.2/M15</f>
-        <v>3.4042553191489362E-2</v>
+        <f>(O16-2000)*0.2/32500</f>
+        <v>1.2307692307692308E-2</v>
       </c>
     </row>
     <row r="17" spans="8:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -28268,8 +28272,8 @@
       <c r="H25" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>1942</v>
+      <c r="J25" s="87" t="s">
+        <v>2152</v>
       </c>
     </row>
     <row r="26" spans="8:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -28313,13 +28317,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1943</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1944</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1945</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>26</v>
@@ -28341,10 +28345,10 @@
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>1919</v>
@@ -28365,13 +28369,13 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>1949</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1919</v>
@@ -28428,7 +28432,7 @@
         <v>101</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="S2" s="1">
         <v>1</v>
@@ -28525,7 +28529,7 @@
         <v>102</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -28622,7 +28626,7 @@
         <v>103</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -28719,7 +28723,7 @@
         <v>303</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="S5" s="1">
         <v>3</v>
@@ -28816,7 +28820,7 @@
         <v>104</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -28913,7 +28917,7 @@
         <v>104</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
@@ -29010,7 +29014,7 @@
         <v>104</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -29107,7 +29111,7 @@
         <v>104</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
@@ -29204,7 +29208,7 @@
         <v>305</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="S10" s="1">
         <v>3</v>
@@ -29301,7 +29305,7 @@
         <v>107</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -29398,7 +29402,7 @@
         <v>107</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
@@ -29495,7 +29499,7 @@
         <v>108</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="S13" s="1">
         <v>1</v>
@@ -29592,7 +29596,7 @@
         <v>310</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="S14" s="1">
         <v>3</v>
@@ -29689,7 +29693,7 @@
         <v>110</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
@@ -29786,7 +29790,7 @@
         <v>110</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="S16" s="1">
         <v>1</v>
@@ -29883,7 +29887,7 @@
         <v>110</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
@@ -29980,7 +29984,7 @@
         <v>110</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
@@ -30077,7 +30081,7 @@
         <v>110</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="S19" s="1">
         <v>1</v>
@@ -30174,7 +30178,7 @@
         <v>312</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="S20" s="1">
         <v>3</v>
@@ -30271,7 +30275,7 @@
         <v>113</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="S21" s="1">
         <v>1</v>
@@ -30368,7 +30372,7 @@
         <v>113</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="S22" s="1">
         <v>1</v>
@@ -30465,7 +30469,7 @@
         <v>315</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S23" s="1">
         <v>3</v>
@@ -30562,7 +30566,7 @@
         <v>119</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S24" s="1">
         <v>1</v>
@@ -30659,7 +30663,7 @@
         <v>119</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="S25" s="1">
         <v>1</v>
@@ -30756,7 +30760,7 @@
         <v>322</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S26" s="1">
         <v>3</v>
@@ -30853,7 +30857,7 @@
         <v>123</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="S27" s="1">
         <v>1</v>
@@ -30950,7 +30954,7 @@
         <v>123</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="S28" s="1">
         <v>1</v>
@@ -31047,7 +31051,7 @@
         <v>325</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="S29" s="1">
         <v>3</v>
@@ -31144,7 +31148,7 @@
         <v>325</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S30" s="1">
         <v>3</v>
@@ -31241,7 +31245,7 @@
         <v>126</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="S31" s="1">
         <v>1</v>
@@ -31338,7 +31342,7 @@
         <v>126</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="S32" s="1">
         <v>1</v>
@@ -31403,7 +31407,7 @@
         <v>127</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="S33" s="1">
         <v>1</v>
@@ -31468,7 +31472,7 @@
         <v>128</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="S34" s="1">
         <v>1</v>
@@ -31533,7 +31537,7 @@
         <v>329</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="S35" s="1">
         <v>3</v>
@@ -31598,7 +31602,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="S36" s="1">
         <v>1</v>
@@ -31663,7 +31667,7 @@
         <v>130</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="S37" s="1">
         <v>1</v>
@@ -31728,7 +31732,7 @@
         <v>332</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="S38" s="1">
         <v>3</v>
@@ -31793,7 +31797,7 @@
         <v>132</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="S39" s="1">
         <v>1</v>
@@ -31858,7 +31862,7 @@
         <v>132</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="S40" s="1">
         <v>1</v>
@@ -31923,7 +31927,7 @@
         <v>334</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="S41" s="1">
         <v>3</v>
@@ -31988,7 +31992,7 @@
         <v>134</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="S42" s="1">
         <v>1</v>
@@ -32053,7 +32057,7 @@
         <v>134</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="S43" s="1">
         <v>1</v>
@@ -32118,7 +32122,7 @@
         <v>135</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="S44" s="1">
         <v>1</v>
@@ -32143,10 +32147,10 @@
         <v>870</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="45" spans="1:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32189,7 +32193,7 @@
         <v>135</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="S45" s="1">
         <v>1</v>
@@ -32214,10 +32218,10 @@
         <v>870</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="1:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32260,7 +32264,7 @@
         <v>136</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="S46" s="1">
         <v>1</v>
@@ -32285,10 +32289,10 @@
         <v>900</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AE46" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="47" spans="1:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32331,7 +32335,7 @@
         <v>336</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="S47" s="1">
         <v>3</v>
@@ -32356,10 +32360,10 @@
         <v>1125</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="48" spans="1:31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32402,7 +32406,7 @@
         <v>138</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="S48" s="1">
         <v>1</v>
@@ -32427,10 +32431,10 @@
         <v>960</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32473,7 +32477,7 @@
         <v>137</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="S49" s="1">
         <v>1</v>
@@ -32498,10 +32502,10 @@
         <v>930</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -32544,7 +32548,7 @@
         <v>137</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="S50" s="1">
         <v>1</v>
@@ -32569,10 +32573,10 @@
         <v>930</v>
       </c>
       <c r="AD50" s="9" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="AE50" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -32616,7 +32620,7 @@
         <v>339</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="S51" s="1">
         <v>3</v>
@@ -32641,10 +32645,10 @@
         <v>1238</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AI51" s="1"/>
@@ -32693,7 +32697,7 @@
         <v>140</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="S52" s="1">
         <v>1</v>
@@ -32718,10 +32722,10 @@
         <v>1020</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="AE52" s="8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AI52" s="1"/>
@@ -32770,7 +32774,7 @@
         <v>140</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="S53" s="1">
         <v>1</v>
@@ -32795,10 +32799,10 @@
         <v>1020</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AE53" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AI53" s="1"/>
@@ -32847,7 +32851,7 @@
         <v>342</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="S54" s="1">
         <v>3</v>
@@ -32872,10 +32876,10 @@
         <v>1500</v>
       </c>
       <c r="AD54" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AE54" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AI54" s="1"/>
@@ -32924,7 +32928,7 @@
         <v>142</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S55" s="1">
         <v>1</v>
@@ -32949,10 +32953,10 @@
         <v>1200</v>
       </c>
       <c r="AD55" s="9" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AE55" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AI55" s="1"/>
@@ -33001,7 +33005,7 @@
         <v>142</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S56" s="1">
         <v>1</v>
@@ -33026,10 +33030,10 @@
         <v>1200</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AE56" s="8" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AI56" s="1"/>
@@ -33078,7 +33082,7 @@
         <v>344</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S57" s="1">
         <v>3</v>
@@ -33103,10 +33107,10 @@
         <v>1575</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AE57" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AI57" s="1"/>
@@ -33155,7 +33159,7 @@
         <v>145</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S58" s="1">
         <v>1</v>
@@ -33180,10 +33184,10 @@
         <v>1290</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AE58" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AI58" s="1"/>
@@ -33232,7 +33236,7 @@
         <v>144</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="S59" s="1">
         <v>1</v>
@@ -33257,10 +33261,10 @@
         <v>1260</v>
       </c>
       <c r="AD59" s="9" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AE59" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AI59" s="1"/>
@@ -33309,7 +33313,7 @@
         <v>144</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="S60" s="1">
         <v>1</v>
@@ -33334,10 +33338,10 @@
         <v>1260</v>
       </c>
       <c r="AD60" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AE60" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AI60" s="1"/>
@@ -33386,7 +33390,7 @@
         <v>346</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="S61" s="1">
         <v>3</v>
@@ -33411,10 +33415,10 @@
         <v>1650</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AE61" s="8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AI61" s="1"/>
@@ -33463,7 +33467,7 @@
         <v>146</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="S62" s="1">
         <v>1</v>
@@ -33488,10 +33492,10 @@
         <v>1320</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="AE62" s="8" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="AF62" s="1"/>
       <c r="AI62" s="1"/>
@@ -33540,7 +33544,7 @@
         <v>147</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S63" s="1">
         <v>1</v>
@@ -33565,10 +33569,10 @@
         <v>1350</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="AE63" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AI63" s="1"/>
@@ -33617,7 +33621,7 @@
         <v>349</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="S64" s="1">
         <v>3</v>
@@ -33642,10 +33646,10 @@
         <v>1763</v>
       </c>
       <c r="AD64" s="9" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="AE64" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AI64" s="1"/>
@@ -33694,7 +33698,7 @@
         <v>150</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="S65" s="1">
         <v>1</v>
@@ -33719,10 +33723,10 @@
         <v>1440</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="AE65" s="8" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AI65" s="1"/>
@@ -33771,7 +33775,7 @@
         <v>151</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="S66" s="1">
         <v>1</v>
@@ -33796,10 +33800,10 @@
         <v>1590</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="AE66" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF66" s="1"/>
       <c r="AI66" s="1"/>
@@ -33848,7 +33852,7 @@
         <v>352</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="S67" s="1">
         <v>3</v>
@@ -33873,10 +33877,10 @@
         <v>2025</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="AE67" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF67" s="1"/>
       <c r="AI67" s="1"/>
@@ -33925,7 +33929,7 @@
         <v>354</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="S68" s="1">
         <v>3</v>
@@ -33950,10 +33954,10 @@
         <v>2100</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="AE68" s="8" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AI68" s="1"/>
@@ -34002,7 +34006,7 @@
         <v>152</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="S69" s="1">
         <v>1</v>
@@ -34027,10 +34031,10 @@
         <v>1620</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="AE69" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AI69" s="1"/>
@@ -34079,7 +34083,7 @@
         <v>150</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="S70" s="1">
         <v>1</v>
@@ -34104,10 +34108,10 @@
         <v>1440</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="AE70" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF70" s="1"/>
       <c r="AI70" s="1"/>
@@ -34156,7 +34160,7 @@
         <v>150</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="S71" s="1">
         <v>1</v>
@@ -34181,10 +34185,10 @@
         <v>1440</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="AE71" s="8" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="AF71" s="1"/>
       <c r="AI71" s="1"/>
@@ -34198,7 +34202,7 @@
         <v>150</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="S72" s="1">
         <v>1</v>
@@ -34223,10 +34227,10 @@
         <v>1440</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="AE72" s="8" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="AF72" s="1"/>
       <c r="AI72" s="1"/>
@@ -34240,7 +34244,7 @@
         <v>155</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="S73" s="1">
         <v>1</v>
@@ -34265,10 +34269,10 @@
         <v>1710</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="AE73" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AI73" s="1"/>
@@ -34278,13 +34282,13 @@
     </row>
     <row r="74" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>2032</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>2033</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>2</v>
@@ -34303,7 +34307,7 @@
         <v>356</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="S74" s="1">
         <v>3</v>
@@ -34328,10 +34332,10 @@
         <v>2175</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="AE74" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF74" s="1"/>
       <c r="AI74" s="1"/>
@@ -34374,7 +34378,7 @@
         <v>358</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="S75" s="1">
         <v>3</v>
@@ -34399,10 +34403,10 @@
         <v>2250</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="AE75" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF75" s="1"/>
       <c r="AI75" s="1"/>
@@ -34445,7 +34449,7 @@
         <v>360</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="S76" s="1">
         <v>3</v>
@@ -34470,10 +34474,10 @@
         <v>2325</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="AE76" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="AF76" s="1"/>
       <c r="AI76" s="1"/>
@@ -34516,10 +34520,10 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="AD77" s="6" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="AE77" s="8" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -34557,10 +34561,10 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="AD78" s="6" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="AE78" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -34594,10 +34598,10 @@
         <v>113</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>1919</v>
@@ -34618,10 +34622,10 @@
         <v>29</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="AE79" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="20.100000000000001" customHeight="1">
@@ -34659,7 +34663,7 @@
         <v>145</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="S80" s="1">
         <v>1</v>
@@ -34684,10 +34688,10 @@
         <v>1290</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="AE80" s="8" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -34725,7 +34729,7 @@
         <v>145</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="S81" s="1">
         <v>1</v>
@@ -34750,10 +34754,10 @@
         <v>1290</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="AE81" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -34791,7 +34795,7 @@
         <v>145</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="S82" s="1">
         <v>1</v>
@@ -34816,10 +34820,10 @@
         <v>1290</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="AE82" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -34857,7 +34861,7 @@
         <v>146</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="S83" s="1">
         <v>1</v>
@@ -34883,10 +34887,10 @@
         <v>1320</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="AE83" s="8" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -34924,7 +34928,7 @@
         <v>146</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="S84" s="1">
         <v>1</v>
@@ -34950,10 +34954,10 @@
         <v>1320</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="AE84" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -34991,7 +34995,7 @@
         <v>146</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="S85" s="1">
         <v>1</v>
@@ -35017,10 +35021,10 @@
         <v>1320</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="AE85" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35058,7 +35062,7 @@
         <v>147</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="S86" s="1">
         <v>1</v>
@@ -35084,10 +35088,10 @@
         <v>1350</v>
       </c>
       <c r="AD86" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AE86" s="8" t="s">
         <v>1992</v>
-      </c>
-      <c r="AE86" s="8" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35125,7 +35129,7 @@
         <v>147</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="S87" s="1">
         <v>1</v>
@@ -35151,10 +35155,10 @@
         <v>1350</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="AE87" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35192,7 +35196,7 @@
         <v>147</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="S88" s="1">
         <v>1</v>
@@ -35218,10 +35222,10 @@
         <v>1350</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="AE88" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35259,7 +35263,7 @@
         <v>348</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="S89" s="1">
         <v>3</v>
@@ -35285,10 +35289,10 @@
         <v>1725</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="AE89" s="8" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35326,7 +35330,7 @@
         <v>148</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="S90" s="1">
         <v>1</v>
@@ -35352,10 +35356,10 @@
         <v>1380</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="AE90" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35393,7 +35397,7 @@
         <v>148</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="S91" s="1">
         <v>1</v>
@@ -35419,10 +35423,10 @@
         <v>1380</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="AE91" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35460,7 +35464,7 @@
         <v>149</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="S92" s="1">
         <v>1</v>
@@ -35486,10 +35490,10 @@
         <v>1410</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="AE92" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35527,7 +35531,7 @@
         <v>149</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="S93" s="1">
         <v>1</v>
@@ -35553,10 +35557,10 @@
         <v>1410</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="AE93" s="8" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35594,7 +35598,7 @@
         <v>149</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="S94" s="1">
         <v>1</v>
@@ -35620,10 +35624,10 @@
         <v>1410</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AE94" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35661,7 +35665,7 @@
         <v>150</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="S95" s="1">
         <v>1</v>
@@ -35687,10 +35691,10 @@
         <v>1440</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="AE95" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35728,7 +35732,7 @@
         <v>150</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="S96" s="1">
         <v>1</v>
@@ -35754,10 +35758,10 @@
         <v>1440</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="AE96" s="8" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35795,7 +35799,7 @@
         <v>150</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="S97" s="1">
         <v>1</v>
@@ -35821,10 +35825,10 @@
         <v>1440</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AE97" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35862,7 +35866,7 @@
         <v>151</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="S98" s="1">
         <v>1</v>
@@ -35888,10 +35892,10 @@
         <v>1590</v>
       </c>
       <c r="AD98" s="6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="AE98" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35929,7 +35933,7 @@
         <v>351</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="S99" s="1">
         <v>3</v>
@@ -35955,10 +35959,10 @@
         <v>1988</v>
       </c>
       <c r="AD99" s="6" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="AE99" s="8" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -35996,7 +36000,7 @@
         <v>151</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="S100" s="1">
         <v>1</v>
@@ -36022,10 +36026,10 @@
         <v>1590</v>
       </c>
       <c r="AD100" s="6" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="AE100" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36063,7 +36067,7 @@
         <v>152</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S101" s="1">
         <v>1</v>
@@ -36089,10 +36093,10 @@
         <v>1620</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="AE101" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36130,7 +36134,7 @@
         <v>152</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S102" s="1">
         <v>1</v>
@@ -36156,10 +36160,10 @@
         <v>1620</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AE102" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36197,7 +36201,7 @@
         <v>152</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="S103" s="1">
         <v>1</v>
@@ -36223,10 +36227,10 @@
         <v>1620</v>
       </c>
       <c r="AD103" s="6" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="AE103" s="8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36264,7 +36268,7 @@
         <v>153</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S104" s="1">
         <v>1</v>
@@ -36290,10 +36294,10 @@
         <v>1650</v>
       </c>
       <c r="AD104" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="AE104" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36331,7 +36335,7 @@
         <v>153</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="S105" s="1">
         <v>1</v>
@@ -36357,10 +36361,10 @@
         <v>1650</v>
       </c>
       <c r="AD105" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AE105" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36398,7 +36402,7 @@
         <v>153</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="S106" s="1">
         <v>1</v>
@@ -36424,10 +36428,10 @@
         <v>1650</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="AE106" s="8" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36465,7 +36469,7 @@
         <v>154</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="S107" s="1">
         <v>1</v>
@@ -36491,10 +36495,10 @@
         <v>1680</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="AE107" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36532,7 +36536,7 @@
         <v>154</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S108" s="1">
         <v>1</v>
@@ -36558,10 +36562,10 @@
         <v>1680</v>
       </c>
       <c r="AD108" s="6" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="AE108" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36599,7 +36603,7 @@
         <v>354</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="S109" s="1">
         <v>3</v>
@@ -36625,10 +36629,10 @@
         <v>2100</v>
       </c>
       <c r="AD109" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="AE109" s="8" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36666,7 +36670,7 @@
         <v>155</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="S110" s="1">
         <v>1</v>
@@ -36692,10 +36696,10 @@
         <v>1710</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="AE110" s="8" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36733,7 +36737,7 @@
         <v>155</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="S111" s="1">
         <v>1</v>
@@ -36759,10 +36763,10 @@
         <v>1710</v>
       </c>
       <c r="AD111" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="AE111" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36800,7 +36804,7 @@
         <v>155</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="S112" s="1">
         <v>1</v>
@@ -36826,10 +36830,10 @@
         <v>1710</v>
       </c>
       <c r="AD112" s="11" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="AE112" s="12" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36867,7 +36871,7 @@
         <v>155</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="S113" s="1">
         <v>1</v>
@@ -36892,10 +36896,10 @@
         <v>1710</v>
       </c>
       <c r="AD113" s="11" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="AE113" s="12" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -36933,7 +36937,7 @@
         <v>156</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="S114" s="1">
         <v>1</v>
@@ -36959,10 +36963,10 @@
         <v>1740</v>
       </c>
       <c r="AD114" s="11" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="AE114" s="12" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -37000,7 +37004,7 @@
         <v>156</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="S115" s="1">
         <v>1</v>
@@ -37026,10 +37030,10 @@
         <v>1740</v>
       </c>
       <c r="AD115" s="6" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="AE115" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -37067,7 +37071,7 @@
         <v>156</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="S116" s="1">
         <v>1</v>
@@ -37093,10 +37097,10 @@
         <v>1740</v>
       </c>
       <c r="AD116" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="AE116" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -37134,7 +37138,7 @@
         <v>157</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="S117" s="1">
         <v>1</v>
@@ -37160,10 +37164,10 @@
         <v>1770</v>
       </c>
       <c r="AD117" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="AE117" s="8" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -37201,7 +37205,7 @@
         <v>157</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="S118" s="1">
         <v>1</v>
@@ -37227,10 +37231,10 @@
         <v>1770</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -37268,7 +37272,7 @@
         <v>357</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="S119" s="1">
         <v>3</v>
@@ -37329,7 +37333,7 @@
         <v>158</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="S120" s="1">
         <v>1</v>
@@ -37390,7 +37394,7 @@
         <v>158</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="S121" s="1">
         <v>1</v>
@@ -37451,7 +37455,7 @@
         <v>158</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="S122" s="1">
         <v>1</v>
@@ -37512,7 +37516,7 @@
         <v>159</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="S123" s="1">
         <v>1</v>
@@ -37573,7 +37577,7 @@
         <v>159</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="S124" s="1">
         <v>1</v>
@@ -37634,7 +37638,7 @@
         <v>159</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="S125" s="1">
         <v>1</v>
@@ -37695,7 +37699,7 @@
         <v>160</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="S126" s="1">
         <v>1</v>
@@ -37756,7 +37760,7 @@
         <v>160</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="S127" s="1">
         <v>1</v>
@@ -37817,7 +37821,7 @@
         <v>160</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="S128" s="1">
         <v>1</v>
@@ -37877,7 +37881,7 @@
         <v>360</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="S129" s="1">
         <v>3</v>
@@ -38615,36 +38619,36 @@
         <v>72001011</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H2" s="6">
         <v>72002011</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="N2" s="6">
         <v>72003011</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="S2" s="6">
         <v>72004011</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I3" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>2054</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="U3" s="5" t="s">
         <v>2055</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -38652,13 +38656,13 @@
         <v>1769</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="U4" s="5" t="s">
         <v>2058</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="5" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -38666,10 +38670,10 @@
         <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>2060</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>2061</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>81</v>
@@ -38677,7 +38681,7 @@
     </row>
     <row r="6" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>1779</v>
@@ -38686,7 +38690,7 @@
         <v>159</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="7" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -38698,51 +38702,51 @@
         <v>72001012</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H11" s="6">
         <v>72002012</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="N11" s="6">
         <v>72003012</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="S11" s="6">
         <v>72004012</v>
       </c>
       <c r="T11" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>2067</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="12" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="5" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>2070</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="13" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>2072</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="7" t="s">
         <v>2073</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>2074</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>159</v>
@@ -38750,30 +38754,30 @@
     </row>
     <row r="14" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>2076</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="15" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>2079</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="16" spans="2:24" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -38790,126 +38794,126 @@
         <v>72001013</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="H21" s="6">
         <v>72002013</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>2083</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>2084</v>
       </c>
       <c r="N21" s="6">
         <v>72003013</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="S21" s="6">
         <v>72004013</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>2087</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="U22" s="5" t="s">
         <v>2089</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>2075</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="7" t="s">
         <v>2092</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="U23" s="5" t="s">
         <v>2093</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="24" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="O24" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="7" t="s">
         <v>2097</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="U24" s="5" t="s">
         <v>2098</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="25" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="P25" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="T25" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>2103</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="26" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>2106</v>
-      </c>
       <c r="U26" s="3" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="27" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="28" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="29" spans="2:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -38961,174 +38965,174 @@
         <v>868</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F3" t="s">
         <v>2109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2110</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" t="s">
         <v>2119</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>2121</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="E20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="E21" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>2133</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -39139,17 +39143,17 @@
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>
@@ -41273,16 +41277,16 @@
         <v>16.943999999999999</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="5" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2145</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2146</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -41290,7 +41294,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="6" spans="3:18" ht="20.100000000000001" customHeight="1">
@@ -41320,7 +41324,7 @@
         <v>1800000</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -41357,7 +41361,7 @@
         <v>3600000</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="N7" s="1">
         <v>200</v>
@@ -41395,7 +41399,7 @@
         <v>6000000</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="N8" s="1">
         <v>300</v>
@@ -41434,7 +41438,7 @@
         <v>9000000</v>
       </c>
       <c r="N9" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="10" spans="3:18" ht="20.100000000000001" customHeight="1">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F783F4-0CBC-4C78-8AAC-1E3C1B7F30D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9BF407-0851-4271-9FD7-91534E52E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="2161">
   <si>
     <t>人物属性</t>
   </si>
@@ -6718,6 +6718,37 @@
   <si>
     <t>攻击时有概率….</t>
     <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯兽师</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判者</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎影</t>
   </si>
 </sst>
 </file>
@@ -7344,17 +7375,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7375,6 +7406,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>304248</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>218336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66D5013-81AC-8B60-96FB-6AD7FC626ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66360675" y="2190750"/>
+          <a:ext cx="4419048" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28106,8 +28186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28224,7 +28304,7 @@
       <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="84" t="s">
         <v>2151</v>
       </c>
     </row>
@@ -28272,7 +28352,7 @@
       <c r="H25" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="85" t="s">
         <v>2152</v>
       </c>
     </row>
@@ -42030,10 +42110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BH80"/>
+  <dimension ref="A1:BS80"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -42066,7 +42146,7 @@
     <col min="46" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53">
+    <row r="1" spans="2:71">
       <c r="AC1" s="62" t="s">
         <v>34</v>
       </c>
@@ -42074,7 +42154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="S2" s="62" t="s">
         <v>36</v>
       </c>
@@ -42087,8 +42167,20 @@
       <c r="AR2" s="62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="2:53" ht="20.100000000000001" customHeight="1">
+      <c r="BO2" s="62" t="s">
+        <v>2154</v>
+      </c>
+      <c r="BQ2" s="62" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BR2" s="62" t="s">
+        <v>2158</v>
+      </c>
+      <c r="BS2" s="62" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="63" t="s">
         <v>40</v>
       </c>
@@ -42113,7 +42205,7 @@
       <c r="J3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="86" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="62" t="s">
@@ -42161,7 +42253,7 @@
       </c>
       <c r="AS3" s="66"/>
     </row>
-    <row r="4" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="62" t="s">
         <v>54</v>
       </c>
@@ -42177,7 +42269,7 @@
       <c r="I4" s="72">
         <v>10002</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="62" t="s">
         <v>57</v>
       </c>
@@ -42232,7 +42324,7 @@
       <c r="AW4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="84" t="s">
+      <c r="AX4" s="86" t="s">
         <v>46</v>
       </c>
       <c r="AY4" s="62" t="s">
@@ -42245,7 +42337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="62" t="s">
         <v>69</v>
       </c>
@@ -42261,7 +42353,7 @@
       <c r="I5" s="72">
         <v>10003</v>
       </c>
-      <c r="K5" s="84"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="62" t="s">
         <v>72</v>
       </c>
@@ -42313,7 +42405,7 @@
       <c r="AV5" s="62">
         <v>10002</v>
       </c>
-      <c r="AX5" s="84"/>
+      <c r="AX5" s="86"/>
       <c r="AY5" s="62" t="s">
         <v>57</v>
       </c>
@@ -42323,13 +42415,22 @@
       <c r="BA5" s="66" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="2:53" ht="20.100000000000001" customHeight="1">
+      <c r="BO5" s="62" t="s">
+        <v>2156</v>
+      </c>
+      <c r="BQ5" s="62" t="s">
+        <v>2160</v>
+      </c>
+      <c r="BS5" s="62" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="G6" s="66"/>
       <c r="I6" s="72">
         <v>10011</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="86" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="62" t="s">
@@ -42359,7 +42460,7 @@
       <c r="AV6" s="62">
         <v>10003</v>
       </c>
-      <c r="AX6" s="84"/>
+      <c r="AX6" s="86"/>
       <c r="AY6" s="62" t="s">
         <v>72</v>
       </c>
@@ -42369,8 +42470,11 @@
       <c r="BA6" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="2:53" ht="20.100000000000001" customHeight="1">
+      <c r="BO6" s="62" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="62" t="s">
         <v>54</v>
       </c>
@@ -42386,7 +42490,7 @@
       <c r="I7" s="72">
         <v>10012</v>
       </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="62" t="s">
         <v>57</v>
       </c>
@@ -42432,7 +42536,7 @@
       <c r="AV7" s="62">
         <v>10011</v>
       </c>
-      <c r="AX7" s="84" t="s">
+      <c r="AX7" s="86" t="s">
         <v>85</v>
       </c>
       <c r="AY7" s="62" t="s">
@@ -42445,7 +42549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="62" t="s">
         <v>69</v>
       </c>
@@ -42461,7 +42565,7 @@
       <c r="I8" s="72">
         <v>10013</v>
       </c>
-      <c r="K8" s="84"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="62" t="s">
         <v>72</v>
       </c>
@@ -42501,7 +42605,7 @@
       <c r="AV8" s="62">
         <v>10012</v>
       </c>
-      <c r="AX8" s="84"/>
+      <c r="AX8" s="86"/>
       <c r="AY8" s="62" t="s">
         <v>57</v>
       </c>
@@ -42512,12 +42616,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="G9" s="66"/>
       <c r="I9" s="72">
         <v>10021</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="86" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="62" t="s">
@@ -42541,7 +42645,7 @@
       <c r="AV9" s="62">
         <v>10013</v>
       </c>
-      <c r="AX9" s="84"/>
+      <c r="AX9" s="86"/>
       <c r="AY9" s="62" t="s">
         <v>72</v>
       </c>
@@ -42552,7 +42656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="62" t="s">
         <v>54</v>
       </c>
@@ -42568,7 +42672,7 @@
       <c r="I10" s="72">
         <v>10022</v>
       </c>
-      <c r="K10" s="84"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="62" t="s">
         <v>57</v>
       </c>
@@ -42612,7 +42716,7 @@
       <c r="AV10" s="62">
         <v>10021</v>
       </c>
-      <c r="AX10" s="84" t="s">
+      <c r="AX10" s="86" t="s">
         <v>118</v>
       </c>
       <c r="AY10" s="62" t="s">
@@ -42625,7 +42729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="62" t="s">
         <v>69</v>
       </c>
@@ -42641,7 +42745,7 @@
       <c r="I11" s="72">
         <v>10023</v>
       </c>
-      <c r="K11" s="84"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="62" t="s">
         <v>72</v>
       </c>
@@ -42693,7 +42797,7 @@
       <c r="AV11" s="62">
         <v>10022</v>
       </c>
-      <c r="AX11" s="84"/>
+      <c r="AX11" s="86"/>
       <c r="AY11" s="62" t="s">
         <v>57</v>
       </c>
@@ -42704,13 +42808,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
       <c r="I12" s="72">
         <v>10031</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="86" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="62" t="s">
@@ -42743,7 +42847,7 @@
       <c r="AV12" s="62">
         <v>10023</v>
       </c>
-      <c r="AX12" s="84"/>
+      <c r="AX12" s="86"/>
       <c r="AY12" s="62" t="s">
         <v>72</v>
       </c>
@@ -42754,7 +42858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="62" t="s">
         <v>53</v>
       </c>
@@ -42763,7 +42867,7 @@
       <c r="I13" s="72">
         <v>10032</v>
       </c>
-      <c r="K13" s="84"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="62" t="s">
         <v>57</v>
       </c>
@@ -42791,7 +42895,7 @@
       <c r="AV13" s="62">
         <v>10031</v>
       </c>
-      <c r="AX13" s="84" t="s">
+      <c r="AX13" s="86" t="s">
         <v>150</v>
       </c>
       <c r="AY13" s="62" t="s">
@@ -42804,7 +42908,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="67" t="s">
         <v>166</v>
       </c>
@@ -42824,7 +42928,7 @@
       <c r="I14" s="72">
         <v>10033</v>
       </c>
-      <c r="K14" s="84"/>
+      <c r="K14" s="86"/>
       <c r="L14" s="62" t="s">
         <v>72</v>
       </c>
@@ -42855,7 +42959,7 @@
       <c r="AV14" s="62">
         <v>10032</v>
       </c>
-      <c r="AX14" s="84"/>
+      <c r="AX14" s="86"/>
       <c r="AY14" s="62" t="s">
         <v>57</v>
       </c>
@@ -42866,7 +42970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="D15" s="62">
         <v>25</v>
       </c>
@@ -42880,7 +42984,7 @@
       <c r="I15" s="72">
         <v>10041</v>
       </c>
-      <c r="K15" s="84" t="s">
+      <c r="K15" s="86" t="s">
         <v>179</v>
       </c>
       <c r="L15" s="62" t="s">
@@ -42910,7 +43014,7 @@
       <c r="AV15" s="62">
         <v>10033</v>
       </c>
-      <c r="AX15" s="84"/>
+      <c r="AX15" s="86"/>
       <c r="AY15" s="62" t="s">
         <v>72</v>
       </c>
@@ -42921,7 +43025,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="2:53" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="D16" s="62">
         <v>30</v>
       </c>
@@ -42935,7 +43039,7 @@
       <c r="I16" s="72">
         <v>10042</v>
       </c>
-      <c r="K16" s="84"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="62" t="s">
         <v>57</v>
       </c>
@@ -42963,7 +43067,7 @@
       <c r="AV16" s="62">
         <v>10041</v>
       </c>
-      <c r="AX16" s="84" t="s">
+      <c r="AX16" s="86" t="s">
         <v>179</v>
       </c>
       <c r="AY16" s="62" t="s">
@@ -42990,7 +43094,7 @@
       <c r="I17" s="72">
         <v>10043</v>
       </c>
-      <c r="K17" s="84"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="62" t="s">
         <v>72</v>
       </c>
@@ -43013,7 +43117,7 @@
       <c r="AV17" s="62">
         <v>10042</v>
       </c>
-      <c r="AX17" s="84"/>
+      <c r="AX17" s="86"/>
       <c r="AY17" s="62" t="s">
         <v>57</v>
       </c>
@@ -43038,7 +43142,7 @@
       <c r="I18" s="62">
         <v>10051</v>
       </c>
-      <c r="K18" s="84" t="s">
+      <c r="K18" s="86" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="62" t="s">
@@ -43074,7 +43178,7 @@
       <c r="AV18" s="62">
         <v>10043</v>
       </c>
-      <c r="AX18" s="84"/>
+      <c r="AX18" s="86"/>
       <c r="AY18" s="62" t="s">
         <v>72</v>
       </c>
@@ -43096,7 +43200,7 @@
       <c r="I19" s="62">
         <v>10052</v>
       </c>
-      <c r="K19" s="84"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="62" t="s">
         <v>57</v>
       </c>
@@ -43130,7 +43234,7 @@
       <c r="AV19" s="62">
         <v>10051</v>
       </c>
-      <c r="AX19" s="84" t="s">
+      <c r="AX19" s="86" t="s">
         <v>201</v>
       </c>
       <c r="AY19" s="62" t="s">
@@ -43147,7 +43251,7 @@
       <c r="I20" s="62">
         <v>10053</v>
       </c>
-      <c r="K20" s="84"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="62" t="s">
         <v>72</v>
       </c>
@@ -43178,7 +43282,7 @@
       <c r="AV20" s="62">
         <v>10052</v>
       </c>
-      <c r="AX20" s="84"/>
+      <c r="AX20" s="86"/>
       <c r="AY20" s="62" t="s">
         <v>57</v>
       </c>
@@ -43207,7 +43311,7 @@
         <v>10051</v>
       </c>
       <c r="J21" s="64"/>
-      <c r="K21" s="85" t="s">
+      <c r="K21" s="87" t="s">
         <v>230</v>
       </c>
       <c r="L21" s="64" t="s">
@@ -43234,7 +43338,7 @@
       <c r="AV21" s="62">
         <v>10053</v>
       </c>
-      <c r="AX21" s="84"/>
+      <c r="AX21" s="86"/>
       <c r="AY21" s="62" t="s">
         <v>72</v>
       </c>
@@ -43260,7 +43364,7 @@
         <v>10052</v>
       </c>
       <c r="J22" s="64"/>
-      <c r="K22" s="85"/>
+      <c r="K22" s="87"/>
       <c r="L22" s="64" t="s">
         <v>57</v>
       </c>
@@ -43284,7 +43388,7 @@
         <v>10051</v>
       </c>
       <c r="AW22" s="64"/>
-      <c r="AX22" s="85" t="s">
+      <c r="AX22" s="87" t="s">
         <v>230</v>
       </c>
       <c r="AY22" s="64" t="s">
@@ -43319,7 +43423,7 @@
         <v>10053</v>
       </c>
       <c r="J23" s="64"/>
-      <c r="K23" s="85"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="64" t="s">
         <v>72</v>
       </c>
@@ -43353,7 +43457,7 @@
         <v>10052</v>
       </c>
       <c r="AW23" s="64"/>
-      <c r="AX23" s="85"/>
+      <c r="AX23" s="87"/>
       <c r="AY23" s="64" t="s">
         <v>57</v>
       </c>
@@ -43423,7 +43527,7 @@
         <v>10053</v>
       </c>
       <c r="AW24" s="64"/>
-      <c r="AX24" s="85"/>
+      <c r="AX24" s="87"/>
       <c r="AY24" s="64" t="s">
         <v>72</v>
       </c>
@@ -44602,6 +44706,7 @@
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9BF407-0851-4271-9FD7-91534E52E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DFA3A-80BE-4A65-B62C-983A41E55690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42113,7 +42113,7 @@
   <dimension ref="A1:BS80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BQ7" sqref="BQ7"/>
+      <selection activeCell="BM5" sqref="BM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DC046-A99A-445C-B228-E5A305370B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCC336-CADA-4993-913B-84EBA98E71C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="930" windowWidth="24000" windowHeight="14535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="2232">
   <si>
     <t>人物属性</t>
   </si>
@@ -6888,23 +6890,11 @@
     <t>暴击之力：你的暴击伤害提高20%</t>
   </si>
   <si>
-    <t>浴血奋战：血量每降低10%，造成的伤害增3%。</t>
-  </si>
-  <si>
     <t>通用</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>指挥官：你的召唤和宠物属性提升10%</t>
-  </si>
-  <si>
     <t>当生命降低至5%时获得3秒的无敌时间，10分钟生效一次。</t>
-  </si>
-  <si>
-    <t>每3秒,自身受到的伤害减少5%,可以累计10层，移动后清空所有伤害降低。</t>
-  </si>
-  <si>
-    <t>熟能生巧：法术连击概率增加10%</t>
   </si>
   <si>
     <t>蓄势：每次使用技能有5%概率触发聚精会神,下次攻击必定暴击,聚精会神状态持续30秒。</t>
@@ -6927,14 +6917,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>伤害加成5%</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免5%</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>每次暴击有30%概率提升自身10%攻击,持续6秒</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -6943,14 +6925,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>每次闪避恢复自身一定生命值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量在30%以下时，防御力提高30%</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>双防提升10%，自动回复生命效果翻倍。</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -6972,6 +6946,70 @@
   </si>
   <si>
     <t>守护之击</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴血奋战：血量每降低10%，造成的伤害增3%。</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟能生巧：法术连击概率增加10%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5%概率躲避敌人的法术攻击</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>有5%概率躲避敌人的物理攻击</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击伤害+10%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率出发抵抗状态,抵抗造成的异常状态,持续5秒</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有概率使攻击者移动速度降低30%,持续5秒</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>每3秒,自身受到的伤害减少5%,可以累计10层，移动后清空所有伤害降低。</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧:血量在30%以下时，防御力提高30%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避目标攻击有20%概率恢复自身最大生命的5%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥官：你的召唤物属性提升10%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升5%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害加成5%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害减免5%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害减免5%</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害加成5%</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -7636,13 +7674,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8299,6 +8337,2533 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ItemProto"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="809">
+          <cell r="C809">
+            <v>14010001</v>
+          </cell>
+        </row>
+        <row r="810">
+          <cell r="C810">
+            <v>14010002</v>
+          </cell>
+        </row>
+        <row r="811">
+          <cell r="C811">
+            <v>14010003</v>
+          </cell>
+        </row>
+        <row r="812">
+          <cell r="C812">
+            <v>14010004</v>
+          </cell>
+        </row>
+        <row r="813">
+          <cell r="C813">
+            <v>14010005</v>
+          </cell>
+        </row>
+        <row r="814">
+          <cell r="C814">
+            <v>14010006</v>
+          </cell>
+        </row>
+        <row r="815">
+          <cell r="C815">
+            <v>14010007</v>
+          </cell>
+        </row>
+        <row r="816">
+          <cell r="C816">
+            <v>14010008</v>
+          </cell>
+        </row>
+        <row r="817">
+          <cell r="C817">
+            <v>14010009</v>
+          </cell>
+        </row>
+        <row r="818">
+          <cell r="C818">
+            <v>14010010</v>
+          </cell>
+        </row>
+        <row r="819">
+          <cell r="C819">
+            <v>14010011</v>
+          </cell>
+        </row>
+        <row r="820">
+          <cell r="C820">
+            <v>14010012</v>
+          </cell>
+        </row>
+        <row r="821">
+          <cell r="C821">
+            <v>14020001</v>
+          </cell>
+        </row>
+        <row r="822">
+          <cell r="C822">
+            <v>14020002</v>
+          </cell>
+        </row>
+        <row r="823">
+          <cell r="C823">
+            <v>14020003</v>
+          </cell>
+        </row>
+        <row r="824">
+          <cell r="C824">
+            <v>14020004</v>
+          </cell>
+        </row>
+        <row r="825">
+          <cell r="C825">
+            <v>14020005</v>
+          </cell>
+        </row>
+        <row r="826">
+          <cell r="C826">
+            <v>14020006</v>
+          </cell>
+        </row>
+        <row r="827">
+          <cell r="C827">
+            <v>14020007</v>
+          </cell>
+        </row>
+        <row r="828">
+          <cell r="C828">
+            <v>14020008</v>
+          </cell>
+        </row>
+        <row r="829">
+          <cell r="C829">
+            <v>14020009</v>
+          </cell>
+        </row>
+        <row r="830">
+          <cell r="C830">
+            <v>14020010</v>
+          </cell>
+        </row>
+        <row r="831">
+          <cell r="C831">
+            <v>14020011</v>
+          </cell>
+        </row>
+        <row r="832">
+          <cell r="C832">
+            <v>14020012</v>
+          </cell>
+        </row>
+        <row r="833">
+          <cell r="C833">
+            <v>14020013</v>
+          </cell>
+        </row>
+        <row r="834">
+          <cell r="C834">
+            <v>14030001</v>
+          </cell>
+        </row>
+        <row r="835">
+          <cell r="C835">
+            <v>14030002</v>
+          </cell>
+        </row>
+        <row r="836">
+          <cell r="C836">
+            <v>14030003</v>
+          </cell>
+        </row>
+        <row r="837">
+          <cell r="C837">
+            <v>14030004</v>
+          </cell>
+        </row>
+        <row r="838">
+          <cell r="C838">
+            <v>14030005</v>
+          </cell>
+        </row>
+        <row r="839">
+          <cell r="C839">
+            <v>14030006</v>
+          </cell>
+        </row>
+        <row r="840">
+          <cell r="C840">
+            <v>14030007</v>
+          </cell>
+        </row>
+        <row r="841">
+          <cell r="C841">
+            <v>14030008</v>
+          </cell>
+        </row>
+        <row r="842">
+          <cell r="C842">
+            <v>14030009</v>
+          </cell>
+        </row>
+        <row r="843">
+          <cell r="C843">
+            <v>14030010</v>
+          </cell>
+        </row>
+        <row r="844">
+          <cell r="C844">
+            <v>14030011</v>
+          </cell>
+        </row>
+        <row r="845">
+          <cell r="C845">
+            <v>14030012</v>
+          </cell>
+        </row>
+        <row r="846">
+          <cell r="C846">
+            <v>14030013</v>
+          </cell>
+        </row>
+        <row r="847">
+          <cell r="C847">
+            <v>14040001</v>
+          </cell>
+        </row>
+        <row r="848">
+          <cell r="C848">
+            <v>14040002</v>
+          </cell>
+        </row>
+        <row r="849">
+          <cell r="C849">
+            <v>14040003</v>
+          </cell>
+        </row>
+        <row r="850">
+          <cell r="C850">
+            <v>14040004</v>
+          </cell>
+        </row>
+        <row r="851">
+          <cell r="C851">
+            <v>14040005</v>
+          </cell>
+        </row>
+        <row r="852">
+          <cell r="C852">
+            <v>14040006</v>
+          </cell>
+        </row>
+        <row r="853">
+          <cell r="C853">
+            <v>14040007</v>
+          </cell>
+        </row>
+        <row r="854">
+          <cell r="C854">
+            <v>14040008</v>
+          </cell>
+        </row>
+        <row r="855">
+          <cell r="C855">
+            <v>14040009</v>
+          </cell>
+        </row>
+        <row r="856">
+          <cell r="C856">
+            <v>14040010</v>
+          </cell>
+        </row>
+        <row r="857">
+          <cell r="C857">
+            <v>14040011</v>
+          </cell>
+        </row>
+        <row r="858">
+          <cell r="C858">
+            <v>14040012</v>
+          </cell>
+        </row>
+        <row r="859">
+          <cell r="C859">
+            <v>14050001</v>
+          </cell>
+        </row>
+        <row r="860">
+          <cell r="C860">
+            <v>14050002</v>
+          </cell>
+        </row>
+        <row r="861">
+          <cell r="C861">
+            <v>14050003</v>
+          </cell>
+        </row>
+        <row r="862">
+          <cell r="C862">
+            <v>14050004</v>
+          </cell>
+        </row>
+        <row r="863">
+          <cell r="C863">
+            <v>14050005</v>
+          </cell>
+        </row>
+        <row r="864">
+          <cell r="C864">
+            <v>14050006</v>
+          </cell>
+        </row>
+        <row r="865">
+          <cell r="C865">
+            <v>14050007</v>
+          </cell>
+        </row>
+        <row r="866">
+          <cell r="C866">
+            <v>14050008</v>
+          </cell>
+        </row>
+        <row r="867">
+          <cell r="C867">
+            <v>14050009</v>
+          </cell>
+        </row>
+        <row r="868">
+          <cell r="C868">
+            <v>14050010</v>
+          </cell>
+        </row>
+        <row r="869">
+          <cell r="C869">
+            <v>14050011</v>
+          </cell>
+        </row>
+        <row r="870">
+          <cell r="C870">
+            <v>14050012</v>
+          </cell>
+        </row>
+        <row r="871">
+          <cell r="C871">
+            <v>14060001</v>
+          </cell>
+        </row>
+        <row r="872">
+          <cell r="C872">
+            <v>14060002</v>
+          </cell>
+        </row>
+        <row r="873">
+          <cell r="C873">
+            <v>14060003</v>
+          </cell>
+        </row>
+        <row r="874">
+          <cell r="C874">
+            <v>14060004</v>
+          </cell>
+        </row>
+        <row r="875">
+          <cell r="C875">
+            <v>14060005</v>
+          </cell>
+        </row>
+        <row r="876">
+          <cell r="C876">
+            <v>14070001</v>
+          </cell>
+        </row>
+        <row r="877">
+          <cell r="C877">
+            <v>14070002</v>
+          </cell>
+        </row>
+        <row r="878">
+          <cell r="C878">
+            <v>14070003</v>
+          </cell>
+        </row>
+        <row r="879">
+          <cell r="C879">
+            <v>14070004</v>
+          </cell>
+        </row>
+        <row r="880">
+          <cell r="C880">
+            <v>14080001</v>
+          </cell>
+          <cell r="S880">
+            <v>66001001</v>
+          </cell>
+        </row>
+        <row r="881">
+          <cell r="C881">
+            <v>14080002</v>
+          </cell>
+          <cell r="S881">
+            <v>66001002</v>
+          </cell>
+        </row>
+        <row r="882">
+          <cell r="C882">
+            <v>14080003</v>
+          </cell>
+          <cell r="S882">
+            <v>66001003</v>
+          </cell>
+        </row>
+        <row r="883">
+          <cell r="C883">
+            <v>14080004</v>
+          </cell>
+          <cell r="S883">
+            <v>66001012</v>
+          </cell>
+        </row>
+        <row r="884">
+          <cell r="C884">
+            <v>14090001</v>
+          </cell>
+        </row>
+        <row r="885">
+          <cell r="C885">
+            <v>14090002</v>
+          </cell>
+        </row>
+        <row r="886">
+          <cell r="C886">
+            <v>14090003</v>
+          </cell>
+        </row>
+        <row r="887">
+          <cell r="C887">
+            <v>14090004</v>
+          </cell>
+        </row>
+        <row r="888">
+          <cell r="C888">
+            <v>14100001</v>
+          </cell>
+        </row>
+        <row r="889">
+          <cell r="C889">
+            <v>14100002</v>
+          </cell>
+        </row>
+        <row r="890">
+          <cell r="C890">
+            <v>14100003</v>
+          </cell>
+        </row>
+        <row r="891">
+          <cell r="C891">
+            <v>14100004</v>
+          </cell>
+        </row>
+        <row r="892">
+          <cell r="C892">
+            <v>14100005</v>
+          </cell>
+        </row>
+        <row r="893">
+          <cell r="C893">
+            <v>14100006</v>
+          </cell>
+        </row>
+        <row r="894">
+          <cell r="C894">
+            <v>14100007</v>
+          </cell>
+        </row>
+        <row r="895">
+          <cell r="C895">
+            <v>14100008</v>
+          </cell>
+        </row>
+        <row r="896">
+          <cell r="C896">
+            <v>14100011</v>
+          </cell>
+          <cell r="S896">
+            <v>69000001</v>
+          </cell>
+        </row>
+        <row r="897">
+          <cell r="C897">
+            <v>14100012</v>
+          </cell>
+        </row>
+        <row r="898">
+          <cell r="C898">
+            <v>14100101</v>
+          </cell>
+        </row>
+        <row r="899">
+          <cell r="C899">
+            <v>14100102</v>
+          </cell>
+        </row>
+        <row r="900">
+          <cell r="C900">
+            <v>14100103</v>
+          </cell>
+        </row>
+        <row r="901">
+          <cell r="C901">
+            <v>14100104</v>
+          </cell>
+        </row>
+        <row r="902">
+          <cell r="C902">
+            <v>14100105</v>
+          </cell>
+        </row>
+        <row r="903">
+          <cell r="C903">
+            <v>14100106</v>
+          </cell>
+        </row>
+        <row r="904">
+          <cell r="C904">
+            <v>14100107</v>
+          </cell>
+        </row>
+        <row r="905">
+          <cell r="C905">
+            <v>14100108</v>
+          </cell>
+        </row>
+        <row r="906">
+          <cell r="C906">
+            <v>14100111</v>
+          </cell>
+          <cell r="S906">
+            <v>69000002</v>
+          </cell>
+        </row>
+        <row r="907">
+          <cell r="C907">
+            <v>14100112</v>
+          </cell>
+          <cell r="S907">
+            <v>69000003</v>
+          </cell>
+        </row>
+        <row r="908">
+          <cell r="C908">
+            <v>14110001</v>
+          </cell>
+        </row>
+        <row r="909">
+          <cell r="C909">
+            <v>14110002</v>
+          </cell>
+        </row>
+        <row r="910">
+          <cell r="C910">
+            <v>14110003</v>
+          </cell>
+        </row>
+        <row r="911">
+          <cell r="C911">
+            <v>14110004</v>
+          </cell>
+        </row>
+        <row r="912">
+          <cell r="C912">
+            <v>14110005</v>
+          </cell>
+        </row>
+        <row r="913">
+          <cell r="C913">
+            <v>14110006</v>
+          </cell>
+        </row>
+        <row r="914">
+          <cell r="C914">
+            <v>14110007</v>
+          </cell>
+        </row>
+        <row r="915">
+          <cell r="C915">
+            <v>14110008</v>
+          </cell>
+        </row>
+        <row r="916">
+          <cell r="C916">
+            <v>14110009</v>
+          </cell>
+        </row>
+        <row r="917">
+          <cell r="C917">
+            <v>14110010</v>
+          </cell>
+        </row>
+        <row r="918">
+          <cell r="C918">
+            <v>14110011</v>
+          </cell>
+        </row>
+        <row r="919">
+          <cell r="C919">
+            <v>14110012</v>
+          </cell>
+        </row>
+        <row r="920">
+          <cell r="C920">
+            <v>14110021</v>
+          </cell>
+        </row>
+        <row r="921">
+          <cell r="C921">
+            <v>14110022</v>
+          </cell>
+        </row>
+        <row r="922">
+          <cell r="C922">
+            <v>14110023</v>
+          </cell>
+        </row>
+        <row r="923">
+          <cell r="C923">
+            <v>15201001</v>
+          </cell>
+        </row>
+        <row r="924">
+          <cell r="C924">
+            <v>15201002</v>
+          </cell>
+        </row>
+        <row r="925">
+          <cell r="C925">
+            <v>15201003</v>
+          </cell>
+        </row>
+        <row r="926">
+          <cell r="C926">
+            <v>15201004</v>
+          </cell>
+        </row>
+        <row r="927">
+          <cell r="C927">
+            <v>15201005</v>
+          </cell>
+        </row>
+        <row r="928">
+          <cell r="C928">
+            <v>15201006</v>
+          </cell>
+        </row>
+        <row r="929">
+          <cell r="C929">
+            <v>15202001</v>
+          </cell>
+        </row>
+        <row r="930">
+          <cell r="C930">
+            <v>15202002</v>
+          </cell>
+        </row>
+        <row r="931">
+          <cell r="C931">
+            <v>15202003</v>
+          </cell>
+        </row>
+        <row r="932">
+          <cell r="C932">
+            <v>15202004</v>
+          </cell>
+        </row>
+        <row r="933">
+          <cell r="C933">
+            <v>15202005</v>
+          </cell>
+        </row>
+        <row r="934">
+          <cell r="C934">
+            <v>15202006</v>
+          </cell>
+        </row>
+        <row r="935">
+          <cell r="C935">
+            <v>15203001</v>
+          </cell>
+        </row>
+        <row r="936">
+          <cell r="C936">
+            <v>15203002</v>
+          </cell>
+        </row>
+        <row r="937">
+          <cell r="C937">
+            <v>15203003</v>
+          </cell>
+        </row>
+        <row r="938">
+          <cell r="C938">
+            <v>15203004</v>
+          </cell>
+        </row>
+        <row r="939">
+          <cell r="C939">
+            <v>15203005</v>
+          </cell>
+        </row>
+        <row r="940">
+          <cell r="C940">
+            <v>15203006</v>
+          </cell>
+        </row>
+        <row r="941">
+          <cell r="C941">
+            <v>15204001</v>
+          </cell>
+        </row>
+        <row r="942">
+          <cell r="C942">
+            <v>15204002</v>
+          </cell>
+        </row>
+        <row r="943">
+          <cell r="C943">
+            <v>15204003</v>
+          </cell>
+        </row>
+        <row r="944">
+          <cell r="C944">
+            <v>15204004</v>
+          </cell>
+        </row>
+        <row r="945">
+          <cell r="C945">
+            <v>15204005</v>
+          </cell>
+        </row>
+        <row r="946">
+          <cell r="C946">
+            <v>15204006</v>
+          </cell>
+        </row>
+        <row r="947">
+          <cell r="C947">
+            <v>15205001</v>
+          </cell>
+        </row>
+        <row r="948">
+          <cell r="C948">
+            <v>15205002</v>
+          </cell>
+        </row>
+        <row r="949">
+          <cell r="C949">
+            <v>15205003</v>
+          </cell>
+        </row>
+        <row r="950">
+          <cell r="C950">
+            <v>15205004</v>
+          </cell>
+        </row>
+        <row r="951">
+          <cell r="C951">
+            <v>15205005</v>
+          </cell>
+        </row>
+        <row r="952">
+          <cell r="C952">
+            <v>15205006</v>
+          </cell>
+        </row>
+        <row r="953">
+          <cell r="C953">
+            <v>15205007</v>
+          </cell>
+        </row>
+        <row r="954">
+          <cell r="C954">
+            <v>15206001</v>
+          </cell>
+        </row>
+        <row r="955">
+          <cell r="C955">
+            <v>15206002</v>
+          </cell>
+        </row>
+        <row r="956">
+          <cell r="C956">
+            <v>15206003</v>
+          </cell>
+        </row>
+        <row r="957">
+          <cell r="C957">
+            <v>15207001</v>
+          </cell>
+        </row>
+        <row r="958">
+          <cell r="C958">
+            <v>15207002</v>
+          </cell>
+        </row>
+        <row r="959">
+          <cell r="C959">
+            <v>15207003</v>
+          </cell>
+        </row>
+        <row r="960">
+          <cell r="C960">
+            <v>15208001</v>
+          </cell>
+          <cell r="S960">
+            <v>66001004</v>
+          </cell>
+        </row>
+        <row r="961">
+          <cell r="C961">
+            <v>15208002</v>
+          </cell>
+          <cell r="S961">
+            <v>66001005</v>
+          </cell>
+        </row>
+        <row r="962">
+          <cell r="C962">
+            <v>15208003</v>
+          </cell>
+          <cell r="S962">
+            <v>66001013</v>
+          </cell>
+        </row>
+        <row r="963">
+          <cell r="C963">
+            <v>15209001</v>
+          </cell>
+        </row>
+        <row r="964">
+          <cell r="C964">
+            <v>15209002</v>
+          </cell>
+        </row>
+        <row r="965">
+          <cell r="C965">
+            <v>15210001</v>
+          </cell>
+        </row>
+        <row r="966">
+          <cell r="C966">
+            <v>15210002</v>
+          </cell>
+        </row>
+        <row r="967">
+          <cell r="C967">
+            <v>15210003</v>
+          </cell>
+        </row>
+        <row r="968">
+          <cell r="C968">
+            <v>15210004</v>
+          </cell>
+        </row>
+        <row r="969">
+          <cell r="C969">
+            <v>15210011</v>
+          </cell>
+        </row>
+        <row r="970">
+          <cell r="C970">
+            <v>15210012</v>
+          </cell>
+        </row>
+        <row r="971">
+          <cell r="C971">
+            <v>15210101</v>
+          </cell>
+        </row>
+        <row r="972">
+          <cell r="C972">
+            <v>15210102</v>
+          </cell>
+        </row>
+        <row r="973">
+          <cell r="C973">
+            <v>15210103</v>
+          </cell>
+        </row>
+        <row r="974">
+          <cell r="C974">
+            <v>15210104</v>
+          </cell>
+        </row>
+        <row r="975">
+          <cell r="C975">
+            <v>15210111</v>
+          </cell>
+        </row>
+        <row r="976">
+          <cell r="C976">
+            <v>15210112</v>
+          </cell>
+        </row>
+        <row r="977">
+          <cell r="C977">
+            <v>15211001</v>
+          </cell>
+        </row>
+        <row r="978">
+          <cell r="C978">
+            <v>15211002</v>
+          </cell>
+        </row>
+        <row r="979">
+          <cell r="C979">
+            <v>15211003</v>
+          </cell>
+        </row>
+        <row r="980">
+          <cell r="C980">
+            <v>15211004</v>
+          </cell>
+        </row>
+        <row r="981">
+          <cell r="C981">
+            <v>15211005</v>
+          </cell>
+        </row>
+        <row r="982">
+          <cell r="C982">
+            <v>15211006</v>
+          </cell>
+        </row>
+        <row r="983">
+          <cell r="C983">
+            <v>15211011</v>
+          </cell>
+        </row>
+        <row r="984">
+          <cell r="C984">
+            <v>15211012</v>
+          </cell>
+        </row>
+        <row r="985">
+          <cell r="C985">
+            <v>15211013</v>
+          </cell>
+          <cell r="S985">
+            <v>69000004</v>
+          </cell>
+        </row>
+        <row r="986">
+          <cell r="C986">
+            <v>15301001</v>
+          </cell>
+        </row>
+        <row r="987">
+          <cell r="C987">
+            <v>15301002</v>
+          </cell>
+        </row>
+        <row r="988">
+          <cell r="C988">
+            <v>15301003</v>
+          </cell>
+        </row>
+        <row r="989">
+          <cell r="C989">
+            <v>15301004</v>
+          </cell>
+        </row>
+        <row r="990">
+          <cell r="C990">
+            <v>15301005</v>
+          </cell>
+        </row>
+        <row r="991">
+          <cell r="C991">
+            <v>15301006</v>
+          </cell>
+        </row>
+        <row r="992">
+          <cell r="C992">
+            <v>15302001</v>
+          </cell>
+        </row>
+        <row r="993">
+          <cell r="C993">
+            <v>15302002</v>
+          </cell>
+        </row>
+        <row r="994">
+          <cell r="C994">
+            <v>15302003</v>
+          </cell>
+        </row>
+        <row r="995">
+          <cell r="C995">
+            <v>15302004</v>
+          </cell>
+        </row>
+        <row r="996">
+          <cell r="C996">
+            <v>15302005</v>
+          </cell>
+        </row>
+        <row r="997">
+          <cell r="C997">
+            <v>15302006</v>
+          </cell>
+        </row>
+        <row r="998">
+          <cell r="C998">
+            <v>15302007</v>
+          </cell>
+        </row>
+        <row r="999">
+          <cell r="C999">
+            <v>15303001</v>
+          </cell>
+        </row>
+        <row r="1000">
+          <cell r="C1000">
+            <v>15303002</v>
+          </cell>
+        </row>
+        <row r="1001">
+          <cell r="C1001">
+            <v>15303003</v>
+          </cell>
+        </row>
+        <row r="1002">
+          <cell r="C1002">
+            <v>15303004</v>
+          </cell>
+        </row>
+        <row r="1003">
+          <cell r="C1003">
+            <v>15303005</v>
+          </cell>
+        </row>
+        <row r="1004">
+          <cell r="C1004">
+            <v>15303006</v>
+          </cell>
+        </row>
+        <row r="1005">
+          <cell r="C1005">
+            <v>15304001</v>
+          </cell>
+        </row>
+        <row r="1006">
+          <cell r="C1006">
+            <v>15304002</v>
+          </cell>
+        </row>
+        <row r="1007">
+          <cell r="C1007">
+            <v>15304003</v>
+          </cell>
+        </row>
+        <row r="1008">
+          <cell r="C1008">
+            <v>15304004</v>
+          </cell>
+        </row>
+        <row r="1009">
+          <cell r="C1009">
+            <v>15304005</v>
+          </cell>
+        </row>
+        <row r="1010">
+          <cell r="C1010">
+            <v>15304006</v>
+          </cell>
+        </row>
+        <row r="1011">
+          <cell r="C1011">
+            <v>15305001</v>
+          </cell>
+        </row>
+        <row r="1012">
+          <cell r="C1012">
+            <v>15305002</v>
+          </cell>
+        </row>
+        <row r="1013">
+          <cell r="C1013">
+            <v>15305003</v>
+          </cell>
+        </row>
+        <row r="1014">
+          <cell r="C1014">
+            <v>15305004</v>
+          </cell>
+        </row>
+        <row r="1015">
+          <cell r="C1015">
+            <v>15305005</v>
+          </cell>
+        </row>
+        <row r="1016">
+          <cell r="C1016">
+            <v>15305006</v>
+          </cell>
+        </row>
+        <row r="1017">
+          <cell r="C1017">
+            <v>15306001</v>
+          </cell>
+        </row>
+        <row r="1018">
+          <cell r="C1018">
+            <v>15306002</v>
+          </cell>
+        </row>
+        <row r="1019">
+          <cell r="C1019">
+            <v>15306003</v>
+          </cell>
+        </row>
+        <row r="1020">
+          <cell r="C1020">
+            <v>15307001</v>
+          </cell>
+        </row>
+        <row r="1021">
+          <cell r="C1021">
+            <v>15307002</v>
+          </cell>
+        </row>
+        <row r="1022">
+          <cell r="C1022">
+            <v>15308001</v>
+          </cell>
+          <cell r="S1022">
+            <v>66001006</v>
+          </cell>
+        </row>
+        <row r="1023">
+          <cell r="C1023">
+            <v>15308002</v>
+          </cell>
+          <cell r="S1023">
+            <v>66001007</v>
+          </cell>
+        </row>
+        <row r="1024">
+          <cell r="C1024">
+            <v>15308003</v>
+          </cell>
+          <cell r="S1024">
+            <v>66001014</v>
+          </cell>
+        </row>
+        <row r="1025">
+          <cell r="C1025">
+            <v>15308004</v>
+          </cell>
+          <cell r="S1025">
+            <v>66001017</v>
+          </cell>
+        </row>
+        <row r="1026">
+          <cell r="C1026">
+            <v>15309001</v>
+          </cell>
+        </row>
+        <row r="1027">
+          <cell r="C1027">
+            <v>15309002</v>
+          </cell>
+        </row>
+        <row r="1028">
+          <cell r="C1028">
+            <v>15309003</v>
+          </cell>
+        </row>
+        <row r="1029">
+          <cell r="C1029">
+            <v>15310001</v>
+          </cell>
+        </row>
+        <row r="1030">
+          <cell r="C1030">
+            <v>15310002</v>
+          </cell>
+        </row>
+        <row r="1031">
+          <cell r="C1031">
+            <v>15310003</v>
+          </cell>
+        </row>
+        <row r="1032">
+          <cell r="C1032">
+            <v>15310004</v>
+          </cell>
+        </row>
+        <row r="1033">
+          <cell r="C1033">
+            <v>15310011</v>
+          </cell>
+        </row>
+        <row r="1034">
+          <cell r="C1034">
+            <v>15310012</v>
+          </cell>
+        </row>
+        <row r="1035">
+          <cell r="C1035">
+            <v>15310101</v>
+          </cell>
+        </row>
+        <row r="1036">
+          <cell r="C1036">
+            <v>15310102</v>
+          </cell>
+        </row>
+        <row r="1037">
+          <cell r="C1037">
+            <v>15310103</v>
+          </cell>
+        </row>
+        <row r="1038">
+          <cell r="C1038">
+            <v>15310104</v>
+          </cell>
+        </row>
+        <row r="1039">
+          <cell r="C1039">
+            <v>15310111</v>
+          </cell>
+          <cell r="S1039">
+            <v>69000005</v>
+          </cell>
+        </row>
+        <row r="1040">
+          <cell r="C1040">
+            <v>15310112</v>
+          </cell>
+        </row>
+        <row r="1041">
+          <cell r="C1041">
+            <v>15311001</v>
+          </cell>
+        </row>
+        <row r="1042">
+          <cell r="C1042">
+            <v>15311002</v>
+          </cell>
+        </row>
+        <row r="1043">
+          <cell r="C1043">
+            <v>15311003</v>
+          </cell>
+        </row>
+        <row r="1044">
+          <cell r="C1044">
+            <v>15311004</v>
+          </cell>
+        </row>
+        <row r="1045">
+          <cell r="C1045">
+            <v>15311005</v>
+          </cell>
+        </row>
+        <row r="1046">
+          <cell r="C1046">
+            <v>15311006</v>
+          </cell>
+        </row>
+        <row r="1047">
+          <cell r="C1047">
+            <v>15311011</v>
+          </cell>
+        </row>
+        <row r="1048">
+          <cell r="C1048">
+            <v>15311012</v>
+          </cell>
+        </row>
+        <row r="1049">
+          <cell r="C1049">
+            <v>15311013</v>
+          </cell>
+          <cell r="S1049">
+            <v>69000006</v>
+          </cell>
+        </row>
+        <row r="1050">
+          <cell r="C1050">
+            <v>15401001</v>
+          </cell>
+        </row>
+        <row r="1051">
+          <cell r="C1051">
+            <v>15401002</v>
+          </cell>
+        </row>
+        <row r="1052">
+          <cell r="C1052">
+            <v>15401003</v>
+          </cell>
+        </row>
+        <row r="1053">
+          <cell r="C1053">
+            <v>15401004</v>
+          </cell>
+        </row>
+        <row r="1054">
+          <cell r="C1054">
+            <v>15401005</v>
+          </cell>
+        </row>
+        <row r="1055">
+          <cell r="C1055">
+            <v>15401006</v>
+          </cell>
+        </row>
+        <row r="1056">
+          <cell r="C1056">
+            <v>15401007</v>
+          </cell>
+        </row>
+        <row r="1057">
+          <cell r="C1057">
+            <v>15402001</v>
+          </cell>
+        </row>
+        <row r="1058">
+          <cell r="C1058">
+            <v>15402002</v>
+          </cell>
+        </row>
+        <row r="1059">
+          <cell r="C1059">
+            <v>15402003</v>
+          </cell>
+        </row>
+        <row r="1060">
+          <cell r="C1060">
+            <v>15402004</v>
+          </cell>
+        </row>
+        <row r="1061">
+          <cell r="C1061">
+            <v>15402005</v>
+          </cell>
+        </row>
+        <row r="1062">
+          <cell r="C1062">
+            <v>15402006</v>
+          </cell>
+        </row>
+        <row r="1063">
+          <cell r="C1063">
+            <v>15403001</v>
+          </cell>
+        </row>
+        <row r="1064">
+          <cell r="C1064">
+            <v>15403002</v>
+          </cell>
+        </row>
+        <row r="1065">
+          <cell r="C1065">
+            <v>15403003</v>
+          </cell>
+        </row>
+        <row r="1066">
+          <cell r="C1066">
+            <v>15403004</v>
+          </cell>
+        </row>
+        <row r="1067">
+          <cell r="C1067">
+            <v>15403005</v>
+          </cell>
+        </row>
+        <row r="1068">
+          <cell r="C1068">
+            <v>15403006</v>
+          </cell>
+        </row>
+        <row r="1069">
+          <cell r="C1069">
+            <v>15404001</v>
+          </cell>
+        </row>
+        <row r="1070">
+          <cell r="C1070">
+            <v>15404002</v>
+          </cell>
+        </row>
+        <row r="1071">
+          <cell r="C1071">
+            <v>15404003</v>
+          </cell>
+        </row>
+        <row r="1072">
+          <cell r="C1072">
+            <v>15404004</v>
+          </cell>
+        </row>
+        <row r="1073">
+          <cell r="C1073">
+            <v>15404005</v>
+          </cell>
+        </row>
+        <row r="1074">
+          <cell r="C1074">
+            <v>15404006</v>
+          </cell>
+        </row>
+        <row r="1075">
+          <cell r="C1075">
+            <v>15405001</v>
+          </cell>
+        </row>
+        <row r="1076">
+          <cell r="C1076">
+            <v>15405002</v>
+          </cell>
+        </row>
+        <row r="1077">
+          <cell r="C1077">
+            <v>15405003</v>
+          </cell>
+        </row>
+        <row r="1078">
+          <cell r="C1078">
+            <v>15405004</v>
+          </cell>
+        </row>
+        <row r="1079">
+          <cell r="C1079">
+            <v>15405005</v>
+          </cell>
+        </row>
+        <row r="1080">
+          <cell r="C1080">
+            <v>15405006</v>
+          </cell>
+        </row>
+        <row r="1081">
+          <cell r="C1081">
+            <v>15406001</v>
+          </cell>
+        </row>
+        <row r="1082">
+          <cell r="C1082">
+            <v>15406002</v>
+          </cell>
+        </row>
+        <row r="1083">
+          <cell r="C1083">
+            <v>15406003</v>
+          </cell>
+          <cell r="S1083">
+            <v>69000007</v>
+          </cell>
+        </row>
+        <row r="1084">
+          <cell r="C1084">
+            <v>15407001</v>
+          </cell>
+        </row>
+        <row r="1085">
+          <cell r="C1085">
+            <v>15407002</v>
+          </cell>
+        </row>
+        <row r="1086">
+          <cell r="C1086">
+            <v>15407003</v>
+          </cell>
+        </row>
+        <row r="1087">
+          <cell r="C1087">
+            <v>15408001</v>
+          </cell>
+          <cell r="S1087">
+            <v>66001008</v>
+          </cell>
+        </row>
+        <row r="1088">
+          <cell r="C1088">
+            <v>15408002</v>
+          </cell>
+          <cell r="S1088">
+            <v>66001009</v>
+          </cell>
+        </row>
+        <row r="1089">
+          <cell r="C1089">
+            <v>15408003</v>
+          </cell>
+          <cell r="S1089">
+            <v>66001015</v>
+          </cell>
+        </row>
+        <row r="1090">
+          <cell r="C1090">
+            <v>15409001</v>
+          </cell>
+        </row>
+        <row r="1091">
+          <cell r="C1091">
+            <v>15409002</v>
+          </cell>
+        </row>
+        <row r="1092">
+          <cell r="C1092">
+            <v>15410001</v>
+          </cell>
+        </row>
+        <row r="1093">
+          <cell r="C1093">
+            <v>15410002</v>
+          </cell>
+        </row>
+        <row r="1094">
+          <cell r="C1094">
+            <v>15410003</v>
+          </cell>
+        </row>
+        <row r="1095">
+          <cell r="C1095">
+            <v>15410004</v>
+          </cell>
+        </row>
+        <row r="1096">
+          <cell r="C1096">
+            <v>15410011</v>
+          </cell>
+          <cell r="S1096">
+            <v>69000008</v>
+          </cell>
+        </row>
+        <row r="1097">
+          <cell r="C1097">
+            <v>15410012</v>
+          </cell>
+        </row>
+        <row r="1098">
+          <cell r="C1098">
+            <v>15410101</v>
+          </cell>
+        </row>
+        <row r="1099">
+          <cell r="C1099">
+            <v>15410102</v>
+          </cell>
+        </row>
+        <row r="1100">
+          <cell r="C1100">
+            <v>15410103</v>
+          </cell>
+        </row>
+        <row r="1101">
+          <cell r="C1101">
+            <v>15410104</v>
+          </cell>
+        </row>
+        <row r="1102">
+          <cell r="C1102">
+            <v>15410111</v>
+          </cell>
+        </row>
+        <row r="1103">
+          <cell r="C1103">
+            <v>15410112</v>
+          </cell>
+          <cell r="S1103">
+            <v>69000009</v>
+          </cell>
+        </row>
+        <row r="1104">
+          <cell r="C1104">
+            <v>15411001</v>
+          </cell>
+        </row>
+        <row r="1105">
+          <cell r="C1105">
+            <v>15411002</v>
+          </cell>
+        </row>
+        <row r="1106">
+          <cell r="C1106">
+            <v>15411003</v>
+          </cell>
+        </row>
+        <row r="1107">
+          <cell r="C1107">
+            <v>15411004</v>
+          </cell>
+        </row>
+        <row r="1108">
+          <cell r="C1108">
+            <v>15411005</v>
+          </cell>
+        </row>
+        <row r="1109">
+          <cell r="C1109">
+            <v>15411006</v>
+          </cell>
+        </row>
+        <row r="1110">
+          <cell r="C1110">
+            <v>15411011</v>
+          </cell>
+          <cell r="S1110">
+            <v>69000010</v>
+          </cell>
+        </row>
+        <row r="1111">
+          <cell r="C1111">
+            <v>15411012</v>
+          </cell>
+        </row>
+        <row r="1112">
+          <cell r="C1112">
+            <v>15411013</v>
+          </cell>
+        </row>
+        <row r="1113">
+          <cell r="C1113">
+            <v>15501001</v>
+          </cell>
+        </row>
+        <row r="1114">
+          <cell r="C1114">
+            <v>15501002</v>
+          </cell>
+        </row>
+        <row r="1115">
+          <cell r="C1115">
+            <v>15501003</v>
+          </cell>
+        </row>
+        <row r="1116">
+          <cell r="C1116">
+            <v>15501004</v>
+          </cell>
+        </row>
+        <row r="1117">
+          <cell r="C1117">
+            <v>15501005</v>
+          </cell>
+        </row>
+        <row r="1118">
+          <cell r="C1118">
+            <v>15501006</v>
+          </cell>
+        </row>
+        <row r="1119">
+          <cell r="C1119">
+            <v>15502001</v>
+          </cell>
+        </row>
+        <row r="1120">
+          <cell r="C1120">
+            <v>15502002</v>
+          </cell>
+        </row>
+        <row r="1121">
+          <cell r="C1121">
+            <v>15502003</v>
+          </cell>
+        </row>
+        <row r="1122">
+          <cell r="C1122">
+            <v>15502004</v>
+          </cell>
+        </row>
+        <row r="1123">
+          <cell r="C1123">
+            <v>15502005</v>
+          </cell>
+        </row>
+        <row r="1124">
+          <cell r="C1124">
+            <v>15502006</v>
+          </cell>
+        </row>
+        <row r="1125">
+          <cell r="C1125">
+            <v>15503001</v>
+          </cell>
+        </row>
+        <row r="1126">
+          <cell r="C1126">
+            <v>15503002</v>
+          </cell>
+        </row>
+        <row r="1127">
+          <cell r="C1127">
+            <v>15503003</v>
+          </cell>
+        </row>
+        <row r="1128">
+          <cell r="C1128">
+            <v>15503004</v>
+          </cell>
+        </row>
+        <row r="1129">
+          <cell r="C1129">
+            <v>15503005</v>
+          </cell>
+        </row>
+        <row r="1130">
+          <cell r="C1130">
+            <v>15503006</v>
+          </cell>
+        </row>
+        <row r="1131">
+          <cell r="C1131">
+            <v>15503007</v>
+          </cell>
+        </row>
+        <row r="1132">
+          <cell r="C1132">
+            <v>15504001</v>
+          </cell>
+        </row>
+        <row r="1133">
+          <cell r="C1133">
+            <v>15504002</v>
+          </cell>
+        </row>
+        <row r="1134">
+          <cell r="C1134">
+            <v>15504003</v>
+          </cell>
+        </row>
+        <row r="1135">
+          <cell r="C1135">
+            <v>15504004</v>
+          </cell>
+        </row>
+        <row r="1136">
+          <cell r="C1136">
+            <v>15504005</v>
+          </cell>
+        </row>
+        <row r="1137">
+          <cell r="C1137">
+            <v>15504006</v>
+          </cell>
+        </row>
+        <row r="1138">
+          <cell r="C1138">
+            <v>15505001</v>
+          </cell>
+        </row>
+        <row r="1139">
+          <cell r="C1139">
+            <v>15505002</v>
+          </cell>
+        </row>
+        <row r="1140">
+          <cell r="C1140">
+            <v>15505003</v>
+          </cell>
+        </row>
+        <row r="1141">
+          <cell r="C1141">
+            <v>15505004</v>
+          </cell>
+        </row>
+        <row r="1142">
+          <cell r="C1142">
+            <v>15505005</v>
+          </cell>
+        </row>
+        <row r="1143">
+          <cell r="C1143">
+            <v>15505006</v>
+          </cell>
+        </row>
+        <row r="1144">
+          <cell r="C1144">
+            <v>15506001</v>
+          </cell>
+        </row>
+        <row r="1145">
+          <cell r="C1145">
+            <v>15506002</v>
+          </cell>
+        </row>
+        <row r="1146">
+          <cell r="C1146">
+            <v>15506003</v>
+          </cell>
+        </row>
+        <row r="1147">
+          <cell r="C1147">
+            <v>15507001</v>
+          </cell>
+        </row>
+        <row r="1148">
+          <cell r="C1148">
+            <v>15507002</v>
+          </cell>
+        </row>
+        <row r="1149">
+          <cell r="C1149">
+            <v>15507003</v>
+          </cell>
+        </row>
+        <row r="1150">
+          <cell r="C1150">
+            <v>15508001</v>
+          </cell>
+          <cell r="S1150">
+            <v>66001010</v>
+          </cell>
+        </row>
+        <row r="1151">
+          <cell r="C1151">
+            <v>15508002</v>
+          </cell>
+          <cell r="S1151">
+            <v>66001011</v>
+          </cell>
+        </row>
+        <row r="1152">
+          <cell r="C1152">
+            <v>15508003</v>
+          </cell>
+          <cell r="S1152">
+            <v>66001016</v>
+          </cell>
+        </row>
+        <row r="1153">
+          <cell r="C1153">
+            <v>15509001</v>
+          </cell>
+        </row>
+        <row r="1154">
+          <cell r="C1154">
+            <v>15509002</v>
+          </cell>
+        </row>
+        <row r="1155">
+          <cell r="C1155">
+            <v>15509003</v>
+          </cell>
+        </row>
+        <row r="1156">
+          <cell r="C1156">
+            <v>15510001</v>
+          </cell>
+        </row>
+        <row r="1157">
+          <cell r="C1157">
+            <v>15510002</v>
+          </cell>
+        </row>
+        <row r="1158">
+          <cell r="C1158">
+            <v>15510003</v>
+          </cell>
+        </row>
+        <row r="1159">
+          <cell r="C1159">
+            <v>15510004</v>
+          </cell>
+        </row>
+        <row r="1160">
+          <cell r="C1160">
+            <v>15510011</v>
+          </cell>
+        </row>
+        <row r="1161">
+          <cell r="C1161">
+            <v>15510012</v>
+          </cell>
+        </row>
+        <row r="1162">
+          <cell r="C1162">
+            <v>15510101</v>
+          </cell>
+        </row>
+        <row r="1163">
+          <cell r="C1163">
+            <v>15510102</v>
+          </cell>
+        </row>
+        <row r="1164">
+          <cell r="C1164">
+            <v>15510103</v>
+          </cell>
+        </row>
+        <row r="1165">
+          <cell r="C1165">
+            <v>15510104</v>
+          </cell>
+        </row>
+        <row r="1166">
+          <cell r="C1166">
+            <v>15510121</v>
+          </cell>
+          <cell r="S1166">
+            <v>69000011</v>
+          </cell>
+        </row>
+        <row r="1167">
+          <cell r="C1167">
+            <v>15510122</v>
+          </cell>
+        </row>
+        <row r="1168">
+          <cell r="C1168">
+            <v>15511001</v>
+          </cell>
+        </row>
+        <row r="1169">
+          <cell r="C1169">
+            <v>15511002</v>
+          </cell>
+        </row>
+        <row r="1170">
+          <cell r="C1170">
+            <v>15511003</v>
+          </cell>
+        </row>
+        <row r="1171">
+          <cell r="C1171">
+            <v>15511004</v>
+          </cell>
+        </row>
+        <row r="1172">
+          <cell r="C1172">
+            <v>15511005</v>
+          </cell>
+        </row>
+        <row r="1173">
+          <cell r="C1173">
+            <v>15511006</v>
+          </cell>
+        </row>
+        <row r="1174">
+          <cell r="C1174">
+            <v>15511011</v>
+          </cell>
+          <cell r="S1174">
+            <v>69000012</v>
+          </cell>
+        </row>
+        <row r="1175">
+          <cell r="C1175">
+            <v>15511012</v>
+          </cell>
+        </row>
+        <row r="1176">
+          <cell r="C1176">
+            <v>15511013</v>
+          </cell>
+        </row>
+        <row r="1177">
+          <cell r="C1177">
+            <v>15601001</v>
+          </cell>
+        </row>
+        <row r="1178">
+          <cell r="C1178">
+            <v>15601002</v>
+          </cell>
+        </row>
+        <row r="1179">
+          <cell r="C1179">
+            <v>15601003</v>
+          </cell>
+        </row>
+        <row r="1180">
+          <cell r="C1180">
+            <v>15602001</v>
+          </cell>
+        </row>
+        <row r="1181">
+          <cell r="C1181">
+            <v>15602002</v>
+          </cell>
+        </row>
+        <row r="1182">
+          <cell r="C1182">
+            <v>15602003</v>
+          </cell>
+        </row>
+        <row r="1183">
+          <cell r="C1183">
+            <v>15603001</v>
+          </cell>
+        </row>
+        <row r="1184">
+          <cell r="C1184">
+            <v>15603002</v>
+          </cell>
+        </row>
+        <row r="1185">
+          <cell r="C1185">
+            <v>15603003</v>
+          </cell>
+        </row>
+        <row r="1186">
+          <cell r="C1186">
+            <v>15604001</v>
+          </cell>
+        </row>
+        <row r="1187">
+          <cell r="C1187">
+            <v>15604002</v>
+          </cell>
+        </row>
+        <row r="1188">
+          <cell r="C1188">
+            <v>15604003</v>
+          </cell>
+        </row>
+        <row r="1189">
+          <cell r="C1189">
+            <v>15605001</v>
+          </cell>
+        </row>
+        <row r="1190">
+          <cell r="C1190">
+            <v>15605002</v>
+          </cell>
+        </row>
+        <row r="1191">
+          <cell r="C1191">
+            <v>15605003</v>
+          </cell>
+        </row>
+        <row r="1192">
+          <cell r="C1192">
+            <v>15606001</v>
+          </cell>
+        </row>
+        <row r="1193">
+          <cell r="C1193">
+            <v>15607001</v>
+          </cell>
+        </row>
+        <row r="1194">
+          <cell r="C1194">
+            <v>15608001</v>
+          </cell>
+          <cell r="S1194">
+            <v>66001011</v>
+          </cell>
+        </row>
+        <row r="1195">
+          <cell r="C1195">
+            <v>15609001</v>
+          </cell>
+        </row>
+        <row r="1196">
+          <cell r="C1196">
+            <v>15610001</v>
+          </cell>
+        </row>
+        <row r="1197">
+          <cell r="C1197">
+            <v>15610002</v>
+          </cell>
+        </row>
+        <row r="1198">
+          <cell r="C1198">
+            <v>15610101</v>
+          </cell>
+        </row>
+        <row r="1199">
+          <cell r="C1199">
+            <v>15610102</v>
+          </cell>
+        </row>
+        <row r="1200">
+          <cell r="C1200">
+            <v>15611001</v>
+          </cell>
+        </row>
+        <row r="1201">
+          <cell r="C1201">
+            <v>15611002</v>
+          </cell>
+        </row>
+        <row r="1202">
+          <cell r="C1202">
+            <v>15611003</v>
+          </cell>
+        </row>
+        <row r="1203">
+          <cell r="C1203">
+            <v>15701001</v>
+          </cell>
+        </row>
+        <row r="1204">
+          <cell r="C1204">
+            <v>15701002</v>
+          </cell>
+        </row>
+        <row r="1205">
+          <cell r="C1205">
+            <v>15701003</v>
+          </cell>
+        </row>
+        <row r="1206">
+          <cell r="C1206">
+            <v>15702001</v>
+          </cell>
+        </row>
+        <row r="1207">
+          <cell r="C1207">
+            <v>15702002</v>
+          </cell>
+        </row>
+        <row r="1208">
+          <cell r="C1208">
+            <v>15702003</v>
+          </cell>
+        </row>
+        <row r="1209">
+          <cell r="C1209">
+            <v>15703001</v>
+          </cell>
+        </row>
+        <row r="1210">
+          <cell r="C1210">
+            <v>15703002</v>
+          </cell>
+        </row>
+        <row r="1211">
+          <cell r="C1211">
+            <v>15703003</v>
+          </cell>
+        </row>
+        <row r="1212">
+          <cell r="C1212">
+            <v>15704001</v>
+          </cell>
+        </row>
+        <row r="1213">
+          <cell r="C1213">
+            <v>15704002</v>
+          </cell>
+        </row>
+        <row r="1214">
+          <cell r="C1214">
+            <v>15704003</v>
+          </cell>
+        </row>
+        <row r="1215">
+          <cell r="C1215">
+            <v>15705001</v>
+          </cell>
+        </row>
+        <row r="1216">
+          <cell r="C1216">
+            <v>15705002</v>
+          </cell>
+        </row>
+        <row r="1217">
+          <cell r="C1217">
+            <v>15705003</v>
+          </cell>
+        </row>
+        <row r="1218">
+          <cell r="C1218">
+            <v>15706001</v>
+          </cell>
+        </row>
+        <row r="1219">
+          <cell r="C1219">
+            <v>15707001</v>
+          </cell>
+        </row>
+        <row r="1220">
+          <cell r="C1220">
+            <v>15708001</v>
+          </cell>
+          <cell r="S1220">
+            <v>66001011</v>
+          </cell>
+        </row>
+        <row r="1221">
+          <cell r="C1221">
+            <v>15709001</v>
+          </cell>
+        </row>
+        <row r="1222">
+          <cell r="C1222">
+            <v>15710001</v>
+          </cell>
+        </row>
+        <row r="1223">
+          <cell r="C1223">
+            <v>15710002</v>
+          </cell>
+        </row>
+        <row r="1224">
+          <cell r="C1224">
+            <v>15710101</v>
+          </cell>
+        </row>
+        <row r="1225">
+          <cell r="C1225">
+            <v>15710102</v>
+          </cell>
+        </row>
+        <row r="1226">
+          <cell r="C1226">
+            <v>15711001</v>
+          </cell>
+        </row>
+        <row r="1227">
+          <cell r="C1227">
+            <v>15711002</v>
+          </cell>
+        </row>
+        <row r="1228">
+          <cell r="C1228">
+            <v>15711003</v>
+          </cell>
+        </row>
+        <row r="1229">
+          <cell r="C1229">
+            <v>16000101</v>
+          </cell>
+        </row>
+        <row r="1230">
+          <cell r="C1230">
+            <v>16000102</v>
+          </cell>
+        </row>
+        <row r="1231">
+          <cell r="C1231">
+            <v>16000103</v>
+          </cell>
+        </row>
+        <row r="1232">
+          <cell r="C1232">
+            <v>16000104</v>
+          </cell>
+        </row>
+        <row r="1233">
+          <cell r="C1233">
+            <v>16000105</v>
+          </cell>
+        </row>
+        <row r="1234">
+          <cell r="C1234">
+            <v>16000106</v>
+          </cell>
+        </row>
+        <row r="1235">
+          <cell r="C1235">
+            <v>16000107</v>
+          </cell>
+        </row>
+        <row r="1236">
+          <cell r="C1236">
+            <v>16000108</v>
+          </cell>
+        </row>
+        <row r="1237">
+          <cell r="C1237">
+            <v>16000109</v>
+          </cell>
+        </row>
+        <row r="1238">
+          <cell r="C1238">
+            <v>16000110</v>
+          </cell>
+        </row>
+        <row r="1239">
+          <cell r="C1239">
+            <v>16000111</v>
+          </cell>
+        </row>
+        <row r="1240">
+          <cell r="C1240">
+            <v>16000112</v>
+          </cell>
+        </row>
+        <row r="1241">
+          <cell r="C1241">
+            <v>16000201</v>
+          </cell>
+        </row>
+        <row r="1242">
+          <cell r="C1242">
+            <v>16000202</v>
+          </cell>
+        </row>
+        <row r="1243">
+          <cell r="C1243">
+            <v>16000203</v>
+          </cell>
+        </row>
+        <row r="1244">
+          <cell r="C1244">
+            <v>16000204</v>
+          </cell>
+        </row>
+        <row r="1245">
+          <cell r="C1245">
+            <v>16000205</v>
+          </cell>
+        </row>
+        <row r="1246">
+          <cell r="C1246">
+            <v>16000206</v>
+          </cell>
+        </row>
+        <row r="1247">
+          <cell r="C1247">
+            <v>16000207</v>
+          </cell>
+        </row>
+        <row r="1248">
+          <cell r="C1248">
+            <v>16000208</v>
+          </cell>
+        </row>
+        <row r="1249">
+          <cell r="C1249">
+            <v>16000209</v>
+          </cell>
+        </row>
+        <row r="1250">
+          <cell r="C1250">
+            <v>16000210</v>
+          </cell>
+        </row>
+        <row r="1251">
+          <cell r="C1251">
+            <v>16000211</v>
+          </cell>
+        </row>
+        <row r="1252">
+          <cell r="C1252">
+            <v>16000212</v>
+          </cell>
+        </row>
+        <row r="1253">
+          <cell r="C1253">
+            <v>16000301</v>
+          </cell>
+        </row>
+        <row r="1254">
+          <cell r="C1254">
+            <v>16000302</v>
+          </cell>
+        </row>
+        <row r="1255">
+          <cell r="C1255">
+            <v>16000303</v>
+          </cell>
+        </row>
+        <row r="1256">
+          <cell r="C1256">
+            <v>16000304</v>
+          </cell>
+        </row>
+        <row r="1257">
+          <cell r="C1257">
+            <v>16000305</v>
+          </cell>
+        </row>
+        <row r="1258">
+          <cell r="C1258">
+            <v>16000306</v>
+          </cell>
+        </row>
+        <row r="1259">
+          <cell r="C1259">
+            <v>16000307</v>
+          </cell>
+        </row>
+        <row r="1260">
+          <cell r="C1260">
+            <v>16000308</v>
+          </cell>
+        </row>
+        <row r="1261">
+          <cell r="C1261">
+            <v>16000309</v>
+          </cell>
+        </row>
+        <row r="1262">
+          <cell r="C1262">
+            <v>16000310</v>
+          </cell>
+        </row>
+        <row r="1263">
+          <cell r="C1263">
+            <v>16000311</v>
+          </cell>
+        </row>
+        <row r="1264">
+          <cell r="C1264">
+            <v>16000312</v>
+          </cell>
+        </row>
+        <row r="1265">
+          <cell r="C1265">
+            <v>90000001</v>
+          </cell>
+          <cell r="S1265">
+            <v>67000279</v>
+          </cell>
+        </row>
+        <row r="1266">
+          <cell r="C1266">
+            <v>90000002</v>
+          </cell>
+          <cell r="S1266">
+            <v>67000280</v>
+          </cell>
+        </row>
+        <row r="1267">
+          <cell r="C1267">
+            <v>90000003</v>
+          </cell>
+          <cell r="S1267">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="1268">
+          <cell r="C1268">
+            <v>90000004</v>
+          </cell>
+          <cell r="S1268">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="1269">
+          <cell r="C1269">
+            <v>90000005</v>
+          </cell>
+          <cell r="S1269">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TalentProto"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="64">
+          <cell r="L64">
+            <v>15210011</v>
+          </cell>
+          <cell r="O64">
+            <v>200001</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65">
+            <v>15210111</v>
+          </cell>
+          <cell r="O65">
+            <v>200002</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="L66">
+            <v>15310012</v>
+          </cell>
+          <cell r="O66">
+            <v>200003</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="L67">
+            <v>15310011</v>
+          </cell>
+          <cell r="O67">
+            <v>200004</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="L68">
+            <v>15310112</v>
+          </cell>
+          <cell r="O68">
+            <v>200005</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="L69">
+            <v>15410012</v>
+          </cell>
+          <cell r="O69">
+            <v>200006</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="L70">
+            <v>15410111</v>
+          </cell>
+          <cell r="O70">
+            <v>200007</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="L71">
+            <v>15510012</v>
+          </cell>
+          <cell r="O71">
+            <v>200008</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="L72">
+            <v>15510011</v>
+          </cell>
+          <cell r="O72">
+            <v>200009</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="L73">
+            <v>15510122</v>
+          </cell>
+          <cell r="O73">
+            <v>200010</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -42412,7 +44977,7 @@
       <c r="J3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="90" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="64" t="s">
@@ -42476,7 +45041,7 @@
       <c r="I4" s="74">
         <v>10002</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="64" t="s">
         <v>60</v>
       </c>
@@ -42531,7 +45096,7 @@
       <c r="AW4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" s="89" t="s">
+      <c r="AX4" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AY4" s="64" t="s">
@@ -42560,7 +45125,7 @@
       <c r="I5" s="74">
         <v>10003</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="64" t="s">
         <v>74</v>
       </c>
@@ -42612,7 +45177,7 @@
       <c r="AV5" s="64">
         <v>10002</v>
       </c>
-      <c r="AX5" s="89"/>
+      <c r="AX5" s="90"/>
       <c r="AY5" s="64" t="s">
         <v>60</v>
       </c>
@@ -42637,7 +45202,7 @@
       <c r="I6" s="74">
         <v>10011</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="90" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="64" t="s">
@@ -42667,7 +45232,7 @@
       <c r="AV6" s="64">
         <v>10003</v>
       </c>
-      <c r="AX6" s="89"/>
+      <c r="AX6" s="90"/>
       <c r="AY6" s="64" t="s">
         <v>74</v>
       </c>
@@ -42697,7 +45262,7 @@
       <c r="I7" s="74">
         <v>10012</v>
       </c>
-      <c r="K7" s="89"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="64" t="s">
         <v>60</v>
       </c>
@@ -42743,7 +45308,7 @@
       <c r="AV7" s="64">
         <v>10011</v>
       </c>
-      <c r="AX7" s="89" t="s">
+      <c r="AX7" s="90" t="s">
         <v>90</v>
       </c>
       <c r="AY7" s="64" t="s">
@@ -42772,7 +45337,7 @@
       <c r="I8" s="74">
         <v>10013</v>
       </c>
-      <c r="K8" s="89"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="64" t="s">
         <v>74</v>
       </c>
@@ -42812,7 +45377,7 @@
       <c r="AV8" s="64">
         <v>10012</v>
       </c>
-      <c r="AX8" s="89"/>
+      <c r="AX8" s="90"/>
       <c r="AY8" s="64" t="s">
         <v>60</v>
       </c>
@@ -42828,7 +45393,7 @@
       <c r="I9" s="74">
         <v>10021</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="90" t="s">
         <v>124</v>
       </c>
       <c r="L9" s="64" t="s">
@@ -42852,7 +45417,7 @@
       <c r="AV9" s="64">
         <v>10013</v>
       </c>
-      <c r="AX9" s="89"/>
+      <c r="AX9" s="90"/>
       <c r="AY9" s="64" t="s">
         <v>74</v>
       </c>
@@ -42879,7 +45444,7 @@
       <c r="I10" s="74">
         <v>10022</v>
       </c>
-      <c r="K10" s="89"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="64" t="s">
         <v>60</v>
       </c>
@@ -42923,7 +45488,7 @@
       <c r="AV10" s="64">
         <v>10021</v>
       </c>
-      <c r="AX10" s="89" t="s">
+      <c r="AX10" s="90" t="s">
         <v>124</v>
       </c>
       <c r="AY10" s="64" t="s">
@@ -42952,7 +45517,7 @@
       <c r="I11" s="74">
         <v>10023</v>
       </c>
-      <c r="K11" s="89"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="64" t="s">
         <v>74</v>
       </c>
@@ -43004,7 +45569,7 @@
       <c r="AV11" s="64">
         <v>10022</v>
       </c>
-      <c r="AX11" s="89"/>
+      <c r="AX11" s="90"/>
       <c r="AY11" s="64" t="s">
         <v>60</v>
       </c>
@@ -43021,7 +45586,7 @@
       <c r="I12" s="74">
         <v>10031</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="90" t="s">
         <v>156</v>
       </c>
       <c r="L12" s="64" t="s">
@@ -43054,7 +45619,7 @@
       <c r="AV12" s="64">
         <v>10023</v>
       </c>
-      <c r="AX12" s="89"/>
+      <c r="AX12" s="90"/>
       <c r="AY12" s="64" t="s">
         <v>74</v>
       </c>
@@ -43074,7 +45639,7 @@
       <c r="I13" s="74">
         <v>10032</v>
       </c>
-      <c r="K13" s="89"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="64" t="s">
         <v>60</v>
       </c>
@@ -43102,7 +45667,7 @@
       <c r="AV13" s="64">
         <v>10031</v>
       </c>
-      <c r="AX13" s="89" t="s">
+      <c r="AX13" s="90" t="s">
         <v>156</v>
       </c>
       <c r="AY13" s="64" t="s">
@@ -43135,7 +45700,7 @@
       <c r="I14" s="74">
         <v>10033</v>
       </c>
-      <c r="K14" s="89"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="64" t="s">
         <v>74</v>
       </c>
@@ -43166,7 +45731,7 @@
       <c r="AV14" s="64">
         <v>10032</v>
       </c>
-      <c r="AX14" s="89"/>
+      <c r="AX14" s="90"/>
       <c r="AY14" s="64" t="s">
         <v>60</v>
       </c>
@@ -43191,7 +45756,7 @@
       <c r="I15" s="74">
         <v>10041</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K15" s="90" t="s">
         <v>185</v>
       </c>
       <c r="L15" s="64" t="s">
@@ -43221,7 +45786,7 @@
       <c r="AV15" s="64">
         <v>10033</v>
       </c>
-      <c r="AX15" s="89"/>
+      <c r="AX15" s="90"/>
       <c r="AY15" s="64" t="s">
         <v>74</v>
       </c>
@@ -43246,7 +45811,7 @@
       <c r="I16" s="74">
         <v>10042</v>
       </c>
-      <c r="K16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="64" t="s">
         <v>60</v>
       </c>
@@ -43274,7 +45839,7 @@
       <c r="AV16" s="64">
         <v>10041</v>
       </c>
-      <c r="AX16" s="89" t="s">
+      <c r="AX16" s="90" t="s">
         <v>185</v>
       </c>
       <c r="AY16" s="64" t="s">
@@ -43301,7 +45866,7 @@
       <c r="I17" s="74">
         <v>10043</v>
       </c>
-      <c r="K17" s="89"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="64" t="s">
         <v>74</v>
       </c>
@@ -43324,7 +45889,7 @@
       <c r="AV17" s="64">
         <v>10042</v>
       </c>
-      <c r="AX17" s="89"/>
+      <c r="AX17" s="90"/>
       <c r="AY17" s="64" t="s">
         <v>60</v>
       </c>
@@ -43349,7 +45914,7 @@
       <c r="I18" s="64">
         <v>10051</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="90" t="s">
         <v>207</v>
       </c>
       <c r="L18" s="64" t="s">
@@ -43385,7 +45950,7 @@
       <c r="AV18" s="64">
         <v>10043</v>
       </c>
-      <c r="AX18" s="89"/>
+      <c r="AX18" s="90"/>
       <c r="AY18" s="64" t="s">
         <v>74</v>
       </c>
@@ -43407,7 +45972,7 @@
       <c r="I19" s="64">
         <v>10052</v>
       </c>
-      <c r="K19" s="89"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="64" t="s">
         <v>60</v>
       </c>
@@ -43441,7 +46006,7 @@
       <c r="AV19" s="64">
         <v>10051</v>
       </c>
-      <c r="AX19" s="89" t="s">
+      <c r="AX19" s="90" t="s">
         <v>207</v>
       </c>
       <c r="AY19" s="64" t="s">
@@ -43458,7 +46023,7 @@
       <c r="I20" s="64">
         <v>10053</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="64" t="s">
         <v>74</v>
       </c>
@@ -43489,7 +46054,7 @@
       <c r="AV20" s="64">
         <v>10052</v>
       </c>
-      <c r="AX20" s="89"/>
+      <c r="AX20" s="90"/>
       <c r="AY20" s="64" t="s">
         <v>60</v>
       </c>
@@ -43518,7 +46083,7 @@
         <v>10051</v>
       </c>
       <c r="J21" s="66"/>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="91" t="s">
         <v>236</v>
       </c>
       <c r="L21" s="66" t="s">
@@ -43545,7 +46110,7 @@
       <c r="AV21" s="64">
         <v>10053</v>
       </c>
-      <c r="AX21" s="89"/>
+      <c r="AX21" s="90"/>
       <c r="AY21" s="64" t="s">
         <v>74</v>
       </c>
@@ -43571,7 +46136,7 @@
         <v>10052</v>
       </c>
       <c r="J22" s="66"/>
-      <c r="K22" s="90"/>
+      <c r="K22" s="91"/>
       <c r="L22" s="66" t="s">
         <v>60</v>
       </c>
@@ -43595,7 +46160,7 @@
         <v>10051</v>
       </c>
       <c r="AW22" s="66"/>
-      <c r="AX22" s="90" t="s">
+      <c r="AX22" s="91" t="s">
         <v>236</v>
       </c>
       <c r="AY22" s="66" t="s">
@@ -43630,7 +46195,7 @@
         <v>10053</v>
       </c>
       <c r="J23" s="66"/>
-      <c r="K23" s="90"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="66" t="s">
         <v>74</v>
       </c>
@@ -43664,7 +46229,7 @@
         <v>10052</v>
       </c>
       <c r="AW23" s="66"/>
-      <c r="AX23" s="90"/>
+      <c r="AX23" s="91"/>
       <c r="AY23" s="66" t="s">
         <v>60</v>
       </c>
@@ -43734,7 +46299,7 @@
         <v>10053</v>
       </c>
       <c r="AW24" s="66"/>
-      <c r="AX24" s="90"/>
+      <c r="AX24" s="91"/>
       <c r="AY24" s="66" t="s">
         <v>74</v>
       </c>
@@ -49603,10 +52168,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AR283"/>
+  <dimension ref="A1:AR285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I82" workbookViewId="0">
-      <selection activeCell="X94" sqref="X94"/>
+    <sheetView tabSelected="1" topLeftCell="G85" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53059,7 +55624,7 @@
         <v>62012201</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>2223</v>
+        <v>2215</v>
       </c>
       <c r="Y92" s="86" t="str">
         <f t="shared" si="28"/>
@@ -53110,7 +55675,7 @@
         <v>62012301</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>2222</v>
+        <v>2214</v>
       </c>
       <c r="Y93" s="86" t="str">
         <f t="shared" si="28"/>
@@ -53130,7 +55695,7 @@
         <v>636</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="D94" s="88" t="s">
         <v>856</v>
@@ -53213,7 +55778,7 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="1" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20.100000000000001" customHeight="1">
@@ -53221,7 +55786,7 @@
         <v>645</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="D96" s="88" t="s">
         <v>858</v>
@@ -53246,7 +55811,10 @@
       <c r="M96" s="86" t="s">
         <v>2181</v>
       </c>
-      <c r="P96" s="3"/>
+      <c r="P96" s="3">
+        <f>LOOKUP(Q96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>69000002</v>
+      </c>
       <c r="Q96" s="1">
         <v>14100111</v>
       </c>
@@ -53254,11 +55822,14 @@
         <v>772</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
+      <c r="V96" s="3">
+        <f>LOOKUP(W96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="W96" s="1">
         <v>14110021</v>
       </c>
@@ -53266,11 +55837,14 @@
         <v>780</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>781</v>
+        <v>2218</v>
       </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
+      <c r="AB96" s="3">
+        <f>LOOKUP(AC96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC96" s="1">
         <v>15210012</v>
       </c>
@@ -53280,14 +55854,17 @@
       <c r="AE96" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AF96" s="3"/>
+      <c r="AF96" s="3">
+        <f>LOOKUP(AC96,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200001</v>
+      </c>
     </row>
     <row r="97" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="88" t="s">
         <v>650</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2221</v>
+        <v>2213</v>
       </c>
       <c r="D97" s="88" t="s">
         <v>859</v>
@@ -53313,7 +55890,10 @@
         <v>2182</v>
       </c>
       <c r="N97" s="87"/>
-      <c r="P97" s="3"/>
+      <c r="P97" s="3">
+        <f>LOOKUP(Q97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="Q97" s="1">
         <v>15210112</v>
       </c>
@@ -53325,7 +55905,10 @@
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="V97" s="3">
+        <f>LOOKUP(W97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="W97" s="1">
         <v>14110022</v>
       </c>
@@ -53333,11 +55916,14 @@
         <v>782</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>783</v>
+        <v>2219</v>
       </c>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
+      <c r="AB97" s="3">
+        <f>LOOKUP(AC97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC97" s="1">
         <v>15310011</v>
       </c>
@@ -53347,14 +55933,17 @@
       <c r="AE97" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AF97" s="3"/>
+      <c r="AF97" s="3">
+        <f>LOOKUP(AC97,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200002</v>
+      </c>
     </row>
     <row r="98" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="88" t="s">
         <v>653</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="D98" s="88" t="s">
         <v>860</v>
@@ -53376,13 +55965,19 @@
         <v>2183</v>
       </c>
       <c r="N98" s="87"/>
-      <c r="P98" s="3"/>
+      <c r="P98" s="3" t="e">
+        <f>LOOKUP(Q98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>#N/A</v>
+      </c>
       <c r="R98" s="3" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
+      <c r="V98" s="3">
+        <f>LOOKUP(W98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="W98" s="1">
         <v>15211012</v>
       </c>
@@ -53390,11 +55985,14 @@
         <v>798</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>799</v>
+        <v>2220</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
+      <c r="AB98" s="3">
+        <f>LOOKUP(AC98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC98" s="1">
         <v>15310012</v>
       </c>
@@ -53404,7 +56002,10 @@
       <c r="AE98" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AF98" s="3"/>
+      <c r="AF98" s="3">
+        <f>LOOKUP(AC98,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200003</v>
+      </c>
     </row>
     <row r="99" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="86" t="s">
@@ -53437,7 +56038,10 @@
         <v>2184</v>
       </c>
       <c r="N99" s="87"/>
-      <c r="P99" s="3"/>
+      <c r="P99" s="3">
+        <f>LOOKUP(Q99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="Q99" s="1">
         <v>15211011</v>
       </c>
@@ -53449,7 +56053,10 @@
       </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
+      <c r="V99" s="3">
+        <f>LOOKUP(W99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>69000010</v>
+      </c>
       <c r="W99" s="1">
         <v>15411011</v>
       </c>
@@ -53457,11 +56064,14 @@
         <v>829</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>830</v>
+        <v>2221</v>
       </c>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
+      <c r="AB99" s="3">
+        <f>LOOKUP(AC99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>69000008</v>
+      </c>
       <c r="AC99" s="1">
         <v>15410011</v>
       </c>
@@ -53471,7 +56081,10 @@
       <c r="AE99" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AF99" s="3"/>
+      <c r="AF99" s="3">
+        <f>LOOKUP(AC99,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200005</v>
+      </c>
     </row>
     <row r="100" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="H100" s="87"/>
@@ -53483,7 +56096,10 @@
         <v>2185</v>
       </c>
       <c r="N100" s="87"/>
-      <c r="P100" s="3"/>
+      <c r="P100" s="3">
+        <f>LOOKUP(Q100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>69000011</v>
+      </c>
       <c r="Q100" s="1">
         <v>15510121</v>
       </c>
@@ -53493,7 +56109,10 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
+      <c r="V100" s="3">
+        <f>LOOKUP(W100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>69000012</v>
+      </c>
       <c r="W100" s="1">
         <v>15511011</v>
       </c>
@@ -53501,11 +56120,14 @@
         <v>846</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>847</v>
+        <v>2222</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
+      <c r="AB100" s="3">
+        <f>LOOKUP(AC100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC100" s="1">
         <v>15510011</v>
       </c>
@@ -53515,7 +56137,10 @@
       <c r="AE100" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AF100" s="3"/>
+      <c r="AF100" s="3">
+        <f>LOOKUP(AC100,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200007</v>
+      </c>
     </row>
     <row r="101" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="H101" s="87"/>
@@ -53529,19 +56154,22 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3" t="s">
-        <v>2201</v>
+        <v>2216</v>
       </c>
       <c r="S101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
-      <c r="X101" s="3" t="s">
-        <v>2204</v>
+      <c r="X101" s="7" t="s">
+        <v>2202</v>
       </c>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
+      <c r="AB101" s="3">
+        <f>LOOKUP(AC101,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC101" s="1">
         <v>15510012</v>
       </c>
@@ -53551,7 +56179,10 @@
       <c r="AE101" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AF101" s="3"/>
+      <c r="AF101" s="3">
+        <f>LOOKUP(AC101,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200008</v>
+      </c>
     </row>
     <row r="102" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="1" t="s">
@@ -53571,11 +56202,11 @@
       <c r="N102" s="87"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="S102" s="3"/>
-      <c r="X102" s="3" t="s">
-        <v>2205</v>
+      <c r="X102" s="7" t="s">
+        <v>2223</v>
       </c>
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
@@ -53599,11 +56230,11 @@
       </c>
       <c r="N103" s="87"/>
       <c r="R103" s="3" t="s">
-        <v>2206</v>
+        <v>2217</v>
       </c>
       <c r="S103" s="3"/>
-      <c r="X103" s="3" t="s">
-        <v>2217</v>
+      <c r="X103" s="7" t="s">
+        <v>2224</v>
       </c>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
@@ -53627,10 +56258,10 @@
       </c>
       <c r="N104" s="87"/>
       <c r="R104" s="3" t="s">
-        <v>2211</v>
-      </c>
-      <c r="X104" s="3" t="s">
-        <v>2210</v>
+        <v>2207</v>
+      </c>
+      <c r="X104" s="7" t="s">
+        <v>2206</v>
       </c>
       <c r="AC104" s="1"/>
       <c r="AD104" s="1" t="s">
@@ -53656,10 +56287,14 @@
       </c>
       <c r="N105" s="87"/>
       <c r="R105" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="X105" s="3" t="s">
-        <v>2216</v>
+        <v>2208</v>
+      </c>
+      <c r="X105" s="7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AB105" s="3">
+        <f>LOOKUP(AC105,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
       </c>
       <c r="AC105" s="1">
         <v>15210111</v>
@@ -53670,7 +56305,10 @@
       <c r="AE105" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="AF105" s="3"/>
+      <c r="AF105" s="3">
+        <f>LOOKUP(AC105,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200002</v>
+      </c>
     </row>
     <row r="106" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="44" t="s">
@@ -53688,6 +56326,11 @@
         <v>2191</v>
       </c>
       <c r="N106" s="87"/>
+      <c r="R106" s="86"/>
+      <c r="AB106" s="3">
+        <f>LOOKUP(AC106,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC106" s="1">
         <v>15310112</v>
       </c>
@@ -53697,7 +56340,10 @@
       <c r="AE106" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="AF106" s="3"/>
+      <c r="AF106" s="3">
+        <f>LOOKUP(AC106,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200005</v>
+      </c>
     </row>
     <row r="107" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="44" t="s">
@@ -53715,6 +56361,10 @@
         <v>2192</v>
       </c>
       <c r="N107" s="87"/>
+      <c r="AB107" s="3">
+        <f>LOOKUP(AC107,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC107" s="1">
         <v>15410111</v>
       </c>
@@ -53724,7 +56374,10 @@
       <c r="AE107" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AF107" s="3"/>
+      <c r="AF107" s="3">
+        <f>LOOKUP(AC107,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200007</v>
+      </c>
     </row>
     <row r="108" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="44" t="s">
@@ -53740,12 +56393,16 @@
       <c r="H108" s="87"/>
       <c r="I108" s="87"/>
       <c r="J108" s="87"/>
-      <c r="K108" s="91"/>
+      <c r="K108" s="89"/>
       <c r="L108" s="87"/>
       <c r="M108" s="1" t="s">
         <v>2193</v>
       </c>
       <c r="N108" s="87"/>
+      <c r="AB108" s="3">
+        <f>LOOKUP(AC108,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <v>0</v>
+      </c>
       <c r="AC108" s="1">
         <v>15510122</v>
       </c>
@@ -53755,7 +56412,10 @@
       <c r="AE108" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AF108" s="3"/>
+      <c r="AF108" s="3">
+        <f>LOOKUP(AC108,[3]TalentProto!$L$64:$L$73,[3]TalentProto!$O$64:$O$73)</f>
+        <v>200010</v>
+      </c>
     </row>
     <row r="109" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="1" t="s">
@@ -53800,7 +56460,7 @@
         <v>862</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
@@ -53813,7 +56473,7 @@
     <row r="112" spans="2:32" ht="20.100000000000001" customHeight="1">
       <c r="Q112" s="3"/>
       <c r="R112" s="3" t="s">
-        <v>2203</v>
+        <v>2226</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -53825,7 +56485,7 @@
     <row r="113" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="Q113" s="3"/>
       <c r="R113" s="3" t="s">
-        <v>2212</v>
+        <v>2228</v>
       </c>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -53840,313 +56500,333 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="R114" s="3" t="s">
-        <v>2213</v>
+        <v>2230</v>
       </c>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+    <row r="115" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="Q115" s="3"/>
       <c r="R115" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="S115" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="X115" s="3" t="s">
-        <v>2218</v>
-      </c>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
+        <v>2231</v>
+      </c>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
     </row>
     <row r="116" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>868</v>
-      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="Q116" s="1">
+      <c r="R116" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AC116" s="1"/>
+    </row>
+    <row r="117" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="R117" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="X117" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+    </row>
+    <row r="118" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="Q118" s="1">
         <v>15306003</v>
       </c>
-      <c r="R116" s="3" t="s">
+      <c r="R118" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="S116" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="117" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>877</v>
+      <c r="S118" s="3" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="119" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B119" s="3" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>882</v>
+        <v>871</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="120" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="3" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>886</v>
+        <v>876</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B121" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B122" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B123" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C123" s="1"/>
-      <c r="G123" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>890</v>
+      </c>
       <c r="G124" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C125" s="1"/>
+      <c r="G125" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C126" s="1"/>
+      <c r="G126" s="3" t="s">
         <v>892</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B125" s="45" t="s">
-        <v>893</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>894</v>
-      </c>
-      <c r="D125" s="45" t="s">
-        <v>895</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B126" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>897</v>
-      </c>
-      <c r="D126" s="45" t="s">
-        <v>898</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="45" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>902</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="45" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>906</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="45" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="130" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="45" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>321</v>
+        <v>906</v>
       </c>
     </row>
     <row r="131" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="45" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D131" s="45" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="132" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="45" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>920</v>
+        <v>913</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="45" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>923</v>
+        <v>916</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="134" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="45" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D134" s="45" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="135" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C135" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B136" s="45" t="s">
+        <v>924</v>
+      </c>
+      <c r="C136" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B137" s="45" t="s">
         <v>927</v>
       </c>
-      <c r="C135" s="43" t="s">
+      <c r="C137" s="43" t="s">
         <v>928</v>
       </c>
-      <c r="D135" s="45" t="s">
+      <c r="D137" s="45" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="45" t="s">
+    <row r="138" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B138" s="45" t="s">
         <v>930</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="C138" s="43" t="s">
         <v>931</v>
       </c>
-      <c r="D136" s="45" t="s">
+      <c r="D138" s="45" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="138" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="139" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="140" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="141" spans="2:7" ht="20.100000000000001" customHeight="1"/>
@@ -54170,129 +56850,95 @@
     <row r="159" ht="20.100000000000001" customHeight="1"/>
     <row r="160" ht="20.100000000000001" customHeight="1"/>
     <row r="161" spans="2:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="162" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="3" t="s">
+    <row r="162" spans="2:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="163" spans="2:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="164" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="164" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="165" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="166" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="1" t="s">
+    <row r="165" spans="2:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="166" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="167" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="168" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B168" s="1" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="46" t="s">
-        <v>935</v>
-      </c>
-      <c r="C167" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B168" s="46" t="s">
-        <v>937</v>
-      </c>
-      <c r="C168" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="169" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B169" s="46" t="s">
-        <v>939</v>
+        <v>935</v>
+      </c>
+      <c r="C169" s="1">
+        <v>10000</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="170" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B170" s="46" t="s">
-        <v>941</v>
+        <v>937</v>
+      </c>
+      <c r="C170" s="1">
+        <v>20000</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="171" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B171" s="46" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="172" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B172" s="46" t="s">
-        <v>945</v>
+        <v>941</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="173" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B173" s="46" t="s">
-        <v>946</v>
+        <v>943</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="174" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B174" s="46" t="s">
-        <v>947</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="I174" s="1">
-        <v>3</v>
-      </c>
-      <c r="J174" s="1">
-        <v>5</v>
-      </c>
-      <c r="K174" s="1">
-        <f>J174*I174</f>
-        <v>15</v>
+        <v>945</v>
       </c>
     </row>
     <row r="175" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B175" s="46" t="s">
-        <v>948</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="I175" s="1">
-        <v>3</v>
-      </c>
-      <c r="J175" s="1">
-        <v>5</v>
-      </c>
-      <c r="K175" s="1">
-        <f t="shared" ref="K175:K178" si="33">J175*I175</f>
-        <v>15</v>
+        <v>946</v>
       </c>
     </row>
     <row r="176" spans="2:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B176" s="46" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="I176" s="1">
         <v>3</v>
@@ -54301,961 +56947,972 @@
         <v>5</v>
       </c>
       <c r="K176" s="1">
+        <f>J176*I176</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B177" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="I177" s="1">
+        <v>3</v>
+      </c>
+      <c r="J177" s="1">
+        <v>5</v>
+      </c>
+      <c r="K177" s="1">
+        <f t="shared" ref="K177:K180" si="33">J177*I177</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B178" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="I178" s="1">
+        <v>3</v>
+      </c>
+      <c r="J178" s="1">
+        <v>5</v>
+      </c>
+      <c r="K178" s="1">
         <f t="shared" si="33"/>
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B177" s="46" t="s">
+    <row r="179" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B179" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="I177" s="1">
+      <c r="I179" s="1">
         <v>4</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J179" s="1">
         <v>5</v>
       </c>
-      <c r="K177" s="1">
+      <c r="K179" s="1">
         <f t="shared" si="33"/>
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B178" s="46" t="s">
+    <row r="180" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B180" s="46" t="s">
         <v>951</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="I178" s="1">
+      <c r="I180" s="1">
         <v>4</v>
       </c>
-      <c r="J178" s="1">
+      <c r="J180" s="1">
         <v>5</v>
       </c>
-      <c r="K178" s="1">
+      <c r="K180" s="1">
         <f t="shared" si="33"/>
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="K179" s="1">
-        <f>SUM(K174:K178)</f>
+    <row r="181" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K181" s="1">
+        <f>SUM(K176:K180)</f>
         <v>85</v>
       </c>
-      <c r="L179" s="1">
-        <f>K179/10</f>
+      <c r="L181" s="1">
+        <f>K181/10</f>
         <v>8.5</v>
       </c>
-      <c r="M179" s="1">
-        <f>K179/5</f>
+      <c r="M181" s="1">
+        <f>K181/5</f>
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="181" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="H181" s="1" t="s">
+    <row r="182" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="183" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H183" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="K181" s="1">
+      <c r="K183" s="1">
         <v>10</v>
       </c>
-      <c r="L181" s="1">
-        <f>K181*17</f>
+      <c r="L183" s="1">
+        <f>K183*17</f>
         <v>170</v>
       </c>
-      <c r="M181" s="1">
-        <f>L181/10</f>
+      <c r="M183" s="1">
+        <f>L183/10</f>
         <v>17</v>
       </c>
-      <c r="O181" s="85" t="s">
+      <c r="O183" s="85" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="182" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B182" s="47" t="s">
+    <row r="184" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B184" s="47" t="s">
         <v>953</v>
       </c>
-      <c r="C182" s="47" t="s">
+      <c r="C184" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="D182" s="1" t="str">
-        <f>B182&amp;"·"&amp;C182</f>
+      <c r="D184" s="1" t="str">
+        <f>B184&amp;"·"&amp;C184</f>
         <v>子鼠·破晓</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="F182" s="34">
+      <c r="F184" s="34">
         <v>105101</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="K182" s="1">
+      <c r="K184" s="1">
         <v>15</v>
       </c>
-      <c r="L182" s="1">
-        <f t="shared" ref="L182:L183" si="34">K182*17</f>
+      <c r="L184" s="1">
+        <f t="shared" ref="L184:L185" si="34">K184*17</f>
         <v>255</v>
       </c>
-      <c r="M182" s="1">
-        <f t="shared" ref="M182:M183" si="35">L182/10</f>
+      <c r="M184" s="1">
+        <f t="shared" ref="M184:M185" si="35">L184/10</f>
         <v>25.5</v>
       </c>
-      <c r="O182" s="85" t="s">
+      <c r="O184" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="Q182" s="34" t="s">
+      <c r="Q184" s="34" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="183" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B183" s="47" t="s">
+    <row r="185" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B185" s="47" t="s">
         <v>956</v>
       </c>
-      <c r="C183" s="47" t="s">
+      <c r="C185" s="47" t="s">
         <v>957</v>
       </c>
-      <c r="D183" s="1" t="str">
-        <f t="shared" ref="D183:D193" si="36">B183&amp;"·"&amp;C183</f>
+      <c r="D185" s="1" t="str">
+        <f t="shared" ref="D185:D195" si="36">B185&amp;"·"&amp;C185</f>
         <v>丑牛·破风</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="F183" s="34">
+      <c r="F185" s="34">
         <v>105501</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="K183" s="1">
+      <c r="K185" s="1">
         <v>20</v>
       </c>
-      <c r="L183" s="1">
+      <c r="L185" s="1">
         <f t="shared" si="34"/>
         <v>340</v>
       </c>
-      <c r="M183" s="1">
+      <c r="M185" s="1">
         <f t="shared" si="35"/>
         <v>34</v>
       </c>
-      <c r="O183" s="85" t="s">
+      <c r="O185" s="85" t="s">
         <v>958</v>
       </c>
-      <c r="Q183" s="34" t="s">
+      <c r="Q185" s="34" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="184" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B184" s="47" t="s">
+    <row r="186" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B186" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="C184" s="47" t="s">
+      <c r="C186" s="47" t="s">
         <v>960</v>
       </c>
-      <c r="D184" s="1" t="str">
+      <c r="D186" s="1" t="str">
         <f t="shared" si="36"/>
         <v>寅虎·破军</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="F184" s="34">
+      <c r="F186" s="34">
         <v>105301</v>
       </c>
-      <c r="Q184" s="34" t="s">
+      <c r="Q186" s="34" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="185" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B185" s="47" t="s">
+    <row r="187" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B187" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="C185" s="46" t="s">
+      <c r="C187" s="46" t="s">
         <v>962</v>
       </c>
-      <c r="D185" s="1" t="str">
+      <c r="D187" s="1" t="str">
         <f t="shared" si="36"/>
         <v>卯兔·洪流</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="F185" s="34">
+      <c r="F187" s="34">
         <v>105201</v>
       </c>
-      <c r="L185" s="1">
-        <f>SUM(L181:L183)</f>
+      <c r="L187" s="1">
+        <f>SUM(L183:L185)</f>
         <v>765</v>
       </c>
-      <c r="Q185" s="34" t="s">
+      <c r="Q187" s="34" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="186" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B186" s="47" t="s">
+    <row r="188" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B188" s="47" t="s">
         <v>963</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="C188" s="46" t="s">
         <v>964</v>
       </c>
-      <c r="D186" s="1" t="str">
+      <c r="D188" s="1" t="str">
         <f t="shared" si="36"/>
         <v>辰龙·挽歌</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="F186" s="34">
+      <c r="F188" s="34">
         <v>105501</v>
       </c>
-      <c r="G186" s="34">
+      <c r="G188" s="34">
         <v>105401</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="J186" s="1" t="str">
-        <f>F186&amp;","&amp;G186</f>
+      <c r="J188" s="1" t="str">
+        <f>F188&amp;","&amp;G188</f>
         <v>105501,105401</v>
       </c>
-      <c r="Q186" s="34" t="s">
+      <c r="Q188" s="34" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="187" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B187" s="47" t="s">
+    <row r="189" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B189" s="47" t="s">
         <v>967</v>
       </c>
-      <c r="C187" s="47" t="s">
+      <c r="C189" s="47" t="s">
         <v>968</v>
       </c>
-      <c r="D187" s="1" t="str">
+      <c r="D189" s="1" t="str">
         <f t="shared" si="36"/>
         <v>巳蛇·逐风</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F187" s="34">
+      <c r="F189" s="34">
         <v>105301</v>
       </c>
-      <c r="G187" s="34">
+      <c r="G189" s="34">
         <v>105201</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="J187" s="1" t="str">
-        <f t="shared" ref="J187:J193" si="37">F187&amp;","&amp;G187</f>
+      <c r="J189" s="1" t="str">
+        <f t="shared" ref="J189:J195" si="37">F189&amp;","&amp;G189</f>
         <v>105301,105201</v>
       </c>
     </row>
-    <row r="188" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B188" s="47" t="s">
+    <row r="190" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B190" s="47" t="s">
         <v>970</v>
       </c>
-      <c r="C188" s="47" t="s">
+      <c r="C190" s="47" t="s">
         <v>971</v>
       </c>
-      <c r="D188" s="1" t="str">
+      <c r="D190" s="1" t="str">
         <f t="shared" si="36"/>
         <v>午马·利刃</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="F188" s="34">
+      <c r="F190" s="34">
         <v>105101</v>
       </c>
-      <c r="G188" s="34">
+      <c r="G190" s="34">
         <v>105401</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="J188" s="1" t="str">
+      <c r="J190" s="1" t="str">
         <f t="shared" si="37"/>
         <v>105101,105401</v>
       </c>
     </row>
-    <row r="189" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B189" s="47" t="s">
+    <row r="191" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B191" s="47" t="s">
         <v>974</v>
       </c>
-      <c r="C189" s="47" t="s">
+      <c r="C191" s="47" t="s">
         <v>975</v>
       </c>
-      <c r="D189" s="1" t="str">
+      <c r="D191" s="1" t="str">
         <f t="shared" si="36"/>
         <v>未羊·战魂</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="F189" s="34">
+      <c r="F191" s="34">
         <v>105501</v>
       </c>
-      <c r="G189" s="34">
+      <c r="G191" s="34">
         <v>105201</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="J189" s="1" t="str">
+      <c r="J191" s="1" t="str">
         <f t="shared" si="37"/>
         <v>105501,105201</v>
       </c>
     </row>
-    <row r="190" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B190" s="47" t="s">
+    <row r="192" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B192" s="47" t="s">
         <v>977</v>
       </c>
-      <c r="C190" s="47" t="s">
+      <c r="C192" s="47" t="s">
         <v>978</v>
       </c>
-      <c r="D190" s="1" t="str">
+      <c r="D192" s="1" t="str">
         <f t="shared" si="36"/>
         <v>申猴·清风</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F190" s="34">
+      <c r="F192" s="34">
         <v>105401</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="191" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B191" s="47" t="s">
+    <row r="193" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B193" s="47" t="s">
         <v>980</v>
       </c>
-      <c r="C191" s="47" t="s">
+      <c r="C193" s="47" t="s">
         <v>981</v>
       </c>
-      <c r="D191" s="1" t="str">
+      <c r="D193" s="1" t="str">
         <f t="shared" si="36"/>
         <v>酉鸡·天刺</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="F191" s="34">
+      <c r="F193" s="34">
         <v>105101</v>
       </c>
-      <c r="G191" s="34">
+      <c r="G193" s="34">
         <v>105201</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="J191" s="1" t="str">
+      <c r="J193" s="1" t="str">
         <f t="shared" si="37"/>
         <v>105101,105201</v>
       </c>
     </row>
-    <row r="192" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B192" s="47" t="s">
+    <row r="194" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B194" s="47" t="s">
         <v>983</v>
       </c>
-      <c r="C192" s="47" t="s">
+      <c r="C194" s="47" t="s">
         <v>984</v>
       </c>
-      <c r="D192" s="1" t="str">
+      <c r="D194" s="1" t="str">
         <f t="shared" si="36"/>
         <v>戌狗·惊鸿</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="F192" s="34">
+      <c r="F194" s="34">
         <v>105501</v>
       </c>
-      <c r="G192" s="34">
+      <c r="G194" s="34">
         <v>105301</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="J192" s="1" t="str">
+      <c r="J194" s="1" t="str">
         <f t="shared" si="37"/>
         <v>105501,105301</v>
       </c>
     </row>
-    <row r="193" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B193" s="47" t="s">
+    <row r="195" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B195" s="47" t="s">
         <v>985</v>
       </c>
-      <c r="C193" s="47" t="s">
+      <c r="C195" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="D193" s="1" t="str">
+      <c r="D195" s="1" t="str">
         <f t="shared" si="36"/>
         <v>亥猪·寒裂</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="F193" s="34">
+      <c r="F195" s="34">
         <v>105301</v>
       </c>
-      <c r="G193" s="34">
+      <c r="G195" s="34">
         <v>105401</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="J193" s="1" t="str">
+      <c r="J195" s="1" t="str">
         <f t="shared" si="37"/>
         <v>105301,105401</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-    </row>
     <row r="196" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B196" s="47" t="s">
-        <v>953</v>
-      </c>
-      <c r="C196" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="D196" s="1" t="str">
-        <f>B196&amp;"·"&amp;C196</f>
-        <v>子鼠·天启</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>989</v>
-      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
     </row>
     <row r="197" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B197" s="47" t="s">
-        <v>956</v>
-      </c>
-      <c r="C197" s="46" t="s">
-        <v>990</v>
-      </c>
-      <c r="D197" s="1" t="str">
-        <f t="shared" ref="D197:D207" si="38">B197&amp;"·"&amp;C197</f>
-        <v>丑牛·天正</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>991</v>
-      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
     </row>
     <row r="198" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B198" s="47" t="s">
+        <v>953</v>
+      </c>
+      <c r="C198" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="D198" s="1" t="str">
+        <f>B198&amp;"·"&amp;C198</f>
+        <v>子鼠·天启</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B199" s="47" t="s">
+        <v>956</v>
+      </c>
+      <c r="C199" s="46" t="s">
+        <v>990</v>
+      </c>
+      <c r="D199" s="1" t="str">
+        <f t="shared" ref="D199:D209" si="38">B199&amp;"·"&amp;C199</f>
+        <v>丑牛·天正</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B200" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="C198" s="47" t="s">
+      <c r="C200" s="47" t="s">
         <v>992</v>
       </c>
-      <c r="D198" s="1" t="str">
+      <c r="D200" s="1" t="str">
         <f t="shared" si="38"/>
         <v>寅虎·天罡</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B199" s="47" t="s">
+    <row r="201" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B201" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="C199" s="46" t="s">
+      <c r="C201" s="46" t="s">
         <v>994</v>
       </c>
-      <c r="D199" s="1" t="str">
+      <c r="D201" s="1" t="str">
         <f t="shared" si="38"/>
         <v>卯兔·白鸿</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B200" s="47" t="s">
+    <row r="202" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B202" s="47" t="s">
         <v>963</v>
       </c>
-      <c r="C200" s="47" t="s">
+      <c r="C202" s="47" t="s">
         <v>996</v>
       </c>
-      <c r="D200" s="1" t="str">
+      <c r="D202" s="1" t="str">
         <f t="shared" si="38"/>
         <v>辰龙·紫金</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="201" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B201" s="47" t="s">
+    <row r="203" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B203" s="47" t="s">
         <v>967</v>
       </c>
-      <c r="C201" s="47" t="s">
+      <c r="C203" s="47" t="s">
         <v>998</v>
       </c>
-      <c r="D201" s="1" t="str">
+      <c r="D203" s="1" t="str">
         <f t="shared" si="38"/>
         <v>巳蛇·修罗</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B202" s="47" t="s">
+    <row r="204" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B204" s="47" t="s">
         <v>970</v>
       </c>
-      <c r="C202" s="47" t="s">
+      <c r="C204" s="47" t="s">
         <v>1000</v>
       </c>
-      <c r="D202" s="1" t="str">
+      <c r="D204" s="1" t="str">
         <f t="shared" si="38"/>
         <v>午马·金甲</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="203" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B203" s="47" t="s">
+    <row r="205" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B205" s="47" t="s">
         <v>974</v>
       </c>
-      <c r="C203" s="47" t="s">
+      <c r="C205" s="47" t="s">
         <v>1002</v>
       </c>
-      <c r="D203" s="1" t="str">
+      <c r="D205" s="1" t="str">
         <f t="shared" si="38"/>
         <v>未羊·苍穹</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B204" s="47" t="s">
+    <row r="206" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B206" s="47" t="s">
         <v>977</v>
       </c>
-      <c r="C204" s="47" t="s">
+      <c r="C206" s="47" t="s">
         <v>1004</v>
       </c>
-      <c r="D204" s="1" t="str">
+      <c r="D206" s="1" t="str">
         <f t="shared" si="38"/>
         <v>申猴·龙牙</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="205" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B205" s="47" t="s">
+    <row r="207" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B207" s="47" t="s">
         <v>980</v>
       </c>
-      <c r="C205" s="47" t="s">
+      <c r="C207" s="47" t="s">
         <v>1006</v>
       </c>
-      <c r="D205" s="1" t="str">
+      <c r="D207" s="1" t="str">
         <f t="shared" si="38"/>
         <v>酉鸡·漠灵</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B206" s="47" t="s">
+    <row r="208" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B208" s="47" t="s">
         <v>983</v>
       </c>
-      <c r="C206" s="47" t="s">
+      <c r="C208" s="47" t="s">
         <v>1008</v>
       </c>
-      <c r="D206" s="1" t="str">
+      <c r="D208" s="1" t="str">
         <f t="shared" si="38"/>
         <v>戌狗·无尽</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="207" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B207" s="47" t="s">
+    <row r="209" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B209" s="47" t="s">
         <v>985</v>
       </c>
-      <c r="C207" s="47" t="s">
+      <c r="C209" s="47" t="s">
         <v>1010</v>
       </c>
-      <c r="D207" s="1" t="str">
+      <c r="D209" s="1" t="str">
         <f t="shared" si="38"/>
         <v>亥猪·焚天</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="H209" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="209" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="210" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="211" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="D212" s="1"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B213" s="48">
+    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="212" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="213" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="D214" s="1"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B215" s="48">
         <v>10010037</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C215" s="49" t="s">
         <v>1012</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="3" t="s">
+      <c r="D215" s="1"/>
+      <c r="E215" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="D214" s="15"/>
-      <c r="E214" s="3" t="s">
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="D216" s="15"/>
+      <c r="E216" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F216" s="1">
         <v>1</v>
       </c>
-      <c r="G214" s="1">
+      <c r="G216" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B215" s="1" t="s">
+    <row r="217" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B217" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C215" s="15">
+      <c r="C217" s="15">
         <v>3</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F217" s="1">
         <v>1.5</v>
       </c>
-      <c r="G215" s="1">
+      <c r="G217" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="E216" s="3" t="s">
+    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="E218" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F218" s="1">
         <v>2</v>
       </c>
-      <c r="G216" s="1">
+      <c r="G218" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="E217" s="3"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B218" s="1" t="s">
+    <row r="219" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="E219" s="3"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B220" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C218" s="1"/>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B219" s="1">
+      <c r="C220" s="1"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B221" s="1">
         <v>1</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C221" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B220" s="1">
+    <row r="222" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B222" s="1">
         <v>2</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C222" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B221" s="1">
+    <row r="223" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B223" s="1">
         <v>3</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C223" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A223" s="5"/>
-      <c r="B223" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C223" s="1"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="224" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="5"/>
-      <c r="B224" s="1">
-        <v>1</v>
-      </c>
-      <c r="C224" s="1">
-        <v>12</v>
-      </c>
-      <c r="D224" s="1">
-        <f>C224/3</f>
-        <v>4</v>
-      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
+      <c r="G224" s="1" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="225" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="5"/>
-      <c r="B225" s="1">
-        <v>2</v>
-      </c>
-      <c r="C225" s="1">
-        <v>36</v>
-      </c>
-      <c r="D225" s="1">
-        <f t="shared" ref="D225:D226" si="39">C225/3</f>
-        <v>12</v>
-      </c>
-      <c r="E225" s="5"/>
+      <c r="B225" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="1"/>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="1">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1">
+        <v>12</v>
+      </c>
+      <c r="D226" s="1">
+        <f>C226/3</f>
+        <v>4</v>
+      </c>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A227" s="5"/>
+      <c r="B227" s="1">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1">
+        <v>36</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" ref="D227:D228" si="39">C227/3</f>
+        <v>12</v>
+      </c>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A228" s="5"/>
+      <c r="B228" s="1">
         <v>3</v>
       </c>
-      <c r="C226" s="1">
-        <f>C225*3</f>
+      <c r="C228" s="1">
+        <f>C227*3</f>
         <v>108</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D228" s="1">
         <f t="shared" si="39"/>
         <v>36</v>
       </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-    </row>
-    <row r="228" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+    </row>
     <row r="229" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B229" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B230" s="1">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+    </row>
+    <row r="230" spans="1:6" ht="20.100000000000001" customHeight="1"/>
     <row r="231" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B231" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B232" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B233" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="233" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B233" s="1" t="s">
+    <row r="234" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="235" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B235" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B234" s="1" t="s">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B236" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C236" s="1">
         <f>4*3*1.5+3*3</f>
         <v>27</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234">
+      <c r="D236" s="1"/>
+      <c r="E236">
         <f>3*3*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B235" s="1">
+    <row r="237" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B237" s="1">
         <v>1</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C237" s="1">
         <v>0.08</v>
       </c>
-      <c r="D235" s="1">
-        <f>C235*C234</f>
+      <c r="D237" s="1">
+        <f>C237*C236</f>
         <v>2.16</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B236" s="1">
+    <row r="238" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B238" s="1">
         <v>2</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C238" s="1">
         <v>0.01</v>
       </c>
-      <c r="D236" s="1">
-        <f>C236*C234</f>
+      <c r="D238" s="1">
+        <f>C238*C236</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B237" s="1" t="s">
+    <row r="239" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B239" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C239" s="1">
         <v>0.3</v>
       </c>
-      <c r="D237" s="1">
-        <f>C234*C237/10</f>
+      <c r="D239" s="1">
+        <f>C236*C239/10</f>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="239" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B239" s="48">
+    <row r="240" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="241" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B241" s="48">
         <v>10010037</v>
       </c>
-      <c r="C239" s="49" t="s">
+      <c r="C241" s="49" t="s">
         <v>1012</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D241" s="1">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B240" s="32">
-        <v>16000101</v>
-      </c>
-      <c r="C240" s="33" t="s">
-        <v>935</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B241" s="32">
-        <v>16000102</v>
-      </c>
-      <c r="C241" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0.08</v>
       </c>
     </row>
     <row r="242" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B242" s="32">
-        <v>16000103</v>
+        <v>16000101</v>
       </c>
       <c r="C242" s="33" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D242" s="1">
         <v>0.08</v>
       </c>
-      <c r="G242">
-        <v>1380</v>
-      </c>
-      <c r="H242">
-        <v>1500</v>
-      </c>
     </row>
     <row r="243" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B243" s="32">
-        <v>16000104</v>
+        <v>16000102</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D243" s="1">
         <v>0.08</v>
       </c>
-      <c r="G243">
-        <v>1400</v>
-      </c>
     </row>
     <row r="244" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B244" s="32">
-        <v>16000105</v>
+        <v>16000103</v>
       </c>
       <c r="C244" s="33" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D244" s="1">
         <v>0.08</v>
       </c>
       <c r="G244">
-        <v>1400</v>
+        <v>1380</v>
+      </c>
+      <c r="H244">
+        <v>1500</v>
       </c>
     </row>
     <row r="245" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B245" s="32">
-        <v>16000106</v>
+        <v>16000104</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D245" s="1">
         <v>0.08</v>
       </c>
+      <c r="G245">
+        <v>1400</v>
+      </c>
     </row>
     <row r="246" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B246" s="32">
-        <v>16000107</v>
+        <v>16000105</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D246" s="1">
         <v>0.08</v>
@@ -55263,16 +57920,13 @@
       <c r="G246">
         <v>1400</v>
       </c>
-      <c r="H246">
-        <v>1380</v>
-      </c>
     </row>
     <row r="247" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B247" s="32">
-        <v>16000108</v>
+        <v>16000106</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D247" s="1">
         <v>0.08</v>
@@ -55280,21 +57934,27 @@
     </row>
     <row r="248" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B248" s="32">
-        <v>16000109</v>
+        <v>16000107</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D248" s="1">
         <v>0.08</v>
       </c>
+      <c r="G248">
+        <v>1400</v>
+      </c>
+      <c r="H248">
+        <v>1380</v>
+      </c>
     </row>
     <row r="249" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B249" s="32">
-        <v>16000110</v>
+        <v>16000108</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D249" s="1">
         <v>0.08</v>
@@ -55302,10 +57962,10 @@
     </row>
     <row r="250" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B250" s="32">
-        <v>16000111</v>
+        <v>16000109</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D250" s="1">
         <v>0.08</v>
@@ -55313,10 +57973,10 @@
     </row>
     <row r="251" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B251" s="32">
-        <v>16000112</v>
+        <v>16000110</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D251" s="1">
         <v>0.08</v>
@@ -55324,32 +57984,32 @@
     </row>
     <row r="252" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B252" s="32">
-        <v>16000201</v>
+        <v>16000111</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>1024</v>
+        <v>950</v>
       </c>
       <c r="D252" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="253" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B253" s="32">
-        <v>16000202</v>
+        <v>16000112</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>1025</v>
+        <v>951</v>
       </c>
       <c r="D253" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="254" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B254" s="32">
-        <v>16000203</v>
+        <v>16000201</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D254" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55357,10 +58017,10 @@
     </row>
     <row r="255" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B255" s="32">
-        <v>16000204</v>
+        <v>16000202</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D255" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55368,10 +58028,10 @@
     </row>
     <row r="256" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B256" s="32">
-        <v>16000205</v>
+        <v>16000203</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D256" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55379,10 +58039,10 @@
     </row>
     <row r="257" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B257" s="32">
-        <v>16000206</v>
+        <v>16000204</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D257" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55390,10 +58050,10 @@
     </row>
     <row r="258" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B258" s="32">
-        <v>16000207</v>
+        <v>16000205</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D258" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55401,10 +58061,10 @@
     </row>
     <row r="259" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B259" s="32">
-        <v>16000208</v>
+        <v>16000206</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D259" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55412,10 +58072,10 @@
     </row>
     <row r="260" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B260" s="32">
-        <v>16000209</v>
+        <v>16000207</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D260" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55423,10 +58083,10 @@
     </row>
     <row r="261" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B261" s="32">
-        <v>16000210</v>
+        <v>16000208</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D261" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55434,10 +58094,10 @@
     </row>
     <row r="262" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B262" s="32">
-        <v>16000211</v>
+        <v>16000209</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D262" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55445,10 +58105,10 @@
     </row>
     <row r="263" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B263" s="32">
-        <v>16000212</v>
+        <v>16000210</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D263" s="1">
         <v>1.4999999999999999E-2</v>
@@ -55456,108 +58116,130 @@
     </row>
     <row r="264" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B264" s="32">
-        <v>16000301</v>
+        <v>16000211</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>1036</v>
+        <v>1034</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="265" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B265" s="32">
-        <v>16000302</v>
+        <v>16000212</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>1037</v>
+        <v>1035</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B266" s="32">
-        <v>16000303</v>
+        <v>16000301</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="267" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B267" s="32">
-        <v>16000304</v>
+        <v>16000302</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="268" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B268" s="32">
-        <v>16000305</v>
+        <v>16000303</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="269" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B269" s="32">
-        <v>16000306</v>
+        <v>16000304</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="270" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B270" s="32">
-        <v>16000307</v>
+        <v>16000305</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="271" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B271" s="32">
-        <v>16000308</v>
+        <v>16000306</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="272" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B272" s="32">
-        <v>16000309</v>
+        <v>16000307</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B273" s="32">
-        <v>16000310</v>
+        <v>16000308</v>
       </c>
       <c r="C273" s="33" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B274" s="32">
-        <v>16000311</v>
+        <v>16000309</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="275" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B275" s="32">
+        <v>16000310</v>
+      </c>
+      <c r="C275" s="33" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B276" s="32">
+        <v>16000311</v>
+      </c>
+      <c r="C276" s="33" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B277" s="32">
         <v>16000312</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C277" s="33" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="277" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="278" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="279" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="280" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="281" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="282" spans="2:3" ht="20.100000000000001" customHeight="1"/>
     <row r="283" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="284" spans="2:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="285" spans="2:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6A165F-88BF-4B73-AF7E-46FCBA8F2364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BD6E5-A69C-4FF9-9E8C-F13687DD1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -8266,2406 +8266,2398 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="809">
-          <cell r="C809">
-            <v>14010001</v>
-          </cell>
-        </row>
         <row r="810">
           <cell r="C810">
-            <v>14010002</v>
+            <v>14010001</v>
           </cell>
         </row>
         <row r="811">
           <cell r="C811">
-            <v>14010003</v>
+            <v>14010002</v>
           </cell>
         </row>
         <row r="812">
           <cell r="C812">
-            <v>14010004</v>
+            <v>14010003</v>
           </cell>
         </row>
         <row r="813">
           <cell r="C813">
-            <v>14010005</v>
+            <v>14010004</v>
           </cell>
         </row>
         <row r="814">
           <cell r="C814">
-            <v>14010006</v>
+            <v>14010005</v>
           </cell>
         </row>
         <row r="815">
           <cell r="C815">
-            <v>14010007</v>
+            <v>14010006</v>
           </cell>
         </row>
         <row r="816">
           <cell r="C816">
-            <v>14010008</v>
+            <v>14010007</v>
           </cell>
         </row>
         <row r="817">
           <cell r="C817">
-            <v>14010009</v>
+            <v>14010008</v>
           </cell>
         </row>
         <row r="818">
           <cell r="C818">
-            <v>14010010</v>
+            <v>14010009</v>
           </cell>
         </row>
         <row r="819">
           <cell r="C819">
-            <v>14010011</v>
+            <v>14010010</v>
           </cell>
         </row>
         <row r="820">
           <cell r="C820">
-            <v>14010012</v>
+            <v>14010011</v>
           </cell>
         </row>
         <row r="821">
           <cell r="C821">
-            <v>14020001</v>
+            <v>14010012</v>
           </cell>
         </row>
         <row r="822">
           <cell r="C822">
-            <v>14020002</v>
+            <v>14020001</v>
           </cell>
         </row>
         <row r="823">
           <cell r="C823">
-            <v>14020003</v>
+            <v>14020002</v>
           </cell>
         </row>
         <row r="824">
           <cell r="C824">
-            <v>14020004</v>
+            <v>14020003</v>
           </cell>
         </row>
         <row r="825">
           <cell r="C825">
-            <v>14020005</v>
+            <v>14020004</v>
           </cell>
         </row>
         <row r="826">
           <cell r="C826">
-            <v>14020006</v>
+            <v>14020005</v>
           </cell>
         </row>
         <row r="827">
           <cell r="C827">
-            <v>14020007</v>
+            <v>14020006</v>
           </cell>
         </row>
         <row r="828">
           <cell r="C828">
-            <v>14020008</v>
+            <v>14020007</v>
           </cell>
         </row>
         <row r="829">
           <cell r="C829">
-            <v>14020009</v>
+            <v>14020008</v>
           </cell>
         </row>
         <row r="830">
           <cell r="C830">
-            <v>14020010</v>
+            <v>14020009</v>
           </cell>
         </row>
         <row r="831">
           <cell r="C831">
-            <v>14020011</v>
+            <v>14020010</v>
           </cell>
         </row>
         <row r="832">
           <cell r="C832">
-            <v>14020012</v>
+            <v>14020011</v>
           </cell>
         </row>
         <row r="833">
           <cell r="C833">
-            <v>14020013</v>
+            <v>14020012</v>
           </cell>
         </row>
         <row r="834">
           <cell r="C834">
-            <v>14030001</v>
+            <v>14020013</v>
           </cell>
         </row>
         <row r="835">
           <cell r="C835">
-            <v>14030002</v>
+            <v>14030001</v>
           </cell>
         </row>
         <row r="836">
           <cell r="C836">
-            <v>14030003</v>
+            <v>14030002</v>
           </cell>
         </row>
         <row r="837">
           <cell r="C837">
-            <v>14030004</v>
+            <v>14030003</v>
           </cell>
         </row>
         <row r="838">
           <cell r="C838">
-            <v>14030005</v>
+            <v>14030004</v>
           </cell>
         </row>
         <row r="839">
           <cell r="C839">
-            <v>14030006</v>
+            <v>14030005</v>
           </cell>
         </row>
         <row r="840">
           <cell r="C840">
-            <v>14030007</v>
+            <v>14030006</v>
           </cell>
         </row>
         <row r="841">
           <cell r="C841">
-            <v>14030008</v>
+            <v>14030007</v>
           </cell>
         </row>
         <row r="842">
           <cell r="C842">
-            <v>14030009</v>
+            <v>14030008</v>
           </cell>
         </row>
         <row r="843">
           <cell r="C843">
-            <v>14030010</v>
+            <v>14030009</v>
           </cell>
         </row>
         <row r="844">
           <cell r="C844">
-            <v>14030011</v>
+            <v>14030010</v>
           </cell>
         </row>
         <row r="845">
           <cell r="C845">
-            <v>14030012</v>
+            <v>14030011</v>
           </cell>
         </row>
         <row r="846">
           <cell r="C846">
-            <v>14030013</v>
+            <v>14030012</v>
           </cell>
         </row>
         <row r="847">
           <cell r="C847">
-            <v>14040001</v>
+            <v>14030013</v>
           </cell>
         </row>
         <row r="848">
           <cell r="C848">
-            <v>14040002</v>
+            <v>14040001</v>
           </cell>
         </row>
         <row r="849">
           <cell r="C849">
-            <v>14040003</v>
+            <v>14040002</v>
           </cell>
         </row>
         <row r="850">
           <cell r="C850">
-            <v>14040004</v>
+            <v>14040003</v>
           </cell>
         </row>
         <row r="851">
           <cell r="C851">
-            <v>14040005</v>
+            <v>14040004</v>
           </cell>
         </row>
         <row r="852">
           <cell r="C852">
-            <v>14040006</v>
+            <v>14040005</v>
           </cell>
         </row>
         <row r="853">
           <cell r="C853">
-            <v>14040007</v>
+            <v>14040006</v>
           </cell>
         </row>
         <row r="854">
           <cell r="C854">
-            <v>14040008</v>
+            <v>14040007</v>
           </cell>
         </row>
         <row r="855">
           <cell r="C855">
-            <v>14040009</v>
+            <v>14040008</v>
           </cell>
         </row>
         <row r="856">
           <cell r="C856">
-            <v>14040010</v>
+            <v>14040009</v>
           </cell>
         </row>
         <row r="857">
           <cell r="C857">
-            <v>14040011</v>
+            <v>14040010</v>
           </cell>
         </row>
         <row r="858">
           <cell r="C858">
-            <v>14040012</v>
+            <v>14040011</v>
           </cell>
         </row>
         <row r="859">
           <cell r="C859">
-            <v>14050001</v>
+            <v>14040012</v>
           </cell>
         </row>
         <row r="860">
           <cell r="C860">
-            <v>14050002</v>
+            <v>14050001</v>
           </cell>
         </row>
         <row r="861">
           <cell r="C861">
-            <v>14050003</v>
+            <v>14050002</v>
           </cell>
         </row>
         <row r="862">
           <cell r="C862">
-            <v>14050004</v>
+            <v>14050003</v>
           </cell>
         </row>
         <row r="863">
           <cell r="C863">
-            <v>14050005</v>
+            <v>14050004</v>
           </cell>
         </row>
         <row r="864">
           <cell r="C864">
-            <v>14050006</v>
+            <v>14050005</v>
           </cell>
         </row>
         <row r="865">
           <cell r="C865">
-            <v>14050007</v>
+            <v>14050006</v>
           </cell>
         </row>
         <row r="866">
           <cell r="C866">
-            <v>14050008</v>
+            <v>14050007</v>
           </cell>
         </row>
         <row r="867">
           <cell r="C867">
-            <v>14050009</v>
+            <v>14050008</v>
           </cell>
         </row>
         <row r="868">
           <cell r="C868">
-            <v>14050010</v>
+            <v>14050009</v>
           </cell>
         </row>
         <row r="869">
           <cell r="C869">
-            <v>14050011</v>
+            <v>14050010</v>
           </cell>
         </row>
         <row r="870">
           <cell r="C870">
-            <v>14050012</v>
+            <v>14050011</v>
           </cell>
         </row>
         <row r="871">
           <cell r="C871">
-            <v>14060001</v>
+            <v>14050012</v>
           </cell>
         </row>
         <row r="872">
           <cell r="C872">
-            <v>14060002</v>
+            <v>14060001</v>
           </cell>
         </row>
         <row r="873">
           <cell r="C873">
-            <v>14060003</v>
+            <v>14060002</v>
           </cell>
         </row>
         <row r="874">
           <cell r="C874">
-            <v>14060004</v>
+            <v>14060003</v>
           </cell>
         </row>
         <row r="875">
           <cell r="C875">
-            <v>14060005</v>
+            <v>14060004</v>
           </cell>
         </row>
         <row r="876">
           <cell r="C876">
-            <v>14070001</v>
+            <v>14060005</v>
           </cell>
         </row>
         <row r="877">
           <cell r="C877">
-            <v>14070002</v>
+            <v>14070001</v>
           </cell>
         </row>
         <row r="878">
           <cell r="C878">
-            <v>14070003</v>
+            <v>14070002</v>
           </cell>
         </row>
         <row r="879">
           <cell r="C879">
-            <v>14070004</v>
+            <v>14070003</v>
           </cell>
         </row>
         <row r="880">
           <cell r="C880">
-            <v>14080001</v>
-          </cell>
-          <cell r="S880">
-            <v>66001001</v>
+            <v>14070004</v>
           </cell>
         </row>
         <row r="881">
           <cell r="C881">
-            <v>14080002</v>
+            <v>14080001</v>
           </cell>
           <cell r="S881">
-            <v>66001002</v>
+            <v>66001001</v>
           </cell>
         </row>
         <row r="882">
           <cell r="C882">
-            <v>14080003</v>
+            <v>14080002</v>
           </cell>
           <cell r="S882">
-            <v>66001003</v>
+            <v>66001002</v>
           </cell>
         </row>
         <row r="883">
           <cell r="C883">
-            <v>14080004</v>
+            <v>14080003</v>
           </cell>
           <cell r="S883">
-            <v>66001012</v>
+            <v>66001003</v>
           </cell>
         </row>
         <row r="884">
           <cell r="C884">
-            <v>14090001</v>
+            <v>14080004</v>
+          </cell>
+          <cell r="S884">
+            <v>66001012</v>
           </cell>
         </row>
         <row r="885">
           <cell r="C885">
-            <v>14090002</v>
+            <v>14090001</v>
           </cell>
         </row>
         <row r="886">
           <cell r="C886">
-            <v>14090003</v>
+            <v>14090002</v>
           </cell>
         </row>
         <row r="887">
           <cell r="C887">
-            <v>14090004</v>
+            <v>14090003</v>
           </cell>
         </row>
         <row r="888">
           <cell r="C888">
-            <v>14100001</v>
+            <v>14090004</v>
           </cell>
         </row>
         <row r="889">
           <cell r="C889">
-            <v>14100002</v>
+            <v>14100001</v>
           </cell>
         </row>
         <row r="890">
           <cell r="C890">
-            <v>14100003</v>
+            <v>14100002</v>
           </cell>
         </row>
         <row r="891">
           <cell r="C891">
-            <v>14100004</v>
+            <v>14100003</v>
           </cell>
         </row>
         <row r="892">
           <cell r="C892">
-            <v>14100005</v>
+            <v>14100004</v>
           </cell>
         </row>
         <row r="893">
           <cell r="C893">
-            <v>14100006</v>
+            <v>14100005</v>
           </cell>
         </row>
         <row r="894">
           <cell r="C894">
-            <v>14100007</v>
+            <v>14100006</v>
           </cell>
         </row>
         <row r="895">
           <cell r="C895">
-            <v>14100008</v>
+            <v>14100007</v>
           </cell>
         </row>
         <row r="896">
           <cell r="C896">
-            <v>14100011</v>
-          </cell>
-          <cell r="S896">
-            <v>69000001</v>
+            <v>14100008</v>
           </cell>
         </row>
         <row r="897">
           <cell r="C897">
-            <v>14100012</v>
+            <v>14100011</v>
+          </cell>
+          <cell r="S897">
+            <v>69000001</v>
           </cell>
         </row>
         <row r="898">
           <cell r="C898">
-            <v>14100101</v>
+            <v>14100012</v>
           </cell>
         </row>
         <row r="899">
           <cell r="C899">
-            <v>14100102</v>
+            <v>14100101</v>
           </cell>
         </row>
         <row r="900">
           <cell r="C900">
-            <v>14100103</v>
+            <v>14100102</v>
           </cell>
         </row>
         <row r="901">
           <cell r="C901">
-            <v>14100104</v>
+            <v>14100103</v>
           </cell>
         </row>
         <row r="902">
           <cell r="C902">
-            <v>14100105</v>
+            <v>14100104</v>
           </cell>
         </row>
         <row r="903">
           <cell r="C903">
-            <v>14100106</v>
+            <v>14100105</v>
           </cell>
         </row>
         <row r="904">
           <cell r="C904">
-            <v>14100107</v>
+            <v>14100106</v>
           </cell>
         </row>
         <row r="905">
           <cell r="C905">
-            <v>14100108</v>
+            <v>14100107</v>
           </cell>
         </row>
         <row r="906">
           <cell r="C906">
-            <v>14100111</v>
-          </cell>
-          <cell r="S906">
-            <v>69000002</v>
+            <v>14100108</v>
           </cell>
         </row>
         <row r="907">
           <cell r="C907">
-            <v>14100112</v>
+            <v>14100111</v>
           </cell>
           <cell r="S907">
-            <v>69000003</v>
+            <v>69000002</v>
           </cell>
         </row>
         <row r="908">
           <cell r="C908">
-            <v>14110001</v>
+            <v>14100112</v>
+          </cell>
+          <cell r="S908">
+            <v>69000003</v>
           </cell>
         </row>
         <row r="909">
           <cell r="C909">
-            <v>14110002</v>
+            <v>14110001</v>
           </cell>
         </row>
         <row r="910">
           <cell r="C910">
-            <v>14110003</v>
+            <v>14110002</v>
           </cell>
         </row>
         <row r="911">
           <cell r="C911">
-            <v>14110004</v>
+            <v>14110003</v>
           </cell>
         </row>
         <row r="912">
           <cell r="C912">
-            <v>14110005</v>
+            <v>14110004</v>
           </cell>
         </row>
         <row r="913">
           <cell r="C913">
-            <v>14110006</v>
+            <v>14110005</v>
           </cell>
         </row>
         <row r="914">
           <cell r="C914">
-            <v>14110007</v>
+            <v>14110006</v>
           </cell>
         </row>
         <row r="915">
           <cell r="C915">
-            <v>14110008</v>
+            <v>14110007</v>
           </cell>
         </row>
         <row r="916">
           <cell r="C916">
-            <v>14110009</v>
+            <v>14110008</v>
           </cell>
         </row>
         <row r="917">
           <cell r="C917">
-            <v>14110010</v>
+            <v>14110009</v>
           </cell>
         </row>
         <row r="918">
           <cell r="C918">
-            <v>14110011</v>
+            <v>14110010</v>
           </cell>
         </row>
         <row r="919">
           <cell r="C919">
-            <v>14110012</v>
+            <v>14110011</v>
           </cell>
         </row>
         <row r="920">
           <cell r="C920">
-            <v>14110021</v>
+            <v>14110012</v>
           </cell>
         </row>
         <row r="921">
           <cell r="C921">
-            <v>14110022</v>
+            <v>14110021</v>
           </cell>
         </row>
         <row r="922">
           <cell r="C922">
-            <v>14110023</v>
+            <v>14110022</v>
           </cell>
         </row>
         <row r="923">
           <cell r="C923">
-            <v>15201001</v>
+            <v>14110023</v>
           </cell>
         </row>
         <row r="924">
           <cell r="C924">
-            <v>15201002</v>
+            <v>15201001</v>
           </cell>
         </row>
         <row r="925">
           <cell r="C925">
-            <v>15201003</v>
+            <v>15201002</v>
           </cell>
         </row>
         <row r="926">
           <cell r="C926">
-            <v>15201004</v>
+            <v>15201003</v>
           </cell>
         </row>
         <row r="927">
           <cell r="C927">
-            <v>15201005</v>
+            <v>15201004</v>
           </cell>
         </row>
         <row r="928">
           <cell r="C928">
-            <v>15201006</v>
+            <v>15201005</v>
           </cell>
         </row>
         <row r="929">
           <cell r="C929">
-            <v>15202001</v>
+            <v>15201006</v>
           </cell>
         </row>
         <row r="930">
           <cell r="C930">
-            <v>15202002</v>
+            <v>15202001</v>
           </cell>
         </row>
         <row r="931">
           <cell r="C931">
-            <v>15202003</v>
+            <v>15202002</v>
           </cell>
         </row>
         <row r="932">
           <cell r="C932">
-            <v>15202004</v>
+            <v>15202003</v>
           </cell>
         </row>
         <row r="933">
           <cell r="C933">
-            <v>15202005</v>
+            <v>15202004</v>
           </cell>
         </row>
         <row r="934">
           <cell r="C934">
-            <v>15202006</v>
+            <v>15202005</v>
           </cell>
         </row>
         <row r="935">
           <cell r="C935">
-            <v>15203001</v>
+            <v>15202006</v>
           </cell>
         </row>
         <row r="936">
           <cell r="C936">
-            <v>15203002</v>
+            <v>15203001</v>
           </cell>
         </row>
         <row r="937">
           <cell r="C937">
-            <v>15203003</v>
+            <v>15203002</v>
           </cell>
         </row>
         <row r="938">
           <cell r="C938">
-            <v>15203004</v>
+            <v>15203003</v>
           </cell>
         </row>
         <row r="939">
           <cell r="C939">
-            <v>15203005</v>
+            <v>15203004</v>
           </cell>
         </row>
         <row r="940">
           <cell r="C940">
-            <v>15203006</v>
+            <v>15203005</v>
           </cell>
         </row>
         <row r="941">
           <cell r="C941">
-            <v>15204001</v>
+            <v>15203006</v>
           </cell>
         </row>
         <row r="942">
           <cell r="C942">
-            <v>15204002</v>
+            <v>15204001</v>
           </cell>
         </row>
         <row r="943">
           <cell r="C943">
-            <v>15204003</v>
+            <v>15204002</v>
           </cell>
         </row>
         <row r="944">
           <cell r="C944">
-            <v>15204004</v>
+            <v>15204003</v>
           </cell>
         </row>
         <row r="945">
           <cell r="C945">
-            <v>15204005</v>
+            <v>15204004</v>
           </cell>
         </row>
         <row r="946">
           <cell r="C946">
-            <v>15204006</v>
+            <v>15204005</v>
           </cell>
         </row>
         <row r="947">
           <cell r="C947">
-            <v>15205001</v>
+            <v>15204006</v>
           </cell>
         </row>
         <row r="948">
           <cell r="C948">
-            <v>15205002</v>
+            <v>15205001</v>
           </cell>
         </row>
         <row r="949">
           <cell r="C949">
-            <v>15205003</v>
+            <v>15205002</v>
           </cell>
         </row>
         <row r="950">
           <cell r="C950">
-            <v>15205004</v>
+            <v>15205003</v>
           </cell>
         </row>
         <row r="951">
           <cell r="C951">
-            <v>15205005</v>
+            <v>15205004</v>
           </cell>
         </row>
         <row r="952">
           <cell r="C952">
-            <v>15205006</v>
+            <v>15205005</v>
           </cell>
         </row>
         <row r="953">
           <cell r="C953">
-            <v>15205007</v>
+            <v>15205006</v>
           </cell>
         </row>
         <row r="954">
           <cell r="C954">
-            <v>15206001</v>
+            <v>15205007</v>
           </cell>
         </row>
         <row r="955">
           <cell r="C955">
-            <v>15206002</v>
+            <v>15206001</v>
           </cell>
         </row>
         <row r="956">
           <cell r="C956">
-            <v>15206003</v>
+            <v>15206002</v>
           </cell>
         </row>
         <row r="957">
           <cell r="C957">
-            <v>15207001</v>
+            <v>15206003</v>
           </cell>
         </row>
         <row r="958">
           <cell r="C958">
-            <v>15207002</v>
+            <v>15207001</v>
           </cell>
         </row>
         <row r="959">
           <cell r="C959">
-            <v>15207003</v>
+            <v>15207002</v>
           </cell>
         </row>
         <row r="960">
           <cell r="C960">
-            <v>15208001</v>
-          </cell>
-          <cell r="S960">
-            <v>66001004</v>
+            <v>15207003</v>
           </cell>
         </row>
         <row r="961">
           <cell r="C961">
-            <v>15208002</v>
+            <v>15208001</v>
           </cell>
           <cell r="S961">
-            <v>66001005</v>
+            <v>66001004</v>
           </cell>
         </row>
         <row r="962">
           <cell r="C962">
-            <v>15208003</v>
+            <v>15208002</v>
           </cell>
           <cell r="S962">
-            <v>66001013</v>
+            <v>66001005</v>
           </cell>
         </row>
         <row r="963">
           <cell r="C963">
-            <v>15209001</v>
+            <v>15208003</v>
+          </cell>
+          <cell r="S963">
+            <v>66001013</v>
           </cell>
         </row>
         <row r="964">
           <cell r="C964">
-            <v>15209002</v>
+            <v>15209001</v>
           </cell>
         </row>
         <row r="965">
           <cell r="C965">
-            <v>15210001</v>
+            <v>15209002</v>
           </cell>
         </row>
         <row r="966">
           <cell r="C966">
-            <v>15210002</v>
+            <v>15210001</v>
           </cell>
         </row>
         <row r="967">
           <cell r="C967">
-            <v>15210003</v>
+            <v>15210002</v>
           </cell>
         </row>
         <row r="968">
           <cell r="C968">
-            <v>15210004</v>
+            <v>15210003</v>
           </cell>
         </row>
         <row r="969">
           <cell r="C969">
-            <v>15210011</v>
+            <v>15210004</v>
           </cell>
         </row>
         <row r="970">
           <cell r="C970">
-            <v>15210012</v>
+            <v>15210011</v>
           </cell>
         </row>
         <row r="971">
           <cell r="C971">
-            <v>15210101</v>
+            <v>15210012</v>
           </cell>
         </row>
         <row r="972">
           <cell r="C972">
-            <v>15210102</v>
+            <v>15210101</v>
           </cell>
         </row>
         <row r="973">
           <cell r="C973">
-            <v>15210103</v>
+            <v>15210102</v>
           </cell>
         </row>
         <row r="974">
           <cell r="C974">
-            <v>15210104</v>
+            <v>15210103</v>
           </cell>
         </row>
         <row r="975">
           <cell r="C975">
-            <v>15210111</v>
+            <v>15210104</v>
           </cell>
         </row>
         <row r="976">
           <cell r="C976">
-            <v>15210112</v>
+            <v>15210111</v>
           </cell>
         </row>
         <row r="977">
           <cell r="C977">
-            <v>15211001</v>
+            <v>15210112</v>
           </cell>
         </row>
         <row r="978">
           <cell r="C978">
-            <v>15211002</v>
+            <v>15211001</v>
           </cell>
         </row>
         <row r="979">
           <cell r="C979">
-            <v>15211003</v>
+            <v>15211002</v>
           </cell>
         </row>
         <row r="980">
           <cell r="C980">
-            <v>15211004</v>
+            <v>15211003</v>
           </cell>
         </row>
         <row r="981">
           <cell r="C981">
-            <v>15211005</v>
+            <v>15211004</v>
           </cell>
         </row>
         <row r="982">
           <cell r="C982">
-            <v>15211006</v>
+            <v>15211005</v>
           </cell>
         </row>
         <row r="983">
           <cell r="C983">
-            <v>15211011</v>
+            <v>15211006</v>
           </cell>
         </row>
         <row r="984">
           <cell r="C984">
-            <v>15211012</v>
+            <v>15211011</v>
           </cell>
         </row>
         <row r="985">
           <cell r="C985">
-            <v>15211013</v>
-          </cell>
-          <cell r="S985">
-            <v>69000004</v>
+            <v>15211012</v>
           </cell>
         </row>
         <row r="986">
           <cell r="C986">
-            <v>15301001</v>
+            <v>15211013</v>
+          </cell>
+          <cell r="S986">
+            <v>69000004</v>
           </cell>
         </row>
         <row r="987">
           <cell r="C987">
-            <v>15301002</v>
+            <v>15301001</v>
           </cell>
         </row>
         <row r="988">
           <cell r="C988">
-            <v>15301003</v>
+            <v>15301002</v>
           </cell>
         </row>
         <row r="989">
           <cell r="C989">
-            <v>15301004</v>
+            <v>15301003</v>
           </cell>
         </row>
         <row r="990">
           <cell r="C990">
-            <v>15301005</v>
+            <v>15301004</v>
           </cell>
         </row>
         <row r="991">
           <cell r="C991">
-            <v>15301006</v>
+            <v>15301005</v>
           </cell>
         </row>
         <row r="992">
           <cell r="C992">
-            <v>15302001</v>
+            <v>15301006</v>
           </cell>
         </row>
         <row r="993">
           <cell r="C993">
-            <v>15302002</v>
+            <v>15302001</v>
           </cell>
         </row>
         <row r="994">
           <cell r="C994">
-            <v>15302003</v>
+            <v>15302002</v>
           </cell>
         </row>
         <row r="995">
           <cell r="C995">
-            <v>15302004</v>
+            <v>15302003</v>
           </cell>
         </row>
         <row r="996">
           <cell r="C996">
-            <v>15302005</v>
+            <v>15302004</v>
           </cell>
         </row>
         <row r="997">
           <cell r="C997">
-            <v>15302006</v>
+            <v>15302005</v>
           </cell>
         </row>
         <row r="998">
           <cell r="C998">
-            <v>15302007</v>
+            <v>15302006</v>
           </cell>
         </row>
         <row r="999">
           <cell r="C999">
-            <v>15303001</v>
+            <v>15302007</v>
           </cell>
         </row>
         <row r="1000">
           <cell r="C1000">
-            <v>15303002</v>
+            <v>15303001</v>
           </cell>
         </row>
         <row r="1001">
           <cell r="C1001">
-            <v>15303003</v>
+            <v>15303002</v>
           </cell>
         </row>
         <row r="1002">
           <cell r="C1002">
-            <v>15303004</v>
+            <v>15303003</v>
           </cell>
         </row>
         <row r="1003">
           <cell r="C1003">
-            <v>15303005</v>
+            <v>15303004</v>
           </cell>
         </row>
         <row r="1004">
           <cell r="C1004">
-            <v>15303006</v>
+            <v>15303005</v>
           </cell>
         </row>
         <row r="1005">
           <cell r="C1005">
-            <v>15304001</v>
+            <v>15303006</v>
           </cell>
         </row>
         <row r="1006">
           <cell r="C1006">
-            <v>15304002</v>
+            <v>15304001</v>
           </cell>
         </row>
         <row r="1007">
           <cell r="C1007">
-            <v>15304003</v>
+            <v>15304002</v>
           </cell>
         </row>
         <row r="1008">
           <cell r="C1008">
-            <v>15304004</v>
+            <v>15304003</v>
           </cell>
         </row>
         <row r="1009">
           <cell r="C1009">
-            <v>15304005</v>
+            <v>15304004</v>
           </cell>
         </row>
         <row r="1010">
           <cell r="C1010">
-            <v>15304006</v>
+            <v>15304005</v>
           </cell>
         </row>
         <row r="1011">
           <cell r="C1011">
-            <v>15305001</v>
+            <v>15304006</v>
           </cell>
         </row>
         <row r="1012">
           <cell r="C1012">
-            <v>15305002</v>
+            <v>15305001</v>
           </cell>
         </row>
         <row r="1013">
           <cell r="C1013">
-            <v>15305003</v>
+            <v>15305002</v>
           </cell>
         </row>
         <row r="1014">
           <cell r="C1014">
-            <v>15305004</v>
+            <v>15305003</v>
           </cell>
         </row>
         <row r="1015">
           <cell r="C1015">
-            <v>15305005</v>
+            <v>15305004</v>
           </cell>
         </row>
         <row r="1016">
           <cell r="C1016">
-            <v>15305006</v>
+            <v>15305005</v>
           </cell>
         </row>
         <row r="1017">
           <cell r="C1017">
-            <v>15306001</v>
+            <v>15305006</v>
           </cell>
         </row>
         <row r="1018">
           <cell r="C1018">
-            <v>15306002</v>
+            <v>15306001</v>
           </cell>
         </row>
         <row r="1019">
           <cell r="C1019">
-            <v>15306003</v>
+            <v>15306002</v>
           </cell>
         </row>
         <row r="1020">
           <cell r="C1020">
-            <v>15307001</v>
+            <v>15306003</v>
           </cell>
         </row>
         <row r="1021">
           <cell r="C1021">
-            <v>15307002</v>
+            <v>15307001</v>
           </cell>
         </row>
         <row r="1022">
           <cell r="C1022">
-            <v>15308001</v>
-          </cell>
-          <cell r="S1022">
-            <v>66001006</v>
+            <v>15307002</v>
           </cell>
         </row>
         <row r="1023">
           <cell r="C1023">
-            <v>15308002</v>
+            <v>15308001</v>
           </cell>
           <cell r="S1023">
-            <v>66001007</v>
+            <v>66001006</v>
           </cell>
         </row>
         <row r="1024">
           <cell r="C1024">
-            <v>15308003</v>
+            <v>15308002</v>
           </cell>
           <cell r="S1024">
-            <v>66001014</v>
+            <v>66001007</v>
           </cell>
         </row>
         <row r="1025">
           <cell r="C1025">
-            <v>15308004</v>
+            <v>15308003</v>
           </cell>
           <cell r="S1025">
-            <v>66001017</v>
+            <v>66001014</v>
           </cell>
         </row>
         <row r="1026">
           <cell r="C1026">
-            <v>15309001</v>
+            <v>15308004</v>
+          </cell>
+          <cell r="S1026">
+            <v>66001017</v>
           </cell>
         </row>
         <row r="1027">
           <cell r="C1027">
-            <v>15309002</v>
+            <v>15309001</v>
           </cell>
         </row>
         <row r="1028">
           <cell r="C1028">
-            <v>15309003</v>
+            <v>15309002</v>
           </cell>
         </row>
         <row r="1029">
           <cell r="C1029">
-            <v>15310001</v>
+            <v>15309003</v>
           </cell>
         </row>
         <row r="1030">
           <cell r="C1030">
-            <v>15310002</v>
+            <v>15310001</v>
           </cell>
         </row>
         <row r="1031">
           <cell r="C1031">
-            <v>15310003</v>
+            <v>15310002</v>
           </cell>
         </row>
         <row r="1032">
           <cell r="C1032">
-            <v>15310004</v>
+            <v>15310003</v>
           </cell>
         </row>
         <row r="1033">
           <cell r="C1033">
-            <v>15310011</v>
+            <v>15310004</v>
           </cell>
         </row>
         <row r="1034">
           <cell r="C1034">
-            <v>15310012</v>
+            <v>15310011</v>
           </cell>
         </row>
         <row r="1035">
           <cell r="C1035">
-            <v>15310101</v>
+            <v>15310012</v>
           </cell>
         </row>
         <row r="1036">
           <cell r="C1036">
-            <v>15310102</v>
+            <v>15310101</v>
           </cell>
         </row>
         <row r="1037">
           <cell r="C1037">
-            <v>15310103</v>
+            <v>15310102</v>
           </cell>
         </row>
         <row r="1038">
           <cell r="C1038">
-            <v>15310104</v>
+            <v>15310103</v>
           </cell>
         </row>
         <row r="1039">
           <cell r="C1039">
-            <v>15310111</v>
-          </cell>
-          <cell r="S1039">
-            <v>69000005</v>
+            <v>15310104</v>
           </cell>
         </row>
         <row r="1040">
           <cell r="C1040">
-            <v>15310112</v>
+            <v>15310111</v>
+          </cell>
+          <cell r="S1040">
+            <v>69000005</v>
           </cell>
         </row>
         <row r="1041">
           <cell r="C1041">
-            <v>15311001</v>
+            <v>15310112</v>
           </cell>
         </row>
         <row r="1042">
           <cell r="C1042">
-            <v>15311002</v>
+            <v>15311001</v>
           </cell>
         </row>
         <row r="1043">
           <cell r="C1043">
-            <v>15311003</v>
+            <v>15311002</v>
           </cell>
         </row>
         <row r="1044">
           <cell r="C1044">
-            <v>15311004</v>
+            <v>15311003</v>
           </cell>
         </row>
         <row r="1045">
           <cell r="C1045">
-            <v>15311005</v>
+            <v>15311004</v>
           </cell>
         </row>
         <row r="1046">
           <cell r="C1046">
-            <v>15311006</v>
+            <v>15311005</v>
           </cell>
         </row>
         <row r="1047">
           <cell r="C1047">
-            <v>15311011</v>
+            <v>15311006</v>
           </cell>
         </row>
         <row r="1048">
           <cell r="C1048">
-            <v>15311012</v>
+            <v>15311011</v>
           </cell>
         </row>
         <row r="1049">
           <cell r="C1049">
-            <v>15311013</v>
-          </cell>
-          <cell r="S1049">
-            <v>69000006</v>
+            <v>15311012</v>
           </cell>
         </row>
         <row r="1050">
           <cell r="C1050">
-            <v>15401001</v>
+            <v>15311013</v>
+          </cell>
+          <cell r="S1050">
+            <v>69000006</v>
           </cell>
         </row>
         <row r="1051">
           <cell r="C1051">
-            <v>15401002</v>
+            <v>15401001</v>
           </cell>
         </row>
         <row r="1052">
           <cell r="C1052">
-            <v>15401003</v>
+            <v>15401002</v>
           </cell>
         </row>
         <row r="1053">
           <cell r="C1053">
-            <v>15401004</v>
+            <v>15401003</v>
           </cell>
         </row>
         <row r="1054">
           <cell r="C1054">
-            <v>15401005</v>
+            <v>15401004</v>
           </cell>
         </row>
         <row r="1055">
           <cell r="C1055">
-            <v>15401006</v>
+            <v>15401005</v>
           </cell>
         </row>
         <row r="1056">
           <cell r="C1056">
-            <v>15401007</v>
+            <v>15401006</v>
           </cell>
         </row>
         <row r="1057">
           <cell r="C1057">
-            <v>15402001</v>
+            <v>15401007</v>
           </cell>
         </row>
         <row r="1058">
           <cell r="C1058">
-            <v>15402002</v>
+            <v>15402001</v>
           </cell>
         </row>
         <row r="1059">
           <cell r="C1059">
-            <v>15402003</v>
+            <v>15402002</v>
           </cell>
         </row>
         <row r="1060">
           <cell r="C1060">
-            <v>15402004</v>
+            <v>15402003</v>
           </cell>
         </row>
         <row r="1061">
           <cell r="C1061">
-            <v>15402005</v>
+            <v>15402004</v>
           </cell>
         </row>
         <row r="1062">
           <cell r="C1062">
-            <v>15402006</v>
+            <v>15402005</v>
           </cell>
         </row>
         <row r="1063">
           <cell r="C1063">
-            <v>15403001</v>
+            <v>15402006</v>
           </cell>
         </row>
         <row r="1064">
           <cell r="C1064">
-            <v>15403002</v>
+            <v>15403001</v>
           </cell>
         </row>
         <row r="1065">
           <cell r="C1065">
-            <v>15403003</v>
+            <v>15403002</v>
           </cell>
         </row>
         <row r="1066">
           <cell r="C1066">
-            <v>15403004</v>
+            <v>15403003</v>
           </cell>
         </row>
         <row r="1067">
           <cell r="C1067">
-            <v>15403005</v>
+            <v>15403004</v>
           </cell>
         </row>
         <row r="1068">
           <cell r="C1068">
-            <v>15403006</v>
+            <v>15403005</v>
           </cell>
         </row>
         <row r="1069">
           <cell r="C1069">
-            <v>15404001</v>
+            <v>15403006</v>
           </cell>
         </row>
         <row r="1070">
           <cell r="C1070">
-            <v>15404002</v>
+            <v>15404001</v>
           </cell>
         </row>
         <row r="1071">
           <cell r="C1071">
-            <v>15404003</v>
+            <v>15404002</v>
           </cell>
         </row>
         <row r="1072">
           <cell r="C1072">
-            <v>15404004</v>
+            <v>15404003</v>
           </cell>
         </row>
         <row r="1073">
           <cell r="C1073">
-            <v>15404005</v>
+            <v>15404004</v>
           </cell>
         </row>
         <row r="1074">
           <cell r="C1074">
-            <v>15404006</v>
+            <v>15404005</v>
           </cell>
         </row>
         <row r="1075">
           <cell r="C1075">
-            <v>15405001</v>
+            <v>15404006</v>
           </cell>
         </row>
         <row r="1076">
           <cell r="C1076">
-            <v>15405002</v>
+            <v>15405001</v>
           </cell>
         </row>
         <row r="1077">
           <cell r="C1077">
-            <v>15405003</v>
+            <v>15405002</v>
           </cell>
         </row>
         <row r="1078">
           <cell r="C1078">
-            <v>15405004</v>
+            <v>15405003</v>
           </cell>
         </row>
         <row r="1079">
           <cell r="C1079">
-            <v>15405005</v>
+            <v>15405004</v>
           </cell>
         </row>
         <row r="1080">
           <cell r="C1080">
-            <v>15405006</v>
+            <v>15405005</v>
           </cell>
         </row>
         <row r="1081">
           <cell r="C1081">
-            <v>15406001</v>
+            <v>15405006</v>
           </cell>
         </row>
         <row r="1082">
           <cell r="C1082">
-            <v>15406002</v>
+            <v>15406001</v>
           </cell>
         </row>
         <row r="1083">
           <cell r="C1083">
-            <v>15406003</v>
-          </cell>
-          <cell r="S1083">
-            <v>69000007</v>
+            <v>15406002</v>
           </cell>
         </row>
         <row r="1084">
           <cell r="C1084">
-            <v>15407001</v>
+            <v>15406003</v>
+          </cell>
+          <cell r="S1084">
+            <v>69000007</v>
           </cell>
         </row>
         <row r="1085">
           <cell r="C1085">
-            <v>15407002</v>
+            <v>15407001</v>
           </cell>
         </row>
         <row r="1086">
           <cell r="C1086">
-            <v>15407003</v>
+            <v>15407002</v>
           </cell>
         </row>
         <row r="1087">
           <cell r="C1087">
-            <v>15408001</v>
-          </cell>
-          <cell r="S1087">
-            <v>66001008</v>
+            <v>15407003</v>
           </cell>
         </row>
         <row r="1088">
           <cell r="C1088">
-            <v>15408002</v>
+            <v>15408001</v>
           </cell>
           <cell r="S1088">
-            <v>66001009</v>
+            <v>66001008</v>
           </cell>
         </row>
         <row r="1089">
           <cell r="C1089">
-            <v>15408003</v>
+            <v>15408002</v>
           </cell>
           <cell r="S1089">
-            <v>66001015</v>
+            <v>66001009</v>
           </cell>
         </row>
         <row r="1090">
           <cell r="C1090">
-            <v>15409001</v>
+            <v>15408003</v>
+          </cell>
+          <cell r="S1090">
+            <v>66001015</v>
           </cell>
         </row>
         <row r="1091">
           <cell r="C1091">
-            <v>15409002</v>
+            <v>15409001</v>
           </cell>
         </row>
         <row r="1092">
           <cell r="C1092">
-            <v>15410001</v>
+            <v>15409002</v>
           </cell>
         </row>
         <row r="1093">
           <cell r="C1093">
-            <v>15410002</v>
+            <v>15410001</v>
           </cell>
         </row>
         <row r="1094">
           <cell r="C1094">
-            <v>15410003</v>
+            <v>15410002</v>
           </cell>
         </row>
         <row r="1095">
           <cell r="C1095">
-            <v>15410004</v>
+            <v>15410003</v>
           </cell>
         </row>
         <row r="1096">
           <cell r="C1096">
-            <v>15410011</v>
-          </cell>
-          <cell r="S1096">
-            <v>69000008</v>
+            <v>15410004</v>
           </cell>
         </row>
         <row r="1097">
           <cell r="C1097">
-            <v>15410012</v>
+            <v>15410011</v>
+          </cell>
+          <cell r="S1097">
+            <v>69000008</v>
           </cell>
         </row>
         <row r="1098">
           <cell r="C1098">
-            <v>15410101</v>
+            <v>15410012</v>
           </cell>
         </row>
         <row r="1099">
           <cell r="C1099">
-            <v>15410102</v>
+            <v>15410101</v>
           </cell>
         </row>
         <row r="1100">
           <cell r="C1100">
-            <v>15410103</v>
+            <v>15410102</v>
           </cell>
         </row>
         <row r="1101">
           <cell r="C1101">
-            <v>15410104</v>
+            <v>15410103</v>
           </cell>
         </row>
         <row r="1102">
           <cell r="C1102">
-            <v>15410111</v>
+            <v>15410104</v>
           </cell>
         </row>
         <row r="1103">
           <cell r="C1103">
-            <v>15410112</v>
-          </cell>
-          <cell r="S1103">
-            <v>69000009</v>
+            <v>15410111</v>
           </cell>
         </row>
         <row r="1104">
           <cell r="C1104">
-            <v>15411001</v>
+            <v>15410112</v>
+          </cell>
+          <cell r="S1104">
+            <v>69000009</v>
           </cell>
         </row>
         <row r="1105">
           <cell r="C1105">
-            <v>15411002</v>
+            <v>15411001</v>
           </cell>
         </row>
         <row r="1106">
           <cell r="C1106">
-            <v>15411003</v>
+            <v>15411002</v>
           </cell>
         </row>
         <row r="1107">
           <cell r="C1107">
-            <v>15411004</v>
+            <v>15411003</v>
           </cell>
         </row>
         <row r="1108">
           <cell r="C1108">
-            <v>15411005</v>
+            <v>15411004</v>
           </cell>
         </row>
         <row r="1109">
           <cell r="C1109">
-            <v>15411006</v>
+            <v>15411005</v>
           </cell>
         </row>
         <row r="1110">
           <cell r="C1110">
-            <v>15411011</v>
-          </cell>
-          <cell r="S1110">
-            <v>69000010</v>
+            <v>15411006</v>
           </cell>
         </row>
         <row r="1111">
           <cell r="C1111">
-            <v>15411012</v>
+            <v>15411011</v>
+          </cell>
+          <cell r="S1111">
+            <v>69000010</v>
           </cell>
         </row>
         <row r="1112">
           <cell r="C1112">
-            <v>15411013</v>
+            <v>15411012</v>
           </cell>
         </row>
         <row r="1113">
           <cell r="C1113">
-            <v>15501001</v>
+            <v>15411013</v>
           </cell>
         </row>
         <row r="1114">
           <cell r="C1114">
-            <v>15501002</v>
+            <v>15501001</v>
           </cell>
         </row>
         <row r="1115">
           <cell r="C1115">
-            <v>15501003</v>
+            <v>15501002</v>
           </cell>
         </row>
         <row r="1116">
           <cell r="C1116">
-            <v>15501004</v>
+            <v>15501003</v>
           </cell>
         </row>
         <row r="1117">
           <cell r="C1117">
-            <v>15501005</v>
+            <v>15501004</v>
           </cell>
         </row>
         <row r="1118">
           <cell r="C1118">
-            <v>15501006</v>
+            <v>15501005</v>
           </cell>
         </row>
         <row r="1119">
           <cell r="C1119">
-            <v>15502001</v>
+            <v>15501006</v>
           </cell>
         </row>
         <row r="1120">
           <cell r="C1120">
-            <v>15502002</v>
+            <v>15502001</v>
           </cell>
         </row>
         <row r="1121">
           <cell r="C1121">
-            <v>15502003</v>
+            <v>15502002</v>
           </cell>
         </row>
         <row r="1122">
           <cell r="C1122">
-            <v>15502004</v>
+            <v>15502003</v>
           </cell>
         </row>
         <row r="1123">
           <cell r="C1123">
-            <v>15502005</v>
+            <v>15502004</v>
           </cell>
         </row>
         <row r="1124">
           <cell r="C1124">
-            <v>15502006</v>
+            <v>15502005</v>
           </cell>
         </row>
         <row r="1125">
           <cell r="C1125">
-            <v>15503001</v>
+            <v>15502006</v>
           </cell>
         </row>
         <row r="1126">
           <cell r="C1126">
-            <v>15503002</v>
+            <v>15503001</v>
           </cell>
         </row>
         <row r="1127">
           <cell r="C1127">
-            <v>15503003</v>
+            <v>15503002</v>
           </cell>
         </row>
         <row r="1128">
           <cell r="C1128">
-            <v>15503004</v>
+            <v>15503003</v>
           </cell>
         </row>
         <row r="1129">
           <cell r="C1129">
-            <v>15503005</v>
+            <v>15503004</v>
           </cell>
         </row>
         <row r="1130">
           <cell r="C1130">
-            <v>15503006</v>
+            <v>15503005</v>
           </cell>
         </row>
         <row r="1131">
           <cell r="C1131">
-            <v>15503007</v>
+            <v>15503006</v>
           </cell>
         </row>
         <row r="1132">
           <cell r="C1132">
-            <v>15504001</v>
+            <v>15503007</v>
           </cell>
         </row>
         <row r="1133">
           <cell r="C1133">
-            <v>15504002</v>
+            <v>15504001</v>
           </cell>
         </row>
         <row r="1134">
           <cell r="C1134">
-            <v>15504003</v>
+            <v>15504002</v>
           </cell>
         </row>
         <row r="1135">
           <cell r="C1135">
-            <v>15504004</v>
+            <v>15504003</v>
           </cell>
         </row>
         <row r="1136">
           <cell r="C1136">
-            <v>15504005</v>
+            <v>15504004</v>
           </cell>
         </row>
         <row r="1137">
           <cell r="C1137">
-            <v>15504006</v>
+            <v>15504005</v>
           </cell>
         </row>
         <row r="1138">
           <cell r="C1138">
-            <v>15505001</v>
+            <v>15504006</v>
           </cell>
         </row>
         <row r="1139">
           <cell r="C1139">
-            <v>15505002</v>
+            <v>15505001</v>
           </cell>
         </row>
         <row r="1140">
           <cell r="C1140">
-            <v>15505003</v>
+            <v>15505002</v>
           </cell>
         </row>
         <row r="1141">
           <cell r="C1141">
-            <v>15505004</v>
+            <v>15505003</v>
           </cell>
         </row>
         <row r="1142">
           <cell r="C1142">
-            <v>15505005</v>
+            <v>15505004</v>
           </cell>
         </row>
         <row r="1143">
           <cell r="C1143">
-            <v>15505006</v>
+            <v>15505005</v>
           </cell>
         </row>
         <row r="1144">
           <cell r="C1144">
-            <v>15506001</v>
+            <v>15505006</v>
           </cell>
         </row>
         <row r="1145">
           <cell r="C1145">
-            <v>15506002</v>
+            <v>15506001</v>
           </cell>
         </row>
         <row r="1146">
           <cell r="C1146">
-            <v>15506003</v>
+            <v>15506002</v>
           </cell>
         </row>
         <row r="1147">
           <cell r="C1147">
-            <v>15507001</v>
+            <v>15506003</v>
           </cell>
         </row>
         <row r="1148">
           <cell r="C1148">
-            <v>15507002</v>
+            <v>15507001</v>
           </cell>
         </row>
         <row r="1149">
           <cell r="C1149">
-            <v>15507003</v>
+            <v>15507002</v>
           </cell>
         </row>
         <row r="1150">
           <cell r="C1150">
-            <v>15508001</v>
-          </cell>
-          <cell r="S1150">
-            <v>66001010</v>
+            <v>15507003</v>
           </cell>
         </row>
         <row r="1151">
           <cell r="C1151">
-            <v>15508002</v>
+            <v>15508001</v>
           </cell>
           <cell r="S1151">
-            <v>66001011</v>
+            <v>66001010</v>
           </cell>
         </row>
         <row r="1152">
           <cell r="C1152">
-            <v>15508003</v>
+            <v>15508002</v>
           </cell>
           <cell r="S1152">
-            <v>66001016</v>
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1153">
           <cell r="C1153">
-            <v>15509001</v>
+            <v>15508003</v>
+          </cell>
+          <cell r="S1153">
+            <v>66001016</v>
           </cell>
         </row>
         <row r="1154">
           <cell r="C1154">
-            <v>15509002</v>
+            <v>15509001</v>
           </cell>
         </row>
         <row r="1155">
           <cell r="C1155">
-            <v>15509003</v>
+            <v>15509002</v>
           </cell>
         </row>
         <row r="1156">
           <cell r="C1156">
-            <v>15510001</v>
+            <v>15509003</v>
           </cell>
         </row>
         <row r="1157">
           <cell r="C1157">
-            <v>15510002</v>
+            <v>15510001</v>
           </cell>
         </row>
         <row r="1158">
           <cell r="C1158">
-            <v>15510003</v>
+            <v>15510002</v>
           </cell>
         </row>
         <row r="1159">
           <cell r="C1159">
-            <v>15510004</v>
+            <v>15510003</v>
           </cell>
         </row>
         <row r="1160">
           <cell r="C1160">
-            <v>15510011</v>
+            <v>15510004</v>
           </cell>
         </row>
         <row r="1161">
           <cell r="C1161">
-            <v>15510012</v>
+            <v>15510011</v>
           </cell>
         </row>
         <row r="1162">
           <cell r="C1162">
-            <v>15510101</v>
+            <v>15510012</v>
           </cell>
         </row>
         <row r="1163">
           <cell r="C1163">
-            <v>15510102</v>
+            <v>15510101</v>
           </cell>
         </row>
         <row r="1164">
           <cell r="C1164">
-            <v>15510103</v>
+            <v>15510102</v>
           </cell>
         </row>
         <row r="1165">
           <cell r="C1165">
-            <v>15510104</v>
+            <v>15510103</v>
           </cell>
         </row>
         <row r="1166">
           <cell r="C1166">
-            <v>15510121</v>
-          </cell>
-          <cell r="S1166">
-            <v>69000011</v>
+            <v>15510104</v>
           </cell>
         </row>
         <row r="1167">
           <cell r="C1167">
-            <v>15510122</v>
+            <v>15510121</v>
+          </cell>
+          <cell r="S1167">
+            <v>69000011</v>
           </cell>
         </row>
         <row r="1168">
           <cell r="C1168">
-            <v>15511001</v>
+            <v>15510122</v>
           </cell>
         </row>
         <row r="1169">
           <cell r="C1169">
-            <v>15511002</v>
+            <v>15511001</v>
           </cell>
         </row>
         <row r="1170">
           <cell r="C1170">
-            <v>15511003</v>
+            <v>15511002</v>
           </cell>
         </row>
         <row r="1171">
           <cell r="C1171">
-            <v>15511004</v>
+            <v>15511003</v>
           </cell>
         </row>
         <row r="1172">
           <cell r="C1172">
-            <v>15511005</v>
+            <v>15511004</v>
           </cell>
         </row>
         <row r="1173">
           <cell r="C1173">
-            <v>15511006</v>
+            <v>15511005</v>
           </cell>
         </row>
         <row r="1174">
           <cell r="C1174">
-            <v>15511011</v>
-          </cell>
-          <cell r="S1174">
-            <v>69000012</v>
+            <v>15511006</v>
           </cell>
         </row>
         <row r="1175">
           <cell r="C1175">
-            <v>15511012</v>
+            <v>15511011</v>
+          </cell>
+          <cell r="S1175">
+            <v>69000012</v>
           </cell>
         </row>
         <row r="1176">
           <cell r="C1176">
-            <v>15511013</v>
+            <v>15511012</v>
           </cell>
         </row>
         <row r="1177">
           <cell r="C1177">
-            <v>15601001</v>
+            <v>15511013</v>
           </cell>
         </row>
         <row r="1178">
           <cell r="C1178">
-            <v>15601002</v>
+            <v>15601001</v>
           </cell>
         </row>
         <row r="1179">
           <cell r="C1179">
-            <v>15601003</v>
+            <v>15601002</v>
           </cell>
         </row>
         <row r="1180">
           <cell r="C1180">
-            <v>15602001</v>
+            <v>15601003</v>
           </cell>
         </row>
         <row r="1181">
           <cell r="C1181">
-            <v>15602002</v>
+            <v>15602001</v>
           </cell>
         </row>
         <row r="1182">
           <cell r="C1182">
-            <v>15602003</v>
+            <v>15602002</v>
           </cell>
         </row>
         <row r="1183">
           <cell r="C1183">
-            <v>15603001</v>
+            <v>15602003</v>
           </cell>
         </row>
         <row r="1184">
           <cell r="C1184">
-            <v>15603002</v>
+            <v>15603001</v>
           </cell>
         </row>
         <row r="1185">
           <cell r="C1185">
-            <v>15603003</v>
+            <v>15603002</v>
           </cell>
         </row>
         <row r="1186">
           <cell r="C1186">
-            <v>15604001</v>
+            <v>15603003</v>
           </cell>
         </row>
         <row r="1187">
           <cell r="C1187">
-            <v>15604002</v>
+            <v>15604001</v>
           </cell>
         </row>
         <row r="1188">
           <cell r="C1188">
-            <v>15604003</v>
+            <v>15604002</v>
           </cell>
         </row>
         <row r="1189">
           <cell r="C1189">
-            <v>15605001</v>
+            <v>15604003</v>
           </cell>
         </row>
         <row r="1190">
           <cell r="C1190">
-            <v>15605002</v>
+            <v>15605001</v>
           </cell>
         </row>
         <row r="1191">
           <cell r="C1191">
-            <v>15605003</v>
+            <v>15605002</v>
           </cell>
         </row>
         <row r="1192">
           <cell r="C1192">
-            <v>15606001</v>
+            <v>15605003</v>
           </cell>
         </row>
         <row r="1193">
           <cell r="C1193">
-            <v>15607001</v>
+            <v>15606001</v>
           </cell>
         </row>
         <row r="1194">
           <cell r="C1194">
-            <v>15608001</v>
-          </cell>
-          <cell r="S1194">
-            <v>66001011</v>
+            <v>15607001</v>
           </cell>
         </row>
         <row r="1195">
           <cell r="C1195">
-            <v>15609001</v>
+            <v>15608001</v>
+          </cell>
+          <cell r="S1195">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1196">
           <cell r="C1196">
-            <v>15610001</v>
+            <v>15609001</v>
           </cell>
         </row>
         <row r="1197">
           <cell r="C1197">
-            <v>15610002</v>
+            <v>15610001</v>
           </cell>
         </row>
         <row r="1198">
           <cell r="C1198">
-            <v>15610101</v>
+            <v>15610002</v>
           </cell>
         </row>
         <row r="1199">
           <cell r="C1199">
-            <v>15610102</v>
+            <v>15610101</v>
           </cell>
         </row>
         <row r="1200">
           <cell r="C1200">
-            <v>15611001</v>
+            <v>15610102</v>
           </cell>
         </row>
         <row r="1201">
           <cell r="C1201">
-            <v>15611002</v>
+            <v>15611001</v>
           </cell>
         </row>
         <row r="1202">
           <cell r="C1202">
-            <v>15611003</v>
+            <v>15611002</v>
           </cell>
         </row>
         <row r="1203">
           <cell r="C1203">
-            <v>15701001</v>
+            <v>15611003</v>
           </cell>
         </row>
         <row r="1204">
           <cell r="C1204">
-            <v>15701002</v>
+            <v>15701001</v>
           </cell>
         </row>
         <row r="1205">
           <cell r="C1205">
-            <v>15701003</v>
+            <v>15701002</v>
           </cell>
         </row>
         <row r="1206">
           <cell r="C1206">
-            <v>15702001</v>
+            <v>15701003</v>
           </cell>
         </row>
         <row r="1207">
           <cell r="C1207">
-            <v>15702002</v>
+            <v>15702001</v>
           </cell>
         </row>
         <row r="1208">
           <cell r="C1208">
-            <v>15702003</v>
+            <v>15702002</v>
           </cell>
         </row>
         <row r="1209">
           <cell r="C1209">
-            <v>15703001</v>
+            <v>15702003</v>
           </cell>
         </row>
         <row r="1210">
           <cell r="C1210">
-            <v>15703002</v>
+            <v>15703001</v>
           </cell>
         </row>
         <row r="1211">
           <cell r="C1211">
-            <v>15703003</v>
+            <v>15703002</v>
           </cell>
         </row>
         <row r="1212">
           <cell r="C1212">
-            <v>15704001</v>
+            <v>15703003</v>
           </cell>
         </row>
         <row r="1213">
           <cell r="C1213">
-            <v>15704002</v>
+            <v>15704001</v>
           </cell>
         </row>
         <row r="1214">
           <cell r="C1214">
-            <v>15704003</v>
+            <v>15704002</v>
           </cell>
         </row>
         <row r="1215">
           <cell r="C1215">
-            <v>15705001</v>
+            <v>15704003</v>
           </cell>
         </row>
         <row r="1216">
           <cell r="C1216">
-            <v>15705002</v>
+            <v>15705001</v>
           </cell>
         </row>
         <row r="1217">
           <cell r="C1217">
-            <v>15705003</v>
+            <v>15705002</v>
           </cell>
         </row>
         <row r="1218">
           <cell r="C1218">
-            <v>15706001</v>
+            <v>15705003</v>
           </cell>
         </row>
         <row r="1219">
           <cell r="C1219">
-            <v>15707001</v>
+            <v>15706001</v>
           </cell>
         </row>
         <row r="1220">
           <cell r="C1220">
-            <v>15708001</v>
-          </cell>
-          <cell r="S1220">
-            <v>66001011</v>
+            <v>15707001</v>
           </cell>
         </row>
         <row r="1221">
           <cell r="C1221">
-            <v>15709001</v>
+            <v>15708001</v>
+          </cell>
+          <cell r="S1221">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1222">
           <cell r="C1222">
-            <v>15710001</v>
+            <v>15709001</v>
           </cell>
         </row>
         <row r="1223">
           <cell r="C1223">
-            <v>15710002</v>
+            <v>15710001</v>
           </cell>
         </row>
         <row r="1224">
           <cell r="C1224">
-            <v>15710101</v>
+            <v>15710002</v>
           </cell>
         </row>
         <row r="1225">
           <cell r="C1225">
-            <v>15710102</v>
+            <v>15710101</v>
           </cell>
         </row>
         <row r="1226">
           <cell r="C1226">
-            <v>15711001</v>
+            <v>15710102</v>
           </cell>
         </row>
         <row r="1227">
           <cell r="C1227">
-            <v>15711002</v>
+            <v>15711001</v>
           </cell>
         </row>
         <row r="1228">
           <cell r="C1228">
-            <v>15711003</v>
+            <v>15711002</v>
           </cell>
         </row>
         <row r="1229">
           <cell r="C1229">
-            <v>16000101</v>
+            <v>15711003</v>
           </cell>
         </row>
         <row r="1230">
           <cell r="C1230">
-            <v>16000102</v>
+            <v>16000101</v>
           </cell>
         </row>
         <row r="1231">
           <cell r="C1231">
-            <v>16000103</v>
+            <v>16000102</v>
           </cell>
         </row>
         <row r="1232">
           <cell r="C1232">
-            <v>16000104</v>
+            <v>16000103</v>
           </cell>
         </row>
         <row r="1233">
           <cell r="C1233">
-            <v>16000105</v>
+            <v>16000104</v>
           </cell>
         </row>
         <row r="1234">
           <cell r="C1234">
-            <v>16000106</v>
+            <v>16000105</v>
           </cell>
         </row>
         <row r="1235">
           <cell r="C1235">
-            <v>16000107</v>
+            <v>16000106</v>
           </cell>
         </row>
         <row r="1236">
           <cell r="C1236">
-            <v>16000108</v>
+            <v>16000107</v>
           </cell>
         </row>
         <row r="1237">
           <cell r="C1237">
-            <v>16000109</v>
+            <v>16000108</v>
           </cell>
         </row>
         <row r="1238">
           <cell r="C1238">
-            <v>16000110</v>
+            <v>16000109</v>
           </cell>
         </row>
         <row r="1239">
           <cell r="C1239">
-            <v>16000111</v>
+            <v>16000110</v>
           </cell>
         </row>
         <row r="1240">
           <cell r="C1240">
-            <v>16000112</v>
+            <v>16000111</v>
           </cell>
         </row>
         <row r="1241">
           <cell r="C1241">
-            <v>16000201</v>
+            <v>16000112</v>
           </cell>
         </row>
         <row r="1242">
           <cell r="C1242">
-            <v>16000202</v>
+            <v>16000201</v>
           </cell>
         </row>
         <row r="1243">
           <cell r="C1243">
-            <v>16000203</v>
+            <v>16000202</v>
           </cell>
         </row>
         <row r="1244">
           <cell r="C1244">
-            <v>16000204</v>
+            <v>16000203</v>
           </cell>
         </row>
         <row r="1245">
           <cell r="C1245">
-            <v>16000205</v>
+            <v>16000204</v>
           </cell>
         </row>
         <row r="1246">
           <cell r="C1246">
-            <v>16000206</v>
+            <v>16000205</v>
           </cell>
         </row>
         <row r="1247">
           <cell r="C1247">
-            <v>16000207</v>
+            <v>16000206</v>
           </cell>
         </row>
         <row r="1248">
           <cell r="C1248">
-            <v>16000208</v>
+            <v>16000207</v>
           </cell>
         </row>
         <row r="1249">
           <cell r="C1249">
-            <v>16000209</v>
+            <v>16000208</v>
           </cell>
         </row>
         <row r="1250">
           <cell r="C1250">
-            <v>16000210</v>
+            <v>16000209</v>
           </cell>
         </row>
         <row r="1251">
           <cell r="C1251">
-            <v>16000211</v>
+            <v>16000210</v>
           </cell>
         </row>
         <row r="1252">
           <cell r="C1252">
-            <v>16000212</v>
+            <v>16000211</v>
           </cell>
         </row>
         <row r="1253">
           <cell r="C1253">
-            <v>16000301</v>
+            <v>16000212</v>
           </cell>
         </row>
         <row r="1254">
           <cell r="C1254">
-            <v>16000302</v>
+            <v>16000301</v>
           </cell>
         </row>
         <row r="1255">
           <cell r="C1255">
-            <v>16000303</v>
+            <v>16000302</v>
           </cell>
         </row>
         <row r="1256">
           <cell r="C1256">
-            <v>16000304</v>
+            <v>16000303</v>
           </cell>
         </row>
         <row r="1257">
           <cell r="C1257">
-            <v>16000305</v>
+            <v>16000304</v>
           </cell>
         </row>
         <row r="1258">
           <cell r="C1258">
-            <v>16000306</v>
+            <v>16000305</v>
           </cell>
         </row>
         <row r="1259">
           <cell r="C1259">
-            <v>16000307</v>
+            <v>16000306</v>
           </cell>
         </row>
         <row r="1260">
           <cell r="C1260">
-            <v>16000308</v>
+            <v>16000307</v>
           </cell>
         </row>
         <row r="1261">
           <cell r="C1261">
-            <v>16000309</v>
+            <v>16000308</v>
           </cell>
         </row>
         <row r="1262">
           <cell r="C1262">
-            <v>16000310</v>
+            <v>16000309</v>
           </cell>
         </row>
         <row r="1263">
           <cell r="C1263">
-            <v>16000311</v>
+            <v>16000310</v>
           </cell>
         </row>
         <row r="1264">
           <cell r="C1264">
-            <v>16000312</v>
+            <v>16000311</v>
           </cell>
         </row>
         <row r="1265">
           <cell r="C1265">
-            <v>90000001</v>
-          </cell>
-          <cell r="S1265">
-            <v>67000279</v>
+            <v>16000312</v>
           </cell>
         </row>
         <row r="1266">
           <cell r="C1266">
-            <v>90000002</v>
+            <v>90000001</v>
           </cell>
           <cell r="S1266">
-            <v>67000280</v>
+            <v>67000279</v>
           </cell>
         </row>
         <row r="1267">
           <cell r="C1267">
-            <v>90000003</v>
+            <v>90000002</v>
           </cell>
           <cell r="S1267">
-            <v>0</v>
+            <v>67000280</v>
           </cell>
         </row>
         <row r="1268">
           <cell r="C1268">
-            <v>90000004</v>
+            <v>90000003</v>
           </cell>
           <cell r="S1268">
             <v>0</v>
@@ -10673,9 +10665,17 @@
         </row>
         <row r="1269">
           <cell r="C1269">
+            <v>90000004</v>
+          </cell>
+          <cell r="S1269">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="1270">
+          <cell r="C1270">
             <v>90000005</v>
           </cell>
-          <cell r="S1269">
+          <cell r="S1270">
             <v>0</v>
           </cell>
         </row>
@@ -51991,8 +51991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H81" workbookViewId="0">
-      <selection activeCell="S97" sqref="S97"/>
+    <sheetView tabSelected="1" topLeftCell="R78" workbookViewId="0">
+      <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55639,7 +55639,7 @@
         <v>814</v>
       </c>
       <c r="P96" s="1">
-        <f>LOOKUP(Q96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(Q96,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>69000002</v>
       </c>
       <c r="Q96" s="1">
@@ -55654,7 +55654,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3">
-        <f>LOOKUP(W96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(W96,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="W96" s="1">
@@ -55669,7 +55669,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3">
-        <f>LOOKUP(AC96,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC96,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC96" s="1">
@@ -55718,7 +55718,7 @@
       </c>
       <c r="N97" s="5"/>
       <c r="P97" s="1">
-        <f>LOOKUP(Q97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(Q97,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="Q97" s="1">
@@ -55733,7 +55733,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3">
-        <f>LOOKUP(W97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(W97,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="W97" s="1">
@@ -55748,7 +55748,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3">
-        <f>LOOKUP(AC97,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC97,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC97" s="1">
@@ -55793,7 +55793,7 @@
       </c>
       <c r="N98" s="5"/>
       <c r="P98" s="1" t="e">
-        <f>LOOKUP(Q98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(Q98,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>#N/A</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -55805,7 +55805,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3">
-        <f>LOOKUP(W98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(W98,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="W98" s="1">
@@ -55820,7 +55820,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3">
-        <f>LOOKUP(AC98,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC98,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC98" s="1">
@@ -55869,7 +55869,7 @@
       </c>
       <c r="N99" s="5"/>
       <c r="P99" s="1">
-        <f>LOOKUP(Q99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(Q99,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="Q99" s="1">
@@ -55884,7 +55884,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3">
-        <f>LOOKUP(W99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(W99,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>69000010</v>
       </c>
       <c r="W99" s="1">
@@ -55899,7 +55899,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3">
-        <f>LOOKUP(AC99,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC99,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>69000008</v>
       </c>
       <c r="AC99" s="1">
@@ -55927,7 +55927,7 @@
       </c>
       <c r="N100" s="5"/>
       <c r="P100" s="1">
-        <f>LOOKUP(Q100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(Q100,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>69000011</v>
       </c>
       <c r="Q100" s="1">
@@ -55942,7 +55942,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3">
-        <f>LOOKUP(W100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(W100,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>69000012</v>
       </c>
       <c r="W100" s="1">
@@ -55957,7 +55957,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3">
-        <f>LOOKUP(AC100,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC100,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC100" s="1">
@@ -56003,7 +56003,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3">
-        <f>LOOKUP(AC101,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC101,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC101" s="1">
@@ -56160,7 +56160,7 @@
         <v>922</v>
       </c>
       <c r="AB105" s="3">
-        <f>LOOKUP(AC105,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC105,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC105" s="1">
@@ -56195,7 +56195,7 @@
       <c r="N106" s="5"/>
       <c r="R106" s="1"/>
       <c r="AB106" s="3">
-        <f>LOOKUP(AC106,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC106,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC106" s="1">
@@ -56229,7 +56229,7 @@
       </c>
       <c r="N107" s="5"/>
       <c r="AB107" s="3">
-        <f>LOOKUP(AC107,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC107,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC107" s="1">
@@ -56267,7 +56267,7 @@
       </c>
       <c r="N108" s="5"/>
       <c r="AB108" s="3">
-        <f>LOOKUP(AC108,[2]ItemProto!$C$809:$C$1269,[2]ItemProto!$S$809:$S$1269)</f>
+        <f>LOOKUP(AC108,[2]ItemProto!$C$810:$C$1270,[2]ItemProto!$S$810:$S$1270)</f>
         <v>0</v>
       </c>
       <c r="AC108" s="1">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BD6E5-A69C-4FF9-9E8C-F13687DD1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118FD59-2B0B-47E7-94B4-18F5D731BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,24 @@
     <sheet name="装备洗练" sheetId="5" r:id="rId5"/>
     <sheet name="装备属性" sheetId="6" r:id="rId6"/>
     <sheet name="特殊装备" sheetId="7" r:id="rId7"/>
-    <sheet name="收集" sheetId="8" r:id="rId8"/>
-    <sheet name="精灵" sheetId="9" r:id="rId9"/>
-    <sheet name="属性列表" sheetId="10" r:id="rId10"/>
-    <sheet name="宝石" sheetId="11" r:id="rId11"/>
-    <sheet name="宠物" sheetId="12" r:id="rId12"/>
-    <sheet name="宠物属性" sheetId="13" r:id="rId13"/>
-    <sheet name="宠物爬塔" sheetId="14" r:id="rId14"/>
-    <sheet name="宠物之核" sheetId="15" r:id="rId15"/>
-    <sheet name="装备" sheetId="16" r:id="rId16"/>
-    <sheet name="怪物属性" sheetId="17" r:id="rId17"/>
-    <sheet name="boss技能" sheetId="18" r:id="rId18"/>
-    <sheet name="称号" sheetId="19" r:id="rId19"/>
-    <sheet name="生命之盾" sheetId="20" r:id="rId20"/>
+    <sheet name="觉醒" sheetId="21" r:id="rId8"/>
+    <sheet name="收集" sheetId="8" r:id="rId9"/>
+    <sheet name="精灵" sheetId="9" r:id="rId10"/>
+    <sheet name="属性列表" sheetId="10" r:id="rId11"/>
+    <sheet name="宝石" sheetId="11" r:id="rId12"/>
+    <sheet name="宠物" sheetId="12" r:id="rId13"/>
+    <sheet name="宠物属性" sheetId="13" r:id="rId14"/>
+    <sheet name="宠物爬塔" sheetId="14" r:id="rId15"/>
+    <sheet name="宠物之核" sheetId="15" r:id="rId16"/>
+    <sheet name="装备" sheetId="16" r:id="rId17"/>
+    <sheet name="怪物属性" sheetId="17" r:id="rId18"/>
+    <sheet name="boss技能" sheetId="18" r:id="rId19"/>
+    <sheet name="称号" sheetId="19" r:id="rId20"/>
+    <sheet name="生命之盾" sheetId="20" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="2235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="2260">
   <si>
     <t>人物属性</t>
   </si>
@@ -6965,6 +6966,106 @@
   </si>
   <si>
     <t>光能灼烧在成伤害提升25%</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启觉醒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币500万开启</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000个</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过最后一个副本</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败领主级怪物</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>30个</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要无色</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>60开启</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>终</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分达到</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>55层</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败第六章地狱难度</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交灿烂的精华</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>光灵</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>御剑</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技能设计</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -7353,7 +7454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7599,6 +7700,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8266,6 +8368,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="259">
+          <cell r="C259">
+            <v>10032009</v>
+          </cell>
+        </row>
         <row r="810">
           <cell r="C810">
             <v>14010001</v>
@@ -11537,6 +11644,708 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:U50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F9" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C10" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E11" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F11" s="1">
+        <f>H11*100</f>
+        <v>300</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G15" si="0">0.05*H11</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10001</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F23" si="1">H12*100</f>
+        <v>200</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10002</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10003</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10004</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D15" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10005</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D16" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10006</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D17" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G23" si="2">0.05*H17</f>
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10007</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D18" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10008</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D19" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10009</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10010</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10011</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10012</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10013</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10014</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10015</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26*D25</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f>1/D26</f>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I28" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C26*1.5</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D30" s="1">
+        <f>100/D29</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30*10000</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1">
+      <c r="C31" s="5"/>
+      <c r="G31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:H39" si="3">G31*10000</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="G32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="29"/>
+      <c r="D33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E34" s="1">
+        <f>0.1+0.05</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F34" s="1">
+        <f>1.5/E34</f>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="G37" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="G38" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C41" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D39/D40</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C44" s="29"/>
+      <c r="D44" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1">
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="49" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" ht="20.100000000000001" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -11921,7 +12730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
@@ -17855,7 +18664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF119"/>
   <sheetViews>
@@ -21016,7 +21825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
@@ -23501,7 +24310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA200"/>
   <sheetViews>
@@ -29908,7 +30717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
@@ -30775,7 +31584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="C1:P41"/>
   <sheetViews>
@@ -30972,7 +31781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AL154"/>
   <sheetViews>
@@ -41270,7 +42079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:X50"/>
   <sheetViews>
@@ -41618,7 +42427,2083 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="7" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*[1]属性总表!$E$5</f>
+        <v>5250</v>
+      </c>
+      <c r="E2" s="1">
+        <f>ROUND([1]等级属性!C2*[1]属性总表!$F$5,0)</f>
+        <v>500</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ROUND(C2*[1]属性总表!$G$5,0)</f>
+        <v>150</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ROUND(C2*[1]属性总表!$H$5,0)</f>
+        <v>150</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+0.25</f>
+        <v>5.25</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2+0.12</f>
+        <v>5.12</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*[1]属性总表!$E$5</f>
+        <v>5512.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>ROUND([1]等级属性!C3*[1]属性总表!$F$5,0)</f>
+        <v>512</v>
+      </c>
+      <c r="F3" s="1">
+        <f>ROUND(C3*[1]属性总表!$G$5,0)</f>
+        <v>154</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ROUND(C3*[1]属性总表!$H$5,0)</f>
+        <v>154</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3-D2</f>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="0">B3+0.25</f>
+        <v>5.5</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C67" si="1">C3+0.12</f>
+        <v>5.24</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4*[1]属性总表!$E$5</f>
+        <v>5775</v>
+      </c>
+      <c r="E4" s="1">
+        <f>ROUND([1]等级属性!C4*[1]属性总表!$F$5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="F4" s="1">
+        <f>ROUND(C4*[1]属性总表!$G$5,0)</f>
+        <v>157</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ROUND(C4*[1]属性总表!$H$5,0)</f>
+        <v>157</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.36</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B5*[1]属性总表!$E$5</f>
+        <v>6037.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f>ROUND([1]等级属性!C5*[1]属性总表!$F$5,0)</f>
+        <v>536</v>
+      </c>
+      <c r="F5" s="1">
+        <f>ROUND(C5*[1]属性总表!$G$5,0)</f>
+        <v>161</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ROUND(C5*[1]属性总表!$H$5,0)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.48</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6*[1]属性总表!$E$5</f>
+        <v>6300</v>
+      </c>
+      <c r="E6" s="1">
+        <f>ROUND([1]等级属性!C6*[1]属性总表!$F$5,0)</f>
+        <v>548</v>
+      </c>
+      <c r="F6" s="1">
+        <f>ROUND(C6*[1]属性总表!$G$5,0)</f>
+        <v>164</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ROUND(C6*[1]属性总表!$H$5,0)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7*[1]属性总表!$E$5</f>
+        <v>6562.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f>ROUND([1]等级属性!C7*[1]属性总表!$F$5,0)</f>
+        <v>560</v>
+      </c>
+      <c r="F7" s="1">
+        <f>ROUND(C7*[1]属性总表!$G$5,0)</f>
+        <v>168</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ROUND(C7*[1]属性总表!$H$5,0)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7200000000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8*[1]属性总表!$E$5</f>
+        <v>6825</v>
+      </c>
+      <c r="E8" s="1">
+        <f>ROUND([1]等级属性!C8*[1]属性总表!$F$5,0)</f>
+        <v>572</v>
+      </c>
+      <c r="F8" s="1">
+        <f>ROUND(C8*[1]属性总表!$G$5,0)</f>
+        <v>172</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ROUND(C8*[1]属性总表!$H$5,0)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8400000000000007</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9*[1]属性总表!$E$5</f>
+        <v>7087.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>ROUND([1]等级属性!C9*[1]属性总表!$F$5,0)</f>
+        <v>584</v>
+      </c>
+      <c r="F9" s="1">
+        <f>ROUND(C9*[1]属性总表!$G$5,0)</f>
+        <v>175</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ROUND(C9*[1]属性总表!$H$5,0)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9600000000000009</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10*[1]属性总表!$E$5</f>
+        <v>7350</v>
+      </c>
+      <c r="E10" s="1">
+        <f>ROUND([1]等级属性!C10*[1]属性总表!$F$5,0)</f>
+        <v>596</v>
+      </c>
+      <c r="F10" s="1">
+        <f>ROUND(C10*[1]属性总表!$G$5,0)</f>
+        <v>179</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ROUND(C10*[1]属性总表!$H$5,0)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.080000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11*[1]属性总表!$E$5</f>
+        <v>7612.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>ROUND([1]等级属性!C11*[1]属性总表!$F$5,0)</f>
+        <v>608</v>
+      </c>
+      <c r="F11" s="1">
+        <f>ROUND(C11*[1]属性总表!$G$5,0)</f>
+        <v>182</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ROUND(C11*[1]属性总表!$H$5,0)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="D12" s="1">
+        <f>B12*[1]属性总表!$E$5</f>
+        <v>7875</v>
+      </c>
+      <c r="E12" s="1">
+        <f>ROUND([1]等级属性!C12*[1]属性总表!$F$5,0)</f>
+        <v>620</v>
+      </c>
+      <c r="F12" s="1">
+        <f>ROUND(C12*[1]属性总表!$G$5,0)</f>
+        <v>186</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ROUND(C12*[1]属性总表!$H$5,0)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3200000000000012</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*[1]属性总表!$E$5</f>
+        <v>8137.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f>ROUND([1]等级属性!C13*[1]属性总表!$F$5,0)</f>
+        <v>632</v>
+      </c>
+      <c r="F13" s="1">
+        <f>ROUND(C13*[1]属性总表!$G$5,0)</f>
+        <v>190</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ROUND(C13*[1]属性总表!$H$5,0)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4400000000000013</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14*[1]属性总表!$E$5</f>
+        <v>8400</v>
+      </c>
+      <c r="E14" s="1">
+        <f>ROUND([1]等级属性!C14*[1]属性总表!$F$5,0)</f>
+        <v>644</v>
+      </c>
+      <c r="F14" s="1">
+        <f>ROUND(C14*[1]属性总表!$G$5,0)</f>
+        <v>193</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ROUND(C14*[1]属性总表!$H$5,0)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5600000000000014</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15*[1]属性总表!$E$5</f>
+        <v>8662.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>ROUND([1]等级属性!C15*[1]属性总表!$F$5,0)</f>
+        <v>656</v>
+      </c>
+      <c r="F15" s="1">
+        <f>ROUND(C15*[1]属性总表!$G$5,0)</f>
+        <v>197</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ROUND(C15*[1]属性总表!$H$5,0)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6800000000000015</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*[1]属性总表!$E$5</f>
+        <v>8925</v>
+      </c>
+      <c r="E16" s="1">
+        <f>ROUND([1]等级属性!C16*[1]属性总表!$F$5,0)</f>
+        <v>668</v>
+      </c>
+      <c r="F16" s="1">
+        <f>ROUND(C16*[1]属性总表!$G$5,0)</f>
+        <v>200</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ROUND(C16*[1]属性总表!$H$5,0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17*[1]属性总表!$E$5</f>
+        <v>9187.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>ROUND([1]等级属性!C17*[1]属性总表!$F$5,0)</f>
+        <v>680</v>
+      </c>
+      <c r="F17" s="1">
+        <f>ROUND(C17*[1]属性总表!$G$5,0)</f>
+        <v>204</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ROUND(C17*[1]属性总表!$H$5,0)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9200000000000017</v>
+      </c>
+      <c r="D18" s="1">
+        <f>B18*[1]属性总表!$E$5</f>
+        <v>9450</v>
+      </c>
+      <c r="E18" s="1">
+        <f>ROUND([1]等级属性!C18*[1]属性总表!$F$5,0)</f>
+        <v>692</v>
+      </c>
+      <c r="F18" s="1">
+        <f>ROUND(C18*[1]属性总表!$G$5,0)</f>
+        <v>208</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ROUND(C18*[1]属性总表!$H$5,0)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0400000000000018</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19*[1]属性总表!$E$5</f>
+        <v>9712.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f>ROUND([1]等级属性!C19*[1]属性总表!$F$5,0)</f>
+        <v>704</v>
+      </c>
+      <c r="F19" s="1">
+        <f>ROUND(C19*[1]属性总表!$G$5,0)</f>
+        <v>211</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ROUND(C19*[1]属性总表!$H$5,0)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1600000000000019</v>
+      </c>
+      <c r="D20" s="1">
+        <f>B20*[1]属性总表!$E$5</f>
+        <v>9975</v>
+      </c>
+      <c r="E20" s="1">
+        <f>ROUND([1]等级属性!C20*[1]属性总表!$F$5,0)</f>
+        <v>716</v>
+      </c>
+      <c r="F20" s="1">
+        <f>ROUND(C20*[1]属性总表!$G$5,0)</f>
+        <v>215</v>
+      </c>
+      <c r="G20" s="1">
+        <f>ROUND(C20*[1]属性总表!$H$5,0)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.280000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21*[1]属性总表!$E$5</f>
+        <v>10237.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>ROUND([1]等级属性!C21*[1]属性总表!$F$5,0)</f>
+        <v>728</v>
+      </c>
+      <c r="F21" s="1">
+        <f>ROUND(C21*[1]属性总表!$G$5,0)</f>
+        <v>218</v>
+      </c>
+      <c r="G21" s="1">
+        <f>ROUND(C21*[1]属性总表!$H$5,0)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000021</v>
+      </c>
+      <c r="D22" s="1">
+        <f>B22*[1]属性总表!$E$5</f>
+        <v>10500</v>
+      </c>
+      <c r="E22" s="1">
+        <f>ROUND([1]等级属性!C22*[1]属性总表!$F$5,0)</f>
+        <v>740</v>
+      </c>
+      <c r="F22" s="1">
+        <f>ROUND(C22*[1]属性总表!$G$5,0)</f>
+        <v>222</v>
+      </c>
+      <c r="G22" s="1">
+        <f>ROUND(C22*[1]属性总表!$H$5,0)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5200000000000022</v>
+      </c>
+      <c r="D23" s="1">
+        <f>B23*[1]属性总表!$E$5</f>
+        <v>10762.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f>ROUND([1]等级属性!C23*[1]属性总表!$F$5,0)</f>
+        <v>752</v>
+      </c>
+      <c r="F23" s="1">
+        <f>ROUND(C23*[1]属性总表!$G$5,0)</f>
+        <v>226</v>
+      </c>
+      <c r="G23" s="1">
+        <f>ROUND(C23*[1]属性总表!$H$5,0)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6400000000000023</v>
+      </c>
+      <c r="D24" s="1">
+        <f>B24*[1]属性总表!$E$5</f>
+        <v>11025</v>
+      </c>
+      <c r="E24" s="1">
+        <f>ROUND([1]等级属性!C24*[1]属性总表!$F$5,0)</f>
+        <v>764</v>
+      </c>
+      <c r="F24" s="1">
+        <f>ROUND(C24*[1]属性总表!$G$5,0)</f>
+        <v>229</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ROUND(C24*[1]属性总表!$H$5,0)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7600000000000025</v>
+      </c>
+      <c r="D25" s="1">
+        <f>B25*[1]属性总表!$E$5</f>
+        <v>11287.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f>ROUND([1]等级属性!C25*[1]属性总表!$F$5,0)</f>
+        <v>776</v>
+      </c>
+      <c r="F25" s="1">
+        <f>ROUND(C25*[1]属性总表!$G$5,0)</f>
+        <v>233</v>
+      </c>
+      <c r="G25" s="1">
+        <f>ROUND(C25*[1]属性总表!$H$5,0)</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8800000000000026</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B26*[1]属性总表!$E$5</f>
+        <v>11550</v>
+      </c>
+      <c r="E26" s="1">
+        <f>ROUND([1]等级属性!C26*[1]属性总表!$F$5,0)</f>
+        <v>788</v>
+      </c>
+      <c r="F26" s="1">
+        <f>ROUND(C26*[1]属性总表!$G$5,0)</f>
+        <v>236</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUND(C26*[1]属性总表!$H$5,0)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="D27" s="1">
+        <f>B27*[1]属性总表!$E$5</f>
+        <v>11812.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f>ROUND([1]等级属性!C27*[1]属性总表!$F$5,0)</f>
+        <v>800</v>
+      </c>
+      <c r="F27" s="1">
+        <f>ROUND(C27*[1]属性总表!$G$5,0)</f>
+        <v>240</v>
+      </c>
+      <c r="G27" s="1">
+        <f>ROUND(C27*[1]属性总表!$H$5,0)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28*[1]属性总表!$E$5</f>
+        <v>12075</v>
+      </c>
+      <c r="E28" s="1">
+        <f>ROUND([1]等级属性!C28*[1]属性总表!$F$5,0)</f>
+        <v>812</v>
+      </c>
+      <c r="F28" s="1">
+        <f>ROUND(C28*[1]属性总表!$G$5,0)</f>
+        <v>244</v>
+      </c>
+      <c r="G28" s="1">
+        <f>ROUND(C28*[1]属性总表!$H$5,0)</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>8.24</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29*[1]属性总表!$E$5</f>
+        <v>12337.5</v>
+      </c>
+      <c r="E29" s="1">
+        <f>ROUND([1]等级属性!C29*[1]属性总表!$F$5,0)</f>
+        <v>824</v>
+      </c>
+      <c r="F29" s="1">
+        <f>ROUND(C29*[1]属性总表!$G$5,0)</f>
+        <v>247</v>
+      </c>
+      <c r="G29" s="1">
+        <f>ROUND(C29*[1]属性总表!$H$5,0)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>8.36</v>
+      </c>
+      <c r="D30" s="1">
+        <f>B30*[1]属性总表!$E$5</f>
+        <v>12600</v>
+      </c>
+      <c r="E30" s="1">
+        <f>ROUND([1]等级属性!C30*[1]属性总表!$F$5,0)</f>
+        <v>836</v>
+      </c>
+      <c r="F30" s="1">
+        <f>ROUND(C30*[1]属性总表!$G$5,0)</f>
+        <v>251</v>
+      </c>
+      <c r="G30" s="1">
+        <f>ROUND(C30*[1]属性总表!$H$5,0)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4799999999999986</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31*[1]属性总表!$E$5</f>
+        <v>12862.5</v>
+      </c>
+      <c r="E31" s="1">
+        <f>ROUND([1]等级属性!C31*[1]属性总表!$F$5,0)</f>
+        <v>848</v>
+      </c>
+      <c r="F31" s="1">
+        <f>ROUND(C31*[1]属性总表!$G$5,0)</f>
+        <v>254</v>
+      </c>
+      <c r="G31" s="1">
+        <f>ROUND(C31*[1]属性总表!$H$5,0)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="D32" s="1">
+        <f>B32*[1]属性总表!$E$5</f>
+        <v>13125</v>
+      </c>
+      <c r="E32" s="1">
+        <f>ROUND([1]等级属性!C32*[1]属性总表!$F$5,0)</f>
+        <v>860</v>
+      </c>
+      <c r="F32" s="1">
+        <f>ROUND(C32*[1]属性总表!$G$5,0)</f>
+        <v>258</v>
+      </c>
+      <c r="G32" s="1">
+        <f>ROUND(C32*[1]属性总表!$H$5,0)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7199999999999971</v>
+      </c>
+      <c r="D33" s="1">
+        <f>B33*[1]属性总表!$E$5</f>
+        <v>13387.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f>ROUND([1]等级属性!C33*[1]属性总表!$F$5,0)</f>
+        <v>872</v>
+      </c>
+      <c r="F33" s="1">
+        <f>ROUND(C33*[1]属性总表!$G$5,0)</f>
+        <v>262</v>
+      </c>
+      <c r="G33" s="1">
+        <f>ROUND(C33*[1]属性总表!$H$5,0)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8399999999999963</v>
+      </c>
+      <c r="D34" s="1">
+        <f>B34*[1]属性总表!$E$5</f>
+        <v>13650</v>
+      </c>
+      <c r="E34" s="1">
+        <f>ROUND([1]等级属性!C34*[1]属性总表!$F$5,0)</f>
+        <v>884</v>
+      </c>
+      <c r="F34" s="1">
+        <f>ROUND(C34*[1]属性总表!$G$5,0)</f>
+        <v>265</v>
+      </c>
+      <c r="G34" s="1">
+        <f>ROUND(C34*[1]属性总表!$H$5,0)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9599999999999955</v>
+      </c>
+      <c r="D35" s="1">
+        <f>B35*[1]属性总表!$E$5</f>
+        <v>13912.5</v>
+      </c>
+      <c r="E35" s="1">
+        <f>ROUND([1]等级属性!C35*[1]属性总表!$F$5,0)</f>
+        <v>896</v>
+      </c>
+      <c r="F35" s="1">
+        <f>ROUND(C35*[1]属性总表!$G$5,0)</f>
+        <v>269</v>
+      </c>
+      <c r="G35" s="1">
+        <f>ROUND(C35*[1]属性总表!$H$5,0)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0799999999999947</v>
+      </c>
+      <c r="D36" s="1">
+        <f>B36*[1]属性总表!$E$5</f>
+        <v>14175</v>
+      </c>
+      <c r="E36" s="1">
+        <f>ROUND([1]等级属性!C36*[1]属性总表!$F$5,0)</f>
+        <v>908</v>
+      </c>
+      <c r="F36" s="1">
+        <f>ROUND(C36*[1]属性总表!$G$5,0)</f>
+        <v>272</v>
+      </c>
+      <c r="G36" s="1">
+        <f>ROUND(C36*[1]属性总表!$H$5,0)</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>9.199999999999994</v>
+      </c>
+      <c r="D37" s="1">
+        <f>B37*[1]属性总表!$E$5</f>
+        <v>14437.5</v>
+      </c>
+      <c r="E37" s="1">
+        <f>ROUND([1]等级属性!C37*[1]属性总表!$F$5,0)</f>
+        <v>920</v>
+      </c>
+      <c r="F37" s="1">
+        <f>ROUND(C37*[1]属性总表!$G$5,0)</f>
+        <v>276</v>
+      </c>
+      <c r="G37" s="1">
+        <f>ROUND(C37*[1]属性总表!$H$5,0)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3199999999999932</v>
+      </c>
+      <c r="D38" s="1">
+        <f>B38*[1]属性总表!$E$5</f>
+        <v>14700</v>
+      </c>
+      <c r="E38" s="1">
+        <f>ROUND([1]等级属性!C38*[1]属性总表!$F$5,0)</f>
+        <v>932</v>
+      </c>
+      <c r="F38" s="1">
+        <f>ROUND(C38*[1]属性总表!$G$5,0)</f>
+        <v>280</v>
+      </c>
+      <c r="G38" s="1">
+        <f>ROUND(C38*[1]属性总表!$H$5,0)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4399999999999924</v>
+      </c>
+      <c r="D39" s="1">
+        <f>B39*[1]属性总表!$E$5</f>
+        <v>14962.5</v>
+      </c>
+      <c r="E39" s="1">
+        <f>ROUND([1]等级属性!C39*[1]属性总表!$F$5,0)</f>
+        <v>944</v>
+      </c>
+      <c r="F39" s="1">
+        <f>ROUND(C39*[1]属性总表!$G$5,0)</f>
+        <v>283</v>
+      </c>
+      <c r="G39" s="1">
+        <f>ROUND(C39*[1]属性总表!$H$5,0)</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5599999999999916</v>
+      </c>
+      <c r="D40" s="1">
+        <f>B40*[1]属性总表!$E$5</f>
+        <v>15225</v>
+      </c>
+      <c r="E40" s="1">
+        <f>ROUND([1]等级属性!C40*[1]属性总表!$F$5,0)</f>
+        <v>956</v>
+      </c>
+      <c r="F40" s="1">
+        <f>ROUND(C40*[1]属性总表!$G$5,0)</f>
+        <v>287</v>
+      </c>
+      <c r="G40" s="1">
+        <f>ROUND(C40*[1]属性总表!$H$5,0)</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>14.75</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6799999999999908</v>
+      </c>
+      <c r="D41" s="1">
+        <f>B41*[1]属性总表!$E$5</f>
+        <v>15487.5</v>
+      </c>
+      <c r="E41" s="1">
+        <f>ROUND([1]等级属性!C41*[1]属性总表!$F$5,0)</f>
+        <v>968</v>
+      </c>
+      <c r="F41" s="1">
+        <f>ROUND(C41*[1]属性总表!$G$5,0)</f>
+        <v>290</v>
+      </c>
+      <c r="G41" s="1">
+        <f>ROUND(C41*[1]属性总表!$H$5,0)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="D42" s="1">
+        <f>B42*[1]属性总表!$E$5</f>
+        <v>15750</v>
+      </c>
+      <c r="E42" s="1">
+        <f>ROUND([1]等级属性!C42*[1]属性总表!$F$5,0)</f>
+        <v>980</v>
+      </c>
+      <c r="F42" s="1">
+        <f>ROUND(C42*[1]属性总表!$G$5,0)</f>
+        <v>294</v>
+      </c>
+      <c r="G42" s="1">
+        <f>ROUND(C42*[1]属性总表!$H$5,0)</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9199999999999893</v>
+      </c>
+      <c r="D43" s="1">
+        <f>B43*[1]属性总表!$E$5</f>
+        <v>16012.5</v>
+      </c>
+      <c r="E43" s="1">
+        <f>ROUND([1]等级属性!C43*[1]属性总表!$F$5,0)</f>
+        <v>992</v>
+      </c>
+      <c r="F43" s="1">
+        <f>ROUND(C43*[1]属性总表!$G$5,0)</f>
+        <v>298</v>
+      </c>
+      <c r="G43" s="1">
+        <f>ROUND(C43*[1]属性总表!$H$5,0)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>10.039999999999988</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44*[1]属性总表!$E$5</f>
+        <v>16275</v>
+      </c>
+      <c r="E44" s="1">
+        <f>ROUND([1]等级属性!C44*[1]属性总表!$F$5,0)</f>
+        <v>1004</v>
+      </c>
+      <c r="F44" s="1">
+        <f>ROUND(C44*[1]属性总表!$G$5,0)</f>
+        <v>301</v>
+      </c>
+      <c r="G44" s="1">
+        <f>ROUND(C44*[1]属性总表!$H$5,0)</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>10.159999999999988</v>
+      </c>
+      <c r="D45" s="1">
+        <f>B45*[1]属性总表!$E$5</f>
+        <v>16537.5</v>
+      </c>
+      <c r="E45" s="1">
+        <f>ROUND([1]等级属性!C45*[1]属性总表!$F$5,0)</f>
+        <v>1016</v>
+      </c>
+      <c r="F45" s="1">
+        <f>ROUND(C45*[1]属性总表!$G$5,0)</f>
+        <v>305</v>
+      </c>
+      <c r="G45" s="1">
+        <f>ROUND(C45*[1]属性总表!$H$5,0)</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>10.279999999999987</v>
+      </c>
+      <c r="D46" s="1">
+        <f>B46*[1]属性总表!$E$5</f>
+        <v>16800</v>
+      </c>
+      <c r="E46" s="1">
+        <f>ROUND([1]等级属性!C46*[1]属性总表!$F$5,0)</f>
+        <v>1028</v>
+      </c>
+      <c r="F46" s="1">
+        <f>ROUND(C46*[1]属性总表!$G$5,0)</f>
+        <v>308</v>
+      </c>
+      <c r="G46" s="1">
+        <f>ROUND(C46*[1]属性总表!$H$5,0)</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>10.399999999999986</v>
+      </c>
+      <c r="D47" s="1">
+        <f>B47*[1]属性总表!$E$5</f>
+        <v>17062.5</v>
+      </c>
+      <c r="E47" s="1">
+        <f>ROUND([1]等级属性!C47*[1]属性总表!$F$5,0)</f>
+        <v>1040</v>
+      </c>
+      <c r="F47" s="1">
+        <f>ROUND(C47*[1]属性总表!$G$5,0)</f>
+        <v>312</v>
+      </c>
+      <c r="G47" s="1">
+        <f>ROUND(C47*[1]属性总表!$H$5,0)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>10.519999999999985</v>
+      </c>
+      <c r="D48" s="1">
+        <f>B48*[1]属性总表!$E$5</f>
+        <v>17325</v>
+      </c>
+      <c r="E48" s="1">
+        <f>ROUND([1]等级属性!C48*[1]属性总表!$F$5,0)</f>
+        <v>1052</v>
+      </c>
+      <c r="F48" s="1">
+        <f>ROUND(C48*[1]属性总表!$G$5,0)</f>
+        <v>316</v>
+      </c>
+      <c r="G48" s="1">
+        <f>ROUND(C48*[1]属性总表!$H$5,0)</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>16.75</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>10.639999999999985</v>
+      </c>
+      <c r="D49" s="1">
+        <f>B49*[1]属性总表!$E$5</f>
+        <v>17587.5</v>
+      </c>
+      <c r="E49" s="1">
+        <f>ROUND([1]等级属性!C49*[1]属性总表!$F$5,0)</f>
+        <v>1064</v>
+      </c>
+      <c r="F49" s="1">
+        <f>ROUND(C49*[1]属性总表!$G$5,0)</f>
+        <v>319</v>
+      </c>
+      <c r="G49" s="1">
+        <f>ROUND(C49*[1]属性总表!$H$5,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>10.759999999999984</v>
+      </c>
+      <c r="D50" s="1">
+        <f>B50*[1]属性总表!$E$5</f>
+        <v>17850</v>
+      </c>
+      <c r="E50" s="1">
+        <f>ROUND([1]等级属性!C50*[1]属性总表!$F$5,0)</f>
+        <v>1076</v>
+      </c>
+      <c r="F50" s="1">
+        <f>ROUND(C50*[1]属性总表!$G$5,0)</f>
+        <v>323</v>
+      </c>
+      <c r="G50" s="1">
+        <f>ROUND(C50*[1]属性总表!$H$5,0)</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>10.879999999999983</v>
+      </c>
+      <c r="D51" s="1">
+        <f>B51*[1]属性总表!$E$5</f>
+        <v>18112.5</v>
+      </c>
+      <c r="E51" s="1">
+        <f>ROUND([1]等级属性!C51*[1]属性总表!$F$5,0)</f>
+        <v>1088</v>
+      </c>
+      <c r="F51" s="1">
+        <f>ROUND(C51*[1]属性总表!$G$5,0)</f>
+        <v>326</v>
+      </c>
+      <c r="G51" s="1">
+        <f>ROUND(C51*[1]属性总表!$H$5,0)</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>10.999999999999982</v>
+      </c>
+      <c r="D52" s="1">
+        <f>B52*[1]属性总表!$E$5</f>
+        <v>18375</v>
+      </c>
+      <c r="E52" s="1">
+        <f>ROUND([1]等级属性!C52*[1]属性总表!$F$5,0)</f>
+        <v>1100</v>
+      </c>
+      <c r="F52" s="1">
+        <f>ROUND(C52*[1]属性总表!$G$5,0)</f>
+        <v>330</v>
+      </c>
+      <c r="G52" s="1">
+        <f>ROUND(C52*[1]属性总表!$H$5,0)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>17.75</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>11.119999999999981</v>
+      </c>
+      <c r="D53" s="1">
+        <f>B53*[1]属性总表!$E$5</f>
+        <v>18637.5</v>
+      </c>
+      <c r="E53" s="1">
+        <f>ROUND([1]等级属性!C53*[1]属性总表!$F$5,0)</f>
+        <v>1112</v>
+      </c>
+      <c r="F53" s="1">
+        <f>ROUND(C53*[1]属性总表!$G$5,0)</f>
+        <v>334</v>
+      </c>
+      <c r="G53" s="1">
+        <f>ROUND(C53*[1]属性总表!$H$5,0)</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
+        <v>11.239999999999981</v>
+      </c>
+      <c r="D54" s="1">
+        <f>B54*[1]属性总表!$E$5</f>
+        <v>18900</v>
+      </c>
+      <c r="E54" s="1">
+        <f>ROUND([1]等级属性!C54*[1]属性总表!$F$5,0)</f>
+        <v>1124</v>
+      </c>
+      <c r="F54" s="1">
+        <f>ROUND(C54*[1]属性总表!$G$5,0)</f>
+        <v>337</v>
+      </c>
+      <c r="G54" s="1">
+        <f>ROUND(C54*[1]属性总表!$H$5,0)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>11.35999999999998</v>
+      </c>
+      <c r="D55" s="1">
+        <f>B55*[1]属性总表!$E$5</f>
+        <v>19162.5</v>
+      </c>
+      <c r="E55" s="1">
+        <f>ROUND([1]等级属性!C55*[1]属性总表!$F$5,0)</f>
+        <v>1136</v>
+      </c>
+      <c r="F55" s="1">
+        <f>ROUND(C55*[1]属性总表!$G$5,0)</f>
+        <v>341</v>
+      </c>
+      <c r="G55" s="1">
+        <f>ROUND(C55*[1]属性总表!$H$5,0)</f>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>11.479999999999979</v>
+      </c>
+      <c r="D56" s="1">
+        <f>B56*[1]属性总表!$E$5</f>
+        <v>19425</v>
+      </c>
+      <c r="E56" s="1">
+        <f>ROUND([1]等级属性!C56*[1]属性总表!$F$5,0)</f>
+        <v>1148</v>
+      </c>
+      <c r="F56" s="1">
+        <f>ROUND(C56*[1]属性总表!$G$5,0)</f>
+        <v>344</v>
+      </c>
+      <c r="G56" s="1">
+        <f>ROUND(C56*[1]属性总表!$H$5,0)</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>11.599999999999978</v>
+      </c>
+      <c r="D57" s="1">
+        <f>B57*[1]属性总表!$E$5</f>
+        <v>19687.5</v>
+      </c>
+      <c r="E57" s="1">
+        <f>ROUND([1]等级属性!C57*[1]属性总表!$F$5,0)</f>
+        <v>1160</v>
+      </c>
+      <c r="F57" s="1">
+        <f>ROUND(C57*[1]属性总表!$G$5,0)</f>
+        <v>348</v>
+      </c>
+      <c r="G57" s="1">
+        <f>ROUND(C57*[1]属性总表!$H$5,0)</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>11.719999999999978</v>
+      </c>
+      <c r="D58" s="1">
+        <f>B58*[1]属性总表!$E$5</f>
+        <v>19950</v>
+      </c>
+      <c r="E58" s="1">
+        <f>ROUND([1]等级属性!C58*[1]属性总表!$F$5,0)</f>
+        <v>1172</v>
+      </c>
+      <c r="F58" s="1">
+        <f>ROUND(C58*[1]属性总表!$G$5,0)</f>
+        <v>352</v>
+      </c>
+      <c r="G58" s="1">
+        <f>ROUND(C58*[1]属性总表!$H$5,0)</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>19.25</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>11.839999999999977</v>
+      </c>
+      <c r="D59" s="1">
+        <f>B59*[1]属性总表!$E$5</f>
+        <v>20212.5</v>
+      </c>
+      <c r="E59" s="1">
+        <f>ROUND([1]等级属性!C59*[1]属性总表!$F$5,0)</f>
+        <v>1184</v>
+      </c>
+      <c r="F59" s="1">
+        <f>ROUND(C59*[1]属性总表!$G$5,0)</f>
+        <v>355</v>
+      </c>
+      <c r="G59" s="1">
+        <f>ROUND(C59*[1]属性总表!$H$5,0)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>11.959999999999976</v>
+      </c>
+      <c r="D60" s="1">
+        <f>B60*[1]属性总表!$E$5</f>
+        <v>20475</v>
+      </c>
+      <c r="E60" s="1">
+        <f>ROUND([1]等级属性!C60*[1]属性总表!$F$5,0)</f>
+        <v>1196</v>
+      </c>
+      <c r="F60" s="1">
+        <f>ROUND(C60*[1]属性总表!$G$5,0)</f>
+        <v>359</v>
+      </c>
+      <c r="G60" s="1">
+        <f>ROUND(C60*[1]属性总表!$H$5,0)</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>12.079999999999975</v>
+      </c>
+      <c r="D61" s="1">
+        <f>B61*[1]属性总表!$E$5</f>
+        <v>20737.5</v>
+      </c>
+      <c r="E61" s="1">
+        <f>ROUND([1]等级属性!C61*[1]属性总表!$F$5,0)</f>
+        <v>1208</v>
+      </c>
+      <c r="F61" s="1">
+        <f>ROUND(C61*[1]属性总表!$G$5,0)</f>
+        <v>362</v>
+      </c>
+      <c r="G61" s="1">
+        <f>ROUND(C61*[1]属性总表!$H$5,0)</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>12.199999999999974</v>
+      </c>
+      <c r="D62" s="1">
+        <f>B62*[1]属性总表!$E$5</f>
+        <v>21000</v>
+      </c>
+      <c r="E62" s="1">
+        <f>ROUND([1]等级属性!C62*[1]属性总表!$F$5,0)</f>
+        <v>1220</v>
+      </c>
+      <c r="F62" s="1">
+        <f>ROUND(C62*[1]属性总表!$G$5,0)</f>
+        <v>366</v>
+      </c>
+      <c r="G62" s="1">
+        <f>ROUND(C62*[1]属性总表!$H$5,0)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>12.319999999999974</v>
+      </c>
+      <c r="D63" s="1">
+        <f>B63*[1]属性总表!$E$5</f>
+        <v>21262.5</v>
+      </c>
+      <c r="E63" s="1">
+        <f>ROUND([1]等级属性!C63*[1]属性总表!$F$5,0)</f>
+        <v>1232</v>
+      </c>
+      <c r="F63" s="1">
+        <f>ROUND(C63*[1]属性总表!$G$5,0)</f>
+        <v>370</v>
+      </c>
+      <c r="G63" s="1">
+        <f>ROUND(C63*[1]属性总表!$H$5,0)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>12.439999999999973</v>
+      </c>
+      <c r="D64" s="1">
+        <f>B64*[1]属性总表!$E$5</f>
+        <v>21525</v>
+      </c>
+      <c r="E64" s="1">
+        <f>ROUND([1]等级属性!C64*[1]属性总表!$F$5,0)</f>
+        <v>1244</v>
+      </c>
+      <c r="F64" s="1">
+        <f>ROUND(C64*[1]属性总表!$G$5,0)</f>
+        <v>373</v>
+      </c>
+      <c r="G64" s="1">
+        <f>ROUND(C64*[1]属性总表!$H$5,0)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>20.75</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>12.559999999999972</v>
+      </c>
+      <c r="D65" s="1">
+        <f>B65*[1]属性总表!$E$5</f>
+        <v>21787.5</v>
+      </c>
+      <c r="E65" s="1">
+        <f>ROUND([1]等级属性!C65*[1]属性总表!$F$5,0)</f>
+        <v>1256</v>
+      </c>
+      <c r="F65" s="1">
+        <f>ROUND(C65*[1]属性总表!$G$5,0)</f>
+        <v>377</v>
+      </c>
+      <c r="G65" s="1">
+        <f>ROUND(C65*[1]属性总表!$H$5,0)</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>12.679999999999971</v>
+      </c>
+      <c r="D66" s="1">
+        <f>B66*[1]属性总表!$E$5</f>
+        <v>22050</v>
+      </c>
+      <c r="E66" s="1">
+        <f>ROUND([1]等级属性!C66*[1]属性总表!$F$5,0)</f>
+        <v>1268</v>
+      </c>
+      <c r="F66" s="1">
+        <f>ROUND(C66*[1]属性总表!$G$5,0)</f>
+        <v>380</v>
+      </c>
+      <c r="G66" s="1">
+        <f>ROUND(C66*[1]属性总表!$H$5,0)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>12.799999999999971</v>
+      </c>
+      <c r="D67" s="1">
+        <f>B67*[1]属性总表!$E$5</f>
+        <v>22312.5</v>
+      </c>
+      <c r="E67" s="1">
+        <f>ROUND([1]等级属性!C67*[1]属性总表!$F$5,0)</f>
+        <v>1280</v>
+      </c>
+      <c r="F67" s="1">
+        <f>ROUND(C67*[1]属性总表!$G$5,0)</f>
+        <v>384</v>
+      </c>
+      <c r="G67" s="1">
+        <f>ROUND(C67*[1]属性总表!$H$5,0)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B71" si="2">B67+0.25</f>
+        <v>21.5</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C71" si="3">C67+0.12</f>
+        <v>12.91999999999997</v>
+      </c>
+      <c r="D68" s="1">
+        <f>B68*[1]属性总表!$E$5</f>
+        <v>22575</v>
+      </c>
+      <c r="E68" s="1">
+        <f>ROUND([1]等级属性!C68*[1]属性总表!$F$5,0)</f>
+        <v>1292</v>
+      </c>
+      <c r="F68" s="1">
+        <f>ROUND(C68*[1]属性总表!$G$5,0)</f>
+        <v>388</v>
+      </c>
+      <c r="G68" s="1">
+        <f>ROUND(C68*[1]属性总表!$H$5,0)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="2"/>
+        <v>21.75</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>13.039999999999969</v>
+      </c>
+      <c r="D69" s="1">
+        <f>B69*[1]属性总表!$E$5</f>
+        <v>22837.5</v>
+      </c>
+      <c r="E69" s="1">
+        <f>ROUND([1]等级属性!C69*[1]属性总表!$F$5,0)</f>
+        <v>1304</v>
+      </c>
+      <c r="F69" s="1">
+        <f>ROUND(C69*[1]属性总表!$G$5,0)</f>
+        <v>391</v>
+      </c>
+      <c r="G69" s="1">
+        <f>ROUND(C69*[1]属性总表!$H$5,0)</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="3"/>
+        <v>13.159999999999968</v>
+      </c>
+      <c r="D70" s="1">
+        <f>B70*[1]属性总表!$E$5</f>
+        <v>23100</v>
+      </c>
+      <c r="E70" s="1">
+        <f>ROUND([1]等级属性!C70*[1]属性总表!$F$5,0)</f>
+        <v>1316</v>
+      </c>
+      <c r="F70" s="1">
+        <f>ROUND(C70*[1]属性总表!$G$5,0)</f>
+        <v>395</v>
+      </c>
+      <c r="G70" s="1">
+        <f>ROUND(C70*[1]属性总表!$H$5,0)</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="2"/>
+        <v>22.25</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="3"/>
+        <v>13.279999999999967</v>
+      </c>
+      <c r="D71" s="1">
+        <f>B71*[1]属性总表!$E$5</f>
+        <v>23362.5</v>
+      </c>
+      <c r="E71" s="1">
+        <f>ROUND([1]等级属性!C71*[1]属性总表!$F$5,0)</f>
+        <v>1328</v>
+      </c>
+      <c r="F71" s="1">
+        <f>ROUND(C71*[1]属性总表!$G$5,0)</f>
+        <v>398</v>
+      </c>
+      <c r="G71" s="1">
+        <f>ROUND(C71*[1]属性总表!$H$5,0)</f>
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A3:J34"/>
   <sheetViews>
@@ -41836,2083 +44721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H2:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="7" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*[1]属性总表!$E$5</f>
-        <v>5250</v>
-      </c>
-      <c r="E2" s="1">
-        <f>ROUND([1]等级属性!C2*[1]属性总表!$F$5,0)</f>
-        <v>500</v>
-      </c>
-      <c r="F2" s="1">
-        <f>ROUND(C2*[1]属性总表!$G$5,0)</f>
-        <v>150</v>
-      </c>
-      <c r="G2" s="1">
-        <f>ROUND(C2*[1]属性总表!$H$5,0)</f>
-        <v>150</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>B2+0.25</f>
-        <v>5.25</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2+0.12</f>
-        <v>5.12</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*[1]属性总表!$E$5</f>
-        <v>5512.5</v>
-      </c>
-      <c r="E3" s="1">
-        <f>ROUND([1]等级属性!C3*[1]属性总表!$F$5,0)</f>
-        <v>512</v>
-      </c>
-      <c r="F3" s="1">
-        <f>ROUND(C3*[1]属性总表!$G$5,0)</f>
-        <v>154</v>
-      </c>
-      <c r="G3" s="1">
-        <f>ROUND(C3*[1]属性总表!$H$5,0)</f>
-        <v>154</v>
-      </c>
-      <c r="H3" s="1">
-        <f>D3-D2</f>
-        <v>262.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">B3+0.25</f>
-        <v>5.5</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C67" si="1">C3+0.12</f>
-        <v>5.24</v>
-      </c>
-      <c r="D4" s="1">
-        <f>B4*[1]属性总表!$E$5</f>
-        <v>5775</v>
-      </c>
-      <c r="E4" s="1">
-        <f>ROUND([1]等级属性!C4*[1]属性总表!$F$5,0)</f>
-        <v>524</v>
-      </c>
-      <c r="F4" s="1">
-        <f>ROUND(C4*[1]属性总表!$G$5,0)</f>
-        <v>157</v>
-      </c>
-      <c r="G4" s="1">
-        <f>ROUND(C4*[1]属性总表!$H$5,0)</f>
-        <v>157</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>5.75</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.36</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5*[1]属性总表!$E$5</f>
-        <v>6037.5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>ROUND([1]等级属性!C5*[1]属性总表!$F$5,0)</f>
-        <v>536</v>
-      </c>
-      <c r="F5" s="1">
-        <f>ROUND(C5*[1]属性总表!$G$5,0)</f>
-        <v>161</v>
-      </c>
-      <c r="G5" s="1">
-        <f>ROUND(C5*[1]属性总表!$H$5,0)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.48</v>
-      </c>
-      <c r="D6" s="1">
-        <f>B6*[1]属性总表!$E$5</f>
-        <v>6300</v>
-      </c>
-      <c r="E6" s="1">
-        <f>ROUND([1]等级属性!C6*[1]属性总表!$F$5,0)</f>
-        <v>548</v>
-      </c>
-      <c r="F6" s="1">
-        <f>ROUND(C6*[1]属性总表!$G$5,0)</f>
-        <v>164</v>
-      </c>
-      <c r="G6" s="1">
-        <f>ROUND(C6*[1]属性总表!$H$5,0)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7*[1]属性总表!$E$5</f>
-        <v>6562.5</v>
-      </c>
-      <c r="E7" s="1">
-        <f>ROUND([1]等级属性!C7*[1]属性总表!$F$5,0)</f>
-        <v>560</v>
-      </c>
-      <c r="F7" s="1">
-        <f>ROUND(C7*[1]属性总表!$G$5,0)</f>
-        <v>168</v>
-      </c>
-      <c r="G7" s="1">
-        <f>ROUND(C7*[1]属性总表!$H$5,0)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7200000000000006</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8*[1]属性总表!$E$5</f>
-        <v>6825</v>
-      </c>
-      <c r="E8" s="1">
-        <f>ROUND([1]等级属性!C8*[1]属性总表!$F$5,0)</f>
-        <v>572</v>
-      </c>
-      <c r="F8" s="1">
-        <f>ROUND(C8*[1]属性总表!$G$5,0)</f>
-        <v>172</v>
-      </c>
-      <c r="G8" s="1">
-        <f>ROUND(C8*[1]属性总表!$H$5,0)</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8400000000000007</v>
-      </c>
-      <c r="D9" s="1">
-        <f>B9*[1]属性总表!$E$5</f>
-        <v>7087.5</v>
-      </c>
-      <c r="E9" s="1">
-        <f>ROUND([1]等级属性!C9*[1]属性总表!$F$5,0)</f>
-        <v>584</v>
-      </c>
-      <c r="F9" s="1">
-        <f>ROUND(C9*[1]属性总表!$G$5,0)</f>
-        <v>175</v>
-      </c>
-      <c r="G9" s="1">
-        <f>ROUND(C9*[1]属性总表!$H$5,0)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9600000000000009</v>
-      </c>
-      <c r="D10" s="1">
-        <f>B10*[1]属性总表!$E$5</f>
-        <v>7350</v>
-      </c>
-      <c r="E10" s="1">
-        <f>ROUND([1]等级属性!C10*[1]属性总表!$F$5,0)</f>
-        <v>596</v>
-      </c>
-      <c r="F10" s="1">
-        <f>ROUND(C10*[1]属性总表!$G$5,0)</f>
-        <v>179</v>
-      </c>
-      <c r="G10" s="1">
-        <f>ROUND(C10*[1]属性总表!$H$5,0)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>6.080000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <f>B11*[1]属性总表!$E$5</f>
-        <v>7612.5</v>
-      </c>
-      <c r="E11" s="1">
-        <f>ROUND([1]等级属性!C11*[1]属性总表!$F$5,0)</f>
-        <v>608</v>
-      </c>
-      <c r="F11" s="1">
-        <f>ROUND(C11*[1]属性总表!$G$5,0)</f>
-        <v>182</v>
-      </c>
-      <c r="G11" s="1">
-        <f>ROUND(C11*[1]属性总表!$H$5,0)</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2000000000000011</v>
-      </c>
-      <c r="D12" s="1">
-        <f>B12*[1]属性总表!$E$5</f>
-        <v>7875</v>
-      </c>
-      <c r="E12" s="1">
-        <f>ROUND([1]等级属性!C12*[1]属性总表!$F$5,0)</f>
-        <v>620</v>
-      </c>
-      <c r="F12" s="1">
-        <f>ROUND(C12*[1]属性总表!$G$5,0)</f>
-        <v>186</v>
-      </c>
-      <c r="G12" s="1">
-        <f>ROUND(C12*[1]属性总表!$H$5,0)</f>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3200000000000012</v>
-      </c>
-      <c r="D13" s="1">
-        <f>B13*[1]属性总表!$E$5</f>
-        <v>8137.5</v>
-      </c>
-      <c r="E13" s="1">
-        <f>ROUND([1]等级属性!C13*[1]属性总表!$F$5,0)</f>
-        <v>632</v>
-      </c>
-      <c r="F13" s="1">
-        <f>ROUND(C13*[1]属性总表!$G$5,0)</f>
-        <v>190</v>
-      </c>
-      <c r="G13" s="1">
-        <f>ROUND(C13*[1]属性总表!$H$5,0)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>6.4400000000000013</v>
-      </c>
-      <c r="D14" s="1">
-        <f>B14*[1]属性总表!$E$5</f>
-        <v>8400</v>
-      </c>
-      <c r="E14" s="1">
-        <f>ROUND([1]等级属性!C14*[1]属性总表!$F$5,0)</f>
-        <v>644</v>
-      </c>
-      <c r="F14" s="1">
-        <f>ROUND(C14*[1]属性总表!$G$5,0)</f>
-        <v>193</v>
-      </c>
-      <c r="G14" s="1">
-        <f>ROUND(C14*[1]属性总表!$H$5,0)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>8.25</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5600000000000014</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15*[1]属性总表!$E$5</f>
-        <v>8662.5</v>
-      </c>
-      <c r="E15" s="1">
-        <f>ROUND([1]等级属性!C15*[1]属性总表!$F$5,0)</f>
-        <v>656</v>
-      </c>
-      <c r="F15" s="1">
-        <f>ROUND(C15*[1]属性总表!$G$5,0)</f>
-        <v>197</v>
-      </c>
-      <c r="G15" s="1">
-        <f>ROUND(C15*[1]属性总表!$H$5,0)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6800000000000015</v>
-      </c>
-      <c r="D16" s="1">
-        <f>B16*[1]属性总表!$E$5</f>
-        <v>8925</v>
-      </c>
-      <c r="E16" s="1">
-        <f>ROUND([1]等级属性!C16*[1]属性总表!$F$5,0)</f>
-        <v>668</v>
-      </c>
-      <c r="F16" s="1">
-        <f>ROUND(C16*[1]属性总表!$G$5,0)</f>
-        <v>200</v>
-      </c>
-      <c r="G16" s="1">
-        <f>ROUND(C16*[1]属性总表!$H$5,0)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000016</v>
-      </c>
-      <c r="D17" s="1">
-        <f>B17*[1]属性总表!$E$5</f>
-        <v>9187.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f>ROUND([1]等级属性!C17*[1]属性总表!$F$5,0)</f>
-        <v>680</v>
-      </c>
-      <c r="F17" s="1">
-        <f>ROUND(C17*[1]属性总表!$G$5,0)</f>
-        <v>204</v>
-      </c>
-      <c r="G17" s="1">
-        <f>ROUND(C17*[1]属性总表!$H$5,0)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9200000000000017</v>
-      </c>
-      <c r="D18" s="1">
-        <f>B18*[1]属性总表!$E$5</f>
-        <v>9450</v>
-      </c>
-      <c r="E18" s="1">
-        <f>ROUND([1]等级属性!C18*[1]属性总表!$F$5,0)</f>
-        <v>692</v>
-      </c>
-      <c r="F18" s="1">
-        <f>ROUND(C18*[1]属性总表!$G$5,0)</f>
-        <v>208</v>
-      </c>
-      <c r="G18" s="1">
-        <f>ROUND(C18*[1]属性总表!$H$5,0)</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>7.0400000000000018</v>
-      </c>
-      <c r="D19" s="1">
-        <f>B19*[1]属性总表!$E$5</f>
-        <v>9712.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f>ROUND([1]等级属性!C19*[1]属性总表!$F$5,0)</f>
-        <v>704</v>
-      </c>
-      <c r="F19" s="1">
-        <f>ROUND(C19*[1]属性总表!$G$5,0)</f>
-        <v>211</v>
-      </c>
-      <c r="G19" s="1">
-        <f>ROUND(C19*[1]属性总表!$H$5,0)</f>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1600000000000019</v>
-      </c>
-      <c r="D20" s="1">
-        <f>B20*[1]属性总表!$E$5</f>
-        <v>9975</v>
-      </c>
-      <c r="E20" s="1">
-        <f>ROUND([1]等级属性!C20*[1]属性总表!$F$5,0)</f>
-        <v>716</v>
-      </c>
-      <c r="F20" s="1">
-        <f>ROUND(C20*[1]属性总表!$G$5,0)</f>
-        <v>215</v>
-      </c>
-      <c r="G20" s="1">
-        <f>ROUND(C20*[1]属性总表!$H$5,0)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>7.280000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <f>B21*[1]属性总表!$E$5</f>
-        <v>10237.5</v>
-      </c>
-      <c r="E21" s="1">
-        <f>ROUND([1]等级属性!C21*[1]属性总表!$F$5,0)</f>
-        <v>728</v>
-      </c>
-      <c r="F21" s="1">
-        <f>ROUND(C21*[1]属性总表!$G$5,0)</f>
-        <v>218</v>
-      </c>
-      <c r="G21" s="1">
-        <f>ROUND(C21*[1]属性总表!$H$5,0)</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4000000000000021</v>
-      </c>
-      <c r="D22" s="1">
-        <f>B22*[1]属性总表!$E$5</f>
-        <v>10500</v>
-      </c>
-      <c r="E22" s="1">
-        <f>ROUND([1]等级属性!C22*[1]属性总表!$F$5,0)</f>
-        <v>740</v>
-      </c>
-      <c r="F22" s="1">
-        <f>ROUND(C22*[1]属性总表!$G$5,0)</f>
-        <v>222</v>
-      </c>
-      <c r="G22" s="1">
-        <f>ROUND(C22*[1]属性总表!$H$5,0)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>10.25</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5200000000000022</v>
-      </c>
-      <c r="D23" s="1">
-        <f>B23*[1]属性总表!$E$5</f>
-        <v>10762.5</v>
-      </c>
-      <c r="E23" s="1">
-        <f>ROUND([1]等级属性!C23*[1]属性总表!$F$5,0)</f>
-        <v>752</v>
-      </c>
-      <c r="F23" s="1">
-        <f>ROUND(C23*[1]属性总表!$G$5,0)</f>
-        <v>226</v>
-      </c>
-      <c r="G23" s="1">
-        <f>ROUND(C23*[1]属性总表!$H$5,0)</f>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>7.6400000000000023</v>
-      </c>
-      <c r="D24" s="1">
-        <f>B24*[1]属性总表!$E$5</f>
-        <v>11025</v>
-      </c>
-      <c r="E24" s="1">
-        <f>ROUND([1]等级属性!C24*[1]属性总表!$F$5,0)</f>
-        <v>764</v>
-      </c>
-      <c r="F24" s="1">
-        <f>ROUND(C24*[1]属性总表!$G$5,0)</f>
-        <v>229</v>
-      </c>
-      <c r="G24" s="1">
-        <f>ROUND(C24*[1]属性总表!$H$5,0)</f>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>10.75</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>7.7600000000000025</v>
-      </c>
-      <c r="D25" s="1">
-        <f>B25*[1]属性总表!$E$5</f>
-        <v>11287.5</v>
-      </c>
-      <c r="E25" s="1">
-        <f>ROUND([1]等级属性!C25*[1]属性总表!$F$5,0)</f>
-        <v>776</v>
-      </c>
-      <c r="F25" s="1">
-        <f>ROUND(C25*[1]属性总表!$G$5,0)</f>
-        <v>233</v>
-      </c>
-      <c r="G25" s="1">
-        <f>ROUND(C25*[1]属性总表!$H$5,0)</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8800000000000026</v>
-      </c>
-      <c r="D26" s="1">
-        <f>B26*[1]属性总表!$E$5</f>
-        <v>11550</v>
-      </c>
-      <c r="E26" s="1">
-        <f>ROUND([1]等级属性!C26*[1]属性总表!$F$5,0)</f>
-        <v>788</v>
-      </c>
-      <c r="F26" s="1">
-        <f>ROUND(C26*[1]属性总表!$G$5,0)</f>
-        <v>236</v>
-      </c>
-      <c r="G26" s="1">
-        <f>ROUND(C26*[1]属性总表!$H$5,0)</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000018</v>
-      </c>
-      <c r="D27" s="1">
-        <f>B27*[1]属性总表!$E$5</f>
-        <v>11812.5</v>
-      </c>
-      <c r="E27" s="1">
-        <f>ROUND([1]等级属性!C27*[1]属性总表!$F$5,0)</f>
-        <v>800</v>
-      </c>
-      <c r="F27" s="1">
-        <f>ROUND(C27*[1]属性总表!$G$5,0)</f>
-        <v>240</v>
-      </c>
-      <c r="G27" s="1">
-        <f>ROUND(C27*[1]属性总表!$H$5,0)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="1"/>
-        <v>8.120000000000001</v>
-      </c>
-      <c r="D28" s="1">
-        <f>B28*[1]属性总表!$E$5</f>
-        <v>12075</v>
-      </c>
-      <c r="E28" s="1">
-        <f>ROUND([1]等级属性!C28*[1]属性总表!$F$5,0)</f>
-        <v>812</v>
-      </c>
-      <c r="F28" s="1">
-        <f>ROUND(C28*[1]属性总表!$G$5,0)</f>
-        <v>244</v>
-      </c>
-      <c r="G28" s="1">
-        <f>ROUND(C28*[1]属性总表!$H$5,0)</f>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>11.75</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="1"/>
-        <v>8.24</v>
-      </c>
-      <c r="D29" s="1">
-        <f>B29*[1]属性总表!$E$5</f>
-        <v>12337.5</v>
-      </c>
-      <c r="E29" s="1">
-        <f>ROUND([1]等级属性!C29*[1]属性总表!$F$5,0)</f>
-        <v>824</v>
-      </c>
-      <c r="F29" s="1">
-        <f>ROUND(C29*[1]属性总表!$G$5,0)</f>
-        <v>247</v>
-      </c>
-      <c r="G29" s="1">
-        <f>ROUND(C29*[1]属性总表!$H$5,0)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>8.36</v>
-      </c>
-      <c r="D30" s="1">
-        <f>B30*[1]属性总表!$E$5</f>
-        <v>12600</v>
-      </c>
-      <c r="E30" s="1">
-        <f>ROUND([1]等级属性!C30*[1]属性总表!$F$5,0)</f>
-        <v>836</v>
-      </c>
-      <c r="F30" s="1">
-        <f>ROUND(C30*[1]属性总表!$G$5,0)</f>
-        <v>251</v>
-      </c>
-      <c r="G30" s="1">
-        <f>ROUND(C30*[1]属性总表!$H$5,0)</f>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4799999999999986</v>
-      </c>
-      <c r="D31" s="1">
-        <f>B31*[1]属性总表!$E$5</f>
-        <v>12862.5</v>
-      </c>
-      <c r="E31" s="1">
-        <f>ROUND([1]等级属性!C31*[1]属性总表!$F$5,0)</f>
-        <v>848</v>
-      </c>
-      <c r="F31" s="1">
-        <f>ROUND(C31*[1]属性总表!$G$5,0)</f>
-        <v>254</v>
-      </c>
-      <c r="G31" s="1">
-        <f>ROUND(C31*[1]属性总表!$H$5,0)</f>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5999999999999979</v>
-      </c>
-      <c r="D32" s="1">
-        <f>B32*[1]属性总表!$E$5</f>
-        <v>13125</v>
-      </c>
-      <c r="E32" s="1">
-        <f>ROUND([1]等级属性!C32*[1]属性总表!$F$5,0)</f>
-        <v>860</v>
-      </c>
-      <c r="F32" s="1">
-        <f>ROUND(C32*[1]属性总表!$G$5,0)</f>
-        <v>258</v>
-      </c>
-      <c r="G32" s="1">
-        <f>ROUND(C32*[1]属性总表!$H$5,0)</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="1"/>
-        <v>8.7199999999999971</v>
-      </c>
-      <c r="D33" s="1">
-        <f>B33*[1]属性总表!$E$5</f>
-        <v>13387.5</v>
-      </c>
-      <c r="E33" s="1">
-        <f>ROUND([1]等级属性!C33*[1]属性总表!$F$5,0)</f>
-        <v>872</v>
-      </c>
-      <c r="F33" s="1">
-        <f>ROUND(C33*[1]属性总表!$G$5,0)</f>
-        <v>262</v>
-      </c>
-      <c r="G33" s="1">
-        <f>ROUND(C33*[1]属性总表!$H$5,0)</f>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="1"/>
-        <v>8.8399999999999963</v>
-      </c>
-      <c r="D34" s="1">
-        <f>B34*[1]属性总表!$E$5</f>
-        <v>13650</v>
-      </c>
-      <c r="E34" s="1">
-        <f>ROUND([1]等级属性!C34*[1]属性总表!$F$5,0)</f>
-        <v>884</v>
-      </c>
-      <c r="F34" s="1">
-        <f>ROUND(C34*[1]属性总表!$G$5,0)</f>
-        <v>265</v>
-      </c>
-      <c r="G34" s="1">
-        <f>ROUND(C34*[1]属性总表!$H$5,0)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>13.25</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9599999999999955</v>
-      </c>
-      <c r="D35" s="1">
-        <f>B35*[1]属性总表!$E$5</f>
-        <v>13912.5</v>
-      </c>
-      <c r="E35" s="1">
-        <f>ROUND([1]等级属性!C35*[1]属性总表!$F$5,0)</f>
-        <v>896</v>
-      </c>
-      <c r="F35" s="1">
-        <f>ROUND(C35*[1]属性总表!$G$5,0)</f>
-        <v>269</v>
-      </c>
-      <c r="G35" s="1">
-        <f>ROUND(C35*[1]属性总表!$H$5,0)</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>9.0799999999999947</v>
-      </c>
-      <c r="D36" s="1">
-        <f>B36*[1]属性总表!$E$5</f>
-        <v>14175</v>
-      </c>
-      <c r="E36" s="1">
-        <f>ROUND([1]等级属性!C36*[1]属性总表!$F$5,0)</f>
-        <v>908</v>
-      </c>
-      <c r="F36" s="1">
-        <f>ROUND(C36*[1]属性总表!$G$5,0)</f>
-        <v>272</v>
-      </c>
-      <c r="G36" s="1">
-        <f>ROUND(C36*[1]属性总表!$H$5,0)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>13.75</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
-        <v>9.199999999999994</v>
-      </c>
-      <c r="D37" s="1">
-        <f>B37*[1]属性总表!$E$5</f>
-        <v>14437.5</v>
-      </c>
-      <c r="E37" s="1">
-        <f>ROUND([1]等级属性!C37*[1]属性总表!$F$5,0)</f>
-        <v>920</v>
-      </c>
-      <c r="F37" s="1">
-        <f>ROUND(C37*[1]属性总表!$G$5,0)</f>
-        <v>276</v>
-      </c>
-      <c r="G37" s="1">
-        <f>ROUND(C37*[1]属性总表!$H$5,0)</f>
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
-        <v>9.3199999999999932</v>
-      </c>
-      <c r="D38" s="1">
-        <f>B38*[1]属性总表!$E$5</f>
-        <v>14700</v>
-      </c>
-      <c r="E38" s="1">
-        <f>ROUND([1]等级属性!C38*[1]属性总表!$F$5,0)</f>
-        <v>932</v>
-      </c>
-      <c r="F38" s="1">
-        <f>ROUND(C38*[1]属性总表!$G$5,0)</f>
-        <v>280</v>
-      </c>
-      <c r="G38" s="1">
-        <f>ROUND(C38*[1]属性总表!$H$5,0)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>14.25</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4399999999999924</v>
-      </c>
-      <c r="D39" s="1">
-        <f>B39*[1]属性总表!$E$5</f>
-        <v>14962.5</v>
-      </c>
-      <c r="E39" s="1">
-        <f>ROUND([1]等级属性!C39*[1]属性总表!$F$5,0)</f>
-        <v>944</v>
-      </c>
-      <c r="F39" s="1">
-        <f>ROUND(C39*[1]属性总表!$G$5,0)</f>
-        <v>283</v>
-      </c>
-      <c r="G39" s="1">
-        <f>ROUND(C39*[1]属性总表!$H$5,0)</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5599999999999916</v>
-      </c>
-      <c r="D40" s="1">
-        <f>B40*[1]属性总表!$E$5</f>
-        <v>15225</v>
-      </c>
-      <c r="E40" s="1">
-        <f>ROUND([1]等级属性!C40*[1]属性总表!$F$5,0)</f>
-        <v>956</v>
-      </c>
-      <c r="F40" s="1">
-        <f>ROUND(C40*[1]属性总表!$G$5,0)</f>
-        <v>287</v>
-      </c>
-      <c r="G40" s="1">
-        <f>ROUND(C40*[1]属性总表!$H$5,0)</f>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>14.75</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
-        <v>9.6799999999999908</v>
-      </c>
-      <c r="D41" s="1">
-        <f>B41*[1]属性总表!$E$5</f>
-        <v>15487.5</v>
-      </c>
-      <c r="E41" s="1">
-        <f>ROUND([1]等级属性!C41*[1]属性总表!$F$5,0)</f>
-        <v>968</v>
-      </c>
-      <c r="F41" s="1">
-        <f>ROUND(C41*[1]属性总表!$G$5,0)</f>
-        <v>290</v>
-      </c>
-      <c r="G41" s="1">
-        <f>ROUND(C41*[1]属性总表!$H$5,0)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7999999999999901</v>
-      </c>
-      <c r="D42" s="1">
-        <f>B42*[1]属性总表!$E$5</f>
-        <v>15750</v>
-      </c>
-      <c r="E42" s="1">
-        <f>ROUND([1]等级属性!C42*[1]属性总表!$F$5,0)</f>
-        <v>980</v>
-      </c>
-      <c r="F42" s="1">
-        <f>ROUND(C42*[1]属性总表!$G$5,0)</f>
-        <v>294</v>
-      </c>
-      <c r="G42" s="1">
-        <f>ROUND(C42*[1]属性总表!$H$5,0)</f>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>15.25</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9199999999999893</v>
-      </c>
-      <c r="D43" s="1">
-        <f>B43*[1]属性总表!$E$5</f>
-        <v>16012.5</v>
-      </c>
-      <c r="E43" s="1">
-        <f>ROUND([1]等级属性!C43*[1]属性总表!$F$5,0)</f>
-        <v>992</v>
-      </c>
-      <c r="F43" s="1">
-        <f>ROUND(C43*[1]属性总表!$G$5,0)</f>
-        <v>298</v>
-      </c>
-      <c r="G43" s="1">
-        <f>ROUND(C43*[1]属性总表!$H$5,0)</f>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="1"/>
-        <v>10.039999999999988</v>
-      </c>
-      <c r="D44" s="1">
-        <f>B44*[1]属性总表!$E$5</f>
-        <v>16275</v>
-      </c>
-      <c r="E44" s="1">
-        <f>ROUND([1]等级属性!C44*[1]属性总表!$F$5,0)</f>
-        <v>1004</v>
-      </c>
-      <c r="F44" s="1">
-        <f>ROUND(C44*[1]属性总表!$G$5,0)</f>
-        <v>301</v>
-      </c>
-      <c r="G44" s="1">
-        <f>ROUND(C44*[1]属性总表!$H$5,0)</f>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="1"/>
-        <v>10.159999999999988</v>
-      </c>
-      <c r="D45" s="1">
-        <f>B45*[1]属性总表!$E$5</f>
-        <v>16537.5</v>
-      </c>
-      <c r="E45" s="1">
-        <f>ROUND([1]等级属性!C45*[1]属性总表!$F$5,0)</f>
-        <v>1016</v>
-      </c>
-      <c r="F45" s="1">
-        <f>ROUND(C45*[1]属性总表!$G$5,0)</f>
-        <v>305</v>
-      </c>
-      <c r="G45" s="1">
-        <f>ROUND(C45*[1]属性总表!$H$5,0)</f>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="1"/>
-        <v>10.279999999999987</v>
-      </c>
-      <c r="D46" s="1">
-        <f>B46*[1]属性总表!$E$5</f>
-        <v>16800</v>
-      </c>
-      <c r="E46" s="1">
-        <f>ROUND([1]等级属性!C46*[1]属性总表!$F$5,0)</f>
-        <v>1028</v>
-      </c>
-      <c r="F46" s="1">
-        <f>ROUND(C46*[1]属性总表!$G$5,0)</f>
-        <v>308</v>
-      </c>
-      <c r="G46" s="1">
-        <f>ROUND(C46*[1]属性总表!$H$5,0)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="1"/>
-        <v>10.399999999999986</v>
-      </c>
-      <c r="D47" s="1">
-        <f>B47*[1]属性总表!$E$5</f>
-        <v>17062.5</v>
-      </c>
-      <c r="E47" s="1">
-        <f>ROUND([1]等级属性!C47*[1]属性总表!$F$5,0)</f>
-        <v>1040</v>
-      </c>
-      <c r="F47" s="1">
-        <f>ROUND(C47*[1]属性总表!$G$5,0)</f>
-        <v>312</v>
-      </c>
-      <c r="G47" s="1">
-        <f>ROUND(C47*[1]属性总表!$H$5,0)</f>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="1"/>
-        <v>10.519999999999985</v>
-      </c>
-      <c r="D48" s="1">
-        <f>B48*[1]属性总表!$E$5</f>
-        <v>17325</v>
-      </c>
-      <c r="E48" s="1">
-        <f>ROUND([1]等级属性!C48*[1]属性总表!$F$5,0)</f>
-        <v>1052</v>
-      </c>
-      <c r="F48" s="1">
-        <f>ROUND(C48*[1]属性总表!$G$5,0)</f>
-        <v>316</v>
-      </c>
-      <c r="G48" s="1">
-        <f>ROUND(C48*[1]属性总表!$H$5,0)</f>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>16.75</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="1"/>
-        <v>10.639999999999985</v>
-      </c>
-      <c r="D49" s="1">
-        <f>B49*[1]属性总表!$E$5</f>
-        <v>17587.5</v>
-      </c>
-      <c r="E49" s="1">
-        <f>ROUND([1]等级属性!C49*[1]属性总表!$F$5,0)</f>
-        <v>1064</v>
-      </c>
-      <c r="F49" s="1">
-        <f>ROUND(C49*[1]属性总表!$G$5,0)</f>
-        <v>319</v>
-      </c>
-      <c r="G49" s="1">
-        <f>ROUND(C49*[1]属性总表!$H$5,0)</f>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="1"/>
-        <v>10.759999999999984</v>
-      </c>
-      <c r="D50" s="1">
-        <f>B50*[1]属性总表!$E$5</f>
-        <v>17850</v>
-      </c>
-      <c r="E50" s="1">
-        <f>ROUND([1]等级属性!C50*[1]属性总表!$F$5,0)</f>
-        <v>1076</v>
-      </c>
-      <c r="F50" s="1">
-        <f>ROUND(C50*[1]属性总表!$G$5,0)</f>
-        <v>323</v>
-      </c>
-      <c r="G50" s="1">
-        <f>ROUND(C50*[1]属性总表!$H$5,0)</f>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>17.25</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="1"/>
-        <v>10.879999999999983</v>
-      </c>
-      <c r="D51" s="1">
-        <f>B51*[1]属性总表!$E$5</f>
-        <v>18112.5</v>
-      </c>
-      <c r="E51" s="1">
-        <f>ROUND([1]等级属性!C51*[1]属性总表!$F$5,0)</f>
-        <v>1088</v>
-      </c>
-      <c r="F51" s="1">
-        <f>ROUND(C51*[1]属性总表!$G$5,0)</f>
-        <v>326</v>
-      </c>
-      <c r="G51" s="1">
-        <f>ROUND(C51*[1]属性总表!$H$5,0)</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="1"/>
-        <v>10.999999999999982</v>
-      </c>
-      <c r="D52" s="1">
-        <f>B52*[1]属性总表!$E$5</f>
-        <v>18375</v>
-      </c>
-      <c r="E52" s="1">
-        <f>ROUND([1]等级属性!C52*[1]属性总表!$F$5,0)</f>
-        <v>1100</v>
-      </c>
-      <c r="F52" s="1">
-        <f>ROUND(C52*[1]属性总表!$G$5,0)</f>
-        <v>330</v>
-      </c>
-      <c r="G52" s="1">
-        <f>ROUND(C52*[1]属性总表!$H$5,0)</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>17.75</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="1"/>
-        <v>11.119999999999981</v>
-      </c>
-      <c r="D53" s="1">
-        <f>B53*[1]属性总表!$E$5</f>
-        <v>18637.5</v>
-      </c>
-      <c r="E53" s="1">
-        <f>ROUND([1]等级属性!C53*[1]属性总表!$F$5,0)</f>
-        <v>1112</v>
-      </c>
-      <c r="F53" s="1">
-        <f>ROUND(C53*[1]属性总表!$G$5,0)</f>
-        <v>334</v>
-      </c>
-      <c r="G53" s="1">
-        <f>ROUND(C53*[1]属性总表!$H$5,0)</f>
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="1"/>
-        <v>11.239999999999981</v>
-      </c>
-      <c r="D54" s="1">
-        <f>B54*[1]属性总表!$E$5</f>
-        <v>18900</v>
-      </c>
-      <c r="E54" s="1">
-        <f>ROUND([1]等级属性!C54*[1]属性总表!$F$5,0)</f>
-        <v>1124</v>
-      </c>
-      <c r="F54" s="1">
-        <f>ROUND(C54*[1]属性总表!$G$5,0)</f>
-        <v>337</v>
-      </c>
-      <c r="G54" s="1">
-        <f>ROUND(C54*[1]属性总表!$H$5,0)</f>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>18.25</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="1"/>
-        <v>11.35999999999998</v>
-      </c>
-      <c r="D55" s="1">
-        <f>B55*[1]属性总表!$E$5</f>
-        <v>19162.5</v>
-      </c>
-      <c r="E55" s="1">
-        <f>ROUND([1]等级属性!C55*[1]属性总表!$F$5,0)</f>
-        <v>1136</v>
-      </c>
-      <c r="F55" s="1">
-        <f>ROUND(C55*[1]属性总表!$G$5,0)</f>
-        <v>341</v>
-      </c>
-      <c r="G55" s="1">
-        <f>ROUND(C55*[1]属性总表!$H$5,0)</f>
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="1"/>
-        <v>11.479999999999979</v>
-      </c>
-      <c r="D56" s="1">
-        <f>B56*[1]属性总表!$E$5</f>
-        <v>19425</v>
-      </c>
-      <c r="E56" s="1">
-        <f>ROUND([1]等级属性!C56*[1]属性总表!$F$5,0)</f>
-        <v>1148</v>
-      </c>
-      <c r="F56" s="1">
-        <f>ROUND(C56*[1]属性总表!$G$5,0)</f>
-        <v>344</v>
-      </c>
-      <c r="G56" s="1">
-        <f>ROUND(C56*[1]属性总表!$H$5,0)</f>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="1"/>
-        <v>11.599999999999978</v>
-      </c>
-      <c r="D57" s="1">
-        <f>B57*[1]属性总表!$E$5</f>
-        <v>19687.5</v>
-      </c>
-      <c r="E57" s="1">
-        <f>ROUND([1]等级属性!C57*[1]属性总表!$F$5,0)</f>
-        <v>1160</v>
-      </c>
-      <c r="F57" s="1">
-        <f>ROUND(C57*[1]属性总表!$G$5,0)</f>
-        <v>348</v>
-      </c>
-      <c r="G57" s="1">
-        <f>ROUND(C57*[1]属性总表!$H$5,0)</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="1"/>
-        <v>11.719999999999978</v>
-      </c>
-      <c r="D58" s="1">
-        <f>B58*[1]属性总表!$E$5</f>
-        <v>19950</v>
-      </c>
-      <c r="E58" s="1">
-        <f>ROUND([1]等级属性!C58*[1]属性总表!$F$5,0)</f>
-        <v>1172</v>
-      </c>
-      <c r="F58" s="1">
-        <f>ROUND(C58*[1]属性总表!$G$5,0)</f>
-        <v>352</v>
-      </c>
-      <c r="G58" s="1">
-        <f>ROUND(C58*[1]属性总表!$H$5,0)</f>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>19.25</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="1"/>
-        <v>11.839999999999977</v>
-      </c>
-      <c r="D59" s="1">
-        <f>B59*[1]属性总表!$E$5</f>
-        <v>20212.5</v>
-      </c>
-      <c r="E59" s="1">
-        <f>ROUND([1]等级属性!C59*[1]属性总表!$F$5,0)</f>
-        <v>1184</v>
-      </c>
-      <c r="F59" s="1">
-        <f>ROUND(C59*[1]属性总表!$G$5,0)</f>
-        <v>355</v>
-      </c>
-      <c r="G59" s="1">
-        <f>ROUND(C59*[1]属性总表!$H$5,0)</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="1"/>
-        <v>11.959999999999976</v>
-      </c>
-      <c r="D60" s="1">
-        <f>B60*[1]属性总表!$E$5</f>
-        <v>20475</v>
-      </c>
-      <c r="E60" s="1">
-        <f>ROUND([1]等级属性!C60*[1]属性总表!$F$5,0)</f>
-        <v>1196</v>
-      </c>
-      <c r="F60" s="1">
-        <f>ROUND(C60*[1]属性总表!$G$5,0)</f>
-        <v>359</v>
-      </c>
-      <c r="G60" s="1">
-        <f>ROUND(C60*[1]属性总表!$H$5,0)</f>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="0"/>
-        <v>19.75</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="1"/>
-        <v>12.079999999999975</v>
-      </c>
-      <c r="D61" s="1">
-        <f>B61*[1]属性总表!$E$5</f>
-        <v>20737.5</v>
-      </c>
-      <c r="E61" s="1">
-        <f>ROUND([1]等级属性!C61*[1]属性总表!$F$5,0)</f>
-        <v>1208</v>
-      </c>
-      <c r="F61" s="1">
-        <f>ROUND(C61*[1]属性总表!$G$5,0)</f>
-        <v>362</v>
-      </c>
-      <c r="G61" s="1">
-        <f>ROUND(C61*[1]属性总表!$H$5,0)</f>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="1"/>
-        <v>12.199999999999974</v>
-      </c>
-      <c r="D62" s="1">
-        <f>B62*[1]属性总表!$E$5</f>
-        <v>21000</v>
-      </c>
-      <c r="E62" s="1">
-        <f>ROUND([1]等级属性!C62*[1]属性总表!$F$5,0)</f>
-        <v>1220</v>
-      </c>
-      <c r="F62" s="1">
-        <f>ROUND(C62*[1]属性总表!$G$5,0)</f>
-        <v>366</v>
-      </c>
-      <c r="G62" s="1">
-        <f>ROUND(C62*[1]属性总表!$H$5,0)</f>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="1"/>
-        <v>12.319999999999974</v>
-      </c>
-      <c r="D63" s="1">
-        <f>B63*[1]属性总表!$E$5</f>
-        <v>21262.5</v>
-      </c>
-      <c r="E63" s="1">
-        <f>ROUND([1]等级属性!C63*[1]属性总表!$F$5,0)</f>
-        <v>1232</v>
-      </c>
-      <c r="F63" s="1">
-        <f>ROUND(C63*[1]属性总表!$G$5,0)</f>
-        <v>370</v>
-      </c>
-      <c r="G63" s="1">
-        <f>ROUND(C63*[1]属性总表!$H$5,0)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="1"/>
-        <v>12.439999999999973</v>
-      </c>
-      <c r="D64" s="1">
-        <f>B64*[1]属性总表!$E$5</f>
-        <v>21525</v>
-      </c>
-      <c r="E64" s="1">
-        <f>ROUND([1]等级属性!C64*[1]属性总表!$F$5,0)</f>
-        <v>1244</v>
-      </c>
-      <c r="F64" s="1">
-        <f>ROUND(C64*[1]属性总表!$G$5,0)</f>
-        <v>373</v>
-      </c>
-      <c r="G64" s="1">
-        <f>ROUND(C64*[1]属性总表!$H$5,0)</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="0"/>
-        <v>20.75</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="1"/>
-        <v>12.559999999999972</v>
-      </c>
-      <c r="D65" s="1">
-        <f>B65*[1]属性总表!$E$5</f>
-        <v>21787.5</v>
-      </c>
-      <c r="E65" s="1">
-        <f>ROUND([1]等级属性!C65*[1]属性总表!$F$5,0)</f>
-        <v>1256</v>
-      </c>
-      <c r="F65" s="1">
-        <f>ROUND(C65*[1]属性总表!$G$5,0)</f>
-        <v>377</v>
-      </c>
-      <c r="G65" s="1">
-        <f>ROUND(C65*[1]属性总表!$H$5,0)</f>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="1"/>
-        <v>12.679999999999971</v>
-      </c>
-      <c r="D66" s="1">
-        <f>B66*[1]属性总表!$E$5</f>
-        <v>22050</v>
-      </c>
-      <c r="E66" s="1">
-        <f>ROUND([1]等级属性!C66*[1]属性总表!$F$5,0)</f>
-        <v>1268</v>
-      </c>
-      <c r="F66" s="1">
-        <f>ROUND(C66*[1]属性总表!$G$5,0)</f>
-        <v>380</v>
-      </c>
-      <c r="G66" s="1">
-        <f>ROUND(C66*[1]属性总表!$H$5,0)</f>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1">
-        <f t="shared" si="0"/>
-        <v>21.25</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="1"/>
-        <v>12.799999999999971</v>
-      </c>
-      <c r="D67" s="1">
-        <f>B67*[1]属性总表!$E$5</f>
-        <v>22312.5</v>
-      </c>
-      <c r="E67" s="1">
-        <f>ROUND([1]等级属性!C67*[1]属性总表!$F$5,0)</f>
-        <v>1280</v>
-      </c>
-      <c r="F67" s="1">
-        <f>ROUND(C67*[1]属性总表!$G$5,0)</f>
-        <v>384</v>
-      </c>
-      <c r="G67" s="1">
-        <f>ROUND(C67*[1]属性总表!$H$5,0)</f>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" ref="B68:B71" si="2">B67+0.25</f>
-        <v>21.5</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" ref="C68:C71" si="3">C67+0.12</f>
-        <v>12.91999999999997</v>
-      </c>
-      <c r="D68" s="1">
-        <f>B68*[1]属性总表!$E$5</f>
-        <v>22575</v>
-      </c>
-      <c r="E68" s="1">
-        <f>ROUND([1]等级属性!C68*[1]属性总表!$F$5,0)</f>
-        <v>1292</v>
-      </c>
-      <c r="F68" s="1">
-        <f>ROUND(C68*[1]属性总表!$G$5,0)</f>
-        <v>388</v>
-      </c>
-      <c r="G68" s="1">
-        <f>ROUND(C68*[1]属性总表!$H$5,0)</f>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="2"/>
-        <v>21.75</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="3"/>
-        <v>13.039999999999969</v>
-      </c>
-      <c r="D69" s="1">
-        <f>B69*[1]属性总表!$E$5</f>
-        <v>22837.5</v>
-      </c>
-      <c r="E69" s="1">
-        <f>ROUND([1]等级属性!C69*[1]属性总表!$F$5,0)</f>
-        <v>1304</v>
-      </c>
-      <c r="F69" s="1">
-        <f>ROUND(C69*[1]属性总表!$G$5,0)</f>
-        <v>391</v>
-      </c>
-      <c r="G69" s="1">
-        <f>ROUND(C69*[1]属性总表!$H$5,0)</f>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="3"/>
-        <v>13.159999999999968</v>
-      </c>
-      <c r="D70" s="1">
-        <f>B70*[1]属性总表!$E$5</f>
-        <v>23100</v>
-      </c>
-      <c r="E70" s="1">
-        <f>ROUND([1]等级属性!C70*[1]属性总表!$F$5,0)</f>
-        <v>1316</v>
-      </c>
-      <c r="F70" s="1">
-        <f>ROUND(C70*[1]属性总表!$G$5,0)</f>
-        <v>395</v>
-      </c>
-      <c r="G70" s="1">
-        <f>ROUND(C70*[1]属性总表!$H$5,0)</f>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1">
-        <f t="shared" si="2"/>
-        <v>22.25</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="3"/>
-        <v>13.279999999999967</v>
-      </c>
-      <c r="D71" s="1">
-        <f>B71*[1]属性总表!$E$5</f>
-        <v>23362.5</v>
-      </c>
-      <c r="E71" s="1">
-        <f>ROUND([1]等级属性!C71*[1]属性总表!$F$5,0)</f>
-        <v>1328</v>
-      </c>
-      <c r="F71" s="1">
-        <f>ROUND(C71*[1]属性总表!$G$5,0)</f>
-        <v>398</v>
-      </c>
-      <c r="G71" s="1">
-        <f>ROUND(C71*[1]属性总表!$H$5,0)</f>
-        <v>398</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="C1:R30"/>
   <sheetViews>
@@ -51991,7 +52800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R78" workbookViewId="0">
+    <sheetView topLeftCell="R78" workbookViewId="0">
       <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
@@ -58132,6 +58941,188 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DAE34-C06F-495E-8317-AB6E80129146}">
+  <dimension ref="H1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I2" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="3" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H3" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="4" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="K9" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="11" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J13" s="1" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="14" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J15" s="5" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I16" s="87" t="s">
+        <v>2258</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I17" s="87" t="s">
+        <v>2257</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="87" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I20" s="87" t="s">
+        <v>2255</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="87" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="87" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:X192"/>
   <sheetViews>
@@ -62692,706 +63683,4 @@
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:U50"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F9" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C10" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E11" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F11" s="1">
-        <f>H11*100</f>
-        <v>300</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11:G15" si="0">0.05*H11</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10001</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:F23" si="1">H12*100</f>
-        <v>200</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10002</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J13" s="1">
-        <v>10003</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J14" s="1">
-        <v>10004</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D15" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J15" s="1">
-        <v>10005</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D16" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J16" s="1">
-        <v>10006</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D17" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17:G23" si="2">0.05*H17</f>
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J17" s="1">
-        <v>10007</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D18" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J18" s="1">
-        <v>10008</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D19" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J19" s="1">
-        <v>10009</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J20" s="1">
-        <v>10010</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J21" s="1">
-        <v>10011</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J22" s="1">
-        <v>10012</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J23" s="1">
-        <v>10013</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J24" s="1">
-        <v>10014</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J25" s="1">
-        <v>10015</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="1">
-        <f>C26*D25</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <f>1/D26</f>
-        <v>13.333333333333332</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I28" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C26*1.5</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C30" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D30" s="1">
-        <f>100/D29</f>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H30" s="1">
-        <f>G30*10000</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1">
-      <c r="C31" s="5"/>
-      <c r="G31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ref="H31:H39" si="3">G31*10000</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="G32" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C33" s="29"/>
-      <c r="D33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E34" s="1">
-        <f>0.1+0.05</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F34" s="1">
-        <f>1.5/E34</f>
-        <v>9.9999999999999982</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="G37" s="1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="G38" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C39" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C40" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C41" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D41" s="1">
-        <f>D39/D40</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C43" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C44" s="29"/>
-      <c r="D44" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118FD59-2B0B-47E7-94B4-18F5D731BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF285B7B-9515-4D39-83BB-86427A5F031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="2260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="2295">
   <si>
     <t>人物属性</t>
   </si>
@@ -7068,6 +7068,146 @@
     <t>觉醒技能设计</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
+  <si>
+    <t>对一个地方释放剑气,大范围进行攻击,在范围内的目标无法移动</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒模式,达到一定阈值,开始释放对目标持续范围进行轰击并无法移动</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域持续轰击,轰击的目标</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技能不占技能格子 愤怒值到了就可以用？</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放觉醒需要消耗2个无色晶体</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对领域,在领域范围内不时有技能落下,对目标造成伤害</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击增加5点</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击目标增加1点</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计300点进行释放</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击攻击别人增加5点</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟内 只能释放一次</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技能对怪物伤害提升3倍</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发一波法球,一排发5个 发6排</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个区域持续性的造成大量的伤害,并使其范围内禁止移动</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一个巨大的能量球,在能量球附近的怪物都会吸引过来</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次超前方释放5个法球，每个法球可以对目标造成300%伤害，持续3个波次</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素:能量之源</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神:洪荒之力</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>驭剑:剑气磁场</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个地方释放剑气，强大的磁场使目标无法移动,每秒造成200%伤害,持续5秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导:量子炸弹</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子炸弹</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣:绝对领域</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>在领域范围内不时有雷击落下,对目标造成300%伤害,持续12秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>光灵:契约风暴</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目标区域释放一个光柱，光柱会跟随目标移动，每秒造成180%伤害,持续5秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个区域释放契约风暴,对范围内的怪物每秒造成200%伤害,持续6秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普通攻击会在目标身上产生爆炸,对目标范围造成200%伤害,持续6秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_32</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_27(单独放大) + Eff_Skill_BaoZha_42</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_ChiXu_4(变透明)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_ChuanSong_1b 做多</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_11(</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_QiuMove_1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7076,7 +7216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7298,8 +7438,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7384,8 +7533,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -7449,12 +7604,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7700,7 +7870,18 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -58942,25 +59123,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DAE34-C06F-495E-8317-AB6E80129146}">
-  <dimension ref="H1:K22"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
     <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="9" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N1" s="88"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I2" s="1" t="s">
         <v>2245</v>
       </c>
-    </row>
-    <row r="3" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N2" s="88"/>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H3" s="1" t="s">
         <v>2235</v>
       </c>
@@ -58973,16 +59160,18 @@
       <c r="K3" s="1" t="s">
         <v>2237</v>
       </c>
-    </row>
-    <row r="4" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N3" s="88"/>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2240</v>
       </c>
-    </row>
-    <row r="5" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N4" s="88"/>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="1">
         <v>3</v>
       </c>
@@ -58992,16 +59181,18 @@
       <c r="K5" s="1" t="s">
         <v>2239</v>
       </c>
-    </row>
-    <row r="6" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N5" s="88"/>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="7" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N6" s="88"/>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I7" s="1">
         <v>5</v>
       </c>
@@ -59011,8 +59202,9 @@
       <c r="K7" s="1" t="s">
         <v>2243</v>
       </c>
-    </row>
-    <row r="8" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N7" s="88"/>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I8" s="1">
         <v>6</v>
       </c>
@@ -59022,8 +59214,9 @@
       <c r="K8" s="1" t="s">
         <v>2239</v>
       </c>
-    </row>
-    <row r="9" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N8" s="88"/>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I9" s="1">
         <v>7</v>
       </c>
@@ -59033,8 +59226,9 @@
       <c r="K9" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="10" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N9" s="88"/>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I10" s="1">
         <v>8</v>
       </c>
@@ -59044,8 +59238,9 @@
       <c r="K10" s="1" t="s">
         <v>2249</v>
       </c>
-    </row>
-    <row r="11" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N10" s="88"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I11" s="1">
         <v>9</v>
       </c>
@@ -59055,8 +59250,9 @@
       <c r="K11" s="1" t="s">
         <v>2243</v>
       </c>
-    </row>
-    <row r="12" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N11" s="88"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="1">
         <v>10</v>
       </c>
@@ -59066,55 +59262,206 @@
       <c r="K12" s="1" t="s">
         <v>2251</v>
       </c>
-    </row>
-    <row r="13" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N12" s="88"/>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J13" s="1" t="s">
         <v>2246</v>
       </c>
-    </row>
-    <row r="14" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J15" s="5" t="s">
+      <c r="N13" s="88"/>
+      <c r="O13" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J15" s="1" t="s">
         <v>2259</v>
       </c>
-    </row>
-    <row r="16" spans="8:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I16" s="87" t="s">
+      <c r="N15" s="89" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I17" s="87" t="s">
+      <c r="C16" s="7" t="s">
+        <v>2272</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>2276</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I18" s="87" t="s">
+      <c r="C17" s="7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="9:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I20" s="87" t="s">
+      <c r="C18" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="9:10">
-      <c r="I21" s="87" t="s">
+      <c r="C20" s="7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>2286</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2254</v>
       </c>
-    </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="87" t="s">
+      <c r="C21" s="7" t="s">
+        <v>2273</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>2253</v>
       </c>
+      <c r="C22" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I24" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J25" s="7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B4AE5-5352-411F-AEB4-87A27BDD2866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F8DC9-4DEF-4E65-9DEA-33C1F6105C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="2314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="2329">
   <si>
     <t>人物属性</t>
   </si>
@@ -7283,6 +7283,66 @@
   </si>
   <si>
     <t>出售金币</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到眩晕攻击有概率触发自身霸体状态,持续3秒</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能闪避</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到技能伤害有5%/10%的概率进行闪避</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通闪避</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有2.5%/5%概率进行闪避</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴抵抗</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到暴击有5%/10%的概率进行抵抗</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化力量</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化敏捷</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化智力</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化耐力</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化体质</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -7701,7 +7761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7959,6 +8019,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8626,47 +8687,39 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="846">
-          <cell r="C846">
-            <v>13005102</v>
-          </cell>
-        </row>
         <row r="847">
           <cell r="C847">
-            <v>13005103</v>
+            <v>13005102</v>
           </cell>
         </row>
         <row r="848">
           <cell r="C848">
-            <v>13005104</v>
+            <v>13005103</v>
           </cell>
         </row>
         <row r="849">
           <cell r="C849">
-            <v>13005105</v>
+            <v>13005104</v>
           </cell>
         </row>
         <row r="850">
           <cell r="C850">
-            <v>13006001</v>
+            <v>13005105</v>
           </cell>
         </row>
         <row r="851">
           <cell r="C851">
-            <v>13006002</v>
+            <v>13006001</v>
           </cell>
         </row>
         <row r="852">
           <cell r="C852">
-            <v>13006003</v>
-          </cell>
-          <cell r="S852">
-            <v>0</v>
+            <v>13006002</v>
           </cell>
         </row>
         <row r="853">
           <cell r="C853">
-            <v>13006004</v>
+            <v>13006003</v>
           </cell>
           <cell r="S853">
             <v>0</v>
@@ -8674,2359 +8727,2367 @@
         </row>
         <row r="854">
           <cell r="C854">
-            <v>13009001</v>
+            <v>13006004</v>
+          </cell>
+          <cell r="S854">
+            <v>0</v>
           </cell>
         </row>
         <row r="855">
           <cell r="C855">
-            <v>13009002</v>
+            <v>13009001</v>
           </cell>
         </row>
         <row r="856">
           <cell r="C856">
-            <v>14010001</v>
+            <v>13009002</v>
           </cell>
         </row>
         <row r="857">
           <cell r="C857">
-            <v>14010002</v>
+            <v>14010001</v>
           </cell>
         </row>
         <row r="858">
           <cell r="C858">
-            <v>14010003</v>
+            <v>14010002</v>
           </cell>
         </row>
         <row r="859">
           <cell r="C859">
-            <v>14010004</v>
+            <v>14010003</v>
           </cell>
         </row>
         <row r="860">
           <cell r="C860">
-            <v>14010005</v>
+            <v>14010004</v>
           </cell>
         </row>
         <row r="861">
           <cell r="C861">
-            <v>14010006</v>
+            <v>14010005</v>
           </cell>
         </row>
         <row r="862">
           <cell r="C862">
-            <v>14010007</v>
+            <v>14010006</v>
           </cell>
         </row>
         <row r="863">
           <cell r="C863">
-            <v>14010008</v>
+            <v>14010007</v>
           </cell>
         </row>
         <row r="864">
           <cell r="C864">
-            <v>14010009</v>
+            <v>14010008</v>
           </cell>
         </row>
         <row r="865">
           <cell r="C865">
-            <v>14010010</v>
+            <v>14010009</v>
           </cell>
         </row>
         <row r="866">
           <cell r="C866">
-            <v>14010011</v>
+            <v>14010010</v>
           </cell>
         </row>
         <row r="867">
           <cell r="C867">
-            <v>14010012</v>
+            <v>14010011</v>
           </cell>
         </row>
         <row r="868">
           <cell r="C868">
-            <v>14020001</v>
+            <v>14010012</v>
           </cell>
         </row>
         <row r="869">
           <cell r="C869">
-            <v>14020002</v>
+            <v>14020001</v>
           </cell>
         </row>
         <row r="870">
           <cell r="C870">
-            <v>14020003</v>
+            <v>14020002</v>
           </cell>
         </row>
         <row r="871">
           <cell r="C871">
-            <v>14020004</v>
+            <v>14020003</v>
           </cell>
         </row>
         <row r="872">
           <cell r="C872">
-            <v>14020005</v>
+            <v>14020004</v>
           </cell>
         </row>
         <row r="873">
           <cell r="C873">
-            <v>14020006</v>
+            <v>14020005</v>
           </cell>
         </row>
         <row r="874">
           <cell r="C874">
-            <v>14020007</v>
+            <v>14020006</v>
           </cell>
         </row>
         <row r="875">
           <cell r="C875">
-            <v>14020008</v>
+            <v>14020007</v>
           </cell>
         </row>
         <row r="876">
           <cell r="C876">
-            <v>14020009</v>
+            <v>14020008</v>
           </cell>
         </row>
         <row r="877">
           <cell r="C877">
-            <v>14020010</v>
+            <v>14020009</v>
           </cell>
         </row>
         <row r="878">
           <cell r="C878">
-            <v>14020011</v>
+            <v>14020010</v>
           </cell>
         </row>
         <row r="879">
           <cell r="C879">
-            <v>14020012</v>
+            <v>14020011</v>
           </cell>
         </row>
         <row r="880">
           <cell r="C880">
-            <v>14020013</v>
+            <v>14020012</v>
           </cell>
         </row>
         <row r="881">
           <cell r="C881">
-            <v>14030001</v>
+            <v>14020013</v>
           </cell>
         </row>
         <row r="882">
           <cell r="C882">
-            <v>14030002</v>
+            <v>14030001</v>
           </cell>
         </row>
         <row r="883">
           <cell r="C883">
-            <v>14030003</v>
+            <v>14030002</v>
           </cell>
         </row>
         <row r="884">
           <cell r="C884">
-            <v>14030004</v>
+            <v>14030003</v>
           </cell>
         </row>
         <row r="885">
           <cell r="C885">
-            <v>14030005</v>
+            <v>14030004</v>
           </cell>
         </row>
         <row r="886">
           <cell r="C886">
-            <v>14030006</v>
+            <v>14030005</v>
           </cell>
         </row>
         <row r="887">
           <cell r="C887">
-            <v>14030007</v>
+            <v>14030006</v>
           </cell>
         </row>
         <row r="888">
           <cell r="C888">
-            <v>14030008</v>
+            <v>14030007</v>
           </cell>
         </row>
         <row r="889">
           <cell r="C889">
-            <v>14030009</v>
+            <v>14030008</v>
           </cell>
         </row>
         <row r="890">
           <cell r="C890">
-            <v>14030010</v>
+            <v>14030009</v>
           </cell>
         </row>
         <row r="891">
           <cell r="C891">
-            <v>14030011</v>
+            <v>14030010</v>
           </cell>
         </row>
         <row r="892">
           <cell r="C892">
-            <v>14030012</v>
+            <v>14030011</v>
           </cell>
         </row>
         <row r="893">
           <cell r="C893">
-            <v>14030013</v>
+            <v>14030012</v>
           </cell>
         </row>
         <row r="894">
           <cell r="C894">
-            <v>14040001</v>
+            <v>14030013</v>
           </cell>
         </row>
         <row r="895">
           <cell r="C895">
-            <v>14040002</v>
+            <v>14040001</v>
           </cell>
         </row>
         <row r="896">
           <cell r="C896">
-            <v>14040003</v>
+            <v>14040002</v>
           </cell>
         </row>
         <row r="897">
           <cell r="C897">
-            <v>14040004</v>
+            <v>14040003</v>
           </cell>
         </row>
         <row r="898">
           <cell r="C898">
-            <v>14040005</v>
+            <v>14040004</v>
           </cell>
         </row>
         <row r="899">
           <cell r="C899">
-            <v>14040006</v>
+            <v>14040005</v>
           </cell>
         </row>
         <row r="900">
           <cell r="C900">
-            <v>14040007</v>
+            <v>14040006</v>
           </cell>
         </row>
         <row r="901">
           <cell r="C901">
-            <v>14040008</v>
+            <v>14040007</v>
           </cell>
         </row>
         <row r="902">
           <cell r="C902">
-            <v>14040009</v>
+            <v>14040008</v>
           </cell>
         </row>
         <row r="903">
           <cell r="C903">
-            <v>14040010</v>
+            <v>14040009</v>
           </cell>
         </row>
         <row r="904">
           <cell r="C904">
-            <v>14040011</v>
+            <v>14040010</v>
           </cell>
         </row>
         <row r="905">
           <cell r="C905">
-            <v>14040012</v>
+            <v>14040011</v>
           </cell>
         </row>
         <row r="906">
           <cell r="C906">
-            <v>14050001</v>
+            <v>14040012</v>
           </cell>
         </row>
         <row r="907">
           <cell r="C907">
-            <v>14050002</v>
+            <v>14050001</v>
           </cell>
         </row>
         <row r="908">
           <cell r="C908">
-            <v>14050003</v>
+            <v>14050002</v>
           </cell>
         </row>
         <row r="909">
           <cell r="C909">
-            <v>14050004</v>
+            <v>14050003</v>
           </cell>
         </row>
         <row r="910">
           <cell r="C910">
-            <v>14050005</v>
+            <v>14050004</v>
           </cell>
         </row>
         <row r="911">
           <cell r="C911">
-            <v>14050006</v>
+            <v>14050005</v>
           </cell>
         </row>
         <row r="912">
           <cell r="C912">
-            <v>14050007</v>
+            <v>14050006</v>
           </cell>
         </row>
         <row r="913">
           <cell r="C913">
-            <v>14050008</v>
+            <v>14050007</v>
           </cell>
         </row>
         <row r="914">
           <cell r="C914">
-            <v>14050009</v>
+            <v>14050008</v>
           </cell>
         </row>
         <row r="915">
           <cell r="C915">
-            <v>14050010</v>
+            <v>14050009</v>
           </cell>
         </row>
         <row r="916">
           <cell r="C916">
-            <v>14050011</v>
+            <v>14050010</v>
           </cell>
         </row>
         <row r="917">
           <cell r="C917">
-            <v>14050012</v>
+            <v>14050011</v>
           </cell>
         </row>
         <row r="918">
           <cell r="C918">
-            <v>14060001</v>
+            <v>14050012</v>
           </cell>
         </row>
         <row r="919">
           <cell r="C919">
-            <v>14060002</v>
+            <v>14060001</v>
           </cell>
         </row>
         <row r="920">
           <cell r="C920">
-            <v>14060003</v>
+            <v>14060002</v>
           </cell>
         </row>
         <row r="921">
           <cell r="C921">
-            <v>14060004</v>
+            <v>14060003</v>
           </cell>
         </row>
         <row r="922">
           <cell r="C922">
-            <v>14060005</v>
+            <v>14060004</v>
           </cell>
         </row>
         <row r="923">
           <cell r="C923">
-            <v>14070001</v>
+            <v>14060005</v>
           </cell>
         </row>
         <row r="924">
           <cell r="C924">
-            <v>14070002</v>
+            <v>14070001</v>
           </cell>
         </row>
         <row r="925">
           <cell r="C925">
-            <v>14070003</v>
+            <v>14070002</v>
           </cell>
         </row>
         <row r="926">
           <cell r="C926">
-            <v>14070004</v>
+            <v>14070003</v>
           </cell>
         </row>
         <row r="927">
           <cell r="C927">
-            <v>14080001</v>
-          </cell>
-          <cell r="S927">
-            <v>66001001</v>
+            <v>14070004</v>
           </cell>
         </row>
         <row r="928">
           <cell r="C928">
-            <v>14080002</v>
+            <v>14080001</v>
           </cell>
           <cell r="S928">
-            <v>66001002</v>
+            <v>66001001</v>
           </cell>
         </row>
         <row r="929">
           <cell r="C929">
-            <v>14080003</v>
+            <v>14080002</v>
           </cell>
           <cell r="S929">
-            <v>66001003</v>
+            <v>66001002</v>
           </cell>
         </row>
         <row r="930">
           <cell r="C930">
-            <v>14080004</v>
+            <v>14080003</v>
           </cell>
           <cell r="S930">
-            <v>66001012</v>
+            <v>66001003</v>
           </cell>
         </row>
         <row r="931">
           <cell r="C931">
-            <v>14090001</v>
+            <v>14080004</v>
+          </cell>
+          <cell r="S931">
+            <v>66001012</v>
           </cell>
         </row>
         <row r="932">
           <cell r="C932">
-            <v>14090002</v>
+            <v>14090001</v>
           </cell>
         </row>
         <row r="933">
           <cell r="C933">
-            <v>14090003</v>
+            <v>14090002</v>
           </cell>
         </row>
         <row r="934">
           <cell r="C934">
-            <v>14090004</v>
+            <v>14090003</v>
           </cell>
         </row>
         <row r="935">
           <cell r="C935">
-            <v>14100001</v>
+            <v>14090004</v>
           </cell>
         </row>
         <row r="936">
           <cell r="C936">
-            <v>14100002</v>
+            <v>14100001</v>
           </cell>
         </row>
         <row r="937">
           <cell r="C937">
-            <v>14100003</v>
+            <v>14100002</v>
           </cell>
         </row>
         <row r="938">
           <cell r="C938">
-            <v>14100004</v>
+            <v>14100003</v>
           </cell>
         </row>
         <row r="939">
           <cell r="C939">
-            <v>14100005</v>
+            <v>14100004</v>
           </cell>
         </row>
         <row r="940">
           <cell r="C940">
-            <v>14100006</v>
+            <v>14100005</v>
           </cell>
         </row>
         <row r="941">
           <cell r="C941">
-            <v>14100007</v>
+            <v>14100006</v>
           </cell>
         </row>
         <row r="942">
           <cell r="C942">
-            <v>14100008</v>
+            <v>14100007</v>
           </cell>
         </row>
         <row r="943">
           <cell r="C943">
-            <v>14100011</v>
-          </cell>
-          <cell r="S943">
-            <v>69000001</v>
+            <v>14100008</v>
           </cell>
         </row>
         <row r="944">
           <cell r="C944">
-            <v>14100012</v>
+            <v>14100011</v>
+          </cell>
+          <cell r="S944">
+            <v>69000001</v>
           </cell>
         </row>
         <row r="945">
           <cell r="C945">
-            <v>14100101</v>
+            <v>14100012</v>
           </cell>
         </row>
         <row r="946">
           <cell r="C946">
-            <v>14100102</v>
+            <v>14100101</v>
           </cell>
         </row>
         <row r="947">
           <cell r="C947">
-            <v>14100103</v>
+            <v>14100102</v>
           </cell>
         </row>
         <row r="948">
           <cell r="C948">
-            <v>14100104</v>
+            <v>14100103</v>
           </cell>
         </row>
         <row r="949">
           <cell r="C949">
-            <v>14100105</v>
+            <v>14100104</v>
           </cell>
         </row>
         <row r="950">
           <cell r="C950">
-            <v>14100106</v>
+            <v>14100105</v>
           </cell>
         </row>
         <row r="951">
           <cell r="C951">
-            <v>14100107</v>
+            <v>14100106</v>
           </cell>
         </row>
         <row r="952">
           <cell r="C952">
-            <v>14100108</v>
+            <v>14100107</v>
           </cell>
         </row>
         <row r="953">
           <cell r="C953">
-            <v>14100111</v>
-          </cell>
-          <cell r="S953">
-            <v>69000002</v>
+            <v>14100108</v>
           </cell>
         </row>
         <row r="954">
           <cell r="C954">
-            <v>14100112</v>
+            <v>14100111</v>
           </cell>
           <cell r="S954">
-            <v>69000003</v>
+            <v>69000002</v>
           </cell>
         </row>
         <row r="955">
           <cell r="C955">
-            <v>14110001</v>
+            <v>14100112</v>
+          </cell>
+          <cell r="S955">
+            <v>69000003</v>
           </cell>
         </row>
         <row r="956">
           <cell r="C956">
-            <v>14110002</v>
+            <v>14110001</v>
           </cell>
         </row>
         <row r="957">
           <cell r="C957">
-            <v>14110003</v>
+            <v>14110002</v>
           </cell>
         </row>
         <row r="958">
           <cell r="C958">
-            <v>14110004</v>
+            <v>14110003</v>
           </cell>
         </row>
         <row r="959">
           <cell r="C959">
-            <v>14110005</v>
+            <v>14110004</v>
           </cell>
         </row>
         <row r="960">
           <cell r="C960">
-            <v>14110006</v>
+            <v>14110005</v>
           </cell>
         </row>
         <row r="961">
           <cell r="C961">
-            <v>14110007</v>
+            <v>14110006</v>
           </cell>
         </row>
         <row r="962">
           <cell r="C962">
-            <v>14110008</v>
+            <v>14110007</v>
           </cell>
         </row>
         <row r="963">
           <cell r="C963">
-            <v>14110009</v>
+            <v>14110008</v>
           </cell>
         </row>
         <row r="964">
           <cell r="C964">
-            <v>14110010</v>
+            <v>14110009</v>
           </cell>
         </row>
         <row r="965">
           <cell r="C965">
-            <v>14110011</v>
+            <v>14110010</v>
           </cell>
         </row>
         <row r="966">
           <cell r="C966">
-            <v>14110012</v>
+            <v>14110011</v>
           </cell>
         </row>
         <row r="967">
           <cell r="C967">
-            <v>14110021</v>
+            <v>14110012</v>
           </cell>
         </row>
         <row r="968">
           <cell r="C968">
-            <v>14110022</v>
+            <v>14110021</v>
           </cell>
         </row>
         <row r="969">
           <cell r="C969">
-            <v>14110023</v>
+            <v>14110022</v>
           </cell>
         </row>
         <row r="970">
           <cell r="C970">
-            <v>15201001</v>
+            <v>14110023</v>
           </cell>
         </row>
         <row r="971">
           <cell r="C971">
-            <v>15201002</v>
+            <v>15201001</v>
           </cell>
         </row>
         <row r="972">
           <cell r="C972">
-            <v>15201003</v>
+            <v>15201002</v>
           </cell>
         </row>
         <row r="973">
           <cell r="C973">
-            <v>15201004</v>
+            <v>15201003</v>
           </cell>
         </row>
         <row r="974">
           <cell r="C974">
-            <v>15201005</v>
+            <v>15201004</v>
           </cell>
         </row>
         <row r="975">
           <cell r="C975">
-            <v>15201006</v>
+            <v>15201005</v>
           </cell>
         </row>
         <row r="976">
           <cell r="C976">
-            <v>15202001</v>
+            <v>15201006</v>
           </cell>
         </row>
         <row r="977">
           <cell r="C977">
-            <v>15202002</v>
+            <v>15202001</v>
           </cell>
         </row>
         <row r="978">
           <cell r="C978">
-            <v>15202003</v>
+            <v>15202002</v>
           </cell>
         </row>
         <row r="979">
           <cell r="C979">
-            <v>15202004</v>
+            <v>15202003</v>
           </cell>
         </row>
         <row r="980">
           <cell r="C980">
-            <v>15202005</v>
+            <v>15202004</v>
           </cell>
         </row>
         <row r="981">
           <cell r="C981">
-            <v>15202006</v>
+            <v>15202005</v>
           </cell>
         </row>
         <row r="982">
           <cell r="C982">
-            <v>15203001</v>
+            <v>15202006</v>
           </cell>
         </row>
         <row r="983">
           <cell r="C983">
-            <v>15203002</v>
+            <v>15203001</v>
           </cell>
         </row>
         <row r="984">
           <cell r="C984">
-            <v>15203003</v>
+            <v>15203002</v>
           </cell>
         </row>
         <row r="985">
           <cell r="C985">
-            <v>15203004</v>
+            <v>15203003</v>
           </cell>
         </row>
         <row r="986">
           <cell r="C986">
-            <v>15203005</v>
+            <v>15203004</v>
           </cell>
         </row>
         <row r="987">
           <cell r="C987">
-            <v>15203006</v>
+            <v>15203005</v>
           </cell>
         </row>
         <row r="988">
           <cell r="C988">
-            <v>15204001</v>
+            <v>15203006</v>
           </cell>
         </row>
         <row r="989">
           <cell r="C989">
-            <v>15204002</v>
+            <v>15204001</v>
           </cell>
         </row>
         <row r="990">
           <cell r="C990">
-            <v>15204003</v>
+            <v>15204002</v>
           </cell>
         </row>
         <row r="991">
           <cell r="C991">
-            <v>15204004</v>
+            <v>15204003</v>
           </cell>
         </row>
         <row r="992">
           <cell r="C992">
-            <v>15204005</v>
+            <v>15204004</v>
           </cell>
         </row>
         <row r="993">
           <cell r="C993">
-            <v>15204006</v>
+            <v>15204005</v>
           </cell>
         </row>
         <row r="994">
           <cell r="C994">
-            <v>15205001</v>
+            <v>15204006</v>
           </cell>
         </row>
         <row r="995">
           <cell r="C995">
-            <v>15205002</v>
+            <v>15205001</v>
           </cell>
         </row>
         <row r="996">
           <cell r="C996">
-            <v>15205003</v>
+            <v>15205002</v>
           </cell>
         </row>
         <row r="997">
           <cell r="C997">
-            <v>15205004</v>
+            <v>15205003</v>
           </cell>
         </row>
         <row r="998">
           <cell r="C998">
-            <v>15205005</v>
+            <v>15205004</v>
           </cell>
         </row>
         <row r="999">
           <cell r="C999">
-            <v>15205006</v>
+            <v>15205005</v>
           </cell>
         </row>
         <row r="1000">
           <cell r="C1000">
-            <v>15205007</v>
+            <v>15205006</v>
           </cell>
         </row>
         <row r="1001">
           <cell r="C1001">
-            <v>15206001</v>
+            <v>15205007</v>
           </cell>
         </row>
         <row r="1002">
           <cell r="C1002">
-            <v>15206002</v>
+            <v>15206001</v>
           </cell>
         </row>
         <row r="1003">
           <cell r="C1003">
-            <v>15206003</v>
+            <v>15206002</v>
           </cell>
         </row>
         <row r="1004">
           <cell r="C1004">
-            <v>15207001</v>
+            <v>15206003</v>
           </cell>
         </row>
         <row r="1005">
           <cell r="C1005">
-            <v>15207002</v>
+            <v>15207001</v>
           </cell>
         </row>
         <row r="1006">
           <cell r="C1006">
-            <v>15207003</v>
+            <v>15207002</v>
           </cell>
         </row>
         <row r="1007">
           <cell r="C1007">
-            <v>15208001</v>
-          </cell>
-          <cell r="S1007">
-            <v>66001004</v>
+            <v>15207003</v>
           </cell>
         </row>
         <row r="1008">
           <cell r="C1008">
-            <v>15208002</v>
+            <v>15208001</v>
           </cell>
           <cell r="S1008">
-            <v>66001005</v>
+            <v>66001004</v>
           </cell>
         </row>
         <row r="1009">
           <cell r="C1009">
-            <v>15208003</v>
+            <v>15208002</v>
           </cell>
           <cell r="S1009">
-            <v>66001013</v>
+            <v>66001005</v>
           </cell>
         </row>
         <row r="1010">
           <cell r="C1010">
-            <v>15209001</v>
+            <v>15208003</v>
+          </cell>
+          <cell r="S1010">
+            <v>66001013</v>
           </cell>
         </row>
         <row r="1011">
           <cell r="C1011">
-            <v>15209002</v>
+            <v>15209001</v>
           </cell>
         </row>
         <row r="1012">
           <cell r="C1012">
-            <v>15210001</v>
+            <v>15209002</v>
           </cell>
         </row>
         <row r="1013">
           <cell r="C1013">
-            <v>15210002</v>
+            <v>15210001</v>
           </cell>
         </row>
         <row r="1014">
           <cell r="C1014">
-            <v>15210003</v>
+            <v>15210002</v>
           </cell>
         </row>
         <row r="1015">
           <cell r="C1015">
-            <v>15210004</v>
+            <v>15210003</v>
           </cell>
         </row>
         <row r="1016">
           <cell r="C1016">
-            <v>15210011</v>
+            <v>15210004</v>
           </cell>
         </row>
         <row r="1017">
           <cell r="C1017">
-            <v>15210012</v>
+            <v>15210011</v>
           </cell>
         </row>
         <row r="1018">
           <cell r="C1018">
-            <v>15210101</v>
+            <v>15210012</v>
           </cell>
         </row>
         <row r="1019">
           <cell r="C1019">
-            <v>15210102</v>
+            <v>15210101</v>
           </cell>
         </row>
         <row r="1020">
           <cell r="C1020">
-            <v>15210103</v>
+            <v>15210102</v>
           </cell>
         </row>
         <row r="1021">
           <cell r="C1021">
-            <v>15210104</v>
+            <v>15210103</v>
           </cell>
         </row>
         <row r="1022">
           <cell r="C1022">
-            <v>15210111</v>
+            <v>15210104</v>
           </cell>
         </row>
         <row r="1023">
           <cell r="C1023">
-            <v>15210112</v>
+            <v>15210111</v>
           </cell>
         </row>
         <row r="1024">
           <cell r="C1024">
-            <v>15211001</v>
+            <v>15210112</v>
           </cell>
         </row>
         <row r="1025">
           <cell r="C1025">
-            <v>15211002</v>
+            <v>15211001</v>
           </cell>
         </row>
         <row r="1026">
           <cell r="C1026">
-            <v>15211003</v>
+            <v>15211002</v>
           </cell>
         </row>
         <row r="1027">
           <cell r="C1027">
-            <v>15211004</v>
+            <v>15211003</v>
           </cell>
         </row>
         <row r="1028">
           <cell r="C1028">
-            <v>15211005</v>
+            <v>15211004</v>
           </cell>
         </row>
         <row r="1029">
           <cell r="C1029">
-            <v>15211006</v>
+            <v>15211005</v>
           </cell>
         </row>
         <row r="1030">
           <cell r="C1030">
-            <v>15211011</v>
+            <v>15211006</v>
           </cell>
         </row>
         <row r="1031">
           <cell r="C1031">
-            <v>15211012</v>
+            <v>15211011</v>
           </cell>
         </row>
         <row r="1032">
           <cell r="C1032">
-            <v>15211013</v>
-          </cell>
-          <cell r="S1032">
-            <v>69000004</v>
+            <v>15211012</v>
           </cell>
         </row>
         <row r="1033">
           <cell r="C1033">
-            <v>15301001</v>
+            <v>15211013</v>
+          </cell>
+          <cell r="S1033">
+            <v>69000004</v>
           </cell>
         </row>
         <row r="1034">
           <cell r="C1034">
-            <v>15301002</v>
+            <v>15301001</v>
           </cell>
         </row>
         <row r="1035">
           <cell r="C1035">
-            <v>15301003</v>
+            <v>15301002</v>
           </cell>
         </row>
         <row r="1036">
           <cell r="C1036">
-            <v>15301004</v>
+            <v>15301003</v>
           </cell>
         </row>
         <row r="1037">
           <cell r="C1037">
-            <v>15301005</v>
+            <v>15301004</v>
           </cell>
         </row>
         <row r="1038">
           <cell r="C1038">
-            <v>15301006</v>
+            <v>15301005</v>
           </cell>
         </row>
         <row r="1039">
           <cell r="C1039">
-            <v>15302001</v>
+            <v>15301006</v>
           </cell>
         </row>
         <row r="1040">
           <cell r="C1040">
-            <v>15302002</v>
+            <v>15302001</v>
           </cell>
         </row>
         <row r="1041">
           <cell r="C1041">
-            <v>15302003</v>
+            <v>15302002</v>
           </cell>
         </row>
         <row r="1042">
           <cell r="C1042">
-            <v>15302004</v>
+            <v>15302003</v>
           </cell>
         </row>
         <row r="1043">
           <cell r="C1043">
-            <v>15302005</v>
+            <v>15302004</v>
           </cell>
         </row>
         <row r="1044">
           <cell r="C1044">
-            <v>15302006</v>
+            <v>15302005</v>
           </cell>
         </row>
         <row r="1045">
           <cell r="C1045">
-            <v>15302007</v>
+            <v>15302006</v>
           </cell>
         </row>
         <row r="1046">
           <cell r="C1046">
-            <v>15303001</v>
+            <v>15302007</v>
           </cell>
         </row>
         <row r="1047">
           <cell r="C1047">
-            <v>15303002</v>
+            <v>15303001</v>
           </cell>
         </row>
         <row r="1048">
           <cell r="C1048">
-            <v>15303003</v>
+            <v>15303002</v>
           </cell>
         </row>
         <row r="1049">
           <cell r="C1049">
-            <v>15303004</v>
+            <v>15303003</v>
           </cell>
         </row>
         <row r="1050">
           <cell r="C1050">
-            <v>15303005</v>
+            <v>15303004</v>
           </cell>
         </row>
         <row r="1051">
           <cell r="C1051">
-            <v>15303006</v>
+            <v>15303005</v>
           </cell>
         </row>
         <row r="1052">
           <cell r="C1052">
-            <v>15304001</v>
+            <v>15303006</v>
           </cell>
         </row>
         <row r="1053">
           <cell r="C1053">
-            <v>15304002</v>
+            <v>15304001</v>
           </cell>
         </row>
         <row r="1054">
           <cell r="C1054">
-            <v>15304003</v>
+            <v>15304002</v>
           </cell>
         </row>
         <row r="1055">
           <cell r="C1055">
-            <v>15304004</v>
+            <v>15304003</v>
           </cell>
         </row>
         <row r="1056">
           <cell r="C1056">
-            <v>15304005</v>
+            <v>15304004</v>
           </cell>
         </row>
         <row r="1057">
           <cell r="C1057">
-            <v>15304006</v>
+            <v>15304005</v>
           </cell>
         </row>
         <row r="1058">
           <cell r="C1058">
-            <v>15305001</v>
+            <v>15304006</v>
           </cell>
         </row>
         <row r="1059">
           <cell r="C1059">
-            <v>15305002</v>
+            <v>15305001</v>
           </cell>
         </row>
         <row r="1060">
           <cell r="C1060">
-            <v>15305003</v>
+            <v>15305002</v>
           </cell>
         </row>
         <row r="1061">
           <cell r="C1061">
-            <v>15305004</v>
+            <v>15305003</v>
           </cell>
         </row>
         <row r="1062">
           <cell r="C1062">
-            <v>15305005</v>
+            <v>15305004</v>
           </cell>
         </row>
         <row r="1063">
           <cell r="C1063">
-            <v>15305006</v>
+            <v>15305005</v>
           </cell>
         </row>
         <row r="1064">
           <cell r="C1064">
-            <v>15306001</v>
+            <v>15305006</v>
           </cell>
         </row>
         <row r="1065">
           <cell r="C1065">
-            <v>15306002</v>
+            <v>15306001</v>
           </cell>
         </row>
         <row r="1066">
           <cell r="C1066">
-            <v>15306003</v>
+            <v>15306002</v>
           </cell>
         </row>
         <row r="1067">
           <cell r="C1067">
-            <v>15307001</v>
+            <v>15306003</v>
           </cell>
         </row>
         <row r="1068">
           <cell r="C1068">
-            <v>15307002</v>
+            <v>15307001</v>
           </cell>
         </row>
         <row r="1069">
           <cell r="C1069">
-            <v>15308001</v>
-          </cell>
-          <cell r="S1069">
-            <v>66001006</v>
+            <v>15307002</v>
           </cell>
         </row>
         <row r="1070">
           <cell r="C1070">
-            <v>15308002</v>
+            <v>15308001</v>
           </cell>
           <cell r="S1070">
-            <v>66001007</v>
+            <v>66001006</v>
           </cell>
         </row>
         <row r="1071">
           <cell r="C1071">
-            <v>15308003</v>
+            <v>15308002</v>
           </cell>
           <cell r="S1071">
-            <v>66001014</v>
+            <v>66001007</v>
           </cell>
         </row>
         <row r="1072">
           <cell r="C1072">
-            <v>15308004</v>
+            <v>15308003</v>
           </cell>
           <cell r="S1072">
-            <v>66001017</v>
+            <v>66001014</v>
           </cell>
         </row>
         <row r="1073">
           <cell r="C1073">
-            <v>15309001</v>
+            <v>15308004</v>
+          </cell>
+          <cell r="S1073">
+            <v>66001017</v>
           </cell>
         </row>
         <row r="1074">
           <cell r="C1074">
-            <v>15309002</v>
+            <v>15309001</v>
           </cell>
         </row>
         <row r="1075">
           <cell r="C1075">
-            <v>15309003</v>
+            <v>15309002</v>
           </cell>
         </row>
         <row r="1076">
           <cell r="C1076">
-            <v>15310001</v>
+            <v>15309003</v>
           </cell>
         </row>
         <row r="1077">
           <cell r="C1077">
-            <v>15310002</v>
+            <v>15310001</v>
           </cell>
         </row>
         <row r="1078">
           <cell r="C1078">
-            <v>15310003</v>
+            <v>15310002</v>
           </cell>
         </row>
         <row r="1079">
           <cell r="C1079">
-            <v>15310004</v>
+            <v>15310003</v>
           </cell>
         </row>
         <row r="1080">
           <cell r="C1080">
-            <v>15310011</v>
+            <v>15310004</v>
           </cell>
         </row>
         <row r="1081">
           <cell r="C1081">
-            <v>15310012</v>
+            <v>15310011</v>
           </cell>
         </row>
         <row r="1082">
           <cell r="C1082">
-            <v>15310101</v>
+            <v>15310012</v>
           </cell>
         </row>
         <row r="1083">
           <cell r="C1083">
-            <v>15310102</v>
+            <v>15310101</v>
           </cell>
         </row>
         <row r="1084">
           <cell r="C1084">
-            <v>15310103</v>
+            <v>15310102</v>
           </cell>
         </row>
         <row r="1085">
           <cell r="C1085">
-            <v>15310104</v>
+            <v>15310103</v>
           </cell>
         </row>
         <row r="1086">
           <cell r="C1086">
-            <v>15310111</v>
-          </cell>
-          <cell r="S1086">
-            <v>69000005</v>
+            <v>15310104</v>
           </cell>
         </row>
         <row r="1087">
           <cell r="C1087">
-            <v>15310112</v>
+            <v>15310111</v>
+          </cell>
+          <cell r="S1087">
+            <v>69000005</v>
           </cell>
         </row>
         <row r="1088">
           <cell r="C1088">
-            <v>15311001</v>
+            <v>15310112</v>
           </cell>
         </row>
         <row r="1089">
           <cell r="C1089">
-            <v>15311002</v>
+            <v>15311001</v>
           </cell>
         </row>
         <row r="1090">
           <cell r="C1090">
-            <v>15311003</v>
+            <v>15311002</v>
           </cell>
         </row>
         <row r="1091">
           <cell r="C1091">
-            <v>15311004</v>
+            <v>15311003</v>
           </cell>
         </row>
         <row r="1092">
           <cell r="C1092">
-            <v>15311005</v>
+            <v>15311004</v>
           </cell>
         </row>
         <row r="1093">
           <cell r="C1093">
-            <v>15311006</v>
+            <v>15311005</v>
           </cell>
         </row>
         <row r="1094">
           <cell r="C1094">
-            <v>15311011</v>
+            <v>15311006</v>
           </cell>
         </row>
         <row r="1095">
           <cell r="C1095">
-            <v>15311012</v>
+            <v>15311011</v>
           </cell>
         </row>
         <row r="1096">
           <cell r="C1096">
-            <v>15311013</v>
-          </cell>
-          <cell r="S1096">
-            <v>69000006</v>
+            <v>15311012</v>
           </cell>
         </row>
         <row r="1097">
           <cell r="C1097">
-            <v>15401001</v>
+            <v>15311013</v>
+          </cell>
+          <cell r="S1097">
+            <v>69000006</v>
           </cell>
         </row>
         <row r="1098">
           <cell r="C1098">
-            <v>15401002</v>
+            <v>15401001</v>
           </cell>
         </row>
         <row r="1099">
           <cell r="C1099">
-            <v>15401003</v>
+            <v>15401002</v>
           </cell>
         </row>
         <row r="1100">
           <cell r="C1100">
-            <v>15401004</v>
+            <v>15401003</v>
           </cell>
         </row>
         <row r="1101">
           <cell r="C1101">
-            <v>15401005</v>
+            <v>15401004</v>
           </cell>
         </row>
         <row r="1102">
           <cell r="C1102">
-            <v>15401006</v>
+            <v>15401005</v>
           </cell>
         </row>
         <row r="1103">
           <cell r="C1103">
-            <v>15401007</v>
+            <v>15401006</v>
           </cell>
         </row>
         <row r="1104">
           <cell r="C1104">
-            <v>15402001</v>
+            <v>15401007</v>
           </cell>
         </row>
         <row r="1105">
           <cell r="C1105">
-            <v>15402002</v>
+            <v>15402001</v>
           </cell>
         </row>
         <row r="1106">
           <cell r="C1106">
-            <v>15402003</v>
+            <v>15402002</v>
           </cell>
         </row>
         <row r="1107">
           <cell r="C1107">
-            <v>15402004</v>
+            <v>15402003</v>
           </cell>
         </row>
         <row r="1108">
           <cell r="C1108">
-            <v>15402005</v>
+            <v>15402004</v>
           </cell>
         </row>
         <row r="1109">
           <cell r="C1109">
-            <v>15402006</v>
+            <v>15402005</v>
           </cell>
         </row>
         <row r="1110">
           <cell r="C1110">
-            <v>15403001</v>
+            <v>15402006</v>
           </cell>
         </row>
         <row r="1111">
           <cell r="C1111">
-            <v>15403002</v>
+            <v>15403001</v>
           </cell>
         </row>
         <row r="1112">
           <cell r="C1112">
-            <v>15403003</v>
+            <v>15403002</v>
           </cell>
         </row>
         <row r="1113">
           <cell r="C1113">
-            <v>15403004</v>
+            <v>15403003</v>
           </cell>
         </row>
         <row r="1114">
           <cell r="C1114">
-            <v>15403005</v>
+            <v>15403004</v>
           </cell>
         </row>
         <row r="1115">
           <cell r="C1115">
-            <v>15403006</v>
+            <v>15403005</v>
           </cell>
         </row>
         <row r="1116">
           <cell r="C1116">
-            <v>15404001</v>
+            <v>15403006</v>
           </cell>
         </row>
         <row r="1117">
           <cell r="C1117">
-            <v>15404002</v>
+            <v>15404001</v>
           </cell>
         </row>
         <row r="1118">
           <cell r="C1118">
-            <v>15404003</v>
+            <v>15404002</v>
           </cell>
         </row>
         <row r="1119">
           <cell r="C1119">
-            <v>15404004</v>
+            <v>15404003</v>
           </cell>
         </row>
         <row r="1120">
           <cell r="C1120">
-            <v>15404005</v>
+            <v>15404004</v>
           </cell>
         </row>
         <row r="1121">
           <cell r="C1121">
-            <v>15404006</v>
+            <v>15404005</v>
           </cell>
         </row>
         <row r="1122">
           <cell r="C1122">
-            <v>15405001</v>
+            <v>15404006</v>
           </cell>
         </row>
         <row r="1123">
           <cell r="C1123">
-            <v>15405002</v>
+            <v>15405001</v>
           </cell>
         </row>
         <row r="1124">
           <cell r="C1124">
-            <v>15405003</v>
+            <v>15405002</v>
           </cell>
         </row>
         <row r="1125">
           <cell r="C1125">
-            <v>15405004</v>
+            <v>15405003</v>
           </cell>
         </row>
         <row r="1126">
           <cell r="C1126">
-            <v>15405005</v>
+            <v>15405004</v>
           </cell>
         </row>
         <row r="1127">
           <cell r="C1127">
-            <v>15405006</v>
+            <v>15405005</v>
           </cell>
         </row>
         <row r="1128">
           <cell r="C1128">
-            <v>15406001</v>
+            <v>15405006</v>
           </cell>
         </row>
         <row r="1129">
           <cell r="C1129">
-            <v>15406002</v>
+            <v>15406001</v>
           </cell>
         </row>
         <row r="1130">
           <cell r="C1130">
-            <v>15406003</v>
-          </cell>
-          <cell r="S1130">
-            <v>69000007</v>
+            <v>15406002</v>
           </cell>
         </row>
         <row r="1131">
           <cell r="C1131">
-            <v>15407001</v>
+            <v>15406003</v>
+          </cell>
+          <cell r="S1131">
+            <v>69000007</v>
           </cell>
         </row>
         <row r="1132">
           <cell r="C1132">
-            <v>15407002</v>
+            <v>15407001</v>
           </cell>
         </row>
         <row r="1133">
           <cell r="C1133">
-            <v>15407003</v>
+            <v>15407002</v>
           </cell>
         </row>
         <row r="1134">
           <cell r="C1134">
-            <v>15408001</v>
-          </cell>
-          <cell r="S1134">
-            <v>66001008</v>
+            <v>15407003</v>
           </cell>
         </row>
         <row r="1135">
           <cell r="C1135">
-            <v>15408002</v>
+            <v>15408001</v>
           </cell>
           <cell r="S1135">
-            <v>66001009</v>
+            <v>66001008</v>
           </cell>
         </row>
         <row r="1136">
           <cell r="C1136">
-            <v>15408003</v>
+            <v>15408002</v>
           </cell>
           <cell r="S1136">
-            <v>66001015</v>
+            <v>66001009</v>
           </cell>
         </row>
         <row r="1137">
           <cell r="C1137">
-            <v>15409001</v>
+            <v>15408003</v>
+          </cell>
+          <cell r="S1137">
+            <v>66001015</v>
           </cell>
         </row>
         <row r="1138">
           <cell r="C1138">
-            <v>15409002</v>
+            <v>15409001</v>
           </cell>
         </row>
         <row r="1139">
           <cell r="C1139">
-            <v>15410001</v>
+            <v>15409002</v>
           </cell>
         </row>
         <row r="1140">
           <cell r="C1140">
-            <v>15410002</v>
+            <v>15410001</v>
           </cell>
         </row>
         <row r="1141">
           <cell r="C1141">
-            <v>15410003</v>
+            <v>15410002</v>
           </cell>
         </row>
         <row r="1142">
           <cell r="C1142">
-            <v>15410004</v>
+            <v>15410003</v>
           </cell>
         </row>
         <row r="1143">
           <cell r="C1143">
-            <v>15410011</v>
-          </cell>
-          <cell r="S1143">
-            <v>69000013</v>
+            <v>15410004</v>
           </cell>
         </row>
         <row r="1144">
           <cell r="C1144">
-            <v>15410012</v>
+            <v>15410011</v>
+          </cell>
+          <cell r="S1144">
+            <v>69000013</v>
           </cell>
         </row>
         <row r="1145">
           <cell r="C1145">
-            <v>15410101</v>
+            <v>15410012</v>
           </cell>
         </row>
         <row r="1146">
           <cell r="C1146">
-            <v>15410102</v>
+            <v>15410101</v>
           </cell>
         </row>
         <row r="1147">
           <cell r="C1147">
-            <v>15410103</v>
+            <v>15410102</v>
           </cell>
         </row>
         <row r="1148">
           <cell r="C1148">
-            <v>15410104</v>
+            <v>15410103</v>
           </cell>
         </row>
         <row r="1149">
           <cell r="C1149">
-            <v>15410111</v>
+            <v>15410104</v>
           </cell>
         </row>
         <row r="1150">
           <cell r="C1150">
-            <v>15410112</v>
-          </cell>
-          <cell r="S1150">
-            <v>69000009</v>
+            <v>15410111</v>
           </cell>
         </row>
         <row r="1151">
           <cell r="C1151">
-            <v>15411001</v>
+            <v>15410112</v>
+          </cell>
+          <cell r="S1151">
+            <v>69000009</v>
           </cell>
         </row>
         <row r="1152">
           <cell r="C1152">
-            <v>15411002</v>
+            <v>15411001</v>
           </cell>
         </row>
         <row r="1153">
           <cell r="C1153">
-            <v>15411003</v>
+            <v>15411002</v>
           </cell>
         </row>
         <row r="1154">
           <cell r="C1154">
-            <v>15411004</v>
+            <v>15411003</v>
           </cell>
         </row>
         <row r="1155">
           <cell r="C1155">
-            <v>15411005</v>
+            <v>15411004</v>
           </cell>
         </row>
         <row r="1156">
           <cell r="C1156">
-            <v>15411006</v>
+            <v>15411005</v>
           </cell>
         </row>
         <row r="1157">
           <cell r="C1157">
-            <v>15411011</v>
-          </cell>
-          <cell r="S1157">
-            <v>69000010</v>
+            <v>15411006</v>
           </cell>
         </row>
         <row r="1158">
           <cell r="C1158">
-            <v>15411012</v>
+            <v>15411011</v>
+          </cell>
+          <cell r="S1158">
+            <v>69000010</v>
           </cell>
         </row>
         <row r="1159">
           <cell r="C1159">
-            <v>15411013</v>
+            <v>15411012</v>
           </cell>
         </row>
         <row r="1160">
           <cell r="C1160">
-            <v>15501001</v>
+            <v>15411013</v>
           </cell>
         </row>
         <row r="1161">
           <cell r="C1161">
-            <v>15501002</v>
+            <v>15501001</v>
           </cell>
         </row>
         <row r="1162">
           <cell r="C1162">
-            <v>15501003</v>
+            <v>15501002</v>
           </cell>
         </row>
         <row r="1163">
           <cell r="C1163">
-            <v>15501004</v>
+            <v>15501003</v>
           </cell>
         </row>
         <row r="1164">
           <cell r="C1164">
-            <v>15501005</v>
+            <v>15501004</v>
           </cell>
         </row>
         <row r="1165">
           <cell r="C1165">
-            <v>15501006</v>
+            <v>15501005</v>
           </cell>
         </row>
         <row r="1166">
           <cell r="C1166">
-            <v>15502001</v>
+            <v>15501006</v>
           </cell>
         </row>
         <row r="1167">
           <cell r="C1167">
-            <v>15502002</v>
+            <v>15502001</v>
           </cell>
         </row>
         <row r="1168">
           <cell r="C1168">
-            <v>15502003</v>
+            <v>15502002</v>
           </cell>
         </row>
         <row r="1169">
           <cell r="C1169">
-            <v>15502004</v>
+            <v>15502003</v>
           </cell>
         </row>
         <row r="1170">
           <cell r="C1170">
-            <v>15502005</v>
+            <v>15502004</v>
           </cell>
         </row>
         <row r="1171">
           <cell r="C1171">
-            <v>15502006</v>
+            <v>15502005</v>
           </cell>
         </row>
         <row r="1172">
           <cell r="C1172">
-            <v>15503001</v>
+            <v>15502006</v>
           </cell>
         </row>
         <row r="1173">
           <cell r="C1173">
-            <v>15503002</v>
+            <v>15503001</v>
           </cell>
         </row>
         <row r="1174">
           <cell r="C1174">
-            <v>15503003</v>
+            <v>15503002</v>
           </cell>
         </row>
         <row r="1175">
           <cell r="C1175">
-            <v>15503004</v>
+            <v>15503003</v>
           </cell>
         </row>
         <row r="1176">
           <cell r="C1176">
-            <v>15503005</v>
+            <v>15503004</v>
           </cell>
         </row>
         <row r="1177">
           <cell r="C1177">
-            <v>15503006</v>
+            <v>15503005</v>
           </cell>
         </row>
         <row r="1178">
           <cell r="C1178">
-            <v>15503007</v>
+            <v>15503006</v>
           </cell>
         </row>
         <row r="1179">
           <cell r="C1179">
-            <v>15504001</v>
+            <v>15503007</v>
           </cell>
         </row>
         <row r="1180">
           <cell r="C1180">
-            <v>15504002</v>
+            <v>15504001</v>
           </cell>
         </row>
         <row r="1181">
           <cell r="C1181">
-            <v>15504003</v>
+            <v>15504002</v>
           </cell>
         </row>
         <row r="1182">
           <cell r="C1182">
-            <v>15504004</v>
+            <v>15504003</v>
           </cell>
         </row>
         <row r="1183">
           <cell r="C1183">
-            <v>15504005</v>
+            <v>15504004</v>
           </cell>
         </row>
         <row r="1184">
           <cell r="C1184">
-            <v>15504006</v>
+            <v>15504005</v>
           </cell>
         </row>
         <row r="1185">
           <cell r="C1185">
-            <v>15505001</v>
+            <v>15504006</v>
           </cell>
         </row>
         <row r="1186">
           <cell r="C1186">
-            <v>15505002</v>
+            <v>15505001</v>
           </cell>
         </row>
         <row r="1187">
           <cell r="C1187">
-            <v>15505003</v>
+            <v>15505002</v>
           </cell>
         </row>
         <row r="1188">
           <cell r="C1188">
-            <v>15505004</v>
+            <v>15505003</v>
           </cell>
         </row>
         <row r="1189">
           <cell r="C1189">
-            <v>15505005</v>
+            <v>15505004</v>
           </cell>
         </row>
         <row r="1190">
           <cell r="C1190">
-            <v>15505006</v>
+            <v>15505005</v>
           </cell>
         </row>
         <row r="1191">
           <cell r="C1191">
-            <v>15506001</v>
+            <v>15505006</v>
           </cell>
         </row>
         <row r="1192">
           <cell r="C1192">
-            <v>15506002</v>
+            <v>15506001</v>
           </cell>
         </row>
         <row r="1193">
           <cell r="C1193">
-            <v>15506003</v>
+            <v>15506002</v>
           </cell>
         </row>
         <row r="1194">
           <cell r="C1194">
-            <v>15507001</v>
+            <v>15506003</v>
           </cell>
         </row>
         <row r="1195">
           <cell r="C1195">
-            <v>15507002</v>
+            <v>15507001</v>
           </cell>
         </row>
         <row r="1196">
           <cell r="C1196">
-            <v>15507003</v>
+            <v>15507002</v>
           </cell>
         </row>
         <row r="1197">
           <cell r="C1197">
-            <v>15508001</v>
-          </cell>
-          <cell r="S1197">
-            <v>66001010</v>
+            <v>15507003</v>
           </cell>
         </row>
         <row r="1198">
           <cell r="C1198">
-            <v>15508002</v>
+            <v>15508001</v>
           </cell>
           <cell r="S1198">
-            <v>66001011</v>
+            <v>66001010</v>
           </cell>
         </row>
         <row r="1199">
           <cell r="C1199">
-            <v>15508003</v>
+            <v>15508002</v>
           </cell>
           <cell r="S1199">
-            <v>66001016</v>
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1200">
           <cell r="C1200">
-            <v>15509001</v>
+            <v>15508003</v>
+          </cell>
+          <cell r="S1200">
+            <v>66001016</v>
           </cell>
         </row>
         <row r="1201">
           <cell r="C1201">
-            <v>15509002</v>
+            <v>15509001</v>
           </cell>
         </row>
         <row r="1202">
           <cell r="C1202">
-            <v>15509003</v>
+            <v>15509002</v>
           </cell>
         </row>
         <row r="1203">
           <cell r="C1203">
-            <v>15510001</v>
+            <v>15509003</v>
           </cell>
         </row>
         <row r="1204">
           <cell r="C1204">
-            <v>15510002</v>
+            <v>15510001</v>
           </cell>
         </row>
         <row r="1205">
           <cell r="C1205">
-            <v>15510003</v>
+            <v>15510002</v>
           </cell>
         </row>
         <row r="1206">
           <cell r="C1206">
-            <v>15510004</v>
+            <v>15510003</v>
           </cell>
         </row>
         <row r="1207">
           <cell r="C1207">
-            <v>15510011</v>
+            <v>15510004</v>
           </cell>
         </row>
         <row r="1208">
           <cell r="C1208">
-            <v>15510012</v>
+            <v>15510011</v>
           </cell>
         </row>
         <row r="1209">
           <cell r="C1209">
-            <v>15510101</v>
+            <v>15510012</v>
           </cell>
         </row>
         <row r="1210">
           <cell r="C1210">
-            <v>15510102</v>
+            <v>15510101</v>
           </cell>
         </row>
         <row r="1211">
           <cell r="C1211">
-            <v>15510103</v>
+            <v>15510102</v>
           </cell>
         </row>
         <row r="1212">
           <cell r="C1212">
-            <v>15510104</v>
+            <v>15510103</v>
           </cell>
         </row>
         <row r="1213">
           <cell r="C1213">
-            <v>15510121</v>
-          </cell>
-          <cell r="S1213">
-            <v>69000011</v>
+            <v>15510104</v>
           </cell>
         </row>
         <row r="1214">
           <cell r="C1214">
-            <v>15510122</v>
+            <v>15510121</v>
+          </cell>
+          <cell r="S1214">
+            <v>69000011</v>
           </cell>
         </row>
         <row r="1215">
           <cell r="C1215">
-            <v>15511001</v>
+            <v>15510122</v>
           </cell>
         </row>
         <row r="1216">
           <cell r="C1216">
-            <v>15511002</v>
+            <v>15511001</v>
           </cell>
         </row>
         <row r="1217">
           <cell r="C1217">
-            <v>15511003</v>
+            <v>15511002</v>
           </cell>
         </row>
         <row r="1218">
           <cell r="C1218">
-            <v>15511004</v>
+            <v>15511003</v>
           </cell>
         </row>
         <row r="1219">
           <cell r="C1219">
-            <v>15511005</v>
+            <v>15511004</v>
           </cell>
         </row>
         <row r="1220">
           <cell r="C1220">
-            <v>15511006</v>
+            <v>15511005</v>
           </cell>
         </row>
         <row r="1221">
           <cell r="C1221">
-            <v>15511011</v>
-          </cell>
-          <cell r="S1221">
-            <v>69000012</v>
+            <v>15511006</v>
           </cell>
         </row>
         <row r="1222">
           <cell r="C1222">
-            <v>15511012</v>
+            <v>15511011</v>
+          </cell>
+          <cell r="S1222">
+            <v>69000012</v>
           </cell>
         </row>
         <row r="1223">
           <cell r="C1223">
-            <v>15511013</v>
+            <v>15511012</v>
           </cell>
         </row>
         <row r="1224">
           <cell r="C1224">
-            <v>15601001</v>
+            <v>15511013</v>
           </cell>
         </row>
         <row r="1225">
           <cell r="C1225">
-            <v>15601002</v>
+            <v>15601001</v>
           </cell>
         </row>
         <row r="1226">
           <cell r="C1226">
-            <v>15601003</v>
+            <v>15601002</v>
           </cell>
         </row>
         <row r="1227">
           <cell r="C1227">
-            <v>15602001</v>
+            <v>15601003</v>
           </cell>
         </row>
         <row r="1228">
           <cell r="C1228">
-            <v>15602002</v>
+            <v>15602001</v>
           </cell>
         </row>
         <row r="1229">
           <cell r="C1229">
-            <v>15602003</v>
+            <v>15602002</v>
           </cell>
         </row>
         <row r="1230">
           <cell r="C1230">
-            <v>15603001</v>
+            <v>15602003</v>
           </cell>
         </row>
         <row r="1231">
           <cell r="C1231">
-            <v>15603002</v>
+            <v>15603001</v>
           </cell>
         </row>
         <row r="1232">
           <cell r="C1232">
-            <v>15603003</v>
+            <v>15603002</v>
           </cell>
         </row>
         <row r="1233">
           <cell r="C1233">
-            <v>15604001</v>
+            <v>15603003</v>
           </cell>
         </row>
         <row r="1234">
           <cell r="C1234">
-            <v>15604002</v>
+            <v>15604001</v>
           </cell>
         </row>
         <row r="1235">
           <cell r="C1235">
-            <v>15604003</v>
+            <v>15604002</v>
           </cell>
         </row>
         <row r="1236">
           <cell r="C1236">
-            <v>15605001</v>
+            <v>15604003</v>
           </cell>
         </row>
         <row r="1237">
           <cell r="C1237">
-            <v>15605002</v>
+            <v>15605001</v>
           </cell>
         </row>
         <row r="1238">
           <cell r="C1238">
-            <v>15605003</v>
+            <v>15605002</v>
           </cell>
         </row>
         <row r="1239">
           <cell r="C1239">
-            <v>15606001</v>
+            <v>15605003</v>
           </cell>
         </row>
         <row r="1240">
           <cell r="C1240">
-            <v>15607001</v>
+            <v>15606001</v>
           </cell>
         </row>
         <row r="1241">
           <cell r="C1241">
-            <v>15608001</v>
-          </cell>
-          <cell r="S1241">
-            <v>66001011</v>
+            <v>15607001</v>
           </cell>
         </row>
         <row r="1242">
           <cell r="C1242">
-            <v>15609001</v>
+            <v>15608001</v>
+          </cell>
+          <cell r="S1242">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1243">
           <cell r="C1243">
-            <v>15610001</v>
+            <v>15609001</v>
           </cell>
         </row>
         <row r="1244">
           <cell r="C1244">
-            <v>15610002</v>
+            <v>15610001</v>
           </cell>
         </row>
         <row r="1245">
           <cell r="C1245">
-            <v>15610101</v>
+            <v>15610002</v>
           </cell>
         </row>
         <row r="1246">
           <cell r="C1246">
-            <v>15610102</v>
+            <v>15610101</v>
           </cell>
         </row>
         <row r="1247">
           <cell r="C1247">
-            <v>15611001</v>
+            <v>15610102</v>
           </cell>
         </row>
         <row r="1248">
           <cell r="C1248">
-            <v>15611002</v>
+            <v>15611001</v>
           </cell>
         </row>
         <row r="1249">
           <cell r="C1249">
-            <v>15611003</v>
+            <v>15611002</v>
           </cell>
         </row>
         <row r="1250">
           <cell r="C1250">
-            <v>15701001</v>
+            <v>15611003</v>
           </cell>
         </row>
         <row r="1251">
           <cell r="C1251">
-            <v>15701002</v>
+            <v>15701001</v>
           </cell>
         </row>
         <row r="1252">
           <cell r="C1252">
-            <v>15701003</v>
+            <v>15701002</v>
           </cell>
         </row>
         <row r="1253">
           <cell r="C1253">
-            <v>15702001</v>
+            <v>15701003</v>
           </cell>
         </row>
         <row r="1254">
           <cell r="C1254">
-            <v>15702002</v>
+            <v>15702001</v>
           </cell>
         </row>
         <row r="1255">
           <cell r="C1255">
-            <v>15702003</v>
+            <v>15702002</v>
           </cell>
         </row>
         <row r="1256">
           <cell r="C1256">
-            <v>15703001</v>
+            <v>15702003</v>
           </cell>
         </row>
         <row r="1257">
           <cell r="C1257">
-            <v>15703002</v>
+            <v>15703001</v>
           </cell>
         </row>
         <row r="1258">
           <cell r="C1258">
-            <v>15703003</v>
+            <v>15703002</v>
           </cell>
         </row>
         <row r="1259">
           <cell r="C1259">
-            <v>15704001</v>
+            <v>15703003</v>
           </cell>
         </row>
         <row r="1260">
           <cell r="C1260">
-            <v>15704002</v>
+            <v>15704001</v>
           </cell>
         </row>
         <row r="1261">
           <cell r="C1261">
-            <v>15704003</v>
+            <v>15704002</v>
           </cell>
         </row>
         <row r="1262">
           <cell r="C1262">
-            <v>15705001</v>
+            <v>15704003</v>
           </cell>
         </row>
         <row r="1263">
           <cell r="C1263">
-            <v>15705002</v>
+            <v>15705001</v>
           </cell>
         </row>
         <row r="1264">
           <cell r="C1264">
-            <v>15705003</v>
+            <v>15705002</v>
           </cell>
         </row>
         <row r="1265">
           <cell r="C1265">
-            <v>15706001</v>
+            <v>15705003</v>
           </cell>
         </row>
         <row r="1266">
           <cell r="C1266">
-            <v>15707001</v>
+            <v>15706001</v>
           </cell>
         </row>
         <row r="1267">
           <cell r="C1267">
-            <v>15708001</v>
-          </cell>
-          <cell r="S1267">
-            <v>66001011</v>
+            <v>15707001</v>
           </cell>
         </row>
         <row r="1268">
           <cell r="C1268">
-            <v>15709001</v>
+            <v>15708001</v>
+          </cell>
+          <cell r="S1268">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1269">
           <cell r="C1269">
-            <v>15710001</v>
+            <v>15709001</v>
           </cell>
         </row>
         <row r="1270">
           <cell r="C1270">
-            <v>15710002</v>
+            <v>15710001</v>
           </cell>
         </row>
         <row r="1271">
           <cell r="C1271">
-            <v>15710101</v>
+            <v>15710002</v>
           </cell>
         </row>
         <row r="1272">
           <cell r="C1272">
-            <v>15710102</v>
+            <v>15710101</v>
           </cell>
         </row>
         <row r="1273">
           <cell r="C1273">
-            <v>15711001</v>
+            <v>15710102</v>
           </cell>
         </row>
         <row r="1274">
           <cell r="C1274">
-            <v>15711002</v>
+            <v>15711001</v>
           </cell>
         </row>
         <row r="1275">
           <cell r="C1275">
-            <v>15711003</v>
+            <v>15711002</v>
           </cell>
         </row>
         <row r="1276">
           <cell r="C1276">
-            <v>16000101</v>
+            <v>15711003</v>
           </cell>
         </row>
         <row r="1277">
           <cell r="C1277">
-            <v>16000102</v>
+            <v>16000101</v>
           </cell>
         </row>
         <row r="1278">
           <cell r="C1278">
-            <v>16000103</v>
+            <v>16000102</v>
           </cell>
         </row>
         <row r="1279">
           <cell r="C1279">
-            <v>16000104</v>
+            <v>16000103</v>
           </cell>
         </row>
         <row r="1280">
           <cell r="C1280">
-            <v>16000105</v>
+            <v>16000104</v>
           </cell>
         </row>
         <row r="1281">
           <cell r="C1281">
-            <v>16000106</v>
+            <v>16000105</v>
           </cell>
         </row>
         <row r="1282">
           <cell r="C1282">
-            <v>16000107</v>
+            <v>16000106</v>
           </cell>
         </row>
         <row r="1283">
           <cell r="C1283">
-            <v>16000108</v>
+            <v>16000107</v>
           </cell>
         </row>
         <row r="1284">
           <cell r="C1284">
-            <v>16000109</v>
+            <v>16000108</v>
           </cell>
         </row>
         <row r="1285">
           <cell r="C1285">
-            <v>16000110</v>
+            <v>16000109</v>
           </cell>
         </row>
         <row r="1286">
           <cell r="C1286">
-            <v>16000111</v>
+            <v>16000110</v>
           </cell>
         </row>
         <row r="1287">
           <cell r="C1287">
-            <v>16000112</v>
+            <v>16000111</v>
           </cell>
         </row>
         <row r="1288">
           <cell r="C1288">
-            <v>16000201</v>
+            <v>16000112</v>
           </cell>
         </row>
         <row r="1289">
           <cell r="C1289">
-            <v>16000202</v>
+            <v>16000201</v>
           </cell>
         </row>
         <row r="1290">
           <cell r="C1290">
-            <v>16000203</v>
+            <v>16000202</v>
           </cell>
         </row>
         <row r="1291">
           <cell r="C1291">
-            <v>16000204</v>
+            <v>16000203</v>
           </cell>
         </row>
         <row r="1292">
           <cell r="C1292">
-            <v>16000205</v>
+            <v>16000204</v>
           </cell>
         </row>
         <row r="1293">
           <cell r="C1293">
-            <v>16000206</v>
+            <v>16000205</v>
           </cell>
         </row>
         <row r="1294">
           <cell r="C1294">
-            <v>16000207</v>
+            <v>16000206</v>
           </cell>
         </row>
         <row r="1295">
           <cell r="C1295">
-            <v>16000208</v>
+            <v>16000207</v>
           </cell>
         </row>
         <row r="1296">
           <cell r="C1296">
-            <v>16000209</v>
+            <v>16000208</v>
           </cell>
         </row>
         <row r="1297">
           <cell r="C1297">
-            <v>16000210</v>
+            <v>16000209</v>
           </cell>
         </row>
         <row r="1298">
           <cell r="C1298">
-            <v>16000211</v>
+            <v>16000210</v>
           </cell>
         </row>
         <row r="1299">
           <cell r="C1299">
-            <v>16000212</v>
+            <v>16000211</v>
           </cell>
         </row>
         <row r="1300">
           <cell r="C1300">
-            <v>16000301</v>
+            <v>16000212</v>
           </cell>
         </row>
         <row r="1301">
           <cell r="C1301">
-            <v>16000302</v>
+            <v>16000301</v>
           </cell>
         </row>
         <row r="1302">
           <cell r="C1302">
-            <v>16000303</v>
+            <v>16000302</v>
           </cell>
         </row>
         <row r="1303">
           <cell r="C1303">
-            <v>16000304</v>
+            <v>16000303</v>
           </cell>
         </row>
         <row r="1304">
           <cell r="C1304">
-            <v>16000305</v>
+            <v>16000304</v>
           </cell>
         </row>
         <row r="1305">
           <cell r="C1305">
-            <v>16000306</v>
+            <v>16000305</v>
           </cell>
         </row>
         <row r="1306">
           <cell r="C1306">
+            <v>16000306</v>
+          </cell>
+        </row>
+        <row r="1307">
+          <cell r="C1307">
             <v>16000307</v>
           </cell>
         </row>
@@ -61255,7 +61316,7 @@
         <v>814</v>
       </c>
       <c r="P96" s="1">
-        <f>LOOKUP(Q96,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(Q96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>69000002</v>
       </c>
       <c r="Q96" s="1">
@@ -61270,7 +61331,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3">
-        <f>LOOKUP(W96,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(W96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="W96" s="1">
@@ -61285,7 +61346,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3">
-        <f>LOOKUP(AC96,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC96" s="1">
@@ -61334,7 +61395,7 @@
       </c>
       <c r="N97" s="5"/>
       <c r="P97" s="1">
-        <f>LOOKUP(Q97,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(Q97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="Q97" s="1">
@@ -61349,7 +61410,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3">
-        <f>LOOKUP(W97,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(W97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="W97" s="1">
@@ -61364,7 +61425,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3">
-        <f>LOOKUP(AC97,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC97" s="1">
@@ -61409,7 +61470,7 @@
       </c>
       <c r="N98" s="5"/>
       <c r="P98" s="1" t="e">
-        <f>LOOKUP(Q98,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(Q98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>#N/A</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -61421,7 +61482,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3">
-        <f>LOOKUP(W98,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(W98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="W98" s="1">
@@ -61436,7 +61497,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3">
-        <f>LOOKUP(AC98,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC98" s="1">
@@ -61485,7 +61546,7 @@
       </c>
       <c r="N99" s="5"/>
       <c r="P99" s="1">
-        <f>LOOKUP(Q99,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(Q99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="Q99" s="1">
@@ -61500,7 +61561,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3">
-        <f>LOOKUP(W99,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(W99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>69000010</v>
       </c>
       <c r="W99" s="1">
@@ -61515,7 +61576,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3">
-        <f>LOOKUP(AC99,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>69000013</v>
       </c>
       <c r="AC99" s="1">
@@ -61543,7 +61604,7 @@
       </c>
       <c r="N100" s="5"/>
       <c r="P100" s="1">
-        <f>LOOKUP(Q100,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(Q100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>69000011</v>
       </c>
       <c r="Q100" s="1">
@@ -61558,7 +61619,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3">
-        <f>LOOKUP(W100,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(W100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>69000012</v>
       </c>
       <c r="W100" s="1">
@@ -61573,7 +61634,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3">
-        <f>LOOKUP(AC100,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC100" s="1">
@@ -61619,7 +61680,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3">
-        <f>LOOKUP(AC101,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC101,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC101" s="1">
@@ -61776,7 +61837,7 @@
         <v>922</v>
       </c>
       <c r="AB105" s="3">
-        <f>LOOKUP(AC105,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC105,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC105" s="1">
@@ -61811,7 +61872,7 @@
       <c r="N106" s="5"/>
       <c r="R106" s="1"/>
       <c r="AB106" s="3">
-        <f>LOOKUP(AC106,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC106,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC106" s="1">
@@ -61845,7 +61906,7 @@
       </c>
       <c r="N107" s="5"/>
       <c r="AB107" s="3">
-        <f>LOOKUP(AC107,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC107,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC107" s="1">
@@ -61883,7 +61944,7 @@
       </c>
       <c r="N108" s="5"/>
       <c r="AB108" s="3">
-        <f>LOOKUP(AC108,[2]ItemProto!$C$846:$C$1306,[2]ItemProto!$S$846:$S$1306)</f>
+        <f>LOOKUP(AC108,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
         <v>0</v>
       </c>
       <c r="AC108" s="1">
@@ -63749,14 +63810,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DAE34-C06F-495E-8317-AB6E80129146}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.5" customWidth="1"/>
     <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
@@ -64081,14 +64143,133 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2318</v>
+      </c>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
       <c r="N30" s="7"/>
     </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G31" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64099,7 +64280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F316056-EDD6-456A-886D-FC4AA6C9D276}">
   <dimension ref="B1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -64212,7 +64393,7 @@
         <v>22500</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y7" si="2">U4/W4</f>
+        <f t="shared" ref="Y4:Y6" si="2">U4/W4</f>
         <v>5.3333333333333332E-3</v>
       </c>
       <c r="Z4" s="1">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F8DC9-4DEF-4E65-9DEA-33C1F6105C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00B373-1EBA-485B-A62F-00169E364C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8013,13 +8013,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8687,47 +8687,44 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="847">
-          <cell r="C847">
-            <v>13005102</v>
+        <row r="260">
+          <cell r="C260">
+            <v>10032008</v>
           </cell>
         </row>
         <row r="848">
           <cell r="C848">
-            <v>13005103</v>
+            <v>13005102</v>
           </cell>
         </row>
         <row r="849">
           <cell r="C849">
-            <v>13005104</v>
+            <v>13005103</v>
           </cell>
         </row>
         <row r="850">
           <cell r="C850">
-            <v>13005105</v>
+            <v>13005104</v>
           </cell>
         </row>
         <row r="851">
           <cell r="C851">
-            <v>13006001</v>
+            <v>13005105</v>
           </cell>
         </row>
         <row r="852">
           <cell r="C852">
-            <v>13006002</v>
+            <v>13006001</v>
           </cell>
         </row>
         <row r="853">
           <cell r="C853">
-            <v>13006003</v>
-          </cell>
-          <cell r="S853">
-            <v>0</v>
+            <v>13006002</v>
           </cell>
         </row>
         <row r="854">
           <cell r="C854">
-            <v>13006004</v>
+            <v>13006003</v>
           </cell>
           <cell r="S854">
             <v>0</v>
@@ -8735,2359 +8732,2367 @@
         </row>
         <row r="855">
           <cell r="C855">
-            <v>13009001</v>
+            <v>13006004</v>
+          </cell>
+          <cell r="S855">
+            <v>0</v>
           </cell>
         </row>
         <row r="856">
           <cell r="C856">
-            <v>13009002</v>
+            <v>13009001</v>
           </cell>
         </row>
         <row r="857">
           <cell r="C857">
-            <v>14010001</v>
+            <v>13009002</v>
           </cell>
         </row>
         <row r="858">
           <cell r="C858">
-            <v>14010002</v>
+            <v>14010001</v>
           </cell>
         </row>
         <row r="859">
           <cell r="C859">
-            <v>14010003</v>
+            <v>14010002</v>
           </cell>
         </row>
         <row r="860">
           <cell r="C860">
-            <v>14010004</v>
+            <v>14010003</v>
           </cell>
         </row>
         <row r="861">
           <cell r="C861">
-            <v>14010005</v>
+            <v>14010004</v>
           </cell>
         </row>
         <row r="862">
           <cell r="C862">
-            <v>14010006</v>
+            <v>14010005</v>
           </cell>
         </row>
         <row r="863">
           <cell r="C863">
-            <v>14010007</v>
+            <v>14010006</v>
           </cell>
         </row>
         <row r="864">
           <cell r="C864">
-            <v>14010008</v>
+            <v>14010007</v>
           </cell>
         </row>
         <row r="865">
           <cell r="C865">
-            <v>14010009</v>
+            <v>14010008</v>
           </cell>
         </row>
         <row r="866">
           <cell r="C866">
-            <v>14010010</v>
+            <v>14010009</v>
           </cell>
         </row>
         <row r="867">
           <cell r="C867">
-            <v>14010011</v>
+            <v>14010010</v>
           </cell>
         </row>
         <row r="868">
           <cell r="C868">
-            <v>14010012</v>
+            <v>14010011</v>
           </cell>
         </row>
         <row r="869">
           <cell r="C869">
-            <v>14020001</v>
+            <v>14010012</v>
           </cell>
         </row>
         <row r="870">
           <cell r="C870">
-            <v>14020002</v>
+            <v>14020001</v>
           </cell>
         </row>
         <row r="871">
           <cell r="C871">
-            <v>14020003</v>
+            <v>14020002</v>
           </cell>
         </row>
         <row r="872">
           <cell r="C872">
-            <v>14020004</v>
+            <v>14020003</v>
           </cell>
         </row>
         <row r="873">
           <cell r="C873">
-            <v>14020005</v>
+            <v>14020004</v>
           </cell>
         </row>
         <row r="874">
           <cell r="C874">
-            <v>14020006</v>
+            <v>14020005</v>
           </cell>
         </row>
         <row r="875">
           <cell r="C875">
-            <v>14020007</v>
+            <v>14020006</v>
           </cell>
         </row>
         <row r="876">
           <cell r="C876">
-            <v>14020008</v>
+            <v>14020007</v>
           </cell>
         </row>
         <row r="877">
           <cell r="C877">
-            <v>14020009</v>
+            <v>14020008</v>
           </cell>
         </row>
         <row r="878">
           <cell r="C878">
-            <v>14020010</v>
+            <v>14020009</v>
           </cell>
         </row>
         <row r="879">
           <cell r="C879">
-            <v>14020011</v>
+            <v>14020010</v>
           </cell>
         </row>
         <row r="880">
           <cell r="C880">
-            <v>14020012</v>
+            <v>14020011</v>
           </cell>
         </row>
         <row r="881">
           <cell r="C881">
-            <v>14020013</v>
+            <v>14020012</v>
           </cell>
         </row>
         <row r="882">
           <cell r="C882">
-            <v>14030001</v>
+            <v>14020013</v>
           </cell>
         </row>
         <row r="883">
           <cell r="C883">
-            <v>14030002</v>
+            <v>14030001</v>
           </cell>
         </row>
         <row r="884">
           <cell r="C884">
-            <v>14030003</v>
+            <v>14030002</v>
           </cell>
         </row>
         <row r="885">
           <cell r="C885">
-            <v>14030004</v>
+            <v>14030003</v>
           </cell>
         </row>
         <row r="886">
           <cell r="C886">
-            <v>14030005</v>
+            <v>14030004</v>
           </cell>
         </row>
         <row r="887">
           <cell r="C887">
-            <v>14030006</v>
+            <v>14030005</v>
           </cell>
         </row>
         <row r="888">
           <cell r="C888">
-            <v>14030007</v>
+            <v>14030006</v>
           </cell>
         </row>
         <row r="889">
           <cell r="C889">
-            <v>14030008</v>
+            <v>14030007</v>
           </cell>
         </row>
         <row r="890">
           <cell r="C890">
-            <v>14030009</v>
+            <v>14030008</v>
           </cell>
         </row>
         <row r="891">
           <cell r="C891">
-            <v>14030010</v>
+            <v>14030009</v>
           </cell>
         </row>
         <row r="892">
           <cell r="C892">
-            <v>14030011</v>
+            <v>14030010</v>
           </cell>
         </row>
         <row r="893">
           <cell r="C893">
-            <v>14030012</v>
+            <v>14030011</v>
           </cell>
         </row>
         <row r="894">
           <cell r="C894">
-            <v>14030013</v>
+            <v>14030012</v>
           </cell>
         </row>
         <row r="895">
           <cell r="C895">
-            <v>14040001</v>
+            <v>14030013</v>
           </cell>
         </row>
         <row r="896">
           <cell r="C896">
-            <v>14040002</v>
+            <v>14040001</v>
           </cell>
         </row>
         <row r="897">
           <cell r="C897">
-            <v>14040003</v>
+            <v>14040002</v>
           </cell>
         </row>
         <row r="898">
           <cell r="C898">
-            <v>14040004</v>
+            <v>14040003</v>
           </cell>
         </row>
         <row r="899">
           <cell r="C899">
-            <v>14040005</v>
+            <v>14040004</v>
           </cell>
         </row>
         <row r="900">
           <cell r="C900">
-            <v>14040006</v>
+            <v>14040005</v>
           </cell>
         </row>
         <row r="901">
           <cell r="C901">
-            <v>14040007</v>
+            <v>14040006</v>
           </cell>
         </row>
         <row r="902">
           <cell r="C902">
-            <v>14040008</v>
+            <v>14040007</v>
           </cell>
         </row>
         <row r="903">
           <cell r="C903">
-            <v>14040009</v>
+            <v>14040008</v>
           </cell>
         </row>
         <row r="904">
           <cell r="C904">
-            <v>14040010</v>
+            <v>14040009</v>
           </cell>
         </row>
         <row r="905">
           <cell r="C905">
-            <v>14040011</v>
+            <v>14040010</v>
           </cell>
         </row>
         <row r="906">
           <cell r="C906">
-            <v>14040012</v>
+            <v>14040011</v>
           </cell>
         </row>
         <row r="907">
           <cell r="C907">
-            <v>14050001</v>
+            <v>14040012</v>
           </cell>
         </row>
         <row r="908">
           <cell r="C908">
-            <v>14050002</v>
+            <v>14050001</v>
           </cell>
         </row>
         <row r="909">
           <cell r="C909">
-            <v>14050003</v>
+            <v>14050002</v>
           </cell>
         </row>
         <row r="910">
           <cell r="C910">
-            <v>14050004</v>
+            <v>14050003</v>
           </cell>
         </row>
         <row r="911">
           <cell r="C911">
-            <v>14050005</v>
+            <v>14050004</v>
           </cell>
         </row>
         <row r="912">
           <cell r="C912">
-            <v>14050006</v>
+            <v>14050005</v>
           </cell>
         </row>
         <row r="913">
           <cell r="C913">
-            <v>14050007</v>
+            <v>14050006</v>
           </cell>
         </row>
         <row r="914">
           <cell r="C914">
-            <v>14050008</v>
+            <v>14050007</v>
           </cell>
         </row>
         <row r="915">
           <cell r="C915">
-            <v>14050009</v>
+            <v>14050008</v>
           </cell>
         </row>
         <row r="916">
           <cell r="C916">
-            <v>14050010</v>
+            <v>14050009</v>
           </cell>
         </row>
         <row r="917">
           <cell r="C917">
-            <v>14050011</v>
+            <v>14050010</v>
           </cell>
         </row>
         <row r="918">
           <cell r="C918">
-            <v>14050012</v>
+            <v>14050011</v>
           </cell>
         </row>
         <row r="919">
           <cell r="C919">
-            <v>14060001</v>
+            <v>14050012</v>
           </cell>
         </row>
         <row r="920">
           <cell r="C920">
-            <v>14060002</v>
+            <v>14060001</v>
           </cell>
         </row>
         <row r="921">
           <cell r="C921">
-            <v>14060003</v>
+            <v>14060002</v>
           </cell>
         </row>
         <row r="922">
           <cell r="C922">
-            <v>14060004</v>
+            <v>14060003</v>
           </cell>
         </row>
         <row r="923">
           <cell r="C923">
-            <v>14060005</v>
+            <v>14060004</v>
           </cell>
         </row>
         <row r="924">
           <cell r="C924">
-            <v>14070001</v>
+            <v>14060005</v>
           </cell>
         </row>
         <row r="925">
           <cell r="C925">
-            <v>14070002</v>
+            <v>14070001</v>
           </cell>
         </row>
         <row r="926">
           <cell r="C926">
-            <v>14070003</v>
+            <v>14070002</v>
           </cell>
         </row>
         <row r="927">
           <cell r="C927">
-            <v>14070004</v>
+            <v>14070003</v>
           </cell>
         </row>
         <row r="928">
           <cell r="C928">
-            <v>14080001</v>
-          </cell>
-          <cell r="S928">
-            <v>66001001</v>
+            <v>14070004</v>
           </cell>
         </row>
         <row r="929">
           <cell r="C929">
-            <v>14080002</v>
+            <v>14080001</v>
           </cell>
           <cell r="S929">
-            <v>66001002</v>
+            <v>66001001</v>
           </cell>
         </row>
         <row r="930">
           <cell r="C930">
-            <v>14080003</v>
+            <v>14080002</v>
           </cell>
           <cell r="S930">
-            <v>66001003</v>
+            <v>66001002</v>
           </cell>
         </row>
         <row r="931">
           <cell r="C931">
-            <v>14080004</v>
+            <v>14080003</v>
           </cell>
           <cell r="S931">
-            <v>66001012</v>
+            <v>66001003</v>
           </cell>
         </row>
         <row r="932">
           <cell r="C932">
-            <v>14090001</v>
+            <v>14080004</v>
+          </cell>
+          <cell r="S932">
+            <v>66001012</v>
           </cell>
         </row>
         <row r="933">
           <cell r="C933">
-            <v>14090002</v>
+            <v>14090001</v>
           </cell>
         </row>
         <row r="934">
           <cell r="C934">
-            <v>14090003</v>
+            <v>14090002</v>
           </cell>
         </row>
         <row r="935">
           <cell r="C935">
-            <v>14090004</v>
+            <v>14090003</v>
           </cell>
         </row>
         <row r="936">
           <cell r="C936">
-            <v>14100001</v>
+            <v>14090004</v>
           </cell>
         </row>
         <row r="937">
           <cell r="C937">
-            <v>14100002</v>
+            <v>14100001</v>
           </cell>
         </row>
         <row r="938">
           <cell r="C938">
-            <v>14100003</v>
+            <v>14100002</v>
           </cell>
         </row>
         <row r="939">
           <cell r="C939">
-            <v>14100004</v>
+            <v>14100003</v>
           </cell>
         </row>
         <row r="940">
           <cell r="C940">
-            <v>14100005</v>
+            <v>14100004</v>
           </cell>
         </row>
         <row r="941">
           <cell r="C941">
-            <v>14100006</v>
+            <v>14100005</v>
           </cell>
         </row>
         <row r="942">
           <cell r="C942">
-            <v>14100007</v>
+            <v>14100006</v>
           </cell>
         </row>
         <row r="943">
           <cell r="C943">
-            <v>14100008</v>
+            <v>14100007</v>
           </cell>
         </row>
         <row r="944">
           <cell r="C944">
-            <v>14100011</v>
-          </cell>
-          <cell r="S944">
-            <v>69000001</v>
+            <v>14100008</v>
           </cell>
         </row>
         <row r="945">
           <cell r="C945">
-            <v>14100012</v>
+            <v>14100011</v>
+          </cell>
+          <cell r="S945">
+            <v>69000001</v>
           </cell>
         </row>
         <row r="946">
           <cell r="C946">
-            <v>14100101</v>
+            <v>14100012</v>
           </cell>
         </row>
         <row r="947">
           <cell r="C947">
-            <v>14100102</v>
+            <v>14100101</v>
           </cell>
         </row>
         <row r="948">
           <cell r="C948">
-            <v>14100103</v>
+            <v>14100102</v>
           </cell>
         </row>
         <row r="949">
           <cell r="C949">
-            <v>14100104</v>
+            <v>14100103</v>
           </cell>
         </row>
         <row r="950">
           <cell r="C950">
-            <v>14100105</v>
+            <v>14100104</v>
           </cell>
         </row>
         <row r="951">
           <cell r="C951">
-            <v>14100106</v>
+            <v>14100105</v>
           </cell>
         </row>
         <row r="952">
           <cell r="C952">
-            <v>14100107</v>
+            <v>14100106</v>
           </cell>
         </row>
         <row r="953">
           <cell r="C953">
-            <v>14100108</v>
+            <v>14100107</v>
           </cell>
         </row>
         <row r="954">
           <cell r="C954">
-            <v>14100111</v>
-          </cell>
-          <cell r="S954">
-            <v>69000002</v>
+            <v>14100108</v>
           </cell>
         </row>
         <row r="955">
           <cell r="C955">
-            <v>14100112</v>
+            <v>14100111</v>
           </cell>
           <cell r="S955">
-            <v>69000003</v>
+            <v>69000002</v>
           </cell>
         </row>
         <row r="956">
           <cell r="C956">
-            <v>14110001</v>
+            <v>14100112</v>
+          </cell>
+          <cell r="S956">
+            <v>69000003</v>
           </cell>
         </row>
         <row r="957">
           <cell r="C957">
-            <v>14110002</v>
+            <v>14110001</v>
           </cell>
         </row>
         <row r="958">
           <cell r="C958">
-            <v>14110003</v>
+            <v>14110002</v>
           </cell>
         </row>
         <row r="959">
           <cell r="C959">
-            <v>14110004</v>
+            <v>14110003</v>
           </cell>
         </row>
         <row r="960">
           <cell r="C960">
-            <v>14110005</v>
+            <v>14110004</v>
           </cell>
         </row>
         <row r="961">
           <cell r="C961">
-            <v>14110006</v>
+            <v>14110005</v>
           </cell>
         </row>
         <row r="962">
           <cell r="C962">
-            <v>14110007</v>
+            <v>14110006</v>
           </cell>
         </row>
         <row r="963">
           <cell r="C963">
-            <v>14110008</v>
+            <v>14110007</v>
           </cell>
         </row>
         <row r="964">
           <cell r="C964">
-            <v>14110009</v>
+            <v>14110008</v>
           </cell>
         </row>
         <row r="965">
           <cell r="C965">
-            <v>14110010</v>
+            <v>14110009</v>
           </cell>
         </row>
         <row r="966">
           <cell r="C966">
-            <v>14110011</v>
+            <v>14110010</v>
           </cell>
         </row>
         <row r="967">
           <cell r="C967">
-            <v>14110012</v>
+            <v>14110011</v>
           </cell>
         </row>
         <row r="968">
           <cell r="C968">
-            <v>14110021</v>
+            <v>14110012</v>
           </cell>
         </row>
         <row r="969">
           <cell r="C969">
-            <v>14110022</v>
+            <v>14110021</v>
           </cell>
         </row>
         <row r="970">
           <cell r="C970">
-            <v>14110023</v>
+            <v>14110022</v>
           </cell>
         </row>
         <row r="971">
           <cell r="C971">
-            <v>15201001</v>
+            <v>14110023</v>
           </cell>
         </row>
         <row r="972">
           <cell r="C972">
-            <v>15201002</v>
+            <v>15201001</v>
           </cell>
         </row>
         <row r="973">
           <cell r="C973">
-            <v>15201003</v>
+            <v>15201002</v>
           </cell>
         </row>
         <row r="974">
           <cell r="C974">
-            <v>15201004</v>
+            <v>15201003</v>
           </cell>
         </row>
         <row r="975">
           <cell r="C975">
-            <v>15201005</v>
+            <v>15201004</v>
           </cell>
         </row>
         <row r="976">
           <cell r="C976">
-            <v>15201006</v>
+            <v>15201005</v>
           </cell>
         </row>
         <row r="977">
           <cell r="C977">
-            <v>15202001</v>
+            <v>15201006</v>
           </cell>
         </row>
         <row r="978">
           <cell r="C978">
-            <v>15202002</v>
+            <v>15202001</v>
           </cell>
         </row>
         <row r="979">
           <cell r="C979">
-            <v>15202003</v>
+            <v>15202002</v>
           </cell>
         </row>
         <row r="980">
           <cell r="C980">
-            <v>15202004</v>
+            <v>15202003</v>
           </cell>
         </row>
         <row r="981">
           <cell r="C981">
-            <v>15202005</v>
+            <v>15202004</v>
           </cell>
         </row>
         <row r="982">
           <cell r="C982">
-            <v>15202006</v>
+            <v>15202005</v>
           </cell>
         </row>
         <row r="983">
           <cell r="C983">
-            <v>15203001</v>
+            <v>15202006</v>
           </cell>
         </row>
         <row r="984">
           <cell r="C984">
-            <v>15203002</v>
+            <v>15203001</v>
           </cell>
         </row>
         <row r="985">
           <cell r="C985">
-            <v>15203003</v>
+            <v>15203002</v>
           </cell>
         </row>
         <row r="986">
           <cell r="C986">
-            <v>15203004</v>
+            <v>15203003</v>
           </cell>
         </row>
         <row r="987">
           <cell r="C987">
-            <v>15203005</v>
+            <v>15203004</v>
           </cell>
         </row>
         <row r="988">
           <cell r="C988">
-            <v>15203006</v>
+            <v>15203005</v>
           </cell>
         </row>
         <row r="989">
           <cell r="C989">
-            <v>15204001</v>
+            <v>15203006</v>
           </cell>
         </row>
         <row r="990">
           <cell r="C990">
-            <v>15204002</v>
+            <v>15204001</v>
           </cell>
         </row>
         <row r="991">
           <cell r="C991">
-            <v>15204003</v>
+            <v>15204002</v>
           </cell>
         </row>
         <row r="992">
           <cell r="C992">
-            <v>15204004</v>
+            <v>15204003</v>
           </cell>
         </row>
         <row r="993">
           <cell r="C993">
-            <v>15204005</v>
+            <v>15204004</v>
           </cell>
         </row>
         <row r="994">
           <cell r="C994">
-            <v>15204006</v>
+            <v>15204005</v>
           </cell>
         </row>
         <row r="995">
           <cell r="C995">
-            <v>15205001</v>
+            <v>15204006</v>
           </cell>
         </row>
         <row r="996">
           <cell r="C996">
-            <v>15205002</v>
+            <v>15205001</v>
           </cell>
         </row>
         <row r="997">
           <cell r="C997">
-            <v>15205003</v>
+            <v>15205002</v>
           </cell>
         </row>
         <row r="998">
           <cell r="C998">
-            <v>15205004</v>
+            <v>15205003</v>
           </cell>
         </row>
         <row r="999">
           <cell r="C999">
-            <v>15205005</v>
+            <v>15205004</v>
           </cell>
         </row>
         <row r="1000">
           <cell r="C1000">
-            <v>15205006</v>
+            <v>15205005</v>
           </cell>
         </row>
         <row r="1001">
           <cell r="C1001">
-            <v>15205007</v>
+            <v>15205006</v>
           </cell>
         </row>
         <row r="1002">
           <cell r="C1002">
-            <v>15206001</v>
+            <v>15205007</v>
           </cell>
         </row>
         <row r="1003">
           <cell r="C1003">
-            <v>15206002</v>
+            <v>15206001</v>
           </cell>
         </row>
         <row r="1004">
           <cell r="C1004">
-            <v>15206003</v>
+            <v>15206002</v>
           </cell>
         </row>
         <row r="1005">
           <cell r="C1005">
-            <v>15207001</v>
+            <v>15206003</v>
           </cell>
         </row>
         <row r="1006">
           <cell r="C1006">
-            <v>15207002</v>
+            <v>15207001</v>
           </cell>
         </row>
         <row r="1007">
           <cell r="C1007">
-            <v>15207003</v>
+            <v>15207002</v>
           </cell>
         </row>
         <row r="1008">
           <cell r="C1008">
-            <v>15208001</v>
-          </cell>
-          <cell r="S1008">
-            <v>66001004</v>
+            <v>15207003</v>
           </cell>
         </row>
         <row r="1009">
           <cell r="C1009">
-            <v>15208002</v>
+            <v>15208001</v>
           </cell>
           <cell r="S1009">
-            <v>66001005</v>
+            <v>66001004</v>
           </cell>
         </row>
         <row r="1010">
           <cell r="C1010">
-            <v>15208003</v>
+            <v>15208002</v>
           </cell>
           <cell r="S1010">
-            <v>66001013</v>
+            <v>66001005</v>
           </cell>
         </row>
         <row r="1011">
           <cell r="C1011">
-            <v>15209001</v>
+            <v>15208003</v>
+          </cell>
+          <cell r="S1011">
+            <v>66001013</v>
           </cell>
         </row>
         <row r="1012">
           <cell r="C1012">
-            <v>15209002</v>
+            <v>15209001</v>
           </cell>
         </row>
         <row r="1013">
           <cell r="C1013">
-            <v>15210001</v>
+            <v>15209002</v>
           </cell>
         </row>
         <row r="1014">
           <cell r="C1014">
-            <v>15210002</v>
+            <v>15210001</v>
           </cell>
         </row>
         <row r="1015">
           <cell r="C1015">
-            <v>15210003</v>
+            <v>15210002</v>
           </cell>
         </row>
         <row r="1016">
           <cell r="C1016">
-            <v>15210004</v>
+            <v>15210003</v>
           </cell>
         </row>
         <row r="1017">
           <cell r="C1017">
-            <v>15210011</v>
+            <v>15210004</v>
           </cell>
         </row>
         <row r="1018">
           <cell r="C1018">
-            <v>15210012</v>
+            <v>15210011</v>
           </cell>
         </row>
         <row r="1019">
           <cell r="C1019">
-            <v>15210101</v>
+            <v>15210012</v>
           </cell>
         </row>
         <row r="1020">
           <cell r="C1020">
-            <v>15210102</v>
+            <v>15210101</v>
           </cell>
         </row>
         <row r="1021">
           <cell r="C1021">
-            <v>15210103</v>
+            <v>15210102</v>
           </cell>
         </row>
         <row r="1022">
           <cell r="C1022">
-            <v>15210104</v>
+            <v>15210103</v>
           </cell>
         </row>
         <row r="1023">
           <cell r="C1023">
-            <v>15210111</v>
+            <v>15210104</v>
           </cell>
         </row>
         <row r="1024">
           <cell r="C1024">
-            <v>15210112</v>
+            <v>15210111</v>
           </cell>
         </row>
         <row r="1025">
           <cell r="C1025">
-            <v>15211001</v>
+            <v>15210112</v>
           </cell>
         </row>
         <row r="1026">
           <cell r="C1026">
-            <v>15211002</v>
+            <v>15211001</v>
           </cell>
         </row>
         <row r="1027">
           <cell r="C1027">
-            <v>15211003</v>
+            <v>15211002</v>
           </cell>
         </row>
         <row r="1028">
           <cell r="C1028">
-            <v>15211004</v>
+            <v>15211003</v>
           </cell>
         </row>
         <row r="1029">
           <cell r="C1029">
-            <v>15211005</v>
+            <v>15211004</v>
           </cell>
         </row>
         <row r="1030">
           <cell r="C1030">
-            <v>15211006</v>
+            <v>15211005</v>
           </cell>
         </row>
         <row r="1031">
           <cell r="C1031">
-            <v>15211011</v>
+            <v>15211006</v>
           </cell>
         </row>
         <row r="1032">
           <cell r="C1032">
-            <v>15211012</v>
+            <v>15211011</v>
           </cell>
         </row>
         <row r="1033">
           <cell r="C1033">
-            <v>15211013</v>
-          </cell>
-          <cell r="S1033">
-            <v>69000004</v>
+            <v>15211012</v>
           </cell>
         </row>
         <row r="1034">
           <cell r="C1034">
-            <v>15301001</v>
+            <v>15211013</v>
+          </cell>
+          <cell r="S1034">
+            <v>69000004</v>
           </cell>
         </row>
         <row r="1035">
           <cell r="C1035">
-            <v>15301002</v>
+            <v>15301001</v>
           </cell>
         </row>
         <row r="1036">
           <cell r="C1036">
-            <v>15301003</v>
+            <v>15301002</v>
           </cell>
         </row>
         <row r="1037">
           <cell r="C1037">
-            <v>15301004</v>
+            <v>15301003</v>
           </cell>
         </row>
         <row r="1038">
           <cell r="C1038">
-            <v>15301005</v>
+            <v>15301004</v>
           </cell>
         </row>
         <row r="1039">
           <cell r="C1039">
-            <v>15301006</v>
+            <v>15301005</v>
           </cell>
         </row>
         <row r="1040">
           <cell r="C1040">
-            <v>15302001</v>
+            <v>15301006</v>
           </cell>
         </row>
         <row r="1041">
           <cell r="C1041">
-            <v>15302002</v>
+            <v>15302001</v>
           </cell>
         </row>
         <row r="1042">
           <cell r="C1042">
-            <v>15302003</v>
+            <v>15302002</v>
           </cell>
         </row>
         <row r="1043">
           <cell r="C1043">
-            <v>15302004</v>
+            <v>15302003</v>
           </cell>
         </row>
         <row r="1044">
           <cell r="C1044">
-            <v>15302005</v>
+            <v>15302004</v>
           </cell>
         </row>
         <row r="1045">
           <cell r="C1045">
-            <v>15302006</v>
+            <v>15302005</v>
           </cell>
         </row>
         <row r="1046">
           <cell r="C1046">
-            <v>15302007</v>
+            <v>15302006</v>
           </cell>
         </row>
         <row r="1047">
           <cell r="C1047">
-            <v>15303001</v>
+            <v>15302007</v>
           </cell>
         </row>
         <row r="1048">
           <cell r="C1048">
-            <v>15303002</v>
+            <v>15303001</v>
           </cell>
         </row>
         <row r="1049">
           <cell r="C1049">
-            <v>15303003</v>
+            <v>15303002</v>
           </cell>
         </row>
         <row r="1050">
           <cell r="C1050">
-            <v>15303004</v>
+            <v>15303003</v>
           </cell>
         </row>
         <row r="1051">
           <cell r="C1051">
-            <v>15303005</v>
+            <v>15303004</v>
           </cell>
         </row>
         <row r="1052">
           <cell r="C1052">
-            <v>15303006</v>
+            <v>15303005</v>
           </cell>
         </row>
         <row r="1053">
           <cell r="C1053">
-            <v>15304001</v>
+            <v>15303006</v>
           </cell>
         </row>
         <row r="1054">
           <cell r="C1054">
-            <v>15304002</v>
+            <v>15304001</v>
           </cell>
         </row>
         <row r="1055">
           <cell r="C1055">
-            <v>15304003</v>
+            <v>15304002</v>
           </cell>
         </row>
         <row r="1056">
           <cell r="C1056">
-            <v>15304004</v>
+            <v>15304003</v>
           </cell>
         </row>
         <row r="1057">
           <cell r="C1057">
-            <v>15304005</v>
+            <v>15304004</v>
           </cell>
         </row>
         <row r="1058">
           <cell r="C1058">
-            <v>15304006</v>
+            <v>15304005</v>
           </cell>
         </row>
         <row r="1059">
           <cell r="C1059">
-            <v>15305001</v>
+            <v>15304006</v>
           </cell>
         </row>
         <row r="1060">
           <cell r="C1060">
-            <v>15305002</v>
+            <v>15305001</v>
           </cell>
         </row>
         <row r="1061">
           <cell r="C1061">
-            <v>15305003</v>
+            <v>15305002</v>
           </cell>
         </row>
         <row r="1062">
           <cell r="C1062">
-            <v>15305004</v>
+            <v>15305003</v>
           </cell>
         </row>
         <row r="1063">
           <cell r="C1063">
-            <v>15305005</v>
+            <v>15305004</v>
           </cell>
         </row>
         <row r="1064">
           <cell r="C1064">
-            <v>15305006</v>
+            <v>15305005</v>
           </cell>
         </row>
         <row r="1065">
           <cell r="C1065">
-            <v>15306001</v>
+            <v>15305006</v>
           </cell>
         </row>
         <row r="1066">
           <cell r="C1066">
-            <v>15306002</v>
+            <v>15306001</v>
           </cell>
         </row>
         <row r="1067">
           <cell r="C1067">
-            <v>15306003</v>
+            <v>15306002</v>
           </cell>
         </row>
         <row r="1068">
           <cell r="C1068">
-            <v>15307001</v>
+            <v>15306003</v>
           </cell>
         </row>
         <row r="1069">
           <cell r="C1069">
-            <v>15307002</v>
+            <v>15307001</v>
           </cell>
         </row>
         <row r="1070">
           <cell r="C1070">
-            <v>15308001</v>
-          </cell>
-          <cell r="S1070">
-            <v>66001006</v>
+            <v>15307002</v>
           </cell>
         </row>
         <row r="1071">
           <cell r="C1071">
-            <v>15308002</v>
+            <v>15308001</v>
           </cell>
           <cell r="S1071">
-            <v>66001007</v>
+            <v>66001006</v>
           </cell>
         </row>
         <row r="1072">
           <cell r="C1072">
-            <v>15308003</v>
+            <v>15308002</v>
           </cell>
           <cell r="S1072">
-            <v>66001014</v>
+            <v>66001007</v>
           </cell>
         </row>
         <row r="1073">
           <cell r="C1073">
-            <v>15308004</v>
+            <v>15308003</v>
           </cell>
           <cell r="S1073">
-            <v>66001017</v>
+            <v>66001014</v>
           </cell>
         </row>
         <row r="1074">
           <cell r="C1074">
-            <v>15309001</v>
+            <v>15308004</v>
+          </cell>
+          <cell r="S1074">
+            <v>66001017</v>
           </cell>
         </row>
         <row r="1075">
           <cell r="C1075">
-            <v>15309002</v>
+            <v>15309001</v>
           </cell>
         </row>
         <row r="1076">
           <cell r="C1076">
-            <v>15309003</v>
+            <v>15309002</v>
           </cell>
         </row>
         <row r="1077">
           <cell r="C1077">
-            <v>15310001</v>
+            <v>15309003</v>
           </cell>
         </row>
         <row r="1078">
           <cell r="C1078">
-            <v>15310002</v>
+            <v>15310001</v>
           </cell>
         </row>
         <row r="1079">
           <cell r="C1079">
-            <v>15310003</v>
+            <v>15310002</v>
           </cell>
         </row>
         <row r="1080">
           <cell r="C1080">
-            <v>15310004</v>
+            <v>15310003</v>
           </cell>
         </row>
         <row r="1081">
           <cell r="C1081">
-            <v>15310011</v>
+            <v>15310004</v>
           </cell>
         </row>
         <row r="1082">
           <cell r="C1082">
-            <v>15310012</v>
+            <v>15310011</v>
           </cell>
         </row>
         <row r="1083">
           <cell r="C1083">
-            <v>15310101</v>
+            <v>15310012</v>
           </cell>
         </row>
         <row r="1084">
           <cell r="C1084">
-            <v>15310102</v>
+            <v>15310101</v>
           </cell>
         </row>
         <row r="1085">
           <cell r="C1085">
-            <v>15310103</v>
+            <v>15310102</v>
           </cell>
         </row>
         <row r="1086">
           <cell r="C1086">
-            <v>15310104</v>
+            <v>15310103</v>
           </cell>
         </row>
         <row r="1087">
           <cell r="C1087">
-            <v>15310111</v>
-          </cell>
-          <cell r="S1087">
-            <v>69000005</v>
+            <v>15310104</v>
           </cell>
         </row>
         <row r="1088">
           <cell r="C1088">
-            <v>15310112</v>
+            <v>15310111</v>
+          </cell>
+          <cell r="S1088">
+            <v>69000005</v>
           </cell>
         </row>
         <row r="1089">
           <cell r="C1089">
-            <v>15311001</v>
+            <v>15310112</v>
           </cell>
         </row>
         <row r="1090">
           <cell r="C1090">
-            <v>15311002</v>
+            <v>15311001</v>
           </cell>
         </row>
         <row r="1091">
           <cell r="C1091">
-            <v>15311003</v>
+            <v>15311002</v>
           </cell>
         </row>
         <row r="1092">
           <cell r="C1092">
-            <v>15311004</v>
+            <v>15311003</v>
           </cell>
         </row>
         <row r="1093">
           <cell r="C1093">
-            <v>15311005</v>
+            <v>15311004</v>
           </cell>
         </row>
         <row r="1094">
           <cell r="C1094">
-            <v>15311006</v>
+            <v>15311005</v>
           </cell>
         </row>
         <row r="1095">
           <cell r="C1095">
-            <v>15311011</v>
+            <v>15311006</v>
           </cell>
         </row>
         <row r="1096">
           <cell r="C1096">
-            <v>15311012</v>
+            <v>15311011</v>
           </cell>
         </row>
         <row r="1097">
           <cell r="C1097">
-            <v>15311013</v>
-          </cell>
-          <cell r="S1097">
-            <v>69000006</v>
+            <v>15311012</v>
           </cell>
         </row>
         <row r="1098">
           <cell r="C1098">
-            <v>15401001</v>
+            <v>15311013</v>
+          </cell>
+          <cell r="S1098">
+            <v>69000006</v>
           </cell>
         </row>
         <row r="1099">
           <cell r="C1099">
-            <v>15401002</v>
+            <v>15401001</v>
           </cell>
         </row>
         <row r="1100">
           <cell r="C1100">
-            <v>15401003</v>
+            <v>15401002</v>
           </cell>
         </row>
         <row r="1101">
           <cell r="C1101">
-            <v>15401004</v>
+            <v>15401003</v>
           </cell>
         </row>
         <row r="1102">
           <cell r="C1102">
-            <v>15401005</v>
+            <v>15401004</v>
           </cell>
         </row>
         <row r="1103">
           <cell r="C1103">
-            <v>15401006</v>
+            <v>15401005</v>
           </cell>
         </row>
         <row r="1104">
           <cell r="C1104">
-            <v>15401007</v>
+            <v>15401006</v>
           </cell>
         </row>
         <row r="1105">
           <cell r="C1105">
-            <v>15402001</v>
+            <v>15401007</v>
           </cell>
         </row>
         <row r="1106">
           <cell r="C1106">
-            <v>15402002</v>
+            <v>15402001</v>
           </cell>
         </row>
         <row r="1107">
           <cell r="C1107">
-            <v>15402003</v>
+            <v>15402002</v>
           </cell>
         </row>
         <row r="1108">
           <cell r="C1108">
-            <v>15402004</v>
+            <v>15402003</v>
           </cell>
         </row>
         <row r="1109">
           <cell r="C1109">
-            <v>15402005</v>
+            <v>15402004</v>
           </cell>
         </row>
         <row r="1110">
           <cell r="C1110">
-            <v>15402006</v>
+            <v>15402005</v>
           </cell>
         </row>
         <row r="1111">
           <cell r="C1111">
-            <v>15403001</v>
+            <v>15402006</v>
           </cell>
         </row>
         <row r="1112">
           <cell r="C1112">
-            <v>15403002</v>
+            <v>15403001</v>
           </cell>
         </row>
         <row r="1113">
           <cell r="C1113">
-            <v>15403003</v>
+            <v>15403002</v>
           </cell>
         </row>
         <row r="1114">
           <cell r="C1114">
-            <v>15403004</v>
+            <v>15403003</v>
           </cell>
         </row>
         <row r="1115">
           <cell r="C1115">
-            <v>15403005</v>
+            <v>15403004</v>
           </cell>
         </row>
         <row r="1116">
           <cell r="C1116">
-            <v>15403006</v>
+            <v>15403005</v>
           </cell>
         </row>
         <row r="1117">
           <cell r="C1117">
-            <v>15404001</v>
+            <v>15403006</v>
           </cell>
         </row>
         <row r="1118">
           <cell r="C1118">
-            <v>15404002</v>
+            <v>15404001</v>
           </cell>
         </row>
         <row r="1119">
           <cell r="C1119">
-            <v>15404003</v>
+            <v>15404002</v>
           </cell>
         </row>
         <row r="1120">
           <cell r="C1120">
-            <v>15404004</v>
+            <v>15404003</v>
           </cell>
         </row>
         <row r="1121">
           <cell r="C1121">
-            <v>15404005</v>
+            <v>15404004</v>
           </cell>
         </row>
         <row r="1122">
           <cell r="C1122">
-            <v>15404006</v>
+            <v>15404005</v>
           </cell>
         </row>
         <row r="1123">
           <cell r="C1123">
-            <v>15405001</v>
+            <v>15404006</v>
           </cell>
         </row>
         <row r="1124">
           <cell r="C1124">
-            <v>15405002</v>
+            <v>15405001</v>
           </cell>
         </row>
         <row r="1125">
           <cell r="C1125">
-            <v>15405003</v>
+            <v>15405002</v>
           </cell>
         </row>
         <row r="1126">
           <cell r="C1126">
-            <v>15405004</v>
+            <v>15405003</v>
           </cell>
         </row>
         <row r="1127">
           <cell r="C1127">
-            <v>15405005</v>
+            <v>15405004</v>
           </cell>
         </row>
         <row r="1128">
           <cell r="C1128">
-            <v>15405006</v>
+            <v>15405005</v>
           </cell>
         </row>
         <row r="1129">
           <cell r="C1129">
-            <v>15406001</v>
+            <v>15405006</v>
           </cell>
         </row>
         <row r="1130">
           <cell r="C1130">
-            <v>15406002</v>
+            <v>15406001</v>
           </cell>
         </row>
         <row r="1131">
           <cell r="C1131">
-            <v>15406003</v>
-          </cell>
-          <cell r="S1131">
-            <v>69000007</v>
+            <v>15406002</v>
           </cell>
         </row>
         <row r="1132">
           <cell r="C1132">
-            <v>15407001</v>
+            <v>15406003</v>
+          </cell>
+          <cell r="S1132">
+            <v>69000007</v>
           </cell>
         </row>
         <row r="1133">
           <cell r="C1133">
-            <v>15407002</v>
+            <v>15407001</v>
           </cell>
         </row>
         <row r="1134">
           <cell r="C1134">
-            <v>15407003</v>
+            <v>15407002</v>
           </cell>
         </row>
         <row r="1135">
           <cell r="C1135">
-            <v>15408001</v>
-          </cell>
-          <cell r="S1135">
-            <v>66001008</v>
+            <v>15407003</v>
           </cell>
         </row>
         <row r="1136">
           <cell r="C1136">
-            <v>15408002</v>
+            <v>15408001</v>
           </cell>
           <cell r="S1136">
-            <v>66001009</v>
+            <v>66001008</v>
           </cell>
         </row>
         <row r="1137">
           <cell r="C1137">
-            <v>15408003</v>
+            <v>15408002</v>
           </cell>
           <cell r="S1137">
-            <v>66001015</v>
+            <v>66001009</v>
           </cell>
         </row>
         <row r="1138">
           <cell r="C1138">
-            <v>15409001</v>
+            <v>15408003</v>
+          </cell>
+          <cell r="S1138">
+            <v>66001015</v>
           </cell>
         </row>
         <row r="1139">
           <cell r="C1139">
-            <v>15409002</v>
+            <v>15409001</v>
           </cell>
         </row>
         <row r="1140">
           <cell r="C1140">
-            <v>15410001</v>
+            <v>15409002</v>
           </cell>
         </row>
         <row r="1141">
           <cell r="C1141">
-            <v>15410002</v>
+            <v>15410001</v>
           </cell>
         </row>
         <row r="1142">
           <cell r="C1142">
-            <v>15410003</v>
+            <v>15410002</v>
           </cell>
         </row>
         <row r="1143">
           <cell r="C1143">
-            <v>15410004</v>
+            <v>15410003</v>
           </cell>
         </row>
         <row r="1144">
           <cell r="C1144">
-            <v>15410011</v>
-          </cell>
-          <cell r="S1144">
-            <v>69000013</v>
+            <v>15410004</v>
           </cell>
         </row>
         <row r="1145">
           <cell r="C1145">
-            <v>15410012</v>
+            <v>15410011</v>
+          </cell>
+          <cell r="S1145">
+            <v>69000013</v>
           </cell>
         </row>
         <row r="1146">
           <cell r="C1146">
-            <v>15410101</v>
+            <v>15410012</v>
           </cell>
         </row>
         <row r="1147">
           <cell r="C1147">
-            <v>15410102</v>
+            <v>15410101</v>
           </cell>
         </row>
         <row r="1148">
           <cell r="C1148">
-            <v>15410103</v>
+            <v>15410102</v>
           </cell>
         </row>
         <row r="1149">
           <cell r="C1149">
-            <v>15410104</v>
+            <v>15410103</v>
           </cell>
         </row>
         <row r="1150">
           <cell r="C1150">
-            <v>15410111</v>
+            <v>15410104</v>
           </cell>
         </row>
         <row r="1151">
           <cell r="C1151">
-            <v>15410112</v>
-          </cell>
-          <cell r="S1151">
-            <v>69000009</v>
+            <v>15410111</v>
           </cell>
         </row>
         <row r="1152">
           <cell r="C1152">
-            <v>15411001</v>
+            <v>15410112</v>
+          </cell>
+          <cell r="S1152">
+            <v>69000009</v>
           </cell>
         </row>
         <row r="1153">
           <cell r="C1153">
-            <v>15411002</v>
+            <v>15411001</v>
           </cell>
         </row>
         <row r="1154">
           <cell r="C1154">
-            <v>15411003</v>
+            <v>15411002</v>
           </cell>
         </row>
         <row r="1155">
           <cell r="C1155">
-            <v>15411004</v>
+            <v>15411003</v>
           </cell>
         </row>
         <row r="1156">
           <cell r="C1156">
-            <v>15411005</v>
+            <v>15411004</v>
           </cell>
         </row>
         <row r="1157">
           <cell r="C1157">
-            <v>15411006</v>
+            <v>15411005</v>
           </cell>
         </row>
         <row r="1158">
           <cell r="C1158">
-            <v>15411011</v>
-          </cell>
-          <cell r="S1158">
-            <v>69000010</v>
+            <v>15411006</v>
           </cell>
         </row>
         <row r="1159">
           <cell r="C1159">
-            <v>15411012</v>
+            <v>15411011</v>
+          </cell>
+          <cell r="S1159">
+            <v>69000010</v>
           </cell>
         </row>
         <row r="1160">
           <cell r="C1160">
-            <v>15411013</v>
+            <v>15411012</v>
           </cell>
         </row>
         <row r="1161">
           <cell r="C1161">
-            <v>15501001</v>
+            <v>15411013</v>
           </cell>
         </row>
         <row r="1162">
           <cell r="C1162">
-            <v>15501002</v>
+            <v>15501001</v>
           </cell>
         </row>
         <row r="1163">
           <cell r="C1163">
-            <v>15501003</v>
+            <v>15501002</v>
           </cell>
         </row>
         <row r="1164">
           <cell r="C1164">
-            <v>15501004</v>
+            <v>15501003</v>
           </cell>
         </row>
         <row r="1165">
           <cell r="C1165">
-            <v>15501005</v>
+            <v>15501004</v>
           </cell>
         </row>
         <row r="1166">
           <cell r="C1166">
-            <v>15501006</v>
+            <v>15501005</v>
           </cell>
         </row>
         <row r="1167">
           <cell r="C1167">
-            <v>15502001</v>
+            <v>15501006</v>
           </cell>
         </row>
         <row r="1168">
           <cell r="C1168">
-            <v>15502002</v>
+            <v>15502001</v>
           </cell>
         </row>
         <row r="1169">
           <cell r="C1169">
-            <v>15502003</v>
+            <v>15502002</v>
           </cell>
         </row>
         <row r="1170">
           <cell r="C1170">
-            <v>15502004</v>
+            <v>15502003</v>
           </cell>
         </row>
         <row r="1171">
           <cell r="C1171">
-            <v>15502005</v>
+            <v>15502004</v>
           </cell>
         </row>
         <row r="1172">
           <cell r="C1172">
-            <v>15502006</v>
+            <v>15502005</v>
           </cell>
         </row>
         <row r="1173">
           <cell r="C1173">
-            <v>15503001</v>
+            <v>15502006</v>
           </cell>
         </row>
         <row r="1174">
           <cell r="C1174">
-            <v>15503002</v>
+            <v>15503001</v>
           </cell>
         </row>
         <row r="1175">
           <cell r="C1175">
-            <v>15503003</v>
+            <v>15503002</v>
           </cell>
         </row>
         <row r="1176">
           <cell r="C1176">
-            <v>15503004</v>
+            <v>15503003</v>
           </cell>
         </row>
         <row r="1177">
           <cell r="C1177">
-            <v>15503005</v>
+            <v>15503004</v>
           </cell>
         </row>
         <row r="1178">
           <cell r="C1178">
-            <v>15503006</v>
+            <v>15503005</v>
           </cell>
         </row>
         <row r="1179">
           <cell r="C1179">
-            <v>15503007</v>
+            <v>15503006</v>
           </cell>
         </row>
         <row r="1180">
           <cell r="C1180">
-            <v>15504001</v>
+            <v>15503007</v>
           </cell>
         </row>
         <row r="1181">
           <cell r="C1181">
-            <v>15504002</v>
+            <v>15504001</v>
           </cell>
         </row>
         <row r="1182">
           <cell r="C1182">
-            <v>15504003</v>
+            <v>15504002</v>
           </cell>
         </row>
         <row r="1183">
           <cell r="C1183">
-            <v>15504004</v>
+            <v>15504003</v>
           </cell>
         </row>
         <row r="1184">
           <cell r="C1184">
-            <v>15504005</v>
+            <v>15504004</v>
           </cell>
         </row>
         <row r="1185">
           <cell r="C1185">
-            <v>15504006</v>
+            <v>15504005</v>
           </cell>
         </row>
         <row r="1186">
           <cell r="C1186">
-            <v>15505001</v>
+            <v>15504006</v>
           </cell>
         </row>
         <row r="1187">
           <cell r="C1187">
-            <v>15505002</v>
+            <v>15505001</v>
           </cell>
         </row>
         <row r="1188">
           <cell r="C1188">
-            <v>15505003</v>
+            <v>15505002</v>
           </cell>
         </row>
         <row r="1189">
           <cell r="C1189">
-            <v>15505004</v>
+            <v>15505003</v>
           </cell>
         </row>
         <row r="1190">
           <cell r="C1190">
-            <v>15505005</v>
+            <v>15505004</v>
           </cell>
         </row>
         <row r="1191">
           <cell r="C1191">
-            <v>15505006</v>
+            <v>15505005</v>
           </cell>
         </row>
         <row r="1192">
           <cell r="C1192">
-            <v>15506001</v>
+            <v>15505006</v>
           </cell>
         </row>
         <row r="1193">
           <cell r="C1193">
-            <v>15506002</v>
+            <v>15506001</v>
           </cell>
         </row>
         <row r="1194">
           <cell r="C1194">
-            <v>15506003</v>
+            <v>15506002</v>
           </cell>
         </row>
         <row r="1195">
           <cell r="C1195">
-            <v>15507001</v>
+            <v>15506003</v>
           </cell>
         </row>
         <row r="1196">
           <cell r="C1196">
-            <v>15507002</v>
+            <v>15507001</v>
           </cell>
         </row>
         <row r="1197">
           <cell r="C1197">
-            <v>15507003</v>
+            <v>15507002</v>
           </cell>
         </row>
         <row r="1198">
           <cell r="C1198">
-            <v>15508001</v>
-          </cell>
-          <cell r="S1198">
-            <v>66001010</v>
+            <v>15507003</v>
           </cell>
         </row>
         <row r="1199">
           <cell r="C1199">
-            <v>15508002</v>
+            <v>15508001</v>
           </cell>
           <cell r="S1199">
-            <v>66001011</v>
+            <v>66001010</v>
           </cell>
         </row>
         <row r="1200">
           <cell r="C1200">
-            <v>15508003</v>
+            <v>15508002</v>
           </cell>
           <cell r="S1200">
-            <v>66001016</v>
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1201">
           <cell r="C1201">
-            <v>15509001</v>
+            <v>15508003</v>
+          </cell>
+          <cell r="S1201">
+            <v>66001016</v>
           </cell>
         </row>
         <row r="1202">
           <cell r="C1202">
-            <v>15509002</v>
+            <v>15509001</v>
           </cell>
         </row>
         <row r="1203">
           <cell r="C1203">
-            <v>15509003</v>
+            <v>15509002</v>
           </cell>
         </row>
         <row r="1204">
           <cell r="C1204">
-            <v>15510001</v>
+            <v>15509003</v>
           </cell>
         </row>
         <row r="1205">
           <cell r="C1205">
-            <v>15510002</v>
+            <v>15510001</v>
           </cell>
         </row>
         <row r="1206">
           <cell r="C1206">
-            <v>15510003</v>
+            <v>15510002</v>
           </cell>
         </row>
         <row r="1207">
           <cell r="C1207">
-            <v>15510004</v>
+            <v>15510003</v>
           </cell>
         </row>
         <row r="1208">
           <cell r="C1208">
-            <v>15510011</v>
+            <v>15510004</v>
           </cell>
         </row>
         <row r="1209">
           <cell r="C1209">
-            <v>15510012</v>
+            <v>15510011</v>
           </cell>
         </row>
         <row r="1210">
           <cell r="C1210">
-            <v>15510101</v>
+            <v>15510012</v>
           </cell>
         </row>
         <row r="1211">
           <cell r="C1211">
-            <v>15510102</v>
+            <v>15510101</v>
           </cell>
         </row>
         <row r="1212">
           <cell r="C1212">
-            <v>15510103</v>
+            <v>15510102</v>
           </cell>
         </row>
         <row r="1213">
           <cell r="C1213">
-            <v>15510104</v>
+            <v>15510103</v>
           </cell>
         </row>
         <row r="1214">
           <cell r="C1214">
-            <v>15510121</v>
-          </cell>
-          <cell r="S1214">
-            <v>69000011</v>
+            <v>15510104</v>
           </cell>
         </row>
         <row r="1215">
           <cell r="C1215">
-            <v>15510122</v>
+            <v>15510121</v>
+          </cell>
+          <cell r="S1215">
+            <v>69000011</v>
           </cell>
         </row>
         <row r="1216">
           <cell r="C1216">
-            <v>15511001</v>
+            <v>15510122</v>
           </cell>
         </row>
         <row r="1217">
           <cell r="C1217">
-            <v>15511002</v>
+            <v>15511001</v>
           </cell>
         </row>
         <row r="1218">
           <cell r="C1218">
-            <v>15511003</v>
+            <v>15511002</v>
           </cell>
         </row>
         <row r="1219">
           <cell r="C1219">
-            <v>15511004</v>
+            <v>15511003</v>
           </cell>
         </row>
         <row r="1220">
           <cell r="C1220">
-            <v>15511005</v>
+            <v>15511004</v>
           </cell>
         </row>
         <row r="1221">
           <cell r="C1221">
-            <v>15511006</v>
+            <v>15511005</v>
           </cell>
         </row>
         <row r="1222">
           <cell r="C1222">
-            <v>15511011</v>
-          </cell>
-          <cell r="S1222">
-            <v>69000012</v>
+            <v>15511006</v>
           </cell>
         </row>
         <row r="1223">
           <cell r="C1223">
-            <v>15511012</v>
+            <v>15511011</v>
+          </cell>
+          <cell r="S1223">
+            <v>69000012</v>
           </cell>
         </row>
         <row r="1224">
           <cell r="C1224">
-            <v>15511013</v>
+            <v>15511012</v>
           </cell>
         </row>
         <row r="1225">
           <cell r="C1225">
-            <v>15601001</v>
+            <v>15511013</v>
           </cell>
         </row>
         <row r="1226">
           <cell r="C1226">
-            <v>15601002</v>
+            <v>15601001</v>
           </cell>
         </row>
         <row r="1227">
           <cell r="C1227">
-            <v>15601003</v>
+            <v>15601002</v>
           </cell>
         </row>
         <row r="1228">
           <cell r="C1228">
-            <v>15602001</v>
+            <v>15601003</v>
           </cell>
         </row>
         <row r="1229">
           <cell r="C1229">
-            <v>15602002</v>
+            <v>15602001</v>
           </cell>
         </row>
         <row r="1230">
           <cell r="C1230">
-            <v>15602003</v>
+            <v>15602002</v>
           </cell>
         </row>
         <row r="1231">
           <cell r="C1231">
-            <v>15603001</v>
+            <v>15602003</v>
           </cell>
         </row>
         <row r="1232">
           <cell r="C1232">
-            <v>15603002</v>
+            <v>15603001</v>
           </cell>
         </row>
         <row r="1233">
           <cell r="C1233">
-            <v>15603003</v>
+            <v>15603002</v>
           </cell>
         </row>
         <row r="1234">
           <cell r="C1234">
-            <v>15604001</v>
+            <v>15603003</v>
           </cell>
         </row>
         <row r="1235">
           <cell r="C1235">
-            <v>15604002</v>
+            <v>15604001</v>
           </cell>
         </row>
         <row r="1236">
           <cell r="C1236">
-            <v>15604003</v>
+            <v>15604002</v>
           </cell>
         </row>
         <row r="1237">
           <cell r="C1237">
-            <v>15605001</v>
+            <v>15604003</v>
           </cell>
         </row>
         <row r="1238">
           <cell r="C1238">
-            <v>15605002</v>
+            <v>15605001</v>
           </cell>
         </row>
         <row r="1239">
           <cell r="C1239">
-            <v>15605003</v>
+            <v>15605002</v>
           </cell>
         </row>
         <row r="1240">
           <cell r="C1240">
-            <v>15606001</v>
+            <v>15605003</v>
           </cell>
         </row>
         <row r="1241">
           <cell r="C1241">
-            <v>15607001</v>
+            <v>15606001</v>
           </cell>
         </row>
         <row r="1242">
           <cell r="C1242">
-            <v>15608001</v>
-          </cell>
-          <cell r="S1242">
-            <v>66001011</v>
+            <v>15607001</v>
           </cell>
         </row>
         <row r="1243">
           <cell r="C1243">
-            <v>15609001</v>
+            <v>15608001</v>
+          </cell>
+          <cell r="S1243">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1244">
           <cell r="C1244">
-            <v>15610001</v>
+            <v>15609001</v>
           </cell>
         </row>
         <row r="1245">
           <cell r="C1245">
-            <v>15610002</v>
+            <v>15610001</v>
           </cell>
         </row>
         <row r="1246">
           <cell r="C1246">
-            <v>15610101</v>
+            <v>15610002</v>
           </cell>
         </row>
         <row r="1247">
           <cell r="C1247">
-            <v>15610102</v>
+            <v>15610101</v>
           </cell>
         </row>
         <row r="1248">
           <cell r="C1248">
-            <v>15611001</v>
+            <v>15610102</v>
           </cell>
         </row>
         <row r="1249">
           <cell r="C1249">
-            <v>15611002</v>
+            <v>15611001</v>
           </cell>
         </row>
         <row r="1250">
           <cell r="C1250">
-            <v>15611003</v>
+            <v>15611002</v>
           </cell>
         </row>
         <row r="1251">
           <cell r="C1251">
-            <v>15701001</v>
+            <v>15611003</v>
           </cell>
         </row>
         <row r="1252">
           <cell r="C1252">
-            <v>15701002</v>
+            <v>15701001</v>
           </cell>
         </row>
         <row r="1253">
           <cell r="C1253">
-            <v>15701003</v>
+            <v>15701002</v>
           </cell>
         </row>
         <row r="1254">
           <cell r="C1254">
-            <v>15702001</v>
+            <v>15701003</v>
           </cell>
         </row>
         <row r="1255">
           <cell r="C1255">
-            <v>15702002</v>
+            <v>15702001</v>
           </cell>
         </row>
         <row r="1256">
           <cell r="C1256">
-            <v>15702003</v>
+            <v>15702002</v>
           </cell>
         </row>
         <row r="1257">
           <cell r="C1257">
-            <v>15703001</v>
+            <v>15702003</v>
           </cell>
         </row>
         <row r="1258">
           <cell r="C1258">
-            <v>15703002</v>
+            <v>15703001</v>
           </cell>
         </row>
         <row r="1259">
           <cell r="C1259">
-            <v>15703003</v>
+            <v>15703002</v>
           </cell>
         </row>
         <row r="1260">
           <cell r="C1260">
-            <v>15704001</v>
+            <v>15703003</v>
           </cell>
         </row>
         <row r="1261">
           <cell r="C1261">
-            <v>15704002</v>
+            <v>15704001</v>
           </cell>
         </row>
         <row r="1262">
           <cell r="C1262">
-            <v>15704003</v>
+            <v>15704002</v>
           </cell>
         </row>
         <row r="1263">
           <cell r="C1263">
-            <v>15705001</v>
+            <v>15704003</v>
           </cell>
         </row>
         <row r="1264">
           <cell r="C1264">
-            <v>15705002</v>
+            <v>15705001</v>
           </cell>
         </row>
         <row r="1265">
           <cell r="C1265">
-            <v>15705003</v>
+            <v>15705002</v>
           </cell>
         </row>
         <row r="1266">
           <cell r="C1266">
-            <v>15706001</v>
+            <v>15705003</v>
           </cell>
         </row>
         <row r="1267">
           <cell r="C1267">
-            <v>15707001</v>
+            <v>15706001</v>
           </cell>
         </row>
         <row r="1268">
           <cell r="C1268">
-            <v>15708001</v>
-          </cell>
-          <cell r="S1268">
-            <v>66001011</v>
+            <v>15707001</v>
           </cell>
         </row>
         <row r="1269">
           <cell r="C1269">
-            <v>15709001</v>
+            <v>15708001</v>
+          </cell>
+          <cell r="S1269">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1270">
           <cell r="C1270">
-            <v>15710001</v>
+            <v>15709001</v>
           </cell>
         </row>
         <row r="1271">
           <cell r="C1271">
-            <v>15710002</v>
+            <v>15710001</v>
           </cell>
         </row>
         <row r="1272">
           <cell r="C1272">
-            <v>15710101</v>
+            <v>15710002</v>
           </cell>
         </row>
         <row r="1273">
           <cell r="C1273">
-            <v>15710102</v>
+            <v>15710101</v>
           </cell>
         </row>
         <row r="1274">
           <cell r="C1274">
-            <v>15711001</v>
+            <v>15710102</v>
           </cell>
         </row>
         <row r="1275">
           <cell r="C1275">
-            <v>15711002</v>
+            <v>15711001</v>
           </cell>
         </row>
         <row r="1276">
           <cell r="C1276">
-            <v>15711003</v>
+            <v>15711002</v>
           </cell>
         </row>
         <row r="1277">
           <cell r="C1277">
-            <v>16000101</v>
+            <v>15711003</v>
           </cell>
         </row>
         <row r="1278">
           <cell r="C1278">
-            <v>16000102</v>
+            <v>16000101</v>
           </cell>
         </row>
         <row r="1279">
           <cell r="C1279">
-            <v>16000103</v>
+            <v>16000102</v>
           </cell>
         </row>
         <row r="1280">
           <cell r="C1280">
-            <v>16000104</v>
+            <v>16000103</v>
           </cell>
         </row>
         <row r="1281">
           <cell r="C1281">
-            <v>16000105</v>
+            <v>16000104</v>
           </cell>
         </row>
         <row r="1282">
           <cell r="C1282">
-            <v>16000106</v>
+            <v>16000105</v>
           </cell>
         </row>
         <row r="1283">
           <cell r="C1283">
-            <v>16000107</v>
+            <v>16000106</v>
           </cell>
         </row>
         <row r="1284">
           <cell r="C1284">
-            <v>16000108</v>
+            <v>16000107</v>
           </cell>
         </row>
         <row r="1285">
           <cell r="C1285">
-            <v>16000109</v>
+            <v>16000108</v>
           </cell>
         </row>
         <row r="1286">
           <cell r="C1286">
-            <v>16000110</v>
+            <v>16000109</v>
           </cell>
         </row>
         <row r="1287">
           <cell r="C1287">
-            <v>16000111</v>
+            <v>16000110</v>
           </cell>
         </row>
         <row r="1288">
           <cell r="C1288">
-            <v>16000112</v>
+            <v>16000111</v>
           </cell>
         </row>
         <row r="1289">
           <cell r="C1289">
-            <v>16000201</v>
+            <v>16000112</v>
           </cell>
         </row>
         <row r="1290">
           <cell r="C1290">
-            <v>16000202</v>
+            <v>16000201</v>
           </cell>
         </row>
         <row r="1291">
           <cell r="C1291">
-            <v>16000203</v>
+            <v>16000202</v>
           </cell>
         </row>
         <row r="1292">
           <cell r="C1292">
-            <v>16000204</v>
+            <v>16000203</v>
           </cell>
         </row>
         <row r="1293">
           <cell r="C1293">
-            <v>16000205</v>
+            <v>16000204</v>
           </cell>
         </row>
         <row r="1294">
           <cell r="C1294">
-            <v>16000206</v>
+            <v>16000205</v>
           </cell>
         </row>
         <row r="1295">
           <cell r="C1295">
-            <v>16000207</v>
+            <v>16000206</v>
           </cell>
         </row>
         <row r="1296">
           <cell r="C1296">
-            <v>16000208</v>
+            <v>16000207</v>
           </cell>
         </row>
         <row r="1297">
           <cell r="C1297">
-            <v>16000209</v>
+            <v>16000208</v>
           </cell>
         </row>
         <row r="1298">
           <cell r="C1298">
-            <v>16000210</v>
+            <v>16000209</v>
           </cell>
         </row>
         <row r="1299">
           <cell r="C1299">
-            <v>16000211</v>
+            <v>16000210</v>
           </cell>
         </row>
         <row r="1300">
           <cell r="C1300">
-            <v>16000212</v>
+            <v>16000211</v>
           </cell>
         </row>
         <row r="1301">
           <cell r="C1301">
-            <v>16000301</v>
+            <v>16000212</v>
           </cell>
         </row>
         <row r="1302">
           <cell r="C1302">
-            <v>16000302</v>
+            <v>16000301</v>
           </cell>
         </row>
         <row r="1303">
           <cell r="C1303">
-            <v>16000303</v>
+            <v>16000302</v>
           </cell>
         </row>
         <row r="1304">
           <cell r="C1304">
-            <v>16000304</v>
+            <v>16000303</v>
           </cell>
         </row>
         <row r="1305">
           <cell r="C1305">
-            <v>16000305</v>
+            <v>16000304</v>
           </cell>
         </row>
         <row r="1306">
           <cell r="C1306">
-            <v>16000306</v>
+            <v>16000305</v>
           </cell>
         </row>
         <row r="1307">
           <cell r="C1307">
+            <v>16000306</v>
+          </cell>
+        </row>
+        <row r="1308">
+          <cell r="C1308">
             <v>16000307</v>
           </cell>
         </row>
@@ -50475,7 +50480,7 @@
       <c r="J3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="90" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="63" t="s">
@@ -50539,7 +50544,7 @@
       <c r="I4" s="73">
         <v>10002</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="63" t="s">
         <v>60</v>
       </c>
@@ -50594,7 +50599,7 @@
       <c r="AW4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" s="89" t="s">
+      <c r="AX4" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AY4" s="63" t="s">
@@ -50623,7 +50628,7 @@
       <c r="I5" s="73">
         <v>10003</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="63" t="s">
         <v>74</v>
       </c>
@@ -50675,7 +50680,7 @@
       <c r="AV5" s="63">
         <v>10002</v>
       </c>
-      <c r="AX5" s="89"/>
+      <c r="AX5" s="90"/>
       <c r="AY5" s="63" t="s">
         <v>60</v>
       </c>
@@ -50700,7 +50705,7 @@
       <c r="I6" s="73">
         <v>10011</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="90" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="63" t="s">
@@ -50730,7 +50735,7 @@
       <c r="AV6" s="63">
         <v>10003</v>
       </c>
-      <c r="AX6" s="89"/>
+      <c r="AX6" s="90"/>
       <c r="AY6" s="63" t="s">
         <v>74</v>
       </c>
@@ -50760,7 +50765,7 @@
       <c r="I7" s="73">
         <v>10012</v>
       </c>
-      <c r="K7" s="89"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="63" t="s">
         <v>60</v>
       </c>
@@ -50806,7 +50811,7 @@
       <c r="AV7" s="63">
         <v>10011</v>
       </c>
-      <c r="AX7" s="89" t="s">
+      <c r="AX7" s="90" t="s">
         <v>90</v>
       </c>
       <c r="AY7" s="63" t="s">
@@ -50835,7 +50840,7 @@
       <c r="I8" s="73">
         <v>10013</v>
       </c>
-      <c r="K8" s="89"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="63" t="s">
         <v>74</v>
       </c>
@@ -50875,7 +50880,7 @@
       <c r="AV8" s="63">
         <v>10012</v>
       </c>
-      <c r="AX8" s="89"/>
+      <c r="AX8" s="90"/>
       <c r="AY8" s="63" t="s">
         <v>60</v>
       </c>
@@ -50891,7 +50896,7 @@
       <c r="I9" s="73">
         <v>10021</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="90" t="s">
         <v>124</v>
       </c>
       <c r="L9" s="63" t="s">
@@ -50915,7 +50920,7 @@
       <c r="AV9" s="63">
         <v>10013</v>
       </c>
-      <c r="AX9" s="89"/>
+      <c r="AX9" s="90"/>
       <c r="AY9" s="63" t="s">
         <v>74</v>
       </c>
@@ -50942,7 +50947,7 @@
       <c r="I10" s="73">
         <v>10022</v>
       </c>
-      <c r="K10" s="89"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="63" t="s">
         <v>60</v>
       </c>
@@ -50986,7 +50991,7 @@
       <c r="AV10" s="63">
         <v>10021</v>
       </c>
-      <c r="AX10" s="89" t="s">
+      <c r="AX10" s="90" t="s">
         <v>124</v>
       </c>
       <c r="AY10" s="63" t="s">
@@ -51015,7 +51020,7 @@
       <c r="I11" s="73">
         <v>10023</v>
       </c>
-      <c r="K11" s="89"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="63" t="s">
         <v>74</v>
       </c>
@@ -51067,7 +51072,7 @@
       <c r="AV11" s="63">
         <v>10022</v>
       </c>
-      <c r="AX11" s="89"/>
+      <c r="AX11" s="90"/>
       <c r="AY11" s="63" t="s">
         <v>60</v>
       </c>
@@ -51084,7 +51089,7 @@
       <c r="I12" s="73">
         <v>10031</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="90" t="s">
         <v>156</v>
       </c>
       <c r="L12" s="63" t="s">
@@ -51117,7 +51122,7 @@
       <c r="AV12" s="63">
         <v>10023</v>
       </c>
-      <c r="AX12" s="89"/>
+      <c r="AX12" s="90"/>
       <c r="AY12" s="63" t="s">
         <v>74</v>
       </c>
@@ -51137,7 +51142,7 @@
       <c r="I13" s="73">
         <v>10032</v>
       </c>
-      <c r="K13" s="89"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="63" t="s">
         <v>60</v>
       </c>
@@ -51165,7 +51170,7 @@
       <c r="AV13" s="63">
         <v>10031</v>
       </c>
-      <c r="AX13" s="89" t="s">
+      <c r="AX13" s="90" t="s">
         <v>156</v>
       </c>
       <c r="AY13" s="63" t="s">
@@ -51198,7 +51203,7 @@
       <c r="I14" s="73">
         <v>10033</v>
       </c>
-      <c r="K14" s="89"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="63" t="s">
         <v>74</v>
       </c>
@@ -51229,7 +51234,7 @@
       <c r="AV14" s="63">
         <v>10032</v>
       </c>
-      <c r="AX14" s="89"/>
+      <c r="AX14" s="90"/>
       <c r="AY14" s="63" t="s">
         <v>60</v>
       </c>
@@ -51254,7 +51259,7 @@
       <c r="I15" s="73">
         <v>10041</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K15" s="90" t="s">
         <v>185</v>
       </c>
       <c r="L15" s="63" t="s">
@@ -51284,7 +51289,7 @@
       <c r="AV15" s="63">
         <v>10033</v>
       </c>
-      <c r="AX15" s="89"/>
+      <c r="AX15" s="90"/>
       <c r="AY15" s="63" t="s">
         <v>74</v>
       </c>
@@ -51309,7 +51314,7 @@
       <c r="I16" s="73">
         <v>10042</v>
       </c>
-      <c r="K16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="63" t="s">
         <v>60</v>
       </c>
@@ -51337,7 +51342,7 @@
       <c r="AV16" s="63">
         <v>10041</v>
       </c>
-      <c r="AX16" s="89" t="s">
+      <c r="AX16" s="90" t="s">
         <v>185</v>
       </c>
       <c r="AY16" s="63" t="s">
@@ -51364,7 +51369,7 @@
       <c r="I17" s="73">
         <v>10043</v>
       </c>
-      <c r="K17" s="89"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="63" t="s">
         <v>74</v>
       </c>
@@ -51387,7 +51392,7 @@
       <c r="AV17" s="63">
         <v>10042</v>
       </c>
-      <c r="AX17" s="89"/>
+      <c r="AX17" s="90"/>
       <c r="AY17" s="63" t="s">
         <v>60</v>
       </c>
@@ -51412,7 +51417,7 @@
       <c r="I18" s="63">
         <v>10051</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="90" t="s">
         <v>207</v>
       </c>
       <c r="L18" s="63" t="s">
@@ -51448,7 +51453,7 @@
       <c r="AV18" s="63">
         <v>10043</v>
       </c>
-      <c r="AX18" s="89"/>
+      <c r="AX18" s="90"/>
       <c r="AY18" s="63" t="s">
         <v>74</v>
       </c>
@@ -51470,7 +51475,7 @@
       <c r="I19" s="63">
         <v>10052</v>
       </c>
-      <c r="K19" s="89"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="63" t="s">
         <v>60</v>
       </c>
@@ -51504,7 +51509,7 @@
       <c r="AV19" s="63">
         <v>10051</v>
       </c>
-      <c r="AX19" s="89" t="s">
+      <c r="AX19" s="90" t="s">
         <v>207</v>
       </c>
       <c r="AY19" s="63" t="s">
@@ -51521,7 +51526,7 @@
       <c r="I20" s="63">
         <v>10053</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="63" t="s">
         <v>74</v>
       </c>
@@ -51552,7 +51557,7 @@
       <c r="AV20" s="63">
         <v>10052</v>
       </c>
-      <c r="AX20" s="89"/>
+      <c r="AX20" s="90"/>
       <c r="AY20" s="63" t="s">
         <v>60</v>
       </c>
@@ -51581,7 +51586,7 @@
         <v>10051</v>
       </c>
       <c r="J21" s="65"/>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="91" t="s">
         <v>236</v>
       </c>
       <c r="L21" s="65" t="s">
@@ -51608,7 +51613,7 @@
       <c r="AV21" s="63">
         <v>10053</v>
       </c>
-      <c r="AX21" s="89"/>
+      <c r="AX21" s="90"/>
       <c r="AY21" s="63" t="s">
         <v>74</v>
       </c>
@@ -51634,7 +51639,7 @@
         <v>10052</v>
       </c>
       <c r="J22" s="65"/>
-      <c r="K22" s="90"/>
+      <c r="K22" s="91"/>
       <c r="L22" s="65" t="s">
         <v>60</v>
       </c>
@@ -51658,7 +51663,7 @@
         <v>10051</v>
       </c>
       <c r="AW22" s="65"/>
-      <c r="AX22" s="90" t="s">
+      <c r="AX22" s="91" t="s">
         <v>236</v>
       </c>
       <c r="AY22" s="65" t="s">
@@ -51693,7 +51698,7 @@
         <v>10053</v>
       </c>
       <c r="J23" s="65"/>
-      <c r="K23" s="90"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="65" t="s">
         <v>74</v>
       </c>
@@ -51727,7 +51732,7 @@
         <v>10052</v>
       </c>
       <c r="AW23" s="65"/>
-      <c r="AX23" s="90"/>
+      <c r="AX23" s="91"/>
       <c r="AY23" s="65" t="s">
         <v>60</v>
       </c>
@@ -51797,7 +51802,7 @@
         <v>10053</v>
       </c>
       <c r="AW24" s="65"/>
-      <c r="AX24" s="90"/>
+      <c r="AX24" s="91"/>
       <c r="AY24" s="65" t="s">
         <v>74</v>
       </c>
@@ -61316,7 +61321,7 @@
         <v>814</v>
       </c>
       <c r="P96" s="1">
-        <f>LOOKUP(Q96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(Q96,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>69000002</v>
       </c>
       <c r="Q96" s="1">
@@ -61331,7 +61336,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3">
-        <f>LOOKUP(W96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(W96,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="W96" s="1">
@@ -61346,7 +61351,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3">
-        <f>LOOKUP(AC96,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC96,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC96" s="1">
@@ -61395,7 +61400,7 @@
       </c>
       <c r="N97" s="5"/>
       <c r="P97" s="1">
-        <f>LOOKUP(Q97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(Q97,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="Q97" s="1">
@@ -61410,7 +61415,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3">
-        <f>LOOKUP(W97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(W97,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="W97" s="1">
@@ -61425,7 +61430,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3">
-        <f>LOOKUP(AC97,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC97,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC97" s="1">
@@ -61470,7 +61475,7 @@
       </c>
       <c r="N98" s="5"/>
       <c r="P98" s="1" t="e">
-        <f>LOOKUP(Q98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(Q98,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>#N/A</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -61482,7 +61487,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3">
-        <f>LOOKUP(W98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(W98,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="W98" s="1">
@@ -61497,7 +61502,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3">
-        <f>LOOKUP(AC98,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC98,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC98" s="1">
@@ -61546,7 +61551,7 @@
       </c>
       <c r="N99" s="5"/>
       <c r="P99" s="1">
-        <f>LOOKUP(Q99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(Q99,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="Q99" s="1">
@@ -61561,7 +61566,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3">
-        <f>LOOKUP(W99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(W99,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>69000010</v>
       </c>
       <c r="W99" s="1">
@@ -61576,7 +61581,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3">
-        <f>LOOKUP(AC99,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC99,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>69000013</v>
       </c>
       <c r="AC99" s="1">
@@ -61604,7 +61609,7 @@
       </c>
       <c r="N100" s="5"/>
       <c r="P100" s="1">
-        <f>LOOKUP(Q100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(Q100,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>69000011</v>
       </c>
       <c r="Q100" s="1">
@@ -61619,7 +61624,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3">
-        <f>LOOKUP(W100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(W100,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>69000012</v>
       </c>
       <c r="W100" s="1">
@@ -61634,7 +61639,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3">
-        <f>LOOKUP(AC100,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC100,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC100" s="1">
@@ -61680,7 +61685,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3">
-        <f>LOOKUP(AC101,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC101,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC101" s="1">
@@ -61837,7 +61842,7 @@
         <v>922</v>
       </c>
       <c r="AB105" s="3">
-        <f>LOOKUP(AC105,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC105,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC105" s="1">
@@ -61872,7 +61877,7 @@
       <c r="N106" s="5"/>
       <c r="R106" s="1"/>
       <c r="AB106" s="3">
-        <f>LOOKUP(AC106,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC106,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC106" s="1">
@@ -61906,7 +61911,7 @@
       </c>
       <c r="N107" s="5"/>
       <c r="AB107" s="3">
-        <f>LOOKUP(AC107,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC107,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC107" s="1">
@@ -61944,7 +61949,7 @@
       </c>
       <c r="N108" s="5"/>
       <c r="AB108" s="3">
-        <f>LOOKUP(AC108,[2]ItemProto!$C$847:$C$1307,[2]ItemProto!$S$847:$S$1307)</f>
+        <f>LOOKUP(AC108,[2]ItemProto!$C$848:$C$1308,[2]ItemProto!$S$848:$S$1308)</f>
         <v>0</v>
       </c>
       <c r="AC108" s="1">
@@ -63810,10 +63815,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DAE34-C06F-495E-8317-AB6E80129146}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -63826,16 +63831,16 @@
     <col min="14" max="14" width="9" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="N1" s="86"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I2" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="N2" s="86"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="H3" s="1" t="s">
         <v>2235</v>
       </c>
@@ -63850,7 +63855,7 @@
       </c>
       <c r="N3" s="86"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I4" s="1">
         <v>2</v>
       </c>
@@ -63859,7 +63864,7 @@
       </c>
       <c r="N4" s="86"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="1">
         <v>3</v>
       </c>
@@ -63870,8 +63875,17 @@
         <v>2239</v>
       </c>
       <c r="N5" s="86"/>
-    </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="P5" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I6" s="1">
         <v>4</v>
       </c>
@@ -63880,7 +63894,7 @@
       </c>
       <c r="N6" s="86"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I7" s="1">
         <v>5</v>
       </c>
@@ -63892,7 +63906,7 @@
       </c>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I8" s="1">
         <v>6</v>
       </c>
@@ -63904,7 +63918,7 @@
       </c>
       <c r="N8" s="86"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I9" s="1">
         <v>7</v>
       </c>
@@ -63916,7 +63930,7 @@
       </c>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I10" s="1">
         <v>8</v>
       </c>
@@ -63928,31 +63942,22 @@
       </c>
       <c r="N10" s="86"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="I11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>2243</v>
+        <v>2251</v>
       </c>
       <c r="N11" s="86"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>2251</v>
-      </c>
+    <row r="12" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J13" s="1" t="s">
         <v>2246</v>
       </c>
@@ -63961,10 +63966,10 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J15" s="1" t="s">
         <v>2259</v>
       </c>
@@ -63975,7 +63980,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="85" t="s">
         <v>172</v>
       </c>
@@ -64202,7 +64207,7 @@
       <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="89" t="s">
         <v>2323</v>
       </c>
       <c r="G32" s="1">

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00B373-1EBA-485B-A62F-00169E364C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038EA5C-EFEE-4CC9-8811-87C0321A6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="2329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="2342">
   <si>
     <t>人物属性</t>
   </si>
@@ -7343,6 +7343,46 @@
   </si>
   <si>
     <t>强化体质</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>武者可带拳套1技能八极崩对自身周围造成伤害并晕眩一秒2技能直冲拳，对直线距离敌人造成伤害3技能瞬身位移一大段距离，并使下次攻击必定暴击或者手环转职御气师手环专精（远程全力）视野拉远一点普攻距离远一点不然普攻没啥用:职业专精气功大师:普通攻击无视10%防御。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大师光环，增加百分50%攻击速度  </t>
+  </si>
+  <si>
+    <t>1技能震荡波:对前方发射一道拳印造成伤害和击退效果</t>
+  </si>
+  <si>
+    <t>2技能年轻人好之为之:范围内双方不能使用技能。</t>
+  </si>
+  <si>
+    <t>3技能:气功波，对前方发射5枚光波每枚60%普攻伤害命中敌人解除4技能限制（此技能为普攻可在2技能范围内释放）</t>
+  </si>
+  <si>
+    <t>4技能:孤注一掷:对目标敌人发射巨型气功波造成10倍普攻伤害，并击溃敌方筋脉使敌方每秒持续掉20%普攻伤害血量，持续6秒。</t>
+  </si>
+  <si>
+    <t>武者带手环（远程）1技能气旋击对前方发射光波命中禁锢敌人3秒2技能回天牵引周围敌人造成伤害3技能同上</t>
+  </si>
+  <si>
+    <t>那就射手转职。冰之子:职业专精每次普通攻击以敌方数量最多发射5枚箭矢。30%连续普攻两次。冰之力:每次普攻5%概率冰冻敌人一秒。4个技能:</t>
+  </si>
+  <si>
+    <t>1技能寒冰箭:向前方发射一枚巨大的寒冰箭矢，命中敌人造成50%减速并冰冻敌方一秒。</t>
+  </si>
+  <si>
+    <t>2技能:寒霜之力，技能持续时间普攻攻击增加100%伤害。</t>
+  </si>
+  <si>
+    <t>3技能:箭雨。对前方区域发射6秒箭雨每秒持续100%伤害。</t>
+  </si>
+  <si>
+    <t>4技能:万箭归一:2秒内对敌方一个单位发射10枚箭矢，每枚造成50%攻击伤害。该攻击属于普攻可以吃被动和2技能加成。</t>
+  </si>
+  <si>
+    <t>新职业技能建议</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -11363,7 +11403,7 @@
   <dimension ref="B1:W70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:O5"/>
+      <selection activeCell="K5" sqref="K5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -50387,8 +50427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS80"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BM5" sqref="BM5"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BL16" sqref="BL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51003,6 +51043,9 @@
       <c r="BA10" s="67" t="s">
         <v>142</v>
       </c>
+      <c r="BO10" s="73" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="11" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="63" t="s">
@@ -51082,6 +51125,7 @@
       <c r="BA11" s="67" t="s">
         <v>155</v>
       </c>
+      <c r="BO11" s="73"/>
     </row>
     <row r="12" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="G12" s="67"/>
@@ -51132,6 +51176,9 @@
       <c r="BA12" s="67" t="s">
         <v>164</v>
       </c>
+      <c r="BO12" s="71" t="s">
+        <v>2329</v>
+      </c>
     </row>
     <row r="13" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="63" t="s">
@@ -51182,6 +51229,9 @@
       <c r="BA13" s="67" t="s">
         <v>171</v>
       </c>
+      <c r="BO13" s="71" t="s">
+        <v>2330</v>
+      </c>
     </row>
     <row r="14" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="68" t="s">
@@ -51244,6 +51294,9 @@
       <c r="BA14" s="67" t="s">
         <v>182</v>
       </c>
+      <c r="BO14" s="71" t="s">
+        <v>2331</v>
+      </c>
     </row>
     <row r="15" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="D15" s="63">
@@ -51299,6 +51352,9 @@
       <c r="BA15" s="67" t="s">
         <v>191</v>
       </c>
+      <c r="BO15" s="71" t="s">
+        <v>2332</v>
+      </c>
     </row>
     <row r="16" spans="2:71" ht="20.100000000000001" customHeight="1">
       <c r="D16" s="63">
@@ -51354,8 +51410,11 @@
       <c r="BA16" s="67" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO16" s="71" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D17" s="63">
         <v>35</v>
       </c>
@@ -51402,8 +51461,11 @@
       <c r="BA17" s="67" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO17" s="71" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="18" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D18" s="63" t="s">
         <v>119</v>
       </c>
@@ -51463,8 +51525,9 @@
       <c r="BA18" s="67" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="19" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO18" s="71"/>
+    </row>
+    <row r="19" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="F19" s="63" t="s">
         <v>128</v>
       </c>
@@ -51521,8 +51584,11 @@
       <c r="BA19" s="67" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="20" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO19" s="71" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="I20" s="63">
         <v>10053</v>
       </c>
@@ -51567,8 +51633,9 @@
       <c r="BA20" s="67" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO20" s="71"/>
+    </row>
+    <row r="21" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="68" t="s">
         <v>233</v>
       </c>
@@ -51623,8 +51690,11 @@
       <c r="BA21" s="67" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO21" s="71" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D22" s="63">
         <v>25</v>
       </c>
@@ -51682,8 +51752,11 @@
       <c r="BF22" s="65"/>
       <c r="BG22" s="65"/>
       <c r="BH22" s="65"/>
-    </row>
-    <row r="23" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO22" s="71" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D23" s="63">
         <v>30</v>
       </c>
@@ -51749,8 +51822,11 @@
       <c r="BF23" s="65"/>
       <c r="BG23" s="65"/>
       <c r="BH23" s="65"/>
-    </row>
-    <row r="24" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO23" s="71" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="24" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D24" s="63">
         <v>35</v>
       </c>
@@ -51819,8 +51895,11 @@
       <c r="BF24" s="65"/>
       <c r="BG24" s="65"/>
       <c r="BH24" s="65"/>
-    </row>
-    <row r="25" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO24" s="71" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="25" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D25" s="63" t="s">
         <v>119</v>
       </c>
@@ -51877,8 +51956,11 @@
       <c r="BA25" s="63" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="2:60" ht="20.100000000000001" customHeight="1">
+      <c r="BO25" s="71" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="F26" s="63" t="s">
         <v>128</v>
       </c>
@@ -51946,7 +52028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="K27" s="71" t="s">
         <v>270</v>
       </c>
@@ -52014,7 +52096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="68" t="s">
         <v>276</v>
       </c>
@@ -52084,7 +52166,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D29" s="63">
         <v>25</v>
       </c>
@@ -52148,7 +52230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D30" s="63">
         <v>30</v>
       </c>
@@ -52173,7 +52255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D31" s="63">
         <v>35</v>
       </c>
@@ -52213,7 +52295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:60" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:67" ht="20.100000000000001" customHeight="1">
       <c r="D32" s="63" t="s">
         <v>119</v>
       </c>
@@ -63817,8 +63899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DAE34-C06F-495E-8317-AB6E80129146}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038EA5C-EFEE-4CC9-8811-87C0321A6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983D06D-474B-416F-BFAB-81B277C18105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8727,11 +8727,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="260">
-          <cell r="C260">
-            <v>10032008</v>
-          </cell>
-        </row>
         <row r="848">
           <cell r="C848">
             <v>13005102</v>
@@ -50428,7 +50423,7 @@
   <dimension ref="A1:BS80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BL16" sqref="BL16"/>
+      <selection activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983D06D-474B-416F-BFAB-81B277C18105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F66019-524D-40BE-B154-A9AF18892478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -8727,6 +8727,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="260">
+          <cell r="C260">
+            <v>10032008</v>
+          </cell>
+        </row>
         <row r="848">
           <cell r="C848">
             <v>13005102</v>
@@ -50423,7 +50428,7 @@
   <dimension ref="A1:BS80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BJ16" sqref="BJ16"/>
+      <selection activeCell="BD23" sqref="BD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F66019-524D-40BE-B154-A9AF18892478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87E2A8-44B5-425A-A51E-AAAF06CBC8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -50427,8 +50427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD23" sqref="BD23"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="CA4" sqref="CA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0F77A-B933-4A64-AC40-29C813ECB85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC42DD4-A647-4C65-A32D-4F2238EA6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="2409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="2411">
   <si>
     <t>人物属性</t>
   </si>
@@ -7531,6 +7531,13 @@
     <t>活体炸弹技能</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>每损失10%生命额外附加5%魔法抗性</t>
+  </si>
+  <si>
+    <t>装备效果</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7539,7 +7546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7770,6 +7777,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -7947,7 +7960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8205,6 +8218,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -50564,8 +50578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ30" workbookViewId="0">
-      <selection activeCell="BV42" sqref="BV36:CF42"/>
+    <sheetView tabSelected="1" topLeftCell="BJ42" workbookViewId="0">
+      <selection activeCell="BQ62" sqref="BQ62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -53495,6 +53509,12 @@
       </c>
       <c r="D59" s="71" t="s">
         <v>403</v>
+      </c>
+      <c r="BM59" s="67" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BN59" s="91" t="s">
+        <v>2409</v>
       </c>
       <c r="BY59" s="75" t="s">
         <v>368</v>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC42DD4-A647-4C65-A32D-4F2238EA6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EB3D1-DD41-49FA-BE1E-80C4EC2CE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50578,8 +50578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ42" workbookViewId="0">
-      <selection activeCell="BQ62" sqref="BQ62"/>
+    <sheetView tabSelected="1" topLeftCell="BJ25" workbookViewId="0">
+      <selection activeCell="BU36" sqref="BU36:CF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EB3D1-DD41-49FA-BE1E-80C4EC2CE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712288FC-5B06-4F20-9042-FF77B055E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="2436">
   <si>
     <t>人物属性</t>
   </si>
@@ -7536,6 +7536,106 @@
   </si>
   <si>
     <t>装备效果</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>小虎</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼先生</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒龟</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力星星</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪吃松鼠</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心蜗牛</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙蛙</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>20秒变身一次</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方进行跳跃</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围的敌人进行击退</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>别跑太远</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个目标强制拉回到你的身边</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>甩尾</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷松果</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域进行投掷陷阱,对触碰的玩家造成3秒眩晕</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域的玩家进行击退</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近单位进行眩晕5秒</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒吼</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近单位造成50%的减速效果</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -8212,13 +8312,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -50578,8 +50678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ25" workbookViewId="0">
-      <selection activeCell="BU36" sqref="BU36:CF42"/>
+    <sheetView tabSelected="1" topLeftCell="BJ58" workbookViewId="0">
+      <selection activeCell="BR69" sqref="BR69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -50611,7 +50711,9 @@
     <col min="45" max="45" width="82.375" style="67" customWidth="1"/>
     <col min="46" max="65" width="9" style="67"/>
     <col min="66" max="66" width="11" style="67" customWidth="1"/>
-    <col min="67" max="74" width="9" style="67"/>
+    <col min="67" max="69" width="9" style="67"/>
+    <col min="70" max="70" width="11.375" style="67" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="9" style="67"/>
     <col min="75" max="76" width="11.375" style="67" customWidth="1"/>
     <col min="77" max="77" width="9" style="67"/>
     <col min="78" max="78" width="15.375" style="67" customWidth="1"/>
@@ -50680,7 +50782,7 @@
       <c r="J3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="90" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="67" t="s">
@@ -50762,7 +50864,7 @@
       <c r="I4" s="77">
         <v>10002</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="67" t="s">
         <v>60</v>
       </c>
@@ -50817,7 +50919,7 @@
       <c r="AW4" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" s="89" t="s">
+      <c r="AX4" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AY4" s="67" t="s">
@@ -50867,7 +50969,7 @@
       <c r="I5" s="77">
         <v>10003</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="67" t="s">
         <v>77</v>
       </c>
@@ -50919,7 +51021,7 @@
       <c r="AV5" s="67">
         <v>10002</v>
       </c>
-      <c r="AX5" s="89"/>
+      <c r="AX5" s="90"/>
       <c r="AY5" s="67" t="s">
         <v>60</v>
       </c>
@@ -50959,7 +51061,7 @@
       <c r="I6" s="77">
         <v>10011</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="90" t="s">
         <v>93</v>
       </c>
       <c r="L6" s="67" t="s">
@@ -50989,7 +51091,7 @@
       <c r="AV6" s="67">
         <v>10003</v>
       </c>
-      <c r="AX6" s="89"/>
+      <c r="AX6" s="90"/>
       <c r="AY6" s="67" t="s">
         <v>77</v>
       </c>
@@ -51019,7 +51121,7 @@
       <c r="I7" s="77">
         <v>10012</v>
       </c>
-      <c r="K7" s="89"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="67" t="s">
         <v>60</v>
       </c>
@@ -51065,7 +51167,7 @@
       <c r="AV7" s="67">
         <v>10011</v>
       </c>
-      <c r="AX7" s="89" t="s">
+      <c r="AX7" s="90" t="s">
         <v>93</v>
       </c>
       <c r="AY7" s="67" t="s">
@@ -51109,7 +51211,7 @@
       <c r="I8" s="77">
         <v>10013</v>
       </c>
-      <c r="K8" s="89"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="67" t="s">
         <v>77</v>
       </c>
@@ -51149,7 +51251,7 @@
       <c r="AV8" s="67">
         <v>10012</v>
       </c>
-      <c r="AX8" s="89"/>
+      <c r="AX8" s="90"/>
       <c r="AY8" s="67" t="s">
         <v>60</v>
       </c>
@@ -51183,7 +51285,7 @@
       <c r="I9" s="77">
         <v>10021</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="90" t="s">
         <v>130</v>
       </c>
       <c r="L9" s="67" t="s">
@@ -51207,7 +51309,7 @@
       <c r="AV9" s="67">
         <v>10013</v>
       </c>
-      <c r="AX9" s="89"/>
+      <c r="AX9" s="90"/>
       <c r="AY9" s="67" t="s">
         <v>77</v>
       </c>
@@ -51237,7 +51339,7 @@
       <c r="I10" s="77">
         <v>10022</v>
       </c>
-      <c r="K10" s="89"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="67" t="s">
         <v>60</v>
       </c>
@@ -51281,7 +51383,7 @@
       <c r="AV10" s="67">
         <v>10021</v>
       </c>
-      <c r="AX10" s="89" t="s">
+      <c r="AX10" s="90" t="s">
         <v>130</v>
       </c>
       <c r="AY10" s="67" t="s">
@@ -51311,7 +51413,7 @@
       <c r="I11" s="77">
         <v>10023</v>
       </c>
-      <c r="K11" s="89"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="67" t="s">
         <v>77</v>
       </c>
@@ -51363,7 +51465,7 @@
       <c r="AV11" s="67">
         <v>10022</v>
       </c>
-      <c r="AX11" s="89"/>
+      <c r="AX11" s="90"/>
       <c r="AY11" s="67" t="s">
         <v>60</v>
       </c>
@@ -51402,7 +51504,7 @@
       <c r="I12" s="77">
         <v>10031</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="90" t="s">
         <v>164</v>
       </c>
       <c r="L12" s="67" t="s">
@@ -51435,7 +51537,7 @@
       <c r="AV12" s="67">
         <v>10023</v>
       </c>
-      <c r="AX12" s="89"/>
+      <c r="AX12" s="90"/>
       <c r="AY12" s="67" t="s">
         <v>77</v>
       </c>
@@ -51479,7 +51581,7 @@
       <c r="I13" s="77">
         <v>10032</v>
       </c>
-      <c r="K13" s="89"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="67" t="s">
         <v>60</v>
       </c>
@@ -51507,7 +51609,7 @@
       <c r="AV13" s="67">
         <v>10031</v>
       </c>
-      <c r="AX13" s="89" t="s">
+      <c r="AX13" s="90" t="s">
         <v>164</v>
       </c>
       <c r="AY13" s="67" t="s">
@@ -51552,7 +51654,7 @@
       <c r="I14" s="77">
         <v>10033</v>
       </c>
-      <c r="K14" s="89"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="67" t="s">
         <v>77</v>
       </c>
@@ -51583,7 +51685,7 @@
       <c r="AV14" s="67">
         <v>10032</v>
       </c>
-      <c r="AX14" s="89"/>
+      <c r="AX14" s="90"/>
       <c r="AY14" s="67" t="s">
         <v>60</v>
       </c>
@@ -51621,7 +51723,7 @@
       <c r="I15" s="77">
         <v>10041</v>
       </c>
-      <c r="K15" s="89" t="s">
+      <c r="K15" s="90" t="s">
         <v>198</v>
       </c>
       <c r="L15" s="67" t="s">
@@ -51651,7 +51753,7 @@
       <c r="AV15" s="67">
         <v>10033</v>
       </c>
-      <c r="AX15" s="89"/>
+      <c r="AX15" s="90"/>
       <c r="AY15" s="67" t="s">
         <v>77</v>
       </c>
@@ -51688,7 +51790,7 @@
       <c r="I16" s="77">
         <v>10042</v>
       </c>
-      <c r="K16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="67" t="s">
         <v>60</v>
       </c>
@@ -51716,7 +51818,7 @@
       <c r="AV16" s="67">
         <v>10041</v>
       </c>
-      <c r="AX16" s="89" t="s">
+      <c r="AX16" s="90" t="s">
         <v>198</v>
       </c>
       <c r="AY16" s="67" t="s">
@@ -51746,7 +51848,7 @@
       <c r="I17" s="77">
         <v>10043</v>
       </c>
-      <c r="K17" s="89"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="67" t="s">
         <v>77</v>
       </c>
@@ -51769,7 +51871,7 @@
       <c r="AV17" s="67">
         <v>10042</v>
       </c>
-      <c r="AX17" s="89"/>
+      <c r="AX17" s="90"/>
       <c r="AY17" s="67" t="s">
         <v>60</v>
       </c>
@@ -51800,7 +51902,7 @@
       <c r="I18" s="67">
         <v>10051</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="90" t="s">
         <v>223</v>
       </c>
       <c r="L18" s="67" t="s">
@@ -51836,7 +51938,7 @@
       <c r="AV18" s="67">
         <v>10043</v>
       </c>
-      <c r="AX18" s="89"/>
+      <c r="AX18" s="90"/>
       <c r="AY18" s="67" t="s">
         <v>77</v>
       </c>
@@ -51861,7 +51963,7 @@
       <c r="I19" s="67">
         <v>10052</v>
       </c>
-      <c r="K19" s="89"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="67" t="s">
         <v>60</v>
       </c>
@@ -51895,7 +51997,7 @@
       <c r="AV19" s="67">
         <v>10051</v>
       </c>
-      <c r="AX19" s="89" t="s">
+      <c r="AX19" s="90" t="s">
         <v>223</v>
       </c>
       <c r="AY19" s="67" t="s">
@@ -51921,7 +52023,7 @@
       <c r="I20" s="67">
         <v>10053</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="67" t="s">
         <v>77</v>
       </c>
@@ -51952,7 +52054,7 @@
       <c r="AV20" s="67">
         <v>10052</v>
       </c>
-      <c r="AX20" s="89"/>
+      <c r="AX20" s="90"/>
       <c r="AY20" s="67" t="s">
         <v>60</v>
       </c>
@@ -51993,7 +52095,7 @@
         <v>10051</v>
       </c>
       <c r="J21" s="69"/>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="91" t="s">
         <v>262</v>
       </c>
       <c r="L21" s="69" t="s">
@@ -52020,7 +52122,7 @@
       <c r="AV21" s="67">
         <v>10053</v>
       </c>
-      <c r="AX21" s="89"/>
+      <c r="AX21" s="90"/>
       <c r="AY21" s="67" t="s">
         <v>77</v>
       </c>
@@ -52049,7 +52151,7 @@
         <v>10052</v>
       </c>
       <c r="J22" s="69"/>
-      <c r="K22" s="90"/>
+      <c r="K22" s="91"/>
       <c r="L22" s="69" t="s">
         <v>60</v>
       </c>
@@ -52073,7 +52175,7 @@
         <v>10051</v>
       </c>
       <c r="AW22" s="69"/>
-      <c r="AX22" s="90" t="s">
+      <c r="AX22" s="91" t="s">
         <v>262</v>
       </c>
       <c r="AY22" s="69" t="s">
@@ -52111,7 +52213,7 @@
         <v>10053</v>
       </c>
       <c r="J23" s="69"/>
-      <c r="K23" s="90"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="69" t="s">
         <v>77</v>
       </c>
@@ -52145,7 +52247,7 @@
         <v>10052</v>
       </c>
       <c r="AW23" s="69"/>
-      <c r="AX23" s="90"/>
+      <c r="AX23" s="91"/>
       <c r="AY23" s="69" t="s">
         <v>60</v>
       </c>
@@ -52218,7 +52320,7 @@
         <v>10053</v>
       </c>
       <c r="AW24" s="69"/>
-      <c r="AX24" s="90"/>
+      <c r="AX24" s="91"/>
       <c r="AY24" s="69" t="s">
         <v>77</v>
       </c>
@@ -53513,7 +53615,7 @@
       <c r="BM59" s="67" t="s">
         <v>2410</v>
       </c>
-      <c r="BN59" s="91" t="s">
+      <c r="BN59" s="89" t="s">
         <v>2409</v>
       </c>
       <c r="BY59" s="75" t="s">
@@ -53567,15 +53669,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="2:72" ht="20.100000000000001" customHeight="1">
       <c r="D65" s="67" t="s">
         <v>415</v>
       </c>
       <c r="E65" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="BN65" s="67" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="66" spans="2:72" ht="20.100000000000001" customHeight="1">
       <c r="D66" s="67" t="s">
         <v>417</v>
       </c>
@@ -53586,7 +53691,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="2:72" ht="20.100000000000001" customHeight="1">
       <c r="D67" s="67" t="s">
         <v>420</v>
       </c>
@@ -53599,27 +53704,171 @@
       <c r="G67" s="67" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="69" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="70" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="BN67" s="67" t="s">
+        <v>2411</v>
+      </c>
+      <c r="BQ67" s="67" t="s">
+        <v>2411</v>
+      </c>
+      <c r="BR67" s="67" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BS67" s="67" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="68" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN68" s="67">
+        <v>1</v>
+      </c>
+      <c r="BO68" s="6" t="s">
+        <v>2412</v>
+      </c>
+      <c r="BQ68" s="67">
+        <v>6</v>
+      </c>
+      <c r="BR68" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS68" s="67" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BT68" s="71" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="69" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN69" s="67">
+        <v>2</v>
+      </c>
+      <c r="BO69" s="6" t="s">
+        <v>2413</v>
+      </c>
+      <c r="BQ69" s="67">
+        <v>4</v>
+      </c>
+      <c r="BR69" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS69" s="67" t="s">
+        <v>2428</v>
+      </c>
+      <c r="BT69" s="71" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="70" spans="2:72" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="67" t="s">
         <v>424</v>
       </c>
       <c r="E70" s="67" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="72" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="73" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="74" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="75" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="76" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="77" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="78" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="79" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="80" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+      <c r="BN70" s="67">
+        <v>3</v>
+      </c>
+      <c r="BO70" s="6" t="s">
+        <v>2414</v>
+      </c>
+      <c r="BQ70" s="67">
+        <v>3</v>
+      </c>
+      <c r="BR70" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS70" s="67" t="s">
+        <v>2420</v>
+      </c>
+      <c r="BT70" s="76" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="71" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN71" s="67">
+        <v>4</v>
+      </c>
+      <c r="BO71" s="6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="BQ71" s="67">
+        <v>5</v>
+      </c>
+      <c r="BR71" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS71" s="67" t="s">
+        <v>2425</v>
+      </c>
+      <c r="BT71" s="76" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="72" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN72" s="67">
+        <v>5</v>
+      </c>
+      <c r="BO72" s="6" t="s">
+        <v>2416</v>
+      </c>
+      <c r="BQ72" s="67">
+        <v>5</v>
+      </c>
+      <c r="BR72" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS72" s="67" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BT72" s="76" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="73" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN73" s="67">
+        <v>6</v>
+      </c>
+      <c r="BO73" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="BQ73" s="67">
+        <v>3</v>
+      </c>
+      <c r="BR73" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS73" s="67" t="s">
+        <v>2426</v>
+      </c>
+      <c r="BT73" s="76" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="74" spans="2:72" ht="20.100000000000001" customHeight="1">
+      <c r="BN74" s="67">
+        <v>7</v>
+      </c>
+      <c r="BO74" s="6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BQ74" s="67">
+        <v>4</v>
+      </c>
+      <c r="BR74" s="67">
+        <v>7</v>
+      </c>
+      <c r="BS74" s="67" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BT74" s="76" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="75" spans="2:72" ht="20.100000000000001" customHeight="1"/>
+    <row r="76" spans="2:72" ht="20.100000000000001" customHeight="1"/>
+    <row r="77" spans="2:72" ht="20.100000000000001" customHeight="1"/>
+    <row r="78" spans="2:72" ht="20.100000000000001" customHeight="1"/>
+    <row r="79" spans="2:72" ht="20.100000000000001" customHeight="1"/>
+    <row r="80" spans="2:72" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="K18:K20"/>

--- a/WeiJingShuZhi/属性表.xlsx
+++ b/WeiJingShuZhi/属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712288FC-5B06-4F20-9042-FF77B055E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F05F5-D48B-4DDF-AF78-FC2DEAC3DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8978,6 +8978,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="ItemProto"/>
     </sheetNames>
@@ -8985,2406 +8988,2403 @@
       <sheetData sheetId="0">
         <row r="848">
           <cell r="C848">
-            <v>13005102</v>
+            <v>13006004</v>
+          </cell>
+          <cell r="S848">
+            <v>0</v>
           </cell>
         </row>
         <row r="849">
           <cell r="C849">
-            <v>13005103</v>
+            <v>13009001</v>
           </cell>
         </row>
         <row r="850">
           <cell r="C850">
-            <v>13005104</v>
+            <v>13009002</v>
           </cell>
         </row>
         <row r="851">
           <cell r="C851">
-            <v>13005105</v>
+            <v>14010001</v>
           </cell>
         </row>
         <row r="852">
           <cell r="C852">
-            <v>13006001</v>
+            <v>14010002</v>
           </cell>
         </row>
         <row r="853">
           <cell r="C853">
-            <v>13006002</v>
+            <v>14010003</v>
           </cell>
         </row>
         <row r="854">
           <cell r="C854">
-            <v>13006003</v>
-          </cell>
-          <cell r="S854">
-            <v>0</v>
+            <v>14010004</v>
           </cell>
         </row>
         <row r="855">
           <cell r="C855">
-            <v>13006004</v>
-          </cell>
-          <cell r="S855">
-            <v>0</v>
+            <v>14010005</v>
           </cell>
         </row>
         <row r="856">
           <cell r="C856">
-            <v>13009001</v>
+            <v>14010006</v>
           </cell>
         </row>
         <row r="857">
           <cell r="C857">
-            <v>13009002</v>
+            <v>14010007</v>
           </cell>
         </row>
         <row r="858">
           <cell r="C858">
-            <v>14010001</v>
+            <v>14010008</v>
           </cell>
         </row>
         <row r="859">
           <cell r="C859">
-            <v>14010002</v>
+            <v>14010009</v>
           </cell>
         </row>
         <row r="860">
           <cell r="C860">
-            <v>14010003</v>
+            <v>14010010</v>
           </cell>
         </row>
         <row r="861">
           <cell r="C861">
-            <v>14010004</v>
+            <v>14010011</v>
           </cell>
         </row>
         <row r="862">
           <cell r="C862">
-            <v>14010005</v>
+            <v>14010012</v>
           </cell>
         </row>
         <row r="863">
           <cell r="C863">
-            <v>14010006</v>
+            <v>14020001</v>
           </cell>
         </row>
         <row r="864">
           <cell r="C864">
-            <v>14010007</v>
+            <v>14020002</v>
           </cell>
         </row>
         <row r="865">
           <cell r="C865">
-            <v>14010008</v>
+            <v>14020003</v>
           </cell>
         </row>
         <row r="866">
           <cell r="C866">
-            <v>14010009</v>
+            <v>14020004</v>
           </cell>
         </row>
         <row r="867">
           <cell r="C867">
-            <v>14010010</v>
+            <v>14020005</v>
           </cell>
         </row>
         <row r="868">
           <cell r="C868">
-            <v>14010011</v>
+            <v>14020006</v>
           </cell>
         </row>
         <row r="869">
           <cell r="C869">
-            <v>14010012</v>
+            <v>14020007</v>
           </cell>
         </row>
         <row r="870">
           <cell r="C870">
-            <v>14020001</v>
+            <v>14020008</v>
           </cell>
         </row>
         <row r="871">
           <cell r="C871">
-            <v>14020002</v>
+            <v>14020009</v>
           </cell>
         </row>
         <row r="872">
           <cell r="C872">
-            <v>14020003</v>
+            <v>14020010</v>
           </cell>
         </row>
         <row r="873">
           <cell r="C873">
-            <v>14020004</v>
+            <v>14020011</v>
           </cell>
         </row>
         <row r="874">
           <cell r="C874">
-            <v>14020005</v>
+            <v>14020012</v>
           </cell>
         </row>
         <row r="875">
           <cell r="C875">
-            <v>14020006</v>
+            <v>14020013</v>
           </cell>
         </row>
         <row r="876">
           <cell r="C876">
-            <v>14020007</v>
+            <v>14030001</v>
           </cell>
         </row>
         <row r="877">
           <cell r="C877">
-            <v>14020008</v>
+            <v>14030002</v>
           </cell>
         </row>
         <row r="878">
           <cell r="C878">
-            <v>14020009</v>
+            <v>14030003</v>
           </cell>
         </row>
         <row r="879">
           <cell r="C879">
-            <v>14020010</v>
+            <v>14030004</v>
           </cell>
         </row>
         <row r="880">
           <cell r="C880">
-            <v>14020011</v>
+            <v>14030005</v>
           </cell>
         </row>
         <row r="881">
           <cell r="C881">
-            <v>14020012</v>
+            <v>14030006</v>
           </cell>
         </row>
         <row r="882">
           <cell r="C882">
-            <v>14020013</v>
+            <v>14030007</v>
           </cell>
         </row>
         <row r="883">
           <cell r="C883">
-            <v>14030001</v>
+            <v>14030008</v>
           </cell>
         </row>
         <row r="884">
           <cell r="C884">
-            <v>14030002</v>
+            <v>14030009</v>
           </cell>
         </row>
         <row r="885">
           <cell r="C885">
-            <v>14030003</v>
+            <v>14030010</v>
           </cell>
         </row>
         <row r="886">
           <cell r="C886">
-            <v>14030004</v>
+            <v>14030011</v>
           </cell>
         </row>
         <row r="887">
           <cell r="C887">
-            <v>14030005</v>
+            <v>14030012</v>
           </cell>
         </row>
         <row r="888">
           <cell r="C888">
-            <v>14030006</v>
+            <v>14030013</v>
           </cell>
         </row>
         <row r="889">
           <cell r="C889">
-            <v>14030007</v>
+            <v>14040001</v>
           </cell>
         </row>
         <row r="890">
           <cell r="C890">
-            <v>14030008</v>
+            <v>14040002</v>
           </cell>
         </row>
         <row r="891">
           <cell r="C891">
-            <v>14030009</v>
+            <v>14040003</v>
           </cell>
         </row>
         <row r="892">
           <cell r="C892">
-            <v>14030010</v>
+            <v>14040004</v>
           </cell>
         </row>
         <row r="893">
           <cell r="C893">
-            <v>14030011</v>
+            <v>14040005</v>
           </cell>
         </row>
         <row r="894">
           <cell r="C894">
-            <v>14030012</v>
+            <v>14040006</v>
           </cell>
         </row>
         <row r="895">
           <cell r="C895">
-            <v>14030013</v>
+            <v>14040007</v>
           </cell>
         </row>
         <row r="896">
           <cell r="C896">
-            <v>14040001</v>
+            <v>14040008</v>
           </cell>
         </row>
         <row r="897">
           <cell r="C897">
-            <v>14040002</v>
+            <v>14040009</v>
           </cell>
         </row>
         <row r="898">
           <cell r="C898">
-            <v>14040003</v>
+            <v>14040010</v>
           </cell>
         </row>
         <row r="899">
           <cell r="C899">
-            <v>14040004</v>
+            <v>14040011</v>
           </cell>
         </row>
         <row r="900">
           <cell r="C900">
-            <v>14040005</v>
+            <v>14040012</v>
           </cell>
         </row>
         <row r="901">
           <cell r="C901">
-            <v>14040006</v>
+            <v>14050001</v>
           </cell>
         </row>
         <row r="902">
           <cell r="C902">
-            <v>14040007</v>
+            <v>14050002</v>
           </cell>
         </row>
         <row r="903">
           <cell r="C903">
-            <v>14040008</v>
+            <v>14050003</v>
           </cell>
         </row>
         <row r="904">
           <cell r="C904">
-            <v>14040009</v>
+            <v>14050004</v>
           </cell>
         </row>
         <row r="905">
           <cell r="C905">
-            <v>14040010</v>
+            <v>14050005</v>
           </cell>
         </row>
         <row r="906">
           <cell r="C906">
-            <v>14040011</v>
+            <v>14050006</v>
           </cell>
         </row>
         <row r="907">
           <cell r="C907">
-            <v>14040012</v>
+            <v>14050007</v>
           </cell>
         </row>
         <row r="908">
           <cell r="C908">
-            <v>14050001</v>
+            <v>14050008</v>
           </cell>
         </row>
         <row r="909">
           <cell r="C909">
-            <v>14050002</v>
+            <v>14050009</v>
           </cell>
         </row>
         <row r="910">
           <cell r="C910">
-            <v>14050003</v>
+            <v>14050010</v>
           </cell>
         </row>
         <row r="911">
           <cell r="C911">
-            <v>14050004</v>
+            <v>14050011</v>
           </cell>
         </row>
         <row r="912">
           <cell r="C912">
-            <v>14050005</v>
+            <v>14050012</v>
           </cell>
         </row>
         <row r="913">
           <cell r="C913">
-            <v>14050006</v>
+            <v>14060001</v>
           </cell>
         </row>
         <row r="914">
           <cell r="C914">
-            <v>14050007</v>
+            <v>14060002</v>
           </cell>
         </row>
         <row r="915">
           <cell r="C915">
-            <v>14050008</v>
+            <v>14060003</v>
           </cell>
         </row>
         <row r="916">
           <cell r="C916">
-            <v>14050009</v>
+            <v>14060004</v>
           </cell>
         </row>
         <row r="917">
           <cell r="C917">
-            <v>14050010</v>
+            <v>14060005</v>
           </cell>
         </row>
         <row r="918">
           <cell r="C918">
-            <v>14050011</v>
+            <v>14070001</v>
           </cell>
         </row>
         <row r="919">
           <cell r="C919">
-            <v>14050012</v>
+            <v>14070002</v>
           </cell>
         </row>
         <row r="920">
           <cell r="C920">
-            <v>14060001</v>
+            <v>14070003</v>
           </cell>
         </row>
         <row r="921">
           <cell r="C921">
-            <v>14060002</v>
+            <v>14070004</v>
           </cell>
         </row>
         <row r="922">
           <cell r="C922">
-            <v>14060003</v>
+            <v>14080001</v>
+          </cell>
+          <cell r="S922">
+            <v>66001001</v>
           </cell>
         </row>
         <row r="923">
           <cell r="C923">
-            <v>14060004</v>
+            <v>14080002</v>
+          </cell>
+          <cell r="S923">
+            <v>66001002</v>
           </cell>
         </row>
         <row r="924">
           <cell r="C924">
-            <v>14060005</v>
+            <v>14080003</v>
+          </cell>
+          <cell r="S924">
+            <v>66001003</v>
           </cell>
         </row>
         <row r="925">
           <cell r="C925">
-            <v>14070001</v>
+            <v>14080004</v>
+          </cell>
+          <cell r="S925">
+            <v>66001012</v>
           </cell>
         </row>
         <row r="926">
           <cell r="C926">
-            <v>14070002</v>
+            <v>14090001</v>
           </cell>
         </row>
         <row r="927">
           <cell r="C927">
-            <v>14070003</v>
+            <v>14090002</v>
           </cell>
         </row>
         <row r="928">
           <cell r="C928">
-            <v>14070004</v>
+            <v>14090003</v>
           </cell>
         </row>
         <row r="929">
           <cell r="C929">
-            <v>14080001</v>
-          </cell>
-          <cell r="S929">
-            <v>66001001</v>
+            <v>14090004</v>
           </cell>
         </row>
         <row r="930">
           <cell r="C930">
-            <v>14080002</v>
-          </cell>
-          <cell r="S930">
-            <v>66001002</v>
+            <v>14100001</v>
           </cell>
         </row>
         <row r="931">
           <cell r="C931">
-            <v>14080003</v>
-          </cell>
-          <cell r="S931">
-            <v>66001003</v>
+            <v>14100002</v>
           </cell>
         </row>
         <row r="932">
           <cell r="C932">
-            <v>14080004</v>
-          </cell>
-          <cell r="S932">
-            <v>66001012</v>
+            <v>14100003</v>
           </cell>
         </row>
         <row r="933">
           <cell r="C933">
-            <v>14090001</v>
+            <v>14100004</v>
           </cell>
         </row>
         <row r="934">
           <cell r="C934">
-            <v>14090002</v>
+            <v>14100005</v>
           </cell>
         </row>
         <row r="935">
           <cell r="C935">
-            <v>14090003</v>
+            <v>14100006</v>
           </cell>
         </row>
         <row r="936">
           <cell r="C936">
-            <v>14090004</v>
+            <v>14100007</v>
           </cell>
         </row>
         <row r="937">
           <cell r="C937">
-            <v>14100001</v>
+            <v>14100008</v>
           </cell>
         </row>
         <row r="938">
           <cell r="C938">
-            <v>14100002</v>
+            <v>14100011</v>
+          </cell>
+          <cell r="S938">
+            <v>69000001</v>
           </cell>
         </row>
         <row r="939">
           <cell r="C939">
-            <v>14100003</v>
+            <v>14100012</v>
           </cell>
         </row>
         <row r="940">
           <cell r="C940">
-            <v>14100004</v>
+            <v>14100101</v>
           </cell>
         </row>
         <row r="941">
           <cell r="C941">
-            <v>14100005</v>
+            <v>14100102</v>
           </cell>
         </row>
         <row r="942">
           <cell r="C942">
-            <v>14100006</v>
+            <v>14100103</v>
           </cell>
         </row>
         <row r="943">
           <cell r="C943">
-            <v>14100007</v>
+            <v>14100104</v>
           </cell>
         </row>
         <row r="944">
           <cell r="C944">
-            <v>14100008</v>
+            <v>14100105</v>
           </cell>
         </row>
         <row r="945">
           <cell r="C945">
-            <v>14100011</v>
-          </cell>
-          <cell r="S945">
-            <v>69000001</v>
+            <v>14100106</v>
           </cell>
         </row>
         <row r="946">
           <cell r="C946">
-            <v>14100012</v>
+            <v>14100107</v>
           </cell>
         </row>
         <row r="947">
           <cell r="C947">
-            <v>14100101</v>
+            <v>14100108</v>
           </cell>
         </row>
         <row r="948">
           <cell r="C948">
-            <v>14100102</v>
+            <v>14100111</v>
+          </cell>
+          <cell r="S948">
+            <v>69000002</v>
           </cell>
         </row>
         <row r="949">
           <cell r="C949">
-            <v>14100103</v>
+            <v>14100112</v>
+          </cell>
+          <cell r="S949">
+            <v>69000003</v>
           </cell>
         </row>
         <row r="950">
           <cell r="C950">
-            <v>14100104</v>
+            <v>14110001</v>
           </cell>
         </row>
         <row r="951">
           <cell r="C951">
-            <v>14100105</v>
+            <v>14110002</v>
           </cell>
         </row>
         <row r="952">
           <cell r="C952">
-            <v>14100106</v>
+            <v>14110003</v>
           </cell>
         </row>
         <row r="953">
           <cell r="C953">
-            <v>14100107</v>
+            <v>14110004</v>
           </cell>
         </row>
         <row r="954">
           <cell r="C954">
-            <v>14100108</v>
+            <v>14110005</v>
           </cell>
         </row>
         <row r="955">
           <cell r="C955">
-            <v>14100111</v>
-          </cell>
-          <cell r="S955">
-            <v>69000002</v>
+            <v>14110006</v>
           </cell>
         </row>
         <row r="956">
           <cell r="C956">
-            <v>14100112</v>
-          </cell>
-          <cell r="S956">
-            <v>69000003</v>
+            <v>14110007</v>
           </cell>
         </row>
         <row r="957">
           <cell r="C957">
-            <v>14110001</v>
+            <v>14110008</v>
           </cell>
         </row>
         <row r="958">
           <cell r="C958">
-            <v>14110002</v>
+            <v>14110009</v>
           </cell>
         </row>
         <row r="959">
           <cell r="C959">
-            <v>14110003</v>
+            <v>14110010</v>
           </cell>
         </row>
         <row r="960">
           <cell r="C960">
-            <v>14110004</v>
+            <v>14110011</v>
           </cell>
         </row>
         <row r="961">
           <cell r="C961">
-            <v>14110005</v>
+            <v>14110012</v>
           </cell>
         </row>
         <row r="962">
           <cell r="C962">
-            <v>14110006</v>
+            <v>14110021</v>
           </cell>
         </row>
         <row r="963">
           <cell r="C963">
-            <v>14110007</v>
+            <v>14110022</v>
           </cell>
         </row>
         <row r="964">
           <cell r="C964">
-            <v>14110008</v>
+            <v>14110023</v>
           </cell>
         </row>
         <row r="965">
           <cell r="C965">
-            <v>14110009</v>
+            <v>15201001</v>
           </cell>
         </row>
         <row r="966">
           <cell r="C966">
-            <v>14110010</v>
+            <v>15201002</v>
           </cell>
         </row>
         <row r="967">
           <cell r="C967">
-            <v>14110011</v>
+            <v>15201003</v>
           </cell>
         </row>
         <row r="968">
           <cell r="C968">
-            <v>14110012</v>
+            <v>15201004</v>
           </cell>
         </row>
         <row r="969">
           <cell r="C969">
-            <v>14110021</v>
+            <v>15201005</v>
           </cell>
         </row>
         <row r="970">
           <cell r="C970">
-            <v>14110022</v>
+            <v>15201006</v>
           </cell>
         </row>
         <row r="971">
           <cell r="C971">
-            <v>14110023</v>
+            <v>15202001</v>
           </cell>
         </row>
         <row r="972">
           <cell r="C972">
-            <v>15201001</v>
+            <v>15202002</v>
           </cell>
         </row>
         <row r="973">
           <cell r="C973">
-            <v>15201002</v>
+            <v>15202003</v>
           </cell>
         </row>
         <row r="974">
           <cell r="C974">
-            <v>15201003</v>
+            <v>15202004</v>
           </cell>
         </row>
         <row r="975">
           <cell r="C975">
-            <v>15201004</v>
+            <v>15202005</v>
           </cell>
         </row>
         <row r="976">
           <cell r="C976">
-            <v>15201005</v>
+            <v>15202006</v>
           </cell>
         </row>
         <row r="977">
           <cell r="C977">
-            <v>15201006</v>
+            <v>15203001</v>
           </cell>
         </row>
         <row r="978">
           <cell r="C978">
-            <v>15202001</v>
+            <v>15203002</v>
           </cell>
         </row>
         <row r="979">
           <cell r="C979">
-            <v>15202002</v>
+            <v>15203003</v>
           </cell>
         </row>
         <row r="980">
           <cell r="C980">
-            <v>15202003</v>
+            <v>15203004</v>
           </cell>
         </row>
         <row r="981">
           <cell r="C981">
-            <v>15202004</v>
+            <v>15203005</v>
           </cell>
         </row>
         <row r="982">
           <cell r="C982">
-            <v>15202005</v>
+            <v>15203006</v>
           </cell>
         </row>
         <row r="983">
           <cell r="C983">
-            <v>15202006</v>
+            <v>15204001</v>
           </cell>
         </row>
         <row r="984">
           <cell r="C984">
-            <v>15203001</v>
+            <v>15204002</v>
           </cell>
         </row>
         <row r="985">
           <cell r="C985">
-            <v>15203002</v>
+            <v>15204003</v>
           </cell>
         </row>
         <row r="986">
           <cell r="C986">
-            <v>15203003</v>
+            <v>15204004</v>
           </cell>
         </row>
         <row r="987">
           <cell r="C987">
-            <v>15203004</v>
+            <v>15204005</v>
           </cell>
         </row>
         <row r="988">
           <cell r="C988">
-            <v>15203005</v>
+            <v>15204006</v>
           </cell>
         </row>
         <row r="989">
           <cell r="C989">
-            <v>15203006</v>
+            <v>15205001</v>
           </cell>
         </row>
         <row r="990">
           <cell r="C990">
-            <v>15204001</v>
+            <v>15205002</v>
           </cell>
         </row>
         <row r="991">
           <cell r="C991">
-            <v>15204002</v>
+            <v>15205003</v>
           </cell>
         </row>
         <row r="992">
           <cell r="C992">
-            <v>15204003</v>
+            <v>15205004</v>
           </cell>
         </row>
         <row r="993">
           <cell r="C993">
-            <v>15204004</v>
+            <v>15205005</v>
           </cell>
         </row>
         <row r="994">
           <cell r="C994">
-            <v>15204005</v>
+            <v>15205006</v>
           </cell>
         </row>
         <row r="995">
           <cell r="C995">
-            <v>15204006</v>
+            <v>15205007</v>
           </cell>
         </row>
         <row r="996">
           <cell r="C996">
-            <v>15205001</v>
+            <v>15206001</v>
           </cell>
         </row>
         <row r="997">
           <cell r="C997">
-            <v>15205002</v>
+            <v>15206002</v>
           </cell>
         </row>
         <row r="998">
           <cell r="C998">
-            <v>15205003</v>
+            <v>15206003</v>
           </cell>
         </row>
         <row r="999">
           <cell r="C999">
-            <v>15205004</v>
+            <v>15207001</v>
           </cell>
         </row>
         <row r="1000">
           <cell r="C1000">
-            <v>15205005</v>
+            <v>15207002</v>
           </cell>
         </row>
         <row r="1001">
           <cell r="C1001">
-            <v>15205006</v>
+            <v>15207003</v>
           </cell>
         </row>
         <row r="1002">
           <cell r="C1002">
-            <v>15205007</v>
+            <v>15208001</v>
+          </cell>
+          <cell r="S1002">
+            <v>66001004</v>
           </cell>
         </row>
         <row r="1003">
           <cell r="C1003">
-            <v>15206001</v>
+            <v>15208002</v>
+          </cell>
+          <cell r="S1003">
+            <v>66001005</v>
           </cell>
         </row>
         <row r="1004">
           <cell r="C1004">
-            <v>15206002</v>
+            <v>15208003</v>
+          </cell>
+          <cell r="S1004">
+            <v>66001013</v>
           </cell>
         </row>
         <row r="1005">
           <cell r="C1005">
-            <v>15206003</v>
+            <v>15209001</v>
           </cell>
         </row>
         <row r="1006">
           <cell r="C1006">
-            <v>15207001</v>
+            <v>15209002</v>
           </cell>
         </row>
         <row r="1007">
           <cell r="C1007">
-            <v>15207002</v>
+            <v>15210001</v>
           </cell>
         </row>
         <row r="1008">
           <cell r="C1008">
-            <v>15207003</v>
+            <v>15210002</v>
           </cell>
         </row>
         <row r="1009">
           <cell r="C1009">
-            <v>15208001</v>
-          </cell>
-          <cell r="S1009">
-            <v>66001004</v>
+            <v>15210003</v>
           </cell>
         </row>
         <row r="1010">
           <cell r="C1010">
-            <v>15208002</v>
-          </cell>
-          <cell r="S1010">
-            <v>66001005</v>
+            <v>15210004</v>
           </cell>
         </row>
         <row r="1011">
           <cell r="C1011">
-            <v>15208003</v>
-          </cell>
-          <cell r="S1011">
-            <v>66001013</v>
+            <v>15210011</v>
           </cell>
         </row>
         <row r="1012">
           <cell r="C1012">
-            <v>15209001</v>
+            <v>15210012</v>
           </cell>
         </row>
         <row r="1013">
           <cell r="C1013">
-            <v>15209002</v>
+            <v>15210101</v>
           </cell>
         </row>
         <row r="1014">
           <cell r="C1014">
-            <v>15210001</v>
+            <v>15210102</v>
           </cell>
         </row>
         <row r="1015">
           <cell r="C1015">
-            <v>15210002</v>
+            <v>15210103</v>
           </cell>
         </row>
         <row r="1016">
           <cell r="C1016">
-            <v>15210003</v>
+            <v>15210104</v>
           </cell>
         </row>
         <row r="1017">
           <cell r="C1017">
-            <v>15210004</v>
+            <v>15210111</v>
           </cell>
         </row>
         <row r="1018">
           <cell r="C1018">
-            <v>15210011</v>
+            <v>15210112</v>
           </cell>
         </row>
         <row r="1019">
           <cell r="C1019">
-            <v>15210012</v>
+            <v>15211001</v>
           </cell>
         </row>
         <row r="1020">
           <cell r="C1020">
-            <v>15210101</v>
+            <v>15211002</v>
           </cell>
         </row>
         <row r="1021">
           <cell r="C1021">
-            <v>15210102</v>
+            <v>15211003</v>
           </cell>
         </row>
         <row r="1022">
           <cell r="C1022">
-            <v>15210103</v>
+            <v>15211004</v>
           </cell>
         </row>
         <row r="1023">
           <cell r="C1023">
-            <v>15210104</v>
+            <v>15211005</v>
           </cell>
         </row>
         <row r="1024">
           <cell r="C1024">
-            <v>15210111</v>
+            <v>15211006</v>
           </cell>
         </row>
         <row r="1025">
           <cell r="C1025">
-            <v>15210112</v>
+            <v>15211011</v>
           </cell>
         </row>
         <row r="1026">
           <cell r="C1026">
-            <v>15211001</v>
+            <v>15211012</v>
           </cell>
         </row>
         <row r="1027">
           <cell r="C1027">
-            <v>15211002</v>
+            <v>15211013</v>
+          </cell>
+          <cell r="S1027">
+            <v>69000004</v>
           </cell>
         </row>
         <row r="1028">
           <cell r="C1028">
-            <v>15211003</v>
+            <v>15301001</v>
           </cell>
         </row>
         <row r="1029">
           <cell r="C1029">
-            <v>15211004</v>
+            <v>15301002</v>
           </cell>
         </row>
         <row r="1030">
           <cell r="C1030">
-            <v>15211005</v>
+            <v>15301003</v>
           </cell>
         </row>
         <row r="1031">
           <cell r="C1031">
-            <v>15211006</v>
+            <v>15301004</v>
           </cell>
         </row>
         <row r="1032">
           <cell r="C1032">
-            <v>15211011</v>
+            <v>15301005</v>
           </cell>
         </row>
         <row r="1033">
           <cell r="C1033">
-            <v>15211012</v>
+            <v>15301006</v>
           </cell>
         </row>
         <row r="1034">
           <cell r="C1034">
-            <v>15211013</v>
-          </cell>
-          <cell r="S1034">
-            <v>69000004</v>
+            <v>15302001</v>
           </cell>
         </row>
         <row r="1035">
           <cell r="C1035">
-            <v>15301001</v>
+            <v>15302002</v>
           </cell>
         </row>
         <row r="1036">
           <cell r="C1036">
-            <v>15301002</v>
+            <v>15302003</v>
           </cell>
         </row>
         <row r="1037">
           <cell r="C1037">
-            <v>15301003</v>
+            <v>15302004</v>
           </cell>
         </row>
         <row r="1038">
           <cell r="C1038">
-            <v>15301004</v>
+            <v>15302005</v>
           </cell>
         </row>
         <row r="1039">
           <cell r="C1039">
-            <v>15301005</v>
+            <v>15302006</v>
           </cell>
         </row>
         <row r="1040">
           <cell r="C1040">
-            <v>15301006</v>
+            <v>15302007</v>
           </cell>
         </row>
         <row r="1041">
           <cell r="C1041">
-            <v>15302001</v>
+            <v>15303001</v>
           </cell>
         </row>
         <row r="1042">
           <cell r="C1042">
-            <v>15302002</v>
+            <v>15303002</v>
           </cell>
         </row>
         <row r="1043">
           <cell r="C1043">
-            <v>15302003</v>
+            <v>15303003</v>
           </cell>
         </row>
         <row r="1044">
           <cell r="C1044">
-            <v>15302004</v>
+            <v>15303004</v>
           </cell>
         </row>
         <row r="1045">
           <cell r="C1045">
-            <v>15302005</v>
+            <v>15303005</v>
           </cell>
         </row>
         <row r="1046">
           <cell r="C1046">
-            <v>15302006</v>
+            <v>15303006</v>
           </cell>
         </row>
         <row r="1047">
           <cell r="C1047">
-            <v>15302007</v>
+            <v>15304001</v>
           </cell>
         </row>
         <row r="1048">
           <cell r="C1048">
-            <v>15303001</v>
+            <v>15304002</v>
           </cell>
         </row>
         <row r="1049">
           <cell r="C1049">
-            <v>15303002</v>
+            <v>15304003</v>
           </cell>
         </row>
         <row r="1050">
           <cell r="C1050">
-            <v>15303003</v>
+            <v>15304004</v>
           </cell>
         </row>
         <row r="1051">
           <cell r="C1051">
-            <v>15303004</v>
+            <v>15304005</v>
           </cell>
         </row>
         <row r="1052">
           <cell r="C1052">
-            <v>15303005</v>
+            <v>15304006</v>
           </cell>
         </row>
         <row r="1053">
           <cell r="C1053">
-            <v>15303006</v>
+            <v>15305001</v>
           </cell>
         </row>
         <row r="1054">
           <cell r="C1054">
-            <v>15304001</v>
+            <v>15305002</v>
           </cell>
         </row>
         <row r="1055">
           <cell r="C1055">
-            <v>15304002</v>
+            <v>15305003</v>
           </cell>
         </row>
         <row r="1056">
           <cell r="C1056">
-            <v>15304003</v>
+            <v>15305004</v>
           </cell>
         </row>
         <row r="1057">
           <cell r="C1057">
-            <v>15304004</v>
+            <v>15305005</v>
           </cell>
         </row>
         <row r="1058">
           <cell r="C1058">
-            <v>15304005</v>
+            <v>15305006</v>
           </cell>
         </row>
         <row r="1059">
           <cell r="C1059">
-            <v>15304006</v>
+            <v>15306001</v>
           </cell>
         </row>
         <row r="1060">
           <cell r="C1060">
-            <v>15305001</v>
+            <v>15306002</v>
           </cell>
         </row>
         <row r="1061">
           <cell r="C1061">
-            <v>15305002</v>
+            <v>15306003</v>
           </cell>
         </row>
         <row r="1062">
           <cell r="C1062">
-            <v>15305003</v>
+            <v>15307001</v>
           </cell>
         </row>
         <row r="1063">
           <cell r="C1063">
-            <v>15305004</v>
+            <v>15307002</v>
           </cell>
         </row>
         <row r="1064">
           <cell r="C1064">
-            <v>15305005</v>
+            <v>15308001</v>
+          </cell>
+          <cell r="S1064">
+            <v>66001006</v>
           </cell>
         </row>
         <row r="1065">
           <cell r="C1065">
-            <v>15305006</v>
+            <v>15308002</v>
+          </cell>
+          <cell r="S1065">
+            <v>66001007</v>
           </cell>
         </row>
         <row r="1066">
           <cell r="C1066">
-            <v>15306001</v>
+            <v>15308003</v>
+          </cell>
+          <cell r="S1066">
+            <v>66001014</v>
           </cell>
         </row>
         <row r="1067">
           <cell r="C1067">
-            <v>15306002</v>
+            <v>15308004</v>
+          </cell>
+          <cell r="S1067">
+            <v>66001017</v>
           </cell>
         </row>
         <row r="1068">
           <cell r="C1068">
-            <v>15306003</v>
+            <v>15309001</v>
           </cell>
         </row>
         <row r="1069">
           <cell r="C1069">
-            <v>15307001</v>
+            <v>15309002</v>
           </cell>
         </row>
         <row r="1070">
           <cell r="C1070">
-            <v>15307002</v>
+            <v>15309003</v>
           </cell>
         </row>
         <row r="1071">
           <cell r="C1071">
-            <v>15308001</v>
-          </cell>
-          <cell r="S1071">
-            <v>66001006</v>
+            <v>15310001</v>
           </cell>
         </row>
         <row r="1072">
           <cell r="C1072">
-            <v>15308002</v>
-          </cell>
-          <cell r="S1072">
-            <v>66001007</v>
+            <v>15310002</v>
           </cell>
         </row>
         <row r="1073">
           <cell r="C1073">
-            <v>15308003</v>
-          </cell>
-          <cell r="S1073">
-            <v>66001014</v>
+            <v>15310003</v>
           </cell>
         </row>
         <row r="1074">
           <cell r="C1074">
-            <v>15308004</v>
-          </cell>
-          <cell r="S1074">
-            <v>66001017</v>
+            <v>15310004</v>
           </cell>
         </row>
         <row r="1075">
           <cell r="C1075">
-            <v>15309001</v>
+            <v>15310011</v>
           </cell>
         </row>
         <row r="1076">
           <cell r="C1076">
-            <v>15309002</v>
+            <v>15310012</v>
           </cell>
         </row>
         <row r="1077">
           <cell r="C1077">
-            <v>15309003</v>
+            <v>15310101</v>
           </cell>
         </row>
         <row r="1078">
           <cell r="C1078">
-            <v>15310001</v>
+            <v>15310102</v>
           </cell>
         </row>
         <row r="1079">
           <cell r="C1079">
-            <v>15310002</v>
+            <v>15310103</v>
           </cell>
         </row>
         <row r="1080">
           <cell r="C1080">
-            <v>15310003</v>
+            <v>15310104</v>
           </cell>
         </row>
         <row r="1081">
           <cell r="C1081">
-            <v>15310004</v>
+            <v>15310111</v>
+          </cell>
+          <cell r="S1081">
+            <v>69000005</v>
           </cell>
         </row>
         <row r="1082">
           <cell r="C1082">
-            <v>15310011</v>
+            <v>15310112</v>
           </cell>
         </row>
         <row r="1083">
           <cell r="C1083">
-            <v>15310012</v>
+            <v>15311001</v>
           </cell>
         </row>
         <row r="1084">
           <cell r="C1084">
-            <v>15310101</v>
+            <v>15311002</v>
           </cell>
         </row>
         <row r="1085">
           <cell r="C1085">
-            <v>15310102</v>
+            <v>15311003</v>
           </cell>
         </row>
         <row r="1086">
           <cell r="C1086">
-            <v>15310103</v>
+            <v>15311004</v>
           </cell>
         </row>
         <row r="1087">
           <cell r="C1087">
-            <v>15310104</v>
+            <v>15311005</v>
           </cell>
         </row>
         <row r="1088">
           <cell r="C1088">
-            <v>15310111</v>
-          </cell>
-          <cell r="S1088">
-            <v>69000005</v>
+            <v>15311006</v>
           </cell>
         </row>
         <row r="1089">
           <cell r="C1089">
-            <v>15310112</v>
+            <v>15311011</v>
           </cell>
         </row>
         <row r="1090">
           <cell r="C1090">
-            <v>15311001</v>
+            <v>15311012</v>
           </cell>
         </row>
         <row r="1091">
           <cell r="C1091">
-            <v>15311002</v>
+            <v>15311013</v>
+          </cell>
+          <cell r="S1091">
+            <v>69000006</v>
           </cell>
         </row>
         <row r="1092">
           <cell r="C1092">
-            <v>15311003</v>
+            <v>15401001</v>
           </cell>
         </row>
         <row r="1093">
           <cell r="C1093">
-            <v>15311004</v>
+            <v>15401002</v>
           </cell>
         </row>
         <row r="1094">
           <cell r="C1094">
-            <v>15311005</v>
+            <v>15401003</v>
           </cell>
         </row>
         <row r="1095">
           <cell r="C1095">
-            <v>15311006</v>
+            <v>15401004</v>
           </cell>
         </row>
         <row r="1096">
           <cell r="C1096">
-            <v>15311011</v>
+            <v>15401005</v>
           </cell>
         </row>
         <row r="1097">
           <cell r="C1097">
-            <v>15311012</v>
+            <v>15401006</v>
           </cell>
         </row>
         <row r="1098">
           <cell r="C1098">
-            <v>15311013</v>
-          </cell>
-          <cell r="S1098">
-            <v>69000006</v>
+            <v>15401007</v>
           </cell>
         </row>
         <row r="1099">
           <cell r="C1099">
-            <v>15401001</v>
+            <v>15402001</v>
           </cell>
         </row>
         <row r="1100">
           <cell r="C1100">
-            <v>15401002</v>
+            <v>15402002</v>
           </cell>
         </row>
         <row r="1101">
           <cell r="C1101">
-            <v>15401003</v>
+            <v>15402003</v>
           </cell>
         </row>
         <row r="1102">
           <cell r="C1102">
-            <v>15401004</v>
+            <v>15402004</v>
           </cell>
         </row>
         <row r="1103">
           <cell r="C1103">
-            <v>15401005</v>
+            <v>15402005</v>
           </cell>
         </row>
         <row r="1104">
           <cell r="C1104">
-            <v>15401006</v>
+            <v>15402006</v>
           </cell>
         </row>
         <row r="1105">
           <cell r="C1105">
-            <v>15401007</v>
+            <v>15403001</v>
           </cell>
         </row>
         <row r="1106">
           <cell r="C1106">
-            <v>15402001</v>
+            <v>15403002</v>
           </cell>
         </row>
         <row r="1107">
           <cell r="C1107">
-            <v>15402002</v>
+            <v>15403003</v>
           </cell>
         </row>
         <row r="1108">
           <cell r="C1108">
-            <v>15402003</v>
+            <v>15403004</v>
           </cell>
         </row>
         <row r="1109">
           <cell r="C1109">
-            <v>15402004</v>
+            <v>15403005</v>
           </cell>
         </row>
         <row r="1110">
           <cell r="C1110">
-            <v>15402005</v>
+            <v>15403006</v>
           </cell>
         </row>
         <row r="1111">
           <cell r="C1111">
-            <v>15402006</v>
+            <v>15404001</v>
           </cell>
         </row>
         <row r="1112">
           <cell r="C1112">
-            <v>15403001</v>
+            <v>15404002</v>
           </cell>
         </row>
         <row r="1113">
           <cell r="C1113">
-            <v>15403002</v>
+            <v>15404003</v>
           </cell>
         </row>
         <row r="1114">
           <cell r="C1114">
-            <v>15403003</v>
+            <v>15404004</v>
           </cell>
         </row>
         <row r="1115">
           <cell r="C1115">
-            <v>15403004</v>
+            <v>15404005</v>
           </cell>
         </row>
         <row r="1116">
           <cell r="C1116">
-            <v>15403005</v>
+            <v>15404006</v>
           </cell>
         </row>
         <row r="1117">
           <cell r="C1117">
-            <v>15403006</v>
+            <v>15405001</v>
           </cell>
         </row>
         <row r="1118">
           <cell r="C1118">
-            <v>15404001</v>
+            <v>15405002</v>
           </cell>
         </row>
         <row r="1119">
           <cell r="C1119">
-            <v>15404002</v>
+            <v>15405003</v>
           </cell>
         </row>
         <row r="1120">
           <cell r="C1120">
-            <v>15404003</v>
+            <v>15405004</v>
           </cell>
         </row>
         <row r="1121">
           <cell r="C1121">
-            <v>15404004</v>
+            <v>15405005</v>
           </cell>
         </row>
         <row r="1122">
           <cell r="C1122">
-            <v>15404005</v>
+            <v>15405006</v>
           </cell>
         </row>
         <row r="1123">
           <cell r="C1123">
-            <v>15404006</v>
+            <v>15406001</v>
           </cell>
         </row>
         <row r="1124">
           <cell r="C1124">
-            <v>15405001</v>
+            <v>15406002</v>
           </cell>
         </row>
         <row r="1125">
           <cell r="C1125">
-            <v>15405002</v>
+            <v>15406003</v>
+          </cell>
+          <cell r="S1125">
+            <v>69000007</v>
           </cell>
         </row>
         <row r="1126">
           <cell r="C1126">
-            <v>15405003</v>
+            <v>15407001</v>
           </cell>
         </row>
         <row r="1127">
           <cell r="C1127">
-            <v>15405004</v>
+            <v>15407002</v>
           </cell>
         </row>
         <row r="1128">
           <cell r="C1128">
-            <v>15405005</v>
+            <v>15407003</v>
           </cell>
         </row>
         <row r="1129">
           <cell r="C1129">
-            <v>15405006</v>
+            <v>15408001</v>
+          </cell>
+          <cell r="S1129">
+            <v>66001008</v>
           </cell>
         </row>
         <row r="1130">
           <cell r="C1130">
-            <v>15406001</v>
+            <v>15408002</v>
+          </cell>
+          <cell r="S1130">
+            <v>66001009</v>
           </cell>
         </row>
         <row r="1131">
           <cell r="C1131">
-            <v>15406002</v>
+            <v>15408003</v>
+          </cell>
+          <cell r="S1131">
+            <v>66001015</v>
           </cell>
         </row>
         <row r="1132">
           <cell r="C1132">
-            <v>15406003</v>
-          </cell>
-          <cell r="S1132">
-            <v>69000007</v>
+            <v>15409001</v>
           </cell>
         </row>
         <row r="1133">
           <cell r="C1133">
-            <v>15407001</v>
+            <v>15409002</v>
           </cell>
         </row>
         <row r="1134">
           <cell r="C1134">
-            <v>15407002</v>
+            <v>15410001</v>
           </cell>
         </row>
         <row r="1135">
           <cell r="C1135">
-            <v>15407003</v>
+            <v>15410002</v>
           </cell>
         </row>
         <row r="1136">
           <cell r="C1136">
-            <v>15408001</v>
-          </cell>
-          <cell r="S1136">
-            <v>66001008</v>
+            <v>15410003</v>
           </cell>
         </row>
         <row r="1137">
           <cell r="C1137">
-            <v>15408002</v>
-          </cell>
-          <cell r="S1137">
-            <v>66001009</v>
+            <v>15410004</v>
           </cell>
         </row>
         <row r="1138">
           <cell r="C1138">
-            <v>15408003</v>
+            <v>15410011</v>
           </cell>
           <cell r="S1138">
-            <v>66001015</v>
+            <v>69000013</v>
           </cell>
         </row>
         <row r="1139">
           <cell r="C1139">
-            <v>15409001</v>
+            <v>15410012</v>
           </cell>
         </row>
         <row r="1140">
           <cell r="C1140">
-            <v>15409002</v>
+            <v>15410101</v>
           </cell>
         </row>
         <row r="1141">
           <cell r="C1141">
-            <v>15410001</v>
+            <v>15410102</v>
           </cell>
         </row>
         <row r="1142">
           <cell r="C1142">
-            <v>15410002</v>
+            <v>15410103</v>
           </cell>
         </row>
         <row r="1143">
           <cell r="C1143">
-            <v>15410003</v>
+            <v>15410104</v>
           </cell>
         </row>
         <row r="1144">
           <cell r="C1144">
-            <v>15410004</v>
+            <v>15410111</v>
           </cell>
         </row>
         <row r="1145">
           <cell r="C1145">
-            <v>15410011</v>
+            <v>15410112</v>
           </cell>
           <cell r="S1145">
-            <v>69000013</v>
+            <v>69000009</v>
           </cell>
         </row>
         <row r="1146">
           <cell r="C1146">
-            <v>15410012</v>
+            <v>15411001</v>
           </cell>
         </row>
         <row r="1147">
           <cell r="C1147">
-            <v>15410101</v>
+            <v>15411002</v>
           </cell>
         </row>
         <row r="1148">
           <cell r="C1148">
-            <v>15410102</v>
+            <v>15411003</v>
           </cell>
         </row>
         <row r="1149">
           <cell r="C1149">
-            <v>15410103</v>
+            <v>15411004</v>
           </cell>
         </row>
         <row r="1150">
           <cell r="C1150">
-            <v>15410104</v>
+            <v>15411005</v>
           </cell>
         </row>
         <row r="1151">
           <cell r="C1151">
-            <v>15410111</v>
+            <v>15411006</v>
           </cell>
         </row>
         <row r="1152">
           <cell r="C1152">
-            <v>15410112</v>
+            <v>15411011</v>
           </cell>
           <cell r="S1152">
-            <v>69000009</v>
+            <v>69000010</v>
           </cell>
         </row>
         <row r="1153">
           <cell r="C1153">
-            <v>15411001</v>
+            <v>15411012</v>
           </cell>
         </row>
         <row r="1154">
           <cell r="C1154">
-            <v>15411002</v>
+            <v>15411013</v>
           </cell>
         </row>
         <row r="1155">
           <cell r="C1155">
-            <v>15411003</v>
+            <v>15501001</v>
           </cell>
         </row>
         <row r="1156">
           <cell r="C1156">
-            <v>15411004</v>
+            <v>15501002</v>
           </cell>
         </row>
         <row r="1157">
           <cell r="C1157">
-            <v>15411005</v>
+            <v>15501003</v>
           </cell>
         </row>
         <row r="1158">
           <cell r="C1158">
-            <v>15411006</v>
+            <v>15501004</v>
           </cell>
         </row>
         <row r="1159">
           <cell r="C1159">
-            <v>15411011</v>
-          </cell>
-          <cell r="S1159">
-            <v>69000010</v>
+            <v>15501005</v>
           </cell>
         </row>
         <row r="1160">
           <cell r="C1160">
-            <v>15411012</v>
+            <v>15501006</v>
           </cell>
         </row>
         <row r="1161">
           <cell r="C1161">
-            <v>15411013</v>
+            <v>15502001</v>
           </cell>
         </row>
         <row r="1162">
           <cell r="C1162">
-            <v>15501001</v>
+            <v>15502002</v>
           </cell>
         </row>
         <row r="1163">
           <cell r="C1163">
-            <v>15501002</v>
+            <v>15502003</v>
           </cell>
         </row>
         <row r="1164">
           <cell r="C1164">
-            <v>15501003</v>
+            <v>15502004</v>
           </cell>
         </row>
         <row r="1165">
           <cell r="C1165">
-            <v>15501004</v>
+            <v>15502005</v>
           </cell>
         </row>
         <row r="1166">
           <cell r="C1166">
-            <v>15501005</v>
+            <v>15502006</v>
           </cell>
         </row>
         <row r="1167">
           <cell r="C1167">
-            <v>15501006</v>
+            <v>15503001</v>
           </cell>
         </row>
         <row r="1168">
           <cell r="C1168">
-            <v>15502001</v>
+            <v>15503002</v>
           </cell>
         </row>
         <row r="1169">
           <cell r="C1169">
-            <v>15502002</v>
+            <v>15503003</v>
           </cell>
         </row>
         <row r="1170">
           <cell r="C1170">
-            <v>15502003</v>
+            <v>15503004</v>
           </cell>
         </row>
         <row r="1171">
           <cell r="C1171">
-            <v>15502004</v>
+            <v>15503005</v>
           </cell>
         </row>
         <row r="1172">
           <cell r="C1172">
-            <v>15502005</v>
+            <v>15503006</v>
           </cell>
         </row>
         <row r="1173">
           <cell r="C1173">
-            <v>15502006</v>
+            <v>15503007</v>
           </cell>
         </row>
         <row r="1174">
           <cell r="C1174">
-            <v>15503001</v>
+            <v>15504001</v>
           </cell>
         </row>
         <row r="1175">
           <cell r="C1175">
-            <v>15503002</v>
+            <v>15504002</v>
           </cell>
         </row>
         <row r="1176">
           <cell r="C1176">
-            <v>15503003</v>
+            <v>15504003</v>
           </cell>
         </row>
         <row r="1177">
           <cell r="C1177">
-            <v>15503004</v>
+            <v>15504004</v>
           </cell>
         </row>
         <row r="1178">
           <cell r="C1178">
-            <v>15503005</v>
+            <v>15504005</v>
           </cell>
         </row>
         <row r="1179">
           <cell r="C1179">
-            <v>15503006</v>
+            <v>15504006</v>
           </cell>
         </row>
         <row r="1180">
           <cell r="C1180">
-            <v>15503007</v>
+            <v>15505001</v>
           </cell>
         </row>
         <row r="1181">
           <cell r="C1181">
-            <v>15504001</v>
+            <v>15505002</v>
           </cell>
         </row>
         <row r="1182">
           <cell r="C1182">
-            <v>15504002</v>
+            <v>15505003</v>
           </cell>
         </row>
         <row r="1183">
           <cell r="C1183">
-            <v>15504003</v>
+            <v>15505004</v>
           </cell>
         </row>
         <row r="1184">
           <cell r="C1184">
-            <v>15504004</v>
+            <v>15505005</v>
           </cell>
         </row>
         <row r="1185">
           <cell r="C1185">
-            <v>15504005</v>
+            <v>15505006</v>
           </cell>
         </row>
         <row r="1186">
           <cell r="C1186">
-            <v>15504006</v>
+            <v>15506001</v>
           </cell>
         </row>
         <row r="1187">
           <cell r="C1187">
-            <v>15505001</v>
+            <v>15506002</v>
           </cell>
         </row>
         <row r="1188">
           <cell r="C1188">
-            <v>15505002</v>
+            <v>15506003</v>
           </cell>
         </row>
         <row r="1189">
           <cell r="C1189">
-            <v>15505003</v>
+            <v>15507001</v>
           </cell>
         </row>
         <row r="1190">
           <cell r="C1190">
-            <v>15505004</v>
+            <v>15507002</v>
           </cell>
         </row>
         <row r="1191">
           <cell r="C1191">
-            <v>15505005</v>
+            <v>15507003</v>
           </cell>
         </row>
         <row r="1192">
           <cell r="C1192">
-            <v>15505006</v>
+            <v>15508001</v>
+          </cell>
+          <cell r="S1192">
+            <v>66001010</v>
           </cell>
         </row>
         <row r="1193">
           <cell r="C1193">
-            <v>15506001</v>
+            <v>15508002</v>
+          </cell>
+          <cell r="S1193">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1194">
           <cell r="C1194">
-            <v>15506002</v>
+            <v>15508003</v>
+          </cell>
+          <cell r="S1194">
+            <v>66001016</v>
           </cell>
         </row>
         <row r="1195">
           <cell r="C1195">
-            <v>15506003</v>
+            <v>15509001</v>
           </cell>
         </row>
         <row r="1196">
           <cell r="C1196">
-            <v>15507001</v>
+            <v>15509002</v>
           </cell>
         </row>
         <row r="1197">
           <cell r="C1197">
-            <v>15507002</v>
+            <v>15509003</v>
           </cell>
         </row>
         <row r="1198">
           <cell r="C1198">
-            <v>15507003</v>
+            <v>15510001</v>
           </cell>
         </row>
         <row r="1199">
           <cell r="C1199">
-            <v>15508001</v>
-          </cell>
-          <cell r="S1199">
-            <v>66001010</v>
+            <v>15510002</v>
           </cell>
         </row>
         <row r="1200">
           <cell r="C1200">
-            <v>15508002</v>
-          </cell>
-          <cell r="S1200">
-            <v>66001011</v>
+            <v>15510003</v>
           </cell>
         </row>
         <row r="1201">
           <cell r="C1201">
-            <v>15508003</v>
-          </cell>
-          <cell r="S1201">
-            <v>66001016</v>
+            <v>15510004</v>
           </cell>
         </row>
         <row r="1202">
           <cell r="C1202">
-            <v>15509001</v>
+            <v>15510011</v>
           </cell>
         </row>
         <row r="1203">
           <cell r="C1203">
-            <v>15509002</v>
+            <v>15510012</v>
           </cell>
         </row>
         <row r="1204">
           <cell r="C1204">
-            <v>15509003</v>
+            <v>15510101</v>
           </cell>
         </row>
         <row r="1205">
           <cell r="C1205">
-            <v>15510001</v>
+            <v>15510102</v>
           </cell>
         </row>
         <row r="1206">
           <cell r="C1206">
-            <v>15510002</v>
+            <v>15510103</v>
           </cell>
         </row>
         <row r="1207">
           <cell r="C1207">
-            <v>15510003</v>
+            <v>15510104</v>
           </cell>
         </row>
         <row r="1208">
           <cell r="C1208">
-            <v>15510004</v>
+            <v>15510121</v>
+          </cell>
+          <cell r="S1208">
+            <v>69000011</v>
           </cell>
         </row>
         <row r="1209">
           <cell r="C1209">
-            <v>15510011</v>
+            <v>15510122</v>
           </cell>
         </row>
         <row r="1210">
           <cell r="C1210">
-            <v>15510012</v>
+            <v>15511001</v>
           </cell>
         </row>
         <row r="1211">
           <cell r="C1211">
-            <v>15510101</v>
+            <v>15511002</v>
           </cell>
         </row>
         <row r="1212">
           <cell r="C1212">
-            <v>15510102</v>
+            <v>15511003</v>
           </cell>
         </row>
         <row r="1213">
           <cell r="C1213">
-            <v>15510103</v>
+            <v>15511004</v>
           </cell>
         </row>
         <row r="1214">
           <cell r="C1214">
-            <v>15510104</v>
+            <v>15511005</v>
           </cell>
         </row>
         <row r="1215">
           <cell r="C1215">
-            <v>15510121</v>
-          </cell>
-          <cell r="S1215">
-            <v>69000011</v>
+            <v>15511006</v>
           </cell>
         </row>
         <row r="1216">
           <cell r="C1216">
-            <v>15510122</v>
+            <v>15511011</v>
+          </cell>
+          <cell r="S1216">
+            <v>69000012</v>
           </cell>
         </row>
         <row r="1217">
           <cell r="C1217">
-            <v>15511001</v>
+            <v>15511012</v>
           </cell>
         </row>
         <row r="1218">
           <cell r="C1218">
-            <v>15511002</v>
+            <v>15511013</v>
           </cell>
         </row>
         <row r="1219">
           <cell r="C1219">
-            <v>15511003</v>
+            <v>15601001</v>
           </cell>
         </row>
         <row r="1220">
           <cell r="C1220">
-            <v>15511004</v>
+            <v>15601002</v>
           </cell>
         </row>
         <row r="1221">
           <cell r="C1221">
-            <v>15511005</v>
+            <v>15601003</v>
           </cell>
         </row>
         <row r="1222">
           <cell r="C1222">
-            <v>15511006</v>
+            <v>15602001</v>
           </cell>
         </row>
         <row r="1223">
           <cell r="C1223">
-            <v>15511011</v>
-          </cell>
-          <cell r="S1223">
-            <v>69000012</v>
+            <v>15602002</v>
           </cell>
         </row>
         <row r="1224">
           <cell r="C1224">
-            <v>15511012</v>
+            <v>15602003</v>
           </cell>
         </row>
         <row r="1225">
           <cell r="C1225">
-            <v>15511013</v>
+            <v>15603001</v>
           </cell>
         </row>
         <row r="1226">
           <cell r="C1226">
-            <v>15601001</v>
+            <v>15603002</v>
           </cell>
         </row>
         <row r="1227">
           <cell r="C1227">
-            <v>15601002</v>
+            <v>15603003</v>
           </cell>
         </row>
         <row r="1228">
           <cell r="C1228">
-            <v>15601003</v>
+            <v>15604001</v>
           </cell>
         </row>
         <row r="1229">
           <cell r="C1229">
-            <v>15602001</v>
+            <v>15604002</v>
           </cell>
         </row>
         <row r="1230">
           <cell r="C1230">
-            <v>15602002</v>
+            <v>15604003</v>
           </cell>
         </row>
         <row r="1231">
           <cell r="C1231">
-            <v>15602003</v>
+            <v>15605001</v>
           </cell>
         </row>
         <row r="1232">
           <cell r="C1232">
-            <v>15603001</v>
+            <v>15605002</v>
           </cell>
         </row>
         <row r="1233">
           <cell r="C1233">
-            <v>15603002</v>
+            <v>15605003</v>
           </cell>
         </row>
         <row r="1234">
           <cell r="C1234">
-            <v>15603003</v>
+            <v>15606001</v>
           </cell>
         </row>
         <row r="1235">
           <cell r="C1235">
-            <v>15604001</v>
+            <v>15607001</v>
           </cell>
         </row>
         <row r="1236">
           <cell r="C1236">
-            <v>15604002</v>
+            <v>15608001</v>
+          </cell>
+          <cell r="S1236">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1237">
           <cell r="C1237">
-            <v>15604003</v>
+            <v>15609001</v>
           </cell>
         </row>
         <row r="1238">
           <cell r="C1238">
-            <v>15605001</v>
+            <v>15610001</v>
           </cell>
         </row>
         <row r="1239">
           <cell r="C1239">
-            <v>15605002</v>
+            <v>15610002</v>
           </cell>
         </row>
         <row r="1240">
           <cell r="C1240">
-            <v>15605003</v>
+            <v>15610101</v>
           </cell>
         </row>
         <row r="1241">
           <cell r="C1241">
-            <v>15606001</v>
+            <v>15610102</v>
           </cell>
         </row>
         <row r="1242">
           <cell r="C1242">
-            <v>15607001</v>
+            <v>15611001</v>
           </cell>
         </row>
         <row r="1243">
           <cell r="C1243">
-            <v>15608001</v>
-          </cell>
-          <cell r="S1243">
-            <v>66001011</v>
+            <v>15611002</v>
           </cell>
         </row>
         <row r="1244">
           <cell r="C1244">
-            <v>15609001</v>
+            <v>15611003</v>
           </cell>
         </row>
         <row r="1245">
           <cell r="C1245">
-            <v>15610001</v>
+            <v>15701001</v>
           </cell>
         </row>
         <row r="1246">
           <cell r="C1246">
-            <v>15610002</v>
+            <v>15701002</v>
           </cell>
         </row>
         <row r="1247">
           <cell r="C1247">
-            <v>15610101</v>
+            <v>15701003</v>
           </cell>
         </row>
         <row r="1248">
           <cell r="C1248">
-            <v>15610102</v>
+            <v>15702001</v>
           </cell>
         </row>
         <row r="1249">
           <cell r="C1249">
-            <v>15611001</v>
+            <v>15702002</v>
           </cell>
         </row>
         <row r="1250">
           <cell r="C1250">
-            <v>15611002</v>
+            <v>15702003</v>
           </cell>
         </row>
         <row r="1251">
           <cell r="C1251">
-            <v>15611003</v>
+            <v>15703001</v>
           </cell>
         </row>
         <row r="1252">
           <cell r="C1252">
-            <v>15701001</v>
+            <v>15703002</v>
           </cell>
         </row>
         <row r="1253">
           <cell r="C1253">
-            <v>15701002</v>
+            <v>15703003</v>
           </cell>
         </row>
         <row r="1254">
           <cell r="C1254">
-            <v>15701003</v>
+            <v>15704001</v>
           </cell>
         </row>
         <row r="1255">
           <cell r="C1255">
-            <v>15702001</v>
+            <v>15704002</v>
           </cell>
         </row>
         <row r="1256">
           <cell r="C1256">
-            <v>15702002</v>
+            <v>15704003</v>
           </cell>
         </row>
         <row r="1257">
           <cell r="C1257">
-            <v>15702003</v>
+            <v>15705001</v>
           </cell>
         </row>
         <row r="1258">
           <cell r="C1258">
-            <v>15703001</v>
+            <v>15705002</v>
           </cell>
         </row>
         <row r="1259">
           <cell r="C1259">
-            <v>15703002</v>
+            <v>15705003</v>
           </cell>
         </row>
         <row r="1260">
           <cell r="C1260">
-            <v>15703003</v>
+            <v>15706001</v>
           </cell>
         </row>
         <row r="1261">
           <cell r="C1261">
-            <v>15704001</v>
+            <v>15707001</v>
           </cell>
         </row>
         <row r="1262">
           <cell r="C1262">
-            <v>15704002</v>
+            <v>15708001</v>
+          </cell>
+          <cell r="S1262">
+            <v>66001011</v>
           </cell>
         </row>
         <row r="1263">
           <cell r="C1263">
-            <v>15704003</v>
+            <v>15709001</v>
           </cell>
         </row>
         <row r="1264">
           <cell r="C1264">
-            <v>15705001</v>
+            <v>15710001</v>
           </cell>
         </row>
         <row r="1265">
           <cell r="C1265">
-            <v>15705002</v>
+            <v>15710002</v>
           </cell>
         </row>
         <row r="1266">
           <cell r="C1266">
-            <v>15705003</v>
+            <v>15710101</v>
           </cell>
         </row>
         <row r="1267">
           <cell r="C1267">
-            <v>15706001</v>
+            <v>15710102</v>
           </cell>
         </row>
         <row r="1268">
           <cell r="C1268">
-            <v>15707001</v>
+            <v>15711001</v>
           </cell>
         </row>
         <row r="1269">
           <cell r="C1269">
-            <v>15708001</v>
-          </cell>
-          <cell r="S1269">
-            <v>66001011</v>
+            <v>15711002</v>
           </cell>
         </row>
         <row r="1270">
           <cell r="C1270">
-            <v>15709001</v>
+            <v>15711003</v>
           </cell>
         </row>
         <row r="1271">
           <cell r="C1271">
-            <v>15710001</v>
+            <v>16000101</v>
           </cell>
         </row>
         <row r="1272">
           <cell r="C1272">
-            <v>15710002</v>
+            <v>16000102</v>
           </cell>
         </row>
         <row r="1273">
           <cell r="C1273">
-            <v>15710101</v>
+            <v>16000103</v>
           </cell>
         </row>
         <row r="1274">
           <cell r="C1274">
-            <v>15710102</v>
+            <v>16000104</v>
           </cell>
         </row>
         <row r="1275">
           <cell r="C1275">
-            <v>15711001</v>
+      